--- a/画面設計書/画面設計書_3_1_試験結果.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>システム名</t>
   </si>
@@ -349,13 +349,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>試験ID</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>解答</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -367,13 +360,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>テスト結果</t>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DBから持ってくる</t>
     <rPh sb="4" eb="5">
       <t>モ</t>
@@ -381,34 +367,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>解答</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>問題</t>
     <rPh sb="0" eb="2">
       <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題文
-解答</t>
-    <rPh sb="0" eb="3">
-      <t>モンダイブン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>試験選択ボタン</t>
-    <rPh sb="0" eb="4">
-      <t>シケンセンタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -427,6 +388,44 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題文</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>試験選択へ戻るボタン</t>
+    <rPh sb="0" eb="4">
+      <t>シケンセンタク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最高点数</t>
+    <rPh sb="0" eb="4">
+      <t>サイコウテンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体で何点か</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナンテン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1027,6 +1026,105 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,104 +1143,224 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -1194,225 +1412,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1941,7 +1940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1951,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BC37" sqref="BC37"/>
     </sheetView>
   </sheetViews>
@@ -1965,102 +1964,102 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="30" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="30"/>
-      <c r="BG1" s="30"/>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="30"/>
-      <c r="BJ1" s="30"/>
-      <c r="BK1" s="30"/>
-      <c r="BL1" s="31" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="31"/>
-      <c r="BO1" s="31"/>
-      <c r="BP1" s="32"/>
-      <c r="BQ1" s="32"/>
-      <c r="BR1" s="32"/>
-      <c r="BS1" s="32"/>
-      <c r="BT1" s="32"/>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BW1" s="32"/>
-      <c r="BX1" s="33" t="s">
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="45"/>
+      <c r="BQ1" s="45"/>
+      <c r="BR1" s="45"/>
+      <c r="BS1" s="45"/>
+      <c r="BT1" s="45"/>
+      <c r="BU1" s="45"/>
+      <c r="BV1" s="45"/>
+      <c r="BW1" s="45"/>
+      <c r="BX1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="33"/>
-      <c r="BZ1" s="33"/>
-      <c r="CA1" s="33"/>
-      <c r="CB1" s="20"/>
-      <c r="CC1" s="20"/>
-      <c r="CD1" s="20"/>
-      <c r="CE1" s="20"/>
-      <c r="CF1" s="20"/>
-      <c r="CG1" s="20"/>
-      <c r="CH1" s="20"/>
-      <c r="CI1" s="20"/>
+      <c r="BY1" s="46"/>
+      <c r="BZ1" s="46"/>
+      <c r="CA1" s="46"/>
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="33"/>
+      <c r="CE1" s="33"/>
+      <c r="CF1" s="33"/>
+      <c r="CG1" s="33"/>
+      <c r="CH1" s="33"/>
+      <c r="CI1" s="33"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -3001,102 +3000,102 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="23" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="23"/>
-      <c r="BK2" s="23"/>
-      <c r="BL2" s="24" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="36"/>
+      <c r="BK2" s="36"/>
+      <c r="BL2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
-      <c r="BR2" s="25"/>
-      <c r="BS2" s="25"/>
-      <c r="BT2" s="25"/>
-      <c r="BU2" s="25"/>
-      <c r="BV2" s="25"/>
-      <c r="BW2" s="25"/>
-      <c r="BX2" s="26" t="s">
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="38"/>
+      <c r="BT2" s="38"/>
+      <c r="BU2" s="38"/>
+      <c r="BV2" s="38"/>
+      <c r="BW2" s="38"/>
+      <c r="BX2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="26"/>
-      <c r="BZ2" s="26"/>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="27"/>
-      <c r="CC2" s="27"/>
-      <c r="CD2" s="27"/>
-      <c r="CE2" s="27"/>
-      <c r="CF2" s="27"/>
-      <c r="CG2" s="27"/>
-      <c r="CH2" s="27"/>
-      <c r="CI2" s="27"/>
+      <c r="BY2" s="39"/>
+      <c r="BZ2" s="39"/>
+      <c r="CA2" s="39"/>
+      <c r="CB2" s="40"/>
+      <c r="CC2" s="40"/>
+      <c r="CD2" s="40"/>
+      <c r="CE2" s="40"/>
+      <c r="CF2" s="40"/>
+      <c r="CG2" s="40"/>
+      <c r="CH2" s="40"/>
+      <c r="CI2" s="40"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -4124,196 +4123,196 @@
       <c r="CI3" s="10"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="16" t="s">
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="16"/>
-      <c r="BF4" s="16"/>
-      <c r="BG4" s="16"/>
-      <c r="BH4" s="16"/>
-      <c r="BI4" s="16"/>
-      <c r="BJ4" s="16"/>
-      <c r="BK4" s="16"/>
-      <c r="BL4" s="16"/>
-      <c r="BM4" s="16"/>
-      <c r="BN4" s="16"/>
-      <c r="BO4" s="16"/>
-      <c r="BP4" s="16"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="16"/>
-      <c r="BS4" s="16"/>
-      <c r="BT4" s="16"/>
-      <c r="BU4" s="16"/>
-      <c r="BV4" s="16"/>
-      <c r="BW4" s="16"/>
-      <c r="BX4" s="16"/>
-      <c r="BY4" s="16"/>
-      <c r="BZ4" s="16"/>
-      <c r="CA4" s="16"/>
-      <c r="CB4" s="16"/>
-      <c r="CC4" s="16"/>
-      <c r="CD4" s="16"/>
-      <c r="CE4" s="16"/>
-      <c r="CF4" s="16"/>
-      <c r="CG4" s="16"/>
-      <c r="CH4" s="16"/>
-      <c r="CI4" s="16"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="49"/>
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="49"/>
+      <c r="BT4" s="49"/>
+      <c r="BU4" s="49"/>
+      <c r="BV4" s="49"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="49"/>
+      <c r="BY4" s="49"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="49"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="49"/>
+      <c r="CD4" s="49"/>
+      <c r="CE4" s="49"/>
+      <c r="CF4" s="49"/>
+      <c r="CG4" s="49"/>
+      <c r="CH4" s="49"/>
+      <c r="CI4" s="49"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1">
-      <c r="B5" s="17">
+      <c r="B5" s="50">
         <v>1</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="18"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="19" t="s">
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="19"/>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="19"/>
-      <c r="BJ5" s="19"/>
-      <c r="BK5" s="19"/>
-      <c r="BL5" s="19"/>
-      <c r="BM5" s="19"/>
-      <c r="BN5" s="19"/>
-      <c r="BO5" s="19"/>
-      <c r="BP5" s="19"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="19"/>
-      <c r="BS5" s="19"/>
-      <c r="BT5" s="19"/>
-      <c r="BU5" s="19"/>
-      <c r="BV5" s="19"/>
-      <c r="BW5" s="19"/>
-      <c r="BX5" s="19"/>
-      <c r="BY5" s="19"/>
-      <c r="BZ5" s="19"/>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="19"/>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="19"/>
-      <c r="CE5" s="19"/>
-      <c r="CF5" s="19"/>
-      <c r="CG5" s="19"/>
-      <c r="CH5" s="19"/>
-      <c r="CI5" s="19"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="52"/>
+      <c r="BI5" s="52"/>
+      <c r="BJ5" s="52"/>
+      <c r="BK5" s="52"/>
+      <c r="BL5" s="52"/>
+      <c r="BM5" s="52"/>
+      <c r="BN5" s="52"/>
+      <c r="BO5" s="52"/>
+      <c r="BP5" s="52"/>
+      <c r="BQ5" s="52"/>
+      <c r="BR5" s="52"/>
+      <c r="BS5" s="52"/>
+      <c r="BT5" s="52"/>
+      <c r="BU5" s="52"/>
+      <c r="BV5" s="52"/>
+      <c r="BW5" s="52"/>
+      <c r="BX5" s="52"/>
+      <c r="BY5" s="52"/>
+      <c r="BZ5" s="52"/>
+      <c r="CA5" s="52"/>
+      <c r="CB5" s="52"/>
+      <c r="CC5" s="52"/>
+      <c r="CD5" s="52"/>
+      <c r="CE5" s="52"/>
+      <c r="CF5" s="52"/>
+      <c r="CG5" s="52"/>
+      <c r="CH5" s="52"/>
+      <c r="CI5" s="52"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
       <c r="B6" s="4"/>
@@ -4408,86 +4407,86 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="41"/>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="41"/>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="41"/>
-      <c r="BK7" s="41"/>
-      <c r="BL7" s="41"/>
-      <c r="BM7" s="41"/>
-      <c r="BN7" s="41"/>
-      <c r="BO7" s="41"/>
-      <c r="BP7" s="41"/>
-      <c r="BQ7" s="41"/>
-      <c r="BR7" s="41"/>
-      <c r="BS7" s="41"/>
-      <c r="BT7" s="41"/>
-      <c r="BU7" s="41"/>
-      <c r="BV7" s="41"/>
-      <c r="BW7" s="41"/>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="41"/>
-      <c r="BZ7" s="41"/>
-      <c r="CA7" s="41"/>
-      <c r="CB7" s="41"/>
-      <c r="CC7" s="41"/>
-      <c r="CD7" s="41"/>
-      <c r="CE7" s="41"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="21"/>
+      <c r="BW7" s="21"/>
+      <c r="BX7" s="21"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
       <c r="CF7" s="6"/>
       <c r="CG7" s="6"/>
       <c r="CH7" s="6"/>
@@ -4498,84 +4497,84 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
-      <c r="AL8" s="41"/>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="41"/>
-      <c r="AU8" s="41"/>
-      <c r="AV8" s="41"/>
-      <c r="AW8" s="41"/>
-      <c r="AX8" s="41"/>
-      <c r="AY8" s="41"/>
-      <c r="AZ8" s="41"/>
-      <c r="BA8" s="41"/>
-      <c r="BB8" s="41"/>
-      <c r="BC8" s="41"/>
-      <c r="BD8" s="41"/>
-      <c r="BE8" s="41"/>
-      <c r="BF8" s="41"/>
-      <c r="BG8" s="41"/>
-      <c r="BH8" s="41"/>
-      <c r="BI8" s="41"/>
-      <c r="BJ8" s="41"/>
-      <c r="BK8" s="41"/>
-      <c r="BL8" s="41"/>
-      <c r="BM8" s="41"/>
-      <c r="BN8" s="41"/>
-      <c r="BO8" s="41"/>
-      <c r="BP8" s="41"/>
-      <c r="BQ8" s="41"/>
-      <c r="BR8" s="41"/>
-      <c r="BS8" s="41"/>
-      <c r="BT8" s="41"/>
-      <c r="BU8" s="41"/>
-      <c r="BV8" s="41"/>
-      <c r="BW8" s="41"/>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="41"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="41"/>
-      <c r="CD8" s="41"/>
-      <c r="CE8" s="41"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="21"/>
+      <c r="BM8" s="21"/>
+      <c r="BN8" s="21"/>
+      <c r="BO8" s="21"/>
+      <c r="BP8" s="21"/>
+      <c r="BQ8" s="21"/>
+      <c r="BR8" s="21"/>
+      <c r="BS8" s="21"/>
+      <c r="BT8" s="21"/>
+      <c r="BU8" s="21"/>
+      <c r="BV8" s="21"/>
+      <c r="BW8" s="21"/>
+      <c r="BX8" s="21"/>
+      <c r="BY8" s="21"/>
+      <c r="BZ8" s="21"/>
+      <c r="CA8" s="21"/>
+      <c r="CB8" s="21"/>
+      <c r="CC8" s="21"/>
+      <c r="CD8" s="21"/>
+      <c r="CE8" s="21"/>
       <c r="CF8" s="6"/>
       <c r="CG8" s="6"/>
       <c r="CH8" s="6"/>
@@ -4692,50 +4691,50 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="42" t="s">
+      <c r="X10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="43"/>
-      <c r="AK10" s="43"/>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="43"/>
-      <c r="AN10" s="43"/>
-      <c r="AO10" s="43"/>
-      <c r="AP10" s="43"/>
-      <c r="AQ10" s="43"/>
-      <c r="AR10" s="43"/>
-      <c r="AS10" s="43"/>
-      <c r="AT10" s="43"/>
-      <c r="AU10" s="43"/>
-      <c r="AV10" s="43"/>
-      <c r="AW10" s="43"/>
-      <c r="AX10" s="43"/>
-      <c r="AY10" s="43"/>
-      <c r="AZ10" s="43"/>
-      <c r="BA10" s="43"/>
-      <c r="BB10" s="43"/>
-      <c r="BC10" s="43"/>
-      <c r="BD10" s="43"/>
-      <c r="BE10" s="43"/>
-      <c r="BF10" s="43"/>
-      <c r="BG10" s="43"/>
-      <c r="BH10" s="43"/>
-      <c r="BI10" s="43"/>
-      <c r="BJ10" s="43"/>
-      <c r="BK10" s="43"/>
-      <c r="BL10" s="43"/>
-      <c r="BM10" s="44"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="23"/>
+      <c r="AR10" s="23"/>
+      <c r="AS10" s="23"/>
+      <c r="AT10" s="23"/>
+      <c r="AU10" s="23"/>
+      <c r="AV10" s="23"/>
+      <c r="AW10" s="23"/>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="23"/>
+      <c r="BA10" s="23"/>
+      <c r="BB10" s="23"/>
+      <c r="BC10" s="23"/>
+      <c r="BD10" s="23"/>
+      <c r="BE10" s="23"/>
+      <c r="BF10" s="23"/>
+      <c r="BG10" s="23"/>
+      <c r="BH10" s="23"/>
+      <c r="BI10" s="23"/>
+      <c r="BJ10" s="23"/>
+      <c r="BK10" s="23"/>
+      <c r="BL10" s="23"/>
+      <c r="BM10" s="24"/>
       <c r="BN10" s="6"/>
       <c r="BO10" s="6"/>
       <c r="BP10" s="6"/>
@@ -4782,48 +4781,48 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="46"/>
-      <c r="AM11" s="46"/>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46"/>
-      <c r="AR11" s="46"/>
-      <c r="AS11" s="46"/>
-      <c r="AT11" s="46"/>
-      <c r="AU11" s="46"/>
-      <c r="AV11" s="46"/>
-      <c r="AW11" s="46"/>
-      <c r="AX11" s="46"/>
-      <c r="AY11" s="46"/>
-      <c r="AZ11" s="46"/>
-      <c r="BA11" s="46"/>
-      <c r="BB11" s="46"/>
-      <c r="BC11" s="46"/>
-      <c r="BD11" s="46"/>
-      <c r="BE11" s="46"/>
-      <c r="BF11" s="46"/>
-      <c r="BG11" s="46"/>
-      <c r="BH11" s="46"/>
-      <c r="BI11" s="46"/>
-      <c r="BJ11" s="46"/>
-      <c r="BK11" s="46"/>
-      <c r="BL11" s="46"/>
-      <c r="BM11" s="47"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26"/>
+      <c r="AX11" s="26"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="26"/>
+      <c r="BB11" s="26"/>
+      <c r="BC11" s="26"/>
+      <c r="BD11" s="26"/>
+      <c r="BE11" s="26"/>
+      <c r="BF11" s="26"/>
+      <c r="BG11" s="26"/>
+      <c r="BH11" s="26"/>
+      <c r="BI11" s="26"/>
+      <c r="BJ11" s="26"/>
+      <c r="BK11" s="26"/>
+      <c r="BL11" s="26"/>
+      <c r="BM11" s="27"/>
       <c r="BN11" s="6"/>
       <c r="BO11" s="6"/>
       <c r="BP11" s="6"/>
@@ -4870,48 +4869,48 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
-      <c r="AP12" s="46"/>
-      <c r="AQ12" s="46"/>
-      <c r="AR12" s="46"/>
-      <c r="AS12" s="46"/>
-      <c r="AT12" s="46"/>
-      <c r="AU12" s="46"/>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
-      <c r="BB12" s="46"/>
-      <c r="BC12" s="46"/>
-      <c r="BD12" s="46"/>
-      <c r="BE12" s="46"/>
-      <c r="BF12" s="46"/>
-      <c r="BG12" s="46"/>
-      <c r="BH12" s="46"/>
-      <c r="BI12" s="46"/>
-      <c r="BJ12" s="46"/>
-      <c r="BK12" s="46"/>
-      <c r="BL12" s="46"/>
-      <c r="BM12" s="47"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="26"/>
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="26"/>
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="26"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="26"/>
+      <c r="BG12" s="26"/>
+      <c r="BH12" s="26"/>
+      <c r="BI12" s="26"/>
+      <c r="BJ12" s="26"/>
+      <c r="BK12" s="26"/>
+      <c r="BL12" s="26"/>
+      <c r="BM12" s="27"/>
       <c r="BN12" s="6"/>
       <c r="BO12" s="6"/>
       <c r="BP12" s="6"/>
@@ -4958,48 +4957,48 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="49"/>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="49"/>
-      <c r="AX13" s="49"/>
-      <c r="AY13" s="49"/>
-      <c r="AZ13" s="49"/>
-      <c r="BA13" s="49"/>
-      <c r="BB13" s="49"/>
-      <c r="BC13" s="49"/>
-      <c r="BD13" s="49"/>
-      <c r="BE13" s="49"/>
-      <c r="BF13" s="49"/>
-      <c r="BG13" s="49"/>
-      <c r="BH13" s="49"/>
-      <c r="BI13" s="49"/>
-      <c r="BJ13" s="49"/>
-      <c r="BK13" s="49"/>
-      <c r="BL13" s="49"/>
-      <c r="BM13" s="50"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="29"/>
+      <c r="BE13" s="29"/>
+      <c r="BF13" s="29"/>
+      <c r="BG13" s="29"/>
+      <c r="BH13" s="29"/>
+      <c r="BI13" s="29"/>
+      <c r="BJ13" s="29"/>
+      <c r="BK13" s="29"/>
+      <c r="BL13" s="29"/>
+      <c r="BM13" s="30"/>
       <c r="BN13" s="6"/>
       <c r="BO13" s="6"/>
       <c r="BP13" s="6"/>
@@ -5116,86 +5115,86 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="51"/>
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="51"/>
-      <c r="BI15" s="51"/>
-      <c r="BJ15" s="51"/>
-      <c r="BK15" s="51"/>
-      <c r="BL15" s="51"/>
-      <c r="BM15" s="51"/>
-      <c r="BN15" s="51"/>
-      <c r="BO15" s="51"/>
-      <c r="BP15" s="51"/>
-      <c r="BQ15" s="51"/>
-      <c r="BR15" s="51"/>
-      <c r="BS15" s="51"/>
-      <c r="BT15" s="51"/>
-      <c r="BU15" s="51"/>
-      <c r="BV15" s="51"/>
-      <c r="BW15" s="51"/>
-      <c r="BX15" s="51"/>
-      <c r="BY15" s="51"/>
-      <c r="BZ15" s="51"/>
-      <c r="CA15" s="51"/>
-      <c r="CB15" s="51"/>
-      <c r="CC15" s="51"/>
-      <c r="CD15" s="51"/>
-      <c r="CE15" s="51"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="31"/>
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="31"/>
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="31"/>
+      <c r="BL15" s="31"/>
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="31"/>
+      <c r="BO15" s="31"/>
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="31"/>
+      <c r="BR15" s="31"/>
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="31"/>
+      <c r="BU15" s="31"/>
+      <c r="BV15" s="31"/>
+      <c r="BW15" s="31"/>
+      <c r="BX15" s="31"/>
+      <c r="BY15" s="31"/>
+      <c r="BZ15" s="31"/>
+      <c r="CA15" s="31"/>
+      <c r="CB15" s="31"/>
+      <c r="CC15" s="31"/>
+      <c r="CD15" s="31"/>
+      <c r="CE15" s="31"/>
       <c r="CF15" s="6"/>
       <c r="CG15" s="6"/>
       <c r="CH15" s="6"/>
@@ -5206,84 +5205,84 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="51"/>
-      <c r="BA16" s="51"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="51"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="51"/>
-      <c r="BF16" s="51"/>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
-      <c r="BJ16" s="51"/>
-      <c r="BK16" s="51"/>
-      <c r="BL16" s="51"/>
-      <c r="BM16" s="51"/>
-      <c r="BN16" s="51"/>
-      <c r="BO16" s="51"/>
-      <c r="BP16" s="51"/>
-      <c r="BQ16" s="51"/>
-      <c r="BR16" s="51"/>
-      <c r="BS16" s="51"/>
-      <c r="BT16" s="51"/>
-      <c r="BU16" s="51"/>
-      <c r="BV16" s="51"/>
-      <c r="BW16" s="51"/>
-      <c r="BX16" s="51"/>
-      <c r="BY16" s="51"/>
-      <c r="BZ16" s="51"/>
-      <c r="CA16" s="51"/>
-      <c r="CB16" s="51"/>
-      <c r="CC16" s="51"/>
-      <c r="CD16" s="51"/>
-      <c r="CE16" s="51"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="31"/>
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="31"/>
+      <c r="AZ16" s="31"/>
+      <c r="BA16" s="31"/>
+      <c r="BB16" s="31"/>
+      <c r="BC16" s="31"/>
+      <c r="BD16" s="31"/>
+      <c r="BE16" s="31"/>
+      <c r="BF16" s="31"/>
+      <c r="BG16" s="31"/>
+      <c r="BH16" s="31"/>
+      <c r="BI16" s="31"/>
+      <c r="BJ16" s="31"/>
+      <c r="BK16" s="31"/>
+      <c r="BL16" s="31"/>
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="31"/>
+      <c r="BO16" s="31"/>
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="31"/>
+      <c r="BR16" s="31"/>
+      <c r="BS16" s="31"/>
+      <c r="BT16" s="31"/>
+      <c r="BU16" s="31"/>
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="31"/>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="31"/>
+      <c r="CA16" s="31"/>
+      <c r="CB16" s="31"/>
+      <c r="CC16" s="31"/>
+      <c r="CD16" s="31"/>
+      <c r="CE16" s="31"/>
       <c r="CF16" s="6"/>
       <c r="CG16" s="6"/>
       <c r="CH16" s="6"/>
@@ -5294,84 +5293,84 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="51"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="51"/>
-      <c r="AZ17" s="51"/>
-      <c r="BA17" s="51"/>
-      <c r="BB17" s="51"/>
-      <c r="BC17" s="51"/>
-      <c r="BD17" s="51"/>
-      <c r="BE17" s="51"/>
-      <c r="BF17" s="51"/>
-      <c r="BG17" s="51"/>
-      <c r="BH17" s="51"/>
-      <c r="BI17" s="51"/>
-      <c r="BJ17" s="51"/>
-      <c r="BK17" s="51"/>
-      <c r="BL17" s="51"/>
-      <c r="BM17" s="51"/>
-      <c r="BN17" s="51"/>
-      <c r="BO17" s="51"/>
-      <c r="BP17" s="51"/>
-      <c r="BQ17" s="51"/>
-      <c r="BR17" s="51"/>
-      <c r="BS17" s="51"/>
-      <c r="BT17" s="51"/>
-      <c r="BU17" s="51"/>
-      <c r="BV17" s="51"/>
-      <c r="BW17" s="51"/>
-      <c r="BX17" s="51"/>
-      <c r="BY17" s="51"/>
-      <c r="BZ17" s="51"/>
-      <c r="CA17" s="51"/>
-      <c r="CB17" s="51"/>
-      <c r="CC17" s="51"/>
-      <c r="CD17" s="51"/>
-      <c r="CE17" s="51"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
+      <c r="AW17" s="31"/>
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="31"/>
+      <c r="AZ17" s="31"/>
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="31"/>
+      <c r="BC17" s="31"/>
+      <c r="BD17" s="31"/>
+      <c r="BE17" s="31"/>
+      <c r="BF17" s="31"/>
+      <c r="BG17" s="31"/>
+      <c r="BH17" s="31"/>
+      <c r="BI17" s="31"/>
+      <c r="BJ17" s="31"/>
+      <c r="BK17" s="31"/>
+      <c r="BL17" s="31"/>
+      <c r="BM17" s="31"/>
+      <c r="BN17" s="31"/>
+      <c r="BO17" s="31"/>
+      <c r="BP17" s="31"/>
+      <c r="BQ17" s="31"/>
+      <c r="BR17" s="31"/>
+      <c r="BS17" s="31"/>
+      <c r="BT17" s="31"/>
+      <c r="BU17" s="31"/>
+      <c r="BV17" s="31"/>
+      <c r="BW17" s="31"/>
+      <c r="BX17" s="31"/>
+      <c r="BY17" s="31"/>
+      <c r="BZ17" s="31"/>
+      <c r="CA17" s="31"/>
+      <c r="CB17" s="31"/>
+      <c r="CC17" s="31"/>
+      <c r="CD17" s="31"/>
+      <c r="CE17" s="31"/>
       <c r="CF17" s="6"/>
       <c r="CG17" s="6"/>
       <c r="CH17" s="6"/>
@@ -5382,84 +5381,84 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="51"/>
-      <c r="AZ18" s="51"/>
-      <c r="BA18" s="51"/>
-      <c r="BB18" s="51"/>
-      <c r="BC18" s="51"/>
-      <c r="BD18" s="51"/>
-      <c r="BE18" s="51"/>
-      <c r="BF18" s="51"/>
-      <c r="BG18" s="51"/>
-      <c r="BH18" s="51"/>
-      <c r="BI18" s="51"/>
-      <c r="BJ18" s="51"/>
-      <c r="BK18" s="51"/>
-      <c r="BL18" s="51"/>
-      <c r="BM18" s="51"/>
-      <c r="BN18" s="51"/>
-      <c r="BO18" s="51"/>
-      <c r="BP18" s="51"/>
-      <c r="BQ18" s="51"/>
-      <c r="BR18" s="51"/>
-      <c r="BS18" s="51"/>
-      <c r="BT18" s="51"/>
-      <c r="BU18" s="51"/>
-      <c r="BV18" s="51"/>
-      <c r="BW18" s="51"/>
-      <c r="BX18" s="51"/>
-      <c r="BY18" s="51"/>
-      <c r="BZ18" s="51"/>
-      <c r="CA18" s="51"/>
-      <c r="CB18" s="51"/>
-      <c r="CC18" s="51"/>
-      <c r="CD18" s="51"/>
-      <c r="CE18" s="51"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="31"/>
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="31"/>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="31"/>
+      <c r="BL18" s="31"/>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="31"/>
+      <c r="BO18" s="31"/>
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="31"/>
+      <c r="BR18" s="31"/>
+      <c r="BS18" s="31"/>
+      <c r="BT18" s="31"/>
+      <c r="BU18" s="31"/>
+      <c r="BV18" s="31"/>
+      <c r="BW18" s="31"/>
+      <c r="BX18" s="31"/>
+      <c r="BY18" s="31"/>
+      <c r="BZ18" s="31"/>
+      <c r="CA18" s="31"/>
+      <c r="CB18" s="31"/>
+      <c r="CC18" s="31"/>
+      <c r="CD18" s="31"/>
+      <c r="CE18" s="31"/>
       <c r="CF18" s="6"/>
       <c r="CG18" s="6"/>
       <c r="CH18" s="6"/>
@@ -5646,86 +5645,86 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="52"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="52"/>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="52"/>
-      <c r="AZ21" s="52"/>
-      <c r="BA21" s="52"/>
-      <c r="BB21" s="52"/>
-      <c r="BC21" s="52"/>
-      <c r="BD21" s="52"/>
-      <c r="BE21" s="52"/>
-      <c r="BF21" s="52"/>
-      <c r="BG21" s="52"/>
-      <c r="BH21" s="52"/>
-      <c r="BI21" s="52"/>
-      <c r="BJ21" s="52"/>
-      <c r="BK21" s="52"/>
-      <c r="BL21" s="52"/>
-      <c r="BM21" s="52"/>
-      <c r="BN21" s="52"/>
-      <c r="BO21" s="52"/>
-      <c r="BP21" s="52"/>
-      <c r="BQ21" s="52"/>
-      <c r="BR21" s="52"/>
-      <c r="BS21" s="52"/>
-      <c r="BT21" s="52"/>
-      <c r="BU21" s="52"/>
-      <c r="BV21" s="52"/>
-      <c r="BW21" s="52"/>
-      <c r="BX21" s="52"/>
-      <c r="BY21" s="52"/>
-      <c r="BZ21" s="52"/>
-      <c r="CA21" s="52"/>
-      <c r="CB21" s="52"/>
-      <c r="CC21" s="52"/>
-      <c r="CD21" s="52"/>
-      <c r="CE21" s="52"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="32"/>
+      <c r="AX21" s="32"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="32"/>
+      <c r="BA21" s="32"/>
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="32"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="32"/>
+      <c r="BF21" s="32"/>
+      <c r="BG21" s="32"/>
+      <c r="BH21" s="32"/>
+      <c r="BI21" s="32"/>
+      <c r="BJ21" s="32"/>
+      <c r="BK21" s="32"/>
+      <c r="BL21" s="32"/>
+      <c r="BM21" s="32"/>
+      <c r="BN21" s="32"/>
+      <c r="BO21" s="32"/>
+      <c r="BP21" s="32"/>
+      <c r="BQ21" s="32"/>
+      <c r="BR21" s="32"/>
+      <c r="BS21" s="32"/>
+      <c r="BT21" s="32"/>
+      <c r="BU21" s="32"/>
+      <c r="BV21" s="32"/>
+      <c r="BW21" s="32"/>
+      <c r="BX21" s="32"/>
+      <c r="BY21" s="32"/>
+      <c r="BZ21" s="32"/>
+      <c r="CA21" s="32"/>
+      <c r="CB21" s="32"/>
+      <c r="CC21" s="32"/>
+      <c r="CD21" s="32"/>
+      <c r="CE21" s="32"/>
       <c r="CF21" s="6"/>
       <c r="CG21" s="6"/>
       <c r="CH21" s="6"/>
@@ -5736,84 +5735,84 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="52"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="52"/>
-      <c r="AP22" s="52"/>
-      <c r="AQ22" s="52"/>
-      <c r="AR22" s="52"/>
-      <c r="AS22" s="52"/>
-      <c r="AT22" s="52"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="52"/>
-      <c r="AW22" s="52"/>
-      <c r="AX22" s="52"/>
-      <c r="AY22" s="52"/>
-      <c r="AZ22" s="52"/>
-      <c r="BA22" s="52"/>
-      <c r="BB22" s="52"/>
-      <c r="BC22" s="52"/>
-      <c r="BD22" s="52"/>
-      <c r="BE22" s="52"/>
-      <c r="BF22" s="52"/>
-      <c r="BG22" s="52"/>
-      <c r="BH22" s="52"/>
-      <c r="BI22" s="52"/>
-      <c r="BJ22" s="52"/>
-      <c r="BK22" s="52"/>
-      <c r="BL22" s="52"/>
-      <c r="BM22" s="52"/>
-      <c r="BN22" s="52"/>
-      <c r="BO22" s="52"/>
-      <c r="BP22" s="52"/>
-      <c r="BQ22" s="52"/>
-      <c r="BR22" s="52"/>
-      <c r="BS22" s="52"/>
-      <c r="BT22" s="52"/>
-      <c r="BU22" s="52"/>
-      <c r="BV22" s="52"/>
-      <c r="BW22" s="52"/>
-      <c r="BX22" s="52"/>
-      <c r="BY22" s="52"/>
-      <c r="BZ22" s="52"/>
-      <c r="CA22" s="52"/>
-      <c r="CB22" s="52"/>
-      <c r="CC22" s="52"/>
-      <c r="CD22" s="52"/>
-      <c r="CE22" s="52"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="32"/>
+      <c r="AZ22" s="32"/>
+      <c r="BA22" s="32"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="32"/>
+      <c r="BD22" s="32"/>
+      <c r="BE22" s="32"/>
+      <c r="BF22" s="32"/>
+      <c r="BG22" s="32"/>
+      <c r="BH22" s="32"/>
+      <c r="BI22" s="32"/>
+      <c r="BJ22" s="32"/>
+      <c r="BK22" s="32"/>
+      <c r="BL22" s="32"/>
+      <c r="BM22" s="32"/>
+      <c r="BN22" s="32"/>
+      <c r="BO22" s="32"/>
+      <c r="BP22" s="32"/>
+      <c r="BQ22" s="32"/>
+      <c r="BR22" s="32"/>
+      <c r="BS22" s="32"/>
+      <c r="BT22" s="32"/>
+      <c r="BU22" s="32"/>
+      <c r="BV22" s="32"/>
+      <c r="BW22" s="32"/>
+      <c r="BX22" s="32"/>
+      <c r="BY22" s="32"/>
+      <c r="BZ22" s="32"/>
+      <c r="CA22" s="32"/>
+      <c r="CB22" s="32"/>
+      <c r="CC22" s="32"/>
+      <c r="CD22" s="32"/>
+      <c r="CE22" s="32"/>
       <c r="CF22" s="6"/>
       <c r="CG22" s="6"/>
       <c r="CH22" s="6"/>
@@ -5824,84 +5823,84 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="52"/>
-      <c r="AJ23" s="52"/>
-      <c r="AK23" s="52"/>
-      <c r="AL23" s="52"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="52"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="52"/>
-      <c r="AQ23" s="52"/>
-      <c r="AR23" s="52"/>
-      <c r="AS23" s="52"/>
-      <c r="AT23" s="52"/>
-      <c r="AU23" s="52"/>
-      <c r="AV23" s="52"/>
-      <c r="AW23" s="52"/>
-      <c r="AX23" s="52"/>
-      <c r="AY23" s="52"/>
-      <c r="AZ23" s="52"/>
-      <c r="BA23" s="52"/>
-      <c r="BB23" s="52"/>
-      <c r="BC23" s="52"/>
-      <c r="BD23" s="52"/>
-      <c r="BE23" s="52"/>
-      <c r="BF23" s="52"/>
-      <c r="BG23" s="52"/>
-      <c r="BH23" s="52"/>
-      <c r="BI23" s="52"/>
-      <c r="BJ23" s="52"/>
-      <c r="BK23" s="52"/>
-      <c r="BL23" s="52"/>
-      <c r="BM23" s="52"/>
-      <c r="BN23" s="52"/>
-      <c r="BO23" s="52"/>
-      <c r="BP23" s="52"/>
-      <c r="BQ23" s="52"/>
-      <c r="BR23" s="52"/>
-      <c r="BS23" s="52"/>
-      <c r="BT23" s="52"/>
-      <c r="BU23" s="52"/>
-      <c r="BV23" s="52"/>
-      <c r="BW23" s="52"/>
-      <c r="BX23" s="52"/>
-      <c r="BY23" s="52"/>
-      <c r="BZ23" s="52"/>
-      <c r="CA23" s="52"/>
-      <c r="CB23" s="52"/>
-      <c r="CC23" s="52"/>
-      <c r="CD23" s="52"/>
-      <c r="CE23" s="52"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="32"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23" s="32"/>
+      <c r="BF23" s="32"/>
+      <c r="BG23" s="32"/>
+      <c r="BH23" s="32"/>
+      <c r="BI23" s="32"/>
+      <c r="BJ23" s="32"/>
+      <c r="BK23" s="32"/>
+      <c r="BL23" s="32"/>
+      <c r="BM23" s="32"/>
+      <c r="BN23" s="32"/>
+      <c r="BO23" s="32"/>
+      <c r="BP23" s="32"/>
+      <c r="BQ23" s="32"/>
+      <c r="BR23" s="32"/>
+      <c r="BS23" s="32"/>
+      <c r="BT23" s="32"/>
+      <c r="BU23" s="32"/>
+      <c r="BV23" s="32"/>
+      <c r="BW23" s="32"/>
+      <c r="BX23" s="32"/>
+      <c r="BY23" s="32"/>
+      <c r="BZ23" s="32"/>
+      <c r="CA23" s="32"/>
+      <c r="CB23" s="32"/>
+      <c r="CC23" s="32"/>
+      <c r="CD23" s="32"/>
+      <c r="CE23" s="32"/>
       <c r="CF23" s="6"/>
       <c r="CG23" s="6"/>
       <c r="CH23" s="6"/>
@@ -5912,84 +5911,84 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="52"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="52"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="AZ24" s="52"/>
-      <c r="BA24" s="52"/>
-      <c r="BB24" s="52"/>
-      <c r="BC24" s="52"/>
-      <c r="BD24" s="52"/>
-      <c r="BE24" s="52"/>
-      <c r="BF24" s="52"/>
-      <c r="BG24" s="52"/>
-      <c r="BH24" s="52"/>
-      <c r="BI24" s="52"/>
-      <c r="BJ24" s="52"/>
-      <c r="BK24" s="52"/>
-      <c r="BL24" s="52"/>
-      <c r="BM24" s="52"/>
-      <c r="BN24" s="52"/>
-      <c r="BO24" s="52"/>
-      <c r="BP24" s="52"/>
-      <c r="BQ24" s="52"/>
-      <c r="BR24" s="52"/>
-      <c r="BS24" s="52"/>
-      <c r="BT24" s="52"/>
-      <c r="BU24" s="52"/>
-      <c r="BV24" s="52"/>
-      <c r="BW24" s="52"/>
-      <c r="BX24" s="52"/>
-      <c r="BY24" s="52"/>
-      <c r="BZ24" s="52"/>
-      <c r="CA24" s="52"/>
-      <c r="CB24" s="52"/>
-      <c r="CC24" s="52"/>
-      <c r="CD24" s="52"/>
-      <c r="CE24" s="52"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="32"/>
+      <c r="AX24" s="32"/>
+      <c r="AY24" s="32"/>
+      <c r="AZ24" s="32"/>
+      <c r="BA24" s="32"/>
+      <c r="BB24" s="32"/>
+      <c r="BC24" s="32"/>
+      <c r="BD24" s="32"/>
+      <c r="BE24" s="32"/>
+      <c r="BF24" s="32"/>
+      <c r="BG24" s="32"/>
+      <c r="BH24" s="32"/>
+      <c r="BI24" s="32"/>
+      <c r="BJ24" s="32"/>
+      <c r="BK24" s="32"/>
+      <c r="BL24" s="32"/>
+      <c r="BM24" s="32"/>
+      <c r="BN24" s="32"/>
+      <c r="BO24" s="32"/>
+      <c r="BP24" s="32"/>
+      <c r="BQ24" s="32"/>
+      <c r="BR24" s="32"/>
+      <c r="BS24" s="32"/>
+      <c r="BT24" s="32"/>
+      <c r="BU24" s="32"/>
+      <c r="BV24" s="32"/>
+      <c r="BW24" s="32"/>
+      <c r="BX24" s="32"/>
+      <c r="BY24" s="32"/>
+      <c r="BZ24" s="32"/>
+      <c r="CA24" s="32"/>
+      <c r="CB24" s="32"/>
+      <c r="CC24" s="32"/>
+      <c r="CD24" s="32"/>
+      <c r="CE24" s="32"/>
       <c r="CF24" s="6"/>
       <c r="CG24" s="6"/>
       <c r="CH24" s="6"/>
@@ -6176,86 +6175,86 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52"/>
-      <c r="AL27" s="52"/>
-      <c r="AM27" s="52"/>
-      <c r="AN27" s="52"/>
-      <c r="AO27" s="52"/>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="52"/>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="AZ27" s="52"/>
-      <c r="BA27" s="52"/>
-      <c r="BB27" s="52"/>
-      <c r="BC27" s="52"/>
-      <c r="BD27" s="52"/>
-      <c r="BE27" s="52"/>
-      <c r="BF27" s="52"/>
-      <c r="BG27" s="52"/>
-      <c r="BH27" s="52"/>
-      <c r="BI27" s="52"/>
-      <c r="BJ27" s="52"/>
-      <c r="BK27" s="52"/>
-      <c r="BL27" s="52"/>
-      <c r="BM27" s="52"/>
-      <c r="BN27" s="52"/>
-      <c r="BO27" s="52"/>
-      <c r="BP27" s="52"/>
-      <c r="BQ27" s="52"/>
-      <c r="BR27" s="52"/>
-      <c r="BS27" s="52"/>
-      <c r="BT27" s="52"/>
-      <c r="BU27" s="52"/>
-      <c r="BV27" s="52"/>
-      <c r="BW27" s="52"/>
-      <c r="BX27" s="52"/>
-      <c r="BY27" s="52"/>
-      <c r="BZ27" s="52"/>
-      <c r="CA27" s="52"/>
-      <c r="CB27" s="52"/>
-      <c r="CC27" s="52"/>
-      <c r="CD27" s="52"/>
-      <c r="CE27" s="52"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="32"/>
+      <c r="BC27" s="32"/>
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="32"/>
+      <c r="BF27" s="32"/>
+      <c r="BG27" s="32"/>
+      <c r="BH27" s="32"/>
+      <c r="BI27" s="32"/>
+      <c r="BJ27" s="32"/>
+      <c r="BK27" s="32"/>
+      <c r="BL27" s="32"/>
+      <c r="BM27" s="32"/>
+      <c r="BN27" s="32"/>
+      <c r="BO27" s="32"/>
+      <c r="BP27" s="32"/>
+      <c r="BQ27" s="32"/>
+      <c r="BR27" s="32"/>
+      <c r="BS27" s="32"/>
+      <c r="BT27" s="32"/>
+      <c r="BU27" s="32"/>
+      <c r="BV27" s="32"/>
+      <c r="BW27" s="32"/>
+      <c r="BX27" s="32"/>
+      <c r="BY27" s="32"/>
+      <c r="BZ27" s="32"/>
+      <c r="CA27" s="32"/>
+      <c r="CB27" s="32"/>
+      <c r="CC27" s="32"/>
+      <c r="CD27" s="32"/>
+      <c r="CE27" s="32"/>
       <c r="CF27" s="6"/>
       <c r="CG27" s="6"/>
       <c r="CH27" s="6"/>
@@ -6266,84 +6265,84 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="52"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="52"/>
-      <c r="AO28" s="52"/>
-      <c r="AP28" s="52"/>
-      <c r="AQ28" s="52"/>
-      <c r="AR28" s="52"/>
-      <c r="AS28" s="52"/>
-      <c r="AT28" s="52"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="52"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="AZ28" s="52"/>
-      <c r="BA28" s="52"/>
-      <c r="BB28" s="52"/>
-      <c r="BC28" s="52"/>
-      <c r="BD28" s="52"/>
-      <c r="BE28" s="52"/>
-      <c r="BF28" s="52"/>
-      <c r="BG28" s="52"/>
-      <c r="BH28" s="52"/>
-      <c r="BI28" s="52"/>
-      <c r="BJ28" s="52"/>
-      <c r="BK28" s="52"/>
-      <c r="BL28" s="52"/>
-      <c r="BM28" s="52"/>
-      <c r="BN28" s="52"/>
-      <c r="BO28" s="52"/>
-      <c r="BP28" s="52"/>
-      <c r="BQ28" s="52"/>
-      <c r="BR28" s="52"/>
-      <c r="BS28" s="52"/>
-      <c r="BT28" s="52"/>
-      <c r="BU28" s="52"/>
-      <c r="BV28" s="52"/>
-      <c r="BW28" s="52"/>
-      <c r="BX28" s="52"/>
-      <c r="BY28" s="52"/>
-      <c r="BZ28" s="52"/>
-      <c r="CA28" s="52"/>
-      <c r="CB28" s="52"/>
-      <c r="CC28" s="52"/>
-      <c r="CD28" s="52"/>
-      <c r="CE28" s="52"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="32"/>
+      <c r="AY28" s="32"/>
+      <c r="AZ28" s="32"/>
+      <c r="BA28" s="32"/>
+      <c r="BB28" s="32"/>
+      <c r="BC28" s="32"/>
+      <c r="BD28" s="32"/>
+      <c r="BE28" s="32"/>
+      <c r="BF28" s="32"/>
+      <c r="BG28" s="32"/>
+      <c r="BH28" s="32"/>
+      <c r="BI28" s="32"/>
+      <c r="BJ28" s="32"/>
+      <c r="BK28" s="32"/>
+      <c r="BL28" s="32"/>
+      <c r="BM28" s="32"/>
+      <c r="BN28" s="32"/>
+      <c r="BO28" s="32"/>
+      <c r="BP28" s="32"/>
+      <c r="BQ28" s="32"/>
+      <c r="BR28" s="32"/>
+      <c r="BS28" s="32"/>
+      <c r="BT28" s="32"/>
+      <c r="BU28" s="32"/>
+      <c r="BV28" s="32"/>
+      <c r="BW28" s="32"/>
+      <c r="BX28" s="32"/>
+      <c r="BY28" s="32"/>
+      <c r="BZ28" s="32"/>
+      <c r="CA28" s="32"/>
+      <c r="CB28" s="32"/>
+      <c r="CC28" s="32"/>
+      <c r="CD28" s="32"/>
+      <c r="CE28" s="32"/>
       <c r="CF28" s="5"/>
       <c r="CG28" s="5"/>
       <c r="CH28" s="5"/>
@@ -6354,84 +6353,84 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="52"/>
-      <c r="AL29" s="52"/>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="52"/>
-      <c r="AO29" s="52"/>
-      <c r="AP29" s="52"/>
-      <c r="AQ29" s="52"/>
-      <c r="AR29" s="52"/>
-      <c r="AS29" s="52"/>
-      <c r="AT29" s="52"/>
-      <c r="AU29" s="52"/>
-      <c r="AV29" s="52"/>
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="52"/>
-      <c r="AY29" s="52"/>
-      <c r="AZ29" s="52"/>
-      <c r="BA29" s="52"/>
-      <c r="BB29" s="52"/>
-      <c r="BC29" s="52"/>
-      <c r="BD29" s="52"/>
-      <c r="BE29" s="52"/>
-      <c r="BF29" s="52"/>
-      <c r="BG29" s="52"/>
-      <c r="BH29" s="52"/>
-      <c r="BI29" s="52"/>
-      <c r="BJ29" s="52"/>
-      <c r="BK29" s="52"/>
-      <c r="BL29" s="52"/>
-      <c r="BM29" s="52"/>
-      <c r="BN29" s="52"/>
-      <c r="BO29" s="52"/>
-      <c r="BP29" s="52"/>
-      <c r="BQ29" s="52"/>
-      <c r="BR29" s="52"/>
-      <c r="BS29" s="52"/>
-      <c r="BT29" s="52"/>
-      <c r="BU29" s="52"/>
-      <c r="BV29" s="52"/>
-      <c r="BW29" s="52"/>
-      <c r="BX29" s="52"/>
-      <c r="BY29" s="52"/>
-      <c r="BZ29" s="52"/>
-      <c r="CA29" s="52"/>
-      <c r="CB29" s="52"/>
-      <c r="CC29" s="52"/>
-      <c r="CD29" s="52"/>
-      <c r="CE29" s="52"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="32"/>
+      <c r="AY29" s="32"/>
+      <c r="AZ29" s="32"/>
+      <c r="BA29" s="32"/>
+      <c r="BB29" s="32"/>
+      <c r="BC29" s="32"/>
+      <c r="BD29" s="32"/>
+      <c r="BE29" s="32"/>
+      <c r="BF29" s="32"/>
+      <c r="BG29" s="32"/>
+      <c r="BH29" s="32"/>
+      <c r="BI29" s="32"/>
+      <c r="BJ29" s="32"/>
+      <c r="BK29" s="32"/>
+      <c r="BL29" s="32"/>
+      <c r="BM29" s="32"/>
+      <c r="BN29" s="32"/>
+      <c r="BO29" s="32"/>
+      <c r="BP29" s="32"/>
+      <c r="BQ29" s="32"/>
+      <c r="BR29" s="32"/>
+      <c r="BS29" s="32"/>
+      <c r="BT29" s="32"/>
+      <c r="BU29" s="32"/>
+      <c r="BV29" s="32"/>
+      <c r="BW29" s="32"/>
+      <c r="BX29" s="32"/>
+      <c r="BY29" s="32"/>
+      <c r="BZ29" s="32"/>
+      <c r="CA29" s="32"/>
+      <c r="CB29" s="32"/>
+      <c r="CC29" s="32"/>
+      <c r="CD29" s="32"/>
+      <c r="CE29" s="32"/>
       <c r="CF29" s="5"/>
       <c r="CG29" s="5"/>
       <c r="CH29" s="5"/>
@@ -6442,84 +6441,84 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="52"/>
-      <c r="AL30" s="52"/>
-      <c r="AM30" s="52"/>
-      <c r="AN30" s="52"/>
-      <c r="AO30" s="52"/>
-      <c r="AP30" s="52"/>
-      <c r="AQ30" s="52"/>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="52"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="52"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="52"/>
-      <c r="AY30" s="52"/>
-      <c r="AZ30" s="52"/>
-      <c r="BA30" s="52"/>
-      <c r="BB30" s="52"/>
-      <c r="BC30" s="52"/>
-      <c r="BD30" s="52"/>
-      <c r="BE30" s="52"/>
-      <c r="BF30" s="52"/>
-      <c r="BG30" s="52"/>
-      <c r="BH30" s="52"/>
-      <c r="BI30" s="52"/>
-      <c r="BJ30" s="52"/>
-      <c r="BK30" s="52"/>
-      <c r="BL30" s="52"/>
-      <c r="BM30" s="52"/>
-      <c r="BN30" s="52"/>
-      <c r="BO30" s="52"/>
-      <c r="BP30" s="52"/>
-      <c r="BQ30" s="52"/>
-      <c r="BR30" s="52"/>
-      <c r="BS30" s="52"/>
-      <c r="BT30" s="52"/>
-      <c r="BU30" s="52"/>
-      <c r="BV30" s="52"/>
-      <c r="BW30" s="52"/>
-      <c r="BX30" s="52"/>
-      <c r="BY30" s="52"/>
-      <c r="BZ30" s="52"/>
-      <c r="CA30" s="52"/>
-      <c r="CB30" s="52"/>
-      <c r="CC30" s="52"/>
-      <c r="CD30" s="52"/>
-      <c r="CE30" s="52"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="32"/>
+      <c r="AX30" s="32"/>
+      <c r="AY30" s="32"/>
+      <c r="AZ30" s="32"/>
+      <c r="BA30" s="32"/>
+      <c r="BB30" s="32"/>
+      <c r="BC30" s="32"/>
+      <c r="BD30" s="32"/>
+      <c r="BE30" s="32"/>
+      <c r="BF30" s="32"/>
+      <c r="BG30" s="32"/>
+      <c r="BH30" s="32"/>
+      <c r="BI30" s="32"/>
+      <c r="BJ30" s="32"/>
+      <c r="BK30" s="32"/>
+      <c r="BL30" s="32"/>
+      <c r="BM30" s="32"/>
+      <c r="BN30" s="32"/>
+      <c r="BO30" s="32"/>
+      <c r="BP30" s="32"/>
+      <c r="BQ30" s="32"/>
+      <c r="BR30" s="32"/>
+      <c r="BS30" s="32"/>
+      <c r="BT30" s="32"/>
+      <c r="BU30" s="32"/>
+      <c r="BV30" s="32"/>
+      <c r="BW30" s="32"/>
+      <c r="BX30" s="32"/>
+      <c r="BY30" s="32"/>
+      <c r="BZ30" s="32"/>
+      <c r="CA30" s="32"/>
+      <c r="CB30" s="32"/>
+      <c r="CC30" s="32"/>
+      <c r="CD30" s="32"/>
+      <c r="CE30" s="32"/>
       <c r="CF30" s="5"/>
       <c r="CG30" s="5"/>
       <c r="CH30" s="5"/>
@@ -6531,46 +6530,46 @@
     </row>
     <row r="32" spans="2:87">
       <c r="B32" s="4"/>
-      <c r="BO32" s="34" t="s">
+      <c r="BO32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="BP32" s="35"/>
-      <c r="BQ32" s="35"/>
-      <c r="BR32" s="35"/>
-      <c r="BS32" s="35"/>
-      <c r="BT32" s="35"/>
-      <c r="BU32" s="35"/>
-      <c r="BV32" s="35"/>
-      <c r="BW32" s="35"/>
-      <c r="BX32" s="35"/>
-      <c r="BY32" s="35"/>
-      <c r="BZ32" s="35"/>
-      <c r="CA32" s="35"/>
-      <c r="CB32" s="35"/>
-      <c r="CC32" s="35"/>
-      <c r="CD32" s="35"/>
-      <c r="CE32" s="36"/>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="15"/>
+      <c r="BT32" s="15"/>
+      <c r="BU32" s="15"/>
+      <c r="BV32" s="15"/>
+      <c r="BW32" s="15"/>
+      <c r="BX32" s="15"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="15"/>
+      <c r="CA32" s="15"/>
+      <c r="CB32" s="15"/>
+      <c r="CC32" s="15"/>
+      <c r="CD32" s="15"/>
+      <c r="CE32" s="16"/>
       <c r="CI32" s="8"/>
     </row>
     <row r="33" spans="2:87" ht="18.75" thickBot="1">
       <c r="B33" s="4"/>
-      <c r="BO33" s="37"/>
-      <c r="BP33" s="38"/>
-      <c r="BQ33" s="38"/>
-      <c r="BR33" s="38"/>
-      <c r="BS33" s="38"/>
-      <c r="BT33" s="38"/>
-      <c r="BU33" s="38"/>
-      <c r="BV33" s="38"/>
-      <c r="BW33" s="38"/>
-      <c r="BX33" s="38"/>
-      <c r="BY33" s="38"/>
-      <c r="BZ33" s="38"/>
-      <c r="CA33" s="38"/>
-      <c r="CB33" s="38"/>
-      <c r="CC33" s="38"/>
-      <c r="CD33" s="38"/>
-      <c r="CE33" s="39"/>
+      <c r="BO33" s="17"/>
+      <c r="BP33" s="18"/>
+      <c r="BQ33" s="18"/>
+      <c r="BR33" s="18"/>
+      <c r="BS33" s="18"/>
+      <c r="BT33" s="18"/>
+      <c r="BU33" s="18"/>
+      <c r="BV33" s="18"/>
+      <c r="BW33" s="18"/>
+      <c r="BX33" s="18"/>
+      <c r="BY33" s="18"/>
+      <c r="BZ33" s="18"/>
+      <c r="CA33" s="18"/>
+      <c r="CB33" s="18"/>
+      <c r="CC33" s="18"/>
+      <c r="CD33" s="18"/>
+      <c r="CE33" s="19"/>
       <c r="CI33" s="8"/>
     </row>
     <row r="34" spans="2:87" ht="18" customHeight="1" thickBot="1">
@@ -6664,12 +6663,14 @@
     <row r="35" spans="2:87" ht="18.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="BO32:CE33"/>
-    <mergeCell ref="F7:CE8"/>
-    <mergeCell ref="X10:BM13"/>
-    <mergeCell ref="F15:CE18"/>
-    <mergeCell ref="F21:CE24"/>
-    <mergeCell ref="F27:CE30"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -6684,14 +6685,12 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="BO32:CE33"/>
+    <mergeCell ref="F7:CE8"/>
+    <mergeCell ref="X10:BM13"/>
+    <mergeCell ref="F15:CE18"/>
+    <mergeCell ref="F21:CE24"/>
+    <mergeCell ref="F27:CE30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6706,10 +6705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK27"/>
+  <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14:AT14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6722,102 +6721,102 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="30" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="30"/>
-      <c r="BG1" s="30"/>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="30"/>
-      <c r="BJ1" s="30"/>
-      <c r="BK1" s="30"/>
-      <c r="BL1" s="31" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="31"/>
-      <c r="BO1" s="31"/>
-      <c r="BP1" s="32"/>
-      <c r="BQ1" s="32"/>
-      <c r="BR1" s="32"/>
-      <c r="BS1" s="32"/>
-      <c r="BT1" s="32"/>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BW1" s="32"/>
-      <c r="BX1" s="33" t="s">
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="45"/>
+      <c r="BQ1" s="45"/>
+      <c r="BR1" s="45"/>
+      <c r="BS1" s="45"/>
+      <c r="BT1" s="45"/>
+      <c r="BU1" s="45"/>
+      <c r="BV1" s="45"/>
+      <c r="BW1" s="45"/>
+      <c r="BX1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="33"/>
-      <c r="BZ1" s="33"/>
-      <c r="CA1" s="33"/>
-      <c r="CB1" s="20"/>
-      <c r="CC1" s="20"/>
-      <c r="CD1" s="20"/>
-      <c r="CE1" s="20"/>
-      <c r="CF1" s="20"/>
-      <c r="CG1" s="20"/>
-      <c r="CH1" s="20"/>
-      <c r="CI1" s="20"/>
+      <c r="BY1" s="46"/>
+      <c r="BZ1" s="46"/>
+      <c r="CA1" s="46"/>
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="33"/>
+      <c r="CE1" s="33"/>
+      <c r="CF1" s="33"/>
+      <c r="CG1" s="33"/>
+      <c r="CH1" s="33"/>
+      <c r="CI1" s="33"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -7758,102 +7757,102 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="23" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="23"/>
-      <c r="BK2" s="23"/>
-      <c r="BL2" s="24" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="36"/>
+      <c r="BK2" s="36"/>
+      <c r="BL2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
-      <c r="BR2" s="25"/>
-      <c r="BS2" s="25"/>
-      <c r="BT2" s="25"/>
-      <c r="BU2" s="25"/>
-      <c r="BV2" s="25"/>
-      <c r="BW2" s="25"/>
-      <c r="BX2" s="26" t="s">
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="38"/>
+      <c r="BT2" s="38"/>
+      <c r="BU2" s="38"/>
+      <c r="BV2" s="38"/>
+      <c r="BW2" s="38"/>
+      <c r="BX2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="26"/>
-      <c r="BZ2" s="26"/>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="27"/>
-      <c r="CC2" s="27"/>
-      <c r="CD2" s="27"/>
-      <c r="CE2" s="27"/>
-      <c r="CF2" s="27"/>
-      <c r="CG2" s="27"/>
-      <c r="CH2" s="27"/>
-      <c r="CI2" s="27"/>
+      <c r="BY2" s="39"/>
+      <c r="BZ2" s="39"/>
+      <c r="CA2" s="39"/>
+      <c r="CB2" s="40"/>
+      <c r="CC2" s="40"/>
+      <c r="CD2" s="40"/>
+      <c r="CE2" s="40"/>
+      <c r="CF2" s="40"/>
+      <c r="CG2" s="40"/>
+      <c r="CH2" s="40"/>
+      <c r="CI2" s="40"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -8881,2257 +8880,2562 @@
       <c r="CI3" s="10"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="16" t="s">
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="16"/>
-      <c r="BF4" s="16"/>
-      <c r="BG4" s="16"/>
-      <c r="BH4" s="16"/>
-      <c r="BI4" s="16"/>
-      <c r="BJ4" s="16"/>
-      <c r="BK4" s="16"/>
-      <c r="BL4" s="16"/>
-      <c r="BM4" s="16"/>
-      <c r="BN4" s="16"/>
-      <c r="BO4" s="16"/>
-      <c r="BP4" s="16"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="16"/>
-      <c r="BS4" s="16"/>
-      <c r="BT4" s="16"/>
-      <c r="BU4" s="16"/>
-      <c r="BV4" s="16"/>
-      <c r="BW4" s="16"/>
-      <c r="BX4" s="16"/>
-      <c r="BY4" s="16"/>
-      <c r="BZ4" s="16"/>
-      <c r="CA4" s="16"/>
-      <c r="CB4" s="16"/>
-      <c r="CC4" s="16"/>
-      <c r="CD4" s="16"/>
-      <c r="CE4" s="16"/>
-      <c r="CF4" s="16"/>
-      <c r="CG4" s="16"/>
-      <c r="CH4" s="16"/>
-      <c r="CI4" s="16"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="49"/>
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="49"/>
+      <c r="BT4" s="49"/>
+      <c r="BU4" s="49"/>
+      <c r="BV4" s="49"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="49"/>
+      <c r="BY4" s="49"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="49"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="49"/>
+      <c r="CD4" s="49"/>
+      <c r="CE4" s="49"/>
+      <c r="CF4" s="49"/>
+      <c r="CG4" s="49"/>
+      <c r="CH4" s="49"/>
+      <c r="CI4" s="49"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="17">
+      <c r="B5" s="50">
         <v>1</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="18"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="19" t="s">
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="19"/>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="19"/>
-      <c r="BJ5" s="19"/>
-      <c r="BK5" s="19"/>
-      <c r="BL5" s="19"/>
-      <c r="BM5" s="19"/>
-      <c r="BN5" s="19"/>
-      <c r="BO5" s="19"/>
-      <c r="BP5" s="19"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="19"/>
-      <c r="BS5" s="19"/>
-      <c r="BT5" s="19"/>
-      <c r="BU5" s="19"/>
-      <c r="BV5" s="19"/>
-      <c r="BW5" s="19"/>
-      <c r="BX5" s="19"/>
-      <c r="BY5" s="19"/>
-      <c r="BZ5" s="19"/>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="19"/>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="19"/>
-      <c r="CE5" s="19"/>
-      <c r="CF5" s="19"/>
-      <c r="CG5" s="19"/>
-      <c r="CH5" s="19"/>
-      <c r="CI5" s="19"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="52"/>
+      <c r="BI5" s="52"/>
+      <c r="BJ5" s="52"/>
+      <c r="BK5" s="52"/>
+      <c r="BL5" s="52"/>
+      <c r="BM5" s="52"/>
+      <c r="BN5" s="52"/>
+      <c r="BO5" s="52"/>
+      <c r="BP5" s="52"/>
+      <c r="BQ5" s="52"/>
+      <c r="BR5" s="52"/>
+      <c r="BS5" s="52"/>
+      <c r="BT5" s="52"/>
+      <c r="BU5" s="52"/>
+      <c r="BV5" s="52"/>
+      <c r="BW5" s="52"/>
+      <c r="BX5" s="52"/>
+      <c r="BY5" s="52"/>
+      <c r="BZ5" s="52"/>
+      <c r="CA5" s="52"/>
+      <c r="CB5" s="52"/>
+      <c r="CC5" s="52"/>
+      <c r="CD5" s="52"/>
+      <c r="CE5" s="52"/>
+      <c r="CF5" s="52"/>
+      <c r="CG5" s="52"/>
+      <c r="CH5" s="52"/>
+      <c r="CI5" s="52"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="134"/>
-      <c r="AA6" s="134"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
-      <c r="AK6" s="134"/>
-      <c r="AL6" s="134"/>
-      <c r="AM6" s="134"/>
-      <c r="AN6" s="134"/>
-      <c r="AO6" s="134"/>
-      <c r="AP6" s="134"/>
-      <c r="AQ6" s="134"/>
-      <c r="AR6" s="134"/>
-      <c r="AS6" s="134"/>
-      <c r="AT6" s="134"/>
-      <c r="AU6" s="134"/>
-      <c r="AV6" s="134"/>
-      <c r="AW6" s="134"/>
-      <c r="AX6" s="134"/>
-      <c r="AY6" s="134"/>
-      <c r="AZ6" s="134"/>
-      <c r="BA6" s="134"/>
-      <c r="BB6" s="134"/>
-      <c r="BC6" s="134"/>
-      <c r="BD6" s="134"/>
-      <c r="BE6" s="134"/>
-      <c r="BF6" s="134"/>
-      <c r="BG6" s="134"/>
-      <c r="BH6" s="134"/>
-      <c r="BI6" s="134"/>
-      <c r="BJ6" s="134"/>
-      <c r="BK6" s="134"/>
-      <c r="BL6" s="134"/>
-      <c r="BM6" s="134"/>
-      <c r="BN6" s="134"/>
-      <c r="BO6" s="134"/>
-      <c r="BP6" s="134"/>
-      <c r="BQ6" s="134"/>
-      <c r="BR6" s="134"/>
-      <c r="BS6" s="134"/>
-      <c r="BT6" s="134"/>
-      <c r="BU6" s="134"/>
-      <c r="BV6" s="134"/>
-      <c r="BW6" s="134"/>
-      <c r="BX6" s="134"/>
-      <c r="BY6" s="134"/>
-      <c r="BZ6" s="134"/>
-      <c r="CA6" s="134"/>
-      <c r="CB6" s="134"/>
-      <c r="CC6" s="134"/>
-      <c r="CD6" s="134"/>
-      <c r="CE6" s="134"/>
-      <c r="CF6" s="134"/>
-      <c r="CG6" s="134"/>
-      <c r="CH6" s="134"/>
-      <c r="CI6" s="134"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
+      <c r="BP6" s="53"/>
+      <c r="BQ6" s="53"/>
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="53"/>
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="53"/>
+      <c r="BV6" s="53"/>
+      <c r="BW6" s="53"/>
+      <c r="BX6" s="53"/>
+      <c r="BY6" s="53"/>
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="53"/>
+      <c r="CB6" s="53"/>
+      <c r="CC6" s="53"/>
+      <c r="CD6" s="53"/>
+      <c r="CE6" s="53"/>
+      <c r="CF6" s="53"/>
+      <c r="CG6" s="53"/>
+      <c r="CH6" s="53"/>
+      <c r="CI6" s="53"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="136" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="137"/>
-      <c r="V7" s="137"/>
-      <c r="W7" s="137"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="136" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="137"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="136" t="s">
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="137"/>
-      <c r="AD7" s="137"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="137"/>
-      <c r="AG7" s="138"/>
-      <c r="AH7" s="136" t="s">
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="137"/>
-      <c r="AJ7" s="138"/>
-      <c r="AK7" s="136" t="s">
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="137"/>
-      <c r="AM7" s="137"/>
-      <c r="AN7" s="137"/>
-      <c r="AO7" s="137"/>
-      <c r="AP7" s="137"/>
-      <c r="AQ7" s="137"/>
-      <c r="AR7" s="141"/>
-      <c r="AS7" s="141"/>
-      <c r="AT7" s="142"/>
-      <c r="AU7" s="139" t="s">
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="139"/>
-      <c r="AW7" s="139"/>
-      <c r="AX7" s="139"/>
-      <c r="AY7" s="139"/>
-      <c r="AZ7" s="139"/>
-      <c r="BA7" s="139"/>
-      <c r="BB7" s="139"/>
-      <c r="BC7" s="139"/>
-      <c r="BD7" s="139"/>
-      <c r="BE7" s="139"/>
-      <c r="BF7" s="139"/>
-      <c r="BG7" s="139"/>
-      <c r="BH7" s="139"/>
-      <c r="BI7" s="139"/>
-      <c r="BJ7" s="139"/>
-      <c r="BK7" s="139"/>
-      <c r="BL7" s="139"/>
-      <c r="BM7" s="139"/>
-      <c r="BN7" s="139"/>
-      <c r="BO7" s="139"/>
-      <c r="BP7" s="139"/>
-      <c r="BQ7" s="140" t="s">
+      <c r="AV7" s="58"/>
+      <c r="AW7" s="58"/>
+      <c r="AX7" s="58"/>
+      <c r="AY7" s="58"/>
+      <c r="AZ7" s="58"/>
+      <c r="BA7" s="58"/>
+      <c r="BB7" s="58"/>
+      <c r="BC7" s="58"/>
+      <c r="BD7" s="58"/>
+      <c r="BE7" s="58"/>
+      <c r="BF7" s="58"/>
+      <c r="BG7" s="58"/>
+      <c r="BH7" s="58"/>
+      <c r="BI7" s="58"/>
+      <c r="BJ7" s="58"/>
+      <c r="BK7" s="58"/>
+      <c r="BL7" s="58"/>
+      <c r="BM7" s="58"/>
+      <c r="BN7" s="58"/>
+      <c r="BO7" s="58"/>
+      <c r="BP7" s="58"/>
+      <c r="BQ7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="140"/>
-      <c r="BS7" s="140"/>
-      <c r="BT7" s="140"/>
-      <c r="BU7" s="140"/>
-      <c r="BV7" s="140"/>
-      <c r="BW7" s="140"/>
-      <c r="BX7" s="140"/>
-      <c r="BY7" s="140"/>
-      <c r="BZ7" s="140"/>
-      <c r="CA7" s="140"/>
-      <c r="CB7" s="140"/>
-      <c r="CC7" s="140"/>
-      <c r="CD7" s="140"/>
-      <c r="CE7" s="140"/>
-      <c r="CF7" s="140"/>
-      <c r="CG7" s="140"/>
-      <c r="CH7" s="140"/>
-      <c r="CI7" s="140"/>
+      <c r="BR7" s="59"/>
+      <c r="BS7" s="59"/>
+      <c r="BT7" s="59"/>
+      <c r="BU7" s="59"/>
+      <c r="BV7" s="59"/>
+      <c r="BW7" s="59"/>
+      <c r="BX7" s="59"/>
+      <c r="BY7" s="59"/>
+      <c r="BZ7" s="59"/>
+      <c r="CA7" s="59"/>
+      <c r="CB7" s="59"/>
+      <c r="CC7" s="59"/>
+      <c r="CD7" s="59"/>
+      <c r="CE7" s="59"/>
+      <c r="CF7" s="59"/>
+      <c r="CG7" s="59"/>
+      <c r="CH7" s="59"/>
+      <c r="CI7" s="59"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1">
-      <c r="B8" s="105">
+      <c r="B8" s="64">
         <f>ROW(B8)-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="116" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="121"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="117"/>
-      <c r="AE8" s="117"/>
-      <c r="AF8" s="117"/>
-      <c r="AG8" s="118"/>
-      <c r="AH8" s="119"/>
-      <c r="AI8" s="120"/>
-      <c r="AJ8" s="121"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="117"/>
-      <c r="AM8" s="117"/>
-      <c r="AN8" s="117"/>
-      <c r="AO8" s="117"/>
-      <c r="AP8" s="117"/>
-      <c r="AQ8" s="117"/>
-      <c r="AR8" s="122"/>
-      <c r="AS8" s="122"/>
-      <c r="AT8" s="123"/>
-      <c r="AU8" s="114"/>
-      <c r="AV8" s="114"/>
-      <c r="AW8" s="114"/>
-      <c r="AX8" s="114"/>
-      <c r="AY8" s="114"/>
-      <c r="AZ8" s="114"/>
-      <c r="BA8" s="114"/>
-      <c r="BB8" s="114"/>
-      <c r="BC8" s="114"/>
-      <c r="BD8" s="114"/>
-      <c r="BE8" s="114"/>
-      <c r="BF8" s="114"/>
-      <c r="BG8" s="114"/>
-      <c r="BH8" s="114"/>
-      <c r="BI8" s="114"/>
-      <c r="BJ8" s="114"/>
-      <c r="BK8" s="114"/>
-      <c r="BL8" s="114"/>
-      <c r="BM8" s="114"/>
-      <c r="BN8" s="114"/>
-      <c r="BO8" s="114"/>
-      <c r="BP8" s="114"/>
-      <c r="BQ8" s="133"/>
-      <c r="BR8" s="133"/>
-      <c r="BS8" s="133"/>
-      <c r="BT8" s="133"/>
-      <c r="BU8" s="133"/>
-      <c r="BV8" s="133"/>
-      <c r="BW8" s="133"/>
-      <c r="BX8" s="133"/>
-      <c r="BY8" s="133"/>
-      <c r="BZ8" s="133"/>
-      <c r="CA8" s="133"/>
-      <c r="CB8" s="133"/>
-      <c r="CC8" s="133"/>
-      <c r="CD8" s="133"/>
-      <c r="CE8" s="133"/>
-      <c r="CF8" s="133"/>
-      <c r="CG8" s="133"/>
-      <c r="CH8" s="133"/>
-      <c r="CI8" s="133"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="68"/>
+      <c r="AQ8" s="68"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="62"/>
+      <c r="BJ8" s="62"/>
+      <c r="BK8" s="62"/>
+      <c r="BL8" s="62"/>
+      <c r="BM8" s="62"/>
+      <c r="BN8" s="62"/>
+      <c r="BO8" s="62"/>
+      <c r="BP8" s="62"/>
+      <c r="BQ8" s="63"/>
+      <c r="BR8" s="63"/>
+      <c r="BS8" s="63"/>
+      <c r="BT8" s="63"/>
+      <c r="BU8" s="63"/>
+      <c r="BV8" s="63"/>
+      <c r="BW8" s="63"/>
+      <c r="BX8" s="63"/>
+      <c r="BY8" s="63"/>
+      <c r="BZ8" s="63"/>
+      <c r="CA8" s="63"/>
+      <c r="CB8" s="63"/>
+      <c r="CC8" s="63"/>
+      <c r="CD8" s="63"/>
+      <c r="CE8" s="63"/>
+      <c r="CF8" s="63"/>
+      <c r="CG8" s="63"/>
+      <c r="CH8" s="63"/>
+      <c r="CI8" s="63"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1">
-      <c r="B9" s="105">
-        <f t="shared" ref="B9:B15" si="0">ROW(B9)-7</f>
+      <c r="B9" s="64">
+        <f t="shared" ref="B9:B16" si="0">ROW(B9)-7</f>
         <v>2</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="126" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="126" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="108" t="s">
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="AI9" s="109"/>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="99" t="s">
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="AL9" s="100"/>
-      <c r="AM9" s="100"/>
-      <c r="AN9" s="100"/>
-      <c r="AO9" s="100"/>
-      <c r="AP9" s="100"/>
-      <c r="AQ9" s="100"/>
-      <c r="AR9" s="82"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="111" t="s">
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="111"/>
-      <c r="AX9" s="111"/>
-      <c r="AY9" s="111"/>
-      <c r="AZ9" s="111"/>
-      <c r="BA9" s="111"/>
-      <c r="BB9" s="111"/>
-      <c r="BC9" s="111"/>
-      <c r="BD9" s="111"/>
-      <c r="BE9" s="111" t="s">
+      <c r="AV9" s="75"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="75"/>
+      <c r="BA9" s="75"/>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="75"/>
+      <c r="BE9" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="BF9" s="111"/>
-      <c r="BG9" s="111"/>
-      <c r="BH9" s="111"/>
-      <c r="BI9" s="111"/>
-      <c r="BJ9" s="111"/>
-      <c r="BK9" s="111"/>
-      <c r="BL9" s="111"/>
-      <c r="BM9" s="111"/>
-      <c r="BN9" s="111"/>
-      <c r="BO9" s="111"/>
-      <c r="BP9" s="111"/>
-      <c r="BQ9" s="132"/>
-      <c r="BR9" s="132"/>
-      <c r="BS9" s="132"/>
-      <c r="BT9" s="132"/>
-      <c r="BU9" s="132"/>
-      <c r="BV9" s="132"/>
-      <c r="BW9" s="132"/>
-      <c r="BX9" s="132"/>
-      <c r="BY9" s="132"/>
-      <c r="BZ9" s="132"/>
-      <c r="CA9" s="132"/>
-      <c r="CB9" s="132"/>
-      <c r="CC9" s="132"/>
-      <c r="CD9" s="132"/>
-      <c r="CE9" s="132"/>
-      <c r="CF9" s="132"/>
-      <c r="CG9" s="132"/>
-      <c r="CH9" s="132"/>
-      <c r="CI9" s="132"/>
+      <c r="BF9" s="75"/>
+      <c r="BG9" s="75"/>
+      <c r="BH9" s="75"/>
+      <c r="BI9" s="75"/>
+      <c r="BJ9" s="75"/>
+      <c r="BK9" s="75"/>
+      <c r="BL9" s="75"/>
+      <c r="BM9" s="75"/>
+      <c r="BN9" s="75"/>
+      <c r="BO9" s="75"/>
+      <c r="BP9" s="75"/>
+      <c r="BQ9" s="76"/>
+      <c r="BR9" s="76"/>
+      <c r="BS9" s="76"/>
+      <c r="BT9" s="76"/>
+      <c r="BU9" s="76"/>
+      <c r="BV9" s="76"/>
+      <c r="BW9" s="76"/>
+      <c r="BX9" s="76"/>
+      <c r="BY9" s="76"/>
+      <c r="BZ9" s="76"/>
+      <c r="CA9" s="76"/>
+      <c r="CB9" s="76"/>
+      <c r="CC9" s="76"/>
+      <c r="CD9" s="76"/>
+      <c r="CE9" s="76"/>
+      <c r="CF9" s="76"/>
+      <c r="CG9" s="76"/>
+      <c r="CH9" s="76"/>
+      <c r="CI9" s="76"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1">
-      <c r="B10" s="105">
+      <c r="B10" s="64">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="131"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="130"/>
-      <c r="AJ10" s="131"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="127"/>
-      <c r="AM10" s="127"/>
-      <c r="AN10" s="127"/>
-      <c r="AO10" s="127"/>
-      <c r="AP10" s="127"/>
-      <c r="AQ10" s="127"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
-      <c r="AX10" s="124"/>
-      <c r="AY10" s="124"/>
-      <c r="AZ10" s="124"/>
-      <c r="BA10" s="124"/>
-      <c r="BB10" s="124"/>
-      <c r="BC10" s="124"/>
-      <c r="BD10" s="124"/>
-      <c r="BE10" s="124"/>
-      <c r="BF10" s="124"/>
-      <c r="BG10" s="124"/>
-      <c r="BH10" s="124"/>
-      <c r="BI10" s="124"/>
-      <c r="BJ10" s="124"/>
-      <c r="BK10" s="124"/>
-      <c r="BL10" s="124"/>
-      <c r="BM10" s="124"/>
-      <c r="BN10" s="124"/>
-      <c r="BO10" s="124"/>
-      <c r="BP10" s="124"/>
-      <c r="BQ10" s="125"/>
-      <c r="BR10" s="125"/>
-      <c r="BS10" s="125"/>
-      <c r="BT10" s="125"/>
-      <c r="BU10" s="125"/>
-      <c r="BV10" s="125"/>
-      <c r="BW10" s="125"/>
-      <c r="BX10" s="125"/>
-      <c r="BY10" s="125"/>
-      <c r="BZ10" s="125"/>
-      <c r="CA10" s="125"/>
-      <c r="CB10" s="125"/>
-      <c r="CC10" s="125"/>
-      <c r="CD10" s="125"/>
-      <c r="CE10" s="125"/>
-      <c r="CF10" s="125"/>
-      <c r="CG10" s="125"/>
-      <c r="CH10" s="125"/>
-      <c r="CI10" s="125"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="91"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="85"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="87"/>
+      <c r="BF10" s="87"/>
+      <c r="BG10" s="87"/>
+      <c r="BH10" s="87"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="87"/>
+      <c r="BK10" s="87"/>
+      <c r="BL10" s="87"/>
+      <c r="BM10" s="87"/>
+      <c r="BN10" s="87"/>
+      <c r="BO10" s="87"/>
+      <c r="BP10" s="87"/>
+      <c r="BQ10" s="88"/>
+      <c r="BR10" s="88"/>
+      <c r="BS10" s="88"/>
+      <c r="BT10" s="88"/>
+      <c r="BU10" s="88"/>
+      <c r="BV10" s="88"/>
+      <c r="BW10" s="88"/>
+      <c r="BX10" s="88"/>
+      <c r="BY10" s="88"/>
+      <c r="BZ10" s="88"/>
+      <c r="CA10" s="88"/>
+      <c r="CB10" s="88"/>
+      <c r="CC10" s="88"/>
+      <c r="CD10" s="88"/>
+      <c r="CE10" s="88"/>
+      <c r="CF10" s="88"/>
+      <c r="CG10" s="88"/>
+      <c r="CH10" s="88"/>
+      <c r="CI10" s="88"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1">
-      <c r="B11" s="105">
+      <c r="B11" s="64">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="116" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="120"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="119"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="121"/>
-      <c r="AK11" s="116"/>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="117"/>
-      <c r="AP11" s="117"/>
-      <c r="AQ11" s="117"/>
-      <c r="AR11" s="122"/>
-      <c r="AS11" s="122"/>
-      <c r="AT11" s="123"/>
-      <c r="AU11" s="114"/>
-      <c r="AV11" s="114"/>
-      <c r="AW11" s="114"/>
-      <c r="AX11" s="114"/>
-      <c r="AY11" s="114"/>
-      <c r="AZ11" s="114"/>
-      <c r="BA11" s="114"/>
-      <c r="BB11" s="114"/>
-      <c r="BC11" s="114"/>
-      <c r="BD11" s="114"/>
-      <c r="BE11" s="114"/>
-      <c r="BF11" s="114"/>
-      <c r="BG11" s="114"/>
-      <c r="BH11" s="114"/>
-      <c r="BI11" s="114"/>
-      <c r="BJ11" s="114"/>
-      <c r="BK11" s="114"/>
-      <c r="BL11" s="114"/>
-      <c r="BM11" s="114"/>
-      <c r="BN11" s="114"/>
-      <c r="BO11" s="114"/>
-      <c r="BP11" s="114"/>
-      <c r="BQ11" s="115"/>
-      <c r="BR11" s="115"/>
-      <c r="BS11" s="115"/>
-      <c r="BT11" s="115"/>
-      <c r="BU11" s="115"/>
-      <c r="BV11" s="115"/>
-      <c r="BW11" s="115"/>
-      <c r="BX11" s="115"/>
-      <c r="BY11" s="115"/>
-      <c r="BZ11" s="115"/>
-      <c r="CA11" s="115"/>
-      <c r="CB11" s="115"/>
-      <c r="CC11" s="115"/>
-      <c r="CD11" s="115"/>
-      <c r="CE11" s="115"/>
-      <c r="CF11" s="115"/>
-      <c r="CG11" s="115"/>
-      <c r="CH11" s="115"/>
-      <c r="CI11" s="115"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="68"/>
+      <c r="AQ11" s="68"/>
+      <c r="AR11" s="73"/>
+      <c r="AS11" s="73"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62"/>
+      <c r="AW11" s="62"/>
+      <c r="AX11" s="62"/>
+      <c r="AY11" s="62"/>
+      <c r="AZ11" s="62"/>
+      <c r="BA11" s="62"/>
+      <c r="BB11" s="62"/>
+      <c r="BC11" s="62"/>
+      <c r="BD11" s="62"/>
+      <c r="BE11" s="62"/>
+      <c r="BF11" s="62"/>
+      <c r="BG11" s="62"/>
+      <c r="BH11" s="62"/>
+      <c r="BI11" s="62"/>
+      <c r="BJ11" s="62"/>
+      <c r="BK11" s="62"/>
+      <c r="BL11" s="62"/>
+      <c r="BM11" s="62"/>
+      <c r="BN11" s="62"/>
+      <c r="BO11" s="62"/>
+      <c r="BP11" s="62"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="92"/>
+      <c r="BS11" s="92"/>
+      <c r="BT11" s="92"/>
+      <c r="BU11" s="92"/>
+      <c r="BV11" s="92"/>
+      <c r="BW11" s="92"/>
+      <c r="BX11" s="92"/>
+      <c r="BY11" s="92"/>
+      <c r="BZ11" s="92"/>
+      <c r="CA11" s="92"/>
+      <c r="CB11" s="92"/>
+      <c r="CC11" s="92"/>
+      <c r="CD11" s="92"/>
+      <c r="CE11" s="92"/>
+      <c r="CF11" s="92"/>
+      <c r="CG11" s="92"/>
+      <c r="CH11" s="92"/>
+      <c r="CI11" s="92"/>
     </row>
     <row r="12" spans="1:1024" ht="18" customHeight="1">
-      <c r="B12" s="105">
+      <c r="B12" s="64">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="99" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="108" t="s">
-        <v>50</v>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="80" t="s">
+        <v>49</v>
       </c>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="99" t="s">
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="100"/>
-      <c r="AE12" s="100"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="108" t="s">
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="110"/>
-      <c r="AK12" s="99" t="s">
+      <c r="AI12" s="81"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="AL12" s="100"/>
-      <c r="AM12" s="100"/>
-      <c r="AN12" s="100"/>
-      <c r="AO12" s="100"/>
-      <c r="AP12" s="100"/>
-      <c r="AQ12" s="100"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="111" t="s">
-        <v>48</v>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="85"/>
+      <c r="AS12" s="85"/>
+      <c r="AT12" s="86"/>
+      <c r="AU12" s="75" t="s">
+        <v>46</v>
       </c>
-      <c r="AV12" s="111"/>
-      <c r="AW12" s="111"/>
-      <c r="AX12" s="111"/>
-      <c r="AY12" s="111"/>
-      <c r="AZ12" s="111"/>
-      <c r="BA12" s="111"/>
-      <c r="BB12" s="111"/>
-      <c r="BC12" s="111"/>
-      <c r="BD12" s="111"/>
-      <c r="BE12" s="111" t="s">
-        <v>51</v>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="75"/>
+      <c r="AX12" s="75"/>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="75"/>
+      <c r="BA12" s="75"/>
+      <c r="BB12" s="75"/>
+      <c r="BC12" s="75"/>
+      <c r="BD12" s="75"/>
+      <c r="BE12" s="75" t="s">
+        <v>29</v>
       </c>
-      <c r="BF12" s="111"/>
-      <c r="BG12" s="111"/>
-      <c r="BH12" s="111"/>
-      <c r="BI12" s="111"/>
-      <c r="BJ12" s="111"/>
-      <c r="BK12" s="111"/>
-      <c r="BL12" s="111"/>
-      <c r="BM12" s="111"/>
-      <c r="BN12" s="111"/>
-      <c r="BO12" s="111"/>
-      <c r="BP12" s="111"/>
-      <c r="BQ12" s="112" t="s">
+      <c r="BF12" s="75"/>
+      <c r="BG12" s="75"/>
+      <c r="BH12" s="75"/>
+      <c r="BI12" s="75"/>
+      <c r="BJ12" s="75"/>
+      <c r="BK12" s="75"/>
+      <c r="BL12" s="75"/>
+      <c r="BM12" s="75"/>
+      <c r="BN12" s="75"/>
+      <c r="BO12" s="75"/>
+      <c r="BP12" s="75"/>
+      <c r="BQ12" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="BR12" s="112"/>
-      <c r="BS12" s="112"/>
-      <c r="BT12" s="112"/>
-      <c r="BU12" s="112"/>
-      <c r="BV12" s="112"/>
-      <c r="BW12" s="112"/>
-      <c r="BX12" s="112"/>
-      <c r="BY12" s="112"/>
-      <c r="BZ12" s="112"/>
-      <c r="CA12" s="112"/>
-      <c r="CB12" s="112"/>
-      <c r="CC12" s="112"/>
-      <c r="CD12" s="112"/>
-      <c r="CE12" s="112"/>
-      <c r="CF12" s="112"/>
-      <c r="CG12" s="112"/>
-      <c r="CH12" s="112"/>
-      <c r="CI12" s="112"/>
+      <c r="BR12" s="93"/>
+      <c r="BS12" s="93"/>
+      <c r="BT12" s="93"/>
+      <c r="BU12" s="93"/>
+      <c r="BV12" s="93"/>
+      <c r="BW12" s="93"/>
+      <c r="BX12" s="93"/>
+      <c r="BY12" s="93"/>
+      <c r="BZ12" s="93"/>
+      <c r="CA12" s="93"/>
+      <c r="CB12" s="93"/>
+      <c r="CC12" s="93"/>
+      <c r="CD12" s="93"/>
+      <c r="CE12" s="93"/>
+      <c r="CF12" s="93"/>
+      <c r="CG12" s="93"/>
+      <c r="CH12" s="93"/>
+      <c r="CI12" s="93"/>
     </row>
-    <row r="13" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B13" s="105">
+    <row r="13" spans="1:1024" ht="18" customHeight="1">
+      <c r="B13" s="64">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="99" t="s">
-        <v>54</v>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="83" t="s">
+        <v>58</v>
       </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="108" t="s">
-        <v>50</v>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="80" t="s">
+        <v>49</v>
       </c>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="99" t="s">
-        <v>24</v>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="83" t="s">
+        <v>26</v>
       </c>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="100"/>
-      <c r="AE13" s="100"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="108" t="s">
-        <v>44</v>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="80" t="s">
+        <v>27</v>
       </c>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="110"/>
-      <c r="AK13" s="99" t="s">
-        <v>45</v>
+      <c r="AI13" s="81"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="83" t="s">
+        <v>28</v>
       </c>
-      <c r="AL13" s="100"/>
-      <c r="AM13" s="100"/>
-      <c r="AN13" s="100"/>
-      <c r="AO13" s="100"/>
-      <c r="AP13" s="100"/>
-      <c r="AQ13" s="100"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="99" t="s">
-        <v>48</v>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="85"/>
+      <c r="AS13" s="85"/>
+      <c r="AT13" s="86"/>
+      <c r="AU13" s="75" t="s">
+        <v>29</v>
       </c>
-      <c r="AV13" s="100"/>
-      <c r="AW13" s="100"/>
-      <c r="AX13" s="100"/>
-      <c r="AY13" s="100"/>
-      <c r="AZ13" s="100"/>
-      <c r="BA13" s="100"/>
-      <c r="BB13" s="100"/>
-      <c r="BC13" s="100"/>
-      <c r="BD13" s="101"/>
-      <c r="BE13" s="113" t="s">
-        <v>55</v>
+      <c r="AV13" s="75"/>
+      <c r="AW13" s="75"/>
+      <c r="AX13" s="75"/>
+      <c r="AY13" s="75"/>
+      <c r="AZ13" s="75"/>
+      <c r="BA13" s="75"/>
+      <c r="BB13" s="75"/>
+      <c r="BC13" s="75"/>
+      <c r="BD13" s="75"/>
+      <c r="BE13" s="75" t="s">
+        <v>29</v>
       </c>
-      <c r="BF13" s="100"/>
-      <c r="BG13" s="100"/>
-      <c r="BH13" s="100"/>
-      <c r="BI13" s="100"/>
-      <c r="BJ13" s="100"/>
-      <c r="BK13" s="100"/>
-      <c r="BL13" s="100"/>
-      <c r="BM13" s="100"/>
-      <c r="BN13" s="100"/>
-      <c r="BO13" s="100"/>
-      <c r="BP13" s="101"/>
-      <c r="BQ13" s="112" t="s">
-        <v>52</v>
+      <c r="BF13" s="75"/>
+      <c r="BG13" s="75"/>
+      <c r="BH13" s="75"/>
+      <c r="BI13" s="75"/>
+      <c r="BJ13" s="75"/>
+      <c r="BK13" s="75"/>
+      <c r="BL13" s="75"/>
+      <c r="BM13" s="75"/>
+      <c r="BN13" s="75"/>
+      <c r="BO13" s="75"/>
+      <c r="BP13" s="75"/>
+      <c r="BQ13" s="93" t="s">
+        <v>59</v>
       </c>
-      <c r="BR13" s="112"/>
-      <c r="BS13" s="112"/>
-      <c r="BT13" s="112"/>
-      <c r="BU13" s="112"/>
-      <c r="BV13" s="112"/>
-      <c r="BW13" s="112"/>
-      <c r="BX13" s="112"/>
-      <c r="BY13" s="112"/>
-      <c r="BZ13" s="112"/>
-      <c r="CA13" s="112"/>
-      <c r="CB13" s="112"/>
-      <c r="CC13" s="112"/>
-      <c r="CD13" s="112"/>
-      <c r="CE13" s="112"/>
-      <c r="CF13" s="112"/>
-      <c r="CG13" s="112"/>
-      <c r="CH13" s="112"/>
-      <c r="CI13" s="112"/>
+      <c r="BR13" s="93"/>
+      <c r="BS13" s="93"/>
+      <c r="BT13" s="93"/>
+      <c r="BU13" s="93"/>
+      <c r="BV13" s="93"/>
+      <c r="BW13" s="93"/>
+      <c r="BX13" s="93"/>
+      <c r="BY13" s="93"/>
+      <c r="BZ13" s="93"/>
+      <c r="CA13" s="93"/>
+      <c r="CB13" s="93"/>
+      <c r="CC13" s="93"/>
+      <c r="CD13" s="93"/>
+      <c r="CE13" s="93"/>
+      <c r="CF13" s="93"/>
+      <c r="CG13" s="93"/>
+      <c r="CH13" s="93"/>
+      <c r="CI13" s="93"/>
     </row>
     <row r="14" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B14" s="105">
+      <c r="B14" s="64">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="99" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="108" t="s">
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="85"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="84"/>
+      <c r="AZ14" s="84"/>
+      <c r="BA14" s="84"/>
+      <c r="BB14" s="84"/>
+      <c r="BC14" s="84"/>
+      <c r="BD14" s="94"/>
+      <c r="BE14" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF14" s="84"/>
+      <c r="BG14" s="84"/>
+      <c r="BH14" s="84"/>
+      <c r="BI14" s="84"/>
+      <c r="BJ14" s="84"/>
+      <c r="BK14" s="84"/>
+      <c r="BL14" s="84"/>
+      <c r="BM14" s="84"/>
+      <c r="BN14" s="84"/>
+      <c r="BO14" s="84"/>
+      <c r="BP14" s="94"/>
+      <c r="BQ14" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="110"/>
-      <c r="AK14" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL14" s="100"/>
-      <c r="AM14" s="100"/>
-      <c r="AN14" s="100"/>
-      <c r="AO14" s="100"/>
-      <c r="AP14" s="100"/>
-      <c r="AQ14" s="100"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="83"/>
-      <c r="AU14" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV14" s="100"/>
-      <c r="AW14" s="100"/>
-      <c r="AX14" s="100"/>
-      <c r="AY14" s="100"/>
-      <c r="AZ14" s="100"/>
-      <c r="BA14" s="100"/>
-      <c r="BB14" s="100"/>
-      <c r="BC14" s="100"/>
-      <c r="BD14" s="101"/>
-      <c r="BE14" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF14" s="100"/>
-      <c r="BG14" s="100"/>
-      <c r="BH14" s="100"/>
-      <c r="BI14" s="100"/>
-      <c r="BJ14" s="100"/>
-      <c r="BK14" s="100"/>
-      <c r="BL14" s="100"/>
-      <c r="BM14" s="100"/>
-      <c r="BN14" s="100"/>
-      <c r="BO14" s="100"/>
-      <c r="BP14" s="101"/>
-      <c r="BQ14" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="BR14" s="112"/>
-      <c r="BS14" s="112"/>
-      <c r="BT14" s="112"/>
-      <c r="BU14" s="112"/>
-      <c r="BV14" s="112"/>
-      <c r="BW14" s="112"/>
-      <c r="BX14" s="112"/>
-      <c r="BY14" s="112"/>
-      <c r="BZ14" s="112"/>
-      <c r="CA14" s="112"/>
-      <c r="CB14" s="112"/>
-      <c r="CC14" s="112"/>
-      <c r="CD14" s="112"/>
-      <c r="CE14" s="112"/>
-      <c r="CF14" s="112"/>
-      <c r="CG14" s="112"/>
-      <c r="CH14" s="112"/>
-      <c r="CI14" s="112"/>
+      <c r="BR14" s="93"/>
+      <c r="BS14" s="93"/>
+      <c r="BT14" s="93"/>
+      <c r="BU14" s="93"/>
+      <c r="BV14" s="93"/>
+      <c r="BW14" s="93"/>
+      <c r="BX14" s="93"/>
+      <c r="BY14" s="93"/>
+      <c r="BZ14" s="93"/>
+      <c r="CA14" s="93"/>
+      <c r="CB14" s="93"/>
+      <c r="CC14" s="93"/>
+      <c r="CD14" s="93"/>
+      <c r="CE14" s="93"/>
+      <c r="CF14" s="93"/>
+      <c r="CG14" s="93"/>
+      <c r="CH14" s="93"/>
+      <c r="CI14" s="93"/>
     </row>
     <row r="15" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B15" s="105">
+      <c r="B15" s="64">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="99" t="s">
-        <v>56</v>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="83" t="s">
+        <v>48</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="108" t="s">
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL15" s="84"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="84"/>
+      <c r="AO15" s="84"/>
+      <c r="AP15" s="84"/>
+      <c r="AQ15" s="84"/>
+      <c r="AR15" s="84"/>
+      <c r="AS15" s="84"/>
+      <c r="AT15" s="94"/>
+      <c r="AU15" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV15" s="84"/>
+      <c r="AW15" s="84"/>
+      <c r="AX15" s="84"/>
+      <c r="AY15" s="84"/>
+      <c r="AZ15" s="84"/>
+      <c r="BA15" s="84"/>
+      <c r="BB15" s="84"/>
+      <c r="BC15" s="84"/>
+      <c r="BD15" s="94"/>
+      <c r="BE15" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF15" s="84"/>
+      <c r="BG15" s="84"/>
+      <c r="BH15" s="84"/>
+      <c r="BI15" s="84"/>
+      <c r="BJ15" s="84"/>
+      <c r="BK15" s="84"/>
+      <c r="BL15" s="84"/>
+      <c r="BM15" s="84"/>
+      <c r="BN15" s="84"/>
+      <c r="BO15" s="84"/>
+      <c r="BP15" s="94"/>
+      <c r="BQ15" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="Z15" s="109"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="99" t="s">
+      <c r="BR15" s="97"/>
+      <c r="BS15" s="97"/>
+      <c r="BT15" s="97"/>
+      <c r="BU15" s="97"/>
+      <c r="BV15" s="97"/>
+      <c r="BW15" s="97"/>
+      <c r="BX15" s="97"/>
+      <c r="BY15" s="97"/>
+      <c r="BZ15" s="97"/>
+      <c r="CA15" s="97"/>
+      <c r="CB15" s="97"/>
+      <c r="CC15" s="97"/>
+      <c r="CD15" s="97"/>
+      <c r="CE15" s="97"/>
+      <c r="CF15" s="97"/>
+      <c r="CG15" s="97"/>
+      <c r="CH15" s="97"/>
+      <c r="CI15" s="98"/>
+    </row>
+    <row r="16" spans="1:1024" ht="36.75" customHeight="1">
+      <c r="B16" s="64">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="100"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="108" t="s">
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="99" t="s">
-        <v>58</v>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="83" t="s">
+        <v>53</v>
       </c>
-      <c r="AL15" s="100"/>
-      <c r="AM15" s="100"/>
-      <c r="AN15" s="100"/>
-      <c r="AO15" s="100"/>
-      <c r="AP15" s="100"/>
-      <c r="AQ15" s="100"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="83"/>
-      <c r="AU15" s="99" t="s">
+      <c r="AL16" s="84"/>
+      <c r="AM16" s="84"/>
+      <c r="AN16" s="84"/>
+      <c r="AO16" s="84"/>
+      <c r="AP16" s="84"/>
+      <c r="AQ16" s="84"/>
+      <c r="AR16" s="84"/>
+      <c r="AS16" s="84"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="AV15" s="100"/>
-      <c r="AW15" s="100"/>
-      <c r="AX15" s="100"/>
-      <c r="AY15" s="100"/>
-      <c r="AZ15" s="100"/>
-      <c r="BA15" s="100"/>
-      <c r="BB15" s="100"/>
-      <c r="BC15" s="100"/>
-      <c r="BD15" s="101"/>
-      <c r="BE15" s="111" t="s">
+      <c r="AV16" s="84"/>
+      <c r="AW16" s="84"/>
+      <c r="AX16" s="84"/>
+      <c r="AY16" s="84"/>
+      <c r="AZ16" s="84"/>
+      <c r="BA16" s="84"/>
+      <c r="BB16" s="84"/>
+      <c r="BC16" s="84"/>
+      <c r="BD16" s="94"/>
+      <c r="BE16" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="BF15" s="111"/>
-      <c r="BG15" s="111"/>
-      <c r="BH15" s="111"/>
-      <c r="BI15" s="111"/>
-      <c r="BJ15" s="111"/>
-      <c r="BK15" s="111"/>
-      <c r="BL15" s="111"/>
-      <c r="BM15" s="111"/>
-      <c r="BN15" s="111"/>
-      <c r="BO15" s="111"/>
-      <c r="BP15" s="111"/>
-      <c r="BQ15" s="112" t="s">
-        <v>59</v>
+      <c r="BF16" s="84"/>
+      <c r="BG16" s="84"/>
+      <c r="BH16" s="84"/>
+      <c r="BI16" s="84"/>
+      <c r="BJ16" s="84"/>
+      <c r="BK16" s="84"/>
+      <c r="BL16" s="84"/>
+      <c r="BM16" s="84"/>
+      <c r="BN16" s="84"/>
+      <c r="BO16" s="84"/>
+      <c r="BP16" s="94"/>
+      <c r="BQ16" s="96" t="s">
+        <v>54</v>
       </c>
-      <c r="BR15" s="112"/>
-      <c r="BS15" s="112"/>
-      <c r="BT15" s="112"/>
-      <c r="BU15" s="112"/>
-      <c r="BV15" s="112"/>
-      <c r="BW15" s="112"/>
-      <c r="BX15" s="112"/>
-      <c r="BY15" s="112"/>
-      <c r="BZ15" s="112"/>
-      <c r="CA15" s="112"/>
-      <c r="CB15" s="112"/>
-      <c r="CC15" s="112"/>
-      <c r="CD15" s="112"/>
-      <c r="CE15" s="112"/>
-      <c r="CF15" s="112"/>
-      <c r="CG15" s="112"/>
-      <c r="CH15" s="112"/>
-      <c r="CI15" s="112"/>
-    </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1">
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="108"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="101"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="110"/>
-      <c r="AK16" s="99"/>
-      <c r="AL16" s="100"/>
-      <c r="AM16" s="100"/>
-      <c r="AN16" s="100"/>
-      <c r="AO16" s="100"/>
-      <c r="AP16" s="100"/>
-      <c r="AQ16" s="100"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="83"/>
-      <c r="AU16" s="99"/>
-      <c r="AV16" s="100"/>
-      <c r="AW16" s="100"/>
-      <c r="AX16" s="100"/>
-      <c r="AY16" s="100"/>
-      <c r="AZ16" s="100"/>
-      <c r="BA16" s="100"/>
-      <c r="BB16" s="100"/>
-      <c r="BC16" s="100"/>
-      <c r="BD16" s="101"/>
-      <c r="BE16" s="111"/>
-      <c r="BF16" s="111"/>
-      <c r="BG16" s="111"/>
-      <c r="BH16" s="111"/>
-      <c r="BI16" s="111"/>
-      <c r="BJ16" s="111"/>
-      <c r="BK16" s="111"/>
-      <c r="BL16" s="111"/>
-      <c r="BM16" s="111"/>
-      <c r="BN16" s="111"/>
-      <c r="BO16" s="111"/>
-      <c r="BP16" s="111"/>
-      <c r="BQ16" s="112"/>
-      <c r="BR16" s="112"/>
-      <c r="BS16" s="112"/>
-      <c r="BT16" s="112"/>
-      <c r="BU16" s="112"/>
-      <c r="BV16" s="112"/>
-      <c r="BW16" s="112"/>
-      <c r="BX16" s="112"/>
-      <c r="BY16" s="112"/>
-      <c r="BZ16" s="112"/>
-      <c r="CA16" s="112"/>
-      <c r="CB16" s="112"/>
-      <c r="CC16" s="112"/>
-      <c r="CD16" s="112"/>
-      <c r="CE16" s="112"/>
-      <c r="CF16" s="112"/>
-      <c r="CG16" s="112"/>
-      <c r="CH16" s="112"/>
-      <c r="CI16" s="112"/>
+      <c r="BR16" s="97"/>
+      <c r="BS16" s="97"/>
+      <c r="BT16" s="97"/>
+      <c r="BU16" s="97"/>
+      <c r="BV16" s="97"/>
+      <c r="BW16" s="97"/>
+      <c r="BX16" s="97"/>
+      <c r="BY16" s="97"/>
+      <c r="BZ16" s="97"/>
+      <c r="CA16" s="97"/>
+      <c r="CB16" s="97"/>
+      <c r="CC16" s="97"/>
+      <c r="CD16" s="97"/>
+      <c r="CE16" s="97"/>
+      <c r="CF16" s="97"/>
+      <c r="CG16" s="97"/>
+      <c r="CH16" s="97"/>
+      <c r="CI16" s="98"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1">
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="100"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="108"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="101"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="110"/>
-      <c r="AK17" s="99"/>
-      <c r="AL17" s="100"/>
-      <c r="AM17" s="100"/>
-      <c r="AN17" s="100"/>
-      <c r="AO17" s="100"/>
-      <c r="AP17" s="100"/>
-      <c r="AQ17" s="100"/>
-      <c r="AR17" s="82"/>
-      <c r="AS17" s="82"/>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="99"/>
-      <c r="AV17" s="100"/>
-      <c r="AW17" s="100"/>
-      <c r="AX17" s="100"/>
-      <c r="AY17" s="100"/>
-      <c r="AZ17" s="100"/>
-      <c r="BA17" s="100"/>
-      <c r="BB17" s="100"/>
-      <c r="BC17" s="100"/>
-      <c r="BD17" s="101"/>
-      <c r="BE17" s="99"/>
-      <c r="BF17" s="100"/>
-      <c r="BG17" s="100"/>
-      <c r="BH17" s="100"/>
-      <c r="BI17" s="100"/>
-      <c r="BJ17" s="100"/>
-      <c r="BK17" s="100"/>
-      <c r="BL17" s="100"/>
-      <c r="BM17" s="100"/>
-      <c r="BN17" s="100"/>
-      <c r="BO17" s="100"/>
-      <c r="BP17" s="101"/>
-      <c r="BQ17" s="102"/>
-      <c r="BR17" s="103"/>
-      <c r="BS17" s="103"/>
-      <c r="BT17" s="103"/>
-      <c r="BU17" s="103"/>
-      <c r="BV17" s="103"/>
-      <c r="BW17" s="103"/>
-      <c r="BX17" s="103"/>
-      <c r="BY17" s="103"/>
-      <c r="BZ17" s="103"/>
-      <c r="CA17" s="103"/>
-      <c r="CB17" s="103"/>
-      <c r="CC17" s="103"/>
-      <c r="CD17" s="103"/>
-      <c r="CE17" s="103"/>
-      <c r="CF17" s="103"/>
-      <c r="CG17" s="103"/>
-      <c r="CH17" s="103"/>
-      <c r="CI17" s="104"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="82"/>
+      <c r="AK17" s="83"/>
+      <c r="AL17" s="84"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
+      <c r="AS17" s="84"/>
+      <c r="AT17" s="94"/>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="84"/>
+      <c r="AW17" s="84"/>
+      <c r="AX17" s="84"/>
+      <c r="AY17" s="84"/>
+      <c r="AZ17" s="84"/>
+      <c r="BA17" s="84"/>
+      <c r="BB17" s="84"/>
+      <c r="BC17" s="84"/>
+      <c r="BD17" s="94"/>
+      <c r="BE17" s="83"/>
+      <c r="BF17" s="84"/>
+      <c r="BG17" s="84"/>
+      <c r="BH17" s="84"/>
+      <c r="BI17" s="84"/>
+      <c r="BJ17" s="84"/>
+      <c r="BK17" s="84"/>
+      <c r="BL17" s="84"/>
+      <c r="BM17" s="84"/>
+      <c r="BN17" s="84"/>
+      <c r="BO17" s="84"/>
+      <c r="BP17" s="94"/>
+      <c r="BQ17" s="96"/>
+      <c r="BR17" s="97"/>
+      <c r="BS17" s="97"/>
+      <c r="BT17" s="97"/>
+      <c r="BU17" s="97"/>
+      <c r="BV17" s="97"/>
+      <c r="BW17" s="97"/>
+      <c r="BX17" s="97"/>
+      <c r="BY17" s="97"/>
+      <c r="BZ17" s="97"/>
+      <c r="CA17" s="97"/>
+      <c r="CB17" s="97"/>
+      <c r="CC17" s="97"/>
+      <c r="CD17" s="97"/>
+      <c r="CE17" s="97"/>
+      <c r="CF17" s="97"/>
+      <c r="CG17" s="97"/>
+      <c r="CH17" s="97"/>
+      <c r="CI17" s="98"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1">
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="100"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="100"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="108"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="110"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="100"/>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="101"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="109"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="100"/>
-      <c r="AM18" s="100"/>
-      <c r="AN18" s="100"/>
-      <c r="AO18" s="100"/>
-      <c r="AP18" s="100"/>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="82"/>
-      <c r="AS18" s="82"/>
-      <c r="AT18" s="83"/>
-      <c r="AU18" s="99"/>
-      <c r="AV18" s="100"/>
-      <c r="AW18" s="100"/>
-      <c r="AX18" s="100"/>
-      <c r="AY18" s="100"/>
-      <c r="AZ18" s="100"/>
-      <c r="BA18" s="100"/>
-      <c r="BB18" s="100"/>
-      <c r="BC18" s="100"/>
-      <c r="BD18" s="101"/>
-      <c r="BE18" s="99"/>
-      <c r="BF18" s="100"/>
-      <c r="BG18" s="100"/>
-      <c r="BH18" s="100"/>
-      <c r="BI18" s="100"/>
-      <c r="BJ18" s="100"/>
-      <c r="BK18" s="100"/>
-      <c r="BL18" s="100"/>
-      <c r="BM18" s="100"/>
-      <c r="BN18" s="100"/>
-      <c r="BO18" s="100"/>
-      <c r="BP18" s="101"/>
-      <c r="BQ18" s="102"/>
-      <c r="BR18" s="103"/>
-      <c r="BS18" s="103"/>
-      <c r="BT18" s="103"/>
-      <c r="BU18" s="103"/>
-      <c r="BV18" s="103"/>
-      <c r="BW18" s="103"/>
-      <c r="BX18" s="103"/>
-      <c r="BY18" s="103"/>
-      <c r="BZ18" s="103"/>
-      <c r="CA18" s="103"/>
-      <c r="CB18" s="103"/>
-      <c r="CC18" s="103"/>
-      <c r="CD18" s="103"/>
-      <c r="CE18" s="103"/>
-      <c r="CF18" s="103"/>
-      <c r="CG18" s="103"/>
-      <c r="CH18" s="103"/>
-      <c r="CI18" s="104"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="84"/>
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="85"/>
+      <c r="AS18" s="85"/>
+      <c r="AT18" s="86"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="84"/>
+      <c r="AW18" s="84"/>
+      <c r="AX18" s="84"/>
+      <c r="AY18" s="84"/>
+      <c r="AZ18" s="84"/>
+      <c r="BA18" s="84"/>
+      <c r="BB18" s="84"/>
+      <c r="BC18" s="84"/>
+      <c r="BD18" s="94"/>
+      <c r="BE18" s="83"/>
+      <c r="BF18" s="84"/>
+      <c r="BG18" s="84"/>
+      <c r="BH18" s="84"/>
+      <c r="BI18" s="84"/>
+      <c r="BJ18" s="84"/>
+      <c r="BK18" s="84"/>
+      <c r="BL18" s="84"/>
+      <c r="BM18" s="84"/>
+      <c r="BN18" s="84"/>
+      <c r="BO18" s="84"/>
+      <c r="BP18" s="94"/>
+      <c r="BQ18" s="96"/>
+      <c r="BR18" s="97"/>
+      <c r="BS18" s="97"/>
+      <c r="BT18" s="97"/>
+      <c r="BU18" s="97"/>
+      <c r="BV18" s="97"/>
+      <c r="BW18" s="97"/>
+      <c r="BX18" s="97"/>
+      <c r="BY18" s="97"/>
+      <c r="BZ18" s="97"/>
+      <c r="CA18" s="97"/>
+      <c r="CB18" s="97"/>
+      <c r="CC18" s="97"/>
+      <c r="CD18" s="97"/>
+      <c r="CE18" s="97"/>
+      <c r="CF18" s="97"/>
+      <c r="CG18" s="97"/>
+      <c r="CH18" s="97"/>
+      <c r="CI18" s="98"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1">
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="100"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="100"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="108"/>
-      <c r="Z19" s="109"/>
-      <c r="AA19" s="110"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="100"/>
-      <c r="AD19" s="100"/>
-      <c r="AE19" s="100"/>
-      <c r="AF19" s="100"/>
-      <c r="AG19" s="101"/>
-      <c r="AH19" s="108"/>
-      <c r="AI19" s="109"/>
-      <c r="AJ19" s="110"/>
-      <c r="AK19" s="99"/>
-      <c r="AL19" s="100"/>
-      <c r="AM19" s="100"/>
-      <c r="AN19" s="100"/>
-      <c r="AO19" s="100"/>
-      <c r="AP19" s="100"/>
-      <c r="AQ19" s="100"/>
-      <c r="AR19" s="82"/>
-      <c r="AS19" s="82"/>
-      <c r="AT19" s="83"/>
-      <c r="AU19" s="99"/>
-      <c r="AV19" s="100"/>
-      <c r="AW19" s="100"/>
-      <c r="AX19" s="100"/>
-      <c r="AY19" s="100"/>
-      <c r="AZ19" s="100"/>
-      <c r="BA19" s="100"/>
-      <c r="BB19" s="100"/>
-      <c r="BC19" s="100"/>
-      <c r="BD19" s="101"/>
-      <c r="BE19" s="99"/>
-      <c r="BF19" s="100"/>
-      <c r="BG19" s="100"/>
-      <c r="BH19" s="100"/>
-      <c r="BI19" s="100"/>
-      <c r="BJ19" s="100"/>
-      <c r="BK19" s="100"/>
-      <c r="BL19" s="100"/>
-      <c r="BM19" s="100"/>
-      <c r="BN19" s="100"/>
-      <c r="BO19" s="100"/>
-      <c r="BP19" s="101"/>
-      <c r="BQ19" s="102"/>
-      <c r="BR19" s="103"/>
-      <c r="BS19" s="103"/>
-      <c r="BT19" s="103"/>
-      <c r="BU19" s="103"/>
-      <c r="BV19" s="103"/>
-      <c r="BW19" s="103"/>
-      <c r="BX19" s="103"/>
-      <c r="BY19" s="103"/>
-      <c r="BZ19" s="103"/>
-      <c r="CA19" s="103"/>
-      <c r="CB19" s="103"/>
-      <c r="CC19" s="103"/>
-      <c r="CD19" s="103"/>
-      <c r="CE19" s="103"/>
-      <c r="CF19" s="103"/>
-      <c r="CG19" s="103"/>
-      <c r="CH19" s="103"/>
-      <c r="CI19" s="104"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="84"/>
+      <c r="AM19" s="84"/>
+      <c r="AN19" s="84"/>
+      <c r="AO19" s="84"/>
+      <c r="AP19" s="84"/>
+      <c r="AQ19" s="84"/>
+      <c r="AR19" s="85"/>
+      <c r="AS19" s="85"/>
+      <c r="AT19" s="86"/>
+      <c r="AU19" s="83"/>
+      <c r="AV19" s="84"/>
+      <c r="AW19" s="84"/>
+      <c r="AX19" s="84"/>
+      <c r="AY19" s="84"/>
+      <c r="AZ19" s="84"/>
+      <c r="BA19" s="84"/>
+      <c r="BB19" s="84"/>
+      <c r="BC19" s="84"/>
+      <c r="BD19" s="94"/>
+      <c r="BE19" s="83"/>
+      <c r="BF19" s="84"/>
+      <c r="BG19" s="84"/>
+      <c r="BH19" s="84"/>
+      <c r="BI19" s="84"/>
+      <c r="BJ19" s="84"/>
+      <c r="BK19" s="84"/>
+      <c r="BL19" s="84"/>
+      <c r="BM19" s="84"/>
+      <c r="BN19" s="84"/>
+      <c r="BO19" s="84"/>
+      <c r="BP19" s="94"/>
+      <c r="BQ19" s="96"/>
+      <c r="BR19" s="97"/>
+      <c r="BS19" s="97"/>
+      <c r="BT19" s="97"/>
+      <c r="BU19" s="97"/>
+      <c r="BV19" s="97"/>
+      <c r="BW19" s="97"/>
+      <c r="BX19" s="97"/>
+      <c r="BY19" s="97"/>
+      <c r="BZ19" s="97"/>
+      <c r="CA19" s="97"/>
+      <c r="CB19" s="97"/>
+      <c r="CC19" s="97"/>
+      <c r="CD19" s="97"/>
+      <c r="CE19" s="97"/>
+      <c r="CF19" s="97"/>
+      <c r="CG19" s="97"/>
+      <c r="CH19" s="97"/>
+      <c r="CI19" s="98"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1">
-      <c r="B20" s="105"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="100"/>
-      <c r="AE20" s="100"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="101"/>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="109"/>
-      <c r="AJ20" s="110"/>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="100"/>
-      <c r="AM20" s="100"/>
-      <c r="AN20" s="100"/>
-      <c r="AO20" s="100"/>
-      <c r="AP20" s="100"/>
-      <c r="AQ20" s="100"/>
-      <c r="AR20" s="82"/>
-      <c r="AS20" s="82"/>
-      <c r="AT20" s="83"/>
-      <c r="AU20" s="99"/>
-      <c r="AV20" s="100"/>
-      <c r="AW20" s="100"/>
-      <c r="AX20" s="100"/>
-      <c r="AY20" s="100"/>
-      <c r="AZ20" s="100"/>
-      <c r="BA20" s="100"/>
-      <c r="BB20" s="100"/>
-      <c r="BC20" s="100"/>
-      <c r="BD20" s="101"/>
-      <c r="BE20" s="99"/>
-      <c r="BF20" s="100"/>
-      <c r="BG20" s="100"/>
-      <c r="BH20" s="100"/>
-      <c r="BI20" s="100"/>
-      <c r="BJ20" s="100"/>
-      <c r="BK20" s="100"/>
-      <c r="BL20" s="100"/>
-      <c r="BM20" s="100"/>
-      <c r="BN20" s="100"/>
-      <c r="BO20" s="100"/>
-      <c r="BP20" s="101"/>
-      <c r="BQ20" s="102"/>
-      <c r="BR20" s="103"/>
-      <c r="BS20" s="103"/>
-      <c r="BT20" s="103"/>
-      <c r="BU20" s="103"/>
-      <c r="BV20" s="103"/>
-      <c r="BW20" s="103"/>
-      <c r="BX20" s="103"/>
-      <c r="BY20" s="103"/>
-      <c r="BZ20" s="103"/>
-      <c r="CA20" s="103"/>
-      <c r="CB20" s="103"/>
-      <c r="CC20" s="103"/>
-      <c r="CD20" s="103"/>
-      <c r="CE20" s="103"/>
-      <c r="CF20" s="103"/>
-      <c r="CG20" s="103"/>
-      <c r="CH20" s="103"/>
-      <c r="CI20" s="104"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="83"/>
+      <c r="AL20" s="84"/>
+      <c r="AM20" s="84"/>
+      <c r="AN20" s="84"/>
+      <c r="AO20" s="84"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="85"/>
+      <c r="AS20" s="85"/>
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="83"/>
+      <c r="AV20" s="84"/>
+      <c r="AW20" s="84"/>
+      <c r="AX20" s="84"/>
+      <c r="AY20" s="84"/>
+      <c r="AZ20" s="84"/>
+      <c r="BA20" s="84"/>
+      <c r="BB20" s="84"/>
+      <c r="BC20" s="84"/>
+      <c r="BD20" s="94"/>
+      <c r="BE20" s="83"/>
+      <c r="BF20" s="84"/>
+      <c r="BG20" s="84"/>
+      <c r="BH20" s="84"/>
+      <c r="BI20" s="84"/>
+      <c r="BJ20" s="84"/>
+      <c r="BK20" s="84"/>
+      <c r="BL20" s="84"/>
+      <c r="BM20" s="84"/>
+      <c r="BN20" s="84"/>
+      <c r="BO20" s="84"/>
+      <c r="BP20" s="94"/>
+      <c r="BQ20" s="96"/>
+      <c r="BR20" s="97"/>
+      <c r="BS20" s="97"/>
+      <c r="BT20" s="97"/>
+      <c r="BU20" s="97"/>
+      <c r="BV20" s="97"/>
+      <c r="BW20" s="97"/>
+      <c r="BX20" s="97"/>
+      <c r="BY20" s="97"/>
+      <c r="BZ20" s="97"/>
+      <c r="CA20" s="97"/>
+      <c r="CB20" s="97"/>
+      <c r="CC20" s="97"/>
+      <c r="CD20" s="97"/>
+      <c r="CE20" s="97"/>
+      <c r="CF20" s="97"/>
+      <c r="CG20" s="97"/>
+      <c r="CH20" s="97"/>
+      <c r="CI20" s="98"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1">
-      <c r="B21" s="105"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="109"/>
-      <c r="AJ21" s="110"/>
-      <c r="AK21" s="99"/>
-      <c r="AL21" s="100"/>
-      <c r="AM21" s="100"/>
-      <c r="AN21" s="100"/>
-      <c r="AO21" s="100"/>
-      <c r="AP21" s="100"/>
-      <c r="AQ21" s="100"/>
-      <c r="AR21" s="82"/>
-      <c r="AS21" s="82"/>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="99"/>
-      <c r="AV21" s="100"/>
-      <c r="AW21" s="100"/>
-      <c r="AX21" s="100"/>
-      <c r="AY21" s="100"/>
-      <c r="AZ21" s="100"/>
-      <c r="BA21" s="100"/>
-      <c r="BB21" s="100"/>
-      <c r="BC21" s="100"/>
-      <c r="BD21" s="101"/>
-      <c r="BE21" s="99"/>
-      <c r="BF21" s="100"/>
-      <c r="BG21" s="100"/>
-      <c r="BH21" s="100"/>
-      <c r="BI21" s="100"/>
-      <c r="BJ21" s="100"/>
-      <c r="BK21" s="100"/>
-      <c r="BL21" s="100"/>
-      <c r="BM21" s="100"/>
-      <c r="BN21" s="100"/>
-      <c r="BO21" s="100"/>
-      <c r="BP21" s="101"/>
-      <c r="BQ21" s="102"/>
-      <c r="BR21" s="103"/>
-      <c r="BS21" s="103"/>
-      <c r="BT21" s="103"/>
-      <c r="BU21" s="103"/>
-      <c r="BV21" s="103"/>
-      <c r="BW21" s="103"/>
-      <c r="BX21" s="103"/>
-      <c r="BY21" s="103"/>
-      <c r="BZ21" s="103"/>
-      <c r="CA21" s="103"/>
-      <c r="CB21" s="103"/>
-      <c r="CC21" s="103"/>
-      <c r="CD21" s="103"/>
-      <c r="CE21" s="103"/>
-      <c r="CF21" s="103"/>
-      <c r="CG21" s="103"/>
-      <c r="CH21" s="103"/>
-      <c r="CI21" s="104"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="81"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="84"/>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="84"/>
+      <c r="AO21" s="84"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="85"/>
+      <c r="AS21" s="85"/>
+      <c r="AT21" s="86"/>
+      <c r="AU21" s="83"/>
+      <c r="AV21" s="84"/>
+      <c r="AW21" s="84"/>
+      <c r="AX21" s="84"/>
+      <c r="AY21" s="84"/>
+      <c r="AZ21" s="84"/>
+      <c r="BA21" s="84"/>
+      <c r="BB21" s="84"/>
+      <c r="BC21" s="84"/>
+      <c r="BD21" s="94"/>
+      <c r="BE21" s="83"/>
+      <c r="BF21" s="84"/>
+      <c r="BG21" s="84"/>
+      <c r="BH21" s="84"/>
+      <c r="BI21" s="84"/>
+      <c r="BJ21" s="84"/>
+      <c r="BK21" s="84"/>
+      <c r="BL21" s="84"/>
+      <c r="BM21" s="84"/>
+      <c r="BN21" s="84"/>
+      <c r="BO21" s="84"/>
+      <c r="BP21" s="94"/>
+      <c r="BQ21" s="96"/>
+      <c r="BR21" s="97"/>
+      <c r="BS21" s="97"/>
+      <c r="BT21" s="97"/>
+      <c r="BU21" s="97"/>
+      <c r="BV21" s="97"/>
+      <c r="BW21" s="97"/>
+      <c r="BX21" s="97"/>
+      <c r="BY21" s="97"/>
+      <c r="BZ21" s="97"/>
+      <c r="CA21" s="97"/>
+      <c r="CB21" s="97"/>
+      <c r="CC21" s="97"/>
+      <c r="CD21" s="97"/>
+      <c r="CE21" s="97"/>
+      <c r="CF21" s="97"/>
+      <c r="CG21" s="97"/>
+      <c r="CH21" s="97"/>
+      <c r="CI21" s="98"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1">
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="100"/>
-      <c r="AD22" s="100"/>
-      <c r="AE22" s="100"/>
-      <c r="AF22" s="100"/>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="80"/>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="70"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="71"/>
-      <c r="AQ22" s="71"/>
-      <c r="AR22" s="82"/>
-      <c r="AS22" s="82"/>
-      <c r="AT22" s="83"/>
-      <c r="AU22" s="70"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="71"/>
-      <c r="AY22" s="71"/>
-      <c r="AZ22" s="71"/>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="71"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="72"/>
-      <c r="BE22" s="70"/>
-      <c r="BF22" s="71"/>
-      <c r="BG22" s="71"/>
-      <c r="BH22" s="71"/>
-      <c r="BI22" s="71"/>
-      <c r="BJ22" s="71"/>
-      <c r="BK22" s="71"/>
-      <c r="BL22" s="71"/>
-      <c r="BM22" s="71"/>
-      <c r="BN22" s="71"/>
-      <c r="BO22" s="71"/>
-      <c r="BP22" s="72"/>
-      <c r="BQ22" s="73"/>
-      <c r="BR22" s="74"/>
-      <c r="BS22" s="74"/>
-      <c r="BT22" s="74"/>
-      <c r="BU22" s="74"/>
-      <c r="BV22" s="74"/>
-      <c r="BW22" s="74"/>
-      <c r="BX22" s="74"/>
-      <c r="BY22" s="74"/>
-      <c r="BZ22" s="74"/>
-      <c r="CA22" s="74"/>
-      <c r="CB22" s="74"/>
-      <c r="CC22" s="74"/>
-      <c r="CD22" s="74"/>
-      <c r="CE22" s="74"/>
-      <c r="CF22" s="74"/>
-      <c r="CG22" s="74"/>
-      <c r="CH22" s="74"/>
-      <c r="CI22" s="75"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="94"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="83"/>
+      <c r="AL22" s="84"/>
+      <c r="AM22" s="84"/>
+      <c r="AN22" s="84"/>
+      <c r="AO22" s="84"/>
+      <c r="AP22" s="84"/>
+      <c r="AQ22" s="84"/>
+      <c r="AR22" s="85"/>
+      <c r="AS22" s="85"/>
+      <c r="AT22" s="86"/>
+      <c r="AU22" s="83"/>
+      <c r="AV22" s="84"/>
+      <c r="AW22" s="84"/>
+      <c r="AX22" s="84"/>
+      <c r="AY22" s="84"/>
+      <c r="AZ22" s="84"/>
+      <c r="BA22" s="84"/>
+      <c r="BB22" s="84"/>
+      <c r="BC22" s="84"/>
+      <c r="BD22" s="94"/>
+      <c r="BE22" s="83"/>
+      <c r="BF22" s="84"/>
+      <c r="BG22" s="84"/>
+      <c r="BH22" s="84"/>
+      <c r="BI22" s="84"/>
+      <c r="BJ22" s="84"/>
+      <c r="BK22" s="84"/>
+      <c r="BL22" s="84"/>
+      <c r="BM22" s="84"/>
+      <c r="BN22" s="84"/>
+      <c r="BO22" s="84"/>
+      <c r="BP22" s="94"/>
+      <c r="BQ22" s="96"/>
+      <c r="BR22" s="97"/>
+      <c r="BS22" s="97"/>
+      <c r="BT22" s="97"/>
+      <c r="BU22" s="97"/>
+      <c r="BV22" s="97"/>
+      <c r="BW22" s="97"/>
+      <c r="BX22" s="97"/>
+      <c r="BY22" s="97"/>
+      <c r="BZ22" s="97"/>
+      <c r="CA22" s="97"/>
+      <c r="CB22" s="97"/>
+      <c r="CC22" s="97"/>
+      <c r="CD22" s="97"/>
+      <c r="CE22" s="97"/>
+      <c r="CF22" s="97"/>
+      <c r="CG22" s="97"/>
+      <c r="CH22" s="97"/>
+      <c r="CI22" s="98"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1">
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="70"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="70"/>
-      <c r="AL23" s="71"/>
-      <c r="AM23" s="71"/>
-      <c r="AN23" s="71"/>
-      <c r="AO23" s="71"/>
-      <c r="AP23" s="71"/>
-      <c r="AQ23" s="71"/>
-      <c r="AR23" s="82"/>
-      <c r="AS23" s="82"/>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="70"/>
-      <c r="AV23" s="71"/>
-      <c r="AW23" s="71"/>
-      <c r="AX23" s="71"/>
-      <c r="AY23" s="71"/>
-      <c r="AZ23" s="71"/>
-      <c r="BA23" s="71"/>
-      <c r="BB23" s="71"/>
-      <c r="BC23" s="71"/>
-      <c r="BD23" s="72"/>
-      <c r="BE23" s="70"/>
-      <c r="BF23" s="71"/>
-      <c r="BG23" s="71"/>
-      <c r="BH23" s="71"/>
-      <c r="BI23" s="71"/>
-      <c r="BJ23" s="71"/>
-      <c r="BK23" s="71"/>
-      <c r="BL23" s="71"/>
-      <c r="BM23" s="71"/>
-      <c r="BN23" s="71"/>
-      <c r="BO23" s="71"/>
-      <c r="BP23" s="72"/>
-      <c r="BQ23" s="96"/>
-      <c r="BR23" s="97"/>
-      <c r="BS23" s="97"/>
-      <c r="BT23" s="97"/>
-      <c r="BU23" s="97"/>
-      <c r="BV23" s="97"/>
-      <c r="BW23" s="97"/>
-      <c r="BX23" s="97"/>
-      <c r="BY23" s="97"/>
-      <c r="BZ23" s="97"/>
-      <c r="CA23" s="97"/>
-      <c r="CB23" s="97"/>
-      <c r="CC23" s="97"/>
-      <c r="CD23" s="97"/>
-      <c r="CE23" s="97"/>
-      <c r="CF23" s="97"/>
-      <c r="CG23" s="97"/>
-      <c r="CH23" s="97"/>
-      <c r="CI23" s="98"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="110"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="94"/>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="109"/>
+      <c r="AJ23" s="110"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="100"/>
+      <c r="AM23" s="100"/>
+      <c r="AN23" s="100"/>
+      <c r="AO23" s="100"/>
+      <c r="AP23" s="100"/>
+      <c r="AQ23" s="100"/>
+      <c r="AR23" s="85"/>
+      <c r="AS23" s="85"/>
+      <c r="AT23" s="86"/>
+      <c r="AU23" s="99"/>
+      <c r="AV23" s="100"/>
+      <c r="AW23" s="100"/>
+      <c r="AX23" s="100"/>
+      <c r="AY23" s="100"/>
+      <c r="AZ23" s="100"/>
+      <c r="BA23" s="100"/>
+      <c r="BB23" s="100"/>
+      <c r="BC23" s="100"/>
+      <c r="BD23" s="101"/>
+      <c r="BE23" s="99"/>
+      <c r="BF23" s="100"/>
+      <c r="BG23" s="100"/>
+      <c r="BH23" s="100"/>
+      <c r="BI23" s="100"/>
+      <c r="BJ23" s="100"/>
+      <c r="BK23" s="100"/>
+      <c r="BL23" s="100"/>
+      <c r="BM23" s="100"/>
+      <c r="BN23" s="100"/>
+      <c r="BO23" s="100"/>
+      <c r="BP23" s="101"/>
+      <c r="BQ23" s="102"/>
+      <c r="BR23" s="103"/>
+      <c r="BS23" s="103"/>
+      <c r="BT23" s="103"/>
+      <c r="BU23" s="103"/>
+      <c r="BV23" s="103"/>
+      <c r="BW23" s="103"/>
+      <c r="BX23" s="103"/>
+      <c r="BY23" s="103"/>
+      <c r="BZ23" s="103"/>
+      <c r="CA23" s="103"/>
+      <c r="CB23" s="103"/>
+      <c r="CC23" s="103"/>
+      <c r="CD23" s="103"/>
+      <c r="CE23" s="103"/>
+      <c r="CF23" s="103"/>
+      <c r="CG23" s="103"/>
+      <c r="CH23" s="103"/>
+      <c r="CI23" s="104"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1">
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="85"/>
-      <c r="AD24" s="85"/>
-      <c r="AE24" s="85"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="80"/>
-      <c r="AJ24" s="81"/>
-      <c r="AK24" s="70"/>
-      <c r="AL24" s="71"/>
-      <c r="AM24" s="71"/>
-      <c r="AN24" s="71"/>
-      <c r="AO24" s="71"/>
-      <c r="AP24" s="71"/>
-      <c r="AQ24" s="71"/>
-      <c r="AR24" s="82"/>
-      <c r="AS24" s="82"/>
-      <c r="AT24" s="83"/>
-      <c r="AU24" s="70"/>
-      <c r="AV24" s="71"/>
-      <c r="AW24" s="71"/>
-      <c r="AX24" s="71"/>
-      <c r="AY24" s="71"/>
-      <c r="AZ24" s="71"/>
-      <c r="BA24" s="71"/>
-      <c r="BB24" s="71"/>
-      <c r="BC24" s="71"/>
-      <c r="BD24" s="72"/>
-      <c r="BE24" s="70"/>
-      <c r="BF24" s="71"/>
-      <c r="BG24" s="71"/>
-      <c r="BH24" s="71"/>
-      <c r="BI24" s="71"/>
-      <c r="BJ24" s="71"/>
-      <c r="BK24" s="71"/>
-      <c r="BL24" s="71"/>
-      <c r="BM24" s="71"/>
-      <c r="BN24" s="71"/>
-      <c r="BO24" s="71"/>
-      <c r="BP24" s="72"/>
-      <c r="BQ24" s="93"/>
-      <c r="BR24" s="94"/>
-      <c r="BS24" s="94"/>
-      <c r="BT24" s="94"/>
-      <c r="BU24" s="94"/>
-      <c r="BV24" s="94"/>
-      <c r="BW24" s="94"/>
-      <c r="BX24" s="94"/>
-      <c r="BY24" s="94"/>
-      <c r="BZ24" s="94"/>
-      <c r="CA24" s="94"/>
-      <c r="CB24" s="94"/>
-      <c r="CC24" s="94"/>
-      <c r="CD24" s="94"/>
-      <c r="CE24" s="94"/>
-      <c r="CF24" s="94"/>
-      <c r="CG24" s="94"/>
-      <c r="CH24" s="94"/>
-      <c r="CI24" s="95"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="108"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="101"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="100"/>
+      <c r="AM24" s="100"/>
+      <c r="AN24" s="100"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="100"/>
+      <c r="AQ24" s="100"/>
+      <c r="AR24" s="85"/>
+      <c r="AS24" s="85"/>
+      <c r="AT24" s="86"/>
+      <c r="AU24" s="99"/>
+      <c r="AV24" s="100"/>
+      <c r="AW24" s="100"/>
+      <c r="AX24" s="100"/>
+      <c r="AY24" s="100"/>
+      <c r="AZ24" s="100"/>
+      <c r="BA24" s="100"/>
+      <c r="BB24" s="100"/>
+      <c r="BC24" s="100"/>
+      <c r="BD24" s="101"/>
+      <c r="BE24" s="99"/>
+      <c r="BF24" s="100"/>
+      <c r="BG24" s="100"/>
+      <c r="BH24" s="100"/>
+      <c r="BI24" s="100"/>
+      <c r="BJ24" s="100"/>
+      <c r="BK24" s="100"/>
+      <c r="BL24" s="100"/>
+      <c r="BM24" s="100"/>
+      <c r="BN24" s="100"/>
+      <c r="BO24" s="100"/>
+      <c r="BP24" s="101"/>
+      <c r="BQ24" s="111"/>
+      <c r="BR24" s="112"/>
+      <c r="BS24" s="112"/>
+      <c r="BT24" s="112"/>
+      <c r="BU24" s="112"/>
+      <c r="BV24" s="112"/>
+      <c r="BW24" s="112"/>
+      <c r="BX24" s="112"/>
+      <c r="BY24" s="112"/>
+      <c r="BZ24" s="112"/>
+      <c r="CA24" s="112"/>
+      <c r="CB24" s="112"/>
+      <c r="CC24" s="112"/>
+      <c r="CD24" s="112"/>
+      <c r="CE24" s="112"/>
+      <c r="CF24" s="112"/>
+      <c r="CG24" s="112"/>
+      <c r="CH24" s="112"/>
+      <c r="CI24" s="113"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1">
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="90"/>
-      <c r="AI25" s="91"/>
-      <c r="AJ25" s="92"/>
-      <c r="AK25" s="84"/>
-      <c r="AL25" s="85"/>
-      <c r="AM25" s="85"/>
-      <c r="AN25" s="85"/>
-      <c r="AO25" s="85"/>
-      <c r="AP25" s="85"/>
-      <c r="AQ25" s="85"/>
-      <c r="AR25" s="82"/>
-      <c r="AS25" s="82"/>
-      <c r="AT25" s="83"/>
-      <c r="AU25" s="84"/>
-      <c r="AV25" s="85"/>
-      <c r="AW25" s="85"/>
-      <c r="AX25" s="85"/>
-      <c r="AY25" s="85"/>
-      <c r="AZ25" s="85"/>
-      <c r="BA25" s="85"/>
-      <c r="BB25" s="85"/>
-      <c r="BC25" s="85"/>
-      <c r="BD25" s="86"/>
-      <c r="BE25" s="84"/>
-      <c r="BF25" s="85"/>
-      <c r="BG25" s="85"/>
-      <c r="BH25" s="85"/>
-      <c r="BI25" s="85"/>
-      <c r="BJ25" s="85"/>
-      <c r="BK25" s="85"/>
-      <c r="BL25" s="85"/>
-      <c r="BM25" s="85"/>
-      <c r="BN25" s="85"/>
-      <c r="BO25" s="85"/>
-      <c r="BP25" s="86"/>
-      <c r="BQ25" s="87"/>
-      <c r="BR25" s="88"/>
-      <c r="BS25" s="88"/>
-      <c r="BT25" s="88"/>
-      <c r="BU25" s="88"/>
-      <c r="BV25" s="88"/>
-      <c r="BW25" s="88"/>
-      <c r="BX25" s="88"/>
-      <c r="BY25" s="88"/>
-      <c r="BZ25" s="88"/>
-      <c r="CA25" s="88"/>
-      <c r="CB25" s="88"/>
-      <c r="CC25" s="88"/>
-      <c r="CD25" s="88"/>
-      <c r="CE25" s="88"/>
-      <c r="CF25" s="88"/>
-      <c r="CG25" s="88"/>
-      <c r="CH25" s="88"/>
-      <c r="CI25" s="89"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="108"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="118"/>
+      <c r="AF25" s="118"/>
+      <c r="AG25" s="119"/>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="109"/>
+      <c r="AJ25" s="110"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="100"/>
+      <c r="AM25" s="100"/>
+      <c r="AN25" s="100"/>
+      <c r="AO25" s="100"/>
+      <c r="AP25" s="100"/>
+      <c r="AQ25" s="100"/>
+      <c r="AR25" s="85"/>
+      <c r="AS25" s="85"/>
+      <c r="AT25" s="86"/>
+      <c r="AU25" s="99"/>
+      <c r="AV25" s="100"/>
+      <c r="AW25" s="100"/>
+      <c r="AX25" s="100"/>
+      <c r="AY25" s="100"/>
+      <c r="AZ25" s="100"/>
+      <c r="BA25" s="100"/>
+      <c r="BB25" s="100"/>
+      <c r="BC25" s="100"/>
+      <c r="BD25" s="101"/>
+      <c r="BE25" s="99"/>
+      <c r="BF25" s="100"/>
+      <c r="BG25" s="100"/>
+      <c r="BH25" s="100"/>
+      <c r="BI25" s="100"/>
+      <c r="BJ25" s="100"/>
+      <c r="BK25" s="100"/>
+      <c r="BL25" s="100"/>
+      <c r="BM25" s="100"/>
+      <c r="BN25" s="100"/>
+      <c r="BO25" s="100"/>
+      <c r="BP25" s="101"/>
+      <c r="BQ25" s="114"/>
+      <c r="BR25" s="115"/>
+      <c r="BS25" s="115"/>
+      <c r="BT25" s="115"/>
+      <c r="BU25" s="115"/>
+      <c r="BV25" s="115"/>
+      <c r="BW25" s="115"/>
+      <c r="BX25" s="115"/>
+      <c r="BY25" s="115"/>
+      <c r="BZ25" s="115"/>
+      <c r="CA25" s="115"/>
+      <c r="CB25" s="115"/>
+      <c r="CC25" s="115"/>
+      <c r="CD25" s="115"/>
+      <c r="CE25" s="115"/>
+      <c r="CF25" s="115"/>
+      <c r="CG25" s="115"/>
+      <c r="CH25" s="115"/>
+      <c r="CI25" s="116"/>
     </row>
     <row r="26" spans="2:87" ht="18" customHeight="1">
-      <c r="B26" s="76"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="80"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="70"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="71"/>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="71"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="70"/>
-      <c r="AI26" s="71"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="70"/>
-      <c r="AL26" s="71"/>
-      <c r="AM26" s="71"/>
-      <c r="AN26" s="71"/>
-      <c r="AO26" s="71"/>
-      <c r="AP26" s="71"/>
-      <c r="AQ26" s="71"/>
-      <c r="AR26" s="82"/>
-      <c r="AS26" s="82"/>
-      <c r="AT26" s="83"/>
-      <c r="AU26" s="70"/>
-      <c r="AV26" s="71"/>
-      <c r="AW26" s="71"/>
-      <c r="AX26" s="71"/>
-      <c r="AY26" s="71"/>
-      <c r="AZ26" s="71"/>
-      <c r="BA26" s="71"/>
-      <c r="BB26" s="71"/>
-      <c r="BC26" s="71"/>
-      <c r="BD26" s="72"/>
-      <c r="BE26" s="70"/>
-      <c r="BF26" s="71"/>
-      <c r="BG26" s="71"/>
-      <c r="BH26" s="71"/>
-      <c r="BI26" s="71"/>
-      <c r="BJ26" s="71"/>
-      <c r="BK26" s="71"/>
-      <c r="BL26" s="71"/>
-      <c r="BM26" s="71"/>
-      <c r="BN26" s="71"/>
-      <c r="BO26" s="71"/>
-      <c r="BP26" s="72"/>
-      <c r="BQ26" s="73"/>
-      <c r="BR26" s="74"/>
-      <c r="BS26" s="74"/>
-      <c r="BT26" s="74"/>
-      <c r="BU26" s="74"/>
-      <c r="BV26" s="74"/>
-      <c r="BW26" s="74"/>
-      <c r="BX26" s="74"/>
-      <c r="BY26" s="74"/>
-      <c r="BZ26" s="74"/>
-      <c r="CA26" s="74"/>
-      <c r="CB26" s="74"/>
-      <c r="CC26" s="74"/>
-      <c r="CD26" s="74"/>
-      <c r="CE26" s="74"/>
-      <c r="CF26" s="74"/>
-      <c r="CG26" s="74"/>
-      <c r="CH26" s="74"/>
-      <c r="CI26" s="75"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="123"/>
+      <c r="Z26" s="124"/>
+      <c r="AA26" s="125"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="118"/>
+      <c r="AE26" s="118"/>
+      <c r="AF26" s="118"/>
+      <c r="AG26" s="119"/>
+      <c r="AH26" s="123"/>
+      <c r="AI26" s="124"/>
+      <c r="AJ26" s="125"/>
+      <c r="AK26" s="117"/>
+      <c r="AL26" s="118"/>
+      <c r="AM26" s="118"/>
+      <c r="AN26" s="118"/>
+      <c r="AO26" s="118"/>
+      <c r="AP26" s="118"/>
+      <c r="AQ26" s="118"/>
+      <c r="AR26" s="85"/>
+      <c r="AS26" s="85"/>
+      <c r="AT26" s="86"/>
+      <c r="AU26" s="117"/>
+      <c r="AV26" s="118"/>
+      <c r="AW26" s="118"/>
+      <c r="AX26" s="118"/>
+      <c r="AY26" s="118"/>
+      <c r="AZ26" s="118"/>
+      <c r="BA26" s="118"/>
+      <c r="BB26" s="118"/>
+      <c r="BC26" s="118"/>
+      <c r="BD26" s="119"/>
+      <c r="BE26" s="117"/>
+      <c r="BF26" s="118"/>
+      <c r="BG26" s="118"/>
+      <c r="BH26" s="118"/>
+      <c r="BI26" s="118"/>
+      <c r="BJ26" s="118"/>
+      <c r="BK26" s="118"/>
+      <c r="BL26" s="118"/>
+      <c r="BM26" s="118"/>
+      <c r="BN26" s="118"/>
+      <c r="BO26" s="118"/>
+      <c r="BP26" s="119"/>
+      <c r="BQ26" s="120"/>
+      <c r="BR26" s="121"/>
+      <c r="BS26" s="121"/>
+      <c r="BT26" s="121"/>
+      <c r="BU26" s="121"/>
+      <c r="BV26" s="121"/>
+      <c r="BW26" s="121"/>
+      <c r="BX26" s="121"/>
+      <c r="BY26" s="121"/>
+      <c r="BZ26" s="121"/>
+      <c r="CA26" s="121"/>
+      <c r="CB26" s="121"/>
+      <c r="CC26" s="121"/>
+      <c r="CD26" s="121"/>
+      <c r="CE26" s="121"/>
+      <c r="CF26" s="121"/>
+      <c r="CG26" s="121"/>
+      <c r="CH26" s="121"/>
+      <c r="CI26" s="122"/>
     </row>
-    <row r="27" spans="2:87" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="67"/>
-      <c r="AK27" s="53"/>
-      <c r="AL27" s="54"/>
-      <c r="AM27" s="54"/>
-      <c r="AN27" s="54"/>
-      <c r="AO27" s="54"/>
-      <c r="AP27" s="54"/>
-      <c r="AQ27" s="54"/>
-      <c r="AR27" s="68"/>
-      <c r="AS27" s="68"/>
-      <c r="AT27" s="69"/>
-      <c r="AU27" s="53"/>
-      <c r="AV27" s="54"/>
-      <c r="AW27" s="54"/>
-      <c r="AX27" s="54"/>
-      <c r="AY27" s="54"/>
-      <c r="AZ27" s="54"/>
-      <c r="BA27" s="54"/>
-      <c r="BB27" s="54"/>
-      <c r="BC27" s="54"/>
-      <c r="BD27" s="55"/>
-      <c r="BE27" s="53"/>
-      <c r="BF27" s="54"/>
-      <c r="BG27" s="54"/>
-      <c r="BH27" s="54"/>
-      <c r="BI27" s="54"/>
-      <c r="BJ27" s="54"/>
-      <c r="BK27" s="54"/>
-      <c r="BL27" s="54"/>
-      <c r="BM27" s="54"/>
-      <c r="BN27" s="54"/>
-      <c r="BO27" s="54"/>
-      <c r="BP27" s="55"/>
-      <c r="BQ27" s="56"/>
-      <c r="BR27" s="57"/>
-      <c r="BS27" s="57"/>
-      <c r="BT27" s="57"/>
-      <c r="BU27" s="57"/>
-      <c r="BV27" s="57"/>
-      <c r="BW27" s="57"/>
-      <c r="BX27" s="57"/>
-      <c r="BY27" s="57"/>
-      <c r="BZ27" s="57"/>
-      <c r="CA27" s="57"/>
-      <c r="CB27" s="57"/>
-      <c r="CC27" s="57"/>
-      <c r="CD27" s="57"/>
-      <c r="CE27" s="57"/>
-      <c r="CF27" s="57"/>
-      <c r="CG27" s="57"/>
-      <c r="CH27" s="57"/>
-      <c r="CI27" s="58"/>
+    <row r="27" spans="2:87" ht="18" customHeight="1">
+      <c r="B27" s="105"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="101"/>
+      <c r="AK27" s="99"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="100"/>
+      <c r="AN27" s="100"/>
+      <c r="AO27" s="100"/>
+      <c r="AP27" s="100"/>
+      <c r="AQ27" s="100"/>
+      <c r="AR27" s="85"/>
+      <c r="AS27" s="85"/>
+      <c r="AT27" s="86"/>
+      <c r="AU27" s="99"/>
+      <c r="AV27" s="100"/>
+      <c r="AW27" s="100"/>
+      <c r="AX27" s="100"/>
+      <c r="AY27" s="100"/>
+      <c r="AZ27" s="100"/>
+      <c r="BA27" s="100"/>
+      <c r="BB27" s="100"/>
+      <c r="BC27" s="100"/>
+      <c r="BD27" s="101"/>
+      <c r="BE27" s="99"/>
+      <c r="BF27" s="100"/>
+      <c r="BG27" s="100"/>
+      <c r="BH27" s="100"/>
+      <c r="BI27" s="100"/>
+      <c r="BJ27" s="100"/>
+      <c r="BK27" s="100"/>
+      <c r="BL27" s="100"/>
+      <c r="BM27" s="100"/>
+      <c r="BN27" s="100"/>
+      <c r="BO27" s="100"/>
+      <c r="BP27" s="101"/>
+      <c r="BQ27" s="102"/>
+      <c r="BR27" s="103"/>
+      <c r="BS27" s="103"/>
+      <c r="BT27" s="103"/>
+      <c r="BU27" s="103"/>
+      <c r="BV27" s="103"/>
+      <c r="BW27" s="103"/>
+      <c r="BX27" s="103"/>
+      <c r="BY27" s="103"/>
+      <c r="BZ27" s="103"/>
+      <c r="CA27" s="103"/>
+      <c r="CB27" s="103"/>
+      <c r="CC27" s="103"/>
+      <c r="CD27" s="103"/>
+      <c r="CE27" s="103"/>
+      <c r="CF27" s="103"/>
+      <c r="CG27" s="103"/>
+      <c r="CH27" s="103"/>
+      <c r="CI27" s="104"/>
+    </row>
+    <row r="28" spans="2:87" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B28" s="132"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="136"/>
+      <c r="S28" s="136"/>
+      <c r="T28" s="136"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="136"/>
+      <c r="W28" s="136"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="138"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="140"/>
+      <c r="AB28" s="126"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="127"/>
+      <c r="AF28" s="127"/>
+      <c r="AG28" s="128"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="139"/>
+      <c r="AJ28" s="140"/>
+      <c r="AK28" s="126"/>
+      <c r="AL28" s="127"/>
+      <c r="AM28" s="127"/>
+      <c r="AN28" s="127"/>
+      <c r="AO28" s="127"/>
+      <c r="AP28" s="127"/>
+      <c r="AQ28" s="127"/>
+      <c r="AR28" s="141"/>
+      <c r="AS28" s="141"/>
+      <c r="AT28" s="142"/>
+      <c r="AU28" s="126"/>
+      <c r="AV28" s="127"/>
+      <c r="AW28" s="127"/>
+      <c r="AX28" s="127"/>
+      <c r="AY28" s="127"/>
+      <c r="AZ28" s="127"/>
+      <c r="BA28" s="127"/>
+      <c r="BB28" s="127"/>
+      <c r="BC28" s="127"/>
+      <c r="BD28" s="128"/>
+      <c r="BE28" s="126"/>
+      <c r="BF28" s="127"/>
+      <c r="BG28" s="127"/>
+      <c r="BH28" s="127"/>
+      <c r="BI28" s="127"/>
+      <c r="BJ28" s="127"/>
+      <c r="BK28" s="127"/>
+      <c r="BL28" s="127"/>
+      <c r="BM28" s="127"/>
+      <c r="BN28" s="127"/>
+      <c r="BO28" s="127"/>
+      <c r="BP28" s="128"/>
+      <c r="BQ28" s="129"/>
+      <c r="BR28" s="130"/>
+      <c r="BS28" s="130"/>
+      <c r="BT28" s="130"/>
+      <c r="BU28" s="130"/>
+      <c r="BV28" s="130"/>
+      <c r="BW28" s="130"/>
+      <c r="BX28" s="130"/>
+      <c r="BY28" s="130"/>
+      <c r="BZ28" s="130"/>
+      <c r="CA28" s="130"/>
+      <c r="CB28" s="130"/>
+      <c r="CC28" s="130"/>
+      <c r="CD28" s="130"/>
+      <c r="CE28" s="130"/>
+      <c r="CF28" s="130"/>
+      <c r="CG28" s="130"/>
+      <c r="CH28" s="130"/>
+      <c r="CI28" s="131"/>
     </row>
   </sheetData>
-  <mergeCells count="211">
+  <mergeCells count="220">
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU28:BD28"/>
+    <mergeCell ref="BE28:BP28"/>
+    <mergeCell ref="BQ28:CI28"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="AK28:AT28"/>
+    <mergeCell ref="AU27:BD27"/>
+    <mergeCell ref="BE27:BP27"/>
+    <mergeCell ref="BQ27:CI27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="AK27:AT27"/>
+    <mergeCell ref="AU26:BD26"/>
+    <mergeCell ref="BE26:BP26"/>
+    <mergeCell ref="BQ26:CI26"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:AT26"/>
+    <mergeCell ref="AU25:BD25"/>
+    <mergeCell ref="BE25:BP25"/>
+    <mergeCell ref="BQ25:CI25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:AT25"/>
+    <mergeCell ref="AU24:BD24"/>
+    <mergeCell ref="BE24:BP24"/>
+    <mergeCell ref="BQ24:CI24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AU23:BD23"/>
+    <mergeCell ref="BE23:BP23"/>
+    <mergeCell ref="BQ23:CI23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -11154,195 +11458,6 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="AU24:BD24"/>
-    <mergeCell ref="BE24:BP24"/>
-    <mergeCell ref="BQ24:CI24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AU25:BD25"/>
-    <mergeCell ref="BE25:BP25"/>
-    <mergeCell ref="BQ25:CI25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:AT25"/>
-    <mergeCell ref="AU26:BD26"/>
-    <mergeCell ref="BE26:BP26"/>
-    <mergeCell ref="BQ26:CI26"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AU27:BD27"/>
-    <mergeCell ref="BE27:BP27"/>
-    <mergeCell ref="BQ27:CI27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="AK27:AT27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験結果.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>システム名</t>
   </si>
@@ -392,17 +392,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題文</t>
-    <rPh sb="0" eb="3">
-      <t>モンダイブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>試験選択へ戻るボタン</t>
     <rPh sb="0" eb="4">
       <t>シケンセンタク</t>
@@ -427,6 +416,30 @@
     <rPh sb="3" eb="5">
       <t>ナンテン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test_result</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>question_text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test_question</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test_answer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>question_answer</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1026,6 +1039,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1083,65 +1156,248 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1169,249 +1425,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1940,7 +1953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1964,102 +1977,102 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="43"/>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43"/>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="44" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="30"/>
+      <c r="BL1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
-      <c r="BP1" s="45"/>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="45"/>
-      <c r="BV1" s="45"/>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="46" t="s">
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="31"/>
+      <c r="BO1" s="31"/>
+      <c r="BP1" s="32"/>
+      <c r="BQ1" s="32"/>
+      <c r="BR1" s="32"/>
+      <c r="BS1" s="32"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="32"/>
+      <c r="BV1" s="32"/>
+      <c r="BW1" s="32"/>
+      <c r="BX1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="46"/>
-      <c r="BZ1" s="46"/>
-      <c r="CA1" s="46"/>
-      <c r="CB1" s="33"/>
-      <c r="CC1" s="33"/>
-      <c r="CD1" s="33"/>
-      <c r="CE1" s="33"/>
-      <c r="CF1" s="33"/>
-      <c r="CG1" s="33"/>
-      <c r="CH1" s="33"/>
-      <c r="CI1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="33"/>
+      <c r="CA1" s="33"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -3000,102 +3013,102 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="36" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="37" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="38"/>
-      <c r="BR2" s="38"/>
-      <c r="BS2" s="38"/>
-      <c r="BT2" s="38"/>
-      <c r="BU2" s="38"/>
-      <c r="BV2" s="38"/>
-      <c r="BW2" s="38"/>
-      <c r="BX2" s="39" t="s">
+      <c r="BM2" s="24"/>
+      <c r="BN2" s="24"/>
+      <c r="BO2" s="24"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="25"/>
+      <c r="BW2" s="25"/>
+      <c r="BX2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="39"/>
-      <c r="BZ2" s="39"/>
-      <c r="CA2" s="39"/>
-      <c r="CB2" s="40"/>
-      <c r="CC2" s="40"/>
-      <c r="CD2" s="40"/>
-      <c r="CE2" s="40"/>
-      <c r="CF2" s="40"/>
-      <c r="CG2" s="40"/>
-      <c r="CH2" s="40"/>
-      <c r="CI2" s="40"/>
+      <c r="BY2" s="26"/>
+      <c r="BZ2" s="26"/>
+      <c r="CA2" s="26"/>
+      <c r="CB2" s="27"/>
+      <c r="CC2" s="27"/>
+      <c r="CD2" s="27"/>
+      <c r="CE2" s="27"/>
+      <c r="CF2" s="27"/>
+      <c r="CG2" s="27"/>
+      <c r="CH2" s="27"/>
+      <c r="CI2" s="27"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -4123,196 +4136,196 @@
       <c r="CI3" s="10"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="49" t="s">
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="49"/>
-      <c r="BD4" s="49"/>
-      <c r="BE4" s="49"/>
-      <c r="BF4" s="49"/>
-      <c r="BG4" s="49"/>
-      <c r="BH4" s="49"/>
-      <c r="BI4" s="49"/>
-      <c r="BJ4" s="49"/>
-      <c r="BK4" s="49"/>
-      <c r="BL4" s="49"/>
-      <c r="BM4" s="49"/>
-      <c r="BN4" s="49"/>
-      <c r="BO4" s="49"/>
-      <c r="BP4" s="49"/>
-      <c r="BQ4" s="49"/>
-      <c r="BR4" s="49"/>
-      <c r="BS4" s="49"/>
-      <c r="BT4" s="49"/>
-      <c r="BU4" s="49"/>
-      <c r="BV4" s="49"/>
-      <c r="BW4" s="49"/>
-      <c r="BX4" s="49"/>
-      <c r="BY4" s="49"/>
-      <c r="BZ4" s="49"/>
-      <c r="CA4" s="49"/>
-      <c r="CB4" s="49"/>
-      <c r="CC4" s="49"/>
-      <c r="CD4" s="49"/>
-      <c r="CE4" s="49"/>
-      <c r="CF4" s="49"/>
-      <c r="CG4" s="49"/>
-      <c r="CH4" s="49"/>
-      <c r="CI4" s="49"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="16"/>
+      <c r="BQ4" s="16"/>
+      <c r="BR4" s="16"/>
+      <c r="BS4" s="16"/>
+      <c r="BT4" s="16"/>
+      <c r="BU4" s="16"/>
+      <c r="BV4" s="16"/>
+      <c r="BW4" s="16"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="16"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1">
-      <c r="B5" s="50">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="52" t="s">
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="52"/>
-      <c r="BI5" s="52"/>
-      <c r="BJ5" s="52"/>
-      <c r="BK5" s="52"/>
-      <c r="BL5" s="52"/>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="52"/>
-      <c r="BP5" s="52"/>
-      <c r="BQ5" s="52"/>
-      <c r="BR5" s="52"/>
-      <c r="BS5" s="52"/>
-      <c r="BT5" s="52"/>
-      <c r="BU5" s="52"/>
-      <c r="BV5" s="52"/>
-      <c r="BW5" s="52"/>
-      <c r="BX5" s="52"/>
-      <c r="BY5" s="52"/>
-      <c r="BZ5" s="52"/>
-      <c r="CA5" s="52"/>
-      <c r="CB5" s="52"/>
-      <c r="CC5" s="52"/>
-      <c r="CD5" s="52"/>
-      <c r="CE5" s="52"/>
-      <c r="CF5" s="52"/>
-      <c r="CG5" s="52"/>
-      <c r="CH5" s="52"/>
-      <c r="CI5" s="52"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="19"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="19"/>
+      <c r="BT5" s="19"/>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="19"/>
+      <c r="BW5" s="19"/>
+      <c r="BX5" s="19"/>
+      <c r="BY5" s="19"/>
+      <c r="BZ5" s="19"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="19"/>
+      <c r="CE5" s="19"/>
+      <c r="CF5" s="19"/>
+      <c r="CG5" s="19"/>
+      <c r="CH5" s="19"/>
+      <c r="CI5" s="19"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
       <c r="B6" s="4"/>
@@ -4407,86 +4420,86 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="21"/>
-      <c r="BM7" s="21"/>
-      <c r="BN7" s="21"/>
-      <c r="BO7" s="21"/>
-      <c r="BP7" s="21"/>
-      <c r="BQ7" s="21"/>
-      <c r="BR7" s="21"/>
-      <c r="BS7" s="21"/>
-      <c r="BT7" s="21"/>
-      <c r="BU7" s="21"/>
-      <c r="BV7" s="21"/>
-      <c r="BW7" s="21"/>
-      <c r="BX7" s="21"/>
-      <c r="BY7" s="21"/>
-      <c r="BZ7" s="21"/>
-      <c r="CA7" s="21"/>
-      <c r="CB7" s="21"/>
-      <c r="CC7" s="21"/>
-      <c r="CD7" s="21"/>
-      <c r="CE7" s="21"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="41"/>
+      <c r="AW7" s="41"/>
+      <c r="AX7" s="41"/>
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="41"/>
+      <c r="BB7" s="41"/>
+      <c r="BC7" s="41"/>
+      <c r="BD7" s="41"/>
+      <c r="BE7" s="41"/>
+      <c r="BF7" s="41"/>
+      <c r="BG7" s="41"/>
+      <c r="BH7" s="41"/>
+      <c r="BI7" s="41"/>
+      <c r="BJ7" s="41"/>
+      <c r="BK7" s="41"/>
+      <c r="BL7" s="41"/>
+      <c r="BM7" s="41"/>
+      <c r="BN7" s="41"/>
+      <c r="BO7" s="41"/>
+      <c r="BP7" s="41"/>
+      <c r="BQ7" s="41"/>
+      <c r="BR7" s="41"/>
+      <c r="BS7" s="41"/>
+      <c r="BT7" s="41"/>
+      <c r="BU7" s="41"/>
+      <c r="BV7" s="41"/>
+      <c r="BW7" s="41"/>
+      <c r="BX7" s="41"/>
+      <c r="BY7" s="41"/>
+      <c r="BZ7" s="41"/>
+      <c r="CA7" s="41"/>
+      <c r="CB7" s="41"/>
+      <c r="CC7" s="41"/>
+      <c r="CD7" s="41"/>
+      <c r="CE7" s="41"/>
       <c r="CF7" s="6"/>
       <c r="CG7" s="6"/>
       <c r="CH7" s="6"/>
@@ -4497,84 +4510,84 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="21"/>
-      <c r="BL8" s="21"/>
-      <c r="BM8" s="21"/>
-      <c r="BN8" s="21"/>
-      <c r="BO8" s="21"/>
-      <c r="BP8" s="21"/>
-      <c r="BQ8" s="21"/>
-      <c r="BR8" s="21"/>
-      <c r="BS8" s="21"/>
-      <c r="BT8" s="21"/>
-      <c r="BU8" s="21"/>
-      <c r="BV8" s="21"/>
-      <c r="BW8" s="21"/>
-      <c r="BX8" s="21"/>
-      <c r="BY8" s="21"/>
-      <c r="BZ8" s="21"/>
-      <c r="CA8" s="21"/>
-      <c r="CB8" s="21"/>
-      <c r="CC8" s="21"/>
-      <c r="CD8" s="21"/>
-      <c r="CE8" s="21"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="41"/>
+      <c r="AR8" s="41"/>
+      <c r="AS8" s="41"/>
+      <c r="AT8" s="41"/>
+      <c r="AU8" s="41"/>
+      <c r="AV8" s="41"/>
+      <c r="AW8" s="41"/>
+      <c r="AX8" s="41"/>
+      <c r="AY8" s="41"/>
+      <c r="AZ8" s="41"/>
+      <c r="BA8" s="41"/>
+      <c r="BB8" s="41"/>
+      <c r="BC8" s="41"/>
+      <c r="BD8" s="41"/>
+      <c r="BE8" s="41"/>
+      <c r="BF8" s="41"/>
+      <c r="BG8" s="41"/>
+      <c r="BH8" s="41"/>
+      <c r="BI8" s="41"/>
+      <c r="BJ8" s="41"/>
+      <c r="BK8" s="41"/>
+      <c r="BL8" s="41"/>
+      <c r="BM8" s="41"/>
+      <c r="BN8" s="41"/>
+      <c r="BO8" s="41"/>
+      <c r="BP8" s="41"/>
+      <c r="BQ8" s="41"/>
+      <c r="BR8" s="41"/>
+      <c r="BS8" s="41"/>
+      <c r="BT8" s="41"/>
+      <c r="BU8" s="41"/>
+      <c r="BV8" s="41"/>
+      <c r="BW8" s="41"/>
+      <c r="BX8" s="41"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="41"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="41"/>
+      <c r="CD8" s="41"/>
+      <c r="CE8" s="41"/>
       <c r="CF8" s="6"/>
       <c r="CG8" s="6"/>
       <c r="CH8" s="6"/>
@@ -4691,50 +4704,50 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="22" t="s">
+      <c r="X10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="23"/>
-      <c r="AN10" s="23"/>
-      <c r="AO10" s="23"/>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="23"/>
-      <c r="AR10" s="23"/>
-      <c r="AS10" s="23"/>
-      <c r="AT10" s="23"/>
-      <c r="AU10" s="23"/>
-      <c r="AV10" s="23"/>
-      <c r="AW10" s="23"/>
-      <c r="AX10" s="23"/>
-      <c r="AY10" s="23"/>
-      <c r="AZ10" s="23"/>
-      <c r="BA10" s="23"/>
-      <c r="BB10" s="23"/>
-      <c r="BC10" s="23"/>
-      <c r="BD10" s="23"/>
-      <c r="BE10" s="23"/>
-      <c r="BF10" s="23"/>
-      <c r="BG10" s="23"/>
-      <c r="BH10" s="23"/>
-      <c r="BI10" s="23"/>
-      <c r="BJ10" s="23"/>
-      <c r="BK10" s="23"/>
-      <c r="BL10" s="23"/>
-      <c r="BM10" s="24"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="43"/>
+      <c r="AX10" s="43"/>
+      <c r="AY10" s="43"/>
+      <c r="AZ10" s="43"/>
+      <c r="BA10" s="43"/>
+      <c r="BB10" s="43"/>
+      <c r="BC10" s="43"/>
+      <c r="BD10" s="43"/>
+      <c r="BE10" s="43"/>
+      <c r="BF10" s="43"/>
+      <c r="BG10" s="43"/>
+      <c r="BH10" s="43"/>
+      <c r="BI10" s="43"/>
+      <c r="BJ10" s="43"/>
+      <c r="BK10" s="43"/>
+      <c r="BL10" s="43"/>
+      <c r="BM10" s="44"/>
       <c r="BN10" s="6"/>
       <c r="BO10" s="6"/>
       <c r="BP10" s="6"/>
@@ -4781,48 +4794,48 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="26"/>
-      <c r="AS11" s="26"/>
-      <c r="AT11" s="26"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="26"/>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
-      <c r="BB11" s="26"/>
-      <c r="BC11" s="26"/>
-      <c r="BD11" s="26"/>
-      <c r="BE11" s="26"/>
-      <c r="BF11" s="26"/>
-      <c r="BG11" s="26"/>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="26"/>
-      <c r="BJ11" s="26"/>
-      <c r="BK11" s="26"/>
-      <c r="BL11" s="26"/>
-      <c r="BM11" s="27"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46"/>
+      <c r="AR11" s="46"/>
+      <c r="AS11" s="46"/>
+      <c r="AT11" s="46"/>
+      <c r="AU11" s="46"/>
+      <c r="AV11" s="46"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="46"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="46"/>
+      <c r="BE11" s="46"/>
+      <c r="BF11" s="46"/>
+      <c r="BG11" s="46"/>
+      <c r="BH11" s="46"/>
+      <c r="BI11" s="46"/>
+      <c r="BJ11" s="46"/>
+      <c r="BK11" s="46"/>
+      <c r="BL11" s="46"/>
+      <c r="BM11" s="47"/>
       <c r="BN11" s="6"/>
       <c r="BO11" s="6"/>
       <c r="BP11" s="6"/>
@@ -4869,48 +4882,48 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
-      <c r="AS12" s="26"/>
-      <c r="AT12" s="26"/>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="26"/>
-      <c r="AX12" s="26"/>
-      <c r="AY12" s="26"/>
-      <c r="AZ12" s="26"/>
-      <c r="BA12" s="26"/>
-      <c r="BB12" s="26"/>
-      <c r="BC12" s="26"/>
-      <c r="BD12" s="26"/>
-      <c r="BE12" s="26"/>
-      <c r="BF12" s="26"/>
-      <c r="BG12" s="26"/>
-      <c r="BH12" s="26"/>
-      <c r="BI12" s="26"/>
-      <c r="BJ12" s="26"/>
-      <c r="BK12" s="26"/>
-      <c r="BL12" s="26"/>
-      <c r="BM12" s="27"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="46"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="46"/>
+      <c r="BI12" s="46"/>
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="46"/>
+      <c r="BL12" s="46"/>
+      <c r="BM12" s="47"/>
       <c r="BN12" s="6"/>
       <c r="BO12" s="6"/>
       <c r="BP12" s="6"/>
@@ -4957,48 +4970,48 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="29"/>
-      <c r="AW13" s="29"/>
-      <c r="AX13" s="29"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="29"/>
-      <c r="BA13" s="29"/>
-      <c r="BB13" s="29"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="29"/>
-      <c r="BE13" s="29"/>
-      <c r="BF13" s="29"/>
-      <c r="BG13" s="29"/>
-      <c r="BH13" s="29"/>
-      <c r="BI13" s="29"/>
-      <c r="BJ13" s="29"/>
-      <c r="BK13" s="29"/>
-      <c r="BL13" s="29"/>
-      <c r="BM13" s="30"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="49"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
+      <c r="AV13" s="49"/>
+      <c r="AW13" s="49"/>
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="49"/>
+      <c r="AZ13" s="49"/>
+      <c r="BA13" s="49"/>
+      <c r="BB13" s="49"/>
+      <c r="BC13" s="49"/>
+      <c r="BD13" s="49"/>
+      <c r="BE13" s="49"/>
+      <c r="BF13" s="49"/>
+      <c r="BG13" s="49"/>
+      <c r="BH13" s="49"/>
+      <c r="BI13" s="49"/>
+      <c r="BJ13" s="49"/>
+      <c r="BK13" s="49"/>
+      <c r="BL13" s="49"/>
+      <c r="BM13" s="50"/>
       <c r="BN13" s="6"/>
       <c r="BO13" s="6"/>
       <c r="BP13" s="6"/>
@@ -5115,86 +5128,86 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="31"/>
-      <c r="AY15" s="31"/>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="31"/>
-      <c r="BB15" s="31"/>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="31"/>
-      <c r="BE15" s="31"/>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="31"/>
-      <c r="BH15" s="31"/>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="31"/>
-      <c r="BK15" s="31"/>
-      <c r="BL15" s="31"/>
-      <c r="BM15" s="31"/>
-      <c r="BN15" s="31"/>
-      <c r="BO15" s="31"/>
-      <c r="BP15" s="31"/>
-      <c r="BQ15" s="31"/>
-      <c r="BR15" s="31"/>
-      <c r="BS15" s="31"/>
-      <c r="BT15" s="31"/>
-      <c r="BU15" s="31"/>
-      <c r="BV15" s="31"/>
-      <c r="BW15" s="31"/>
-      <c r="BX15" s="31"/>
-      <c r="BY15" s="31"/>
-      <c r="BZ15" s="31"/>
-      <c r="CA15" s="31"/>
-      <c r="CB15" s="31"/>
-      <c r="CC15" s="31"/>
-      <c r="CD15" s="31"/>
-      <c r="CE15" s="31"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="51"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="51"/>
+      <c r="BH15" s="51"/>
+      <c r="BI15" s="51"/>
+      <c r="BJ15" s="51"/>
+      <c r="BK15" s="51"/>
+      <c r="BL15" s="51"/>
+      <c r="BM15" s="51"/>
+      <c r="BN15" s="51"/>
+      <c r="BO15" s="51"/>
+      <c r="BP15" s="51"/>
+      <c r="BQ15" s="51"/>
+      <c r="BR15" s="51"/>
+      <c r="BS15" s="51"/>
+      <c r="BT15" s="51"/>
+      <c r="BU15" s="51"/>
+      <c r="BV15" s="51"/>
+      <c r="BW15" s="51"/>
+      <c r="BX15" s="51"/>
+      <c r="BY15" s="51"/>
+      <c r="BZ15" s="51"/>
+      <c r="CA15" s="51"/>
+      <c r="CB15" s="51"/>
+      <c r="CC15" s="51"/>
+      <c r="CD15" s="51"/>
+      <c r="CE15" s="51"/>
       <c r="CF15" s="6"/>
       <c r="CG15" s="6"/>
       <c r="CH15" s="6"/>
@@ -5205,84 +5218,84 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="31"/>
-      <c r="AY16" s="31"/>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="31"/>
-      <c r="BB16" s="31"/>
-      <c r="BC16" s="31"/>
-      <c r="BD16" s="31"/>
-      <c r="BE16" s="31"/>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="31"/>
-      <c r="BH16" s="31"/>
-      <c r="BI16" s="31"/>
-      <c r="BJ16" s="31"/>
-      <c r="BK16" s="31"/>
-      <c r="BL16" s="31"/>
-      <c r="BM16" s="31"/>
-      <c r="BN16" s="31"/>
-      <c r="BO16" s="31"/>
-      <c r="BP16" s="31"/>
-      <c r="BQ16" s="31"/>
-      <c r="BR16" s="31"/>
-      <c r="BS16" s="31"/>
-      <c r="BT16" s="31"/>
-      <c r="BU16" s="31"/>
-      <c r="BV16" s="31"/>
-      <c r="BW16" s="31"/>
-      <c r="BX16" s="31"/>
-      <c r="BY16" s="31"/>
-      <c r="BZ16" s="31"/>
-      <c r="CA16" s="31"/>
-      <c r="CB16" s="31"/>
-      <c r="CC16" s="31"/>
-      <c r="CD16" s="31"/>
-      <c r="CE16" s="31"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="51"/>
+      <c r="AR16" s="51"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
+      <c r="AY16" s="51"/>
+      <c r="AZ16" s="51"/>
+      <c r="BA16" s="51"/>
+      <c r="BB16" s="51"/>
+      <c r="BC16" s="51"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
+      <c r="BF16" s="51"/>
+      <c r="BG16" s="51"/>
+      <c r="BH16" s="51"/>
+      <c r="BI16" s="51"/>
+      <c r="BJ16" s="51"/>
+      <c r="BK16" s="51"/>
+      <c r="BL16" s="51"/>
+      <c r="BM16" s="51"/>
+      <c r="BN16" s="51"/>
+      <c r="BO16" s="51"/>
+      <c r="BP16" s="51"/>
+      <c r="BQ16" s="51"/>
+      <c r="BR16" s="51"/>
+      <c r="BS16" s="51"/>
+      <c r="BT16" s="51"/>
+      <c r="BU16" s="51"/>
+      <c r="BV16" s="51"/>
+      <c r="BW16" s="51"/>
+      <c r="BX16" s="51"/>
+      <c r="BY16" s="51"/>
+      <c r="BZ16" s="51"/>
+      <c r="CA16" s="51"/>
+      <c r="CB16" s="51"/>
+      <c r="CC16" s="51"/>
+      <c r="CD16" s="51"/>
+      <c r="CE16" s="51"/>
       <c r="CF16" s="6"/>
       <c r="CG16" s="6"/>
       <c r="CH16" s="6"/>
@@ -5293,84 +5306,84 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="31"/>
-      <c r="BC17" s="31"/>
-      <c r="BD17" s="31"/>
-      <c r="BE17" s="31"/>
-      <c r="BF17" s="31"/>
-      <c r="BG17" s="31"/>
-      <c r="BH17" s="31"/>
-      <c r="BI17" s="31"/>
-      <c r="BJ17" s="31"/>
-      <c r="BK17" s="31"/>
-      <c r="BL17" s="31"/>
-      <c r="BM17" s="31"/>
-      <c r="BN17" s="31"/>
-      <c r="BO17" s="31"/>
-      <c r="BP17" s="31"/>
-      <c r="BQ17" s="31"/>
-      <c r="BR17" s="31"/>
-      <c r="BS17" s="31"/>
-      <c r="BT17" s="31"/>
-      <c r="BU17" s="31"/>
-      <c r="BV17" s="31"/>
-      <c r="BW17" s="31"/>
-      <c r="BX17" s="31"/>
-      <c r="BY17" s="31"/>
-      <c r="BZ17" s="31"/>
-      <c r="CA17" s="31"/>
-      <c r="CB17" s="31"/>
-      <c r="CC17" s="31"/>
-      <c r="CD17" s="31"/>
-      <c r="CE17" s="31"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="51"/>
+      <c r="BA17" s="51"/>
+      <c r="BB17" s="51"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
+      <c r="BM17" s="51"/>
+      <c r="BN17" s="51"/>
+      <c r="BO17" s="51"/>
+      <c r="BP17" s="51"/>
+      <c r="BQ17" s="51"/>
+      <c r="BR17" s="51"/>
+      <c r="BS17" s="51"/>
+      <c r="BT17" s="51"/>
+      <c r="BU17" s="51"/>
+      <c r="BV17" s="51"/>
+      <c r="BW17" s="51"/>
+      <c r="BX17" s="51"/>
+      <c r="BY17" s="51"/>
+      <c r="BZ17" s="51"/>
+      <c r="CA17" s="51"/>
+      <c r="CB17" s="51"/>
+      <c r="CC17" s="51"/>
+      <c r="CD17" s="51"/>
+      <c r="CE17" s="51"/>
       <c r="CF17" s="6"/>
       <c r="CG17" s="6"/>
       <c r="CH17" s="6"/>
@@ -5381,84 +5394,84 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="31"/>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="31"/>
-      <c r="BK18" s="31"/>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="31"/>
-      <c r="BN18" s="31"/>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="31"/>
-      <c r="BQ18" s="31"/>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="31"/>
-      <c r="BT18" s="31"/>
-      <c r="BU18" s="31"/>
-      <c r="BV18" s="31"/>
-      <c r="BW18" s="31"/>
-      <c r="BX18" s="31"/>
-      <c r="BY18" s="31"/>
-      <c r="BZ18" s="31"/>
-      <c r="CA18" s="31"/>
-      <c r="CB18" s="31"/>
-      <c r="CC18" s="31"/>
-      <c r="CD18" s="31"/>
-      <c r="CE18" s="31"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="51"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="AZ18" s="51"/>
+      <c r="BA18" s="51"/>
+      <c r="BB18" s="51"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BI18" s="51"/>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="51"/>
+      <c r="BL18" s="51"/>
+      <c r="BM18" s="51"/>
+      <c r="BN18" s="51"/>
+      <c r="BO18" s="51"/>
+      <c r="BP18" s="51"/>
+      <c r="BQ18" s="51"/>
+      <c r="BR18" s="51"/>
+      <c r="BS18" s="51"/>
+      <c r="BT18" s="51"/>
+      <c r="BU18" s="51"/>
+      <c r="BV18" s="51"/>
+      <c r="BW18" s="51"/>
+      <c r="BX18" s="51"/>
+      <c r="BY18" s="51"/>
+      <c r="BZ18" s="51"/>
+      <c r="CA18" s="51"/>
+      <c r="CB18" s="51"/>
+      <c r="CC18" s="51"/>
+      <c r="CD18" s="51"/>
+      <c r="CE18" s="51"/>
       <c r="CF18" s="6"/>
       <c r="CG18" s="6"/>
       <c r="CH18" s="6"/>
@@ -5645,86 +5658,86 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="32"/>
-      <c r="AW21" s="32"/>
-      <c r="AX21" s="32"/>
-      <c r="AY21" s="32"/>
-      <c r="AZ21" s="32"/>
-      <c r="BA21" s="32"/>
-      <c r="BB21" s="32"/>
-      <c r="BC21" s="32"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="32"/>
-      <c r="BF21" s="32"/>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="32"/>
-      <c r="BI21" s="32"/>
-      <c r="BJ21" s="32"/>
-      <c r="BK21" s="32"/>
-      <c r="BL21" s="32"/>
-      <c r="BM21" s="32"/>
-      <c r="BN21" s="32"/>
-      <c r="BO21" s="32"/>
-      <c r="BP21" s="32"/>
-      <c r="BQ21" s="32"/>
-      <c r="BR21" s="32"/>
-      <c r="BS21" s="32"/>
-      <c r="BT21" s="32"/>
-      <c r="BU21" s="32"/>
-      <c r="BV21" s="32"/>
-      <c r="BW21" s="32"/>
-      <c r="BX21" s="32"/>
-      <c r="BY21" s="32"/>
-      <c r="BZ21" s="32"/>
-      <c r="CA21" s="32"/>
-      <c r="CB21" s="32"/>
-      <c r="CC21" s="32"/>
-      <c r="CD21" s="32"/>
-      <c r="CE21" s="32"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="52"/>
+      <c r="AT21" s="52"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="52"/>
+      <c r="AW21" s="52"/>
+      <c r="AX21" s="52"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="52"/>
+      <c r="BA21" s="52"/>
+      <c r="BB21" s="52"/>
+      <c r="BC21" s="52"/>
+      <c r="BD21" s="52"/>
+      <c r="BE21" s="52"/>
+      <c r="BF21" s="52"/>
+      <c r="BG21" s="52"/>
+      <c r="BH21" s="52"/>
+      <c r="BI21" s="52"/>
+      <c r="BJ21" s="52"/>
+      <c r="BK21" s="52"/>
+      <c r="BL21" s="52"/>
+      <c r="BM21" s="52"/>
+      <c r="BN21" s="52"/>
+      <c r="BO21" s="52"/>
+      <c r="BP21" s="52"/>
+      <c r="BQ21" s="52"/>
+      <c r="BR21" s="52"/>
+      <c r="BS21" s="52"/>
+      <c r="BT21" s="52"/>
+      <c r="BU21" s="52"/>
+      <c r="BV21" s="52"/>
+      <c r="BW21" s="52"/>
+      <c r="BX21" s="52"/>
+      <c r="BY21" s="52"/>
+      <c r="BZ21" s="52"/>
+      <c r="CA21" s="52"/>
+      <c r="CB21" s="52"/>
+      <c r="CC21" s="52"/>
+      <c r="CD21" s="52"/>
+      <c r="CE21" s="52"/>
       <c r="CF21" s="6"/>
       <c r="CG21" s="6"/>
       <c r="CH21" s="6"/>
@@ -5735,84 +5748,84 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="32"/>
-      <c r="AU22" s="32"/>
-      <c r="AV22" s="32"/>
-      <c r="AW22" s="32"/>
-      <c r="AX22" s="32"/>
-      <c r="AY22" s="32"/>
-      <c r="AZ22" s="32"/>
-      <c r="BA22" s="32"/>
-      <c r="BB22" s="32"/>
-      <c r="BC22" s="32"/>
-      <c r="BD22" s="32"/>
-      <c r="BE22" s="32"/>
-      <c r="BF22" s="32"/>
-      <c r="BG22" s="32"/>
-      <c r="BH22" s="32"/>
-      <c r="BI22" s="32"/>
-      <c r="BJ22" s="32"/>
-      <c r="BK22" s="32"/>
-      <c r="BL22" s="32"/>
-      <c r="BM22" s="32"/>
-      <c r="BN22" s="32"/>
-      <c r="BO22" s="32"/>
-      <c r="BP22" s="32"/>
-      <c r="BQ22" s="32"/>
-      <c r="BR22" s="32"/>
-      <c r="BS22" s="32"/>
-      <c r="BT22" s="32"/>
-      <c r="BU22" s="32"/>
-      <c r="BV22" s="32"/>
-      <c r="BW22" s="32"/>
-      <c r="BX22" s="32"/>
-      <c r="BY22" s="32"/>
-      <c r="BZ22" s="32"/>
-      <c r="CA22" s="32"/>
-      <c r="CB22" s="32"/>
-      <c r="CC22" s="32"/>
-      <c r="CD22" s="32"/>
-      <c r="CE22" s="32"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="52"/>
+      <c r="AL22" s="52"/>
+      <c r="AM22" s="52"/>
+      <c r="AN22" s="52"/>
+      <c r="AO22" s="52"/>
+      <c r="AP22" s="52"/>
+      <c r="AQ22" s="52"/>
+      <c r="AR22" s="52"/>
+      <c r="AS22" s="52"/>
+      <c r="AT22" s="52"/>
+      <c r="AU22" s="52"/>
+      <c r="AV22" s="52"/>
+      <c r="AW22" s="52"/>
+      <c r="AX22" s="52"/>
+      <c r="AY22" s="52"/>
+      <c r="AZ22" s="52"/>
+      <c r="BA22" s="52"/>
+      <c r="BB22" s="52"/>
+      <c r="BC22" s="52"/>
+      <c r="BD22" s="52"/>
+      <c r="BE22" s="52"/>
+      <c r="BF22" s="52"/>
+      <c r="BG22" s="52"/>
+      <c r="BH22" s="52"/>
+      <c r="BI22" s="52"/>
+      <c r="BJ22" s="52"/>
+      <c r="BK22" s="52"/>
+      <c r="BL22" s="52"/>
+      <c r="BM22" s="52"/>
+      <c r="BN22" s="52"/>
+      <c r="BO22" s="52"/>
+      <c r="BP22" s="52"/>
+      <c r="BQ22" s="52"/>
+      <c r="BR22" s="52"/>
+      <c r="BS22" s="52"/>
+      <c r="BT22" s="52"/>
+      <c r="BU22" s="52"/>
+      <c r="BV22" s="52"/>
+      <c r="BW22" s="52"/>
+      <c r="BX22" s="52"/>
+      <c r="BY22" s="52"/>
+      <c r="BZ22" s="52"/>
+      <c r="CA22" s="52"/>
+      <c r="CB22" s="52"/>
+      <c r="CC22" s="52"/>
+      <c r="CD22" s="52"/>
+      <c r="CE22" s="52"/>
       <c r="CF22" s="6"/>
       <c r="CG22" s="6"/>
       <c r="CH22" s="6"/>
@@ -5823,84 +5836,84 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="32"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="32"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="32"/>
-      <c r="BA23" s="32"/>
-      <c r="BB23" s="32"/>
-      <c r="BC23" s="32"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="32"/>
-      <c r="BF23" s="32"/>
-      <c r="BG23" s="32"/>
-      <c r="BH23" s="32"/>
-      <c r="BI23" s="32"/>
-      <c r="BJ23" s="32"/>
-      <c r="BK23" s="32"/>
-      <c r="BL23" s="32"/>
-      <c r="BM23" s="32"/>
-      <c r="BN23" s="32"/>
-      <c r="BO23" s="32"/>
-      <c r="BP23" s="32"/>
-      <c r="BQ23" s="32"/>
-      <c r="BR23" s="32"/>
-      <c r="BS23" s="32"/>
-      <c r="BT23" s="32"/>
-      <c r="BU23" s="32"/>
-      <c r="BV23" s="32"/>
-      <c r="BW23" s="32"/>
-      <c r="BX23" s="32"/>
-      <c r="BY23" s="32"/>
-      <c r="BZ23" s="32"/>
-      <c r="CA23" s="32"/>
-      <c r="CB23" s="32"/>
-      <c r="CC23" s="32"/>
-      <c r="CD23" s="32"/>
-      <c r="CE23" s="32"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="52"/>
+      <c r="AM23" s="52"/>
+      <c r="AN23" s="52"/>
+      <c r="AO23" s="52"/>
+      <c r="AP23" s="52"/>
+      <c r="AQ23" s="52"/>
+      <c r="AR23" s="52"/>
+      <c r="AS23" s="52"/>
+      <c r="AT23" s="52"/>
+      <c r="AU23" s="52"/>
+      <c r="AV23" s="52"/>
+      <c r="AW23" s="52"/>
+      <c r="AX23" s="52"/>
+      <c r="AY23" s="52"/>
+      <c r="AZ23" s="52"/>
+      <c r="BA23" s="52"/>
+      <c r="BB23" s="52"/>
+      <c r="BC23" s="52"/>
+      <c r="BD23" s="52"/>
+      <c r="BE23" s="52"/>
+      <c r="BF23" s="52"/>
+      <c r="BG23" s="52"/>
+      <c r="BH23" s="52"/>
+      <c r="BI23" s="52"/>
+      <c r="BJ23" s="52"/>
+      <c r="BK23" s="52"/>
+      <c r="BL23" s="52"/>
+      <c r="BM23" s="52"/>
+      <c r="BN23" s="52"/>
+      <c r="BO23" s="52"/>
+      <c r="BP23" s="52"/>
+      <c r="BQ23" s="52"/>
+      <c r="BR23" s="52"/>
+      <c r="BS23" s="52"/>
+      <c r="BT23" s="52"/>
+      <c r="BU23" s="52"/>
+      <c r="BV23" s="52"/>
+      <c r="BW23" s="52"/>
+      <c r="BX23" s="52"/>
+      <c r="BY23" s="52"/>
+      <c r="BZ23" s="52"/>
+      <c r="CA23" s="52"/>
+      <c r="CB23" s="52"/>
+      <c r="CC23" s="52"/>
+      <c r="CD23" s="52"/>
+      <c r="CE23" s="52"/>
       <c r="CF23" s="6"/>
       <c r="CG23" s="6"/>
       <c r="CH23" s="6"/>
@@ -5911,84 +5924,84 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-      <c r="AV24" s="32"/>
-      <c r="AW24" s="32"/>
-      <c r="AX24" s="32"/>
-      <c r="AY24" s="32"/>
-      <c r="AZ24" s="32"/>
-      <c r="BA24" s="32"/>
-      <c r="BB24" s="32"/>
-      <c r="BC24" s="32"/>
-      <c r="BD24" s="32"/>
-      <c r="BE24" s="32"/>
-      <c r="BF24" s="32"/>
-      <c r="BG24" s="32"/>
-      <c r="BH24" s="32"/>
-      <c r="BI24" s="32"/>
-      <c r="BJ24" s="32"/>
-      <c r="BK24" s="32"/>
-      <c r="BL24" s="32"/>
-      <c r="BM24" s="32"/>
-      <c r="BN24" s="32"/>
-      <c r="BO24" s="32"/>
-      <c r="BP24" s="32"/>
-      <c r="BQ24" s="32"/>
-      <c r="BR24" s="32"/>
-      <c r="BS24" s="32"/>
-      <c r="BT24" s="32"/>
-      <c r="BU24" s="32"/>
-      <c r="BV24" s="32"/>
-      <c r="BW24" s="32"/>
-      <c r="BX24" s="32"/>
-      <c r="BY24" s="32"/>
-      <c r="BZ24" s="32"/>
-      <c r="CA24" s="32"/>
-      <c r="CB24" s="32"/>
-      <c r="CC24" s="32"/>
-      <c r="CD24" s="32"/>
-      <c r="CE24" s="32"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="52"/>
+      <c r="AL24" s="52"/>
+      <c r="AM24" s="52"/>
+      <c r="AN24" s="52"/>
+      <c r="AO24" s="52"/>
+      <c r="AP24" s="52"/>
+      <c r="AQ24" s="52"/>
+      <c r="AR24" s="52"/>
+      <c r="AS24" s="52"/>
+      <c r="AT24" s="52"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="52"/>
+      <c r="AW24" s="52"/>
+      <c r="AX24" s="52"/>
+      <c r="AY24" s="52"/>
+      <c r="AZ24" s="52"/>
+      <c r="BA24" s="52"/>
+      <c r="BB24" s="52"/>
+      <c r="BC24" s="52"/>
+      <c r="BD24" s="52"/>
+      <c r="BE24" s="52"/>
+      <c r="BF24" s="52"/>
+      <c r="BG24" s="52"/>
+      <c r="BH24" s="52"/>
+      <c r="BI24" s="52"/>
+      <c r="BJ24" s="52"/>
+      <c r="BK24" s="52"/>
+      <c r="BL24" s="52"/>
+      <c r="BM24" s="52"/>
+      <c r="BN24" s="52"/>
+      <c r="BO24" s="52"/>
+      <c r="BP24" s="52"/>
+      <c r="BQ24" s="52"/>
+      <c r="BR24" s="52"/>
+      <c r="BS24" s="52"/>
+      <c r="BT24" s="52"/>
+      <c r="BU24" s="52"/>
+      <c r="BV24" s="52"/>
+      <c r="BW24" s="52"/>
+      <c r="BX24" s="52"/>
+      <c r="BY24" s="52"/>
+      <c r="BZ24" s="52"/>
+      <c r="CA24" s="52"/>
+      <c r="CB24" s="52"/>
+      <c r="CC24" s="52"/>
+      <c r="CD24" s="52"/>
+      <c r="CE24" s="52"/>
       <c r="CF24" s="6"/>
       <c r="CG24" s="6"/>
       <c r="CH24" s="6"/>
@@ -6175,86 +6188,86 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
-      <c r="AU27" s="32"/>
-      <c r="AV27" s="32"/>
-      <c r="AW27" s="32"/>
-      <c r="AX27" s="32"/>
-      <c r="AY27" s="32"/>
-      <c r="AZ27" s="32"/>
-      <c r="BA27" s="32"/>
-      <c r="BB27" s="32"/>
-      <c r="BC27" s="32"/>
-      <c r="BD27" s="32"/>
-      <c r="BE27" s="32"/>
-      <c r="BF27" s="32"/>
-      <c r="BG27" s="32"/>
-      <c r="BH27" s="32"/>
-      <c r="BI27" s="32"/>
-      <c r="BJ27" s="32"/>
-      <c r="BK27" s="32"/>
-      <c r="BL27" s="32"/>
-      <c r="BM27" s="32"/>
-      <c r="BN27" s="32"/>
-      <c r="BO27" s="32"/>
-      <c r="BP27" s="32"/>
-      <c r="BQ27" s="32"/>
-      <c r="BR27" s="32"/>
-      <c r="BS27" s="32"/>
-      <c r="BT27" s="32"/>
-      <c r="BU27" s="32"/>
-      <c r="BV27" s="32"/>
-      <c r="BW27" s="32"/>
-      <c r="BX27" s="32"/>
-      <c r="BY27" s="32"/>
-      <c r="BZ27" s="32"/>
-      <c r="CA27" s="32"/>
-      <c r="CB27" s="32"/>
-      <c r="CC27" s="32"/>
-      <c r="CD27" s="32"/>
-      <c r="CE27" s="32"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="52"/>
+      <c r="BA27" s="52"/>
+      <c r="BB27" s="52"/>
+      <c r="BC27" s="52"/>
+      <c r="BD27" s="52"/>
+      <c r="BE27" s="52"/>
+      <c r="BF27" s="52"/>
+      <c r="BG27" s="52"/>
+      <c r="BH27" s="52"/>
+      <c r="BI27" s="52"/>
+      <c r="BJ27" s="52"/>
+      <c r="BK27" s="52"/>
+      <c r="BL27" s="52"/>
+      <c r="BM27" s="52"/>
+      <c r="BN27" s="52"/>
+      <c r="BO27" s="52"/>
+      <c r="BP27" s="52"/>
+      <c r="BQ27" s="52"/>
+      <c r="BR27" s="52"/>
+      <c r="BS27" s="52"/>
+      <c r="BT27" s="52"/>
+      <c r="BU27" s="52"/>
+      <c r="BV27" s="52"/>
+      <c r="BW27" s="52"/>
+      <c r="BX27" s="52"/>
+      <c r="BY27" s="52"/>
+      <c r="BZ27" s="52"/>
+      <c r="CA27" s="52"/>
+      <c r="CB27" s="52"/>
+      <c r="CC27" s="52"/>
+      <c r="CD27" s="52"/>
+      <c r="CE27" s="52"/>
       <c r="CF27" s="6"/>
       <c r="CG27" s="6"/>
       <c r="CH27" s="6"/>
@@ -6265,84 +6278,84 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="32"/>
-      <c r="AW28" s="32"/>
-      <c r="AX28" s="32"/>
-      <c r="AY28" s="32"/>
-      <c r="AZ28" s="32"/>
-      <c r="BA28" s="32"/>
-      <c r="BB28" s="32"/>
-      <c r="BC28" s="32"/>
-      <c r="BD28" s="32"/>
-      <c r="BE28" s="32"/>
-      <c r="BF28" s="32"/>
-      <c r="BG28" s="32"/>
-      <c r="BH28" s="32"/>
-      <c r="BI28" s="32"/>
-      <c r="BJ28" s="32"/>
-      <c r="BK28" s="32"/>
-      <c r="BL28" s="32"/>
-      <c r="BM28" s="32"/>
-      <c r="BN28" s="32"/>
-      <c r="BO28" s="32"/>
-      <c r="BP28" s="32"/>
-      <c r="BQ28" s="32"/>
-      <c r="BR28" s="32"/>
-      <c r="BS28" s="32"/>
-      <c r="BT28" s="32"/>
-      <c r="BU28" s="32"/>
-      <c r="BV28" s="32"/>
-      <c r="BW28" s="32"/>
-      <c r="BX28" s="32"/>
-      <c r="BY28" s="32"/>
-      <c r="BZ28" s="32"/>
-      <c r="CA28" s="32"/>
-      <c r="CB28" s="32"/>
-      <c r="CC28" s="32"/>
-      <c r="CD28" s="32"/>
-      <c r="CE28" s="32"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
+      <c r="AO28" s="52"/>
+      <c r="AP28" s="52"/>
+      <c r="AQ28" s="52"/>
+      <c r="AR28" s="52"/>
+      <c r="AS28" s="52"/>
+      <c r="AT28" s="52"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="52"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="52"/>
+      <c r="BA28" s="52"/>
+      <c r="BB28" s="52"/>
+      <c r="BC28" s="52"/>
+      <c r="BD28" s="52"/>
+      <c r="BE28" s="52"/>
+      <c r="BF28" s="52"/>
+      <c r="BG28" s="52"/>
+      <c r="BH28" s="52"/>
+      <c r="BI28" s="52"/>
+      <c r="BJ28" s="52"/>
+      <c r="BK28" s="52"/>
+      <c r="BL28" s="52"/>
+      <c r="BM28" s="52"/>
+      <c r="BN28" s="52"/>
+      <c r="BO28" s="52"/>
+      <c r="BP28" s="52"/>
+      <c r="BQ28" s="52"/>
+      <c r="BR28" s="52"/>
+      <c r="BS28" s="52"/>
+      <c r="BT28" s="52"/>
+      <c r="BU28" s="52"/>
+      <c r="BV28" s="52"/>
+      <c r="BW28" s="52"/>
+      <c r="BX28" s="52"/>
+      <c r="BY28" s="52"/>
+      <c r="BZ28" s="52"/>
+      <c r="CA28" s="52"/>
+      <c r="CB28" s="52"/>
+      <c r="CC28" s="52"/>
+      <c r="CD28" s="52"/>
+      <c r="CE28" s="52"/>
       <c r="CF28" s="5"/>
       <c r="CG28" s="5"/>
       <c r="CH28" s="5"/>
@@ -6353,84 +6366,84 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="32"/>
-      <c r="AW29" s="32"/>
-      <c r="AX29" s="32"/>
-      <c r="AY29" s="32"/>
-      <c r="AZ29" s="32"/>
-      <c r="BA29" s="32"/>
-      <c r="BB29" s="32"/>
-      <c r="BC29" s="32"/>
-      <c r="BD29" s="32"/>
-      <c r="BE29" s="32"/>
-      <c r="BF29" s="32"/>
-      <c r="BG29" s="32"/>
-      <c r="BH29" s="32"/>
-      <c r="BI29" s="32"/>
-      <c r="BJ29" s="32"/>
-      <c r="BK29" s="32"/>
-      <c r="BL29" s="32"/>
-      <c r="BM29" s="32"/>
-      <c r="BN29" s="32"/>
-      <c r="BO29" s="32"/>
-      <c r="BP29" s="32"/>
-      <c r="BQ29" s="32"/>
-      <c r="BR29" s="32"/>
-      <c r="BS29" s="32"/>
-      <c r="BT29" s="32"/>
-      <c r="BU29" s="32"/>
-      <c r="BV29" s="32"/>
-      <c r="BW29" s="32"/>
-      <c r="BX29" s="32"/>
-      <c r="BY29" s="32"/>
-      <c r="BZ29" s="32"/>
-      <c r="CA29" s="32"/>
-      <c r="CB29" s="32"/>
-      <c r="CC29" s="32"/>
-      <c r="CD29" s="32"/>
-      <c r="CE29" s="32"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
+      <c r="AO29" s="52"/>
+      <c r="AP29" s="52"/>
+      <c r="AQ29" s="52"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="52"/>
+      <c r="AT29" s="52"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="52"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="52"/>
+      <c r="BA29" s="52"/>
+      <c r="BB29" s="52"/>
+      <c r="BC29" s="52"/>
+      <c r="BD29" s="52"/>
+      <c r="BE29" s="52"/>
+      <c r="BF29" s="52"/>
+      <c r="BG29" s="52"/>
+      <c r="BH29" s="52"/>
+      <c r="BI29" s="52"/>
+      <c r="BJ29" s="52"/>
+      <c r="BK29" s="52"/>
+      <c r="BL29" s="52"/>
+      <c r="BM29" s="52"/>
+      <c r="BN29" s="52"/>
+      <c r="BO29" s="52"/>
+      <c r="BP29" s="52"/>
+      <c r="BQ29" s="52"/>
+      <c r="BR29" s="52"/>
+      <c r="BS29" s="52"/>
+      <c r="BT29" s="52"/>
+      <c r="BU29" s="52"/>
+      <c r="BV29" s="52"/>
+      <c r="BW29" s="52"/>
+      <c r="BX29" s="52"/>
+      <c r="BY29" s="52"/>
+      <c r="BZ29" s="52"/>
+      <c r="CA29" s="52"/>
+      <c r="CB29" s="52"/>
+      <c r="CC29" s="52"/>
+      <c r="CD29" s="52"/>
+      <c r="CE29" s="52"/>
       <c r="CF29" s="5"/>
       <c r="CG29" s="5"/>
       <c r="CH29" s="5"/>
@@ -6441,84 +6454,84 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="32"/>
-      <c r="AT30" s="32"/>
-      <c r="AU30" s="32"/>
-      <c r="AV30" s="32"/>
-      <c r="AW30" s="32"/>
-      <c r="AX30" s="32"/>
-      <c r="AY30" s="32"/>
-      <c r="AZ30" s="32"/>
-      <c r="BA30" s="32"/>
-      <c r="BB30" s="32"/>
-      <c r="BC30" s="32"/>
-      <c r="BD30" s="32"/>
-      <c r="BE30" s="32"/>
-      <c r="BF30" s="32"/>
-      <c r="BG30" s="32"/>
-      <c r="BH30" s="32"/>
-      <c r="BI30" s="32"/>
-      <c r="BJ30" s="32"/>
-      <c r="BK30" s="32"/>
-      <c r="BL30" s="32"/>
-      <c r="BM30" s="32"/>
-      <c r="BN30" s="32"/>
-      <c r="BO30" s="32"/>
-      <c r="BP30" s="32"/>
-      <c r="BQ30" s="32"/>
-      <c r="BR30" s="32"/>
-      <c r="BS30" s="32"/>
-      <c r="BT30" s="32"/>
-      <c r="BU30" s="32"/>
-      <c r="BV30" s="32"/>
-      <c r="BW30" s="32"/>
-      <c r="BX30" s="32"/>
-      <c r="BY30" s="32"/>
-      <c r="BZ30" s="32"/>
-      <c r="CA30" s="32"/>
-      <c r="CB30" s="32"/>
-      <c r="CC30" s="32"/>
-      <c r="CD30" s="32"/>
-      <c r="CE30" s="32"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
+      <c r="AO30" s="52"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="52"/>
+      <c r="BA30" s="52"/>
+      <c r="BB30" s="52"/>
+      <c r="BC30" s="52"/>
+      <c r="BD30" s="52"/>
+      <c r="BE30" s="52"/>
+      <c r="BF30" s="52"/>
+      <c r="BG30" s="52"/>
+      <c r="BH30" s="52"/>
+      <c r="BI30" s="52"/>
+      <c r="BJ30" s="52"/>
+      <c r="BK30" s="52"/>
+      <c r="BL30" s="52"/>
+      <c r="BM30" s="52"/>
+      <c r="BN30" s="52"/>
+      <c r="BO30" s="52"/>
+      <c r="BP30" s="52"/>
+      <c r="BQ30" s="52"/>
+      <c r="BR30" s="52"/>
+      <c r="BS30" s="52"/>
+      <c r="BT30" s="52"/>
+      <c r="BU30" s="52"/>
+      <c r="BV30" s="52"/>
+      <c r="BW30" s="52"/>
+      <c r="BX30" s="52"/>
+      <c r="BY30" s="52"/>
+      <c r="BZ30" s="52"/>
+      <c r="CA30" s="52"/>
+      <c r="CB30" s="52"/>
+      <c r="CC30" s="52"/>
+      <c r="CD30" s="52"/>
+      <c r="CE30" s="52"/>
       <c r="CF30" s="5"/>
       <c r="CG30" s="5"/>
       <c r="CH30" s="5"/>
@@ -6530,46 +6543,46 @@
     </row>
     <row r="32" spans="2:87">
       <c r="B32" s="4"/>
-      <c r="BO32" s="14" t="s">
+      <c r="BO32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="BP32" s="15"/>
-      <c r="BQ32" s="15"/>
-      <c r="BR32" s="15"/>
-      <c r="BS32" s="15"/>
-      <c r="BT32" s="15"/>
-      <c r="BU32" s="15"/>
-      <c r="BV32" s="15"/>
-      <c r="BW32" s="15"/>
-      <c r="BX32" s="15"/>
-      <c r="BY32" s="15"/>
-      <c r="BZ32" s="15"/>
-      <c r="CA32" s="15"/>
-      <c r="CB32" s="15"/>
-      <c r="CC32" s="15"/>
-      <c r="CD32" s="15"/>
-      <c r="CE32" s="16"/>
+      <c r="BP32" s="35"/>
+      <c r="BQ32" s="35"/>
+      <c r="BR32" s="35"/>
+      <c r="BS32" s="35"/>
+      <c r="BT32" s="35"/>
+      <c r="BU32" s="35"/>
+      <c r="BV32" s="35"/>
+      <c r="BW32" s="35"/>
+      <c r="BX32" s="35"/>
+      <c r="BY32" s="35"/>
+      <c r="BZ32" s="35"/>
+      <c r="CA32" s="35"/>
+      <c r="CB32" s="35"/>
+      <c r="CC32" s="35"/>
+      <c r="CD32" s="35"/>
+      <c r="CE32" s="36"/>
       <c r="CI32" s="8"/>
     </row>
     <row r="33" spans="2:87" ht="18.75" thickBot="1">
       <c r="B33" s="4"/>
-      <c r="BO33" s="17"/>
-      <c r="BP33" s="18"/>
-      <c r="BQ33" s="18"/>
-      <c r="BR33" s="18"/>
-      <c r="BS33" s="18"/>
-      <c r="BT33" s="18"/>
-      <c r="BU33" s="18"/>
-      <c r="BV33" s="18"/>
-      <c r="BW33" s="18"/>
-      <c r="BX33" s="18"/>
-      <c r="BY33" s="18"/>
-      <c r="BZ33" s="18"/>
-      <c r="CA33" s="18"/>
-      <c r="CB33" s="18"/>
-      <c r="CC33" s="18"/>
-      <c r="CD33" s="18"/>
-      <c r="CE33" s="19"/>
+      <c r="BO33" s="37"/>
+      <c r="BP33" s="38"/>
+      <c r="BQ33" s="38"/>
+      <c r="BR33" s="38"/>
+      <c r="BS33" s="38"/>
+      <c r="BT33" s="38"/>
+      <c r="BU33" s="38"/>
+      <c r="BV33" s="38"/>
+      <c r="BW33" s="38"/>
+      <c r="BX33" s="38"/>
+      <c r="BY33" s="38"/>
+      <c r="BZ33" s="38"/>
+      <c r="CA33" s="38"/>
+      <c r="CB33" s="38"/>
+      <c r="CC33" s="38"/>
+      <c r="CD33" s="38"/>
+      <c r="CE33" s="39"/>
       <c r="CI33" s="8"/>
     </row>
     <row r="34" spans="2:87" ht="18" customHeight="1" thickBot="1">
@@ -6663,14 +6676,12 @@
     <row r="35" spans="2:87" ht="18.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="BO32:CE33"/>
+    <mergeCell ref="F7:CE8"/>
+    <mergeCell ref="X10:BM13"/>
+    <mergeCell ref="F15:CE18"/>
+    <mergeCell ref="F21:CE24"/>
+    <mergeCell ref="F27:CE30"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -6685,12 +6696,14 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BO32:CE33"/>
-    <mergeCell ref="F7:CE8"/>
-    <mergeCell ref="X10:BM13"/>
-    <mergeCell ref="F15:CE18"/>
-    <mergeCell ref="F21:CE24"/>
-    <mergeCell ref="F27:CE30"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6708,7 +6721,7 @@
   <dimension ref="A1:AMK28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:X14"/>
+      <selection activeCell="E14" sqref="E14:CI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6721,102 +6734,102 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="43"/>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43"/>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="44" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="30"/>
+      <c r="BL1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
-      <c r="BP1" s="45"/>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="45"/>
-      <c r="BV1" s="45"/>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="46" t="s">
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="31"/>
+      <c r="BO1" s="31"/>
+      <c r="BP1" s="32"/>
+      <c r="BQ1" s="32"/>
+      <c r="BR1" s="32"/>
+      <c r="BS1" s="32"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="32"/>
+      <c r="BV1" s="32"/>
+      <c r="BW1" s="32"/>
+      <c r="BX1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="46"/>
-      <c r="BZ1" s="46"/>
-      <c r="CA1" s="46"/>
-      <c r="CB1" s="33"/>
-      <c r="CC1" s="33"/>
-      <c r="CD1" s="33"/>
-      <c r="CE1" s="33"/>
-      <c r="CF1" s="33"/>
-      <c r="CG1" s="33"/>
-      <c r="CH1" s="33"/>
-      <c r="CI1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="33"/>
+      <c r="CA1" s="33"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -7757,102 +7770,102 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="36" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="37" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="38"/>
-      <c r="BR2" s="38"/>
-      <c r="BS2" s="38"/>
-      <c r="BT2" s="38"/>
-      <c r="BU2" s="38"/>
-      <c r="BV2" s="38"/>
-      <c r="BW2" s="38"/>
-      <c r="BX2" s="39" t="s">
+      <c r="BM2" s="24"/>
+      <c r="BN2" s="24"/>
+      <c r="BO2" s="24"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="25"/>
+      <c r="BW2" s="25"/>
+      <c r="BX2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="39"/>
-      <c r="BZ2" s="39"/>
-      <c r="CA2" s="39"/>
-      <c r="CB2" s="40"/>
-      <c r="CC2" s="40"/>
-      <c r="CD2" s="40"/>
-      <c r="CE2" s="40"/>
-      <c r="CF2" s="40"/>
-      <c r="CG2" s="40"/>
-      <c r="CH2" s="40"/>
-      <c r="CI2" s="40"/>
+      <c r="BY2" s="26"/>
+      <c r="BZ2" s="26"/>
+      <c r="CA2" s="26"/>
+      <c r="CB2" s="27"/>
+      <c r="CC2" s="27"/>
+      <c r="CD2" s="27"/>
+      <c r="CE2" s="27"/>
+      <c r="CF2" s="27"/>
+      <c r="CG2" s="27"/>
+      <c r="CH2" s="27"/>
+      <c r="CI2" s="27"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -8880,2562 +8893,2364 @@
       <c r="CI3" s="10"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="49" t="s">
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="49"/>
-      <c r="BD4" s="49"/>
-      <c r="BE4" s="49"/>
-      <c r="BF4" s="49"/>
-      <c r="BG4" s="49"/>
-      <c r="BH4" s="49"/>
-      <c r="BI4" s="49"/>
-      <c r="BJ4" s="49"/>
-      <c r="BK4" s="49"/>
-      <c r="BL4" s="49"/>
-      <c r="BM4" s="49"/>
-      <c r="BN4" s="49"/>
-      <c r="BO4" s="49"/>
-      <c r="BP4" s="49"/>
-      <c r="BQ4" s="49"/>
-      <c r="BR4" s="49"/>
-      <c r="BS4" s="49"/>
-      <c r="BT4" s="49"/>
-      <c r="BU4" s="49"/>
-      <c r="BV4" s="49"/>
-      <c r="BW4" s="49"/>
-      <c r="BX4" s="49"/>
-      <c r="BY4" s="49"/>
-      <c r="BZ4" s="49"/>
-      <c r="CA4" s="49"/>
-      <c r="CB4" s="49"/>
-      <c r="CC4" s="49"/>
-      <c r="CD4" s="49"/>
-      <c r="CE4" s="49"/>
-      <c r="CF4" s="49"/>
-      <c r="CG4" s="49"/>
-      <c r="CH4" s="49"/>
-      <c r="CI4" s="49"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="16"/>
+      <c r="BQ4" s="16"/>
+      <c r="BR4" s="16"/>
+      <c r="BS4" s="16"/>
+      <c r="BT4" s="16"/>
+      <c r="BU4" s="16"/>
+      <c r="BV4" s="16"/>
+      <c r="BW4" s="16"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="16"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="50">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="52" t="s">
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="52"/>
-      <c r="BI5" s="52"/>
-      <c r="BJ5" s="52"/>
-      <c r="BK5" s="52"/>
-      <c r="BL5" s="52"/>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="52"/>
-      <c r="BP5" s="52"/>
-      <c r="BQ5" s="52"/>
-      <c r="BR5" s="52"/>
-      <c r="BS5" s="52"/>
-      <c r="BT5" s="52"/>
-      <c r="BU5" s="52"/>
-      <c r="BV5" s="52"/>
-      <c r="BW5" s="52"/>
-      <c r="BX5" s="52"/>
-      <c r="BY5" s="52"/>
-      <c r="BZ5" s="52"/>
-      <c r="CA5" s="52"/>
-      <c r="CB5" s="52"/>
-      <c r="CC5" s="52"/>
-      <c r="CD5" s="52"/>
-      <c r="CE5" s="52"/>
-      <c r="CF5" s="52"/>
-      <c r="CG5" s="52"/>
-      <c r="CH5" s="52"/>
-      <c r="CI5" s="52"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="19"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="19"/>
+      <c r="BT5" s="19"/>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="19"/>
+      <c r="BW5" s="19"/>
+      <c r="BX5" s="19"/>
+      <c r="BY5" s="19"/>
+      <c r="BZ5" s="19"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="19"/>
+      <c r="CE5" s="19"/>
+      <c r="CF5" s="19"/>
+      <c r="CG5" s="19"/>
+      <c r="CH5" s="19"/>
+      <c r="CI5" s="19"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="53"/>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="53"/>
-      <c r="BT6" s="53"/>
-      <c r="BU6" s="53"/>
-      <c r="BV6" s="53"/>
-      <c r="BW6" s="53"/>
-      <c r="BX6" s="53"/>
-      <c r="BY6" s="53"/>
-      <c r="BZ6" s="53"/>
-      <c r="CA6" s="53"/>
-      <c r="CB6" s="53"/>
-      <c r="CC6" s="53"/>
-      <c r="CD6" s="53"/>
-      <c r="CE6" s="53"/>
-      <c r="CF6" s="53"/>
-      <c r="CG6" s="53"/>
-      <c r="CH6" s="53"/>
-      <c r="CI6" s="53"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="134"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="134"/>
+      <c r="AL6" s="134"/>
+      <c r="AM6" s="134"/>
+      <c r="AN6" s="134"/>
+      <c r="AO6" s="134"/>
+      <c r="AP6" s="134"/>
+      <c r="AQ6" s="134"/>
+      <c r="AR6" s="134"/>
+      <c r="AS6" s="134"/>
+      <c r="AT6" s="134"/>
+      <c r="AU6" s="134"/>
+      <c r="AV6" s="134"/>
+      <c r="AW6" s="134"/>
+      <c r="AX6" s="134"/>
+      <c r="AY6" s="134"/>
+      <c r="AZ6" s="134"/>
+      <c r="BA6" s="134"/>
+      <c r="BB6" s="134"/>
+      <c r="BC6" s="134"/>
+      <c r="BD6" s="134"/>
+      <c r="BE6" s="134"/>
+      <c r="BF6" s="134"/>
+      <c r="BG6" s="134"/>
+      <c r="BH6" s="134"/>
+      <c r="BI6" s="134"/>
+      <c r="BJ6" s="134"/>
+      <c r="BK6" s="134"/>
+      <c r="BL6" s="134"/>
+      <c r="BM6" s="134"/>
+      <c r="BN6" s="134"/>
+      <c r="BO6" s="134"/>
+      <c r="BP6" s="134"/>
+      <c r="BQ6" s="134"/>
+      <c r="BR6" s="134"/>
+      <c r="BS6" s="134"/>
+      <c r="BT6" s="134"/>
+      <c r="BU6" s="134"/>
+      <c r="BV6" s="134"/>
+      <c r="BW6" s="134"/>
+      <c r="BX6" s="134"/>
+      <c r="BY6" s="134"/>
+      <c r="BZ6" s="134"/>
+      <c r="CA6" s="134"/>
+      <c r="CB6" s="134"/>
+      <c r="CC6" s="134"/>
+      <c r="CD6" s="134"/>
+      <c r="CE6" s="134"/>
+      <c r="CF6" s="134"/>
+      <c r="CG6" s="134"/>
+      <c r="CH6" s="134"/>
+      <c r="CI6" s="134"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55" t="s">
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="55" t="s">
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="55" t="s">
+      <c r="Z7" s="137"/>
+      <c r="AA7" s="138"/>
+      <c r="AB7" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="55" t="s">
+      <c r="AC7" s="137"/>
+      <c r="AD7" s="137"/>
+      <c r="AE7" s="137"/>
+      <c r="AF7" s="137"/>
+      <c r="AG7" s="138"/>
+      <c r="AH7" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="55" t="s">
+      <c r="AI7" s="137"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
-      <c r="AN7" s="56"/>
-      <c r="AO7" s="56"/>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="58" t="s">
+      <c r="AL7" s="137"/>
+      <c r="AM7" s="137"/>
+      <c r="AN7" s="137"/>
+      <c r="AO7" s="137"/>
+      <c r="AP7" s="137"/>
+      <c r="AQ7" s="137"/>
+      <c r="AR7" s="141"/>
+      <c r="AS7" s="141"/>
+      <c r="AT7" s="142"/>
+      <c r="AU7" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="58"/>
-      <c r="AW7" s="58"/>
-      <c r="AX7" s="58"/>
-      <c r="AY7" s="58"/>
-      <c r="AZ7" s="58"/>
-      <c r="BA7" s="58"/>
-      <c r="BB7" s="58"/>
-      <c r="BC7" s="58"/>
-      <c r="BD7" s="58"/>
-      <c r="BE7" s="58"/>
-      <c r="BF7" s="58"/>
-      <c r="BG7" s="58"/>
-      <c r="BH7" s="58"/>
-      <c r="BI7" s="58"/>
-      <c r="BJ7" s="58"/>
-      <c r="BK7" s="58"/>
-      <c r="BL7" s="58"/>
-      <c r="BM7" s="58"/>
-      <c r="BN7" s="58"/>
-      <c r="BO7" s="58"/>
-      <c r="BP7" s="58"/>
-      <c r="BQ7" s="59" t="s">
+      <c r="AV7" s="139"/>
+      <c r="AW7" s="139"/>
+      <c r="AX7" s="139"/>
+      <c r="AY7" s="139"/>
+      <c r="AZ7" s="139"/>
+      <c r="BA7" s="139"/>
+      <c r="BB7" s="139"/>
+      <c r="BC7" s="139"/>
+      <c r="BD7" s="139"/>
+      <c r="BE7" s="139"/>
+      <c r="BF7" s="139"/>
+      <c r="BG7" s="139"/>
+      <c r="BH7" s="139"/>
+      <c r="BI7" s="139"/>
+      <c r="BJ7" s="139"/>
+      <c r="BK7" s="139"/>
+      <c r="BL7" s="139"/>
+      <c r="BM7" s="139"/>
+      <c r="BN7" s="139"/>
+      <c r="BO7" s="139"/>
+      <c r="BP7" s="139"/>
+      <c r="BQ7" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="59"/>
-      <c r="BS7" s="59"/>
-      <c r="BT7" s="59"/>
-      <c r="BU7" s="59"/>
-      <c r="BV7" s="59"/>
-      <c r="BW7" s="59"/>
-      <c r="BX7" s="59"/>
-      <c r="BY7" s="59"/>
-      <c r="BZ7" s="59"/>
-      <c r="CA7" s="59"/>
-      <c r="CB7" s="59"/>
-      <c r="CC7" s="59"/>
-      <c r="CD7" s="59"/>
-      <c r="CE7" s="59"/>
-      <c r="CF7" s="59"/>
-      <c r="CG7" s="59"/>
-      <c r="CH7" s="59"/>
-      <c r="CI7" s="59"/>
+      <c r="BR7" s="140"/>
+      <c r="BS7" s="140"/>
+      <c r="BT7" s="140"/>
+      <c r="BU7" s="140"/>
+      <c r="BV7" s="140"/>
+      <c r="BW7" s="140"/>
+      <c r="BX7" s="140"/>
+      <c r="BY7" s="140"/>
+      <c r="BZ7" s="140"/>
+      <c r="CA7" s="140"/>
+      <c r="CB7" s="140"/>
+      <c r="CC7" s="140"/>
+      <c r="CD7" s="140"/>
+      <c r="CE7" s="140"/>
+      <c r="CF7" s="140"/>
+      <c r="CG7" s="140"/>
+      <c r="CH7" s="140"/>
+      <c r="CI7" s="140"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1">
-      <c r="B8" s="64">
+      <c r="B8" s="55">
         <f>ROW(B8)-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="68"/>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="68"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="74"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="62"/>
-      <c r="BB8" s="62"/>
-      <c r="BC8" s="62"/>
-      <c r="BD8" s="62"/>
-      <c r="BE8" s="62"/>
-      <c r="BF8" s="62"/>
-      <c r="BG8" s="62"/>
-      <c r="BH8" s="62"/>
-      <c r="BI8" s="62"/>
-      <c r="BJ8" s="62"/>
-      <c r="BK8" s="62"/>
-      <c r="BL8" s="62"/>
-      <c r="BM8" s="62"/>
-      <c r="BN8" s="62"/>
-      <c r="BO8" s="62"/>
-      <c r="BP8" s="62"/>
-      <c r="BQ8" s="63"/>
-      <c r="BR8" s="63"/>
-      <c r="BS8" s="63"/>
-      <c r="BT8" s="63"/>
-      <c r="BU8" s="63"/>
-      <c r="BV8" s="63"/>
-      <c r="BW8" s="63"/>
-      <c r="BX8" s="63"/>
-      <c r="BY8" s="63"/>
-      <c r="BZ8" s="63"/>
-      <c r="CA8" s="63"/>
-      <c r="CB8" s="63"/>
-      <c r="CC8" s="63"/>
-      <c r="CD8" s="63"/>
-      <c r="CE8" s="63"/>
-      <c r="CF8" s="63"/>
-      <c r="CG8" s="63"/>
-      <c r="CH8" s="63"/>
-      <c r="CI8" s="63"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="121"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="117"/>
+      <c r="AD8" s="117"/>
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="117"/>
+      <c r="AG8" s="118"/>
+      <c r="AH8" s="119"/>
+      <c r="AI8" s="120"/>
+      <c r="AJ8" s="121"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="117"/>
+      <c r="AM8" s="117"/>
+      <c r="AN8" s="117"/>
+      <c r="AO8" s="117"/>
+      <c r="AP8" s="117"/>
+      <c r="AQ8" s="117"/>
+      <c r="AR8" s="122"/>
+      <c r="AS8" s="122"/>
+      <c r="AT8" s="123"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="114"/>
+      <c r="AX8" s="114"/>
+      <c r="AY8" s="114"/>
+      <c r="AZ8" s="114"/>
+      <c r="BA8" s="114"/>
+      <c r="BB8" s="114"/>
+      <c r="BC8" s="114"/>
+      <c r="BD8" s="114"/>
+      <c r="BE8" s="114"/>
+      <c r="BF8" s="114"/>
+      <c r="BG8" s="114"/>
+      <c r="BH8" s="114"/>
+      <c r="BI8" s="114"/>
+      <c r="BJ8" s="114"/>
+      <c r="BK8" s="114"/>
+      <c r="BL8" s="114"/>
+      <c r="BM8" s="114"/>
+      <c r="BN8" s="114"/>
+      <c r="BO8" s="114"/>
+      <c r="BP8" s="114"/>
+      <c r="BQ8" s="133"/>
+      <c r="BR8" s="133"/>
+      <c r="BS8" s="133"/>
+      <c r="BT8" s="133"/>
+      <c r="BU8" s="133"/>
+      <c r="BV8" s="133"/>
+      <c r="BW8" s="133"/>
+      <c r="BX8" s="133"/>
+      <c r="BY8" s="133"/>
+      <c r="BZ8" s="133"/>
+      <c r="CA8" s="133"/>
+      <c r="CB8" s="133"/>
+      <c r="CC8" s="133"/>
+      <c r="CD8" s="133"/>
+      <c r="CE8" s="133"/>
+      <c r="CF8" s="133"/>
+      <c r="CG8" s="133"/>
+      <c r="CH8" s="133"/>
+      <c r="CI8" s="133"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1">
-      <c r="B9" s="64">
+      <c r="B9" s="55">
         <f t="shared" ref="B9:B16" si="0">ROW(B9)-7</f>
         <v>2</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="77" t="s">
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="77" t="s">
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="80" t="s">
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="128"/>
+      <c r="AH9" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="AI9" s="81"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="83" t="s">
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="AL9" s="84"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="85"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="75" t="s">
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AV9" s="75"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="75"/>
-      <c r="AZ9" s="75"/>
-      <c r="BA9" s="75"/>
-      <c r="BB9" s="75"/>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="75"/>
-      <c r="BE9" s="75" t="s">
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53"/>
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
+      <c r="BD9" s="53"/>
+      <c r="BE9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="BF9" s="75"/>
-      <c r="BG9" s="75"/>
-      <c r="BH9" s="75"/>
-      <c r="BI9" s="75"/>
-      <c r="BJ9" s="75"/>
-      <c r="BK9" s="75"/>
-      <c r="BL9" s="75"/>
-      <c r="BM9" s="75"/>
-      <c r="BN9" s="75"/>
-      <c r="BO9" s="75"/>
-      <c r="BP9" s="75"/>
-      <c r="BQ9" s="76"/>
-      <c r="BR9" s="76"/>
-      <c r="BS9" s="76"/>
-      <c r="BT9" s="76"/>
-      <c r="BU9" s="76"/>
-      <c r="BV9" s="76"/>
-      <c r="BW9" s="76"/>
-      <c r="BX9" s="76"/>
-      <c r="BY9" s="76"/>
-      <c r="BZ9" s="76"/>
-      <c r="CA9" s="76"/>
-      <c r="CB9" s="76"/>
-      <c r="CC9" s="76"/>
-      <c r="CD9" s="76"/>
-      <c r="CE9" s="76"/>
-      <c r="CF9" s="76"/>
-      <c r="CG9" s="76"/>
-      <c r="CH9" s="76"/>
-      <c r="CI9" s="76"/>
+      <c r="BF9" s="53"/>
+      <c r="BG9" s="53"/>
+      <c r="BH9" s="53"/>
+      <c r="BI9" s="53"/>
+      <c r="BJ9" s="53"/>
+      <c r="BK9" s="53"/>
+      <c r="BL9" s="53"/>
+      <c r="BM9" s="53"/>
+      <c r="BN9" s="53"/>
+      <c r="BO9" s="53"/>
+      <c r="BP9" s="53"/>
+      <c r="BQ9" s="132"/>
+      <c r="BR9" s="132"/>
+      <c r="BS9" s="132"/>
+      <c r="BT9" s="132"/>
+      <c r="BU9" s="132"/>
+      <c r="BV9" s="132"/>
+      <c r="BW9" s="132"/>
+      <c r="BX9" s="132"/>
+      <c r="BY9" s="132"/>
+      <c r="BZ9" s="132"/>
+      <c r="CA9" s="132"/>
+      <c r="CB9" s="132"/>
+      <c r="CC9" s="132"/>
+      <c r="CD9" s="132"/>
+      <c r="CE9" s="132"/>
+      <c r="CF9" s="132"/>
+      <c r="CG9" s="132"/>
+      <c r="CH9" s="132"/>
+      <c r="CI9" s="132"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1">
-      <c r="B10" s="64">
+      <c r="B10" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="91"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="78"/>
-      <c r="AO10" s="78"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="85"/>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="87"/>
-      <c r="BA10" s="87"/>
-      <c r="BB10" s="87"/>
-      <c r="BC10" s="87"/>
-      <c r="BD10" s="87"/>
-      <c r="BE10" s="87"/>
-      <c r="BF10" s="87"/>
-      <c r="BG10" s="87"/>
-      <c r="BH10" s="87"/>
-      <c r="BI10" s="87"/>
-      <c r="BJ10" s="87"/>
-      <c r="BK10" s="87"/>
-      <c r="BL10" s="87"/>
-      <c r="BM10" s="87"/>
-      <c r="BN10" s="87"/>
-      <c r="BO10" s="87"/>
-      <c r="BP10" s="87"/>
-      <c r="BQ10" s="88"/>
-      <c r="BR10" s="88"/>
-      <c r="BS10" s="88"/>
-      <c r="BT10" s="88"/>
-      <c r="BU10" s="88"/>
-      <c r="BV10" s="88"/>
-      <c r="BW10" s="88"/>
-      <c r="BX10" s="88"/>
-      <c r="BY10" s="88"/>
-      <c r="BZ10" s="88"/>
-      <c r="CA10" s="88"/>
-      <c r="CB10" s="88"/>
-      <c r="CC10" s="88"/>
-      <c r="CD10" s="88"/>
-      <c r="CE10" s="88"/>
-      <c r="CF10" s="88"/>
-      <c r="CG10" s="88"/>
-      <c r="CH10" s="88"/>
-      <c r="CI10" s="88"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="131"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="127"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="130"/>
+      <c r="AJ10" s="131"/>
+      <c r="AK10" s="126"/>
+      <c r="AL10" s="127"/>
+      <c r="AM10" s="127"/>
+      <c r="AN10" s="127"/>
+      <c r="AO10" s="127"/>
+      <c r="AP10" s="127"/>
+      <c r="AQ10" s="127"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="124"/>
+      <c r="AV10" s="124"/>
+      <c r="AW10" s="124"/>
+      <c r="AX10" s="124"/>
+      <c r="AY10" s="124"/>
+      <c r="AZ10" s="124"/>
+      <c r="BA10" s="124"/>
+      <c r="BB10" s="124"/>
+      <c r="BC10" s="124"/>
+      <c r="BD10" s="124"/>
+      <c r="BE10" s="124"/>
+      <c r="BF10" s="124"/>
+      <c r="BG10" s="124"/>
+      <c r="BH10" s="124"/>
+      <c r="BI10" s="124"/>
+      <c r="BJ10" s="124"/>
+      <c r="BK10" s="124"/>
+      <c r="BL10" s="124"/>
+      <c r="BM10" s="124"/>
+      <c r="BN10" s="124"/>
+      <c r="BO10" s="124"/>
+      <c r="BP10" s="124"/>
+      <c r="BQ10" s="125"/>
+      <c r="BR10" s="125"/>
+      <c r="BS10" s="125"/>
+      <c r="BT10" s="125"/>
+      <c r="BU10" s="125"/>
+      <c r="BV10" s="125"/>
+      <c r="BW10" s="125"/>
+      <c r="BX10" s="125"/>
+      <c r="BY10" s="125"/>
+      <c r="BZ10" s="125"/>
+      <c r="CA10" s="125"/>
+      <c r="CB10" s="125"/>
+      <c r="CC10" s="125"/>
+      <c r="CD10" s="125"/>
+      <c r="CE10" s="125"/>
+      <c r="CF10" s="125"/>
+      <c r="CG10" s="125"/>
+      <c r="CH10" s="125"/>
+      <c r="CI10" s="125"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1">
-      <c r="B11" s="64">
+      <c r="B11" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="70"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="68"/>
-      <c r="AM11" s="68"/>
-      <c r="AN11" s="68"/>
-      <c r="AO11" s="68"/>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="68"/>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="62"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="62"/>
-      <c r="BA11" s="62"/>
-      <c r="BB11" s="62"/>
-      <c r="BC11" s="62"/>
-      <c r="BD11" s="62"/>
-      <c r="BE11" s="62"/>
-      <c r="BF11" s="62"/>
-      <c r="BG11" s="62"/>
-      <c r="BH11" s="62"/>
-      <c r="BI11" s="62"/>
-      <c r="BJ11" s="62"/>
-      <c r="BK11" s="62"/>
-      <c r="BL11" s="62"/>
-      <c r="BM11" s="62"/>
-      <c r="BN11" s="62"/>
-      <c r="BO11" s="62"/>
-      <c r="BP11" s="62"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="92"/>
-      <c r="BV11" s="92"/>
-      <c r="BW11" s="92"/>
-      <c r="BX11" s="92"/>
-      <c r="BY11" s="92"/>
-      <c r="BZ11" s="92"/>
-      <c r="CA11" s="92"/>
-      <c r="CB11" s="92"/>
-      <c r="CC11" s="92"/>
-      <c r="CD11" s="92"/>
-      <c r="CE11" s="92"/>
-      <c r="CF11" s="92"/>
-      <c r="CG11" s="92"/>
-      <c r="CH11" s="92"/>
-      <c r="CI11" s="92"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="121"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="117"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="117"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="119"/>
+      <c r="AI11" s="120"/>
+      <c r="AJ11" s="121"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="117"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="117"/>
+      <c r="AP11" s="117"/>
+      <c r="AQ11" s="117"/>
+      <c r="AR11" s="122"/>
+      <c r="AS11" s="122"/>
+      <c r="AT11" s="123"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
+      <c r="AX11" s="114"/>
+      <c r="AY11" s="114"/>
+      <c r="AZ11" s="114"/>
+      <c r="BA11" s="114"/>
+      <c r="BB11" s="114"/>
+      <c r="BC11" s="114"/>
+      <c r="BD11" s="114"/>
+      <c r="BE11" s="114"/>
+      <c r="BF11" s="114"/>
+      <c r="BG11" s="114"/>
+      <c r="BH11" s="114"/>
+      <c r="BI11" s="114"/>
+      <c r="BJ11" s="114"/>
+      <c r="BK11" s="114"/>
+      <c r="BL11" s="114"/>
+      <c r="BM11" s="114"/>
+      <c r="BN11" s="114"/>
+      <c r="BO11" s="114"/>
+      <c r="BP11" s="114"/>
+      <c r="BQ11" s="115"/>
+      <c r="BR11" s="115"/>
+      <c r="BS11" s="115"/>
+      <c r="BT11" s="115"/>
+      <c r="BU11" s="115"/>
+      <c r="BV11" s="115"/>
+      <c r="BW11" s="115"/>
+      <c r="BX11" s="115"/>
+      <c r="BY11" s="115"/>
+      <c r="BZ11" s="115"/>
+      <c r="CA11" s="115"/>
+      <c r="CB11" s="115"/>
+      <c r="CC11" s="115"/>
+      <c r="CD11" s="115"/>
+      <c r="CE11" s="115"/>
+      <c r="CF11" s="115"/>
+      <c r="CG11" s="115"/>
+      <c r="CH11" s="115"/>
+      <c r="CI11" s="115"/>
     </row>
     <row r="12" spans="1:1024" ht="18" customHeight="1">
-      <c r="B12" s="64">
+      <c r="B12" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="83" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="80" t="s">
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="83" t="s">
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="80" t="s">
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AI12" s="81"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="83" t="s">
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="85"/>
-      <c r="AT12" s="86"/>
-      <c r="AU12" s="75" t="s">
-        <v>46</v>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="53" t="s">
+        <v>58</v>
       </c>
-      <c r="AV12" s="75"/>
-      <c r="AW12" s="75"/>
-      <c r="AX12" s="75"/>
-      <c r="AY12" s="75"/>
-      <c r="AZ12" s="75"/>
-      <c r="BA12" s="75"/>
-      <c r="BB12" s="75"/>
-      <c r="BC12" s="75"/>
-      <c r="BD12" s="75"/>
-      <c r="BE12" s="75" t="s">
-        <v>29</v>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
+      <c r="BB12" s="53"/>
+      <c r="BC12" s="53"/>
+      <c r="BD12" s="53"/>
+      <c r="BE12" s="53" t="s">
+        <v>59</v>
       </c>
-      <c r="BF12" s="75"/>
-      <c r="BG12" s="75"/>
-      <c r="BH12" s="75"/>
-      <c r="BI12" s="75"/>
-      <c r="BJ12" s="75"/>
-      <c r="BK12" s="75"/>
-      <c r="BL12" s="75"/>
-      <c r="BM12" s="75"/>
-      <c r="BN12" s="75"/>
-      <c r="BO12" s="75"/>
-      <c r="BP12" s="75"/>
-      <c r="BQ12" s="93" t="s">
+      <c r="BF12" s="53"/>
+      <c r="BG12" s="53"/>
+      <c r="BH12" s="53"/>
+      <c r="BI12" s="53"/>
+      <c r="BJ12" s="53"/>
+      <c r="BK12" s="53"/>
+      <c r="BL12" s="53"/>
+      <c r="BM12" s="53"/>
+      <c r="BN12" s="53"/>
+      <c r="BO12" s="53"/>
+      <c r="BP12" s="53"/>
+      <c r="BQ12" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="BR12" s="93"/>
-      <c r="BS12" s="93"/>
-      <c r="BT12" s="93"/>
-      <c r="BU12" s="93"/>
-      <c r="BV12" s="93"/>
-      <c r="BW12" s="93"/>
-      <c r="BX12" s="93"/>
-      <c r="BY12" s="93"/>
-      <c r="BZ12" s="93"/>
-      <c r="CA12" s="93"/>
-      <c r="CB12" s="93"/>
-      <c r="CC12" s="93"/>
-      <c r="CD12" s="93"/>
-      <c r="CE12" s="93"/>
-      <c r="CF12" s="93"/>
-      <c r="CG12" s="93"/>
-      <c r="CH12" s="93"/>
-      <c r="CI12" s="93"/>
+      <c r="BR12" s="54"/>
+      <c r="BS12" s="54"/>
+      <c r="BT12" s="54"/>
+      <c r="BU12" s="54"/>
+      <c r="BV12" s="54"/>
+      <c r="BW12" s="54"/>
+      <c r="BX12" s="54"/>
+      <c r="BY12" s="54"/>
+      <c r="BZ12" s="54"/>
+      <c r="CA12" s="54"/>
+      <c r="CB12" s="54"/>
+      <c r="CC12" s="54"/>
+      <c r="CD12" s="54"/>
+      <c r="CE12" s="54"/>
+      <c r="CF12" s="54"/>
+      <c r="CG12" s="54"/>
+      <c r="CH12" s="54"/>
+      <c r="CI12" s="54"/>
     </row>
     <row r="13" spans="1:1024" ht="18" customHeight="1">
-      <c r="B13" s="64">
+      <c r="B13" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="83" t="s">
-        <v>58</v>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58" t="s">
+        <v>56</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="80" t="s">
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="83" t="s">
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="80" t="s">
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="83" t="s">
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="85"/>
-      <c r="AT13" s="86"/>
-      <c r="AU13" s="75" t="s">
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="AV13" s="75"/>
-      <c r="AW13" s="75"/>
-      <c r="AX13" s="75"/>
-      <c r="AY13" s="75"/>
-      <c r="AZ13" s="75"/>
-      <c r="BA13" s="75"/>
-      <c r="BB13" s="75"/>
-      <c r="BC13" s="75"/>
-      <c r="BD13" s="75"/>
-      <c r="BE13" s="75" t="s">
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="BF13" s="75"/>
-      <c r="BG13" s="75"/>
-      <c r="BH13" s="75"/>
-      <c r="BI13" s="75"/>
-      <c r="BJ13" s="75"/>
-      <c r="BK13" s="75"/>
-      <c r="BL13" s="75"/>
-      <c r="BM13" s="75"/>
-      <c r="BN13" s="75"/>
-      <c r="BO13" s="75"/>
-      <c r="BP13" s="75"/>
-      <c r="BQ13" s="93" t="s">
-        <v>59</v>
+      <c r="BF13" s="53"/>
+      <c r="BG13" s="53"/>
+      <c r="BH13" s="53"/>
+      <c r="BI13" s="53"/>
+      <c r="BJ13" s="53"/>
+      <c r="BK13" s="53"/>
+      <c r="BL13" s="53"/>
+      <c r="BM13" s="53"/>
+      <c r="BN13" s="53"/>
+      <c r="BO13" s="53"/>
+      <c r="BP13" s="53"/>
+      <c r="BQ13" s="54" t="s">
+        <v>57</v>
       </c>
-      <c r="BR13" s="93"/>
-      <c r="BS13" s="93"/>
-      <c r="BT13" s="93"/>
-      <c r="BU13" s="93"/>
-      <c r="BV13" s="93"/>
-      <c r="BW13" s="93"/>
-      <c r="BX13" s="93"/>
-      <c r="BY13" s="93"/>
-      <c r="BZ13" s="93"/>
-      <c r="CA13" s="93"/>
-      <c r="CB13" s="93"/>
-      <c r="CC13" s="93"/>
-      <c r="CD13" s="93"/>
-      <c r="CE13" s="93"/>
-      <c r="CF13" s="93"/>
-      <c r="CG13" s="93"/>
-      <c r="CH13" s="93"/>
-      <c r="CI13" s="93"/>
+      <c r="BR13" s="54"/>
+      <c r="BS13" s="54"/>
+      <c r="BT13" s="54"/>
+      <c r="BU13" s="54"/>
+      <c r="BV13" s="54"/>
+      <c r="BW13" s="54"/>
+      <c r="BX13" s="54"/>
+      <c r="BY13" s="54"/>
+      <c r="BZ13" s="54"/>
+      <c r="CA13" s="54"/>
+      <c r="CB13" s="54"/>
+      <c r="CC13" s="54"/>
+      <c r="CD13" s="54"/>
+      <c r="CE13" s="54"/>
+      <c r="CF13" s="54"/>
+      <c r="CG13" s="54"/>
+      <c r="CH13" s="54"/>
+      <c r="CI13" s="54"/>
     </row>
     <row r="14" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B14" s="64">
+      <c r="B14" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="83" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="80" t="s">
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="83" t="s">
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="80" t="s">
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="AI14" s="81"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="83" t="s">
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="85"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="83" t="s">
-        <v>56</v>
+      <c r="AL14" s="59"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="59"/>
+      <c r="AO14" s="59"/>
+      <c r="AP14" s="59"/>
+      <c r="AQ14" s="59"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="58" t="s">
+        <v>61</v>
       </c>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="84"/>
-      <c r="AX14" s="84"/>
-      <c r="AY14" s="84"/>
-      <c r="AZ14" s="84"/>
-      <c r="BA14" s="84"/>
-      <c r="BB14" s="84"/>
-      <c r="BC14" s="84"/>
-      <c r="BD14" s="94"/>
-      <c r="BE14" s="95" t="s">
-        <v>55</v>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="59"/>
+      <c r="AX14" s="59"/>
+      <c r="AY14" s="59"/>
+      <c r="AZ14" s="59"/>
+      <c r="BA14" s="59"/>
+      <c r="BB14" s="59"/>
+      <c r="BC14" s="59"/>
+      <c r="BD14" s="60"/>
+      <c r="BE14" s="113" t="s">
+        <v>60</v>
       </c>
-      <c r="BF14" s="84"/>
-      <c r="BG14" s="84"/>
-      <c r="BH14" s="84"/>
-      <c r="BI14" s="84"/>
-      <c r="BJ14" s="84"/>
-      <c r="BK14" s="84"/>
-      <c r="BL14" s="84"/>
-      <c r="BM14" s="84"/>
-      <c r="BN14" s="84"/>
-      <c r="BO14" s="84"/>
-      <c r="BP14" s="94"/>
-      <c r="BQ14" s="93" t="s">
+      <c r="BF14" s="59"/>
+      <c r="BG14" s="59"/>
+      <c r="BH14" s="59"/>
+      <c r="BI14" s="59"/>
+      <c r="BJ14" s="59"/>
+      <c r="BK14" s="59"/>
+      <c r="BL14" s="59"/>
+      <c r="BM14" s="59"/>
+      <c r="BN14" s="59"/>
+      <c r="BO14" s="59"/>
+      <c r="BP14" s="60"/>
+      <c r="BQ14" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="BR14" s="93"/>
-      <c r="BS14" s="93"/>
-      <c r="BT14" s="93"/>
-      <c r="BU14" s="93"/>
-      <c r="BV14" s="93"/>
-      <c r="BW14" s="93"/>
-      <c r="BX14" s="93"/>
-      <c r="BY14" s="93"/>
-      <c r="BZ14" s="93"/>
-      <c r="CA14" s="93"/>
-      <c r="CB14" s="93"/>
-      <c r="CC14" s="93"/>
-      <c r="CD14" s="93"/>
-      <c r="CE14" s="93"/>
-      <c r="CF14" s="93"/>
-      <c r="CG14" s="93"/>
-      <c r="CH14" s="93"/>
-      <c r="CI14" s="93"/>
+      <c r="BR14" s="54"/>
+      <c r="BS14" s="54"/>
+      <c r="BT14" s="54"/>
+      <c r="BU14" s="54"/>
+      <c r="BV14" s="54"/>
+      <c r="BW14" s="54"/>
+      <c r="BX14" s="54"/>
+      <c r="BY14" s="54"/>
+      <c r="BZ14" s="54"/>
+      <c r="CA14" s="54"/>
+      <c r="CB14" s="54"/>
+      <c r="CC14" s="54"/>
+      <c r="CD14" s="54"/>
+      <c r="CE14" s="54"/>
+      <c r="CF14" s="54"/>
+      <c r="CG14" s="54"/>
+      <c r="CH14" s="54"/>
+      <c r="CI14" s="54"/>
     </row>
     <row r="15" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B15" s="64">
+      <c r="B15" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="83" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="80" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="83" t="s">
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="80" t="s">
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="83" t="s">
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="94"/>
-      <c r="AU15" s="83" t="s">
-        <v>48</v>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="59"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="59"/>
+      <c r="AR15" s="59"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="60"/>
+      <c r="AU15" s="58" t="s">
+        <v>62</v>
       </c>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="84"/>
-      <c r="AX15" s="84"/>
-      <c r="AY15" s="84"/>
-      <c r="AZ15" s="84"/>
-      <c r="BA15" s="84"/>
-      <c r="BB15" s="84"/>
-      <c r="BC15" s="84"/>
-      <c r="BD15" s="94"/>
-      <c r="BE15" s="83" t="s">
-        <v>29</v>
+      <c r="AV15" s="59"/>
+      <c r="AW15" s="59"/>
+      <c r="AX15" s="59"/>
+      <c r="AY15" s="59"/>
+      <c r="AZ15" s="59"/>
+      <c r="BA15" s="59"/>
+      <c r="BB15" s="59"/>
+      <c r="BC15" s="59"/>
+      <c r="BD15" s="60"/>
+      <c r="BE15" s="58" t="s">
+        <v>63</v>
       </c>
-      <c r="BF15" s="84"/>
-      <c r="BG15" s="84"/>
-      <c r="BH15" s="84"/>
-      <c r="BI15" s="84"/>
-      <c r="BJ15" s="84"/>
-      <c r="BK15" s="84"/>
-      <c r="BL15" s="84"/>
-      <c r="BM15" s="84"/>
-      <c r="BN15" s="84"/>
-      <c r="BO15" s="84"/>
-      <c r="BP15" s="94"/>
-      <c r="BQ15" s="96" t="s">
+      <c r="BF15" s="59"/>
+      <c r="BG15" s="59"/>
+      <c r="BH15" s="59"/>
+      <c r="BI15" s="59"/>
+      <c r="BJ15" s="59"/>
+      <c r="BK15" s="59"/>
+      <c r="BL15" s="59"/>
+      <c r="BM15" s="59"/>
+      <c r="BN15" s="59"/>
+      <c r="BO15" s="59"/>
+      <c r="BP15" s="60"/>
+      <c r="BQ15" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="BR15" s="97"/>
-      <c r="BS15" s="97"/>
-      <c r="BT15" s="97"/>
-      <c r="BU15" s="97"/>
-      <c r="BV15" s="97"/>
-      <c r="BW15" s="97"/>
-      <c r="BX15" s="97"/>
-      <c r="BY15" s="97"/>
-      <c r="BZ15" s="97"/>
-      <c r="CA15" s="97"/>
-      <c r="CB15" s="97"/>
-      <c r="CC15" s="97"/>
-      <c r="CD15" s="97"/>
-      <c r="CE15" s="97"/>
-      <c r="CF15" s="97"/>
-      <c r="CG15" s="97"/>
-      <c r="CH15" s="97"/>
-      <c r="CI15" s="98"/>
+      <c r="BR15" s="111"/>
+      <c r="BS15" s="111"/>
+      <c r="BT15" s="111"/>
+      <c r="BU15" s="111"/>
+      <c r="BV15" s="111"/>
+      <c r="BW15" s="111"/>
+      <c r="BX15" s="111"/>
+      <c r="BY15" s="111"/>
+      <c r="BZ15" s="111"/>
+      <c r="CA15" s="111"/>
+      <c r="CB15" s="111"/>
+      <c r="CC15" s="111"/>
+      <c r="CD15" s="111"/>
+      <c r="CE15" s="111"/>
+      <c r="CF15" s="111"/>
+      <c r="CG15" s="111"/>
+      <c r="CH15" s="111"/>
+      <c r="CI15" s="112"/>
     </row>
     <row r="16" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B16" s="64">
+      <c r="B16" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="83" t="s">
-        <v>57</v>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58" t="s">
+        <v>55</v>
       </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="80" t="s">
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="83" t="s">
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="80" t="s">
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="83" t="s">
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="84"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="84"/>
-      <c r="AP16" s="84"/>
-      <c r="AQ16" s="84"/>
-      <c r="AR16" s="84"/>
-      <c r="AS16" s="84"/>
-      <c r="AT16" s="94"/>
-      <c r="AU16" s="83" t="s">
+      <c r="AL16" s="59"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="59"/>
+      <c r="AO16" s="59"/>
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="59"/>
+      <c r="AR16" s="59"/>
+      <c r="AS16" s="59"/>
+      <c r="AT16" s="60"/>
+      <c r="AU16" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AV16" s="84"/>
-      <c r="AW16" s="84"/>
-      <c r="AX16" s="84"/>
-      <c r="AY16" s="84"/>
-      <c r="AZ16" s="84"/>
-      <c r="BA16" s="84"/>
-      <c r="BB16" s="84"/>
-      <c r="BC16" s="84"/>
-      <c r="BD16" s="94"/>
-      <c r="BE16" s="83" t="s">
+      <c r="AV16" s="59"/>
+      <c r="AW16" s="59"/>
+      <c r="AX16" s="59"/>
+      <c r="AY16" s="59"/>
+      <c r="AZ16" s="59"/>
+      <c r="BA16" s="59"/>
+      <c r="BB16" s="59"/>
+      <c r="BC16" s="59"/>
+      <c r="BD16" s="60"/>
+      <c r="BE16" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="BF16" s="84"/>
-      <c r="BG16" s="84"/>
-      <c r="BH16" s="84"/>
-      <c r="BI16" s="84"/>
-      <c r="BJ16" s="84"/>
-      <c r="BK16" s="84"/>
-      <c r="BL16" s="84"/>
-      <c r="BM16" s="84"/>
-      <c r="BN16" s="84"/>
-      <c r="BO16" s="84"/>
-      <c r="BP16" s="94"/>
-      <c r="BQ16" s="96" t="s">
+      <c r="BF16" s="59"/>
+      <c r="BG16" s="59"/>
+      <c r="BH16" s="59"/>
+      <c r="BI16" s="59"/>
+      <c r="BJ16" s="59"/>
+      <c r="BK16" s="59"/>
+      <c r="BL16" s="59"/>
+      <c r="BM16" s="59"/>
+      <c r="BN16" s="59"/>
+      <c r="BO16" s="59"/>
+      <c r="BP16" s="60"/>
+      <c r="BQ16" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="BR16" s="97"/>
-      <c r="BS16" s="97"/>
-      <c r="BT16" s="97"/>
-      <c r="BU16" s="97"/>
-      <c r="BV16" s="97"/>
-      <c r="BW16" s="97"/>
-      <c r="BX16" s="97"/>
-      <c r="BY16" s="97"/>
-      <c r="BZ16" s="97"/>
-      <c r="CA16" s="97"/>
-      <c r="CB16" s="97"/>
-      <c r="CC16" s="97"/>
-      <c r="CD16" s="97"/>
-      <c r="CE16" s="97"/>
-      <c r="CF16" s="97"/>
-      <c r="CG16" s="97"/>
-      <c r="CH16" s="97"/>
-      <c r="CI16" s="98"/>
+      <c r="BR16" s="111"/>
+      <c r="BS16" s="111"/>
+      <c r="BT16" s="111"/>
+      <c r="BU16" s="111"/>
+      <c r="BV16" s="111"/>
+      <c r="BW16" s="111"/>
+      <c r="BX16" s="111"/>
+      <c r="BY16" s="111"/>
+      <c r="BZ16" s="111"/>
+      <c r="CA16" s="111"/>
+      <c r="CB16" s="111"/>
+      <c r="CC16" s="111"/>
+      <c r="CD16" s="111"/>
+      <c r="CE16" s="111"/>
+      <c r="CF16" s="111"/>
+      <c r="CG16" s="111"/>
+      <c r="CH16" s="111"/>
+      <c r="CI16" s="112"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="80"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="82"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="84"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="84"/>
-      <c r="AS17" s="84"/>
-      <c r="AT17" s="94"/>
-      <c r="AU17" s="83"/>
-      <c r="AV17" s="84"/>
-      <c r="AW17" s="84"/>
-      <c r="AX17" s="84"/>
-      <c r="AY17" s="84"/>
-      <c r="AZ17" s="84"/>
-      <c r="BA17" s="84"/>
-      <c r="BB17" s="84"/>
-      <c r="BC17" s="84"/>
-      <c r="BD17" s="94"/>
-      <c r="BE17" s="83"/>
-      <c r="BF17" s="84"/>
-      <c r="BG17" s="84"/>
-      <c r="BH17" s="84"/>
-      <c r="BI17" s="84"/>
-      <c r="BJ17" s="84"/>
-      <c r="BK17" s="84"/>
-      <c r="BL17" s="84"/>
-      <c r="BM17" s="84"/>
-      <c r="BN17" s="84"/>
-      <c r="BO17" s="84"/>
-      <c r="BP17" s="94"/>
-      <c r="BQ17" s="96"/>
-      <c r="BR17" s="97"/>
-      <c r="BS17" s="97"/>
-      <c r="BT17" s="97"/>
-      <c r="BU17" s="97"/>
-      <c r="BV17" s="97"/>
-      <c r="BW17" s="97"/>
-      <c r="BX17" s="97"/>
-      <c r="BY17" s="97"/>
-      <c r="BZ17" s="97"/>
-      <c r="CA17" s="97"/>
-      <c r="CB17" s="97"/>
-      <c r="CC17" s="97"/>
-      <c r="CD17" s="97"/>
-      <c r="CE17" s="97"/>
-      <c r="CF17" s="97"/>
-      <c r="CG17" s="97"/>
-      <c r="CH17" s="97"/>
-      <c r="CI17" s="98"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="59"/>
+      <c r="AR17" s="59"/>
+      <c r="AS17" s="59"/>
+      <c r="AT17" s="60"/>
+      <c r="AU17" s="58"/>
+      <c r="AV17" s="59"/>
+      <c r="AW17" s="59"/>
+      <c r="AX17" s="59"/>
+      <c r="AY17" s="59"/>
+      <c r="AZ17" s="59"/>
+      <c r="BA17" s="59"/>
+      <c r="BB17" s="59"/>
+      <c r="BC17" s="59"/>
+      <c r="BD17" s="60"/>
+      <c r="BE17" s="58"/>
+      <c r="BF17" s="59"/>
+      <c r="BG17" s="59"/>
+      <c r="BH17" s="59"/>
+      <c r="BI17" s="59"/>
+      <c r="BJ17" s="59"/>
+      <c r="BK17" s="59"/>
+      <c r="BL17" s="59"/>
+      <c r="BM17" s="59"/>
+      <c r="BN17" s="59"/>
+      <c r="BO17" s="59"/>
+      <c r="BP17" s="60"/>
+      <c r="BQ17" s="110"/>
+      <c r="BR17" s="111"/>
+      <c r="BS17" s="111"/>
+      <c r="BT17" s="111"/>
+      <c r="BU17" s="111"/>
+      <c r="BV17" s="111"/>
+      <c r="BW17" s="111"/>
+      <c r="BX17" s="111"/>
+      <c r="BY17" s="111"/>
+      <c r="BZ17" s="111"/>
+      <c r="CA17" s="111"/>
+      <c r="CB17" s="111"/>
+      <c r="CC17" s="111"/>
+      <c r="CD17" s="111"/>
+      <c r="CE17" s="111"/>
+      <c r="CF17" s="111"/>
+      <c r="CG17" s="111"/>
+      <c r="CH17" s="111"/>
+      <c r="CI17" s="112"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="81"/>
-      <c r="AJ18" s="82"/>
-      <c r="AK18" s="83"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="85"/>
-      <c r="AS18" s="85"/>
-      <c r="AT18" s="86"/>
-      <c r="AU18" s="83"/>
-      <c r="AV18" s="84"/>
-      <c r="AW18" s="84"/>
-      <c r="AX18" s="84"/>
-      <c r="AY18" s="84"/>
-      <c r="AZ18" s="84"/>
-      <c r="BA18" s="84"/>
-      <c r="BB18" s="84"/>
-      <c r="BC18" s="84"/>
-      <c r="BD18" s="94"/>
-      <c r="BE18" s="83"/>
-      <c r="BF18" s="84"/>
-      <c r="BG18" s="84"/>
-      <c r="BH18" s="84"/>
-      <c r="BI18" s="84"/>
-      <c r="BJ18" s="84"/>
-      <c r="BK18" s="84"/>
-      <c r="BL18" s="84"/>
-      <c r="BM18" s="84"/>
-      <c r="BN18" s="84"/>
-      <c r="BO18" s="84"/>
-      <c r="BP18" s="94"/>
-      <c r="BQ18" s="96"/>
-      <c r="BR18" s="97"/>
-      <c r="BS18" s="97"/>
-      <c r="BT18" s="97"/>
-      <c r="BU18" s="97"/>
-      <c r="BV18" s="97"/>
-      <c r="BW18" s="97"/>
-      <c r="BX18" s="97"/>
-      <c r="BY18" s="97"/>
-      <c r="BZ18" s="97"/>
-      <c r="CA18" s="97"/>
-      <c r="CB18" s="97"/>
-      <c r="CC18" s="97"/>
-      <c r="CD18" s="97"/>
-      <c r="CE18" s="97"/>
-      <c r="CF18" s="97"/>
-      <c r="CG18" s="97"/>
-      <c r="CH18" s="97"/>
-      <c r="CI18" s="98"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="58"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="58"/>
+      <c r="AV18" s="59"/>
+      <c r="AW18" s="59"/>
+      <c r="AX18" s="59"/>
+      <c r="AY18" s="59"/>
+      <c r="AZ18" s="59"/>
+      <c r="BA18" s="59"/>
+      <c r="BB18" s="59"/>
+      <c r="BC18" s="59"/>
+      <c r="BD18" s="60"/>
+      <c r="BE18" s="58"/>
+      <c r="BF18" s="59"/>
+      <c r="BG18" s="59"/>
+      <c r="BH18" s="59"/>
+      <c r="BI18" s="59"/>
+      <c r="BJ18" s="59"/>
+      <c r="BK18" s="59"/>
+      <c r="BL18" s="59"/>
+      <c r="BM18" s="59"/>
+      <c r="BN18" s="59"/>
+      <c r="BO18" s="59"/>
+      <c r="BP18" s="60"/>
+      <c r="BQ18" s="110"/>
+      <c r="BR18" s="111"/>
+      <c r="BS18" s="111"/>
+      <c r="BT18" s="111"/>
+      <c r="BU18" s="111"/>
+      <c r="BV18" s="111"/>
+      <c r="BW18" s="111"/>
+      <c r="BX18" s="111"/>
+      <c r="BY18" s="111"/>
+      <c r="BZ18" s="111"/>
+      <c r="CA18" s="111"/>
+      <c r="CB18" s="111"/>
+      <c r="CC18" s="111"/>
+      <c r="CD18" s="111"/>
+      <c r="CE18" s="111"/>
+      <c r="CF18" s="111"/>
+      <c r="CG18" s="111"/>
+      <c r="CH18" s="111"/>
+      <c r="CI18" s="112"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1">
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="84"/>
-      <c r="AD19" s="84"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="80"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="82"/>
-      <c r="AK19" s="83"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="84"/>
-      <c r="AN19" s="84"/>
-      <c r="AO19" s="84"/>
-      <c r="AP19" s="84"/>
-      <c r="AQ19" s="84"/>
-      <c r="AR19" s="85"/>
-      <c r="AS19" s="85"/>
-      <c r="AT19" s="86"/>
-      <c r="AU19" s="83"/>
-      <c r="AV19" s="84"/>
-      <c r="AW19" s="84"/>
-      <c r="AX19" s="84"/>
-      <c r="AY19" s="84"/>
-      <c r="AZ19" s="84"/>
-      <c r="BA19" s="84"/>
-      <c r="BB19" s="84"/>
-      <c r="BC19" s="84"/>
-      <c r="BD19" s="94"/>
-      <c r="BE19" s="83"/>
-      <c r="BF19" s="84"/>
-      <c r="BG19" s="84"/>
-      <c r="BH19" s="84"/>
-      <c r="BI19" s="84"/>
-      <c r="BJ19" s="84"/>
-      <c r="BK19" s="84"/>
-      <c r="BL19" s="84"/>
-      <c r="BM19" s="84"/>
-      <c r="BN19" s="84"/>
-      <c r="BO19" s="84"/>
-      <c r="BP19" s="94"/>
-      <c r="BQ19" s="96"/>
-      <c r="BR19" s="97"/>
-      <c r="BS19" s="97"/>
-      <c r="BT19" s="97"/>
-      <c r="BU19" s="97"/>
-      <c r="BV19" s="97"/>
-      <c r="BW19" s="97"/>
-      <c r="BX19" s="97"/>
-      <c r="BY19" s="97"/>
-      <c r="BZ19" s="97"/>
-      <c r="CA19" s="97"/>
-      <c r="CB19" s="97"/>
-      <c r="CC19" s="97"/>
-      <c r="CD19" s="97"/>
-      <c r="CE19" s="97"/>
-      <c r="CF19" s="97"/>
-      <c r="CG19" s="97"/>
-      <c r="CH19" s="97"/>
-      <c r="CI19" s="98"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="59"/>
+      <c r="AO19" s="59"/>
+      <c r="AP19" s="59"/>
+      <c r="AQ19" s="59"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="58"/>
+      <c r="AV19" s="59"/>
+      <c r="AW19" s="59"/>
+      <c r="AX19" s="59"/>
+      <c r="AY19" s="59"/>
+      <c r="AZ19" s="59"/>
+      <c r="BA19" s="59"/>
+      <c r="BB19" s="59"/>
+      <c r="BC19" s="59"/>
+      <c r="BD19" s="60"/>
+      <c r="BE19" s="58"/>
+      <c r="BF19" s="59"/>
+      <c r="BG19" s="59"/>
+      <c r="BH19" s="59"/>
+      <c r="BI19" s="59"/>
+      <c r="BJ19" s="59"/>
+      <c r="BK19" s="59"/>
+      <c r="BL19" s="59"/>
+      <c r="BM19" s="59"/>
+      <c r="BN19" s="59"/>
+      <c r="BO19" s="59"/>
+      <c r="BP19" s="60"/>
+      <c r="BQ19" s="110"/>
+      <c r="BR19" s="111"/>
+      <c r="BS19" s="111"/>
+      <c r="BT19" s="111"/>
+      <c r="BU19" s="111"/>
+      <c r="BV19" s="111"/>
+      <c r="BW19" s="111"/>
+      <c r="BX19" s="111"/>
+      <c r="BY19" s="111"/>
+      <c r="BZ19" s="111"/>
+      <c r="CA19" s="111"/>
+      <c r="CB19" s="111"/>
+      <c r="CC19" s="111"/>
+      <c r="CD19" s="111"/>
+      <c r="CE19" s="111"/>
+      <c r="CF19" s="111"/>
+      <c r="CG19" s="111"/>
+      <c r="CH19" s="111"/>
+      <c r="CI19" s="112"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="80"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="83"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="84"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="84"/>
-      <c r="AP20" s="84"/>
-      <c r="AQ20" s="84"/>
-      <c r="AR20" s="85"/>
-      <c r="AS20" s="85"/>
-      <c r="AT20" s="86"/>
-      <c r="AU20" s="83"/>
-      <c r="AV20" s="84"/>
-      <c r="AW20" s="84"/>
-      <c r="AX20" s="84"/>
-      <c r="AY20" s="84"/>
-      <c r="AZ20" s="84"/>
-      <c r="BA20" s="84"/>
-      <c r="BB20" s="84"/>
-      <c r="BC20" s="84"/>
-      <c r="BD20" s="94"/>
-      <c r="BE20" s="83"/>
-      <c r="BF20" s="84"/>
-      <c r="BG20" s="84"/>
-      <c r="BH20" s="84"/>
-      <c r="BI20" s="84"/>
-      <c r="BJ20" s="84"/>
-      <c r="BK20" s="84"/>
-      <c r="BL20" s="84"/>
-      <c r="BM20" s="84"/>
-      <c r="BN20" s="84"/>
-      <c r="BO20" s="84"/>
-      <c r="BP20" s="94"/>
-      <c r="BQ20" s="96"/>
-      <c r="BR20" s="97"/>
-      <c r="BS20" s="97"/>
-      <c r="BT20" s="97"/>
-      <c r="BU20" s="97"/>
-      <c r="BV20" s="97"/>
-      <c r="BW20" s="97"/>
-      <c r="BX20" s="97"/>
-      <c r="BY20" s="97"/>
-      <c r="BZ20" s="97"/>
-      <c r="CA20" s="97"/>
-      <c r="CB20" s="97"/>
-      <c r="CC20" s="97"/>
-      <c r="CD20" s="97"/>
-      <c r="CE20" s="97"/>
-      <c r="CF20" s="97"/>
-      <c r="CG20" s="97"/>
-      <c r="CH20" s="97"/>
-      <c r="CI20" s="98"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="64"/>
+      <c r="AS20" s="64"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="58"/>
+      <c r="AV20" s="59"/>
+      <c r="AW20" s="59"/>
+      <c r="AX20" s="59"/>
+      <c r="AY20" s="59"/>
+      <c r="AZ20" s="59"/>
+      <c r="BA20" s="59"/>
+      <c r="BB20" s="59"/>
+      <c r="BC20" s="59"/>
+      <c r="BD20" s="60"/>
+      <c r="BE20" s="58"/>
+      <c r="BF20" s="59"/>
+      <c r="BG20" s="59"/>
+      <c r="BH20" s="59"/>
+      <c r="BI20" s="59"/>
+      <c r="BJ20" s="59"/>
+      <c r="BK20" s="59"/>
+      <c r="BL20" s="59"/>
+      <c r="BM20" s="59"/>
+      <c r="BN20" s="59"/>
+      <c r="BO20" s="59"/>
+      <c r="BP20" s="60"/>
+      <c r="BQ20" s="110"/>
+      <c r="BR20" s="111"/>
+      <c r="BS20" s="111"/>
+      <c r="BT20" s="111"/>
+      <c r="BU20" s="111"/>
+      <c r="BV20" s="111"/>
+      <c r="BW20" s="111"/>
+      <c r="BX20" s="111"/>
+      <c r="BY20" s="111"/>
+      <c r="BZ20" s="111"/>
+      <c r="CA20" s="111"/>
+      <c r="CB20" s="111"/>
+      <c r="CC20" s="111"/>
+      <c r="CD20" s="111"/>
+      <c r="CE20" s="111"/>
+      <c r="CF20" s="111"/>
+      <c r="CG20" s="111"/>
+      <c r="CH20" s="111"/>
+      <c r="CI20" s="112"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="80"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="84"/>
-      <c r="AN21" s="84"/>
-      <c r="AO21" s="84"/>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="84"/>
-      <c r="AR21" s="85"/>
-      <c r="AS21" s="85"/>
-      <c r="AT21" s="86"/>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="84"/>
-      <c r="AW21" s="84"/>
-      <c r="AX21" s="84"/>
-      <c r="AY21" s="84"/>
-      <c r="AZ21" s="84"/>
-      <c r="BA21" s="84"/>
-      <c r="BB21" s="84"/>
-      <c r="BC21" s="84"/>
-      <c r="BD21" s="94"/>
-      <c r="BE21" s="83"/>
-      <c r="BF21" s="84"/>
-      <c r="BG21" s="84"/>
-      <c r="BH21" s="84"/>
-      <c r="BI21" s="84"/>
-      <c r="BJ21" s="84"/>
-      <c r="BK21" s="84"/>
-      <c r="BL21" s="84"/>
-      <c r="BM21" s="84"/>
-      <c r="BN21" s="84"/>
-      <c r="BO21" s="84"/>
-      <c r="BP21" s="94"/>
-      <c r="BQ21" s="96"/>
-      <c r="BR21" s="97"/>
-      <c r="BS21" s="97"/>
-      <c r="BT21" s="97"/>
-      <c r="BU21" s="97"/>
-      <c r="BV21" s="97"/>
-      <c r="BW21" s="97"/>
-      <c r="BX21" s="97"/>
-      <c r="BY21" s="97"/>
-      <c r="BZ21" s="97"/>
-      <c r="CA21" s="97"/>
-      <c r="CB21" s="97"/>
-      <c r="CC21" s="97"/>
-      <c r="CD21" s="97"/>
-      <c r="CE21" s="97"/>
-      <c r="CF21" s="97"/>
-      <c r="CG21" s="97"/>
-      <c r="CH21" s="97"/>
-      <c r="CI21" s="98"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="64"/>
+      <c r="AS21" s="64"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="58"/>
+      <c r="AV21" s="59"/>
+      <c r="AW21" s="59"/>
+      <c r="AX21" s="59"/>
+      <c r="AY21" s="59"/>
+      <c r="AZ21" s="59"/>
+      <c r="BA21" s="59"/>
+      <c r="BB21" s="59"/>
+      <c r="BC21" s="59"/>
+      <c r="BD21" s="60"/>
+      <c r="BE21" s="58"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="59"/>
+      <c r="BI21" s="59"/>
+      <c r="BJ21" s="59"/>
+      <c r="BK21" s="59"/>
+      <c r="BL21" s="59"/>
+      <c r="BM21" s="59"/>
+      <c r="BN21" s="59"/>
+      <c r="BO21" s="59"/>
+      <c r="BP21" s="60"/>
+      <c r="BQ21" s="110"/>
+      <c r="BR21" s="111"/>
+      <c r="BS21" s="111"/>
+      <c r="BT21" s="111"/>
+      <c r="BU21" s="111"/>
+      <c r="BV21" s="111"/>
+      <c r="BW21" s="111"/>
+      <c r="BX21" s="111"/>
+      <c r="BY21" s="111"/>
+      <c r="BZ21" s="111"/>
+      <c r="CA21" s="111"/>
+      <c r="CB21" s="111"/>
+      <c r="CC21" s="111"/>
+      <c r="CD21" s="111"/>
+      <c r="CE21" s="111"/>
+      <c r="CF21" s="111"/>
+      <c r="CG21" s="111"/>
+      <c r="CH21" s="111"/>
+      <c r="CI21" s="112"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="94"/>
-      <c r="AH22" s="80"/>
-      <c r="AI22" s="81"/>
-      <c r="AJ22" s="82"/>
-      <c r="AK22" s="83"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="84"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="86"/>
-      <c r="AU22" s="83"/>
-      <c r="AV22" s="84"/>
-      <c r="AW22" s="84"/>
-      <c r="AX22" s="84"/>
-      <c r="AY22" s="84"/>
-      <c r="AZ22" s="84"/>
-      <c r="BA22" s="84"/>
-      <c r="BB22" s="84"/>
-      <c r="BC22" s="84"/>
-      <c r="BD22" s="94"/>
-      <c r="BE22" s="83"/>
-      <c r="BF22" s="84"/>
-      <c r="BG22" s="84"/>
-      <c r="BH22" s="84"/>
-      <c r="BI22" s="84"/>
-      <c r="BJ22" s="84"/>
-      <c r="BK22" s="84"/>
-      <c r="BL22" s="84"/>
-      <c r="BM22" s="84"/>
-      <c r="BN22" s="84"/>
-      <c r="BO22" s="84"/>
-      <c r="BP22" s="94"/>
-      <c r="BQ22" s="96"/>
-      <c r="BR22" s="97"/>
-      <c r="BS22" s="97"/>
-      <c r="BT22" s="97"/>
-      <c r="BU22" s="97"/>
-      <c r="BV22" s="97"/>
-      <c r="BW22" s="97"/>
-      <c r="BX22" s="97"/>
-      <c r="BY22" s="97"/>
-      <c r="BZ22" s="97"/>
-      <c r="CA22" s="97"/>
-      <c r="CB22" s="97"/>
-      <c r="CC22" s="97"/>
-      <c r="CD22" s="97"/>
-      <c r="CE22" s="97"/>
-      <c r="CF22" s="97"/>
-      <c r="CG22" s="97"/>
-      <c r="CH22" s="97"/>
-      <c r="CI22" s="98"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="58"/>
+      <c r="AV22" s="59"/>
+      <c r="AW22" s="59"/>
+      <c r="AX22" s="59"/>
+      <c r="AY22" s="59"/>
+      <c r="AZ22" s="59"/>
+      <c r="BA22" s="59"/>
+      <c r="BB22" s="59"/>
+      <c r="BC22" s="59"/>
+      <c r="BD22" s="60"/>
+      <c r="BE22" s="58"/>
+      <c r="BF22" s="59"/>
+      <c r="BG22" s="59"/>
+      <c r="BH22" s="59"/>
+      <c r="BI22" s="59"/>
+      <c r="BJ22" s="59"/>
+      <c r="BK22" s="59"/>
+      <c r="BL22" s="59"/>
+      <c r="BM22" s="59"/>
+      <c r="BN22" s="59"/>
+      <c r="BO22" s="59"/>
+      <c r="BP22" s="60"/>
+      <c r="BQ22" s="110"/>
+      <c r="BR22" s="111"/>
+      <c r="BS22" s="111"/>
+      <c r="BT22" s="111"/>
+      <c r="BU22" s="111"/>
+      <c r="BV22" s="111"/>
+      <c r="BW22" s="111"/>
+      <c r="BX22" s="111"/>
+      <c r="BY22" s="111"/>
+      <c r="BZ22" s="111"/>
+      <c r="CA22" s="111"/>
+      <c r="CB22" s="111"/>
+      <c r="CC22" s="111"/>
+      <c r="CD22" s="111"/>
+      <c r="CE22" s="111"/>
+      <c r="CF22" s="111"/>
+      <c r="CG22" s="111"/>
+      <c r="CH22" s="111"/>
+      <c r="CI22" s="112"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1">
-      <c r="B23" s="105"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="94"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="109"/>
-      <c r="AJ23" s="110"/>
-      <c r="AK23" s="99"/>
-      <c r="AL23" s="100"/>
-      <c r="AM23" s="100"/>
-      <c r="AN23" s="100"/>
-      <c r="AO23" s="100"/>
-      <c r="AP23" s="100"/>
-      <c r="AQ23" s="100"/>
-      <c r="AR23" s="85"/>
-      <c r="AS23" s="85"/>
-      <c r="AT23" s="86"/>
-      <c r="AU23" s="99"/>
-      <c r="AV23" s="100"/>
-      <c r="AW23" s="100"/>
-      <c r="AX23" s="100"/>
-      <c r="AY23" s="100"/>
-      <c r="AZ23" s="100"/>
-      <c r="BA23" s="100"/>
-      <c r="BB23" s="100"/>
-      <c r="BC23" s="100"/>
-      <c r="BD23" s="101"/>
-      <c r="BE23" s="99"/>
-      <c r="BF23" s="100"/>
-      <c r="BG23" s="100"/>
-      <c r="BH23" s="100"/>
-      <c r="BI23" s="100"/>
-      <c r="BJ23" s="100"/>
-      <c r="BK23" s="100"/>
-      <c r="BL23" s="100"/>
-      <c r="BM23" s="100"/>
-      <c r="BN23" s="100"/>
-      <c r="BO23" s="100"/>
-      <c r="BP23" s="101"/>
-      <c r="BQ23" s="102"/>
-      <c r="BR23" s="103"/>
-      <c r="BS23" s="103"/>
-      <c r="BT23" s="103"/>
-      <c r="BU23" s="103"/>
-      <c r="BV23" s="103"/>
-      <c r="BW23" s="103"/>
-      <c r="BX23" s="103"/>
-      <c r="BY23" s="103"/>
-      <c r="BZ23" s="103"/>
-      <c r="CA23" s="103"/>
-      <c r="CB23" s="103"/>
-      <c r="CC23" s="103"/>
-      <c r="CD23" s="103"/>
-      <c r="CE23" s="103"/>
-      <c r="CF23" s="103"/>
-      <c r="CG23" s="103"/>
-      <c r="CH23" s="103"/>
-      <c r="CI23" s="104"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="93"/>
+      <c r="AJ23" s="94"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="84"/>
+      <c r="AO23" s="84"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="64"/>
+      <c r="AS23" s="64"/>
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="83"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
+      <c r="AX23" s="84"/>
+      <c r="AY23" s="84"/>
+      <c r="AZ23" s="84"/>
+      <c r="BA23" s="84"/>
+      <c r="BB23" s="84"/>
+      <c r="BC23" s="84"/>
+      <c r="BD23" s="85"/>
+      <c r="BE23" s="83"/>
+      <c r="BF23" s="84"/>
+      <c r="BG23" s="84"/>
+      <c r="BH23" s="84"/>
+      <c r="BI23" s="84"/>
+      <c r="BJ23" s="84"/>
+      <c r="BK23" s="84"/>
+      <c r="BL23" s="84"/>
+      <c r="BM23" s="84"/>
+      <c r="BN23" s="84"/>
+      <c r="BO23" s="84"/>
+      <c r="BP23" s="85"/>
+      <c r="BQ23" s="86"/>
+      <c r="BR23" s="87"/>
+      <c r="BS23" s="87"/>
+      <c r="BT23" s="87"/>
+      <c r="BU23" s="87"/>
+      <c r="BV23" s="87"/>
+      <c r="BW23" s="87"/>
+      <c r="BX23" s="87"/>
+      <c r="BY23" s="87"/>
+      <c r="BZ23" s="87"/>
+      <c r="CA23" s="87"/>
+      <c r="CB23" s="87"/>
+      <c r="CC23" s="87"/>
+      <c r="CD23" s="87"/>
+      <c r="CE23" s="87"/>
+      <c r="CF23" s="87"/>
+      <c r="CG23" s="87"/>
+      <c r="CH23" s="87"/>
+      <c r="CI23" s="88"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1">
-      <c r="B24" s="105"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="108"/>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="100"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="100"/>
-      <c r="AJ24" s="101"/>
-      <c r="AK24" s="99"/>
-      <c r="AL24" s="100"/>
-      <c r="AM24" s="100"/>
-      <c r="AN24" s="100"/>
-      <c r="AO24" s="100"/>
-      <c r="AP24" s="100"/>
-      <c r="AQ24" s="100"/>
-      <c r="AR24" s="85"/>
-      <c r="AS24" s="85"/>
-      <c r="AT24" s="86"/>
-      <c r="AU24" s="99"/>
-      <c r="AV24" s="100"/>
-      <c r="AW24" s="100"/>
-      <c r="AX24" s="100"/>
-      <c r="AY24" s="100"/>
-      <c r="AZ24" s="100"/>
-      <c r="BA24" s="100"/>
-      <c r="BB24" s="100"/>
-      <c r="BC24" s="100"/>
-      <c r="BD24" s="101"/>
-      <c r="BE24" s="99"/>
-      <c r="BF24" s="100"/>
-      <c r="BG24" s="100"/>
-      <c r="BH24" s="100"/>
-      <c r="BI24" s="100"/>
-      <c r="BJ24" s="100"/>
-      <c r="BK24" s="100"/>
-      <c r="BL24" s="100"/>
-      <c r="BM24" s="100"/>
-      <c r="BN24" s="100"/>
-      <c r="BO24" s="100"/>
-      <c r="BP24" s="101"/>
-      <c r="BQ24" s="111"/>
-      <c r="BR24" s="112"/>
-      <c r="BS24" s="112"/>
-      <c r="BT24" s="112"/>
-      <c r="BU24" s="112"/>
-      <c r="BV24" s="112"/>
-      <c r="BW24" s="112"/>
-      <c r="BX24" s="112"/>
-      <c r="BY24" s="112"/>
-      <c r="BZ24" s="112"/>
-      <c r="CA24" s="112"/>
-      <c r="CB24" s="112"/>
-      <c r="CC24" s="112"/>
-      <c r="CD24" s="112"/>
-      <c r="CE24" s="112"/>
-      <c r="CF24" s="112"/>
-      <c r="CG24" s="112"/>
-      <c r="CH24" s="112"/>
-      <c r="CI24" s="113"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="85"/>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="84"/>
+      <c r="AJ24" s="85"/>
+      <c r="AK24" s="83"/>
+      <c r="AL24" s="84"/>
+      <c r="AM24" s="84"/>
+      <c r="AN24" s="84"/>
+      <c r="AO24" s="84"/>
+      <c r="AP24" s="84"/>
+      <c r="AQ24" s="84"/>
+      <c r="AR24" s="64"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="83"/>
+      <c r="AV24" s="84"/>
+      <c r="AW24" s="84"/>
+      <c r="AX24" s="84"/>
+      <c r="AY24" s="84"/>
+      <c r="AZ24" s="84"/>
+      <c r="BA24" s="84"/>
+      <c r="BB24" s="84"/>
+      <c r="BC24" s="84"/>
+      <c r="BD24" s="85"/>
+      <c r="BE24" s="83"/>
+      <c r="BF24" s="84"/>
+      <c r="BG24" s="84"/>
+      <c r="BH24" s="84"/>
+      <c r="BI24" s="84"/>
+      <c r="BJ24" s="84"/>
+      <c r="BK24" s="84"/>
+      <c r="BL24" s="84"/>
+      <c r="BM24" s="84"/>
+      <c r="BN24" s="84"/>
+      <c r="BO24" s="84"/>
+      <c r="BP24" s="85"/>
+      <c r="BQ24" s="107"/>
+      <c r="BR24" s="108"/>
+      <c r="BS24" s="108"/>
+      <c r="BT24" s="108"/>
+      <c r="BU24" s="108"/>
+      <c r="BV24" s="108"/>
+      <c r="BW24" s="108"/>
+      <c r="BX24" s="108"/>
+      <c r="BY24" s="108"/>
+      <c r="BZ24" s="108"/>
+      <c r="CA24" s="108"/>
+      <c r="CB24" s="108"/>
+      <c r="CC24" s="108"/>
+      <c r="CD24" s="108"/>
+      <c r="CE24" s="108"/>
+      <c r="CF24" s="108"/>
+      <c r="CG24" s="108"/>
+      <c r="CH24" s="108"/>
+      <c r="CI24" s="109"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1">
-      <c r="B25" s="105"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="119"/>
-      <c r="Y25" s="108"/>
-      <c r="Z25" s="109"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="118"/>
-      <c r="AE25" s="118"/>
-      <c r="AF25" s="118"/>
-      <c r="AG25" s="119"/>
-      <c r="AH25" s="108"/>
-      <c r="AI25" s="109"/>
-      <c r="AJ25" s="110"/>
-      <c r="AK25" s="99"/>
-      <c r="AL25" s="100"/>
-      <c r="AM25" s="100"/>
-      <c r="AN25" s="100"/>
-      <c r="AO25" s="100"/>
-      <c r="AP25" s="100"/>
-      <c r="AQ25" s="100"/>
-      <c r="AR25" s="85"/>
-      <c r="AS25" s="85"/>
-      <c r="AT25" s="86"/>
-      <c r="AU25" s="99"/>
-      <c r="AV25" s="100"/>
-      <c r="AW25" s="100"/>
-      <c r="AX25" s="100"/>
-      <c r="AY25" s="100"/>
-      <c r="AZ25" s="100"/>
-      <c r="BA25" s="100"/>
-      <c r="BB25" s="100"/>
-      <c r="BC25" s="100"/>
-      <c r="BD25" s="101"/>
-      <c r="BE25" s="99"/>
-      <c r="BF25" s="100"/>
-      <c r="BG25" s="100"/>
-      <c r="BH25" s="100"/>
-      <c r="BI25" s="100"/>
-      <c r="BJ25" s="100"/>
-      <c r="BK25" s="100"/>
-      <c r="BL25" s="100"/>
-      <c r="BM25" s="100"/>
-      <c r="BN25" s="100"/>
-      <c r="BO25" s="100"/>
-      <c r="BP25" s="101"/>
-      <c r="BQ25" s="114"/>
-      <c r="BR25" s="115"/>
-      <c r="BS25" s="115"/>
-      <c r="BT25" s="115"/>
-      <c r="BU25" s="115"/>
-      <c r="BV25" s="115"/>
-      <c r="BW25" s="115"/>
-      <c r="BX25" s="115"/>
-      <c r="BY25" s="115"/>
-      <c r="BZ25" s="115"/>
-      <c r="CA25" s="115"/>
-      <c r="CB25" s="115"/>
-      <c r="CC25" s="115"/>
-      <c r="CD25" s="115"/>
-      <c r="CE25" s="115"/>
-      <c r="CF25" s="115"/>
-      <c r="CG25" s="115"/>
-      <c r="CH25" s="115"/>
-      <c r="CI25" s="116"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="96"/>
+      <c r="AD25" s="96"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="96"/>
+      <c r="AG25" s="97"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="93"/>
+      <c r="AJ25" s="94"/>
+      <c r="AK25" s="83"/>
+      <c r="AL25" s="84"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="84"/>
+      <c r="AO25" s="84"/>
+      <c r="AP25" s="84"/>
+      <c r="AQ25" s="84"/>
+      <c r="AR25" s="64"/>
+      <c r="AS25" s="64"/>
+      <c r="AT25" s="65"/>
+      <c r="AU25" s="83"/>
+      <c r="AV25" s="84"/>
+      <c r="AW25" s="84"/>
+      <c r="AX25" s="84"/>
+      <c r="AY25" s="84"/>
+      <c r="AZ25" s="84"/>
+      <c r="BA25" s="84"/>
+      <c r="BB25" s="84"/>
+      <c r="BC25" s="84"/>
+      <c r="BD25" s="85"/>
+      <c r="BE25" s="83"/>
+      <c r="BF25" s="84"/>
+      <c r="BG25" s="84"/>
+      <c r="BH25" s="84"/>
+      <c r="BI25" s="84"/>
+      <c r="BJ25" s="84"/>
+      <c r="BK25" s="84"/>
+      <c r="BL25" s="84"/>
+      <c r="BM25" s="84"/>
+      <c r="BN25" s="84"/>
+      <c r="BO25" s="84"/>
+      <c r="BP25" s="85"/>
+      <c r="BQ25" s="104"/>
+      <c r="BR25" s="105"/>
+      <c r="BS25" s="105"/>
+      <c r="BT25" s="105"/>
+      <c r="BU25" s="105"/>
+      <c r="BV25" s="105"/>
+      <c r="BW25" s="105"/>
+      <c r="BX25" s="105"/>
+      <c r="BY25" s="105"/>
+      <c r="BZ25" s="105"/>
+      <c r="CA25" s="105"/>
+      <c r="CB25" s="105"/>
+      <c r="CC25" s="105"/>
+      <c r="CD25" s="105"/>
+      <c r="CE25" s="105"/>
+      <c r="CF25" s="105"/>
+      <c r="CG25" s="105"/>
+      <c r="CH25" s="105"/>
+      <c r="CI25" s="106"/>
     </row>
     <row r="26" spans="2:87" ht="18" customHeight="1">
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="123"/>
-      <c r="Z26" s="124"/>
-      <c r="AA26" s="125"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="118"/>
-      <c r="AE26" s="118"/>
-      <c r="AF26" s="118"/>
-      <c r="AG26" s="119"/>
-      <c r="AH26" s="123"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="125"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="118"/>
-      <c r="AM26" s="118"/>
-      <c r="AN26" s="118"/>
-      <c r="AO26" s="118"/>
-      <c r="AP26" s="118"/>
-      <c r="AQ26" s="118"/>
-      <c r="AR26" s="85"/>
-      <c r="AS26" s="85"/>
-      <c r="AT26" s="86"/>
-      <c r="AU26" s="117"/>
-      <c r="AV26" s="118"/>
-      <c r="AW26" s="118"/>
-      <c r="AX26" s="118"/>
-      <c r="AY26" s="118"/>
-      <c r="AZ26" s="118"/>
-      <c r="BA26" s="118"/>
-      <c r="BB26" s="118"/>
-      <c r="BC26" s="118"/>
-      <c r="BD26" s="119"/>
-      <c r="BE26" s="117"/>
-      <c r="BF26" s="118"/>
-      <c r="BG26" s="118"/>
-      <c r="BH26" s="118"/>
-      <c r="BI26" s="118"/>
-      <c r="BJ26" s="118"/>
-      <c r="BK26" s="118"/>
-      <c r="BL26" s="118"/>
-      <c r="BM26" s="118"/>
-      <c r="BN26" s="118"/>
-      <c r="BO26" s="118"/>
-      <c r="BP26" s="119"/>
-      <c r="BQ26" s="120"/>
-      <c r="BR26" s="121"/>
-      <c r="BS26" s="121"/>
-      <c r="BT26" s="121"/>
-      <c r="BU26" s="121"/>
-      <c r="BV26" s="121"/>
-      <c r="BW26" s="121"/>
-      <c r="BX26" s="121"/>
-      <c r="BY26" s="121"/>
-      <c r="BZ26" s="121"/>
-      <c r="CA26" s="121"/>
-      <c r="CB26" s="121"/>
-      <c r="CC26" s="121"/>
-      <c r="CD26" s="121"/>
-      <c r="CE26" s="121"/>
-      <c r="CF26" s="121"/>
-      <c r="CG26" s="121"/>
-      <c r="CH26" s="121"/>
-      <c r="CI26" s="122"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="96"/>
+      <c r="AG26" s="97"/>
+      <c r="AH26" s="101"/>
+      <c r="AI26" s="102"/>
+      <c r="AJ26" s="103"/>
+      <c r="AK26" s="95"/>
+      <c r="AL26" s="96"/>
+      <c r="AM26" s="96"/>
+      <c r="AN26" s="96"/>
+      <c r="AO26" s="96"/>
+      <c r="AP26" s="96"/>
+      <c r="AQ26" s="96"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="65"/>
+      <c r="AU26" s="95"/>
+      <c r="AV26" s="96"/>
+      <c r="AW26" s="96"/>
+      <c r="AX26" s="96"/>
+      <c r="AY26" s="96"/>
+      <c r="AZ26" s="96"/>
+      <c r="BA26" s="96"/>
+      <c r="BB26" s="96"/>
+      <c r="BC26" s="96"/>
+      <c r="BD26" s="97"/>
+      <c r="BE26" s="95"/>
+      <c r="BF26" s="96"/>
+      <c r="BG26" s="96"/>
+      <c r="BH26" s="96"/>
+      <c r="BI26" s="96"/>
+      <c r="BJ26" s="96"/>
+      <c r="BK26" s="96"/>
+      <c r="BL26" s="96"/>
+      <c r="BM26" s="96"/>
+      <c r="BN26" s="96"/>
+      <c r="BO26" s="96"/>
+      <c r="BP26" s="97"/>
+      <c r="BQ26" s="98"/>
+      <c r="BR26" s="99"/>
+      <c r="BS26" s="99"/>
+      <c r="BT26" s="99"/>
+      <c r="BU26" s="99"/>
+      <c r="BV26" s="99"/>
+      <c r="BW26" s="99"/>
+      <c r="BX26" s="99"/>
+      <c r="BY26" s="99"/>
+      <c r="BZ26" s="99"/>
+      <c r="CA26" s="99"/>
+      <c r="CB26" s="99"/>
+      <c r="CC26" s="99"/>
+      <c r="CD26" s="99"/>
+      <c r="CE26" s="99"/>
+      <c r="CF26" s="99"/>
+      <c r="CG26" s="99"/>
+      <c r="CH26" s="99"/>
+      <c r="CI26" s="100"/>
     </row>
     <row r="27" spans="2:87" ht="18" customHeight="1">
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="108"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="100"/>
-      <c r="AE27" s="100"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="101"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="100"/>
-      <c r="AJ27" s="101"/>
-      <c r="AK27" s="99"/>
-      <c r="AL27" s="100"/>
-      <c r="AM27" s="100"/>
-      <c r="AN27" s="100"/>
-      <c r="AO27" s="100"/>
-      <c r="AP27" s="100"/>
-      <c r="AQ27" s="100"/>
-      <c r="AR27" s="85"/>
-      <c r="AS27" s="85"/>
-      <c r="AT27" s="86"/>
-      <c r="AU27" s="99"/>
-      <c r="AV27" s="100"/>
-      <c r="AW27" s="100"/>
-      <c r="AX27" s="100"/>
-      <c r="AY27" s="100"/>
-      <c r="AZ27" s="100"/>
-      <c r="BA27" s="100"/>
-      <c r="BB27" s="100"/>
-      <c r="BC27" s="100"/>
-      <c r="BD27" s="101"/>
-      <c r="BE27" s="99"/>
-      <c r="BF27" s="100"/>
-      <c r="BG27" s="100"/>
-      <c r="BH27" s="100"/>
-      <c r="BI27" s="100"/>
-      <c r="BJ27" s="100"/>
-      <c r="BK27" s="100"/>
-      <c r="BL27" s="100"/>
-      <c r="BM27" s="100"/>
-      <c r="BN27" s="100"/>
-      <c r="BO27" s="100"/>
-      <c r="BP27" s="101"/>
-      <c r="BQ27" s="102"/>
-      <c r="BR27" s="103"/>
-      <c r="BS27" s="103"/>
-      <c r="BT27" s="103"/>
-      <c r="BU27" s="103"/>
-      <c r="BV27" s="103"/>
-      <c r="BW27" s="103"/>
-      <c r="BX27" s="103"/>
-      <c r="BY27" s="103"/>
-      <c r="BZ27" s="103"/>
-      <c r="CA27" s="103"/>
-      <c r="CB27" s="103"/>
-      <c r="CC27" s="103"/>
-      <c r="CD27" s="103"/>
-      <c r="CE27" s="103"/>
-      <c r="CF27" s="103"/>
-      <c r="CG27" s="103"/>
-      <c r="CH27" s="103"/>
-      <c r="CI27" s="104"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="85"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="84"/>
+      <c r="AJ27" s="85"/>
+      <c r="AK27" s="83"/>
+      <c r="AL27" s="84"/>
+      <c r="AM27" s="84"/>
+      <c r="AN27" s="84"/>
+      <c r="AO27" s="84"/>
+      <c r="AP27" s="84"/>
+      <c r="AQ27" s="84"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="65"/>
+      <c r="AU27" s="83"/>
+      <c r="AV27" s="84"/>
+      <c r="AW27" s="84"/>
+      <c r="AX27" s="84"/>
+      <c r="AY27" s="84"/>
+      <c r="AZ27" s="84"/>
+      <c r="BA27" s="84"/>
+      <c r="BB27" s="84"/>
+      <c r="BC27" s="84"/>
+      <c r="BD27" s="85"/>
+      <c r="BE27" s="83"/>
+      <c r="BF27" s="84"/>
+      <c r="BG27" s="84"/>
+      <c r="BH27" s="84"/>
+      <c r="BI27" s="84"/>
+      <c r="BJ27" s="84"/>
+      <c r="BK27" s="84"/>
+      <c r="BL27" s="84"/>
+      <c r="BM27" s="84"/>
+      <c r="BN27" s="84"/>
+      <c r="BO27" s="84"/>
+      <c r="BP27" s="85"/>
+      <c r="BQ27" s="86"/>
+      <c r="BR27" s="87"/>
+      <c r="BS27" s="87"/>
+      <c r="BT27" s="87"/>
+      <c r="BU27" s="87"/>
+      <c r="BV27" s="87"/>
+      <c r="BW27" s="87"/>
+      <c r="BX27" s="87"/>
+      <c r="BY27" s="87"/>
+      <c r="BZ27" s="87"/>
+      <c r="CA27" s="87"/>
+      <c r="CB27" s="87"/>
+      <c r="CC27" s="87"/>
+      <c r="CD27" s="87"/>
+      <c r="CE27" s="87"/>
+      <c r="CF27" s="87"/>
+      <c r="CG27" s="87"/>
+      <c r="CH27" s="87"/>
+      <c r="CI27" s="88"/>
     </row>
     <row r="28" spans="2:87" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B28" s="132"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="136"/>
-      <c r="R28" s="136"/>
-      <c r="S28" s="136"/>
-      <c r="T28" s="136"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="136"/>
-      <c r="W28" s="136"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="138"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="140"/>
-      <c r="AB28" s="126"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="127"/>
-      <c r="AF28" s="127"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="138"/>
-      <c r="AI28" s="139"/>
-      <c r="AJ28" s="140"/>
-      <c r="AK28" s="126"/>
-      <c r="AL28" s="127"/>
-      <c r="AM28" s="127"/>
-      <c r="AN28" s="127"/>
-      <c r="AO28" s="127"/>
-      <c r="AP28" s="127"/>
-      <c r="AQ28" s="127"/>
-      <c r="AR28" s="141"/>
-      <c r="AS28" s="141"/>
-      <c r="AT28" s="142"/>
-      <c r="AU28" s="126"/>
-      <c r="AV28" s="127"/>
-      <c r="AW28" s="127"/>
-      <c r="AX28" s="127"/>
-      <c r="AY28" s="127"/>
-      <c r="AZ28" s="127"/>
-      <c r="BA28" s="127"/>
-      <c r="BB28" s="127"/>
-      <c r="BC28" s="127"/>
-      <c r="BD28" s="128"/>
-      <c r="BE28" s="126"/>
-      <c r="BF28" s="127"/>
-      <c r="BG28" s="127"/>
-      <c r="BH28" s="127"/>
-      <c r="BI28" s="127"/>
-      <c r="BJ28" s="127"/>
-      <c r="BK28" s="127"/>
-      <c r="BL28" s="127"/>
-      <c r="BM28" s="127"/>
-      <c r="BN28" s="127"/>
-      <c r="BO28" s="127"/>
-      <c r="BP28" s="128"/>
-      <c r="BQ28" s="129"/>
-      <c r="BR28" s="130"/>
-      <c r="BS28" s="130"/>
-      <c r="BT28" s="130"/>
-      <c r="BU28" s="130"/>
-      <c r="BV28" s="130"/>
-      <c r="BW28" s="130"/>
-      <c r="BX28" s="130"/>
-      <c r="BY28" s="130"/>
-      <c r="BZ28" s="130"/>
-      <c r="CA28" s="130"/>
-      <c r="CB28" s="130"/>
-      <c r="CC28" s="130"/>
-      <c r="CD28" s="130"/>
-      <c r="CE28" s="130"/>
-      <c r="CF28" s="130"/>
-      <c r="CG28" s="130"/>
-      <c r="CH28" s="130"/>
-      <c r="CI28" s="131"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="68"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="67"/>
+      <c r="AN28" s="67"/>
+      <c r="AO28" s="67"/>
+      <c r="AP28" s="67"/>
+      <c r="AQ28" s="67"/>
+      <c r="AR28" s="81"/>
+      <c r="AS28" s="81"/>
+      <c r="AT28" s="82"/>
+      <c r="AU28" s="66"/>
+      <c r="AV28" s="67"/>
+      <c r="AW28" s="67"/>
+      <c r="AX28" s="67"/>
+      <c r="AY28" s="67"/>
+      <c r="AZ28" s="67"/>
+      <c r="BA28" s="67"/>
+      <c r="BB28" s="67"/>
+      <c r="BC28" s="67"/>
+      <c r="BD28" s="68"/>
+      <c r="BE28" s="66"/>
+      <c r="BF28" s="67"/>
+      <c r="BG28" s="67"/>
+      <c r="BH28" s="67"/>
+      <c r="BI28" s="67"/>
+      <c r="BJ28" s="67"/>
+      <c r="BK28" s="67"/>
+      <c r="BL28" s="67"/>
+      <c r="BM28" s="67"/>
+      <c r="BN28" s="67"/>
+      <c r="BO28" s="67"/>
+      <c r="BP28" s="68"/>
+      <c r="BQ28" s="69"/>
+      <c r="BR28" s="70"/>
+      <c r="BS28" s="70"/>
+      <c r="BT28" s="70"/>
+      <c r="BU28" s="70"/>
+      <c r="BV28" s="70"/>
+      <c r="BW28" s="70"/>
+      <c r="BX28" s="70"/>
+      <c r="BY28" s="70"/>
+      <c r="BZ28" s="70"/>
+      <c r="CA28" s="70"/>
+      <c r="CB28" s="70"/>
+      <c r="CC28" s="70"/>
+      <c r="CD28" s="70"/>
+      <c r="CE28" s="70"/>
+      <c r="CF28" s="70"/>
+      <c r="CG28" s="70"/>
+      <c r="CH28" s="70"/>
+      <c r="CI28" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="220">
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU28:BD28"/>
-    <mergeCell ref="BE28:BP28"/>
-    <mergeCell ref="BQ28:CI28"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="AK28:AT28"/>
-    <mergeCell ref="AU27:BD27"/>
-    <mergeCell ref="BE27:BP27"/>
-    <mergeCell ref="BQ27:CI27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="AK27:AT27"/>
-    <mergeCell ref="AU26:BD26"/>
-    <mergeCell ref="BE26:BP26"/>
-    <mergeCell ref="BQ26:CI26"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AU25:BD25"/>
-    <mergeCell ref="BE25:BP25"/>
-    <mergeCell ref="BQ25:CI25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:AT25"/>
-    <mergeCell ref="AU24:BD24"/>
-    <mergeCell ref="BE24:BP24"/>
-    <mergeCell ref="BQ24:CI24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -11458,6 +11273,204 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AU23:BD23"/>
+    <mergeCell ref="BE23:BP23"/>
+    <mergeCell ref="BQ23:CI23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AU24:BD24"/>
+    <mergeCell ref="BE24:BP24"/>
+    <mergeCell ref="BQ24:CI24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AU25:BD25"/>
+    <mergeCell ref="BE25:BP25"/>
+    <mergeCell ref="BQ25:CI25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:AT25"/>
+    <mergeCell ref="AU26:BD26"/>
+    <mergeCell ref="BE26:BP26"/>
+    <mergeCell ref="BQ26:CI26"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:AT26"/>
+    <mergeCell ref="AU27:BD27"/>
+    <mergeCell ref="BE27:BP27"/>
+    <mergeCell ref="BQ27:CI27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="AK27:AT27"/>
+    <mergeCell ref="AU28:BD28"/>
+    <mergeCell ref="BE28:BP28"/>
+    <mergeCell ref="BQ28:CI28"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="AK28:AT28"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験結果.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>システム名</t>
   </si>
@@ -218,111 +218,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="5"/>
-        <rFont val="游ゴシック Medium"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="游ゴシック Medium"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Q1    5月の季節はなんですか?
-1. 春                 2. 夏                   3.秋                         4.冬 </t>
-    </r>
-    <rPh sb="9" eb="10">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キセツ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ハル</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ナツ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>アキ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>フユ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック Medium"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="游ゴシック Medium"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Q2    7月の季節はなんですか?
-1. 春                 2. 夏                   3.秋                         4.冬 </t>
-    </r>
-    <rPh sb="9" eb="10">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キセツ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ハル</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ナツ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>アキ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>フユ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  〇 Q3    10月の季節はなんですか?
-1. 春                 2. 夏                   3. 秋                         4.冬 </t>
-    <rPh sb="12" eb="13">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キセツ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ハル</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ナツ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>アキ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>フユ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ロゴ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -440,6 +335,144 @@
   </si>
   <si>
     <t>question_answer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">〇 Q2    7月の季節はなんですか?
+      春
+      夏
+      秋
+      冬 </t>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>フユ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">〇 Q3    10月の季節はなんですか?
+      春
+      夏
+      秋
+      冬 </t>
+    <rPh sb="10" eb="11">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>フユ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="5"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Q1    5月の季節はなんですか?
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>春</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+      夏
+      秋
+      冬 </t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>フユ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>?????さん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UserFormから参照</t>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1000,7 +1033,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1120,9 +1153,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,10 +1181,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -1425,6 +1455,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1517,16 +1574,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1535,8 +1592,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362200" y="3486150"/>
-          <a:ext cx="323850" cy="352425"/>
+          <a:off x="800100" y="3581400"/>
+          <a:ext cx="123824" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1577,26 +1634,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="円/楕円 9"/>
+        <xdr:cNvPr id="6" name="円/楕円 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5667375" y="6238875"/>
-          <a:ext cx="323850" cy="352425"/>
+          <a:off x="781050" y="6419850"/>
+          <a:ext cx="123824" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1637,26 +1694,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="円/楕円 10"/>
+        <xdr:cNvPr id="7" name="円/楕円 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="4857750"/>
-          <a:ext cx="323850" cy="352425"/>
+          <a:off x="762000" y="9267825"/>
+          <a:ext cx="123824" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1961,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK35"/>
+  <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BC37" sqref="BC37"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CK11" sqref="CK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4327,355 +4384,357 @@
       <c r="CH5" s="19"/>
       <c r="CI5" s="19"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="6"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="6"/>
-      <c r="BA6" s="6"/>
-      <c r="BB6" s="6"/>
-      <c r="BC6" s="6"/>
-      <c r="BD6" s="6"/>
-      <c r="BE6" s="6"/>
-      <c r="BF6" s="6"/>
-      <c r="BG6" s="6"/>
-      <c r="BH6" s="6"/>
-      <c r="BI6" s="6"/>
-      <c r="BJ6" s="6"/>
-      <c r="BK6" s="6"/>
-      <c r="BL6" s="6"/>
-      <c r="BM6" s="6"/>
-      <c r="BN6" s="6"/>
-      <c r="BO6" s="6"/>
-      <c r="BP6" s="6"/>
-      <c r="BQ6" s="6"/>
-      <c r="BR6" s="6"/>
-      <c r="BS6" s="6"/>
-      <c r="BT6" s="6"/>
-      <c r="BU6" s="6"/>
-      <c r="BV6" s="6"/>
-      <c r="BW6" s="6"/>
-      <c r="BX6" s="6"/>
-      <c r="BY6" s="6"/>
-      <c r="BZ6" s="6"/>
-      <c r="CA6" s="6"/>
-      <c r="CB6" s="6"/>
-      <c r="CC6" s="6"/>
-      <c r="CD6" s="6"/>
-      <c r="CE6" s="6"/>
-      <c r="CF6" s="6"/>
-      <c r="CG6" s="6"/>
-      <c r="CH6" s="6"/>
-      <c r="CI6" s="7"/>
+    <row r="6" spans="1:1024" ht="15" customHeight="1">
+      <c r="B6" s="142"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="144"/>
+      <c r="T6" s="144"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="144"/>
+      <c r="W6" s="144"/>
+      <c r="X6" s="144"/>
+      <c r="Y6" s="144"/>
+      <c r="Z6" s="144"/>
+      <c r="AA6" s="144"/>
+      <c r="AB6" s="144"/>
+      <c r="AC6" s="144"/>
+      <c r="AD6" s="144"/>
+      <c r="AE6" s="144"/>
+      <c r="AF6" s="144"/>
+      <c r="AG6" s="144"/>
+      <c r="AH6" s="144"/>
+      <c r="AI6" s="144"/>
+      <c r="AJ6" s="144"/>
+      <c r="AK6" s="144"/>
+      <c r="AL6" s="144"/>
+      <c r="AM6" s="144"/>
+      <c r="AN6" s="144"/>
+      <c r="AO6" s="144"/>
+      <c r="AP6" s="144"/>
+      <c r="AQ6" s="144"/>
+      <c r="AR6" s="144"/>
+      <c r="AS6" s="144"/>
+      <c r="AT6" s="144"/>
+      <c r="AU6" s="144"/>
+      <c r="AV6" s="144"/>
+      <c r="AW6" s="144"/>
+      <c r="AX6" s="144"/>
+      <c r="AY6" s="144"/>
+      <c r="AZ6" s="144"/>
+      <c r="BA6" s="144"/>
+      <c r="BB6" s="144"/>
+      <c r="BC6" s="144"/>
+      <c r="BD6" s="144"/>
+      <c r="BE6" s="144"/>
+      <c r="BF6" s="144"/>
+      <c r="BG6" s="144"/>
+      <c r="BH6" s="144"/>
+      <c r="BI6" s="144"/>
+      <c r="BJ6" s="144"/>
+      <c r="BK6" s="144"/>
+      <c r="BL6" s="144"/>
+      <c r="BM6" s="144"/>
+      <c r="BN6" s="144"/>
+      <c r="BO6" s="144"/>
+      <c r="BP6" s="144"/>
+      <c r="BQ6" s="144"/>
+      <c r="BR6" s="144"/>
+      <c r="BS6" s="144"/>
+      <c r="BT6" s="144"/>
+      <c r="BU6" s="144"/>
+      <c r="BV6" s="144"/>
+      <c r="BW6" s="144"/>
+      <c r="BX6" s="144"/>
+      <c r="BY6" s="144"/>
+      <c r="BZ6" s="144"/>
+      <c r="CA6" s="144"/>
+      <c r="CB6" s="144"/>
+      <c r="CC6" s="144"/>
+      <c r="CD6" s="144"/>
+      <c r="CE6" s="144"/>
+      <c r="CF6" s="144"/>
+      <c r="CG6" s="144"/>
+      <c r="CH6" s="144"/>
+      <c r="CI6" s="145"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="40" t="s">
-        <v>37</v>
+    <row r="7" spans="1:1024" ht="23.25" customHeight="1">
+      <c r="B7" s="142"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
+      <c r="S7" s="144"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="144"/>
+      <c r="V7" s="144"/>
+      <c r="W7" s="144"/>
+      <c r="X7" s="144"/>
+      <c r="Y7" s="144"/>
+      <c r="Z7" s="144"/>
+      <c r="AA7" s="144"/>
+      <c r="AB7" s="144"/>
+      <c r="AC7" s="144"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="144"/>
+      <c r="AF7" s="144"/>
+      <c r="AG7" s="144"/>
+      <c r="AH7" s="144"/>
+      <c r="AI7" s="144"/>
+      <c r="AJ7" s="144"/>
+      <c r="AK7" s="144"/>
+      <c r="AL7" s="144"/>
+      <c r="AM7" s="144"/>
+      <c r="AN7" s="144"/>
+      <c r="AO7" s="144"/>
+      <c r="AP7" s="144"/>
+      <c r="AQ7" s="144"/>
+      <c r="AR7" s="144"/>
+      <c r="AS7" s="144"/>
+      <c r="AT7" s="144"/>
+      <c r="AU7" s="144"/>
+      <c r="AV7" s="144"/>
+      <c r="AW7" s="144"/>
+      <c r="AX7" s="144"/>
+      <c r="AY7" s="144"/>
+      <c r="AZ7" s="144"/>
+      <c r="BA7" s="144"/>
+      <c r="BB7" s="144"/>
+      <c r="BC7" s="144"/>
+      <c r="BD7" s="144"/>
+      <c r="BE7" s="144"/>
+      <c r="BF7" s="144"/>
+      <c r="BG7" s="144"/>
+      <c r="BH7" s="144"/>
+      <c r="BI7" s="144"/>
+      <c r="BJ7" s="144"/>
+      <c r="BK7" s="144"/>
+      <c r="BL7" s="144"/>
+      <c r="BM7" s="148" t="s">
+        <v>64</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="41"/>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="41"/>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="41"/>
-      <c r="BK7" s="41"/>
-      <c r="BL7" s="41"/>
-      <c r="BM7" s="41"/>
-      <c r="BN7" s="41"/>
-      <c r="BO7" s="41"/>
-      <c r="BP7" s="41"/>
-      <c r="BQ7" s="41"/>
-      <c r="BR7" s="41"/>
-      <c r="BS7" s="41"/>
-      <c r="BT7" s="41"/>
-      <c r="BU7" s="41"/>
-      <c r="BV7" s="41"/>
-      <c r="BW7" s="41"/>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="41"/>
-      <c r="BZ7" s="41"/>
-      <c r="CA7" s="41"/>
-      <c r="CB7" s="41"/>
-      <c r="CC7" s="41"/>
-      <c r="CD7" s="41"/>
-      <c r="CE7" s="41"/>
-      <c r="CF7" s="6"/>
-      <c r="CG7" s="6"/>
-      <c r="CH7" s="6"/>
-      <c r="CI7" s="7"/>
+      <c r="BN7" s="147"/>
+      <c r="BO7" s="147"/>
+      <c r="BP7" s="147"/>
+      <c r="BQ7" s="147"/>
+      <c r="BR7" s="147"/>
+      <c r="BS7" s="147"/>
+      <c r="BT7" s="147"/>
+      <c r="BU7" s="147"/>
+      <c r="BV7" s="147"/>
+      <c r="BW7" s="147"/>
+      <c r="BX7" s="147"/>
+      <c r="BY7" s="147"/>
+      <c r="BZ7" s="147"/>
+      <c r="CA7" s="147"/>
+      <c r="CB7" s="147"/>
+      <c r="CC7" s="147"/>
+      <c r="CD7" s="147"/>
+      <c r="CE7" s="147"/>
+      <c r="CF7" s="147"/>
+      <c r="CG7" s="147"/>
+      <c r="CH7" s="144"/>
+      <c r="CI7" s="145"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1">
+    <row r="8" spans="1:1024" ht="18.75" customHeight="1">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
-      <c r="AL8" s="41"/>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="41"/>
-      <c r="AU8" s="41"/>
-      <c r="AV8" s="41"/>
-      <c r="AW8" s="41"/>
-      <c r="AX8" s="41"/>
-      <c r="AY8" s="41"/>
-      <c r="AZ8" s="41"/>
-      <c r="BA8" s="41"/>
-      <c r="BB8" s="41"/>
-      <c r="BC8" s="41"/>
-      <c r="BD8" s="41"/>
-      <c r="BE8" s="41"/>
-      <c r="BF8" s="41"/>
-      <c r="BG8" s="41"/>
-      <c r="BH8" s="41"/>
-      <c r="BI8" s="41"/>
-      <c r="BJ8" s="41"/>
-      <c r="BK8" s="41"/>
-      <c r="BL8" s="41"/>
-      <c r="BM8" s="41"/>
-      <c r="BN8" s="41"/>
-      <c r="BO8" s="41"/>
-      <c r="BP8" s="41"/>
-      <c r="BQ8" s="41"/>
-      <c r="BR8" s="41"/>
-      <c r="BS8" s="41"/>
-      <c r="BT8" s="41"/>
-      <c r="BU8" s="41"/>
-      <c r="BV8" s="41"/>
-      <c r="BW8" s="41"/>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="41"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="41"/>
-      <c r="CD8" s="41"/>
-      <c r="CE8" s="41"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="6"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="6"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="6"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="6"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="6"/>
+      <c r="BZ8" s="6"/>
+      <c r="CA8" s="6"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="6"/>
       <c r="CF8" s="6"/>
       <c r="CG8" s="6"/>
       <c r="CH8" s="6"/>
       <c r="CI8" s="7"/>
     </row>
-    <row r="9" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="9" spans="1:1024" ht="18" customHeight="1">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="6"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="6"/>
-      <c r="BA9" s="6"/>
-      <c r="BB9" s="6"/>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="6"/>
-      <c r="BG9" s="6"/>
-      <c r="BH9" s="6"/>
-      <c r="BI9" s="6"/>
-      <c r="BJ9" s="6"/>
-      <c r="BK9" s="6"/>
-      <c r="BL9" s="6"/>
-      <c r="BM9" s="6"/>
-      <c r="BN9" s="6"/>
-      <c r="BO9" s="6"/>
-      <c r="BP9" s="6"/>
-      <c r="BQ9" s="6"/>
-      <c r="BR9" s="6"/>
-      <c r="BS9" s="6"/>
-      <c r="BT9" s="6"/>
-      <c r="BU9" s="6"/>
-      <c r="BV9" s="6"/>
-      <c r="BW9" s="6"/>
-      <c r="BX9" s="6"/>
-      <c r="BY9" s="6"/>
-      <c r="BZ9" s="6"/>
-      <c r="CA9" s="6"/>
-      <c r="CB9" s="6"/>
-      <c r="CC9" s="6"/>
-      <c r="CD9" s="6"/>
-      <c r="CE9" s="6"/>
+      <c r="F9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="146"/>
+      <c r="T9" s="146"/>
+      <c r="U9" s="146"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="146"/>
+      <c r="X9" s="146"/>
+      <c r="Y9" s="146"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="146"/>
+      <c r="AG9" s="146"/>
+      <c r="AH9" s="146"/>
+      <c r="AI9" s="146"/>
+      <c r="AJ9" s="146"/>
+      <c r="AK9" s="146"/>
+      <c r="AL9" s="146"/>
+      <c r="AM9" s="146"/>
+      <c r="AN9" s="146"/>
+      <c r="AO9" s="146"/>
+      <c r="AP9" s="146"/>
+      <c r="AQ9" s="146"/>
+      <c r="AR9" s="146"/>
+      <c r="AS9" s="146"/>
+      <c r="AT9" s="146"/>
+      <c r="AU9" s="146"/>
+      <c r="AV9" s="146"/>
+      <c r="AW9" s="146"/>
+      <c r="AX9" s="146"/>
+      <c r="AY9" s="146"/>
+      <c r="AZ9" s="146"/>
+      <c r="BA9" s="146"/>
+      <c r="BB9" s="146"/>
+      <c r="BC9" s="146"/>
+      <c r="BD9" s="146"/>
+      <c r="BE9" s="146"/>
+      <c r="BF9" s="146"/>
+      <c r="BG9" s="146"/>
+      <c r="BH9" s="146"/>
+      <c r="BI9" s="146"/>
+      <c r="BJ9" s="146"/>
+      <c r="BK9" s="146"/>
+      <c r="BL9" s="146"/>
+      <c r="BM9" s="146"/>
+      <c r="BN9" s="146"/>
+      <c r="BO9" s="146"/>
+      <c r="BP9" s="146"/>
+      <c r="BQ9" s="146"/>
+      <c r="BR9" s="146"/>
+      <c r="BS9" s="146"/>
+      <c r="BT9" s="146"/>
+      <c r="BU9" s="146"/>
+      <c r="BV9" s="146"/>
+      <c r="BW9" s="146"/>
+      <c r="BX9" s="146"/>
+      <c r="BY9" s="146"/>
+      <c r="BZ9" s="146"/>
+      <c r="CA9" s="146"/>
+      <c r="CB9" s="146"/>
+      <c r="CC9" s="146"/>
+      <c r="CD9" s="146"/>
+      <c r="CE9" s="146"/>
       <c r="CF9" s="6"/>
       <c r="CG9" s="6"/>
       <c r="CH9" s="6"/>
@@ -4686,92 +4745,90 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="43"/>
-      <c r="AK10" s="43"/>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="43"/>
-      <c r="AN10" s="43"/>
-      <c r="AO10" s="43"/>
-      <c r="AP10" s="43"/>
-      <c r="AQ10" s="43"/>
-      <c r="AR10" s="43"/>
-      <c r="AS10" s="43"/>
-      <c r="AT10" s="43"/>
-      <c r="AU10" s="43"/>
-      <c r="AV10" s="43"/>
-      <c r="AW10" s="43"/>
-      <c r="AX10" s="43"/>
-      <c r="AY10" s="43"/>
-      <c r="AZ10" s="43"/>
-      <c r="BA10" s="43"/>
-      <c r="BB10" s="43"/>
-      <c r="BC10" s="43"/>
-      <c r="BD10" s="43"/>
-      <c r="BE10" s="43"/>
-      <c r="BF10" s="43"/>
-      <c r="BG10" s="43"/>
-      <c r="BH10" s="43"/>
-      <c r="BI10" s="43"/>
-      <c r="BJ10" s="43"/>
-      <c r="BK10" s="43"/>
-      <c r="BL10" s="43"/>
-      <c r="BM10" s="44"/>
-      <c r="BN10" s="6"/>
-      <c r="BO10" s="6"/>
-      <c r="BP10" s="6"/>
-      <c r="BQ10" s="6"/>
-      <c r="BR10" s="6"/>
-      <c r="BS10" s="6"/>
-      <c r="BT10" s="6"/>
-      <c r="BU10" s="6"/>
-      <c r="BV10" s="6"/>
-      <c r="BW10" s="6"/>
-      <c r="BX10" s="6"/>
-      <c r="BY10" s="6"/>
-      <c r="BZ10" s="6"/>
-      <c r="CA10" s="6"/>
-      <c r="CB10" s="6"/>
-      <c r="CC10" s="6"/>
-      <c r="CD10" s="6"/>
-      <c r="CE10" s="6"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146"/>
+      <c r="U10" s="146"/>
+      <c r="V10" s="146"/>
+      <c r="W10" s="146"/>
+      <c r="X10" s="146"/>
+      <c r="Y10" s="146"/>
+      <c r="Z10" s="146"/>
+      <c r="AA10" s="146"/>
+      <c r="AB10" s="146"/>
+      <c r="AC10" s="146"/>
+      <c r="AD10" s="146"/>
+      <c r="AE10" s="146"/>
+      <c r="AF10" s="146"/>
+      <c r="AG10" s="146"/>
+      <c r="AH10" s="146"/>
+      <c r="AI10" s="146"/>
+      <c r="AJ10" s="146"/>
+      <c r="AK10" s="146"/>
+      <c r="AL10" s="146"/>
+      <c r="AM10" s="146"/>
+      <c r="AN10" s="146"/>
+      <c r="AO10" s="146"/>
+      <c r="AP10" s="146"/>
+      <c r="AQ10" s="146"/>
+      <c r="AR10" s="146"/>
+      <c r="AS10" s="146"/>
+      <c r="AT10" s="146"/>
+      <c r="AU10" s="146"/>
+      <c r="AV10" s="146"/>
+      <c r="AW10" s="146"/>
+      <c r="AX10" s="146"/>
+      <c r="AY10" s="146"/>
+      <c r="AZ10" s="146"/>
+      <c r="BA10" s="146"/>
+      <c r="BB10" s="146"/>
+      <c r="BC10" s="146"/>
+      <c r="BD10" s="146"/>
+      <c r="BE10" s="146"/>
+      <c r="BF10" s="146"/>
+      <c r="BG10" s="146"/>
+      <c r="BH10" s="146"/>
+      <c r="BI10" s="146"/>
+      <c r="BJ10" s="146"/>
+      <c r="BK10" s="146"/>
+      <c r="BL10" s="146"/>
+      <c r="BM10" s="146"/>
+      <c r="BN10" s="146"/>
+      <c r="BO10" s="146"/>
+      <c r="BP10" s="146"/>
+      <c r="BQ10" s="146"/>
+      <c r="BR10" s="146"/>
+      <c r="BS10" s="146"/>
+      <c r="BT10" s="146"/>
+      <c r="BU10" s="146"/>
+      <c r="BV10" s="146"/>
+      <c r="BW10" s="146"/>
+      <c r="BX10" s="146"/>
+      <c r="BY10" s="146"/>
+      <c r="BZ10" s="146"/>
+      <c r="CA10" s="146"/>
+      <c r="CB10" s="146"/>
+      <c r="CC10" s="146"/>
+      <c r="CD10" s="146"/>
+      <c r="CE10" s="146"/>
       <c r="CF10" s="6"/>
       <c r="CG10" s="6"/>
       <c r="CH10" s="6"/>
       <c r="CI10" s="7"/>
     </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1">
+    <row r="11" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4794,48 +4851,48 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="46"/>
-      <c r="AM11" s="46"/>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46"/>
-      <c r="AR11" s="46"/>
-      <c r="AS11" s="46"/>
-      <c r="AT11" s="46"/>
-      <c r="AU11" s="46"/>
-      <c r="AV11" s="46"/>
-      <c r="AW11" s="46"/>
-      <c r="AX11" s="46"/>
-      <c r="AY11" s="46"/>
-      <c r="AZ11" s="46"/>
-      <c r="BA11" s="46"/>
-      <c r="BB11" s="46"/>
-      <c r="BC11" s="46"/>
-      <c r="BD11" s="46"/>
-      <c r="BE11" s="46"/>
-      <c r="BF11" s="46"/>
-      <c r="BG11" s="46"/>
-      <c r="BH11" s="46"/>
-      <c r="BI11" s="46"/>
-      <c r="BJ11" s="46"/>
-      <c r="BK11" s="46"/>
-      <c r="BL11" s="46"/>
-      <c r="BM11" s="47"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
       <c r="BN11" s="6"/>
       <c r="BO11" s="6"/>
       <c r="BP11" s="6"/>
@@ -4882,48 +4939,50 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
-      <c r="AP12" s="46"/>
-      <c r="AQ12" s="46"/>
-      <c r="AR12" s="46"/>
-      <c r="AS12" s="46"/>
-      <c r="AT12" s="46"/>
-      <c r="AU12" s="46"/>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
-      <c r="BB12" s="46"/>
-      <c r="BC12" s="46"/>
-      <c r="BD12" s="46"/>
-      <c r="BE12" s="46"/>
-      <c r="BF12" s="46"/>
-      <c r="BG12" s="46"/>
-      <c r="BH12" s="46"/>
-      <c r="BI12" s="46"/>
-      <c r="BJ12" s="46"/>
-      <c r="BK12" s="46"/>
-      <c r="BL12" s="46"/>
-      <c r="BM12" s="47"/>
+      <c r="X12" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="42"/>
+      <c r="BM12" s="43"/>
       <c r="BN12" s="6"/>
       <c r="BO12" s="6"/>
       <c r="BP12" s="6"/>
@@ -4947,7 +5006,7 @@
       <c r="CH12" s="6"/>
       <c r="CI12" s="7"/>
     </row>
-    <row r="13" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="13" spans="1:1024" ht="18" customHeight="1">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4970,48 +5029,48 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="49"/>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="49"/>
-      <c r="AX13" s="49"/>
-      <c r="AY13" s="49"/>
-      <c r="AZ13" s="49"/>
-      <c r="BA13" s="49"/>
-      <c r="BB13" s="49"/>
-      <c r="BC13" s="49"/>
-      <c r="BD13" s="49"/>
-      <c r="BE13" s="49"/>
-      <c r="BF13" s="49"/>
-      <c r="BG13" s="49"/>
-      <c r="BH13" s="49"/>
-      <c r="BI13" s="49"/>
-      <c r="BJ13" s="49"/>
-      <c r="BK13" s="49"/>
-      <c r="BL13" s="49"/>
-      <c r="BM13" s="50"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="45"/>
+      <c r="BE13" s="45"/>
+      <c r="BF13" s="45"/>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="45"/>
+      <c r="BI13" s="45"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="45"/>
+      <c r="BL13" s="45"/>
+      <c r="BM13" s="46"/>
       <c r="BN13" s="6"/>
       <c r="BO13" s="6"/>
       <c r="BP13" s="6"/>
@@ -5058,48 +5117,48 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="6"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="6"/>
-      <c r="BJ14" s="6"/>
-      <c r="BK14" s="6"/>
-      <c r="BL14" s="6"/>
-      <c r="BM14" s="6"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
+      <c r="BB14" s="45"/>
+      <c r="BC14" s="45"/>
+      <c r="BD14" s="45"/>
+      <c r="BE14" s="45"/>
+      <c r="BF14" s="45"/>
+      <c r="BG14" s="45"/>
+      <c r="BH14" s="45"/>
+      <c r="BI14" s="45"/>
+      <c r="BJ14" s="45"/>
+      <c r="BK14" s="45"/>
+      <c r="BL14" s="45"/>
+      <c r="BM14" s="46"/>
       <c r="BN14" s="6"/>
       <c r="BO14" s="6"/>
       <c r="BP14" s="6"/>
@@ -5123,91 +5182,89 @@
       <c r="CH14" s="6"/>
       <c r="CI14" s="7"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1">
+    <row r="15" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="51"/>
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="51"/>
-      <c r="BI15" s="51"/>
-      <c r="BJ15" s="51"/>
-      <c r="BK15" s="51"/>
-      <c r="BL15" s="51"/>
-      <c r="BM15" s="51"/>
-      <c r="BN15" s="51"/>
-      <c r="BO15" s="51"/>
-      <c r="BP15" s="51"/>
-      <c r="BQ15" s="51"/>
-      <c r="BR15" s="51"/>
-      <c r="BS15" s="51"/>
-      <c r="BT15" s="51"/>
-      <c r="BU15" s="51"/>
-      <c r="BV15" s="51"/>
-      <c r="BW15" s="51"/>
-      <c r="BX15" s="51"/>
-      <c r="BY15" s="51"/>
-      <c r="BZ15" s="51"/>
-      <c r="CA15" s="51"/>
-      <c r="CB15" s="51"/>
-      <c r="CC15" s="51"/>
-      <c r="CD15" s="51"/>
-      <c r="CE15" s="51"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="48"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="48"/>
+      <c r="BC15" s="48"/>
+      <c r="BD15" s="48"/>
+      <c r="BE15" s="48"/>
+      <c r="BF15" s="48"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="48"/>
+      <c r="BI15" s="48"/>
+      <c r="BJ15" s="48"/>
+      <c r="BK15" s="48"/>
+      <c r="BL15" s="48"/>
+      <c r="BM15" s="49"/>
+      <c r="BN15" s="6"/>
+      <c r="BO15" s="6"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="6"/>
+      <c r="BR15" s="6"/>
+      <c r="BS15" s="6"/>
+      <c r="BT15" s="6"/>
+      <c r="BU15" s="6"/>
+      <c r="BV15" s="6"/>
+      <c r="BW15" s="6"/>
+      <c r="BX15" s="6"/>
+      <c r="BY15" s="6"/>
+      <c r="BZ15" s="6"/>
+      <c r="CA15" s="6"/>
+      <c r="CB15" s="6"/>
+      <c r="CC15" s="6"/>
+      <c r="CD15" s="6"/>
+      <c r="CE15" s="6"/>
       <c r="CF15" s="6"/>
       <c r="CG15" s="6"/>
       <c r="CH15" s="6"/>
@@ -5218,84 +5275,84 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="51"/>
-      <c r="BA16" s="51"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="51"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="51"/>
-      <c r="BF16" s="51"/>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
-      <c r="BJ16" s="51"/>
-      <c r="BK16" s="51"/>
-      <c r="BL16" s="51"/>
-      <c r="BM16" s="51"/>
-      <c r="BN16" s="51"/>
-      <c r="BO16" s="51"/>
-      <c r="BP16" s="51"/>
-      <c r="BQ16" s="51"/>
-      <c r="BR16" s="51"/>
-      <c r="BS16" s="51"/>
-      <c r="BT16" s="51"/>
-      <c r="BU16" s="51"/>
-      <c r="BV16" s="51"/>
-      <c r="BW16" s="51"/>
-      <c r="BX16" s="51"/>
-      <c r="BY16" s="51"/>
-      <c r="BZ16" s="51"/>
-      <c r="CA16" s="51"/>
-      <c r="CB16" s="51"/>
-      <c r="CC16" s="51"/>
-      <c r="CD16" s="51"/>
-      <c r="CE16" s="51"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="6"/>
+      <c r="BF16" s="6"/>
+      <c r="BG16" s="6"/>
+      <c r="BH16" s="6"/>
+      <c r="BI16" s="6"/>
+      <c r="BJ16" s="6"/>
+      <c r="BK16" s="6"/>
+      <c r="BL16" s="6"/>
+      <c r="BM16" s="6"/>
+      <c r="BN16" s="6"/>
+      <c r="BO16" s="6"/>
+      <c r="BP16" s="6"/>
+      <c r="BQ16" s="6"/>
+      <c r="BR16" s="6"/>
+      <c r="BS16" s="6"/>
+      <c r="BT16" s="6"/>
+      <c r="BU16" s="6"/>
+      <c r="BV16" s="6"/>
+      <c r="BW16" s="6"/>
+      <c r="BX16" s="6"/>
+      <c r="BY16" s="6"/>
+      <c r="BZ16" s="6"/>
+      <c r="CA16" s="6"/>
+      <c r="CB16" s="6"/>
+      <c r="CC16" s="6"/>
+      <c r="CD16" s="6"/>
+      <c r="CE16" s="6"/>
       <c r="CF16" s="6"/>
       <c r="CG16" s="6"/>
       <c r="CH16" s="6"/>
@@ -5306,84 +5363,86 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="51"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="51"/>
-      <c r="AZ17" s="51"/>
-      <c r="BA17" s="51"/>
-      <c r="BB17" s="51"/>
-      <c r="BC17" s="51"/>
-      <c r="BD17" s="51"/>
-      <c r="BE17" s="51"/>
-      <c r="BF17" s="51"/>
-      <c r="BG17" s="51"/>
-      <c r="BH17" s="51"/>
-      <c r="BI17" s="51"/>
-      <c r="BJ17" s="51"/>
-      <c r="BK17" s="51"/>
-      <c r="BL17" s="51"/>
-      <c r="BM17" s="51"/>
-      <c r="BN17" s="51"/>
-      <c r="BO17" s="51"/>
-      <c r="BP17" s="51"/>
-      <c r="BQ17" s="51"/>
-      <c r="BR17" s="51"/>
-      <c r="BS17" s="51"/>
-      <c r="BT17" s="51"/>
-      <c r="BU17" s="51"/>
-      <c r="BV17" s="51"/>
-      <c r="BW17" s="51"/>
-      <c r="BX17" s="51"/>
-      <c r="BY17" s="51"/>
-      <c r="BZ17" s="51"/>
-      <c r="CA17" s="51"/>
-      <c r="CB17" s="51"/>
-      <c r="CC17" s="51"/>
-      <c r="CD17" s="51"/>
-      <c r="CE17" s="51"/>
+      <c r="F17" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="50"/>
+      <c r="BG17" s="50"/>
+      <c r="BH17" s="50"/>
+      <c r="BI17" s="50"/>
+      <c r="BJ17" s="50"/>
+      <c r="BK17" s="50"/>
+      <c r="BL17" s="50"/>
+      <c r="BM17" s="50"/>
+      <c r="BN17" s="50"/>
+      <c r="BO17" s="50"/>
+      <c r="BP17" s="50"/>
+      <c r="BQ17" s="50"/>
+      <c r="BR17" s="50"/>
+      <c r="BS17" s="50"/>
+      <c r="BT17" s="50"/>
+      <c r="BU17" s="50"/>
+      <c r="BV17" s="50"/>
+      <c r="BW17" s="50"/>
+      <c r="BX17" s="50"/>
+      <c r="BY17" s="50"/>
+      <c r="BZ17" s="50"/>
+      <c r="CA17" s="50"/>
+      <c r="CB17" s="50"/>
+      <c r="CC17" s="50"/>
+      <c r="CD17" s="50"/>
+      <c r="CE17" s="50"/>
       <c r="CF17" s="6"/>
       <c r="CG17" s="6"/>
       <c r="CH17" s="6"/>
@@ -5394,84 +5453,84 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="51"/>
-      <c r="AZ18" s="51"/>
-      <c r="BA18" s="51"/>
-      <c r="BB18" s="51"/>
-      <c r="BC18" s="51"/>
-      <c r="BD18" s="51"/>
-      <c r="BE18" s="51"/>
-      <c r="BF18" s="51"/>
-      <c r="BG18" s="51"/>
-      <c r="BH18" s="51"/>
-      <c r="BI18" s="51"/>
-      <c r="BJ18" s="51"/>
-      <c r="BK18" s="51"/>
-      <c r="BL18" s="51"/>
-      <c r="BM18" s="51"/>
-      <c r="BN18" s="51"/>
-      <c r="BO18" s="51"/>
-      <c r="BP18" s="51"/>
-      <c r="BQ18" s="51"/>
-      <c r="BR18" s="51"/>
-      <c r="BS18" s="51"/>
-      <c r="BT18" s="51"/>
-      <c r="BU18" s="51"/>
-      <c r="BV18" s="51"/>
-      <c r="BW18" s="51"/>
-      <c r="BX18" s="51"/>
-      <c r="BY18" s="51"/>
-      <c r="BZ18" s="51"/>
-      <c r="CA18" s="51"/>
-      <c r="CB18" s="51"/>
-      <c r="CC18" s="51"/>
-      <c r="CD18" s="51"/>
-      <c r="CE18" s="51"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="50"/>
+      <c r="BP18" s="50"/>
+      <c r="BQ18" s="50"/>
+      <c r="BR18" s="50"/>
+      <c r="BS18" s="50"/>
+      <c r="BT18" s="50"/>
+      <c r="BU18" s="50"/>
+      <c r="BV18" s="50"/>
+      <c r="BW18" s="50"/>
+      <c r="BX18" s="50"/>
+      <c r="BY18" s="50"/>
+      <c r="BZ18" s="50"/>
+      <c r="CA18" s="50"/>
+      <c r="CB18" s="50"/>
+      <c r="CC18" s="50"/>
+      <c r="CD18" s="50"/>
+      <c r="CE18" s="50"/>
       <c r="CF18" s="6"/>
       <c r="CG18" s="6"/>
       <c r="CH18" s="6"/>
@@ -5482,172 +5541,172 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="6"/>
-      <c r="BH19" s="6"/>
-      <c r="BI19" s="6"/>
-      <c r="BJ19" s="6"/>
-      <c r="BK19" s="6"/>
-      <c r="BL19" s="6"/>
-      <c r="BM19" s="6"/>
-      <c r="BN19" s="6"/>
-      <c r="BO19" s="6"/>
-      <c r="BP19" s="6"/>
-      <c r="BQ19" s="6"/>
-      <c r="BR19" s="6"/>
-      <c r="BS19" s="6"/>
-      <c r="BT19" s="6"/>
-      <c r="BU19" s="6"/>
-      <c r="BV19" s="6"/>
-      <c r="BW19" s="6"/>
-      <c r="BX19" s="6"/>
-      <c r="BY19" s="6"/>
-      <c r="BZ19" s="6"/>
-      <c r="CA19" s="6"/>
-      <c r="CB19" s="6"/>
-      <c r="CC19" s="6"/>
-      <c r="CD19" s="6"/>
-      <c r="CE19" s="6"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="50"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="50"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="50"/>
+      <c r="BJ19" s="50"/>
+      <c r="BK19" s="50"/>
+      <c r="BL19" s="50"/>
+      <c r="BM19" s="50"/>
+      <c r="BN19" s="50"/>
+      <c r="BO19" s="50"/>
+      <c r="BP19" s="50"/>
+      <c r="BQ19" s="50"/>
+      <c r="BR19" s="50"/>
+      <c r="BS19" s="50"/>
+      <c r="BT19" s="50"/>
+      <c r="BU19" s="50"/>
+      <c r="BV19" s="50"/>
+      <c r="BW19" s="50"/>
+      <c r="BX19" s="50"/>
+      <c r="BY19" s="50"/>
+      <c r="BZ19" s="50"/>
+      <c r="CA19" s="50"/>
+      <c r="CB19" s="50"/>
+      <c r="CC19" s="50"/>
+      <c r="CD19" s="50"/>
+      <c r="CE19" s="50"/>
       <c r="CF19" s="6"/>
       <c r="CG19" s="6"/>
       <c r="CH19" s="6"/>
       <c r="CI19" s="7"/>
     </row>
-    <row r="20" spans="2:87" ht="18" customHeight="1">
+    <row r="20" spans="2:87" ht="103.5" customHeight="1">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-      <c r="BF20" s="6"/>
-      <c r="BG20" s="6"/>
-      <c r="BH20" s="6"/>
-      <c r="BI20" s="6"/>
-      <c r="BJ20" s="6"/>
-      <c r="BK20" s="6"/>
-      <c r="BL20" s="6"/>
-      <c r="BM20" s="6"/>
-      <c r="BN20" s="6"/>
-      <c r="BO20" s="6"/>
-      <c r="BP20" s="6"/>
-      <c r="BQ20" s="6"/>
-      <c r="BR20" s="6"/>
-      <c r="BS20" s="6"/>
-      <c r="BT20" s="6"/>
-      <c r="BU20" s="6"/>
-      <c r="BV20" s="6"/>
-      <c r="BW20" s="6"/>
-      <c r="BX20" s="6"/>
-      <c r="BY20" s="6"/>
-      <c r="BZ20" s="6"/>
-      <c r="CA20" s="6"/>
-      <c r="CB20" s="6"/>
-      <c r="CC20" s="6"/>
-      <c r="CD20" s="6"/>
-      <c r="CE20" s="6"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50"/>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="50"/>
+      <c r="AK20" s="50"/>
+      <c r="AL20" s="50"/>
+      <c r="AM20" s="50"/>
+      <c r="AN20" s="50"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="50"/>
+      <c r="AW20" s="50"/>
+      <c r="AX20" s="50"/>
+      <c r="AY20" s="50"/>
+      <c r="AZ20" s="50"/>
+      <c r="BA20" s="50"/>
+      <c r="BB20" s="50"/>
+      <c r="BC20" s="50"/>
+      <c r="BD20" s="50"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="50"/>
+      <c r="BG20" s="50"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="50"/>
+      <c r="BJ20" s="50"/>
+      <c r="BK20" s="50"/>
+      <c r="BL20" s="50"/>
+      <c r="BM20" s="50"/>
+      <c r="BN20" s="50"/>
+      <c r="BO20" s="50"/>
+      <c r="BP20" s="50"/>
+      <c r="BQ20" s="50"/>
+      <c r="BR20" s="50"/>
+      <c r="BS20" s="50"/>
+      <c r="BT20" s="50"/>
+      <c r="BU20" s="50"/>
+      <c r="BV20" s="50"/>
+      <c r="BW20" s="50"/>
+      <c r="BX20" s="50"/>
+      <c r="BY20" s="50"/>
+      <c r="BZ20" s="50"/>
+      <c r="CA20" s="50"/>
+      <c r="CB20" s="50"/>
+      <c r="CC20" s="50"/>
+      <c r="CD20" s="50"/>
+      <c r="CE20" s="50"/>
       <c r="CF20" s="6"/>
       <c r="CG20" s="6"/>
       <c r="CH20" s="6"/>
@@ -5658,86 +5717,84 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="52"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="52"/>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="52"/>
-      <c r="AZ21" s="52"/>
-      <c r="BA21" s="52"/>
-      <c r="BB21" s="52"/>
-      <c r="BC21" s="52"/>
-      <c r="BD21" s="52"/>
-      <c r="BE21" s="52"/>
-      <c r="BF21" s="52"/>
-      <c r="BG21" s="52"/>
-      <c r="BH21" s="52"/>
-      <c r="BI21" s="52"/>
-      <c r="BJ21" s="52"/>
-      <c r="BK21" s="52"/>
-      <c r="BL21" s="52"/>
-      <c r="BM21" s="52"/>
-      <c r="BN21" s="52"/>
-      <c r="BO21" s="52"/>
-      <c r="BP21" s="52"/>
-      <c r="BQ21" s="52"/>
-      <c r="BR21" s="52"/>
-      <c r="BS21" s="52"/>
-      <c r="BT21" s="52"/>
-      <c r="BU21" s="52"/>
-      <c r="BV21" s="52"/>
-      <c r="BW21" s="52"/>
-      <c r="BX21" s="52"/>
-      <c r="BY21" s="52"/>
-      <c r="BZ21" s="52"/>
-      <c r="CA21" s="52"/>
-      <c r="CB21" s="52"/>
-      <c r="CC21" s="52"/>
-      <c r="CD21" s="52"/>
-      <c r="CE21" s="52"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6"/>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="6"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6"/>
+      <c r="BD21" s="6"/>
+      <c r="BE21" s="6"/>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="6"/>
+      <c r="BH21" s="6"/>
+      <c r="BI21" s="6"/>
+      <c r="BJ21" s="6"/>
+      <c r="BK21" s="6"/>
+      <c r="BL21" s="6"/>
+      <c r="BM21" s="6"/>
+      <c r="BN21" s="6"/>
+      <c r="BO21" s="6"/>
+      <c r="BP21" s="6"/>
+      <c r="BQ21" s="6"/>
+      <c r="BR21" s="6"/>
+      <c r="BS21" s="6"/>
+      <c r="BT21" s="6"/>
+      <c r="BU21" s="6"/>
+      <c r="BV21" s="6"/>
+      <c r="BW21" s="6"/>
+      <c r="BX21" s="6"/>
+      <c r="BY21" s="6"/>
+      <c r="BZ21" s="6"/>
+      <c r="CA21" s="6"/>
+      <c r="CB21" s="6"/>
+      <c r="CC21" s="6"/>
+      <c r="CD21" s="6"/>
+      <c r="CE21" s="6"/>
       <c r="CF21" s="6"/>
       <c r="CG21" s="6"/>
       <c r="CH21" s="6"/>
@@ -5748,84 +5805,84 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="52"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="52"/>
-      <c r="AP22" s="52"/>
-      <c r="AQ22" s="52"/>
-      <c r="AR22" s="52"/>
-      <c r="AS22" s="52"/>
-      <c r="AT22" s="52"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="52"/>
-      <c r="AW22" s="52"/>
-      <c r="AX22" s="52"/>
-      <c r="AY22" s="52"/>
-      <c r="AZ22" s="52"/>
-      <c r="BA22" s="52"/>
-      <c r="BB22" s="52"/>
-      <c r="BC22" s="52"/>
-      <c r="BD22" s="52"/>
-      <c r="BE22" s="52"/>
-      <c r="BF22" s="52"/>
-      <c r="BG22" s="52"/>
-      <c r="BH22" s="52"/>
-      <c r="BI22" s="52"/>
-      <c r="BJ22" s="52"/>
-      <c r="BK22" s="52"/>
-      <c r="BL22" s="52"/>
-      <c r="BM22" s="52"/>
-      <c r="BN22" s="52"/>
-      <c r="BO22" s="52"/>
-      <c r="BP22" s="52"/>
-      <c r="BQ22" s="52"/>
-      <c r="BR22" s="52"/>
-      <c r="BS22" s="52"/>
-      <c r="BT22" s="52"/>
-      <c r="BU22" s="52"/>
-      <c r="BV22" s="52"/>
-      <c r="BW22" s="52"/>
-      <c r="BX22" s="52"/>
-      <c r="BY22" s="52"/>
-      <c r="BZ22" s="52"/>
-      <c r="CA22" s="52"/>
-      <c r="CB22" s="52"/>
-      <c r="CC22" s="52"/>
-      <c r="CD22" s="52"/>
-      <c r="CE22" s="52"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
+      <c r="BL22" s="6"/>
+      <c r="BM22" s="6"/>
+      <c r="BN22" s="6"/>
+      <c r="BO22" s="6"/>
+      <c r="BP22" s="6"/>
+      <c r="BQ22" s="6"/>
+      <c r="BR22" s="6"/>
+      <c r="BS22" s="6"/>
+      <c r="BT22" s="6"/>
+      <c r="BU22" s="6"/>
+      <c r="BV22" s="6"/>
+      <c r="BW22" s="6"/>
+      <c r="BX22" s="6"/>
+      <c r="BY22" s="6"/>
+      <c r="BZ22" s="6"/>
+      <c r="CA22" s="6"/>
+      <c r="CB22" s="6"/>
+      <c r="CC22" s="6"/>
+      <c r="CD22" s="6"/>
+      <c r="CE22" s="6"/>
       <c r="CF22" s="6"/>
       <c r="CG22" s="6"/>
       <c r="CH22" s="6"/>
@@ -5836,84 +5893,86 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="52"/>
-      <c r="AJ23" s="52"/>
-      <c r="AK23" s="52"/>
-      <c r="AL23" s="52"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="52"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="52"/>
-      <c r="AQ23" s="52"/>
-      <c r="AR23" s="52"/>
-      <c r="AS23" s="52"/>
-      <c r="AT23" s="52"/>
-      <c r="AU23" s="52"/>
-      <c r="AV23" s="52"/>
-      <c r="AW23" s="52"/>
-      <c r="AX23" s="52"/>
-      <c r="AY23" s="52"/>
-      <c r="AZ23" s="52"/>
-      <c r="BA23" s="52"/>
-      <c r="BB23" s="52"/>
-      <c r="BC23" s="52"/>
-      <c r="BD23" s="52"/>
-      <c r="BE23" s="52"/>
-      <c r="BF23" s="52"/>
-      <c r="BG23" s="52"/>
-      <c r="BH23" s="52"/>
-      <c r="BI23" s="52"/>
-      <c r="BJ23" s="52"/>
-      <c r="BK23" s="52"/>
-      <c r="BL23" s="52"/>
-      <c r="BM23" s="52"/>
-      <c r="BN23" s="52"/>
-      <c r="BO23" s="52"/>
-      <c r="BP23" s="52"/>
-      <c r="BQ23" s="52"/>
-      <c r="BR23" s="52"/>
-      <c r="BS23" s="52"/>
-      <c r="BT23" s="52"/>
-      <c r="BU23" s="52"/>
-      <c r="BV23" s="52"/>
-      <c r="BW23" s="52"/>
-      <c r="BX23" s="52"/>
-      <c r="BY23" s="52"/>
-      <c r="BZ23" s="52"/>
-      <c r="CA23" s="52"/>
-      <c r="CB23" s="52"/>
-      <c r="CC23" s="52"/>
-      <c r="CD23" s="52"/>
-      <c r="CE23" s="52"/>
+      <c r="F23" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="51"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
+      <c r="BI23" s="51"/>
+      <c r="BJ23" s="51"/>
+      <c r="BK23" s="51"/>
+      <c r="BL23" s="51"/>
+      <c r="BM23" s="51"/>
+      <c r="BN23" s="51"/>
+      <c r="BO23" s="51"/>
+      <c r="BP23" s="51"/>
+      <c r="BQ23" s="51"/>
+      <c r="BR23" s="51"/>
+      <c r="BS23" s="51"/>
+      <c r="BT23" s="51"/>
+      <c r="BU23" s="51"/>
+      <c r="BV23" s="51"/>
+      <c r="BW23" s="51"/>
+      <c r="BX23" s="51"/>
+      <c r="BY23" s="51"/>
+      <c r="BZ23" s="51"/>
+      <c r="CA23" s="51"/>
+      <c r="CB23" s="51"/>
+      <c r="CC23" s="51"/>
+      <c r="CD23" s="51"/>
+      <c r="CE23" s="51"/>
       <c r="CF23" s="6"/>
       <c r="CG23" s="6"/>
       <c r="CH23" s="6"/>
@@ -5924,84 +5983,84 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="52"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="52"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="AZ24" s="52"/>
-      <c r="BA24" s="52"/>
-      <c r="BB24" s="52"/>
-      <c r="BC24" s="52"/>
-      <c r="BD24" s="52"/>
-      <c r="BE24" s="52"/>
-      <c r="BF24" s="52"/>
-      <c r="BG24" s="52"/>
-      <c r="BH24" s="52"/>
-      <c r="BI24" s="52"/>
-      <c r="BJ24" s="52"/>
-      <c r="BK24" s="52"/>
-      <c r="BL24" s="52"/>
-      <c r="BM24" s="52"/>
-      <c r="BN24" s="52"/>
-      <c r="BO24" s="52"/>
-      <c r="BP24" s="52"/>
-      <c r="BQ24" s="52"/>
-      <c r="BR24" s="52"/>
-      <c r="BS24" s="52"/>
-      <c r="BT24" s="52"/>
-      <c r="BU24" s="52"/>
-      <c r="BV24" s="52"/>
-      <c r="BW24" s="52"/>
-      <c r="BX24" s="52"/>
-      <c r="BY24" s="52"/>
-      <c r="BZ24" s="52"/>
-      <c r="CA24" s="52"/>
-      <c r="CB24" s="52"/>
-      <c r="CC24" s="52"/>
-      <c r="CD24" s="52"/>
-      <c r="CE24" s="52"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="51"/>
+      <c r="AV24" s="51"/>
+      <c r="AW24" s="51"/>
+      <c r="AX24" s="51"/>
+      <c r="AY24" s="51"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="51"/>
+      <c r="BB24" s="51"/>
+      <c r="BC24" s="51"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
+      <c r="BH24" s="51"/>
+      <c r="BI24" s="51"/>
+      <c r="BJ24" s="51"/>
+      <c r="BK24" s="51"/>
+      <c r="BL24" s="51"/>
+      <c r="BM24" s="51"/>
+      <c r="BN24" s="51"/>
+      <c r="BO24" s="51"/>
+      <c r="BP24" s="51"/>
+      <c r="BQ24" s="51"/>
+      <c r="BR24" s="51"/>
+      <c r="BS24" s="51"/>
+      <c r="BT24" s="51"/>
+      <c r="BU24" s="51"/>
+      <c r="BV24" s="51"/>
+      <c r="BW24" s="51"/>
+      <c r="BX24" s="51"/>
+      <c r="BY24" s="51"/>
+      <c r="BZ24" s="51"/>
+      <c r="CA24" s="51"/>
+      <c r="CB24" s="51"/>
+      <c r="CC24" s="51"/>
+      <c r="CD24" s="51"/>
+      <c r="CE24" s="51"/>
       <c r="CF24" s="6"/>
       <c r="CG24" s="6"/>
       <c r="CH24" s="6"/>
@@ -6012,172 +6071,172 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
-      <c r="AQ25" s="6"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="6"/>
-      <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="6"/>
-      <c r="BA25" s="6"/>
-      <c r="BB25" s="6"/>
-      <c r="BC25" s="6"/>
-      <c r="BD25" s="6"/>
-      <c r="BE25" s="6"/>
-      <c r="BF25" s="6"/>
-      <c r="BG25" s="6"/>
-      <c r="BH25" s="6"/>
-      <c r="BI25" s="6"/>
-      <c r="BJ25" s="6"/>
-      <c r="BK25" s="6"/>
-      <c r="BL25" s="6"/>
-      <c r="BM25" s="6"/>
-      <c r="BN25" s="6"/>
-      <c r="BO25" s="6"/>
-      <c r="BP25" s="6"/>
-      <c r="BQ25" s="6"/>
-      <c r="BR25" s="6"/>
-      <c r="BS25" s="6"/>
-      <c r="BT25" s="6"/>
-      <c r="BU25" s="6"/>
-      <c r="BV25" s="6"/>
-      <c r="BW25" s="6"/>
-      <c r="BX25" s="6"/>
-      <c r="BY25" s="6"/>
-      <c r="BZ25" s="6"/>
-      <c r="CA25" s="6"/>
-      <c r="CB25" s="6"/>
-      <c r="CC25" s="6"/>
-      <c r="CD25" s="6"/>
-      <c r="CE25" s="6"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="51"/>
+      <c r="AP25" s="51"/>
+      <c r="AQ25" s="51"/>
+      <c r="AR25" s="51"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="51"/>
+      <c r="AU25" s="51"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
+      <c r="BB25" s="51"/>
+      <c r="BC25" s="51"/>
+      <c r="BD25" s="51"/>
+      <c r="BE25" s="51"/>
+      <c r="BF25" s="51"/>
+      <c r="BG25" s="51"/>
+      <c r="BH25" s="51"/>
+      <c r="BI25" s="51"/>
+      <c r="BJ25" s="51"/>
+      <c r="BK25" s="51"/>
+      <c r="BL25" s="51"/>
+      <c r="BM25" s="51"/>
+      <c r="BN25" s="51"/>
+      <c r="BO25" s="51"/>
+      <c r="BP25" s="51"/>
+      <c r="BQ25" s="51"/>
+      <c r="BR25" s="51"/>
+      <c r="BS25" s="51"/>
+      <c r="BT25" s="51"/>
+      <c r="BU25" s="51"/>
+      <c r="BV25" s="51"/>
+      <c r="BW25" s="51"/>
+      <c r="BX25" s="51"/>
+      <c r="BY25" s="51"/>
+      <c r="BZ25" s="51"/>
+      <c r="CA25" s="51"/>
+      <c r="CB25" s="51"/>
+      <c r="CC25" s="51"/>
+      <c r="CD25" s="51"/>
+      <c r="CE25" s="51"/>
       <c r="CF25" s="6"/>
       <c r="CG25" s="6"/>
       <c r="CH25" s="6"/>
       <c r="CI25" s="7"/>
     </row>
-    <row r="26" spans="2:87" ht="18" customHeight="1">
+    <row r="26" spans="2:87" ht="105" customHeight="1">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
-      <c r="AV26" s="6"/>
-      <c r="AW26" s="6"/>
-      <c r="AX26" s="6"/>
-      <c r="AY26" s="6"/>
-      <c r="AZ26" s="6"/>
-      <c r="BA26" s="6"/>
-      <c r="BB26" s="6"/>
-      <c r="BC26" s="6"/>
-      <c r="BD26" s="6"/>
-      <c r="BE26" s="6"/>
-      <c r="BF26" s="6"/>
-      <c r="BG26" s="6"/>
-      <c r="BH26" s="6"/>
-      <c r="BI26" s="6"/>
-      <c r="BJ26" s="6"/>
-      <c r="BK26" s="6"/>
-      <c r="BL26" s="6"/>
-      <c r="BM26" s="6"/>
-      <c r="BN26" s="6"/>
-      <c r="BO26" s="6"/>
-      <c r="BP26" s="6"/>
-      <c r="BQ26" s="6"/>
-      <c r="BR26" s="6"/>
-      <c r="BS26" s="6"/>
-      <c r="BT26" s="6"/>
-      <c r="BU26" s="6"/>
-      <c r="BV26" s="6"/>
-      <c r="BW26" s="6"/>
-      <c r="BX26" s="6"/>
-      <c r="BY26" s="6"/>
-      <c r="BZ26" s="6"/>
-      <c r="CA26" s="6"/>
-      <c r="CB26" s="6"/>
-      <c r="CC26" s="6"/>
-      <c r="CD26" s="6"/>
-      <c r="CE26" s="6"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="51"/>
+      <c r="BB26" s="51"/>
+      <c r="BC26" s="51"/>
+      <c r="BD26" s="51"/>
+      <c r="BE26" s="51"/>
+      <c r="BF26" s="51"/>
+      <c r="BG26" s="51"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="51"/>
+      <c r="BJ26" s="51"/>
+      <c r="BK26" s="51"/>
+      <c r="BL26" s="51"/>
+      <c r="BM26" s="51"/>
+      <c r="BN26" s="51"/>
+      <c r="BO26" s="51"/>
+      <c r="BP26" s="51"/>
+      <c r="BQ26" s="51"/>
+      <c r="BR26" s="51"/>
+      <c r="BS26" s="51"/>
+      <c r="BT26" s="51"/>
+      <c r="BU26" s="51"/>
+      <c r="BV26" s="51"/>
+      <c r="BW26" s="51"/>
+      <c r="BX26" s="51"/>
+      <c r="BY26" s="51"/>
+      <c r="BZ26" s="51"/>
+      <c r="CA26" s="51"/>
+      <c r="CB26" s="51"/>
+      <c r="CC26" s="51"/>
+      <c r="CD26" s="51"/>
+      <c r="CE26" s="51"/>
       <c r="CF26" s="6"/>
       <c r="CG26" s="6"/>
       <c r="CH26" s="6"/>
@@ -6188,86 +6247,84 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52"/>
-      <c r="AL27" s="52"/>
-      <c r="AM27" s="52"/>
-      <c r="AN27" s="52"/>
-      <c r="AO27" s="52"/>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="52"/>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="AZ27" s="52"/>
-      <c r="BA27" s="52"/>
-      <c r="BB27" s="52"/>
-      <c r="BC27" s="52"/>
-      <c r="BD27" s="52"/>
-      <c r="BE27" s="52"/>
-      <c r="BF27" s="52"/>
-      <c r="BG27" s="52"/>
-      <c r="BH27" s="52"/>
-      <c r="BI27" s="52"/>
-      <c r="BJ27" s="52"/>
-      <c r="BK27" s="52"/>
-      <c r="BL27" s="52"/>
-      <c r="BM27" s="52"/>
-      <c r="BN27" s="52"/>
-      <c r="BO27" s="52"/>
-      <c r="BP27" s="52"/>
-      <c r="BQ27" s="52"/>
-      <c r="BR27" s="52"/>
-      <c r="BS27" s="52"/>
-      <c r="BT27" s="52"/>
-      <c r="BU27" s="52"/>
-      <c r="BV27" s="52"/>
-      <c r="BW27" s="52"/>
-      <c r="BX27" s="52"/>
-      <c r="BY27" s="52"/>
-      <c r="BZ27" s="52"/>
-      <c r="CA27" s="52"/>
-      <c r="CB27" s="52"/>
-      <c r="CC27" s="52"/>
-      <c r="CD27" s="52"/>
-      <c r="CE27" s="52"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="6"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6"/>
+      <c r="AY27" s="6"/>
+      <c r="AZ27" s="6"/>
+      <c r="BA27" s="6"/>
+      <c r="BB27" s="6"/>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
+      <c r="BE27" s="6"/>
+      <c r="BF27" s="6"/>
+      <c r="BG27" s="6"/>
+      <c r="BH27" s="6"/>
+      <c r="BI27" s="6"/>
+      <c r="BJ27" s="6"/>
+      <c r="BK27" s="6"/>
+      <c r="BL27" s="6"/>
+      <c r="BM27" s="6"/>
+      <c r="BN27" s="6"/>
+      <c r="BO27" s="6"/>
+      <c r="BP27" s="6"/>
+      <c r="BQ27" s="6"/>
+      <c r="BR27" s="6"/>
+      <c r="BS27" s="6"/>
+      <c r="BT27" s="6"/>
+      <c r="BU27" s="6"/>
+      <c r="BV27" s="6"/>
+      <c r="BW27" s="6"/>
+      <c r="BX27" s="6"/>
+      <c r="BY27" s="6"/>
+      <c r="BZ27" s="6"/>
+      <c r="CA27" s="6"/>
+      <c r="CB27" s="6"/>
+      <c r="CC27" s="6"/>
+      <c r="CD27" s="6"/>
+      <c r="CE27" s="6"/>
       <c r="CF27" s="6"/>
       <c r="CG27" s="6"/>
       <c r="CH27" s="6"/>
@@ -6278,410 +6335,589 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="52"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="52"/>
-      <c r="AO28" s="52"/>
-      <c r="AP28" s="52"/>
-      <c r="AQ28" s="52"/>
-      <c r="AR28" s="52"/>
-      <c r="AS28" s="52"/>
-      <c r="AT28" s="52"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="52"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="AZ28" s="52"/>
-      <c r="BA28" s="52"/>
-      <c r="BB28" s="52"/>
-      <c r="BC28" s="52"/>
-      <c r="BD28" s="52"/>
-      <c r="BE28" s="52"/>
-      <c r="BF28" s="52"/>
-      <c r="BG28" s="52"/>
-      <c r="BH28" s="52"/>
-      <c r="BI28" s="52"/>
-      <c r="BJ28" s="52"/>
-      <c r="BK28" s="52"/>
-      <c r="BL28" s="52"/>
-      <c r="BM28" s="52"/>
-      <c r="BN28" s="52"/>
-      <c r="BO28" s="52"/>
-      <c r="BP28" s="52"/>
-      <c r="BQ28" s="52"/>
-      <c r="BR28" s="52"/>
-      <c r="BS28" s="52"/>
-      <c r="BT28" s="52"/>
-      <c r="BU28" s="52"/>
-      <c r="BV28" s="52"/>
-      <c r="BW28" s="52"/>
-      <c r="BX28" s="52"/>
-      <c r="BY28" s="52"/>
-      <c r="BZ28" s="52"/>
-      <c r="CA28" s="52"/>
-      <c r="CB28" s="52"/>
-      <c r="CC28" s="52"/>
-      <c r="CD28" s="52"/>
-      <c r="CE28" s="52"/>
-      <c r="CF28" s="5"/>
-      <c r="CG28" s="5"/>
-      <c r="CH28" s="5"/>
-      <c r="CI28" s="8"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="6"/>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="6"/>
+      <c r="BA28" s="6"/>
+      <c r="BB28" s="6"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BE28" s="6"/>
+      <c r="BF28" s="6"/>
+      <c r="BG28" s="6"/>
+      <c r="BH28" s="6"/>
+      <c r="BI28" s="6"/>
+      <c r="BJ28" s="6"/>
+      <c r="BK28" s="6"/>
+      <c r="BL28" s="6"/>
+      <c r="BM28" s="6"/>
+      <c r="BN28" s="6"/>
+      <c r="BO28" s="6"/>
+      <c r="BP28" s="6"/>
+      <c r="BQ28" s="6"/>
+      <c r="BR28" s="6"/>
+      <c r="BS28" s="6"/>
+      <c r="BT28" s="6"/>
+      <c r="BU28" s="6"/>
+      <c r="BV28" s="6"/>
+      <c r="BW28" s="6"/>
+      <c r="BX28" s="6"/>
+      <c r="BY28" s="6"/>
+      <c r="BZ28" s="6"/>
+      <c r="CA28" s="6"/>
+      <c r="CB28" s="6"/>
+      <c r="CC28" s="6"/>
+      <c r="CD28" s="6"/>
+      <c r="CE28" s="6"/>
+      <c r="CF28" s="6"/>
+      <c r="CG28" s="6"/>
+      <c r="CH28" s="6"/>
+      <c r="CI28" s="7"/>
     </row>
     <row r="29" spans="2:87" ht="18" customHeight="1">
       <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="52"/>
-      <c r="AL29" s="52"/>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="52"/>
-      <c r="AO29" s="52"/>
-      <c r="AP29" s="52"/>
-      <c r="AQ29" s="52"/>
-      <c r="AR29" s="52"/>
-      <c r="AS29" s="52"/>
-      <c r="AT29" s="52"/>
-      <c r="AU29" s="52"/>
-      <c r="AV29" s="52"/>
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="52"/>
-      <c r="AY29" s="52"/>
-      <c r="AZ29" s="52"/>
-      <c r="BA29" s="52"/>
-      <c r="BB29" s="52"/>
-      <c r="BC29" s="52"/>
-      <c r="BD29" s="52"/>
-      <c r="BE29" s="52"/>
-      <c r="BF29" s="52"/>
-      <c r="BG29" s="52"/>
-      <c r="BH29" s="52"/>
-      <c r="BI29" s="52"/>
-      <c r="BJ29" s="52"/>
-      <c r="BK29" s="52"/>
-      <c r="BL29" s="52"/>
-      <c r="BM29" s="52"/>
-      <c r="BN29" s="52"/>
-      <c r="BO29" s="52"/>
-      <c r="BP29" s="52"/>
-      <c r="BQ29" s="52"/>
-      <c r="BR29" s="52"/>
-      <c r="BS29" s="52"/>
-      <c r="BT29" s="52"/>
-      <c r="BU29" s="52"/>
-      <c r="BV29" s="52"/>
-      <c r="BW29" s="52"/>
-      <c r="BX29" s="52"/>
-      <c r="BY29" s="52"/>
-      <c r="BZ29" s="52"/>
-      <c r="CA29" s="52"/>
-      <c r="CB29" s="52"/>
-      <c r="CC29" s="52"/>
-      <c r="CD29" s="52"/>
-      <c r="CE29" s="52"/>
-      <c r="CF29" s="5"/>
-      <c r="CG29" s="5"/>
-      <c r="CH29" s="5"/>
-      <c r="CI29" s="8"/>
+      <c r="F29" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="51"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="51"/>
+      <c r="AU29" s="51"/>
+      <c r="AV29" s="51"/>
+      <c r="AW29" s="51"/>
+      <c r="AX29" s="51"/>
+      <c r="AY29" s="51"/>
+      <c r="AZ29" s="51"/>
+      <c r="BA29" s="51"/>
+      <c r="BB29" s="51"/>
+      <c r="BC29" s="51"/>
+      <c r="BD29" s="51"/>
+      <c r="BE29" s="51"/>
+      <c r="BF29" s="51"/>
+      <c r="BG29" s="51"/>
+      <c r="BH29" s="51"/>
+      <c r="BI29" s="51"/>
+      <c r="BJ29" s="51"/>
+      <c r="BK29" s="51"/>
+      <c r="BL29" s="51"/>
+      <c r="BM29" s="51"/>
+      <c r="BN29" s="51"/>
+      <c r="BO29" s="51"/>
+      <c r="BP29" s="51"/>
+      <c r="BQ29" s="51"/>
+      <c r="BR29" s="51"/>
+      <c r="BS29" s="51"/>
+      <c r="BT29" s="51"/>
+      <c r="BU29" s="51"/>
+      <c r="BV29" s="51"/>
+      <c r="BW29" s="51"/>
+      <c r="BX29" s="51"/>
+      <c r="BY29" s="51"/>
+      <c r="BZ29" s="51"/>
+      <c r="CA29" s="51"/>
+      <c r="CB29" s="51"/>
+      <c r="CC29" s="51"/>
+      <c r="CD29" s="51"/>
+      <c r="CE29" s="51"/>
+      <c r="CF29" s="6"/>
+      <c r="CG29" s="6"/>
+      <c r="CH29" s="6"/>
+      <c r="CI29" s="7"/>
     </row>
     <row r="30" spans="2:87" ht="18" customHeight="1">
       <c r="B30" s="4"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="52"/>
-      <c r="AL30" s="52"/>
-      <c r="AM30" s="52"/>
-      <c r="AN30" s="52"/>
-      <c r="AO30" s="52"/>
-      <c r="AP30" s="52"/>
-      <c r="AQ30" s="52"/>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="52"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="52"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="52"/>
-      <c r="AY30" s="52"/>
-      <c r="AZ30" s="52"/>
-      <c r="BA30" s="52"/>
-      <c r="BB30" s="52"/>
-      <c r="BC30" s="52"/>
-      <c r="BD30" s="52"/>
-      <c r="BE30" s="52"/>
-      <c r="BF30" s="52"/>
-      <c r="BG30" s="52"/>
-      <c r="BH30" s="52"/>
-      <c r="BI30" s="52"/>
-      <c r="BJ30" s="52"/>
-      <c r="BK30" s="52"/>
-      <c r="BL30" s="52"/>
-      <c r="BM30" s="52"/>
-      <c r="BN30" s="52"/>
-      <c r="BO30" s="52"/>
-      <c r="BP30" s="52"/>
-      <c r="BQ30" s="52"/>
-      <c r="BR30" s="52"/>
-      <c r="BS30" s="52"/>
-      <c r="BT30" s="52"/>
-      <c r="BU30" s="52"/>
-      <c r="BV30" s="52"/>
-      <c r="BW30" s="52"/>
-      <c r="BX30" s="52"/>
-      <c r="BY30" s="52"/>
-      <c r="BZ30" s="52"/>
-      <c r="CA30" s="52"/>
-      <c r="CB30" s="52"/>
-      <c r="CC30" s="52"/>
-      <c r="CD30" s="52"/>
-      <c r="CE30" s="52"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
+      <c r="AT30" s="51"/>
+      <c r="AU30" s="51"/>
+      <c r="AV30" s="51"/>
+      <c r="AW30" s="51"/>
+      <c r="AX30" s="51"/>
+      <c r="AY30" s="51"/>
+      <c r="AZ30" s="51"/>
+      <c r="BA30" s="51"/>
+      <c r="BB30" s="51"/>
+      <c r="BC30" s="51"/>
+      <c r="BD30" s="51"/>
+      <c r="BE30" s="51"/>
+      <c r="BF30" s="51"/>
+      <c r="BG30" s="51"/>
+      <c r="BH30" s="51"/>
+      <c r="BI30" s="51"/>
+      <c r="BJ30" s="51"/>
+      <c r="BK30" s="51"/>
+      <c r="BL30" s="51"/>
+      <c r="BM30" s="51"/>
+      <c r="BN30" s="51"/>
+      <c r="BO30" s="51"/>
+      <c r="BP30" s="51"/>
+      <c r="BQ30" s="51"/>
+      <c r="BR30" s="51"/>
+      <c r="BS30" s="51"/>
+      <c r="BT30" s="51"/>
+      <c r="BU30" s="51"/>
+      <c r="BV30" s="51"/>
+      <c r="BW30" s="51"/>
+      <c r="BX30" s="51"/>
+      <c r="BY30" s="51"/>
+      <c r="BZ30" s="51"/>
+      <c r="CA30" s="51"/>
+      <c r="CB30" s="51"/>
+      <c r="CC30" s="51"/>
+      <c r="CD30" s="51"/>
+      <c r="CE30" s="51"/>
       <c r="CF30" s="5"/>
       <c r="CG30" s="5"/>
       <c r="CH30" s="5"/>
       <c r="CI30" s="8"/>
     </row>
-    <row r="31" spans="2:87" ht="18.75" thickBot="1">
+    <row r="31" spans="2:87" ht="18" customHeight="1">
       <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
+      <c r="AO31" s="51"/>
+      <c r="AP31" s="51"/>
+      <c r="AQ31" s="51"/>
+      <c r="AR31" s="51"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="51"/>
+      <c r="AV31" s="51"/>
+      <c r="AW31" s="51"/>
+      <c r="AX31" s="51"/>
+      <c r="AY31" s="51"/>
+      <c r="AZ31" s="51"/>
+      <c r="BA31" s="51"/>
+      <c r="BB31" s="51"/>
+      <c r="BC31" s="51"/>
+      <c r="BD31" s="51"/>
+      <c r="BE31" s="51"/>
+      <c r="BF31" s="51"/>
+      <c r="BG31" s="51"/>
+      <c r="BH31" s="51"/>
+      <c r="BI31" s="51"/>
+      <c r="BJ31" s="51"/>
+      <c r="BK31" s="51"/>
+      <c r="BL31" s="51"/>
+      <c r="BM31" s="51"/>
+      <c r="BN31" s="51"/>
+      <c r="BO31" s="51"/>
+      <c r="BP31" s="51"/>
+      <c r="BQ31" s="51"/>
+      <c r="BR31" s="51"/>
+      <c r="BS31" s="51"/>
+      <c r="BT31" s="51"/>
+      <c r="BU31" s="51"/>
+      <c r="BV31" s="51"/>
+      <c r="BW31" s="51"/>
+      <c r="BX31" s="51"/>
+      <c r="BY31" s="51"/>
+      <c r="BZ31" s="51"/>
+      <c r="CA31" s="51"/>
+      <c r="CB31" s="51"/>
+      <c r="CC31" s="51"/>
+      <c r="CD31" s="51"/>
+      <c r="CE31" s="51"/>
+      <c r="CF31" s="5"/>
+      <c r="CG31" s="5"/>
+      <c r="CH31" s="5"/>
       <c r="CI31" s="8"/>
     </row>
-    <row r="32" spans="2:87">
+    <row r="32" spans="2:87" ht="105" customHeight="1">
       <c r="B32" s="4"/>
-      <c r="BO32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="BP32" s="35"/>
-      <c r="BQ32" s="35"/>
-      <c r="BR32" s="35"/>
-      <c r="BS32" s="35"/>
-      <c r="BT32" s="35"/>
-      <c r="BU32" s="35"/>
-      <c r="BV32" s="35"/>
-      <c r="BW32" s="35"/>
-      <c r="BX32" s="35"/>
-      <c r="BY32" s="35"/>
-      <c r="BZ32" s="35"/>
-      <c r="CA32" s="35"/>
-      <c r="CB32" s="35"/>
-      <c r="CC32" s="35"/>
-      <c r="CD32" s="35"/>
-      <c r="CE32" s="36"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="51"/>
+      <c r="AV32" s="51"/>
+      <c r="AW32" s="51"/>
+      <c r="AX32" s="51"/>
+      <c r="AY32" s="51"/>
+      <c r="AZ32" s="51"/>
+      <c r="BA32" s="51"/>
+      <c r="BB32" s="51"/>
+      <c r="BC32" s="51"/>
+      <c r="BD32" s="51"/>
+      <c r="BE32" s="51"/>
+      <c r="BF32" s="51"/>
+      <c r="BG32" s="51"/>
+      <c r="BH32" s="51"/>
+      <c r="BI32" s="51"/>
+      <c r="BJ32" s="51"/>
+      <c r="BK32" s="51"/>
+      <c r="BL32" s="51"/>
+      <c r="BM32" s="51"/>
+      <c r="BN32" s="51"/>
+      <c r="BO32" s="51"/>
+      <c r="BP32" s="51"/>
+      <c r="BQ32" s="51"/>
+      <c r="BR32" s="51"/>
+      <c r="BS32" s="51"/>
+      <c r="BT32" s="51"/>
+      <c r="BU32" s="51"/>
+      <c r="BV32" s="51"/>
+      <c r="BW32" s="51"/>
+      <c r="BX32" s="51"/>
+      <c r="BY32" s="51"/>
+      <c r="BZ32" s="51"/>
+      <c r="CA32" s="51"/>
+      <c r="CB32" s="51"/>
+      <c r="CC32" s="51"/>
+      <c r="CD32" s="51"/>
+      <c r="CE32" s="51"/>
+      <c r="CF32" s="5"/>
+      <c r="CG32" s="5"/>
+      <c r="CH32" s="5"/>
       <c r="CI32" s="8"/>
     </row>
     <row r="33" spans="2:87" ht="18.75" thickBot="1">
       <c r="B33" s="4"/>
-      <c r="BO33" s="37"/>
-      <c r="BP33" s="38"/>
-      <c r="BQ33" s="38"/>
-      <c r="BR33" s="38"/>
-      <c r="BS33" s="38"/>
-      <c r="BT33" s="38"/>
-      <c r="BU33" s="38"/>
-      <c r="BV33" s="38"/>
-      <c r="BW33" s="38"/>
-      <c r="BX33" s="38"/>
-      <c r="BY33" s="38"/>
-      <c r="BZ33" s="38"/>
-      <c r="CA33" s="38"/>
-      <c r="CB33" s="38"/>
-      <c r="CC33" s="38"/>
-      <c r="CD33" s="38"/>
-      <c r="CE33" s="39"/>
       <c r="CI33" s="8"/>
     </row>
-    <row r="34" spans="2:87" ht="18" customHeight="1" thickBot="1">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="12"/>
-      <c r="AO34" s="12"/>
-      <c r="AP34" s="12"/>
-      <c r="AQ34" s="12"/>
-      <c r="AR34" s="12"/>
-      <c r="AS34" s="12"/>
-      <c r="AT34" s="12"/>
-      <c r="AU34" s="12"/>
-      <c r="AV34" s="12"/>
-      <c r="AW34" s="12"/>
-      <c r="AX34" s="12"/>
-      <c r="AY34" s="12"/>
-      <c r="AZ34" s="12"/>
-      <c r="BA34" s="12"/>
-      <c r="BB34" s="12"/>
-      <c r="BC34" s="12"/>
-      <c r="BD34" s="12"/>
-      <c r="BE34" s="12"/>
-      <c r="BF34" s="12"/>
-      <c r="BG34" s="12"/>
-      <c r="BH34" s="12"/>
-      <c r="BI34" s="12"/>
-      <c r="BJ34" s="12"/>
-      <c r="BK34" s="12"/>
-      <c r="BL34" s="12"/>
-      <c r="BM34" s="12"/>
-      <c r="BN34" s="12"/>
-      <c r="BO34" s="12"/>
-      <c r="BP34" s="12"/>
-      <c r="BQ34" s="12"/>
-      <c r="BR34" s="12"/>
-      <c r="BS34" s="12"/>
-      <c r="BT34" s="12"/>
-      <c r="BU34" s="12"/>
-      <c r="BV34" s="12"/>
-      <c r="BW34" s="12"/>
-      <c r="BX34" s="12"/>
-      <c r="BY34" s="12"/>
-      <c r="BZ34" s="12"/>
-      <c r="CA34" s="12"/>
-      <c r="CB34" s="12"/>
-      <c r="CC34" s="12"/>
-      <c r="CD34" s="12"/>
-      <c r="CE34" s="12"/>
-      <c r="CF34" s="12"/>
-      <c r="CG34" s="12"/>
-      <c r="CH34" s="12"/>
-      <c r="CI34" s="13"/>
+    <row r="34" spans="2:87">
+      <c r="B34" s="4"/>
+      <c r="BO34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="BP34" s="35"/>
+      <c r="BQ34" s="35"/>
+      <c r="BR34" s="35"/>
+      <c r="BS34" s="35"/>
+      <c r="BT34" s="35"/>
+      <c r="BU34" s="35"/>
+      <c r="BV34" s="35"/>
+      <c r="BW34" s="35"/>
+      <c r="BX34" s="35"/>
+      <c r="BY34" s="35"/>
+      <c r="BZ34" s="35"/>
+      <c r="CA34" s="35"/>
+      <c r="CB34" s="35"/>
+      <c r="CC34" s="35"/>
+      <c r="CD34" s="35"/>
+      <c r="CE34" s="36"/>
+      <c r="CI34" s="8"/>
     </row>
-    <row r="35" spans="2:87" ht="18.75" thickTop="1"/>
+    <row r="35" spans="2:87" ht="18.75" thickBot="1">
+      <c r="B35" s="4"/>
+      <c r="BO35" s="37"/>
+      <c r="BP35" s="38"/>
+      <c r="BQ35" s="38"/>
+      <c r="BR35" s="38"/>
+      <c r="BS35" s="38"/>
+      <c r="BT35" s="38"/>
+      <c r="BU35" s="38"/>
+      <c r="BV35" s="38"/>
+      <c r="BW35" s="38"/>
+      <c r="BX35" s="38"/>
+      <c r="BY35" s="38"/>
+      <c r="BZ35" s="38"/>
+      <c r="CA35" s="38"/>
+      <c r="CB35" s="38"/>
+      <c r="CC35" s="38"/>
+      <c r="CD35" s="38"/>
+      <c r="CE35" s="39"/>
+      <c r="CI35" s="8"/>
+    </row>
+    <row r="36" spans="2:87" ht="18" customHeight="1" thickBot="1">
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="12"/>
+      <c r="AZ36" s="12"/>
+      <c r="BA36" s="12"/>
+      <c r="BB36" s="12"/>
+      <c r="BC36" s="12"/>
+      <c r="BD36" s="12"/>
+      <c r="BE36" s="12"/>
+      <c r="BF36" s="12"/>
+      <c r="BG36" s="12"/>
+      <c r="BH36" s="12"/>
+      <c r="BI36" s="12"/>
+      <c r="BJ36" s="12"/>
+      <c r="BK36" s="12"/>
+      <c r="BL36" s="12"/>
+      <c r="BM36" s="12"/>
+      <c r="BN36" s="12"/>
+      <c r="BO36" s="12"/>
+      <c r="BP36" s="12"/>
+      <c r="BQ36" s="12"/>
+      <c r="BR36" s="12"/>
+      <c r="BS36" s="12"/>
+      <c r="BT36" s="12"/>
+      <c r="BU36" s="12"/>
+      <c r="BV36" s="12"/>
+      <c r="BW36" s="12"/>
+      <c r="BX36" s="12"/>
+      <c r="BY36" s="12"/>
+      <c r="BZ36" s="12"/>
+      <c r="CA36" s="12"/>
+      <c r="CB36" s="12"/>
+      <c r="CC36" s="12"/>
+      <c r="CD36" s="12"/>
+      <c r="CE36" s="12"/>
+      <c r="CF36" s="12"/>
+      <c r="CG36" s="12"/>
+      <c r="CH36" s="12"/>
+      <c r="CI36" s="13"/>
+    </row>
+    <row r="37" spans="2:87" ht="18.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="BO32:CE33"/>
-    <mergeCell ref="F7:CE8"/>
-    <mergeCell ref="X10:BM13"/>
-    <mergeCell ref="F15:CE18"/>
-    <mergeCell ref="F21:CE24"/>
-    <mergeCell ref="F27:CE30"/>
+  <mergeCells count="29">
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="BO34:CE35"/>
+    <mergeCell ref="F9:CE10"/>
+    <mergeCell ref="X12:BM15"/>
+    <mergeCell ref="F17:CE20"/>
+    <mergeCell ref="F23:CE26"/>
+    <mergeCell ref="F29:CE32"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -6720,8 +6956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:CI15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:CI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9085,2172 +9321,2195 @@
       <c r="CI5" s="19"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="134"/>
-      <c r="AA6" s="134"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
-      <c r="AK6" s="134"/>
-      <c r="AL6" s="134"/>
-      <c r="AM6" s="134"/>
-      <c r="AN6" s="134"/>
-      <c r="AO6" s="134"/>
-      <c r="AP6" s="134"/>
-      <c r="AQ6" s="134"/>
-      <c r="AR6" s="134"/>
-      <c r="AS6" s="134"/>
-      <c r="AT6" s="134"/>
-      <c r="AU6" s="134"/>
-      <c r="AV6" s="134"/>
-      <c r="AW6" s="134"/>
-      <c r="AX6" s="134"/>
-      <c r="AY6" s="134"/>
-      <c r="AZ6" s="134"/>
-      <c r="BA6" s="134"/>
-      <c r="BB6" s="134"/>
-      <c r="BC6" s="134"/>
-      <c r="BD6" s="134"/>
-      <c r="BE6" s="134"/>
-      <c r="BF6" s="134"/>
-      <c r="BG6" s="134"/>
-      <c r="BH6" s="134"/>
-      <c r="BI6" s="134"/>
-      <c r="BJ6" s="134"/>
-      <c r="BK6" s="134"/>
-      <c r="BL6" s="134"/>
-      <c r="BM6" s="134"/>
-      <c r="BN6" s="134"/>
-      <c r="BO6" s="134"/>
-      <c r="BP6" s="134"/>
-      <c r="BQ6" s="134"/>
-      <c r="BR6" s="134"/>
-      <c r="BS6" s="134"/>
-      <c r="BT6" s="134"/>
-      <c r="BU6" s="134"/>
-      <c r="BV6" s="134"/>
-      <c r="BW6" s="134"/>
-      <c r="BX6" s="134"/>
-      <c r="BY6" s="134"/>
-      <c r="BZ6" s="134"/>
-      <c r="CA6" s="134"/>
-      <c r="CB6" s="134"/>
-      <c r="CC6" s="134"/>
-      <c r="CD6" s="134"/>
-      <c r="CE6" s="134"/>
-      <c r="CF6" s="134"/>
-      <c r="CG6" s="134"/>
-      <c r="CH6" s="134"/>
-      <c r="CI6" s="134"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133"/>
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133"/>
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133"/>
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133"/>
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133"/>
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133"/>
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133"/>
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="133"/>
+      <c r="BJ6" s="133"/>
+      <c r="BK6" s="133"/>
+      <c r="BL6" s="133"/>
+      <c r="BM6" s="133"/>
+      <c r="BN6" s="133"/>
+      <c r="BO6" s="133"/>
+      <c r="BP6" s="133"/>
+      <c r="BQ6" s="133"/>
+      <c r="BR6" s="133"/>
+      <c r="BS6" s="133"/>
+      <c r="BT6" s="133"/>
+      <c r="BU6" s="133"/>
+      <c r="BV6" s="133"/>
+      <c r="BW6" s="133"/>
+      <c r="BX6" s="133"/>
+      <c r="BY6" s="133"/>
+      <c r="BZ6" s="133"/>
+      <c r="CA6" s="133"/>
+      <c r="CB6" s="133"/>
+      <c r="CC6" s="133"/>
+      <c r="CD6" s="133"/>
+      <c r="CE6" s="133"/>
+      <c r="CF6" s="133"/>
+      <c r="CG6" s="133"/>
+      <c r="CH6" s="133"/>
+      <c r="CI6" s="133"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="136" t="s">
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="137"/>
-      <c r="V7" s="137"/>
-      <c r="W7" s="137"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="136" t="s">
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="137"/>
+      <c r="Y7" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="137"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="136" t="s">
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="137"/>
+      <c r="AB7" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="137"/>
-      <c r="AD7" s="137"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="137"/>
-      <c r="AG7" s="138"/>
-      <c r="AH7" s="136" t="s">
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="136"/>
+      <c r="AF7" s="136"/>
+      <c r="AG7" s="137"/>
+      <c r="AH7" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="137"/>
-      <c r="AJ7" s="138"/>
-      <c r="AK7" s="136" t="s">
+      <c r="AI7" s="136"/>
+      <c r="AJ7" s="137"/>
+      <c r="AK7" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="137"/>
-      <c r="AM7" s="137"/>
-      <c r="AN7" s="137"/>
-      <c r="AO7" s="137"/>
-      <c r="AP7" s="137"/>
-      <c r="AQ7" s="137"/>
-      <c r="AR7" s="141"/>
-      <c r="AS7" s="141"/>
-      <c r="AT7" s="142"/>
-      <c r="AU7" s="139" t="s">
+      <c r="AL7" s="136"/>
+      <c r="AM7" s="136"/>
+      <c r="AN7" s="136"/>
+      <c r="AO7" s="136"/>
+      <c r="AP7" s="136"/>
+      <c r="AQ7" s="136"/>
+      <c r="AR7" s="140"/>
+      <c r="AS7" s="140"/>
+      <c r="AT7" s="141"/>
+      <c r="AU7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="139"/>
-      <c r="AW7" s="139"/>
-      <c r="AX7" s="139"/>
-      <c r="AY7" s="139"/>
-      <c r="AZ7" s="139"/>
-      <c r="BA7" s="139"/>
-      <c r="BB7" s="139"/>
-      <c r="BC7" s="139"/>
-      <c r="BD7" s="139"/>
-      <c r="BE7" s="139"/>
-      <c r="BF7" s="139"/>
-      <c r="BG7" s="139"/>
-      <c r="BH7" s="139"/>
-      <c r="BI7" s="139"/>
-      <c r="BJ7" s="139"/>
-      <c r="BK7" s="139"/>
-      <c r="BL7" s="139"/>
-      <c r="BM7" s="139"/>
-      <c r="BN7" s="139"/>
-      <c r="BO7" s="139"/>
-      <c r="BP7" s="139"/>
-      <c r="BQ7" s="140" t="s">
+      <c r="AV7" s="138"/>
+      <c r="AW7" s="138"/>
+      <c r="AX7" s="138"/>
+      <c r="AY7" s="138"/>
+      <c r="AZ7" s="138"/>
+      <c r="BA7" s="138"/>
+      <c r="BB7" s="138"/>
+      <c r="BC7" s="138"/>
+      <c r="BD7" s="138"/>
+      <c r="BE7" s="138"/>
+      <c r="BF7" s="138"/>
+      <c r="BG7" s="138"/>
+      <c r="BH7" s="138"/>
+      <c r="BI7" s="138"/>
+      <c r="BJ7" s="138"/>
+      <c r="BK7" s="138"/>
+      <c r="BL7" s="138"/>
+      <c r="BM7" s="138"/>
+      <c r="BN7" s="138"/>
+      <c r="BO7" s="138"/>
+      <c r="BP7" s="138"/>
+      <c r="BQ7" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="140"/>
-      <c r="BS7" s="140"/>
-      <c r="BT7" s="140"/>
-      <c r="BU7" s="140"/>
-      <c r="BV7" s="140"/>
-      <c r="BW7" s="140"/>
-      <c r="BX7" s="140"/>
-      <c r="BY7" s="140"/>
-      <c r="BZ7" s="140"/>
-      <c r="CA7" s="140"/>
-      <c r="CB7" s="140"/>
-      <c r="CC7" s="140"/>
-      <c r="CD7" s="140"/>
-      <c r="CE7" s="140"/>
-      <c r="CF7" s="140"/>
-      <c r="CG7" s="140"/>
-      <c r="CH7" s="140"/>
-      <c r="CI7" s="140"/>
+      <c r="BR7" s="139"/>
+      <c r="BS7" s="139"/>
+      <c r="BT7" s="139"/>
+      <c r="BU7" s="139"/>
+      <c r="BV7" s="139"/>
+      <c r="BW7" s="139"/>
+      <c r="BX7" s="139"/>
+      <c r="BY7" s="139"/>
+      <c r="BZ7" s="139"/>
+      <c r="CA7" s="139"/>
+      <c r="CB7" s="139"/>
+      <c r="CC7" s="139"/>
+      <c r="CD7" s="139"/>
+      <c r="CE7" s="139"/>
+      <c r="CF7" s="139"/>
+      <c r="CG7" s="139"/>
+      <c r="CH7" s="139"/>
+      <c r="CI7" s="139"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1">
-      <c r="B8" s="55">
+      <c r="B8" s="54">
         <f>ROW(B8)-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="116" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="121"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="117"/>
-      <c r="AE8" s="117"/>
-      <c r="AF8" s="117"/>
-      <c r="AG8" s="118"/>
-      <c r="AH8" s="119"/>
-      <c r="AI8" s="120"/>
-      <c r="AJ8" s="121"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="117"/>
-      <c r="AM8" s="117"/>
-      <c r="AN8" s="117"/>
-      <c r="AO8" s="117"/>
-      <c r="AP8" s="117"/>
-      <c r="AQ8" s="117"/>
-      <c r="AR8" s="122"/>
-      <c r="AS8" s="122"/>
-      <c r="AT8" s="123"/>
-      <c r="AU8" s="114"/>
-      <c r="AV8" s="114"/>
-      <c r="AW8" s="114"/>
-      <c r="AX8" s="114"/>
-      <c r="AY8" s="114"/>
-      <c r="AZ8" s="114"/>
-      <c r="BA8" s="114"/>
-      <c r="BB8" s="114"/>
-      <c r="BC8" s="114"/>
-      <c r="BD8" s="114"/>
-      <c r="BE8" s="114"/>
-      <c r="BF8" s="114"/>
-      <c r="BG8" s="114"/>
-      <c r="BH8" s="114"/>
-      <c r="BI8" s="114"/>
-      <c r="BJ8" s="114"/>
-      <c r="BK8" s="114"/>
-      <c r="BL8" s="114"/>
-      <c r="BM8" s="114"/>
-      <c r="BN8" s="114"/>
-      <c r="BO8" s="114"/>
-      <c r="BP8" s="114"/>
-      <c r="BQ8" s="133"/>
-      <c r="BR8" s="133"/>
-      <c r="BS8" s="133"/>
-      <c r="BT8" s="133"/>
-      <c r="BU8" s="133"/>
-      <c r="BV8" s="133"/>
-      <c r="BW8" s="133"/>
-      <c r="BX8" s="133"/>
-      <c r="BY8" s="133"/>
-      <c r="BZ8" s="133"/>
-      <c r="CA8" s="133"/>
-      <c r="CB8" s="133"/>
-      <c r="CC8" s="133"/>
-      <c r="CD8" s="133"/>
-      <c r="CE8" s="133"/>
-      <c r="CF8" s="133"/>
-      <c r="CG8" s="133"/>
-      <c r="CH8" s="133"/>
-      <c r="CI8" s="133"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="117"/>
+      <c r="AH8" s="118"/>
+      <c r="AI8" s="119"/>
+      <c r="AJ8" s="120"/>
+      <c r="AK8" s="115"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="116"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="121"/>
+      <c r="AS8" s="121"/>
+      <c r="AT8" s="122"/>
+      <c r="AU8" s="113"/>
+      <c r="AV8" s="113"/>
+      <c r="AW8" s="113"/>
+      <c r="AX8" s="113"/>
+      <c r="AY8" s="113"/>
+      <c r="AZ8" s="113"/>
+      <c r="BA8" s="113"/>
+      <c r="BB8" s="113"/>
+      <c r="BC8" s="113"/>
+      <c r="BD8" s="113"/>
+      <c r="BE8" s="113"/>
+      <c r="BF8" s="113"/>
+      <c r="BG8" s="113"/>
+      <c r="BH8" s="113"/>
+      <c r="BI8" s="113"/>
+      <c r="BJ8" s="113"/>
+      <c r="BK8" s="113"/>
+      <c r="BL8" s="113"/>
+      <c r="BM8" s="113"/>
+      <c r="BN8" s="113"/>
+      <c r="BO8" s="113"/>
+      <c r="BP8" s="113"/>
+      <c r="BQ8" s="132"/>
+      <c r="BR8" s="132"/>
+      <c r="BS8" s="132"/>
+      <c r="BT8" s="132"/>
+      <c r="BU8" s="132"/>
+      <c r="BV8" s="132"/>
+      <c r="BW8" s="132"/>
+      <c r="BX8" s="132"/>
+      <c r="BY8" s="132"/>
+      <c r="BZ8" s="132"/>
+      <c r="CA8" s="132"/>
+      <c r="CB8" s="132"/>
+      <c r="CC8" s="132"/>
+      <c r="CD8" s="132"/>
+      <c r="CE8" s="132"/>
+      <c r="CF8" s="132"/>
+      <c r="CG8" s="132"/>
+      <c r="CH8" s="132"/>
+      <c r="CI8" s="132"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1">
-      <c r="B9" s="55">
+      <c r="B9" s="54">
         <f t="shared" ref="B9:B16" si="0">ROW(B9)-7</f>
         <v>2</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="126" t="s">
-        <v>43</v>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="125" t="s">
+        <v>40</v>
       </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="126" t="s">
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="61" t="s">
-        <v>44</v>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="60" t="s">
+        <v>41</v>
       </c>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="58" t="s">
-        <v>45</v>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="57" t="s">
+        <v>42</v>
       </c>
-      <c r="AL9" s="59"/>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="59"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="53" t="s">
+      <c r="AL9" s="58"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="58"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="58"/>
+      <c r="AQ9" s="58"/>
+      <c r="AR9" s="63"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="53"/>
-      <c r="AY9" s="53"/>
-      <c r="AZ9" s="53"/>
-      <c r="BA9" s="53"/>
-      <c r="BB9" s="53"/>
-      <c r="BC9" s="53"/>
-      <c r="BD9" s="53"/>
-      <c r="BE9" s="53" t="s">
+      <c r="AV9" s="52"/>
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="52"/>
+      <c r="AY9" s="52"/>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="52"/>
+      <c r="BB9" s="52"/>
+      <c r="BC9" s="52"/>
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="BF9" s="53"/>
-      <c r="BG9" s="53"/>
-      <c r="BH9" s="53"/>
-      <c r="BI9" s="53"/>
-      <c r="BJ9" s="53"/>
-      <c r="BK9" s="53"/>
-      <c r="BL9" s="53"/>
-      <c r="BM9" s="53"/>
-      <c r="BN9" s="53"/>
-      <c r="BO9" s="53"/>
-      <c r="BP9" s="53"/>
-      <c r="BQ9" s="132"/>
-      <c r="BR9" s="132"/>
-      <c r="BS9" s="132"/>
-      <c r="BT9" s="132"/>
-      <c r="BU9" s="132"/>
-      <c r="BV9" s="132"/>
-      <c r="BW9" s="132"/>
-      <c r="BX9" s="132"/>
-      <c r="BY9" s="132"/>
-      <c r="BZ9" s="132"/>
-      <c r="CA9" s="132"/>
-      <c r="CB9" s="132"/>
-      <c r="CC9" s="132"/>
-      <c r="CD9" s="132"/>
-      <c r="CE9" s="132"/>
-      <c r="CF9" s="132"/>
-      <c r="CG9" s="132"/>
-      <c r="CH9" s="132"/>
-      <c r="CI9" s="132"/>
+      <c r="BF9" s="52"/>
+      <c r="BG9" s="52"/>
+      <c r="BH9" s="52"/>
+      <c r="BI9" s="52"/>
+      <c r="BJ9" s="52"/>
+      <c r="BK9" s="52"/>
+      <c r="BL9" s="52"/>
+      <c r="BM9" s="52"/>
+      <c r="BN9" s="52"/>
+      <c r="BO9" s="52"/>
+      <c r="BP9" s="52"/>
+      <c r="BQ9" s="131"/>
+      <c r="BR9" s="131"/>
+      <c r="BS9" s="131"/>
+      <c r="BT9" s="131"/>
+      <c r="BU9" s="131"/>
+      <c r="BV9" s="131"/>
+      <c r="BW9" s="131"/>
+      <c r="BX9" s="131"/>
+      <c r="BY9" s="131"/>
+      <c r="BZ9" s="131"/>
+      <c r="CA9" s="131"/>
+      <c r="CB9" s="131"/>
+      <c r="CC9" s="131"/>
+      <c r="CD9" s="131"/>
+      <c r="CE9" s="131"/>
+      <c r="CF9" s="131"/>
+      <c r="CG9" s="131"/>
+      <c r="CH9" s="131"/>
+      <c r="CI9" s="131"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1">
-      <c r="B10" s="55">
+      <c r="B10" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="131"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="130"/>
-      <c r="AJ10" s="131"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="127"/>
-      <c r="AM10" s="127"/>
-      <c r="AN10" s="127"/>
-      <c r="AO10" s="127"/>
-      <c r="AP10" s="127"/>
-      <c r="AQ10" s="127"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
-      <c r="AX10" s="124"/>
-      <c r="AY10" s="124"/>
-      <c r="AZ10" s="124"/>
-      <c r="BA10" s="124"/>
-      <c r="BB10" s="124"/>
-      <c r="BC10" s="124"/>
-      <c r="BD10" s="124"/>
-      <c r="BE10" s="124"/>
-      <c r="BF10" s="124"/>
-      <c r="BG10" s="124"/>
-      <c r="BH10" s="124"/>
-      <c r="BI10" s="124"/>
-      <c r="BJ10" s="124"/>
-      <c r="BK10" s="124"/>
-      <c r="BL10" s="124"/>
-      <c r="BM10" s="124"/>
-      <c r="BN10" s="124"/>
-      <c r="BO10" s="124"/>
-      <c r="BP10" s="124"/>
-      <c r="BQ10" s="125"/>
-      <c r="BR10" s="125"/>
-      <c r="BS10" s="125"/>
-      <c r="BT10" s="125"/>
-      <c r="BU10" s="125"/>
-      <c r="BV10" s="125"/>
-      <c r="BW10" s="125"/>
-      <c r="BX10" s="125"/>
-      <c r="BY10" s="125"/>
-      <c r="BZ10" s="125"/>
-      <c r="CA10" s="125"/>
-      <c r="CB10" s="125"/>
-      <c r="CC10" s="125"/>
-      <c r="CD10" s="125"/>
-      <c r="CE10" s="125"/>
-      <c r="CF10" s="125"/>
-      <c r="CG10" s="125"/>
-      <c r="CH10" s="125"/>
-      <c r="CI10" s="125"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="117"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="119"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="116"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="116"/>
+      <c r="AP10" s="116"/>
+      <c r="AQ10" s="116"/>
+      <c r="AR10" s="121"/>
+      <c r="AS10" s="121"/>
+      <c r="AT10" s="122"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="113"/>
+      <c r="BE10" s="113"/>
+      <c r="BF10" s="113"/>
+      <c r="BG10" s="113"/>
+      <c r="BH10" s="113"/>
+      <c r="BI10" s="113"/>
+      <c r="BJ10" s="113"/>
+      <c r="BK10" s="113"/>
+      <c r="BL10" s="113"/>
+      <c r="BM10" s="113"/>
+      <c r="BN10" s="113"/>
+      <c r="BO10" s="113"/>
+      <c r="BP10" s="113"/>
+      <c r="BQ10" s="114"/>
+      <c r="BR10" s="114"/>
+      <c r="BS10" s="114"/>
+      <c r="BT10" s="114"/>
+      <c r="BU10" s="114"/>
+      <c r="BV10" s="114"/>
+      <c r="BW10" s="114"/>
+      <c r="BX10" s="114"/>
+      <c r="BY10" s="114"/>
+      <c r="BZ10" s="114"/>
+      <c r="CA10" s="114"/>
+      <c r="CB10" s="114"/>
+      <c r="CC10" s="114"/>
+      <c r="CD10" s="114"/>
+      <c r="CE10" s="114"/>
+      <c r="CF10" s="114"/>
+      <c r="CG10" s="114"/>
+      <c r="CH10" s="114"/>
+      <c r="CI10" s="114"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1">
-      <c r="B11" s="55">
+      <c r="B11" s="54">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="116" t="s">
-        <v>25</v>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="125" t="s">
+        <v>65</v>
       </c>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="120"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="119"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="121"/>
-      <c r="AK11" s="116"/>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="117"/>
-      <c r="AP11" s="117"/>
-      <c r="AQ11" s="117"/>
-      <c r="AR11" s="122"/>
-      <c r="AS11" s="122"/>
-      <c r="AT11" s="123"/>
-      <c r="AU11" s="114"/>
-      <c r="AV11" s="114"/>
-      <c r="AW11" s="114"/>
-      <c r="AX11" s="114"/>
-      <c r="AY11" s="114"/>
-      <c r="AZ11" s="114"/>
-      <c r="BA11" s="114"/>
-      <c r="BB11" s="114"/>
-      <c r="BC11" s="114"/>
-      <c r="BD11" s="114"/>
-      <c r="BE11" s="114"/>
-      <c r="BF11" s="114"/>
-      <c r="BG11" s="114"/>
-      <c r="BH11" s="114"/>
-      <c r="BI11" s="114"/>
-      <c r="BJ11" s="114"/>
-      <c r="BK11" s="114"/>
-      <c r="BL11" s="114"/>
-      <c r="BM11" s="114"/>
-      <c r="BN11" s="114"/>
-      <c r="BO11" s="114"/>
-      <c r="BP11" s="114"/>
-      <c r="BQ11" s="115"/>
-      <c r="BR11" s="115"/>
-      <c r="BS11" s="115"/>
-      <c r="BT11" s="115"/>
-      <c r="BU11" s="115"/>
-      <c r="BV11" s="115"/>
-      <c r="BW11" s="115"/>
-      <c r="BX11" s="115"/>
-      <c r="BY11" s="115"/>
-      <c r="BZ11" s="115"/>
-      <c r="CA11" s="115"/>
-      <c r="CB11" s="115"/>
-      <c r="CC11" s="115"/>
-      <c r="CD11" s="115"/>
-      <c r="CE11" s="115"/>
-      <c r="CF11" s="115"/>
-      <c r="CG11" s="115"/>
-      <c r="CH11" s="115"/>
-      <c r="CI11" s="115"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="130"/>
+      <c r="AB11" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC11" s="126"/>
+      <c r="AD11" s="126"/>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="128">
+        <v>20</v>
+      </c>
+      <c r="AI11" s="129"/>
+      <c r="AJ11" s="130"/>
+      <c r="AK11" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL11" s="126"/>
+      <c r="AM11" s="126"/>
+      <c r="AN11" s="126"/>
+      <c r="AO11" s="126"/>
+      <c r="AP11" s="126"/>
+      <c r="AQ11" s="126"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV11" s="123"/>
+      <c r="AW11" s="123"/>
+      <c r="AX11" s="123"/>
+      <c r="AY11" s="123"/>
+      <c r="AZ11" s="123"/>
+      <c r="BA11" s="123"/>
+      <c r="BB11" s="123"/>
+      <c r="BC11" s="123"/>
+      <c r="BD11" s="123"/>
+      <c r="BE11" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF11" s="123"/>
+      <c r="BG11" s="123"/>
+      <c r="BH11" s="123"/>
+      <c r="BI11" s="123"/>
+      <c r="BJ11" s="123"/>
+      <c r="BK11" s="123"/>
+      <c r="BL11" s="123"/>
+      <c r="BM11" s="123"/>
+      <c r="BN11" s="123"/>
+      <c r="BO11" s="123"/>
+      <c r="BP11" s="123"/>
+      <c r="BQ11" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR11" s="124"/>
+      <c r="BS11" s="124"/>
+      <c r="BT11" s="124"/>
+      <c r="BU11" s="124"/>
+      <c r="BV11" s="124"/>
+      <c r="BW11" s="124"/>
+      <c r="BX11" s="124"/>
+      <c r="BY11" s="124"/>
+      <c r="BZ11" s="124"/>
+      <c r="CA11" s="124"/>
+      <c r="CB11" s="124"/>
+      <c r="CC11" s="124"/>
+      <c r="CD11" s="124"/>
+      <c r="CE11" s="124"/>
+      <c r="CF11" s="124"/>
+      <c r="CG11" s="124"/>
+      <c r="CH11" s="124"/>
+      <c r="CI11" s="124"/>
     </row>
     <row r="12" spans="1:1024" ht="18" customHeight="1">
-      <c r="B12" s="55">
+      <c r="B12" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="58" t="s">
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="61" t="s">
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="58" t="s">
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="64"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="53" t="s">
-        <v>58</v>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="63"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="52" t="s">
+        <v>55</v>
       </c>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
-      <c r="BB12" s="53"/>
-      <c r="BC12" s="53"/>
-      <c r="BD12" s="53"/>
-      <c r="BE12" s="53" t="s">
-        <v>59</v>
+      <c r="AV12" s="52"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="52" t="s">
+        <v>56</v>
       </c>
-      <c r="BF12" s="53"/>
-      <c r="BG12" s="53"/>
-      <c r="BH12" s="53"/>
-      <c r="BI12" s="53"/>
-      <c r="BJ12" s="53"/>
-      <c r="BK12" s="53"/>
-      <c r="BL12" s="53"/>
-      <c r="BM12" s="53"/>
-      <c r="BN12" s="53"/>
-      <c r="BO12" s="53"/>
-      <c r="BP12" s="53"/>
-      <c r="BQ12" s="54" t="s">
-        <v>47</v>
+      <c r="BF12" s="52"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="52"/>
+      <c r="BI12" s="52"/>
+      <c r="BJ12" s="52"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="52"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="53" t="s">
+        <v>44</v>
       </c>
-      <c r="BR12" s="54"/>
-      <c r="BS12" s="54"/>
-      <c r="BT12" s="54"/>
-      <c r="BU12" s="54"/>
-      <c r="BV12" s="54"/>
-      <c r="BW12" s="54"/>
-      <c r="BX12" s="54"/>
-      <c r="BY12" s="54"/>
-      <c r="BZ12" s="54"/>
-      <c r="CA12" s="54"/>
-      <c r="CB12" s="54"/>
-      <c r="CC12" s="54"/>
-      <c r="CD12" s="54"/>
-      <c r="CE12" s="54"/>
-      <c r="CF12" s="54"/>
-      <c r="CG12" s="54"/>
-      <c r="CH12" s="54"/>
-      <c r="CI12" s="54"/>
+      <c r="BR12" s="53"/>
+      <c r="BS12" s="53"/>
+      <c r="BT12" s="53"/>
+      <c r="BU12" s="53"/>
+      <c r="BV12" s="53"/>
+      <c r="BW12" s="53"/>
+      <c r="BX12" s="53"/>
+      <c r="BY12" s="53"/>
+      <c r="BZ12" s="53"/>
+      <c r="CA12" s="53"/>
+      <c r="CB12" s="53"/>
+      <c r="CC12" s="53"/>
+      <c r="CD12" s="53"/>
+      <c r="CE12" s="53"/>
+      <c r="CF12" s="53"/>
+      <c r="CG12" s="53"/>
+      <c r="CH12" s="53"/>
+      <c r="CI12" s="53"/>
     </row>
     <row r="13" spans="1:1024" ht="18" customHeight="1">
-      <c r="B13" s="55">
+      <c r="B13" s="54">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58" t="s">
-        <v>56</v>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57" t="s">
+        <v>53</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="61" t="s">
-        <v>49</v>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60" t="s">
+        <v>46</v>
       </c>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="58" t="s">
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="61" t="s">
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="63"/>
-      <c r="AK13" s="58" t="s">
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="53" t="s">
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="53"/>
-      <c r="BA13" s="53"/>
-      <c r="BB13" s="53"/>
-      <c r="BC13" s="53"/>
-      <c r="BD13" s="53"/>
-      <c r="BE13" s="53" t="s">
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="58"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="BF13" s="53"/>
-      <c r="BG13" s="53"/>
-      <c r="BH13" s="53"/>
-      <c r="BI13" s="53"/>
-      <c r="BJ13" s="53"/>
-      <c r="BK13" s="53"/>
-      <c r="BL13" s="53"/>
-      <c r="BM13" s="53"/>
-      <c r="BN13" s="53"/>
-      <c r="BO13" s="53"/>
-      <c r="BP13" s="53"/>
-      <c r="BQ13" s="54" t="s">
-        <v>57</v>
+      <c r="BF13" s="58"/>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="58"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="58"/>
+      <c r="BK13" s="58"/>
+      <c r="BL13" s="58"/>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="58"/>
+      <c r="BO13" s="58"/>
+      <c r="BP13" s="59"/>
+      <c r="BQ13" s="109" t="s">
+        <v>54</v>
       </c>
-      <c r="BR13" s="54"/>
-      <c r="BS13" s="54"/>
-      <c r="BT13" s="54"/>
-      <c r="BU13" s="54"/>
-      <c r="BV13" s="54"/>
-      <c r="BW13" s="54"/>
-      <c r="BX13" s="54"/>
-      <c r="BY13" s="54"/>
-      <c r="BZ13" s="54"/>
-      <c r="CA13" s="54"/>
-      <c r="CB13" s="54"/>
-      <c r="CC13" s="54"/>
-      <c r="CD13" s="54"/>
-      <c r="CE13" s="54"/>
-      <c r="CF13" s="54"/>
-      <c r="CG13" s="54"/>
-      <c r="CH13" s="54"/>
-      <c r="CI13" s="54"/>
+      <c r="BR13" s="110"/>
+      <c r="BS13" s="110"/>
+      <c r="BT13" s="110"/>
+      <c r="BU13" s="110"/>
+      <c r="BV13" s="110"/>
+      <c r="BW13" s="110"/>
+      <c r="BX13" s="110"/>
+      <c r="BY13" s="110"/>
+      <c r="BZ13" s="110"/>
+      <c r="CA13" s="110"/>
+      <c r="CB13" s="110"/>
+      <c r="CC13" s="110"/>
+      <c r="CD13" s="110"/>
+      <c r="CE13" s="110"/>
+      <c r="CF13" s="110"/>
+      <c r="CG13" s="110"/>
+      <c r="CH13" s="110"/>
+      <c r="CI13" s="111"/>
     </row>
     <row r="14" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B14" s="55">
+      <c r="B14" s="54">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58" t="s">
-        <v>51</v>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57" t="s">
+        <v>48</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="61" t="s">
-        <v>49</v>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60" t="s">
+        <v>46</v>
       </c>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="58" t="s">
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="61" t="s">
-        <v>44</v>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="60" t="s">
+        <v>41</v>
       </c>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="58" t="s">
-        <v>45</v>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="57" t="s">
+        <v>42</v>
       </c>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="59"/>
-      <c r="AO14" s="59"/>
-      <c r="AP14" s="59"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="58" t="s">
-        <v>61</v>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="59"/>
+      <c r="AU14" s="57" t="s">
+        <v>58</v>
       </c>
-      <c r="AV14" s="59"/>
-      <c r="AW14" s="59"/>
-      <c r="AX14" s="59"/>
-      <c r="AY14" s="59"/>
-      <c r="AZ14" s="59"/>
-      <c r="BA14" s="59"/>
-      <c r="BB14" s="59"/>
-      <c r="BC14" s="59"/>
-      <c r="BD14" s="60"/>
-      <c r="BE14" s="113" t="s">
-        <v>60</v>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="58"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="58"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="58"/>
+      <c r="BB14" s="58"/>
+      <c r="BC14" s="58"/>
+      <c r="BD14" s="59"/>
+      <c r="BE14" s="112" t="s">
+        <v>57</v>
       </c>
-      <c r="BF14" s="59"/>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="59"/>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="59"/>
-      <c r="BK14" s="59"/>
-      <c r="BL14" s="59"/>
-      <c r="BM14" s="59"/>
-      <c r="BN14" s="59"/>
-      <c r="BO14" s="59"/>
-      <c r="BP14" s="60"/>
-      <c r="BQ14" s="54" t="s">
-        <v>50</v>
+      <c r="BF14" s="149"/>
+      <c r="BG14" s="149"/>
+      <c r="BH14" s="149"/>
+      <c r="BI14" s="149"/>
+      <c r="BJ14" s="149"/>
+      <c r="BK14" s="149"/>
+      <c r="BL14" s="149"/>
+      <c r="BM14" s="149"/>
+      <c r="BN14" s="149"/>
+      <c r="BO14" s="149"/>
+      <c r="BP14" s="150"/>
+      <c r="BQ14" s="109" t="s">
+        <v>47</v>
       </c>
-      <c r="BR14" s="54"/>
-      <c r="BS14" s="54"/>
-      <c r="BT14" s="54"/>
-      <c r="BU14" s="54"/>
-      <c r="BV14" s="54"/>
-      <c r="BW14" s="54"/>
-      <c r="BX14" s="54"/>
-      <c r="BY14" s="54"/>
-      <c r="BZ14" s="54"/>
-      <c r="CA14" s="54"/>
-      <c r="CB14" s="54"/>
-      <c r="CC14" s="54"/>
-      <c r="CD14" s="54"/>
-      <c r="CE14" s="54"/>
-      <c r="CF14" s="54"/>
-      <c r="CG14" s="54"/>
-      <c r="CH14" s="54"/>
-      <c r="CI14" s="54"/>
+      <c r="BR14" s="110"/>
+      <c r="BS14" s="110"/>
+      <c r="BT14" s="110"/>
+      <c r="BU14" s="110"/>
+      <c r="BV14" s="110"/>
+      <c r="BW14" s="110"/>
+      <c r="BX14" s="110"/>
+      <c r="BY14" s="110"/>
+      <c r="BZ14" s="110"/>
+      <c r="CA14" s="110"/>
+      <c r="CB14" s="110"/>
+      <c r="CC14" s="110"/>
+      <c r="CD14" s="110"/>
+      <c r="CE14" s="110"/>
+      <c r="CF14" s="110"/>
+      <c r="CG14" s="110"/>
+      <c r="CH14" s="110"/>
+      <c r="CI14" s="111"/>
     </row>
     <row r="15" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B15" s="55">
+      <c r="B15" s="54">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58" t="s">
-        <v>48</v>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57" t="s">
+        <v>45</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="61" t="s">
-        <v>49</v>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="60" t="s">
+        <v>46</v>
       </c>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="58" t="s">
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="61" t="s">
-        <v>44</v>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="60" t="s">
+        <v>41</v>
       </c>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="58" t="s">
-        <v>45</v>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="57" t="s">
+        <v>42</v>
       </c>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="59"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="59"/>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="59"/>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="59"/>
-      <c r="AT15" s="60"/>
-      <c r="AU15" s="58" t="s">
-        <v>62</v>
+      <c r="AL15" s="58"/>
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="58"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="58"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="58"/>
+      <c r="AS15" s="58"/>
+      <c r="AT15" s="59"/>
+      <c r="AU15" s="57" t="s">
+        <v>59</v>
       </c>
-      <c r="AV15" s="59"/>
-      <c r="AW15" s="59"/>
-      <c r="AX15" s="59"/>
-      <c r="AY15" s="59"/>
-      <c r="AZ15" s="59"/>
-      <c r="BA15" s="59"/>
-      <c r="BB15" s="59"/>
-      <c r="BC15" s="59"/>
-      <c r="BD15" s="60"/>
-      <c r="BE15" s="58" t="s">
-        <v>63</v>
+      <c r="AV15" s="58"/>
+      <c r="AW15" s="58"/>
+      <c r="AX15" s="58"/>
+      <c r="AY15" s="58"/>
+      <c r="AZ15" s="58"/>
+      <c r="BA15" s="58"/>
+      <c r="BB15" s="58"/>
+      <c r="BC15" s="58"/>
+      <c r="BD15" s="59"/>
+      <c r="BE15" s="57" t="s">
+        <v>60</v>
       </c>
-      <c r="BF15" s="59"/>
-      <c r="BG15" s="59"/>
-      <c r="BH15" s="59"/>
-      <c r="BI15" s="59"/>
-      <c r="BJ15" s="59"/>
-      <c r="BK15" s="59"/>
-      <c r="BL15" s="59"/>
-      <c r="BM15" s="59"/>
-      <c r="BN15" s="59"/>
-      <c r="BO15" s="59"/>
-      <c r="BP15" s="60"/>
-      <c r="BQ15" s="110" t="s">
-        <v>50</v>
+      <c r="BF15" s="58"/>
+      <c r="BG15" s="58"/>
+      <c r="BH15" s="58"/>
+      <c r="BI15" s="58"/>
+      <c r="BJ15" s="58"/>
+      <c r="BK15" s="58"/>
+      <c r="BL15" s="58"/>
+      <c r="BM15" s="58"/>
+      <c r="BN15" s="58"/>
+      <c r="BO15" s="58"/>
+      <c r="BP15" s="59"/>
+      <c r="BQ15" s="109" t="s">
+        <v>47</v>
       </c>
-      <c r="BR15" s="111"/>
-      <c r="BS15" s="111"/>
-      <c r="BT15" s="111"/>
-      <c r="BU15" s="111"/>
-      <c r="BV15" s="111"/>
-      <c r="BW15" s="111"/>
-      <c r="BX15" s="111"/>
-      <c r="BY15" s="111"/>
-      <c r="BZ15" s="111"/>
-      <c r="CA15" s="111"/>
-      <c r="CB15" s="111"/>
-      <c r="CC15" s="111"/>
-      <c r="CD15" s="111"/>
-      <c r="CE15" s="111"/>
-      <c r="CF15" s="111"/>
-      <c r="CG15" s="111"/>
-      <c r="CH15" s="111"/>
-      <c r="CI15" s="112"/>
+      <c r="BR15" s="110"/>
+      <c r="BS15" s="110"/>
+      <c r="BT15" s="110"/>
+      <c r="BU15" s="110"/>
+      <c r="BV15" s="110"/>
+      <c r="BW15" s="110"/>
+      <c r="BX15" s="110"/>
+      <c r="BY15" s="110"/>
+      <c r="BZ15" s="110"/>
+      <c r="CA15" s="110"/>
+      <c r="CB15" s="110"/>
+      <c r="CC15" s="110"/>
+      <c r="CD15" s="110"/>
+      <c r="CE15" s="110"/>
+      <c r="CF15" s="110"/>
+      <c r="CG15" s="110"/>
+      <c r="CH15" s="110"/>
+      <c r="CI15" s="111"/>
     </row>
-    <row r="16" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B16" s="55">
+    <row r="16" spans="1:1024" ht="18" customHeight="1">
+      <c r="B16" s="54">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58" t="s">
-        <v>55</v>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57" t="s">
+        <v>52</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="61" t="s">
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="58" t="s">
-        <v>52</v>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="60" t="s">
+        <v>41</v>
       </c>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="61" t="s">
-        <v>44</v>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="57" t="s">
+        <v>50</v>
       </c>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL16" s="59"/>
-      <c r="AM16" s="59"/>
-      <c r="AN16" s="59"/>
-      <c r="AO16" s="59"/>
-      <c r="AP16" s="59"/>
-      <c r="AQ16" s="59"/>
-      <c r="AR16" s="59"/>
-      <c r="AS16" s="59"/>
-      <c r="AT16" s="60"/>
-      <c r="AU16" s="58" t="s">
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="58"/>
+      <c r="AO16" s="58"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="58"/>
+      <c r="AS16" s="58"/>
+      <c r="AT16" s="59"/>
+      <c r="AU16" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="AV16" s="59"/>
-      <c r="AW16" s="59"/>
-      <c r="AX16" s="59"/>
-      <c r="AY16" s="59"/>
-      <c r="AZ16" s="59"/>
-      <c r="BA16" s="59"/>
-      <c r="BB16" s="59"/>
-      <c r="BC16" s="59"/>
-      <c r="BD16" s="60"/>
-      <c r="BE16" s="58" t="s">
+      <c r="AV16" s="58"/>
+      <c r="AW16" s="58"/>
+      <c r="AX16" s="58"/>
+      <c r="AY16" s="58"/>
+      <c r="AZ16" s="58"/>
+      <c r="BA16" s="58"/>
+      <c r="BB16" s="58"/>
+      <c r="BC16" s="58"/>
+      <c r="BD16" s="59"/>
+      <c r="BE16" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="BF16" s="59"/>
-      <c r="BG16" s="59"/>
-      <c r="BH16" s="59"/>
-      <c r="BI16" s="59"/>
-      <c r="BJ16" s="59"/>
-      <c r="BK16" s="59"/>
-      <c r="BL16" s="59"/>
-      <c r="BM16" s="59"/>
-      <c r="BN16" s="59"/>
-      <c r="BO16" s="59"/>
-      <c r="BP16" s="60"/>
-      <c r="BQ16" s="110" t="s">
-        <v>54</v>
+      <c r="BF16" s="58"/>
+      <c r="BG16" s="58"/>
+      <c r="BH16" s="58"/>
+      <c r="BI16" s="58"/>
+      <c r="BJ16" s="58"/>
+      <c r="BK16" s="58"/>
+      <c r="BL16" s="58"/>
+      <c r="BM16" s="58"/>
+      <c r="BN16" s="58"/>
+      <c r="BO16" s="58"/>
+      <c r="BP16" s="59"/>
+      <c r="BQ16" s="109" t="s">
+        <v>51</v>
       </c>
-      <c r="BR16" s="111"/>
-      <c r="BS16" s="111"/>
-      <c r="BT16" s="111"/>
-      <c r="BU16" s="111"/>
-      <c r="BV16" s="111"/>
-      <c r="BW16" s="111"/>
-      <c r="BX16" s="111"/>
-      <c r="BY16" s="111"/>
-      <c r="BZ16" s="111"/>
-      <c r="CA16" s="111"/>
-      <c r="CB16" s="111"/>
-      <c r="CC16" s="111"/>
-      <c r="CD16" s="111"/>
-      <c r="CE16" s="111"/>
-      <c r="CF16" s="111"/>
-      <c r="CG16" s="111"/>
-      <c r="CH16" s="111"/>
-      <c r="CI16" s="112"/>
+      <c r="BR16" s="110"/>
+      <c r="BS16" s="110"/>
+      <c r="BT16" s="110"/>
+      <c r="BU16" s="110"/>
+      <c r="BV16" s="110"/>
+      <c r="BW16" s="110"/>
+      <c r="BX16" s="110"/>
+      <c r="BY16" s="110"/>
+      <c r="BZ16" s="110"/>
+      <c r="CA16" s="110"/>
+      <c r="CB16" s="110"/>
+      <c r="CC16" s="110"/>
+      <c r="CD16" s="110"/>
+      <c r="CE16" s="110"/>
+      <c r="CF16" s="110"/>
+      <c r="CG16" s="110"/>
+      <c r="CH16" s="110"/>
+      <c r="CI16" s="111"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="59"/>
-      <c r="AO17" s="59"/>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="59"/>
-      <c r="AR17" s="59"/>
-      <c r="AS17" s="59"/>
-      <c r="AT17" s="60"/>
-      <c r="AU17" s="58"/>
-      <c r="AV17" s="59"/>
-      <c r="AW17" s="59"/>
-      <c r="AX17" s="59"/>
-      <c r="AY17" s="59"/>
-      <c r="AZ17" s="59"/>
-      <c r="BA17" s="59"/>
-      <c r="BB17" s="59"/>
-      <c r="BC17" s="59"/>
-      <c r="BD17" s="60"/>
-      <c r="BE17" s="58"/>
-      <c r="BF17" s="59"/>
-      <c r="BG17" s="59"/>
-      <c r="BH17" s="59"/>
-      <c r="BI17" s="59"/>
-      <c r="BJ17" s="59"/>
-      <c r="BK17" s="59"/>
-      <c r="BL17" s="59"/>
-      <c r="BM17" s="59"/>
-      <c r="BN17" s="59"/>
-      <c r="BO17" s="59"/>
-      <c r="BP17" s="60"/>
-      <c r="BQ17" s="110"/>
-      <c r="BR17" s="111"/>
-      <c r="BS17" s="111"/>
-      <c r="BT17" s="111"/>
-      <c r="BU17" s="111"/>
-      <c r="BV17" s="111"/>
-      <c r="BW17" s="111"/>
-      <c r="BX17" s="111"/>
-      <c r="BY17" s="111"/>
-      <c r="BZ17" s="111"/>
-      <c r="CA17" s="111"/>
-      <c r="CB17" s="111"/>
-      <c r="CC17" s="111"/>
-      <c r="CD17" s="111"/>
-      <c r="CE17" s="111"/>
-      <c r="CF17" s="111"/>
-      <c r="CG17" s="111"/>
-      <c r="CH17" s="111"/>
-      <c r="CI17" s="112"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="58"/>
+      <c r="AS17" s="58"/>
+      <c r="AT17" s="59"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="58"/>
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="58"/>
+      <c r="BA17" s="58"/>
+      <c r="BB17" s="58"/>
+      <c r="BC17" s="58"/>
+      <c r="BD17" s="59"/>
+      <c r="BE17" s="57"/>
+      <c r="BF17" s="58"/>
+      <c r="BG17" s="58"/>
+      <c r="BH17" s="58"/>
+      <c r="BI17" s="58"/>
+      <c r="BJ17" s="58"/>
+      <c r="BK17" s="58"/>
+      <c r="BL17" s="58"/>
+      <c r="BM17" s="58"/>
+      <c r="BN17" s="58"/>
+      <c r="BO17" s="58"/>
+      <c r="BP17" s="59"/>
+      <c r="BQ17" s="109"/>
+      <c r="BR17" s="110"/>
+      <c r="BS17" s="110"/>
+      <c r="BT17" s="110"/>
+      <c r="BU17" s="110"/>
+      <c r="BV17" s="110"/>
+      <c r="BW17" s="110"/>
+      <c r="BX17" s="110"/>
+      <c r="BY17" s="110"/>
+      <c r="BZ17" s="110"/>
+      <c r="CA17" s="110"/>
+      <c r="CB17" s="110"/>
+      <c r="CC17" s="110"/>
+      <c r="CD17" s="110"/>
+      <c r="CE17" s="110"/>
+      <c r="CF17" s="110"/>
+      <c r="CG17" s="110"/>
+      <c r="CH17" s="110"/>
+      <c r="CI17" s="111"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="58"/>
-      <c r="AV18" s="59"/>
-      <c r="AW18" s="59"/>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="59"/>
-      <c r="AZ18" s="59"/>
-      <c r="BA18" s="59"/>
-      <c r="BB18" s="59"/>
-      <c r="BC18" s="59"/>
-      <c r="BD18" s="60"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="59"/>
-      <c r="BG18" s="59"/>
-      <c r="BH18" s="59"/>
-      <c r="BI18" s="59"/>
-      <c r="BJ18" s="59"/>
-      <c r="BK18" s="59"/>
-      <c r="BL18" s="59"/>
-      <c r="BM18" s="59"/>
-      <c r="BN18" s="59"/>
-      <c r="BO18" s="59"/>
-      <c r="BP18" s="60"/>
-      <c r="BQ18" s="110"/>
-      <c r="BR18" s="111"/>
-      <c r="BS18" s="111"/>
-      <c r="BT18" s="111"/>
-      <c r="BU18" s="111"/>
-      <c r="BV18" s="111"/>
-      <c r="BW18" s="111"/>
-      <c r="BX18" s="111"/>
-      <c r="BY18" s="111"/>
-      <c r="BZ18" s="111"/>
-      <c r="CA18" s="111"/>
-      <c r="CB18" s="111"/>
-      <c r="CC18" s="111"/>
-      <c r="CD18" s="111"/>
-      <c r="CE18" s="111"/>
-      <c r="CF18" s="111"/>
-      <c r="CG18" s="111"/>
-      <c r="CH18" s="111"/>
-      <c r="CI18" s="112"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="58"/>
+      <c r="AM18" s="58"/>
+      <c r="AN18" s="58"/>
+      <c r="AO18" s="58"/>
+      <c r="AP18" s="58"/>
+      <c r="AQ18" s="58"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="64"/>
+      <c r="AU18" s="57"/>
+      <c r="AV18" s="58"/>
+      <c r="AW18" s="58"/>
+      <c r="AX18" s="58"/>
+      <c r="AY18" s="58"/>
+      <c r="AZ18" s="58"/>
+      <c r="BA18" s="58"/>
+      <c r="BB18" s="58"/>
+      <c r="BC18" s="58"/>
+      <c r="BD18" s="59"/>
+      <c r="BE18" s="57"/>
+      <c r="BF18" s="58"/>
+      <c r="BG18" s="58"/>
+      <c r="BH18" s="58"/>
+      <c r="BI18" s="58"/>
+      <c r="BJ18" s="58"/>
+      <c r="BK18" s="58"/>
+      <c r="BL18" s="58"/>
+      <c r="BM18" s="58"/>
+      <c r="BN18" s="58"/>
+      <c r="BO18" s="58"/>
+      <c r="BP18" s="59"/>
+      <c r="BQ18" s="109"/>
+      <c r="BR18" s="110"/>
+      <c r="BS18" s="110"/>
+      <c r="BT18" s="110"/>
+      <c r="BU18" s="110"/>
+      <c r="BV18" s="110"/>
+      <c r="BW18" s="110"/>
+      <c r="BX18" s="110"/>
+      <c r="BY18" s="110"/>
+      <c r="BZ18" s="110"/>
+      <c r="CA18" s="110"/>
+      <c r="CB18" s="110"/>
+      <c r="CC18" s="110"/>
+      <c r="CD18" s="110"/>
+      <c r="CE18" s="110"/>
+      <c r="CF18" s="110"/>
+      <c r="CG18" s="110"/>
+      <c r="CH18" s="110"/>
+      <c r="CI18" s="111"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="64"/>
-      <c r="AS19" s="64"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="58"/>
-      <c r="AV19" s="59"/>
-      <c r="AW19" s="59"/>
-      <c r="AX19" s="59"/>
-      <c r="AY19" s="59"/>
-      <c r="AZ19" s="59"/>
-      <c r="BA19" s="59"/>
-      <c r="BB19" s="59"/>
-      <c r="BC19" s="59"/>
-      <c r="BD19" s="60"/>
-      <c r="BE19" s="58"/>
-      <c r="BF19" s="59"/>
-      <c r="BG19" s="59"/>
-      <c r="BH19" s="59"/>
-      <c r="BI19" s="59"/>
-      <c r="BJ19" s="59"/>
-      <c r="BK19" s="59"/>
-      <c r="BL19" s="59"/>
-      <c r="BM19" s="59"/>
-      <c r="BN19" s="59"/>
-      <c r="BO19" s="59"/>
-      <c r="BP19" s="60"/>
-      <c r="BQ19" s="110"/>
-      <c r="BR19" s="111"/>
-      <c r="BS19" s="111"/>
-      <c r="BT19" s="111"/>
-      <c r="BU19" s="111"/>
-      <c r="BV19" s="111"/>
-      <c r="BW19" s="111"/>
-      <c r="BX19" s="111"/>
-      <c r="BY19" s="111"/>
-      <c r="BZ19" s="111"/>
-      <c r="CA19" s="111"/>
-      <c r="CB19" s="111"/>
-      <c r="CC19" s="111"/>
-      <c r="CD19" s="111"/>
-      <c r="CE19" s="111"/>
-      <c r="CF19" s="111"/>
-      <c r="CG19" s="111"/>
-      <c r="CH19" s="111"/>
-      <c r="CI19" s="112"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="57"/>
+      <c r="AV19" s="58"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="58"/>
+      <c r="AZ19" s="58"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="58"/>
+      <c r="BC19" s="58"/>
+      <c r="BD19" s="59"/>
+      <c r="BE19" s="57"/>
+      <c r="BF19" s="58"/>
+      <c r="BG19" s="58"/>
+      <c r="BH19" s="58"/>
+      <c r="BI19" s="58"/>
+      <c r="BJ19" s="58"/>
+      <c r="BK19" s="58"/>
+      <c r="BL19" s="58"/>
+      <c r="BM19" s="58"/>
+      <c r="BN19" s="58"/>
+      <c r="BO19" s="58"/>
+      <c r="BP19" s="59"/>
+      <c r="BQ19" s="109"/>
+      <c r="BR19" s="110"/>
+      <c r="BS19" s="110"/>
+      <c r="BT19" s="110"/>
+      <c r="BU19" s="110"/>
+      <c r="BV19" s="110"/>
+      <c r="BW19" s="110"/>
+      <c r="BX19" s="110"/>
+      <c r="BY19" s="110"/>
+      <c r="BZ19" s="110"/>
+      <c r="CA19" s="110"/>
+      <c r="CB19" s="110"/>
+      <c r="CC19" s="110"/>
+      <c r="CD19" s="110"/>
+      <c r="CE19" s="110"/>
+      <c r="CF19" s="110"/>
+      <c r="CG19" s="110"/>
+      <c r="CH19" s="110"/>
+      <c r="CI19" s="111"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="64"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="58"/>
-      <c r="AV20" s="59"/>
-      <c r="AW20" s="59"/>
-      <c r="AX20" s="59"/>
-      <c r="AY20" s="59"/>
-      <c r="AZ20" s="59"/>
-      <c r="BA20" s="59"/>
-      <c r="BB20" s="59"/>
-      <c r="BC20" s="59"/>
-      <c r="BD20" s="60"/>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="59"/>
-      <c r="BG20" s="59"/>
-      <c r="BH20" s="59"/>
-      <c r="BI20" s="59"/>
-      <c r="BJ20" s="59"/>
-      <c r="BK20" s="59"/>
-      <c r="BL20" s="59"/>
-      <c r="BM20" s="59"/>
-      <c r="BN20" s="59"/>
-      <c r="BO20" s="59"/>
-      <c r="BP20" s="60"/>
-      <c r="BQ20" s="110"/>
-      <c r="BR20" s="111"/>
-      <c r="BS20" s="111"/>
-      <c r="BT20" s="111"/>
-      <c r="BU20" s="111"/>
-      <c r="BV20" s="111"/>
-      <c r="BW20" s="111"/>
-      <c r="BX20" s="111"/>
-      <c r="BY20" s="111"/>
-      <c r="BZ20" s="111"/>
-      <c r="CA20" s="111"/>
-      <c r="CB20" s="111"/>
-      <c r="CC20" s="111"/>
-      <c r="CD20" s="111"/>
-      <c r="CE20" s="111"/>
-      <c r="CF20" s="111"/>
-      <c r="CG20" s="111"/>
-      <c r="CH20" s="111"/>
-      <c r="CI20" s="112"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="58"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="58"/>
+      <c r="AO20" s="58"/>
+      <c r="AP20" s="58"/>
+      <c r="AQ20" s="58"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="64"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="58"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="58"/>
+      <c r="AZ20" s="58"/>
+      <c r="BA20" s="58"/>
+      <c r="BB20" s="58"/>
+      <c r="BC20" s="58"/>
+      <c r="BD20" s="59"/>
+      <c r="BE20" s="57"/>
+      <c r="BF20" s="58"/>
+      <c r="BG20" s="58"/>
+      <c r="BH20" s="58"/>
+      <c r="BI20" s="58"/>
+      <c r="BJ20" s="58"/>
+      <c r="BK20" s="58"/>
+      <c r="BL20" s="58"/>
+      <c r="BM20" s="58"/>
+      <c r="BN20" s="58"/>
+      <c r="BO20" s="58"/>
+      <c r="BP20" s="59"/>
+      <c r="BQ20" s="109"/>
+      <c r="BR20" s="110"/>
+      <c r="BS20" s="110"/>
+      <c r="BT20" s="110"/>
+      <c r="BU20" s="110"/>
+      <c r="BV20" s="110"/>
+      <c r="BW20" s="110"/>
+      <c r="BX20" s="110"/>
+      <c r="BY20" s="110"/>
+      <c r="BZ20" s="110"/>
+      <c r="CA20" s="110"/>
+      <c r="CB20" s="110"/>
+      <c r="CC20" s="110"/>
+      <c r="CD20" s="110"/>
+      <c r="CE20" s="110"/>
+      <c r="CF20" s="110"/>
+      <c r="CG20" s="110"/>
+      <c r="CH20" s="110"/>
+      <c r="CI20" s="111"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="63"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="64"/>
-      <c r="AS21" s="64"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="59"/>
-      <c r="AX21" s="59"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="59"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="59"/>
-      <c r="BC21" s="59"/>
-      <c r="BD21" s="60"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="59"/>
-      <c r="BJ21" s="59"/>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="59"/>
-      <c r="BM21" s="59"/>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="59"/>
-      <c r="BP21" s="60"/>
-      <c r="BQ21" s="110"/>
-      <c r="BR21" s="111"/>
-      <c r="BS21" s="111"/>
-      <c r="BT21" s="111"/>
-      <c r="BU21" s="111"/>
-      <c r="BV21" s="111"/>
-      <c r="BW21" s="111"/>
-      <c r="BX21" s="111"/>
-      <c r="BY21" s="111"/>
-      <c r="BZ21" s="111"/>
-      <c r="CA21" s="111"/>
-      <c r="CB21" s="111"/>
-      <c r="CC21" s="111"/>
-      <c r="CD21" s="111"/>
-      <c r="CE21" s="111"/>
-      <c r="CF21" s="111"/>
-      <c r="CG21" s="111"/>
-      <c r="CH21" s="111"/>
-      <c r="CI21" s="112"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="58"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="58"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="58"/>
+      <c r="AQ21" s="58"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="64"/>
+      <c r="AU21" s="57"/>
+      <c r="AV21" s="58"/>
+      <c r="AW21" s="58"/>
+      <c r="AX21" s="58"/>
+      <c r="AY21" s="58"/>
+      <c r="AZ21" s="58"/>
+      <c r="BA21" s="58"/>
+      <c r="BB21" s="58"/>
+      <c r="BC21" s="58"/>
+      <c r="BD21" s="59"/>
+      <c r="BE21" s="57"/>
+      <c r="BF21" s="58"/>
+      <c r="BG21" s="58"/>
+      <c r="BH21" s="58"/>
+      <c r="BI21" s="58"/>
+      <c r="BJ21" s="58"/>
+      <c r="BK21" s="58"/>
+      <c r="BL21" s="58"/>
+      <c r="BM21" s="58"/>
+      <c r="BN21" s="58"/>
+      <c r="BO21" s="58"/>
+      <c r="BP21" s="59"/>
+      <c r="BQ21" s="109"/>
+      <c r="BR21" s="110"/>
+      <c r="BS21" s="110"/>
+      <c r="BT21" s="110"/>
+      <c r="BU21" s="110"/>
+      <c r="BV21" s="110"/>
+      <c r="BW21" s="110"/>
+      <c r="BX21" s="110"/>
+      <c r="BY21" s="110"/>
+      <c r="BZ21" s="110"/>
+      <c r="CA21" s="110"/>
+      <c r="CB21" s="110"/>
+      <c r="CC21" s="110"/>
+      <c r="CD21" s="110"/>
+      <c r="CE21" s="110"/>
+      <c r="CF21" s="110"/>
+      <c r="CG21" s="110"/>
+      <c r="CH21" s="110"/>
+      <c r="CI21" s="111"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="64"/>
-      <c r="AS22" s="64"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="58"/>
-      <c r="AV22" s="59"/>
-      <c r="AW22" s="59"/>
-      <c r="AX22" s="59"/>
-      <c r="AY22" s="59"/>
-      <c r="AZ22" s="59"/>
-      <c r="BA22" s="59"/>
-      <c r="BB22" s="59"/>
-      <c r="BC22" s="59"/>
-      <c r="BD22" s="60"/>
-      <c r="BE22" s="58"/>
-      <c r="BF22" s="59"/>
-      <c r="BG22" s="59"/>
-      <c r="BH22" s="59"/>
-      <c r="BI22" s="59"/>
-      <c r="BJ22" s="59"/>
-      <c r="BK22" s="59"/>
-      <c r="BL22" s="59"/>
-      <c r="BM22" s="59"/>
-      <c r="BN22" s="59"/>
-      <c r="BO22" s="59"/>
-      <c r="BP22" s="60"/>
-      <c r="BQ22" s="110"/>
-      <c r="BR22" s="111"/>
-      <c r="BS22" s="111"/>
-      <c r="BT22" s="111"/>
-      <c r="BU22" s="111"/>
-      <c r="BV22" s="111"/>
-      <c r="BW22" s="111"/>
-      <c r="BX22" s="111"/>
-      <c r="BY22" s="111"/>
-      <c r="BZ22" s="111"/>
-      <c r="CA22" s="111"/>
-      <c r="CB22" s="111"/>
-      <c r="CC22" s="111"/>
-      <c r="CD22" s="111"/>
-      <c r="CE22" s="111"/>
-      <c r="CF22" s="111"/>
-      <c r="CG22" s="111"/>
-      <c r="CH22" s="111"/>
-      <c r="CI22" s="112"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="58"/>
+      <c r="AP22" s="58"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="63"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="57"/>
+      <c r="AV22" s="58"/>
+      <c r="AW22" s="58"/>
+      <c r="AX22" s="58"/>
+      <c r="AY22" s="58"/>
+      <c r="AZ22" s="58"/>
+      <c r="BA22" s="58"/>
+      <c r="BB22" s="58"/>
+      <c r="BC22" s="58"/>
+      <c r="BD22" s="59"/>
+      <c r="BE22" s="57"/>
+      <c r="BF22" s="58"/>
+      <c r="BG22" s="58"/>
+      <c r="BH22" s="58"/>
+      <c r="BI22" s="58"/>
+      <c r="BJ22" s="58"/>
+      <c r="BK22" s="58"/>
+      <c r="BL22" s="58"/>
+      <c r="BM22" s="58"/>
+      <c r="BN22" s="58"/>
+      <c r="BO22" s="58"/>
+      <c r="BP22" s="59"/>
+      <c r="BQ22" s="109"/>
+      <c r="BR22" s="110"/>
+      <c r="BS22" s="110"/>
+      <c r="BT22" s="110"/>
+      <c r="BU22" s="110"/>
+      <c r="BV22" s="110"/>
+      <c r="BW22" s="110"/>
+      <c r="BX22" s="110"/>
+      <c r="BY22" s="110"/>
+      <c r="BZ22" s="110"/>
+      <c r="CA22" s="110"/>
+      <c r="CB22" s="110"/>
+      <c r="CC22" s="110"/>
+      <c r="CD22" s="110"/>
+      <c r="CE22" s="110"/>
+      <c r="CF22" s="110"/>
+      <c r="CG22" s="110"/>
+      <c r="CH22" s="110"/>
+      <c r="CI22" s="111"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1">
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="94"/>
-      <c r="AK23" s="83"/>
-      <c r="AL23" s="84"/>
-      <c r="AM23" s="84"/>
-      <c r="AN23" s="84"/>
-      <c r="AO23" s="84"/>
-      <c r="AP23" s="84"/>
-      <c r="AQ23" s="84"/>
-      <c r="AR23" s="64"/>
-      <c r="AS23" s="64"/>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="83"/>
-      <c r="AV23" s="84"/>
-      <c r="AW23" s="84"/>
-      <c r="AX23" s="84"/>
-      <c r="AY23" s="84"/>
-      <c r="AZ23" s="84"/>
-      <c r="BA23" s="84"/>
-      <c r="BB23" s="84"/>
-      <c r="BC23" s="84"/>
-      <c r="BD23" s="85"/>
-      <c r="BE23" s="83"/>
-      <c r="BF23" s="84"/>
-      <c r="BG23" s="84"/>
-      <c r="BH23" s="84"/>
-      <c r="BI23" s="84"/>
-      <c r="BJ23" s="84"/>
-      <c r="BK23" s="84"/>
-      <c r="BL23" s="84"/>
-      <c r="BM23" s="84"/>
-      <c r="BN23" s="84"/>
-      <c r="BO23" s="84"/>
-      <c r="BP23" s="85"/>
-      <c r="BQ23" s="86"/>
-      <c r="BR23" s="87"/>
-      <c r="BS23" s="87"/>
-      <c r="BT23" s="87"/>
-      <c r="BU23" s="87"/>
-      <c r="BV23" s="87"/>
-      <c r="BW23" s="87"/>
-      <c r="BX23" s="87"/>
-      <c r="BY23" s="87"/>
-      <c r="BZ23" s="87"/>
-      <c r="CA23" s="87"/>
-      <c r="CB23" s="87"/>
-      <c r="CC23" s="87"/>
-      <c r="CD23" s="87"/>
-      <c r="CE23" s="87"/>
-      <c r="CF23" s="87"/>
-      <c r="CG23" s="87"/>
-      <c r="CH23" s="87"/>
-      <c r="CI23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="91"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="93"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="83"/>
+      <c r="AN23" s="83"/>
+      <c r="AO23" s="83"/>
+      <c r="AP23" s="83"/>
+      <c r="AQ23" s="83"/>
+      <c r="AR23" s="63"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="64"/>
+      <c r="AU23" s="82"/>
+      <c r="AV23" s="83"/>
+      <c r="AW23" s="83"/>
+      <c r="AX23" s="83"/>
+      <c r="AY23" s="83"/>
+      <c r="AZ23" s="83"/>
+      <c r="BA23" s="83"/>
+      <c r="BB23" s="83"/>
+      <c r="BC23" s="83"/>
+      <c r="BD23" s="84"/>
+      <c r="BE23" s="82"/>
+      <c r="BF23" s="83"/>
+      <c r="BG23" s="83"/>
+      <c r="BH23" s="83"/>
+      <c r="BI23" s="83"/>
+      <c r="BJ23" s="83"/>
+      <c r="BK23" s="83"/>
+      <c r="BL23" s="83"/>
+      <c r="BM23" s="83"/>
+      <c r="BN23" s="83"/>
+      <c r="BO23" s="83"/>
+      <c r="BP23" s="84"/>
+      <c r="BQ23" s="85"/>
+      <c r="BR23" s="86"/>
+      <c r="BS23" s="86"/>
+      <c r="BT23" s="86"/>
+      <c r="BU23" s="86"/>
+      <c r="BV23" s="86"/>
+      <c r="BW23" s="86"/>
+      <c r="BX23" s="86"/>
+      <c r="BY23" s="86"/>
+      <c r="BZ23" s="86"/>
+      <c r="CA23" s="86"/>
+      <c r="CB23" s="86"/>
+      <c r="CC23" s="86"/>
+      <c r="CD23" s="86"/>
+      <c r="CE23" s="86"/>
+      <c r="CF23" s="86"/>
+      <c r="CG23" s="86"/>
+      <c r="CH23" s="86"/>
+      <c r="CI23" s="87"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="85"/>
-      <c r="AH24" s="83"/>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="85"/>
-      <c r="AK24" s="83"/>
-      <c r="AL24" s="84"/>
-      <c r="AM24" s="84"/>
-      <c r="AN24" s="84"/>
-      <c r="AO24" s="84"/>
-      <c r="AP24" s="84"/>
-      <c r="AQ24" s="84"/>
-      <c r="AR24" s="64"/>
-      <c r="AS24" s="64"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="83"/>
-      <c r="AV24" s="84"/>
-      <c r="AW24" s="84"/>
-      <c r="AX24" s="84"/>
-      <c r="AY24" s="84"/>
-      <c r="AZ24" s="84"/>
-      <c r="BA24" s="84"/>
-      <c r="BB24" s="84"/>
-      <c r="BC24" s="84"/>
-      <c r="BD24" s="85"/>
-      <c r="BE24" s="83"/>
-      <c r="BF24" s="84"/>
-      <c r="BG24" s="84"/>
-      <c r="BH24" s="84"/>
-      <c r="BI24" s="84"/>
-      <c r="BJ24" s="84"/>
-      <c r="BK24" s="84"/>
-      <c r="BL24" s="84"/>
-      <c r="BM24" s="84"/>
-      <c r="BN24" s="84"/>
-      <c r="BO24" s="84"/>
-      <c r="BP24" s="85"/>
-      <c r="BQ24" s="107"/>
-      <c r="BR24" s="108"/>
-      <c r="BS24" s="108"/>
-      <c r="BT24" s="108"/>
-      <c r="BU24" s="108"/>
-      <c r="BV24" s="108"/>
-      <c r="BW24" s="108"/>
-      <c r="BX24" s="108"/>
-      <c r="BY24" s="108"/>
-      <c r="BZ24" s="108"/>
-      <c r="CA24" s="108"/>
-      <c r="CB24" s="108"/>
-      <c r="CC24" s="108"/>
-      <c r="CD24" s="108"/>
-      <c r="CE24" s="108"/>
-      <c r="CF24" s="108"/>
-      <c r="CG24" s="108"/>
-      <c r="CH24" s="108"/>
-      <c r="CI24" s="109"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="83"/>
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="84"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="84"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="83"/>
+      <c r="AN24" s="83"/>
+      <c r="AO24" s="83"/>
+      <c r="AP24" s="83"/>
+      <c r="AQ24" s="83"/>
+      <c r="AR24" s="63"/>
+      <c r="AS24" s="63"/>
+      <c r="AT24" s="64"/>
+      <c r="AU24" s="82"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
+      <c r="AX24" s="83"/>
+      <c r="AY24" s="83"/>
+      <c r="AZ24" s="83"/>
+      <c r="BA24" s="83"/>
+      <c r="BB24" s="83"/>
+      <c r="BC24" s="83"/>
+      <c r="BD24" s="84"/>
+      <c r="BE24" s="82"/>
+      <c r="BF24" s="83"/>
+      <c r="BG24" s="83"/>
+      <c r="BH24" s="83"/>
+      <c r="BI24" s="83"/>
+      <c r="BJ24" s="83"/>
+      <c r="BK24" s="83"/>
+      <c r="BL24" s="83"/>
+      <c r="BM24" s="83"/>
+      <c r="BN24" s="83"/>
+      <c r="BO24" s="83"/>
+      <c r="BP24" s="84"/>
+      <c r="BQ24" s="106"/>
+      <c r="BR24" s="107"/>
+      <c r="BS24" s="107"/>
+      <c r="BT24" s="107"/>
+      <c r="BU24" s="107"/>
+      <c r="BV24" s="107"/>
+      <c r="BW24" s="107"/>
+      <c r="BX24" s="107"/>
+      <c r="BY24" s="107"/>
+      <c r="BZ24" s="107"/>
+      <c r="CA24" s="107"/>
+      <c r="CB24" s="107"/>
+      <c r="CC24" s="107"/>
+      <c r="CD24" s="107"/>
+      <c r="CE24" s="107"/>
+      <c r="CF24" s="107"/>
+      <c r="CG24" s="107"/>
+      <c r="CH24" s="107"/>
+      <c r="CI24" s="108"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1">
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="96"/>
-      <c r="AG25" s="97"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="93"/>
-      <c r="AJ25" s="94"/>
-      <c r="AK25" s="83"/>
-      <c r="AL25" s="84"/>
-      <c r="AM25" s="84"/>
-      <c r="AN25" s="84"/>
-      <c r="AO25" s="84"/>
-      <c r="AP25" s="84"/>
-      <c r="AQ25" s="84"/>
-      <c r="AR25" s="64"/>
-      <c r="AS25" s="64"/>
-      <c r="AT25" s="65"/>
-      <c r="AU25" s="83"/>
-      <c r="AV25" s="84"/>
-      <c r="AW25" s="84"/>
-      <c r="AX25" s="84"/>
-      <c r="AY25" s="84"/>
-      <c r="AZ25" s="84"/>
-      <c r="BA25" s="84"/>
-      <c r="BB25" s="84"/>
-      <c r="BC25" s="84"/>
-      <c r="BD25" s="85"/>
-      <c r="BE25" s="83"/>
-      <c r="BF25" s="84"/>
-      <c r="BG25" s="84"/>
-      <c r="BH25" s="84"/>
-      <c r="BI25" s="84"/>
-      <c r="BJ25" s="84"/>
-      <c r="BK25" s="84"/>
-      <c r="BL25" s="84"/>
-      <c r="BM25" s="84"/>
-      <c r="BN25" s="84"/>
-      <c r="BO25" s="84"/>
-      <c r="BP25" s="85"/>
-      <c r="BQ25" s="104"/>
-      <c r="BR25" s="105"/>
-      <c r="BS25" s="105"/>
-      <c r="BT25" s="105"/>
-      <c r="BU25" s="105"/>
-      <c r="BV25" s="105"/>
-      <c r="BW25" s="105"/>
-      <c r="BX25" s="105"/>
-      <c r="BY25" s="105"/>
-      <c r="BZ25" s="105"/>
-      <c r="CA25" s="105"/>
-      <c r="CB25" s="105"/>
-      <c r="CC25" s="105"/>
-      <c r="CD25" s="105"/>
-      <c r="CE25" s="105"/>
-      <c r="CF25" s="105"/>
-      <c r="CG25" s="105"/>
-      <c r="CH25" s="105"/>
-      <c r="CI25" s="106"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="91"/>
+      <c r="AI25" s="92"/>
+      <c r="AJ25" s="93"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="83"/>
+      <c r="AN25" s="83"/>
+      <c r="AO25" s="83"/>
+      <c r="AP25" s="83"/>
+      <c r="AQ25" s="83"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="82"/>
+      <c r="AV25" s="83"/>
+      <c r="AW25" s="83"/>
+      <c r="AX25" s="83"/>
+      <c r="AY25" s="83"/>
+      <c r="AZ25" s="83"/>
+      <c r="BA25" s="83"/>
+      <c r="BB25" s="83"/>
+      <c r="BC25" s="83"/>
+      <c r="BD25" s="84"/>
+      <c r="BE25" s="82"/>
+      <c r="BF25" s="83"/>
+      <c r="BG25" s="83"/>
+      <c r="BH25" s="83"/>
+      <c r="BI25" s="83"/>
+      <c r="BJ25" s="83"/>
+      <c r="BK25" s="83"/>
+      <c r="BL25" s="83"/>
+      <c r="BM25" s="83"/>
+      <c r="BN25" s="83"/>
+      <c r="BO25" s="83"/>
+      <c r="BP25" s="84"/>
+      <c r="BQ25" s="103"/>
+      <c r="BR25" s="104"/>
+      <c r="BS25" s="104"/>
+      <c r="BT25" s="104"/>
+      <c r="BU25" s="104"/>
+      <c r="BV25" s="104"/>
+      <c r="BW25" s="104"/>
+      <c r="BX25" s="104"/>
+      <c r="BY25" s="104"/>
+      <c r="BZ25" s="104"/>
+      <c r="CA25" s="104"/>
+      <c r="CB25" s="104"/>
+      <c r="CC25" s="104"/>
+      <c r="CD25" s="104"/>
+      <c r="CE25" s="104"/>
+      <c r="CF25" s="104"/>
+      <c r="CG25" s="104"/>
+      <c r="CH25" s="104"/>
+      <c r="CI25" s="105"/>
     </row>
     <row r="26" spans="2:87" ht="18" customHeight="1">
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="96"/>
-      <c r="AG26" s="97"/>
-      <c r="AH26" s="101"/>
-      <c r="AI26" s="102"/>
-      <c r="AJ26" s="103"/>
-      <c r="AK26" s="95"/>
-      <c r="AL26" s="96"/>
-      <c r="AM26" s="96"/>
-      <c r="AN26" s="96"/>
-      <c r="AO26" s="96"/>
-      <c r="AP26" s="96"/>
-      <c r="AQ26" s="96"/>
-      <c r="AR26" s="64"/>
-      <c r="AS26" s="64"/>
-      <c r="AT26" s="65"/>
-      <c r="AU26" s="95"/>
-      <c r="AV26" s="96"/>
-      <c r="AW26" s="96"/>
-      <c r="AX26" s="96"/>
-      <c r="AY26" s="96"/>
-      <c r="AZ26" s="96"/>
-      <c r="BA26" s="96"/>
-      <c r="BB26" s="96"/>
-      <c r="BC26" s="96"/>
-      <c r="BD26" s="97"/>
-      <c r="BE26" s="95"/>
-      <c r="BF26" s="96"/>
-      <c r="BG26" s="96"/>
-      <c r="BH26" s="96"/>
-      <c r="BI26" s="96"/>
-      <c r="BJ26" s="96"/>
-      <c r="BK26" s="96"/>
-      <c r="BL26" s="96"/>
-      <c r="BM26" s="96"/>
-      <c r="BN26" s="96"/>
-      <c r="BO26" s="96"/>
-      <c r="BP26" s="97"/>
-      <c r="BQ26" s="98"/>
-      <c r="BR26" s="99"/>
-      <c r="BS26" s="99"/>
-      <c r="BT26" s="99"/>
-      <c r="BU26" s="99"/>
-      <c r="BV26" s="99"/>
-      <c r="BW26" s="99"/>
-      <c r="BX26" s="99"/>
-      <c r="BY26" s="99"/>
-      <c r="BZ26" s="99"/>
-      <c r="CA26" s="99"/>
-      <c r="CB26" s="99"/>
-      <c r="CC26" s="99"/>
-      <c r="CD26" s="99"/>
-      <c r="CE26" s="99"/>
-      <c r="CF26" s="99"/>
-      <c r="CG26" s="99"/>
-      <c r="CH26" s="99"/>
-      <c r="CI26" s="100"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="101"/>
+      <c r="AJ26" s="102"/>
+      <c r="AK26" s="94"/>
+      <c r="AL26" s="95"/>
+      <c r="AM26" s="95"/>
+      <c r="AN26" s="95"/>
+      <c r="AO26" s="95"/>
+      <c r="AP26" s="95"/>
+      <c r="AQ26" s="95"/>
+      <c r="AR26" s="63"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="94"/>
+      <c r="AV26" s="95"/>
+      <c r="AW26" s="95"/>
+      <c r="AX26" s="95"/>
+      <c r="AY26" s="95"/>
+      <c r="AZ26" s="95"/>
+      <c r="BA26" s="95"/>
+      <c r="BB26" s="95"/>
+      <c r="BC26" s="95"/>
+      <c r="BD26" s="96"/>
+      <c r="BE26" s="94"/>
+      <c r="BF26" s="95"/>
+      <c r="BG26" s="95"/>
+      <c r="BH26" s="95"/>
+      <c r="BI26" s="95"/>
+      <c r="BJ26" s="95"/>
+      <c r="BK26" s="95"/>
+      <c r="BL26" s="95"/>
+      <c r="BM26" s="95"/>
+      <c r="BN26" s="95"/>
+      <c r="BO26" s="95"/>
+      <c r="BP26" s="96"/>
+      <c r="BQ26" s="97"/>
+      <c r="BR26" s="98"/>
+      <c r="BS26" s="98"/>
+      <c r="BT26" s="98"/>
+      <c r="BU26" s="98"/>
+      <c r="BV26" s="98"/>
+      <c r="BW26" s="98"/>
+      <c r="BX26" s="98"/>
+      <c r="BY26" s="98"/>
+      <c r="BZ26" s="98"/>
+      <c r="CA26" s="98"/>
+      <c r="CB26" s="98"/>
+      <c r="CC26" s="98"/>
+      <c r="CD26" s="98"/>
+      <c r="CE26" s="98"/>
+      <c r="CF26" s="98"/>
+      <c r="CG26" s="98"/>
+      <c r="CH26" s="98"/>
+      <c r="CI26" s="99"/>
     </row>
-    <row r="27" spans="2:87" ht="18" customHeight="1">
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="84"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="84"/>
-      <c r="AJ27" s="85"/>
-      <c r="AK27" s="83"/>
-      <c r="AL27" s="84"/>
-      <c r="AM27" s="84"/>
-      <c r="AN27" s="84"/>
-      <c r="AO27" s="84"/>
-      <c r="AP27" s="84"/>
-      <c r="AQ27" s="84"/>
-      <c r="AR27" s="64"/>
-      <c r="AS27" s="64"/>
-      <c r="AT27" s="65"/>
-      <c r="AU27" s="83"/>
-      <c r="AV27" s="84"/>
-      <c r="AW27" s="84"/>
-      <c r="AX27" s="84"/>
-      <c r="AY27" s="84"/>
-      <c r="AZ27" s="84"/>
-      <c r="BA27" s="84"/>
-      <c r="BB27" s="84"/>
-      <c r="BC27" s="84"/>
-      <c r="BD27" s="85"/>
-      <c r="BE27" s="83"/>
-      <c r="BF27" s="84"/>
-      <c r="BG27" s="84"/>
-      <c r="BH27" s="84"/>
-      <c r="BI27" s="84"/>
-      <c r="BJ27" s="84"/>
-      <c r="BK27" s="84"/>
-      <c r="BL27" s="84"/>
-      <c r="BM27" s="84"/>
-      <c r="BN27" s="84"/>
-      <c r="BO27" s="84"/>
-      <c r="BP27" s="85"/>
-      <c r="BQ27" s="86"/>
-      <c r="BR27" s="87"/>
-      <c r="BS27" s="87"/>
-      <c r="BT27" s="87"/>
-      <c r="BU27" s="87"/>
-      <c r="BV27" s="87"/>
-      <c r="BW27" s="87"/>
-      <c r="BX27" s="87"/>
-      <c r="BY27" s="87"/>
-      <c r="BZ27" s="87"/>
-      <c r="CA27" s="87"/>
-      <c r="CB27" s="87"/>
-      <c r="CC27" s="87"/>
-      <c r="CD27" s="87"/>
-      <c r="CE27" s="87"/>
-      <c r="CF27" s="87"/>
-      <c r="CG27" s="87"/>
-      <c r="CH27" s="87"/>
-      <c r="CI27" s="88"/>
+    <row r="27" spans="2:87" ht="18.75" customHeight="1">
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="84"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="84"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="83"/>
+      <c r="AM27" s="83"/>
+      <c r="AN27" s="83"/>
+      <c r="AO27" s="83"/>
+      <c r="AP27" s="83"/>
+      <c r="AQ27" s="83"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="83"/>
+      <c r="AW27" s="83"/>
+      <c r="AX27" s="83"/>
+      <c r="AY27" s="83"/>
+      <c r="AZ27" s="83"/>
+      <c r="BA27" s="83"/>
+      <c r="BB27" s="83"/>
+      <c r="BC27" s="83"/>
+      <c r="BD27" s="84"/>
+      <c r="BE27" s="82"/>
+      <c r="BF27" s="83"/>
+      <c r="BG27" s="83"/>
+      <c r="BH27" s="83"/>
+      <c r="BI27" s="83"/>
+      <c r="BJ27" s="83"/>
+      <c r="BK27" s="83"/>
+      <c r="BL27" s="83"/>
+      <c r="BM27" s="83"/>
+      <c r="BN27" s="83"/>
+      <c r="BO27" s="83"/>
+      <c r="BP27" s="84"/>
+      <c r="BQ27" s="85"/>
+      <c r="BR27" s="86"/>
+      <c r="BS27" s="86"/>
+      <c r="BT27" s="86"/>
+      <c r="BU27" s="86"/>
+      <c r="BV27" s="86"/>
+      <c r="BW27" s="86"/>
+      <c r="BX27" s="86"/>
+      <c r="BY27" s="86"/>
+      <c r="BZ27" s="86"/>
+      <c r="CA27" s="86"/>
+      <c r="CB27" s="86"/>
+      <c r="CC27" s="86"/>
+      <c r="CD27" s="86"/>
+      <c r="CE27" s="86"/>
+      <c r="CF27" s="86"/>
+      <c r="CG27" s="86"/>
+      <c r="CH27" s="86"/>
+      <c r="CI27" s="87"/>
     </row>
-    <row r="28" spans="2:87" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="67"/>
-      <c r="AD28" s="67"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="67"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="67"/>
-      <c r="AM28" s="67"/>
-      <c r="AN28" s="67"/>
-      <c r="AO28" s="67"/>
-      <c r="AP28" s="67"/>
-      <c r="AQ28" s="67"/>
-      <c r="AR28" s="81"/>
-      <c r="AS28" s="81"/>
-      <c r="AT28" s="82"/>
-      <c r="AU28" s="66"/>
-      <c r="AV28" s="67"/>
-      <c r="AW28" s="67"/>
-      <c r="AX28" s="67"/>
-      <c r="AY28" s="67"/>
-      <c r="AZ28" s="67"/>
-      <c r="BA28" s="67"/>
-      <c r="BB28" s="67"/>
-      <c r="BC28" s="67"/>
-      <c r="BD28" s="68"/>
-      <c r="BE28" s="66"/>
-      <c r="BF28" s="67"/>
-      <c r="BG28" s="67"/>
-      <c r="BH28" s="67"/>
-      <c r="BI28" s="67"/>
-      <c r="BJ28" s="67"/>
-      <c r="BK28" s="67"/>
-      <c r="BL28" s="67"/>
-      <c r="BM28" s="67"/>
-      <c r="BN28" s="67"/>
-      <c r="BO28" s="67"/>
-      <c r="BP28" s="68"/>
-      <c r="BQ28" s="69"/>
-      <c r="BR28" s="70"/>
-      <c r="BS28" s="70"/>
-      <c r="BT28" s="70"/>
-      <c r="BU28" s="70"/>
-      <c r="BV28" s="70"/>
-      <c r="BW28" s="70"/>
-      <c r="BX28" s="70"/>
-      <c r="BY28" s="70"/>
-      <c r="BZ28" s="70"/>
-      <c r="CA28" s="70"/>
-      <c r="CB28" s="70"/>
-      <c r="CC28" s="70"/>
-      <c r="CD28" s="70"/>
-      <c r="CE28" s="70"/>
-      <c r="CF28" s="70"/>
-      <c r="CG28" s="70"/>
-      <c r="CH28" s="70"/>
-      <c r="CI28" s="71"/>
+    <row r="28" spans="2:87" ht="18.75" thickBot="1">
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="77"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="80"/>
+      <c r="AS28" s="80"/>
+      <c r="AT28" s="81"/>
+      <c r="AU28" s="65"/>
+      <c r="AV28" s="66"/>
+      <c r="AW28" s="66"/>
+      <c r="AX28" s="66"/>
+      <c r="AY28" s="66"/>
+      <c r="AZ28" s="66"/>
+      <c r="BA28" s="66"/>
+      <c r="BB28" s="66"/>
+      <c r="BC28" s="66"/>
+      <c r="BD28" s="67"/>
+      <c r="BE28" s="65"/>
+      <c r="BF28" s="66"/>
+      <c r="BG28" s="66"/>
+      <c r="BH28" s="66"/>
+      <c r="BI28" s="66"/>
+      <c r="BJ28" s="66"/>
+      <c r="BK28" s="66"/>
+      <c r="BL28" s="66"/>
+      <c r="BM28" s="66"/>
+      <c r="BN28" s="66"/>
+      <c r="BO28" s="66"/>
+      <c r="BP28" s="67"/>
+      <c r="BQ28" s="68"/>
+      <c r="BR28" s="69"/>
+      <c r="BS28" s="69"/>
+      <c r="BT28" s="69"/>
+      <c r="BU28" s="69"/>
+      <c r="BV28" s="69"/>
+      <c r="BW28" s="69"/>
+      <c r="BX28" s="69"/>
+      <c r="BY28" s="69"/>
+      <c r="BZ28" s="69"/>
+      <c r="CA28" s="69"/>
+      <c r="CB28" s="69"/>
+      <c r="CC28" s="69"/>
+      <c r="CD28" s="69"/>
+      <c r="CE28" s="69"/>
+      <c r="CF28" s="69"/>
+      <c r="CG28" s="69"/>
+      <c r="CH28" s="69"/>
+      <c r="CI28" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="220">
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -11309,15 +11568,6 @@
     <mergeCell ref="AB10:AG10"/>
     <mergeCell ref="AH10:AJ10"/>
     <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
     <mergeCell ref="AU13:BD13"/>
     <mergeCell ref="BE13:BP13"/>
     <mergeCell ref="BQ13:CI13"/>

--- a/画面設計書/画面設計書_3_1_試験結果.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>システム名</t>
   </si>
@@ -125,13 +125,6 @@
     <t>備考</t>
   </si>
   <si>
-    <t>ヘッダ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>文字列</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -215,10 +208,6 @@
     <rPh sb="5" eb="6">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ロゴ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1032,7 +1021,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1425,8 +1414,38 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -1436,42 +1455,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -2091,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11:CE12"/>
     </sheetView>
   </sheetViews>
@@ -3150,7 +3133,7 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
@@ -4366,7 +4349,7 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -4388,7 +4371,7 @@
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
       <c r="Y5" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z5" s="22"/>
       <c r="AA5" s="22"/>
@@ -4410,7 +4393,7 @@
       <c r="AQ5" s="22"/>
       <c r="AR5" s="22"/>
       <c r="AS5" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AT5" s="23"/>
       <c r="AU5" s="23"/>
@@ -4784,7 +4767,7 @@
       <c r="BK9" s="16"/>
       <c r="BL9" s="16"/>
       <c r="BM9" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BN9" s="39"/>
       <c r="BO9" s="39"/>
@@ -4903,7 +4886,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="F11" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
@@ -5187,7 +5170,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y14" s="49"/>
       <c r="Z14" s="49"/>
@@ -5611,7 +5594,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
@@ -6141,7 +6124,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
@@ -6671,7 +6654,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G31" s="58"/>
       <c r="H31" s="58"/>
@@ -7026,7 +7009,7 @@
     <row r="36" spans="2:87">
       <c r="B36" s="4"/>
       <c r="BO36" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BP36" s="41"/>
       <c r="BQ36" s="41"/>
@@ -7201,10 +7184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK28"/>
+  <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ13" sqref="BQ13:CI13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK13" sqref="AK13:AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8262,7 +8245,7 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
@@ -9478,7 +9461,7 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -9500,7 +9483,7 @@
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
       <c r="Y5" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z5" s="22"/>
       <c r="AA5" s="22"/>
@@ -9522,7 +9505,7 @@
       <c r="AQ5" s="22"/>
       <c r="AR5" s="22"/>
       <c r="AS5" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AT5" s="23"/>
       <c r="AU5" s="23"/>
@@ -9568,208 +9551,208 @@
       <c r="CI5" s="23"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="137"/>
-      <c r="S6" s="137"/>
-      <c r="T6" s="137"/>
-      <c r="U6" s="137"/>
-      <c r="V6" s="137"/>
-      <c r="W6" s="137"/>
-      <c r="X6" s="137"/>
-      <c r="Y6" s="137"/>
-      <c r="Z6" s="137"/>
-      <c r="AA6" s="137"/>
-      <c r="AB6" s="137"/>
-      <c r="AC6" s="137"/>
-      <c r="AD6" s="137"/>
-      <c r="AE6" s="137"/>
-      <c r="AF6" s="137"/>
-      <c r="AG6" s="137"/>
-      <c r="AH6" s="137"/>
-      <c r="AI6" s="137"/>
-      <c r="AJ6" s="137"/>
-      <c r="AK6" s="137"/>
-      <c r="AL6" s="137"/>
-      <c r="AM6" s="137"/>
-      <c r="AN6" s="137"/>
-      <c r="AO6" s="137"/>
-      <c r="AP6" s="137"/>
-      <c r="AQ6" s="137"/>
-      <c r="AR6" s="137"/>
-      <c r="AS6" s="137"/>
-      <c r="AT6" s="137"/>
-      <c r="AU6" s="137"/>
-      <c r="AV6" s="137"/>
-      <c r="AW6" s="137"/>
-      <c r="AX6" s="137"/>
-      <c r="AY6" s="137"/>
-      <c r="AZ6" s="137"/>
-      <c r="BA6" s="137"/>
-      <c r="BB6" s="137"/>
-      <c r="BC6" s="137"/>
-      <c r="BD6" s="137"/>
-      <c r="BE6" s="137"/>
-      <c r="BF6" s="137"/>
-      <c r="BG6" s="137"/>
-      <c r="BH6" s="137"/>
-      <c r="BI6" s="137"/>
-      <c r="BJ6" s="137"/>
-      <c r="BK6" s="137"/>
-      <c r="BL6" s="137"/>
-      <c r="BM6" s="137"/>
-      <c r="BN6" s="137"/>
-      <c r="BO6" s="137"/>
-      <c r="BP6" s="137"/>
-      <c r="BQ6" s="137"/>
-      <c r="BR6" s="137"/>
-      <c r="BS6" s="137"/>
-      <c r="BT6" s="137"/>
-      <c r="BU6" s="137"/>
-      <c r="BV6" s="137"/>
-      <c r="BW6" s="137"/>
-      <c r="BX6" s="137"/>
-      <c r="BY6" s="137"/>
-      <c r="BZ6" s="137"/>
-      <c r="CA6" s="137"/>
-      <c r="CB6" s="137"/>
-      <c r="CC6" s="137"/>
-      <c r="CD6" s="137"/>
-      <c r="CE6" s="137"/>
-      <c r="CF6" s="137"/>
-      <c r="CG6" s="137"/>
-      <c r="CH6" s="137"/>
-      <c r="CI6" s="137"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132"/>
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="132"/>
+      <c r="AO6" s="132"/>
+      <c r="AP6" s="132"/>
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="132"/>
+      <c r="AT6" s="132"/>
+      <c r="AU6" s="132"/>
+      <c r="AV6" s="132"/>
+      <c r="AW6" s="132"/>
+      <c r="AX6" s="132"/>
+      <c r="AY6" s="132"/>
+      <c r="AZ6" s="132"/>
+      <c r="BA6" s="132"/>
+      <c r="BB6" s="132"/>
+      <c r="BC6" s="132"/>
+      <c r="BD6" s="132"/>
+      <c r="BE6" s="132"/>
+      <c r="BF6" s="132"/>
+      <c r="BG6" s="132"/>
+      <c r="BH6" s="132"/>
+      <c r="BI6" s="132"/>
+      <c r="BJ6" s="132"/>
+      <c r="BK6" s="132"/>
+      <c r="BL6" s="132"/>
+      <c r="BM6" s="132"/>
+      <c r="BN6" s="132"/>
+      <c r="BO6" s="132"/>
+      <c r="BP6" s="132"/>
+      <c r="BQ6" s="132"/>
+      <c r="BR6" s="132"/>
+      <c r="BS6" s="132"/>
+      <c r="BT6" s="132"/>
+      <c r="BU6" s="132"/>
+      <c r="BV6" s="132"/>
+      <c r="BW6" s="132"/>
+      <c r="BX6" s="132"/>
+      <c r="BY6" s="132"/>
+      <c r="BZ6" s="132"/>
+      <c r="CA6" s="132"/>
+      <c r="CB6" s="132"/>
+      <c r="CC6" s="132"/>
+      <c r="CD6" s="132"/>
+      <c r="CE6" s="132"/>
+      <c r="CF6" s="132"/>
+      <c r="CG6" s="132"/>
+      <c r="CH6" s="132"/>
+      <c r="CI6" s="132"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="139" t="s">
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="140"/>
-      <c r="R7" s="140"/>
-      <c r="S7" s="140"/>
-      <c r="T7" s="140"/>
-      <c r="U7" s="140"/>
-      <c r="V7" s="140"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="141"/>
-      <c r="Y7" s="139" t="s">
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="141"/>
-      <c r="AB7" s="139" t="s">
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="140"/>
-      <c r="AD7" s="140"/>
-      <c r="AE7" s="140"/>
-      <c r="AF7" s="140"/>
-      <c r="AG7" s="141"/>
-      <c r="AH7" s="139" t="s">
+      <c r="AC7" s="135"/>
+      <c r="AD7" s="135"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="135"/>
+      <c r="AG7" s="136"/>
+      <c r="AH7" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="140"/>
-      <c r="AJ7" s="141"/>
-      <c r="AK7" s="139" t="s">
+      <c r="AI7" s="135"/>
+      <c r="AJ7" s="136"/>
+      <c r="AK7" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="140"/>
-      <c r="AM7" s="140"/>
-      <c r="AN7" s="140"/>
-      <c r="AO7" s="140"/>
-      <c r="AP7" s="140"/>
-      <c r="AQ7" s="140"/>
-      <c r="AR7" s="144"/>
-      <c r="AS7" s="144"/>
-      <c r="AT7" s="145"/>
-      <c r="AU7" s="142" t="s">
+      <c r="AL7" s="135"/>
+      <c r="AM7" s="135"/>
+      <c r="AN7" s="135"/>
+      <c r="AO7" s="135"/>
+      <c r="AP7" s="135"/>
+      <c r="AQ7" s="135"/>
+      <c r="AR7" s="139"/>
+      <c r="AS7" s="139"/>
+      <c r="AT7" s="140"/>
+      <c r="AU7" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="142"/>
-      <c r="AW7" s="142"/>
-      <c r="AX7" s="142"/>
-      <c r="AY7" s="142"/>
-      <c r="AZ7" s="142"/>
-      <c r="BA7" s="142"/>
-      <c r="BB7" s="142"/>
-      <c r="BC7" s="142"/>
-      <c r="BD7" s="142"/>
-      <c r="BE7" s="142"/>
-      <c r="BF7" s="142"/>
-      <c r="BG7" s="142"/>
-      <c r="BH7" s="142"/>
-      <c r="BI7" s="142"/>
-      <c r="BJ7" s="142"/>
-      <c r="BK7" s="142"/>
-      <c r="BL7" s="142"/>
-      <c r="BM7" s="142"/>
-      <c r="BN7" s="142"/>
-      <c r="BO7" s="142"/>
-      <c r="BP7" s="142"/>
-      <c r="BQ7" s="143" t="s">
+      <c r="AV7" s="137"/>
+      <c r="AW7" s="137"/>
+      <c r="AX7" s="137"/>
+      <c r="AY7" s="137"/>
+      <c r="AZ7" s="137"/>
+      <c r="BA7" s="137"/>
+      <c r="BB7" s="137"/>
+      <c r="BC7" s="137"/>
+      <c r="BD7" s="137"/>
+      <c r="BE7" s="137"/>
+      <c r="BF7" s="137"/>
+      <c r="BG7" s="137"/>
+      <c r="BH7" s="137"/>
+      <c r="BI7" s="137"/>
+      <c r="BJ7" s="137"/>
+      <c r="BK7" s="137"/>
+      <c r="BL7" s="137"/>
+      <c r="BM7" s="137"/>
+      <c r="BN7" s="137"/>
+      <c r="BO7" s="137"/>
+      <c r="BP7" s="137"/>
+      <c r="BQ7" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="143"/>
-      <c r="BS7" s="143"/>
-      <c r="BT7" s="143"/>
-      <c r="BU7" s="143"/>
-      <c r="BV7" s="143"/>
-      <c r="BW7" s="143"/>
-      <c r="BX7" s="143"/>
-      <c r="BY7" s="143"/>
-      <c r="BZ7" s="143"/>
-      <c r="CA7" s="143"/>
-      <c r="CB7" s="143"/>
-      <c r="CC7" s="143"/>
-      <c r="CD7" s="143"/>
-      <c r="CE7" s="143"/>
-      <c r="CF7" s="143"/>
-      <c r="CG7" s="143"/>
-      <c r="CH7" s="143"/>
-      <c r="CI7" s="143"/>
+      <c r="BR7" s="138"/>
+      <c r="BS7" s="138"/>
+      <c r="BT7" s="138"/>
+      <c r="BU7" s="138"/>
+      <c r="BV7" s="138"/>
+      <c r="BW7" s="138"/>
+      <c r="BX7" s="138"/>
+      <c r="BY7" s="138"/>
+      <c r="BZ7" s="138"/>
+      <c r="CA7" s="138"/>
+      <c r="CB7" s="138"/>
+      <c r="CC7" s="138"/>
+      <c r="CD7" s="138"/>
+      <c r="CE7" s="138"/>
+      <c r="CF7" s="138"/>
+      <c r="CG7" s="138"/>
+      <c r="CH7" s="138"/>
+      <c r="CI7" s="138"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1">
       <c r="B8" s="61">
-        <f>ROW(B8)-7</f>
+        <f t="shared" ref="B8:B14" si="0">ROW(B8)-7</f>
         <v>1</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="63"/>
       <c r="E8" s="124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="125"/>
       <c r="G8" s="125"/>
@@ -9834,128 +9817,132 @@
       <c r="BN8" s="122"/>
       <c r="BO8" s="122"/>
       <c r="BP8" s="122"/>
-      <c r="BQ8" s="136"/>
-      <c r="BR8" s="136"/>
-      <c r="BS8" s="136"/>
-      <c r="BT8" s="136"/>
-      <c r="BU8" s="136"/>
-      <c r="BV8" s="136"/>
-      <c r="BW8" s="136"/>
-      <c r="BX8" s="136"/>
-      <c r="BY8" s="136"/>
-      <c r="BZ8" s="136"/>
-      <c r="CA8" s="136"/>
-      <c r="CB8" s="136"/>
-      <c r="CC8" s="136"/>
-      <c r="CD8" s="136"/>
-      <c r="CE8" s="136"/>
-      <c r="CF8" s="136"/>
-      <c r="CG8" s="136"/>
-      <c r="CH8" s="136"/>
-      <c r="CI8" s="136"/>
+      <c r="BQ8" s="123"/>
+      <c r="BR8" s="123"/>
+      <c r="BS8" s="123"/>
+      <c r="BT8" s="123"/>
+      <c r="BU8" s="123"/>
+      <c r="BV8" s="123"/>
+      <c r="BW8" s="123"/>
+      <c r="BX8" s="123"/>
+      <c r="BY8" s="123"/>
+      <c r="BZ8" s="123"/>
+      <c r="CA8" s="123"/>
+      <c r="CB8" s="123"/>
+      <c r="CC8" s="123"/>
+      <c r="CD8" s="123"/>
+      <c r="CE8" s="123"/>
+      <c r="CF8" s="123"/>
+      <c r="CG8" s="123"/>
+      <c r="CH8" s="123"/>
+      <c r="CI8" s="123"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1">
       <c r="B9" s="61">
-        <f t="shared" ref="B9:B16" si="0">ROW(B9)-7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="63"/>
-      <c r="E9" s="133" t="s">
-        <v>40</v>
+      <c r="E9" s="143" t="s">
+        <v>59</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="134"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="134"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="134"/>
-      <c r="V9" s="134"/>
-      <c r="W9" s="134"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="67"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="144"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="144"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="67" t="s">
+        <v>42</v>
+      </c>
       <c r="Z9" s="68"/>
       <c r="AA9" s="69"/>
-      <c r="AB9" s="133" t="s">
-        <v>24</v>
+      <c r="AB9" s="143" t="s">
+        <v>22</v>
       </c>
-      <c r="AC9" s="134"/>
-      <c r="AD9" s="134"/>
-      <c r="AE9" s="134"/>
-      <c r="AF9" s="134"/>
-      <c r="AG9" s="135"/>
-      <c r="AH9" s="67" t="s">
-        <v>41</v>
+      <c r="AC9" s="144"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="146">
+        <v>20</v>
       </c>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="64" t="s">
-        <v>42</v>
+      <c r="AI9" s="147"/>
+      <c r="AJ9" s="148"/>
+      <c r="AK9" s="143" t="s">
+        <v>60</v>
       </c>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
+      <c r="AL9" s="144"/>
+      <c r="AM9" s="144"/>
+      <c r="AN9" s="144"/>
+      <c r="AO9" s="144"/>
+      <c r="AP9" s="144"/>
+      <c r="AQ9" s="144"/>
       <c r="AR9" s="70"/>
       <c r="AS9" s="70"/>
       <c r="AT9" s="71"/>
-      <c r="AU9" s="59" t="s">
-        <v>23</v>
+      <c r="AU9" s="141" t="s">
+        <v>61</v>
       </c>
-      <c r="AV9" s="59"/>
-      <c r="AW9" s="59"/>
-      <c r="AX9" s="59"/>
-      <c r="AY9" s="59"/>
-      <c r="AZ9" s="59"/>
-      <c r="BA9" s="59"/>
-      <c r="BB9" s="59"/>
-      <c r="BC9" s="59"/>
-      <c r="BD9" s="59"/>
-      <c r="BE9" s="59" t="s">
-        <v>23</v>
+      <c r="AV9" s="141"/>
+      <c r="AW9" s="141"/>
+      <c r="AX9" s="141"/>
+      <c r="AY9" s="141"/>
+      <c r="AZ9" s="141"/>
+      <c r="BA9" s="141"/>
+      <c r="BB9" s="141"/>
+      <c r="BC9" s="141"/>
+      <c r="BD9" s="141"/>
+      <c r="BE9" s="141" t="s">
+        <v>61</v>
       </c>
-      <c r="BF9" s="59"/>
-      <c r="BG9" s="59"/>
-      <c r="BH9" s="59"/>
-      <c r="BI9" s="59"/>
-      <c r="BJ9" s="59"/>
-      <c r="BK9" s="59"/>
-      <c r="BL9" s="59"/>
-      <c r="BM9" s="59"/>
-      <c r="BN9" s="59"/>
-      <c r="BO9" s="59"/>
-      <c r="BP9" s="59"/>
-      <c r="BQ9" s="132"/>
-      <c r="BR9" s="132"/>
-      <c r="BS9" s="132"/>
-      <c r="BT9" s="132"/>
-      <c r="BU9" s="132"/>
-      <c r="BV9" s="132"/>
-      <c r="BW9" s="132"/>
-      <c r="BX9" s="132"/>
-      <c r="BY9" s="132"/>
-      <c r="BZ9" s="132"/>
-      <c r="CA9" s="132"/>
-      <c r="CB9" s="132"/>
-      <c r="CC9" s="132"/>
-      <c r="CD9" s="132"/>
-      <c r="CE9" s="132"/>
-      <c r="CF9" s="132"/>
-      <c r="CG9" s="132"/>
-      <c r="CH9" s="132"/>
-      <c r="CI9" s="132"/>
+      <c r="BF9" s="141"/>
+      <c r="BG9" s="141"/>
+      <c r="BH9" s="141"/>
+      <c r="BI9" s="141"/>
+      <c r="BJ9" s="141"/>
+      <c r="BK9" s="141"/>
+      <c r="BL9" s="141"/>
+      <c r="BM9" s="141"/>
+      <c r="BN9" s="141"/>
+      <c r="BO9" s="141"/>
+      <c r="BP9" s="141"/>
+      <c r="BQ9" s="142" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR9" s="142"/>
+      <c r="BS9" s="142"/>
+      <c r="BT9" s="142"/>
+      <c r="BU9" s="142"/>
+      <c r="BV9" s="142"/>
+      <c r="BW9" s="142"/>
+      <c r="BX9" s="142"/>
+      <c r="BY9" s="142"/>
+      <c r="BZ9" s="142"/>
+      <c r="CA9" s="142"/>
+      <c r="CB9" s="142"/>
+      <c r="CC9" s="142"/>
+      <c r="CD9" s="142"/>
+      <c r="CE9" s="142"/>
+      <c r="CF9" s="142"/>
+      <c r="CG9" s="142"/>
+      <c r="CH9" s="142"/>
+      <c r="CI9" s="142"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1">
       <c r="B10" s="61">
@@ -9964,91 +9951,105 @@
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="63"/>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="125"/>
-      <c r="AD10" s="125"/>
-      <c r="AE10" s="125"/>
-      <c r="AF10" s="125"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="127"/>
-      <c r="AI10" s="128"/>
-      <c r="AJ10" s="129"/>
-      <c r="AK10" s="124"/>
-      <c r="AL10" s="125"/>
-      <c r="AM10" s="125"/>
-      <c r="AN10" s="125"/>
-      <c r="AO10" s="125"/>
-      <c r="AP10" s="125"/>
-      <c r="AQ10" s="125"/>
-      <c r="AR10" s="130"/>
-      <c r="AS10" s="130"/>
-      <c r="AT10" s="131"/>
-      <c r="AU10" s="122"/>
-      <c r="AV10" s="122"/>
-      <c r="AW10" s="122"/>
-      <c r="AX10" s="122"/>
-      <c r="AY10" s="122"/>
-      <c r="AZ10" s="122"/>
-      <c r="BA10" s="122"/>
-      <c r="BB10" s="122"/>
-      <c r="BC10" s="122"/>
-      <c r="BD10" s="122"/>
-      <c r="BE10" s="122"/>
-      <c r="BF10" s="122"/>
-      <c r="BG10" s="122"/>
-      <c r="BH10" s="122"/>
-      <c r="BI10" s="122"/>
-      <c r="BJ10" s="122"/>
-      <c r="BK10" s="122"/>
-      <c r="BL10" s="122"/>
-      <c r="BM10" s="122"/>
-      <c r="BN10" s="122"/>
-      <c r="BO10" s="122"/>
-      <c r="BP10" s="122"/>
-      <c r="BQ10" s="123"/>
-      <c r="BR10" s="123"/>
-      <c r="BS10" s="123"/>
-      <c r="BT10" s="123"/>
-      <c r="BU10" s="123"/>
-      <c r="BV10" s="123"/>
-      <c r="BW10" s="123"/>
-      <c r="BX10" s="123"/>
-      <c r="BY10" s="123"/>
-      <c r="BZ10" s="123"/>
-      <c r="CA10" s="123"/>
-      <c r="CB10" s="123"/>
-      <c r="CC10" s="123"/>
-      <c r="CD10" s="123"/>
-      <c r="CE10" s="123"/>
-      <c r="CF10" s="123"/>
-      <c r="CG10" s="123"/>
-      <c r="CH10" s="123"/>
-      <c r="CI10" s="123"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="70"/>
+      <c r="AS10" s="70"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="59"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF10" s="59"/>
+      <c r="BG10" s="59"/>
+      <c r="BH10" s="59"/>
+      <c r="BI10" s="59"/>
+      <c r="BJ10" s="59"/>
+      <c r="BK10" s="59"/>
+      <c r="BL10" s="59"/>
+      <c r="BM10" s="59"/>
+      <c r="BN10" s="59"/>
+      <c r="BO10" s="59"/>
+      <c r="BP10" s="59"/>
+      <c r="BQ10" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR10" s="60"/>
+      <c r="BS10" s="60"/>
+      <c r="BT10" s="60"/>
+      <c r="BU10" s="60"/>
+      <c r="BV10" s="60"/>
+      <c r="BW10" s="60"/>
+      <c r="BX10" s="60"/>
+      <c r="BY10" s="60"/>
+      <c r="BZ10" s="60"/>
+      <c r="CA10" s="60"/>
+      <c r="CB10" s="60"/>
+      <c r="CC10" s="60"/>
+      <c r="CD10" s="60"/>
+      <c r="CE10" s="60"/>
+      <c r="CF10" s="60"/>
+      <c r="CG10" s="60"/>
+      <c r="CH10" s="60"/>
+      <c r="CI10" s="60"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1">
       <c r="B11" s="61">
@@ -10057,105 +10058,105 @@
       </c>
       <c r="C11" s="62"/>
       <c r="D11" s="63"/>
-      <c r="E11" s="133" t="s">
-        <v>62</v>
+      <c r="E11" s="64" t="s">
+        <v>48</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="149"/>
-      <c r="AA11" s="150"/>
-      <c r="AB11" s="133" t="s">
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="134"/>
-      <c r="AF11" s="134"/>
-      <c r="AG11" s="135"/>
-      <c r="AH11" s="148">
-        <v>20</v>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="67" t="s">
+        <v>25</v>
       </c>
-      <c r="AI11" s="149"/>
-      <c r="AJ11" s="150"/>
-      <c r="AK11" s="133" t="s">
-        <v>63</v>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="64" t="s">
+        <v>26</v>
       </c>
-      <c r="AL11" s="134"/>
-      <c r="AM11" s="134"/>
-      <c r="AN11" s="134"/>
-      <c r="AO11" s="134"/>
-      <c r="AP11" s="134"/>
-      <c r="AQ11" s="134"/>
-      <c r="AR11" s="70"/>
-      <c r="AS11" s="70"/>
-      <c r="AT11" s="71"/>
-      <c r="AU11" s="146" t="s">
-        <v>64</v>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="64" t="s">
+        <v>27</v>
       </c>
-      <c r="AV11" s="146"/>
-      <c r="AW11" s="146"/>
-      <c r="AX11" s="146"/>
-      <c r="AY11" s="146"/>
-      <c r="AZ11" s="146"/>
-      <c r="BA11" s="146"/>
-      <c r="BB11" s="146"/>
-      <c r="BC11" s="146"/>
-      <c r="BD11" s="146"/>
-      <c r="BE11" s="146" t="s">
-        <v>64</v>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="65"/>
+      <c r="AZ11" s="65"/>
+      <c r="BA11" s="65"/>
+      <c r="BB11" s="65"/>
+      <c r="BC11" s="65"/>
+      <c r="BD11" s="66"/>
+      <c r="BE11" s="64" t="s">
+        <v>27</v>
       </c>
-      <c r="BF11" s="146"/>
-      <c r="BG11" s="146"/>
-      <c r="BH11" s="146"/>
-      <c r="BI11" s="146"/>
-      <c r="BJ11" s="146"/>
-      <c r="BK11" s="146"/>
-      <c r="BL11" s="146"/>
-      <c r="BM11" s="146"/>
-      <c r="BN11" s="146"/>
-      <c r="BO11" s="146"/>
-      <c r="BP11" s="146"/>
-      <c r="BQ11" s="147" t="s">
-        <v>65</v>
+      <c r="BF11" s="65"/>
+      <c r="BG11" s="65"/>
+      <c r="BH11" s="65"/>
+      <c r="BI11" s="65"/>
+      <c r="BJ11" s="65"/>
+      <c r="BK11" s="65"/>
+      <c r="BL11" s="65"/>
+      <c r="BM11" s="65"/>
+      <c r="BN11" s="65"/>
+      <c r="BO11" s="65"/>
+      <c r="BP11" s="66"/>
+      <c r="BQ11" s="116" t="s">
+        <v>49</v>
       </c>
-      <c r="BR11" s="147"/>
-      <c r="BS11" s="147"/>
-      <c r="BT11" s="147"/>
-      <c r="BU11" s="147"/>
-      <c r="BV11" s="147"/>
-      <c r="BW11" s="147"/>
-      <c r="BX11" s="147"/>
-      <c r="BY11" s="147"/>
-      <c r="BZ11" s="147"/>
-      <c r="CA11" s="147"/>
-      <c r="CB11" s="147"/>
-      <c r="CC11" s="147"/>
-      <c r="CD11" s="147"/>
-      <c r="CE11" s="147"/>
-      <c r="CF11" s="147"/>
-      <c r="CG11" s="147"/>
-      <c r="CH11" s="147"/>
-      <c r="CI11" s="147"/>
+      <c r="BR11" s="117"/>
+      <c r="BS11" s="117"/>
+      <c r="BT11" s="117"/>
+      <c r="BU11" s="117"/>
+      <c r="BV11" s="117"/>
+      <c r="BW11" s="117"/>
+      <c r="BX11" s="117"/>
+      <c r="BY11" s="117"/>
+      <c r="BZ11" s="117"/>
+      <c r="CA11" s="117"/>
+      <c r="CB11" s="117"/>
+      <c r="CC11" s="117"/>
+      <c r="CD11" s="117"/>
+      <c r="CE11" s="117"/>
+      <c r="CF11" s="117"/>
+      <c r="CG11" s="117"/>
+      <c r="CH11" s="117"/>
+      <c r="CI11" s="118"/>
     </row>
-    <row r="12" spans="1:1024" ht="18" customHeight="1">
+    <row r="12" spans="1:1024" ht="36.75" customHeight="1">
       <c r="B12" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10185,12 +10186,12 @@
       <c r="W12" s="65"/>
       <c r="X12" s="66"/>
       <c r="Y12" s="67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z12" s="68"/>
       <c r="AA12" s="69"/>
       <c r="AB12" s="64" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AC12" s="65"/>
       <c r="AD12" s="65"/>
@@ -10198,12 +10199,12 @@
       <c r="AF12" s="65"/>
       <c r="AG12" s="66"/>
       <c r="AH12" s="67" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AI12" s="68"/>
       <c r="AJ12" s="69"/>
       <c r="AK12" s="64" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="AL12" s="65"/>
       <c r="AM12" s="65"/>
@@ -10211,58 +10212,56 @@
       <c r="AO12" s="65"/>
       <c r="AP12" s="65"/>
       <c r="AQ12" s="65"/>
-      <c r="AR12" s="70"/>
-      <c r="AS12" s="70"/>
-      <c r="AT12" s="71"/>
-      <c r="AU12" s="59" t="s">
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="59"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59" t="s">
-        <v>54</v>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="65"/>
+      <c r="BB12" s="65"/>
+      <c r="BC12" s="65"/>
+      <c r="BD12" s="66"/>
+      <c r="BE12" s="119" t="s">
+        <v>52</v>
       </c>
-      <c r="BF12" s="59"/>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="59"/>
-      <c r="BK12" s="59"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="59"/>
-      <c r="BN12" s="59"/>
-      <c r="BO12" s="59"/>
-      <c r="BP12" s="59"/>
-      <c r="BQ12" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR12" s="60"/>
-      <c r="BS12" s="60"/>
-      <c r="BT12" s="60"/>
-      <c r="BU12" s="60"/>
-      <c r="BV12" s="60"/>
-      <c r="BW12" s="60"/>
-      <c r="BX12" s="60"/>
-      <c r="BY12" s="60"/>
-      <c r="BZ12" s="60"/>
-      <c r="CA12" s="60"/>
-      <c r="CB12" s="60"/>
-      <c r="CC12" s="60"/>
-      <c r="CD12" s="60"/>
-      <c r="CE12" s="60"/>
-      <c r="CF12" s="60"/>
-      <c r="CG12" s="60"/>
-      <c r="CH12" s="60"/>
-      <c r="CI12" s="60"/>
+      <c r="BF12" s="120"/>
+      <c r="BG12" s="120"/>
+      <c r="BH12" s="120"/>
+      <c r="BI12" s="120"/>
+      <c r="BJ12" s="120"/>
+      <c r="BK12" s="120"/>
+      <c r="BL12" s="120"/>
+      <c r="BM12" s="120"/>
+      <c r="BN12" s="120"/>
+      <c r="BO12" s="120"/>
+      <c r="BP12" s="121"/>
+      <c r="BQ12" s="116"/>
+      <c r="BR12" s="117"/>
+      <c r="BS12" s="117"/>
+      <c r="BT12" s="117"/>
+      <c r="BU12" s="117"/>
+      <c r="BV12" s="117"/>
+      <c r="BW12" s="117"/>
+      <c r="BX12" s="117"/>
+      <c r="BY12" s="117"/>
+      <c r="BZ12" s="117"/>
+      <c r="CA12" s="117"/>
+      <c r="CB12" s="117"/>
+      <c r="CC12" s="117"/>
+      <c r="CD12" s="117"/>
+      <c r="CE12" s="117"/>
+      <c r="CF12" s="117"/>
+      <c r="CG12" s="117"/>
+      <c r="CH12" s="117"/>
+      <c r="CI12" s="118"/>
     </row>
-    <row r="13" spans="1:1024" ht="18" customHeight="1">
+    <row r="13" spans="1:1024" ht="36.75" customHeight="1">
       <c r="B13" s="61">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10270,7 +10269,7 @@
       <c r="C13" s="62"/>
       <c r="D13" s="63"/>
       <c r="E13" s="64" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="65"/>
@@ -10292,12 +10291,12 @@
       <c r="W13" s="65"/>
       <c r="X13" s="66"/>
       <c r="Y13" s="67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z13" s="68"/>
       <c r="AA13" s="69"/>
       <c r="AB13" s="64" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AC13" s="65"/>
       <c r="AD13" s="65"/>
@@ -10305,12 +10304,12 @@
       <c r="AF13" s="65"/>
       <c r="AG13" s="66"/>
       <c r="AH13" s="67" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AI13" s="68"/>
       <c r="AJ13" s="69"/>
       <c r="AK13" s="64" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="AL13" s="65"/>
       <c r="AM13" s="65"/>
@@ -10322,7 +10321,7 @@
       <c r="AS13" s="65"/>
       <c r="AT13" s="66"/>
       <c r="AU13" s="64" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="AV13" s="65"/>
       <c r="AW13" s="65"/>
@@ -10334,7 +10333,7 @@
       <c r="BC13" s="65"/>
       <c r="BD13" s="66"/>
       <c r="BE13" s="64" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="BF13" s="65"/>
       <c r="BG13" s="65"/>
@@ -10347,9 +10346,7 @@
       <c r="BN13" s="65"/>
       <c r="BO13" s="65"/>
       <c r="BP13" s="66"/>
-      <c r="BQ13" s="116" t="s">
-        <v>52</v>
-      </c>
+      <c r="BQ13" s="116"/>
       <c r="BR13" s="117"/>
       <c r="BS13" s="117"/>
       <c r="BT13" s="117"/>
@@ -10369,7 +10366,7 @@
       <c r="CH13" s="117"/>
       <c r="CI13" s="118"/>
     </row>
-    <row r="14" spans="1:1024" ht="36.75" customHeight="1">
+    <row r="14" spans="1:1024" ht="18" customHeight="1">
       <c r="B14" s="61">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10377,7 +10374,7 @@
       <c r="C14" s="62"/>
       <c r="D14" s="63"/>
       <c r="E14" s="64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
@@ -10398,13 +10395,11 @@
       <c r="V14" s="65"/>
       <c r="W14" s="65"/>
       <c r="X14" s="66"/>
-      <c r="Y14" s="67" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y14" s="67"/>
       <c r="Z14" s="68"/>
       <c r="AA14" s="69"/>
       <c r="AB14" s="64" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AC14" s="65"/>
       <c r="AD14" s="65"/>
@@ -10412,12 +10407,12 @@
       <c r="AF14" s="65"/>
       <c r="AG14" s="66"/>
       <c r="AH14" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AI14" s="68"/>
       <c r="AJ14" s="69"/>
       <c r="AK14" s="64" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AL14" s="65"/>
       <c r="AM14" s="65"/>
@@ -10429,7 +10424,7 @@
       <c r="AS14" s="65"/>
       <c r="AT14" s="66"/>
       <c r="AU14" s="64" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="AV14" s="65"/>
       <c r="AW14" s="65"/>
@@ -10440,21 +10435,23 @@
       <c r="BB14" s="65"/>
       <c r="BC14" s="65"/>
       <c r="BD14" s="66"/>
-      <c r="BE14" s="119" t="s">
-        <v>55</v>
+      <c r="BE14" s="64" t="s">
+        <v>27</v>
       </c>
-      <c r="BF14" s="120"/>
-      <c r="BG14" s="120"/>
-      <c r="BH14" s="120"/>
-      <c r="BI14" s="120"/>
-      <c r="BJ14" s="120"/>
-      <c r="BK14" s="120"/>
-      <c r="BL14" s="120"/>
-      <c r="BM14" s="120"/>
-      <c r="BN14" s="120"/>
-      <c r="BO14" s="120"/>
-      <c r="BP14" s="121"/>
-      <c r="BQ14" s="116"/>
+      <c r="BF14" s="65"/>
+      <c r="BG14" s="65"/>
+      <c r="BH14" s="65"/>
+      <c r="BI14" s="65"/>
+      <c r="BJ14" s="65"/>
+      <c r="BK14" s="65"/>
+      <c r="BL14" s="65"/>
+      <c r="BM14" s="65"/>
+      <c r="BN14" s="65"/>
+      <c r="BO14" s="65"/>
+      <c r="BP14" s="66"/>
+      <c r="BQ14" s="116" t="s">
+        <v>46</v>
+      </c>
       <c r="BR14" s="117"/>
       <c r="BS14" s="117"/>
       <c r="BT14" s="117"/>
@@ -10474,16 +10471,11 @@
       <c r="CH14" s="117"/>
       <c r="CI14" s="118"/>
     </row>
-    <row r="15" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B15" s="61">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+    <row r="15" spans="1:1024" ht="18" customHeight="1">
+      <c r="B15" s="61"/>
       <c r="C15" s="62"/>
       <c r="D15" s="63"/>
-      <c r="E15" s="64" t="s">
-        <v>44</v>
-      </c>
+      <c r="E15" s="64"/>
       <c r="F15" s="65"/>
       <c r="G15" s="65"/>
       <c r="H15" s="65"/>
@@ -10503,27 +10495,19 @@
       <c r="V15" s="65"/>
       <c r="W15" s="65"/>
       <c r="X15" s="66"/>
-      <c r="Y15" s="67" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y15" s="67"/>
       <c r="Z15" s="68"/>
       <c r="AA15" s="69"/>
-      <c r="AB15" s="64" t="s">
-        <v>24</v>
-      </c>
+      <c r="AB15" s="64"/>
       <c r="AC15" s="65"/>
       <c r="AD15" s="65"/>
       <c r="AE15" s="65"/>
       <c r="AF15" s="65"/>
       <c r="AG15" s="66"/>
-      <c r="AH15" s="67" t="s">
-        <v>41</v>
-      </c>
+      <c r="AH15" s="67"/>
       <c r="AI15" s="68"/>
       <c r="AJ15" s="69"/>
-      <c r="AK15" s="64" t="s">
-        <v>42</v>
-      </c>
+      <c r="AK15" s="64"/>
       <c r="AL15" s="65"/>
       <c r="AM15" s="65"/>
       <c r="AN15" s="65"/>
@@ -10533,9 +10517,7 @@
       <c r="AR15" s="65"/>
       <c r="AS15" s="65"/>
       <c r="AT15" s="66"/>
-      <c r="AU15" s="64" t="s">
-        <v>57</v>
-      </c>
+      <c r="AU15" s="64"/>
       <c r="AV15" s="65"/>
       <c r="AW15" s="65"/>
       <c r="AX15" s="65"/>
@@ -10545,9 +10527,7 @@
       <c r="BB15" s="65"/>
       <c r="BC15" s="65"/>
       <c r="BD15" s="66"/>
-      <c r="BE15" s="64" t="s">
-        <v>58</v>
-      </c>
+      <c r="BE15" s="64"/>
       <c r="BF15" s="65"/>
       <c r="BG15" s="65"/>
       <c r="BH15" s="65"/>
@@ -10580,15 +10560,10 @@
       <c r="CI15" s="118"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1">
-      <c r="B16" s="61">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="B16" s="61"/>
       <c r="C16" s="62"/>
       <c r="D16" s="63"/>
-      <c r="E16" s="64" t="s">
-        <v>50</v>
-      </c>
+      <c r="E16" s="64"/>
       <c r="F16" s="65"/>
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
@@ -10608,39 +10583,29 @@
       <c r="V16" s="65"/>
       <c r="W16" s="65"/>
       <c r="X16" s="66"/>
-      <c r="Y16" s="67" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y16" s="67"/>
       <c r="Z16" s="68"/>
       <c r="AA16" s="69"/>
-      <c r="AB16" s="64" t="s">
-        <v>47</v>
-      </c>
+      <c r="AB16" s="64"/>
       <c r="AC16" s="65"/>
       <c r="AD16" s="65"/>
       <c r="AE16" s="65"/>
       <c r="AF16" s="65"/>
       <c r="AG16" s="66"/>
-      <c r="AH16" s="67" t="s">
-        <v>41</v>
-      </c>
+      <c r="AH16" s="67"/>
       <c r="AI16" s="68"/>
       <c r="AJ16" s="69"/>
-      <c r="AK16" s="64" t="s">
-        <v>48</v>
-      </c>
+      <c r="AK16" s="64"/>
       <c r="AL16" s="65"/>
       <c r="AM16" s="65"/>
       <c r="AN16" s="65"/>
       <c r="AO16" s="65"/>
       <c r="AP16" s="65"/>
       <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="64" t="s">
-        <v>30</v>
-      </c>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="70"/>
+      <c r="AT16" s="71"/>
+      <c r="AU16" s="64"/>
       <c r="AV16" s="65"/>
       <c r="AW16" s="65"/>
       <c r="AX16" s="65"/>
@@ -10650,9 +10615,7 @@
       <c r="BB16" s="65"/>
       <c r="BC16" s="65"/>
       <c r="BD16" s="66"/>
-      <c r="BE16" s="64" t="s">
-        <v>29</v>
-      </c>
+      <c r="BE16" s="64"/>
       <c r="BF16" s="65"/>
       <c r="BG16" s="65"/>
       <c r="BH16" s="65"/>
@@ -10664,9 +10627,7 @@
       <c r="BN16" s="65"/>
       <c r="BO16" s="65"/>
       <c r="BP16" s="66"/>
-      <c r="BQ16" s="116" t="s">
-        <v>49</v>
-      </c>
+      <c r="BQ16" s="116"/>
       <c r="BR16" s="117"/>
       <c r="BS16" s="117"/>
       <c r="BT16" s="117"/>
@@ -10729,9 +10690,9 @@
       <c r="AO17" s="65"/>
       <c r="AP17" s="65"/>
       <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="66"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="70"/>
+      <c r="AT17" s="71"/>
       <c r="AU17" s="64"/>
       <c r="AV17" s="65"/>
       <c r="AW17" s="65"/>
@@ -11039,214 +11000,214 @@
       <c r="CI20" s="118"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1">
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="69"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="100"/>
       <c r="AB21" s="64"/>
       <c r="AC21" s="65"/>
       <c r="AD21" s="65"/>
       <c r="AE21" s="65"/>
       <c r="AF21" s="65"/>
       <c r="AG21" s="66"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="64"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="100"/>
+      <c r="AK21" s="89"/>
+      <c r="AL21" s="90"/>
+      <c r="AM21" s="90"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
       <c r="AR21" s="70"/>
       <c r="AS21" s="70"/>
       <c r="AT21" s="71"/>
-      <c r="AU21" s="64"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="65"/>
-      <c r="BA21" s="65"/>
-      <c r="BB21" s="65"/>
-      <c r="BC21" s="65"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="64"/>
-      <c r="BF21" s="65"/>
-      <c r="BG21" s="65"/>
-      <c r="BH21" s="65"/>
-      <c r="BI21" s="65"/>
-      <c r="BJ21" s="65"/>
-      <c r="BK21" s="65"/>
-      <c r="BL21" s="65"/>
-      <c r="BM21" s="65"/>
-      <c r="BN21" s="65"/>
-      <c r="BO21" s="65"/>
-      <c r="BP21" s="66"/>
-      <c r="BQ21" s="116"/>
-      <c r="BR21" s="117"/>
-      <c r="BS21" s="117"/>
-      <c r="BT21" s="117"/>
-      <c r="BU21" s="117"/>
-      <c r="BV21" s="117"/>
-      <c r="BW21" s="117"/>
-      <c r="BX21" s="117"/>
-      <c r="BY21" s="117"/>
-      <c r="BZ21" s="117"/>
-      <c r="CA21" s="117"/>
-      <c r="CB21" s="117"/>
-      <c r="CC21" s="117"/>
-      <c r="CD21" s="117"/>
-      <c r="CE21" s="117"/>
-      <c r="CF21" s="117"/>
-      <c r="CG21" s="117"/>
-      <c r="CH21" s="117"/>
-      <c r="CI21" s="118"/>
+      <c r="AU21" s="89"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="90"/>
+      <c r="AZ21" s="90"/>
+      <c r="BA21" s="90"/>
+      <c r="BB21" s="90"/>
+      <c r="BC21" s="90"/>
+      <c r="BD21" s="91"/>
+      <c r="BE21" s="89"/>
+      <c r="BF21" s="90"/>
+      <c r="BG21" s="90"/>
+      <c r="BH21" s="90"/>
+      <c r="BI21" s="90"/>
+      <c r="BJ21" s="90"/>
+      <c r="BK21" s="90"/>
+      <c r="BL21" s="90"/>
+      <c r="BM21" s="90"/>
+      <c r="BN21" s="90"/>
+      <c r="BO21" s="90"/>
+      <c r="BP21" s="91"/>
+      <c r="BQ21" s="92"/>
+      <c r="BR21" s="93"/>
+      <c r="BS21" s="93"/>
+      <c r="BT21" s="93"/>
+      <c r="BU21" s="93"/>
+      <c r="BV21" s="93"/>
+      <c r="BW21" s="93"/>
+      <c r="BX21" s="93"/>
+      <c r="BY21" s="93"/>
+      <c r="BZ21" s="93"/>
+      <c r="CA21" s="93"/>
+      <c r="CB21" s="93"/>
+      <c r="CC21" s="93"/>
+      <c r="CD21" s="93"/>
+      <c r="CE21" s="93"/>
+      <c r="CF21" s="93"/>
+      <c r="CG21" s="93"/>
+      <c r="CH21" s="93"/>
+      <c r="CI21" s="94"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1">
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="68"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="64"/>
-      <c r="AL22" s="65"/>
-      <c r="AM22" s="65"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="91"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="91"/>
+      <c r="AK22" s="89"/>
+      <c r="AL22" s="90"/>
+      <c r="AM22" s="90"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
       <c r="AR22" s="70"/>
       <c r="AS22" s="70"/>
       <c r="AT22" s="71"/>
-      <c r="AU22" s="64"/>
-      <c r="AV22" s="65"/>
-      <c r="AW22" s="65"/>
-      <c r="AX22" s="65"/>
-      <c r="AY22" s="65"/>
-      <c r="AZ22" s="65"/>
-      <c r="BA22" s="65"/>
-      <c r="BB22" s="65"/>
-      <c r="BC22" s="65"/>
-      <c r="BD22" s="66"/>
-      <c r="BE22" s="64"/>
-      <c r="BF22" s="65"/>
-      <c r="BG22" s="65"/>
-      <c r="BH22" s="65"/>
-      <c r="BI22" s="65"/>
-      <c r="BJ22" s="65"/>
-      <c r="BK22" s="65"/>
-      <c r="BL22" s="65"/>
-      <c r="BM22" s="65"/>
-      <c r="BN22" s="65"/>
-      <c r="BO22" s="65"/>
-      <c r="BP22" s="66"/>
-      <c r="BQ22" s="116"/>
-      <c r="BR22" s="117"/>
-      <c r="BS22" s="117"/>
-      <c r="BT22" s="117"/>
-      <c r="BU22" s="117"/>
-      <c r="BV22" s="117"/>
-      <c r="BW22" s="117"/>
-      <c r="BX22" s="117"/>
-      <c r="BY22" s="117"/>
-      <c r="BZ22" s="117"/>
-      <c r="CA22" s="117"/>
-      <c r="CB22" s="117"/>
-      <c r="CC22" s="117"/>
-      <c r="CD22" s="117"/>
-      <c r="CE22" s="117"/>
-      <c r="CF22" s="117"/>
-      <c r="CG22" s="117"/>
-      <c r="CH22" s="117"/>
-      <c r="CI22" s="118"/>
+      <c r="AU22" s="89"/>
+      <c r="AV22" s="90"/>
+      <c r="AW22" s="90"/>
+      <c r="AX22" s="90"/>
+      <c r="AY22" s="90"/>
+      <c r="AZ22" s="90"/>
+      <c r="BA22" s="90"/>
+      <c r="BB22" s="90"/>
+      <c r="BC22" s="90"/>
+      <c r="BD22" s="91"/>
+      <c r="BE22" s="89"/>
+      <c r="BF22" s="90"/>
+      <c r="BG22" s="90"/>
+      <c r="BH22" s="90"/>
+      <c r="BI22" s="90"/>
+      <c r="BJ22" s="90"/>
+      <c r="BK22" s="90"/>
+      <c r="BL22" s="90"/>
+      <c r="BM22" s="90"/>
+      <c r="BN22" s="90"/>
+      <c r="BO22" s="90"/>
+      <c r="BP22" s="91"/>
+      <c r="BQ22" s="113"/>
+      <c r="BR22" s="114"/>
+      <c r="BS22" s="114"/>
+      <c r="BT22" s="114"/>
+      <c r="BU22" s="114"/>
+      <c r="BV22" s="114"/>
+      <c r="BW22" s="114"/>
+      <c r="BX22" s="114"/>
+      <c r="BY22" s="114"/>
+      <c r="BZ22" s="114"/>
+      <c r="CA22" s="114"/>
+      <c r="CB22" s="114"/>
+      <c r="CC22" s="114"/>
+      <c r="CD22" s="114"/>
+      <c r="CE22" s="114"/>
+      <c r="CF22" s="114"/>
+      <c r="CG22" s="114"/>
+      <c r="CH22" s="114"/>
+      <c r="CI22" s="115"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1">
       <c r="B23" s="95"/>
       <c r="C23" s="96"/>
       <c r="D23" s="97"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="91"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="103"/>
       <c r="Y23" s="98"/>
       <c r="Z23" s="99"/>
       <c r="AA23" s="100"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="66"/>
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="102"/>
+      <c r="AF23" s="102"/>
+      <c r="AG23" s="103"/>
       <c r="AH23" s="98"/>
       <c r="AI23" s="99"/>
       <c r="AJ23" s="100"/>
@@ -11282,150 +11243,150 @@
       <c r="BN23" s="90"/>
       <c r="BO23" s="90"/>
       <c r="BP23" s="91"/>
-      <c r="BQ23" s="92"/>
-      <c r="BR23" s="93"/>
-      <c r="BS23" s="93"/>
-      <c r="BT23" s="93"/>
-      <c r="BU23" s="93"/>
-      <c r="BV23" s="93"/>
-      <c r="BW23" s="93"/>
-      <c r="BX23" s="93"/>
-      <c r="BY23" s="93"/>
-      <c r="BZ23" s="93"/>
-      <c r="CA23" s="93"/>
-      <c r="CB23" s="93"/>
-      <c r="CC23" s="93"/>
-      <c r="CD23" s="93"/>
-      <c r="CE23" s="93"/>
-      <c r="CF23" s="93"/>
-      <c r="CG23" s="93"/>
-      <c r="CH23" s="93"/>
-      <c r="CI23" s="94"/>
+      <c r="BQ23" s="110"/>
+      <c r="BR23" s="111"/>
+      <c r="BS23" s="111"/>
+      <c r="BT23" s="111"/>
+      <c r="BU23" s="111"/>
+      <c r="BV23" s="111"/>
+      <c r="BW23" s="111"/>
+      <c r="BX23" s="111"/>
+      <c r="BY23" s="111"/>
+      <c r="BZ23" s="111"/>
+      <c r="CA23" s="111"/>
+      <c r="CB23" s="111"/>
+      <c r="CC23" s="111"/>
+      <c r="CD23" s="111"/>
+      <c r="CE23" s="111"/>
+      <c r="CF23" s="111"/>
+      <c r="CG23" s="111"/>
+      <c r="CH23" s="111"/>
+      <c r="CI23" s="112"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1">
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
       <c r="D24" s="97"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="91"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="90"/>
-      <c r="AJ24" s="91"/>
-      <c r="AK24" s="89"/>
-      <c r="AL24" s="90"/>
-      <c r="AM24" s="90"/>
-      <c r="AN24" s="90"/>
-      <c r="AO24" s="90"/>
-      <c r="AP24" s="90"/>
-      <c r="AQ24" s="90"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="108"/>
+      <c r="AA24" s="109"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="102"/>
+      <c r="AF24" s="102"/>
+      <c r="AG24" s="103"/>
+      <c r="AH24" s="107"/>
+      <c r="AI24" s="108"/>
+      <c r="AJ24" s="109"/>
+      <c r="AK24" s="101"/>
+      <c r="AL24" s="102"/>
+      <c r="AM24" s="102"/>
+      <c r="AN24" s="102"/>
+      <c r="AO24" s="102"/>
+      <c r="AP24" s="102"/>
+      <c r="AQ24" s="102"/>
       <c r="AR24" s="70"/>
       <c r="AS24" s="70"/>
       <c r="AT24" s="71"/>
-      <c r="AU24" s="89"/>
-      <c r="AV24" s="90"/>
-      <c r="AW24" s="90"/>
-      <c r="AX24" s="90"/>
-      <c r="AY24" s="90"/>
-      <c r="AZ24" s="90"/>
-      <c r="BA24" s="90"/>
-      <c r="BB24" s="90"/>
-      <c r="BC24" s="90"/>
-      <c r="BD24" s="91"/>
-      <c r="BE24" s="89"/>
-      <c r="BF24" s="90"/>
-      <c r="BG24" s="90"/>
-      <c r="BH24" s="90"/>
-      <c r="BI24" s="90"/>
-      <c r="BJ24" s="90"/>
-      <c r="BK24" s="90"/>
-      <c r="BL24" s="90"/>
-      <c r="BM24" s="90"/>
-      <c r="BN24" s="90"/>
-      <c r="BO24" s="90"/>
-      <c r="BP24" s="91"/>
-      <c r="BQ24" s="113"/>
-      <c r="BR24" s="114"/>
-      <c r="BS24" s="114"/>
-      <c r="BT24" s="114"/>
-      <c r="BU24" s="114"/>
-      <c r="BV24" s="114"/>
-      <c r="BW24" s="114"/>
-      <c r="BX24" s="114"/>
-      <c r="BY24" s="114"/>
-      <c r="BZ24" s="114"/>
-      <c r="CA24" s="114"/>
-      <c r="CB24" s="114"/>
-      <c r="CC24" s="114"/>
-      <c r="CD24" s="114"/>
-      <c r="CE24" s="114"/>
-      <c r="CF24" s="114"/>
-      <c r="CG24" s="114"/>
-      <c r="CH24" s="114"/>
-      <c r="CI24" s="115"/>
+      <c r="AU24" s="101"/>
+      <c r="AV24" s="102"/>
+      <c r="AW24" s="102"/>
+      <c r="AX24" s="102"/>
+      <c r="AY24" s="102"/>
+      <c r="AZ24" s="102"/>
+      <c r="BA24" s="102"/>
+      <c r="BB24" s="102"/>
+      <c r="BC24" s="102"/>
+      <c r="BD24" s="103"/>
+      <c r="BE24" s="101"/>
+      <c r="BF24" s="102"/>
+      <c r="BG24" s="102"/>
+      <c r="BH24" s="102"/>
+      <c r="BI24" s="102"/>
+      <c r="BJ24" s="102"/>
+      <c r="BK24" s="102"/>
+      <c r="BL24" s="102"/>
+      <c r="BM24" s="102"/>
+      <c r="BN24" s="102"/>
+      <c r="BO24" s="102"/>
+      <c r="BP24" s="103"/>
+      <c r="BQ24" s="104"/>
+      <c r="BR24" s="105"/>
+      <c r="BS24" s="105"/>
+      <c r="BT24" s="105"/>
+      <c r="BU24" s="105"/>
+      <c r="BV24" s="105"/>
+      <c r="BW24" s="105"/>
+      <c r="BX24" s="105"/>
+      <c r="BY24" s="105"/>
+      <c r="BZ24" s="105"/>
+      <c r="CA24" s="105"/>
+      <c r="CB24" s="105"/>
+      <c r="CC24" s="105"/>
+      <c r="CD24" s="105"/>
+      <c r="CE24" s="105"/>
+      <c r="CF24" s="105"/>
+      <c r="CG24" s="105"/>
+      <c r="CH24" s="105"/>
+      <c r="CI24" s="106"/>
     </row>
-    <row r="25" spans="2:87" ht="18" customHeight="1">
+    <row r="25" spans="2:87" ht="18.75" customHeight="1">
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
       <c r="D25" s="97"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="103"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="91"/>
       <c r="Y25" s="98"/>
       <c r="Z25" s="99"/>
       <c r="AA25" s="100"/>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="102"/>
-      <c r="AE25" s="102"/>
-      <c r="AF25" s="102"/>
-      <c r="AG25" s="103"/>
-      <c r="AH25" s="98"/>
-      <c r="AI25" s="99"/>
-      <c r="AJ25" s="100"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="91"/>
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="91"/>
       <c r="AK25" s="89"/>
       <c r="AL25" s="90"/>
       <c r="AM25" s="90"/>
@@ -11458,301 +11419,125 @@
       <c r="BN25" s="90"/>
       <c r="BO25" s="90"/>
       <c r="BP25" s="91"/>
-      <c r="BQ25" s="110"/>
-      <c r="BR25" s="111"/>
-      <c r="BS25" s="111"/>
-      <c r="BT25" s="111"/>
-      <c r="BU25" s="111"/>
-      <c r="BV25" s="111"/>
-      <c r="BW25" s="111"/>
-      <c r="BX25" s="111"/>
-      <c r="BY25" s="111"/>
-      <c r="BZ25" s="111"/>
-      <c r="CA25" s="111"/>
-      <c r="CB25" s="111"/>
-      <c r="CC25" s="111"/>
-      <c r="CD25" s="111"/>
-      <c r="CE25" s="111"/>
-      <c r="CF25" s="111"/>
-      <c r="CG25" s="111"/>
-      <c r="CH25" s="111"/>
-      <c r="CI25" s="112"/>
+      <c r="BQ25" s="92"/>
+      <c r="BR25" s="93"/>
+      <c r="BS25" s="93"/>
+      <c r="BT25" s="93"/>
+      <c r="BU25" s="93"/>
+      <c r="BV25" s="93"/>
+      <c r="BW25" s="93"/>
+      <c r="BX25" s="93"/>
+      <c r="BY25" s="93"/>
+      <c r="BZ25" s="93"/>
+      <c r="CA25" s="93"/>
+      <c r="CB25" s="93"/>
+      <c r="CC25" s="93"/>
+      <c r="CD25" s="93"/>
+      <c r="CE25" s="93"/>
+      <c r="CF25" s="93"/>
+      <c r="CG25" s="93"/>
+      <c r="CH25" s="93"/>
+      <c r="CI25" s="94"/>
     </row>
-    <row r="26" spans="2:87" ht="18" customHeight="1">
-      <c r="B26" s="95"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="107"/>
-      <c r="Z26" s="108"/>
-      <c r="AA26" s="109"/>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="102"/>
-      <c r="AE26" s="102"/>
-      <c r="AF26" s="102"/>
-      <c r="AG26" s="103"/>
-      <c r="AH26" s="107"/>
-      <c r="AI26" s="108"/>
-      <c r="AJ26" s="109"/>
-      <c r="AK26" s="101"/>
-      <c r="AL26" s="102"/>
-      <c r="AM26" s="102"/>
-      <c r="AN26" s="102"/>
-      <c r="AO26" s="102"/>
-      <c r="AP26" s="102"/>
-      <c r="AQ26" s="102"/>
-      <c r="AR26" s="70"/>
-      <c r="AS26" s="70"/>
-      <c r="AT26" s="71"/>
-      <c r="AU26" s="101"/>
-      <c r="AV26" s="102"/>
-      <c r="AW26" s="102"/>
-      <c r="AX26" s="102"/>
-      <c r="AY26" s="102"/>
-      <c r="AZ26" s="102"/>
-      <c r="BA26" s="102"/>
-      <c r="BB26" s="102"/>
-      <c r="BC26" s="102"/>
-      <c r="BD26" s="103"/>
-      <c r="BE26" s="101"/>
-      <c r="BF26" s="102"/>
-      <c r="BG26" s="102"/>
-      <c r="BH26" s="102"/>
-      <c r="BI26" s="102"/>
-      <c r="BJ26" s="102"/>
-      <c r="BK26" s="102"/>
-      <c r="BL26" s="102"/>
-      <c r="BM26" s="102"/>
-      <c r="BN26" s="102"/>
-      <c r="BO26" s="102"/>
-      <c r="BP26" s="103"/>
-      <c r="BQ26" s="104"/>
-      <c r="BR26" s="105"/>
-      <c r="BS26" s="105"/>
-      <c r="BT26" s="105"/>
-      <c r="BU26" s="105"/>
-      <c r="BV26" s="105"/>
-      <c r="BW26" s="105"/>
-      <c r="BX26" s="105"/>
-      <c r="BY26" s="105"/>
-      <c r="BZ26" s="105"/>
-      <c r="CA26" s="105"/>
-      <c r="CB26" s="105"/>
-      <c r="CC26" s="105"/>
-      <c r="CD26" s="105"/>
-      <c r="CE26" s="105"/>
-      <c r="CF26" s="105"/>
-      <c r="CG26" s="105"/>
-      <c r="CH26" s="105"/>
-      <c r="CI26" s="106"/>
-    </row>
-    <row r="27" spans="2:87" ht="18.75" customHeight="1">
-      <c r="B27" s="95"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="100"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="91"/>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="90"/>
-      <c r="AM27" s="90"/>
-      <c r="AN27" s="90"/>
-      <c r="AO27" s="90"/>
-      <c r="AP27" s="90"/>
-      <c r="AQ27" s="90"/>
-      <c r="AR27" s="70"/>
-      <c r="AS27" s="70"/>
-      <c r="AT27" s="71"/>
-      <c r="AU27" s="89"/>
-      <c r="AV27" s="90"/>
-      <c r="AW27" s="90"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="90"/>
-      <c r="AZ27" s="90"/>
-      <c r="BA27" s="90"/>
-      <c r="BB27" s="90"/>
-      <c r="BC27" s="90"/>
-      <c r="BD27" s="91"/>
-      <c r="BE27" s="89"/>
-      <c r="BF27" s="90"/>
-      <c r="BG27" s="90"/>
-      <c r="BH27" s="90"/>
-      <c r="BI27" s="90"/>
-      <c r="BJ27" s="90"/>
-      <c r="BK27" s="90"/>
-      <c r="BL27" s="90"/>
-      <c r="BM27" s="90"/>
-      <c r="BN27" s="90"/>
-      <c r="BO27" s="90"/>
-      <c r="BP27" s="91"/>
-      <c r="BQ27" s="92"/>
-      <c r="BR27" s="93"/>
-      <c r="BS27" s="93"/>
-      <c r="BT27" s="93"/>
-      <c r="BU27" s="93"/>
-      <c r="BV27" s="93"/>
-      <c r="BW27" s="93"/>
-      <c r="BX27" s="93"/>
-      <c r="BY27" s="93"/>
-      <c r="BZ27" s="93"/>
-      <c r="CA27" s="93"/>
-      <c r="CB27" s="93"/>
-      <c r="CC27" s="93"/>
-      <c r="CD27" s="93"/>
-      <c r="CE27" s="93"/>
-      <c r="CF27" s="93"/>
-      <c r="CG27" s="93"/>
-      <c r="CH27" s="93"/>
-      <c r="CI27" s="94"/>
-    </row>
-    <row r="28" spans="2:87" ht="18.75" thickBot="1">
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="74"/>
-      <c r="AH28" s="84"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="86"/>
-      <c r="AK28" s="72"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="73"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="87"/>
-      <c r="AS28" s="87"/>
-      <c r="AT28" s="88"/>
-      <c r="AU28" s="72"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="73"/>
-      <c r="AX28" s="73"/>
-      <c r="AY28" s="73"/>
-      <c r="AZ28" s="73"/>
-      <c r="BA28" s="73"/>
-      <c r="BB28" s="73"/>
-      <c r="BC28" s="73"/>
-      <c r="BD28" s="74"/>
-      <c r="BE28" s="72"/>
-      <c r="BF28" s="73"/>
-      <c r="BG28" s="73"/>
-      <c r="BH28" s="73"/>
-      <c r="BI28" s="73"/>
-      <c r="BJ28" s="73"/>
-      <c r="BK28" s="73"/>
-      <c r="BL28" s="73"/>
-      <c r="BM28" s="73"/>
-      <c r="BN28" s="73"/>
-      <c r="BO28" s="73"/>
-      <c r="BP28" s="74"/>
-      <c r="BQ28" s="75"/>
-      <c r="BR28" s="76"/>
-      <c r="BS28" s="76"/>
-      <c r="BT28" s="76"/>
-      <c r="BU28" s="76"/>
-      <c r="BV28" s="76"/>
-      <c r="BW28" s="76"/>
-      <c r="BX28" s="76"/>
-      <c r="BY28" s="76"/>
-      <c r="BZ28" s="76"/>
-      <c r="CA28" s="76"/>
-      <c r="CB28" s="76"/>
-      <c r="CC28" s="76"/>
-      <c r="CD28" s="76"/>
-      <c r="CE28" s="76"/>
-      <c r="CF28" s="76"/>
-      <c r="CG28" s="76"/>
-      <c r="CH28" s="76"/>
-      <c r="CI28" s="77"/>
+    <row r="26" spans="2:87" ht="18.75" thickBot="1">
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="84"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="84"/>
+      <c r="AI26" s="85"/>
+      <c r="AJ26" s="86"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="73"/>
+      <c r="AN26" s="73"/>
+      <c r="AO26" s="73"/>
+      <c r="AP26" s="73"/>
+      <c r="AQ26" s="73"/>
+      <c r="AR26" s="87"/>
+      <c r="AS26" s="87"/>
+      <c r="AT26" s="88"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="73"/>
+      <c r="AW26" s="73"/>
+      <c r="AX26" s="73"/>
+      <c r="AY26" s="73"/>
+      <c r="AZ26" s="73"/>
+      <c r="BA26" s="73"/>
+      <c r="BB26" s="73"/>
+      <c r="BC26" s="73"/>
+      <c r="BD26" s="74"/>
+      <c r="BE26" s="72"/>
+      <c r="BF26" s="73"/>
+      <c r="BG26" s="73"/>
+      <c r="BH26" s="73"/>
+      <c r="BI26" s="73"/>
+      <c r="BJ26" s="73"/>
+      <c r="BK26" s="73"/>
+      <c r="BL26" s="73"/>
+      <c r="BM26" s="73"/>
+      <c r="BN26" s="73"/>
+      <c r="BO26" s="73"/>
+      <c r="BP26" s="74"/>
+      <c r="BQ26" s="75"/>
+      <c r="BR26" s="76"/>
+      <c r="BS26" s="76"/>
+      <c r="BT26" s="76"/>
+      <c r="BU26" s="76"/>
+      <c r="BV26" s="76"/>
+      <c r="BW26" s="76"/>
+      <c r="BX26" s="76"/>
+      <c r="BY26" s="76"/>
+      <c r="BZ26" s="76"/>
+      <c r="CA26" s="76"/>
+      <c r="CB26" s="76"/>
+      <c r="CC26" s="76"/>
+      <c r="CD26" s="76"/>
+      <c r="CE26" s="76"/>
+      <c r="CF26" s="76"/>
+      <c r="CG26" s="76"/>
+      <c r="CH26" s="76"/>
+      <c r="CI26" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="220">
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
+  <mergeCells count="202">
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -11793,24 +11578,24 @@
     <mergeCell ref="AB8:AG8"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
     <mergeCell ref="AU13:BD13"/>
     <mergeCell ref="BE13:BP13"/>
     <mergeCell ref="BQ13:CI13"/>
@@ -11850,20 +11635,20 @@
     <mergeCell ref="AU17:BD17"/>
     <mergeCell ref="BE17:BP17"/>
     <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:X17"/>
     <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AH17:AJ17"/>
     <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AB18:AG18"/>
     <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
     <mergeCell ref="AK18:AT18"/>
     <mergeCell ref="AU19:BD19"/>
     <mergeCell ref="BE19:BP19"/>
@@ -11886,20 +11671,20 @@
     <mergeCell ref="AU21:BD21"/>
     <mergeCell ref="BE21:BP21"/>
     <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:X22"/>
     <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AG22"/>
     <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AK21:AT21"/>
     <mergeCell ref="AK22:AT22"/>
     <mergeCell ref="AU23:BD23"/>
     <mergeCell ref="BE23:BP23"/>
@@ -11937,33 +11722,15 @@
     <mergeCell ref="AB26:AG26"/>
     <mergeCell ref="AH26:AJ26"/>
     <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AU27:BD27"/>
-    <mergeCell ref="BE27:BP27"/>
-    <mergeCell ref="BQ27:CI27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="AK27:AT27"/>
-    <mergeCell ref="AU28:BD28"/>
-    <mergeCell ref="BE28:BP28"/>
-    <mergeCell ref="BQ28:CI28"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="AK28:AT28"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験結果.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>システム名</t>
   </si>
@@ -463,6 +463,35 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ヘッダ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面に戻る</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -548,7 +577,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,6 +618,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1021,7 +1056,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1072,6 +1107,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,12 +1245,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1464,6 +1508,60 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1806,6 +1904,154 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="1019175"/>
+          <a:ext cx="9124950" cy="521970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1"/>
+            <a:t> Sylph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1" baseline="0"/>
+            <a:t> Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" baseline="0"/>
+            <a:t>試験アプリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="1181100"/>
+          <a:ext cx="1066800" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2074,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK39"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:CE12"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP15" sqref="BP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2088,102 +2334,102 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="35" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="39"/>
+      <c r="BL1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="36"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="37" t="s">
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="40"/>
+      <c r="BP1" s="41"/>
+      <c r="BQ1" s="41"/>
+      <c r="BR1" s="41"/>
+      <c r="BS1" s="41"/>
+      <c r="BT1" s="41"/>
+      <c r="BU1" s="41"/>
+      <c r="BV1" s="41"/>
+      <c r="BW1" s="41"/>
+      <c r="BX1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="37"/>
-      <c r="BZ1" s="37"/>
-      <c r="CA1" s="37"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24"/>
-      <c r="CI1" s="24"/>
+      <c r="BY1" s="42"/>
+      <c r="BZ1" s="42"/>
+      <c r="CA1" s="42"/>
+      <c r="CB1" s="29"/>
+      <c r="CC1" s="29"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="29"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -3124,102 +3370,102 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="28" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="32"/>
+      <c r="BL2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="28"/>
-      <c r="BP2" s="29"/>
-      <c r="BQ2" s="29"/>
-      <c r="BR2" s="29"/>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="30" t="s">
+      <c r="BM2" s="33"/>
+      <c r="BN2" s="33"/>
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="30"/>
-      <c r="CA2" s="30"/>
-      <c r="CB2" s="31"/>
-      <c r="CC2" s="31"/>
-      <c r="CD2" s="31"/>
-      <c r="CE2" s="31"/>
-      <c r="CF2" s="31"/>
-      <c r="CG2" s="31"/>
-      <c r="CH2" s="31"/>
-      <c r="CI2" s="31"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CA2" s="35"/>
+      <c r="CB2" s="36"/>
+      <c r="CC2" s="36"/>
+      <c r="CD2" s="36"/>
+      <c r="CE2" s="36"/>
+      <c r="CF2" s="36"/>
+      <c r="CG2" s="36"/>
+      <c r="CH2" s="36"/>
+      <c r="CI2" s="36"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -4247,196 +4493,196 @@
       <c r="CI3" s="10"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="20" t="s">
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="20"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="20"/>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="20"/>
-      <c r="BR4" s="20"/>
-      <c r="BS4" s="20"/>
-      <c r="BT4" s="20"/>
-      <c r="BU4" s="20"/>
-      <c r="BV4" s="20"/>
-      <c r="BW4" s="20"/>
-      <c r="BX4" s="20"/>
-      <c r="BY4" s="20"/>
-      <c r="BZ4" s="20"/>
-      <c r="CA4" s="20"/>
-      <c r="CB4" s="20"/>
-      <c r="CC4" s="20"/>
-      <c r="CD4" s="20"/>
-      <c r="CE4" s="20"/>
-      <c r="CF4" s="20"/>
-      <c r="CG4" s="20"/>
-      <c r="CH4" s="20"/>
-      <c r="CI4" s="20"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="25"/>
+      <c r="BB4" s="25"/>
+      <c r="BC4" s="25"/>
+      <c r="BD4" s="25"/>
+      <c r="BE4" s="25"/>
+      <c r="BF4" s="25"/>
+      <c r="BG4" s="25"/>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25"/>
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="25"/>
+      <c r="BR4" s="25"/>
+      <c r="BS4" s="25"/>
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="25"/>
+      <c r="BV4" s="25"/>
+      <c r="BW4" s="25"/>
+      <c r="BX4" s="25"/>
+      <c r="BY4" s="25"/>
+      <c r="BZ4" s="25"/>
+      <c r="CA4" s="25"/>
+      <c r="CB4" s="25"/>
+      <c r="CC4" s="25"/>
+      <c r="CD4" s="25"/>
+      <c r="CE4" s="25"/>
+      <c r="CF4" s="25"/>
+      <c r="CG4" s="25"/>
+      <c r="CH4" s="25"/>
+      <c r="CI4" s="25"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1">
-      <c r="B5" s="21">
+      <c r="B5" s="26">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="23" t="s">
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="23"/>
-      <c r="AW5" s="23"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="23"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="23"/>
-      <c r="BB5" s="23"/>
-      <c r="BC5" s="23"/>
-      <c r="BD5" s="23"/>
-      <c r="BE5" s="23"/>
-      <c r="BF5" s="23"/>
-      <c r="BG5" s="23"/>
-      <c r="BH5" s="23"/>
-      <c r="BI5" s="23"/>
-      <c r="BJ5" s="23"/>
-      <c r="BK5" s="23"/>
-      <c r="BL5" s="23"/>
-      <c r="BM5" s="23"/>
-      <c r="BN5" s="23"/>
-      <c r="BO5" s="23"/>
-      <c r="BP5" s="23"/>
-      <c r="BQ5" s="23"/>
-      <c r="BR5" s="23"/>
-      <c r="BS5" s="23"/>
-      <c r="BT5" s="23"/>
-      <c r="BU5" s="23"/>
-      <c r="BV5" s="23"/>
-      <c r="BW5" s="23"/>
-      <c r="BX5" s="23"/>
-      <c r="BY5" s="23"/>
-      <c r="BZ5" s="23"/>
-      <c r="CA5" s="23"/>
-      <c r="CB5" s="23"/>
-      <c r="CC5" s="23"/>
-      <c r="CD5" s="23"/>
-      <c r="CE5" s="23"/>
-      <c r="CF5" s="23"/>
-      <c r="CG5" s="23"/>
-      <c r="CH5" s="23"/>
-      <c r="CI5" s="23"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="28"/>
+      <c r="BA5" s="28"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="28"/>
+      <c r="BD5" s="28"/>
+      <c r="BE5" s="28"/>
+      <c r="BF5" s="28"/>
+      <c r="BG5" s="28"/>
+      <c r="BH5" s="28"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="28"/>
+      <c r="BL5" s="28"/>
+      <c r="BM5" s="28"/>
+      <c r="BN5" s="28"/>
+      <c r="BO5" s="28"/>
+      <c r="BP5" s="28"/>
+      <c r="BQ5" s="28"/>
+      <c r="BR5" s="28"/>
+      <c r="BS5" s="28"/>
+      <c r="BT5" s="28"/>
+      <c r="BU5" s="28"/>
+      <c r="BV5" s="28"/>
+      <c r="BW5" s="28"/>
+      <c r="BX5" s="28"/>
+      <c r="BY5" s="28"/>
+      <c r="BZ5" s="28"/>
+      <c r="CA5" s="28"/>
+      <c r="CB5" s="28"/>
+      <c r="CC5" s="28"/>
+      <c r="CD5" s="28"/>
+      <c r="CE5" s="28"/>
+      <c r="CF5" s="28"/>
+      <c r="CG5" s="28"/>
+      <c r="CH5" s="28"/>
+      <c r="CI5" s="28"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
       <c r="B6" s="14"/>
@@ -4766,29 +5012,29 @@
       <c r="BJ9" s="16"/>
       <c r="BK9" s="16"/>
       <c r="BL9" s="16"/>
-      <c r="BM9" s="38" t="s">
+      <c r="BM9" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="BN9" s="39"/>
-      <c r="BO9" s="39"/>
-      <c r="BP9" s="39"/>
-      <c r="BQ9" s="39"/>
-      <c r="BR9" s="39"/>
-      <c r="BS9" s="39"/>
-      <c r="BT9" s="39"/>
-      <c r="BU9" s="39"/>
-      <c r="BV9" s="39"/>
-      <c r="BW9" s="39"/>
-      <c r="BX9" s="39"/>
-      <c r="BY9" s="39"/>
-      <c r="BZ9" s="39"/>
-      <c r="CA9" s="39"/>
-      <c r="CB9" s="39"/>
-      <c r="CC9" s="39"/>
-      <c r="CD9" s="39"/>
-      <c r="CE9" s="39"/>
-      <c r="CF9" s="39"/>
-      <c r="CG9" s="39"/>
+      <c r="BN9" s="44"/>
+      <c r="BO9" s="44"/>
+      <c r="BP9" s="44"/>
+      <c r="BQ9" s="44"/>
+      <c r="BR9" s="44"/>
+      <c r="BS9" s="44"/>
+      <c r="BT9" s="44"/>
+      <c r="BU9" s="44"/>
+      <c r="BV9" s="44"/>
+      <c r="BW9" s="44"/>
+      <c r="BX9" s="44"/>
+      <c r="BY9" s="44"/>
+      <c r="BZ9" s="44"/>
+      <c r="CA9" s="44"/>
+      <c r="CB9" s="44"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="44"/>
+      <c r="CE9" s="44"/>
+      <c r="CF9" s="44"/>
+      <c r="CG9" s="44"/>
       <c r="CH9" s="16"/>
       <c r="CI9" s="17"/>
     </row>
@@ -4885,86 +5131,86 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="47"/>
-      <c r="AS11" s="47"/>
-      <c r="AT11" s="47"/>
-      <c r="AU11" s="47"/>
-      <c r="AV11" s="47"/>
-      <c r="AW11" s="47"/>
-      <c r="AX11" s="47"/>
-      <c r="AY11" s="47"/>
-      <c r="AZ11" s="47"/>
-      <c r="BA11" s="47"/>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="47"/>
-      <c r="BE11" s="47"/>
-      <c r="BF11" s="47"/>
-      <c r="BG11" s="47"/>
-      <c r="BH11" s="47"/>
-      <c r="BI11" s="47"/>
-      <c r="BJ11" s="47"/>
-      <c r="BK11" s="47"/>
-      <c r="BL11" s="47"/>
-      <c r="BM11" s="47"/>
-      <c r="BN11" s="47"/>
-      <c r="BO11" s="47"/>
-      <c r="BP11" s="47"/>
-      <c r="BQ11" s="47"/>
-      <c r="BR11" s="47"/>
-      <c r="BS11" s="47"/>
-      <c r="BT11" s="47"/>
-      <c r="BU11" s="47"/>
-      <c r="BV11" s="47"/>
-      <c r="BW11" s="47"/>
-      <c r="BX11" s="47"/>
-      <c r="BY11" s="47"/>
-      <c r="BZ11" s="47"/>
-      <c r="CA11" s="47"/>
-      <c r="CB11" s="47"/>
-      <c r="CC11" s="47"/>
-      <c r="CD11" s="47"/>
-      <c r="CE11" s="47"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52"/>
+      <c r="AO11" s="52"/>
+      <c r="AP11" s="52"/>
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="52"/>
+      <c r="AS11" s="52"/>
+      <c r="AT11" s="52"/>
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="52"/>
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="52"/>
+      <c r="AY11" s="52"/>
+      <c r="AZ11" s="52"/>
+      <c r="BA11" s="52"/>
+      <c r="BB11" s="52"/>
+      <c r="BC11" s="52"/>
+      <c r="BD11" s="52"/>
+      <c r="BE11" s="52"/>
+      <c r="BF11" s="52"/>
+      <c r="BG11" s="52"/>
+      <c r="BH11" s="52"/>
+      <c r="BI11" s="52"/>
+      <c r="BJ11" s="52"/>
+      <c r="BK11" s="52"/>
+      <c r="BL11" s="52"/>
+      <c r="BM11" s="52"/>
+      <c r="BN11" s="52"/>
+      <c r="BO11" s="52"/>
+      <c r="BP11" s="52"/>
+      <c r="BQ11" s="52"/>
+      <c r="BR11" s="52"/>
+      <c r="BS11" s="52"/>
+      <c r="BT11" s="52"/>
+      <c r="BU11" s="52"/>
+      <c r="BV11" s="52"/>
+      <c r="BW11" s="52"/>
+      <c r="BX11" s="52"/>
+      <c r="BY11" s="52"/>
+      <c r="BZ11" s="52"/>
+      <c r="CA11" s="52"/>
+      <c r="CB11" s="52"/>
+      <c r="CC11" s="52"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="52"/>
       <c r="CF11" s="6"/>
       <c r="CG11" s="6"/>
       <c r="CH11" s="6"/>
@@ -4975,84 +5221,84 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="47"/>
-      <c r="AP12" s="47"/>
-      <c r="AQ12" s="47"/>
-      <c r="AR12" s="47"/>
-      <c r="AS12" s="47"/>
-      <c r="AT12" s="47"/>
-      <c r="AU12" s="47"/>
-      <c r="AV12" s="47"/>
-      <c r="AW12" s="47"/>
-      <c r="AX12" s="47"/>
-      <c r="AY12" s="47"/>
-      <c r="AZ12" s="47"/>
-      <c r="BA12" s="47"/>
-      <c r="BB12" s="47"/>
-      <c r="BC12" s="47"/>
-      <c r="BD12" s="47"/>
-      <c r="BE12" s="47"/>
-      <c r="BF12" s="47"/>
-      <c r="BG12" s="47"/>
-      <c r="BH12" s="47"/>
-      <c r="BI12" s="47"/>
-      <c r="BJ12" s="47"/>
-      <c r="BK12" s="47"/>
-      <c r="BL12" s="47"/>
-      <c r="BM12" s="47"/>
-      <c r="BN12" s="47"/>
-      <c r="BO12" s="47"/>
-      <c r="BP12" s="47"/>
-      <c r="BQ12" s="47"/>
-      <c r="BR12" s="47"/>
-      <c r="BS12" s="47"/>
-      <c r="BT12" s="47"/>
-      <c r="BU12" s="47"/>
-      <c r="BV12" s="47"/>
-      <c r="BW12" s="47"/>
-      <c r="BX12" s="47"/>
-      <c r="BY12" s="47"/>
-      <c r="BZ12" s="47"/>
-      <c r="CA12" s="47"/>
-      <c r="CB12" s="47"/>
-      <c r="CC12" s="47"/>
-      <c r="CD12" s="47"/>
-      <c r="CE12" s="47"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="52"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="52"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="52"/>
+      <c r="AQ12" s="52"/>
+      <c r="AR12" s="52"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="52"/>
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="52"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="52"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="52"/>
+      <c r="BI12" s="52"/>
+      <c r="BJ12" s="52"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="52"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="52"/>
+      <c r="BS12" s="52"/>
+      <c r="BT12" s="52"/>
+      <c r="BU12" s="52"/>
+      <c r="BV12" s="52"/>
+      <c r="BW12" s="52"/>
+      <c r="BX12" s="52"/>
+      <c r="BY12" s="52"/>
+      <c r="BZ12" s="52"/>
+      <c r="CA12" s="52"/>
+      <c r="CB12" s="52"/>
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="52"/>
       <c r="CF12" s="6"/>
       <c r="CG12" s="6"/>
       <c r="CH12" s="6"/>
@@ -5169,50 +5415,50 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="48" t="s">
+      <c r="X14" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="49"/>
-      <c r="AS14" s="49"/>
-      <c r="AT14" s="49"/>
-      <c r="AU14" s="49"/>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
-      <c r="BB14" s="49"/>
-      <c r="BC14" s="49"/>
-      <c r="BD14" s="49"/>
-      <c r="BE14" s="49"/>
-      <c r="BF14" s="49"/>
-      <c r="BG14" s="49"/>
-      <c r="BH14" s="49"/>
-      <c r="BI14" s="49"/>
-      <c r="BJ14" s="49"/>
-      <c r="BK14" s="49"/>
-      <c r="BL14" s="49"/>
-      <c r="BM14" s="50"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="54"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="54"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="54"/>
+      <c r="AU14" s="54"/>
+      <c r="AV14" s="54"/>
+      <c r="AW14" s="54"/>
+      <c r="AX14" s="54"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="54"/>
+      <c r="BA14" s="54"/>
+      <c r="BB14" s="54"/>
+      <c r="BC14" s="54"/>
+      <c r="BD14" s="54"/>
+      <c r="BE14" s="54"/>
+      <c r="BF14" s="54"/>
+      <c r="BG14" s="54"/>
+      <c r="BH14" s="54"/>
+      <c r="BI14" s="54"/>
+      <c r="BJ14" s="54"/>
+      <c r="BK14" s="54"/>
+      <c r="BL14" s="54"/>
+      <c r="BM14" s="55"/>
       <c r="BN14" s="6"/>
       <c r="BO14" s="6"/>
       <c r="BP14" s="6"/>
@@ -5259,48 +5505,48 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="52"/>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="52"/>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="52"/>
-      <c r="AV15" s="52"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="52"/>
-      <c r="BG15" s="52"/>
-      <c r="BH15" s="52"/>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="52"/>
-      <c r="BL15" s="52"/>
-      <c r="BM15" s="53"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="57"/>
+      <c r="AZ15" s="57"/>
+      <c r="BA15" s="57"/>
+      <c r="BB15" s="57"/>
+      <c r="BC15" s="57"/>
+      <c r="BD15" s="57"/>
+      <c r="BE15" s="57"/>
+      <c r="BF15" s="57"/>
+      <c r="BG15" s="57"/>
+      <c r="BH15" s="57"/>
+      <c r="BI15" s="57"/>
+      <c r="BJ15" s="57"/>
+      <c r="BK15" s="57"/>
+      <c r="BL15" s="57"/>
+      <c r="BM15" s="58"/>
       <c r="BN15" s="6"/>
       <c r="BO15" s="6"/>
       <c r="BP15" s="6"/>
@@ -5347,48 +5593,48 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="52"/>
-      <c r="AP16" s="52"/>
-      <c r="AQ16" s="52"/>
-      <c r="AR16" s="52"/>
-      <c r="AS16" s="52"/>
-      <c r="AT16" s="52"/>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="52"/>
-      <c r="AW16" s="52"/>
-      <c r="AX16" s="52"/>
-      <c r="AY16" s="52"/>
-      <c r="AZ16" s="52"/>
-      <c r="BA16" s="52"/>
-      <c r="BB16" s="52"/>
-      <c r="BC16" s="52"/>
-      <c r="BD16" s="52"/>
-      <c r="BE16" s="52"/>
-      <c r="BF16" s="52"/>
-      <c r="BG16" s="52"/>
-      <c r="BH16" s="52"/>
-      <c r="BI16" s="52"/>
-      <c r="BJ16" s="52"/>
-      <c r="BK16" s="52"/>
-      <c r="BL16" s="52"/>
-      <c r="BM16" s="53"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="57"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="57"/>
+      <c r="AX16" s="57"/>
+      <c r="AY16" s="57"/>
+      <c r="AZ16" s="57"/>
+      <c r="BA16" s="57"/>
+      <c r="BB16" s="57"/>
+      <c r="BC16" s="57"/>
+      <c r="BD16" s="57"/>
+      <c r="BE16" s="57"/>
+      <c r="BF16" s="57"/>
+      <c r="BG16" s="57"/>
+      <c r="BH16" s="57"/>
+      <c r="BI16" s="57"/>
+      <c r="BJ16" s="57"/>
+      <c r="BK16" s="57"/>
+      <c r="BL16" s="57"/>
+      <c r="BM16" s="58"/>
       <c r="BN16" s="6"/>
       <c r="BO16" s="6"/>
       <c r="BP16" s="6"/>
@@ -5435,48 +5681,48 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
-      <c r="AP17" s="55"/>
-      <c r="AQ17" s="55"/>
-      <c r="AR17" s="55"/>
-      <c r="AS17" s="55"/>
-      <c r="AT17" s="55"/>
-      <c r="AU17" s="55"/>
-      <c r="AV17" s="55"/>
-      <c r="AW17" s="55"/>
-      <c r="AX17" s="55"/>
-      <c r="AY17" s="55"/>
-      <c r="AZ17" s="55"/>
-      <c r="BA17" s="55"/>
-      <c r="BB17" s="55"/>
-      <c r="BC17" s="55"/>
-      <c r="BD17" s="55"/>
-      <c r="BE17" s="55"/>
-      <c r="BF17" s="55"/>
-      <c r="BG17" s="55"/>
-      <c r="BH17" s="55"/>
-      <c r="BI17" s="55"/>
-      <c r="BJ17" s="55"/>
-      <c r="BK17" s="55"/>
-      <c r="BL17" s="55"/>
-      <c r="BM17" s="56"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="60"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="60"/>
+      <c r="AU17" s="60"/>
+      <c r="AV17" s="60"/>
+      <c r="AW17" s="60"/>
+      <c r="AX17" s="60"/>
+      <c r="AY17" s="60"/>
+      <c r="AZ17" s="60"/>
+      <c r="BA17" s="60"/>
+      <c r="BB17" s="60"/>
+      <c r="BC17" s="60"/>
+      <c r="BD17" s="60"/>
+      <c r="BE17" s="60"/>
+      <c r="BF17" s="60"/>
+      <c r="BG17" s="60"/>
+      <c r="BH17" s="60"/>
+      <c r="BI17" s="60"/>
+      <c r="BJ17" s="60"/>
+      <c r="BK17" s="60"/>
+      <c r="BL17" s="60"/>
+      <c r="BM17" s="61"/>
       <c r="BN17" s="6"/>
       <c r="BO17" s="6"/>
       <c r="BP17" s="6"/>
@@ -5593,86 +5839,86 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="57"/>
-      <c r="AJ19" s="57"/>
-      <c r="AK19" s="57"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="57"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
-      <c r="AU19" s="57"/>
-      <c r="AV19" s="57"/>
-      <c r="AW19" s="57"/>
-      <c r="AX19" s="57"/>
-      <c r="AY19" s="57"/>
-      <c r="AZ19" s="57"/>
-      <c r="BA19" s="57"/>
-      <c r="BB19" s="57"/>
-      <c r="BC19" s="57"/>
-      <c r="BD19" s="57"/>
-      <c r="BE19" s="57"/>
-      <c r="BF19" s="57"/>
-      <c r="BG19" s="57"/>
-      <c r="BH19" s="57"/>
-      <c r="BI19" s="57"/>
-      <c r="BJ19" s="57"/>
-      <c r="BK19" s="57"/>
-      <c r="BL19" s="57"/>
-      <c r="BM19" s="57"/>
-      <c r="BN19" s="57"/>
-      <c r="BO19" s="57"/>
-      <c r="BP19" s="57"/>
-      <c r="BQ19" s="57"/>
-      <c r="BR19" s="57"/>
-      <c r="BS19" s="57"/>
-      <c r="BT19" s="57"/>
-      <c r="BU19" s="57"/>
-      <c r="BV19" s="57"/>
-      <c r="BW19" s="57"/>
-      <c r="BX19" s="57"/>
-      <c r="BY19" s="57"/>
-      <c r="BZ19" s="57"/>
-      <c r="CA19" s="57"/>
-      <c r="CB19" s="57"/>
-      <c r="CC19" s="57"/>
-      <c r="CD19" s="57"/>
-      <c r="CE19" s="57"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="62"/>
+      <c r="AU19" s="62"/>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="62"/>
+      <c r="AY19" s="62"/>
+      <c r="AZ19" s="62"/>
+      <c r="BA19" s="62"/>
+      <c r="BB19" s="62"/>
+      <c r="BC19" s="62"/>
+      <c r="BD19" s="62"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="62"/>
+      <c r="BI19" s="62"/>
+      <c r="BJ19" s="62"/>
+      <c r="BK19" s="62"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="62"/>
+      <c r="BN19" s="62"/>
+      <c r="BO19" s="62"/>
+      <c r="BP19" s="62"/>
+      <c r="BQ19" s="62"/>
+      <c r="BR19" s="62"/>
+      <c r="BS19" s="62"/>
+      <c r="BT19" s="62"/>
+      <c r="BU19" s="62"/>
+      <c r="BV19" s="62"/>
+      <c r="BW19" s="62"/>
+      <c r="BX19" s="62"/>
+      <c r="BY19" s="62"/>
+      <c r="BZ19" s="62"/>
+      <c r="CA19" s="62"/>
+      <c r="CB19" s="62"/>
+      <c r="CC19" s="62"/>
+      <c r="CD19" s="62"/>
+      <c r="CE19" s="62"/>
       <c r="CF19" s="6"/>
       <c r="CG19" s="6"/>
       <c r="CH19" s="6"/>
@@ -5683,84 +5929,84 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="57"/>
-      <c r="AW20" s="57"/>
-      <c r="AX20" s="57"/>
-      <c r="AY20" s="57"/>
-      <c r="AZ20" s="57"/>
-      <c r="BA20" s="57"/>
-      <c r="BB20" s="57"/>
-      <c r="BC20" s="57"/>
-      <c r="BD20" s="57"/>
-      <c r="BE20" s="57"/>
-      <c r="BF20" s="57"/>
-      <c r="BG20" s="57"/>
-      <c r="BH20" s="57"/>
-      <c r="BI20" s="57"/>
-      <c r="BJ20" s="57"/>
-      <c r="BK20" s="57"/>
-      <c r="BL20" s="57"/>
-      <c r="BM20" s="57"/>
-      <c r="BN20" s="57"/>
-      <c r="BO20" s="57"/>
-      <c r="BP20" s="57"/>
-      <c r="BQ20" s="57"/>
-      <c r="BR20" s="57"/>
-      <c r="BS20" s="57"/>
-      <c r="BT20" s="57"/>
-      <c r="BU20" s="57"/>
-      <c r="BV20" s="57"/>
-      <c r="BW20" s="57"/>
-      <c r="BX20" s="57"/>
-      <c r="BY20" s="57"/>
-      <c r="BZ20" s="57"/>
-      <c r="CA20" s="57"/>
-      <c r="CB20" s="57"/>
-      <c r="CC20" s="57"/>
-      <c r="CD20" s="57"/>
-      <c r="CE20" s="57"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="62"/>
+      <c r="AV20" s="62"/>
+      <c r="AW20" s="62"/>
+      <c r="AX20" s="62"/>
+      <c r="AY20" s="62"/>
+      <c r="AZ20" s="62"/>
+      <c r="BA20" s="62"/>
+      <c r="BB20" s="62"/>
+      <c r="BC20" s="62"/>
+      <c r="BD20" s="62"/>
+      <c r="BE20" s="62"/>
+      <c r="BF20" s="62"/>
+      <c r="BG20" s="62"/>
+      <c r="BH20" s="62"/>
+      <c r="BI20" s="62"/>
+      <c r="BJ20" s="62"/>
+      <c r="BK20" s="62"/>
+      <c r="BL20" s="62"/>
+      <c r="BM20" s="62"/>
+      <c r="BN20" s="62"/>
+      <c r="BO20" s="62"/>
+      <c r="BP20" s="62"/>
+      <c r="BQ20" s="62"/>
+      <c r="BR20" s="62"/>
+      <c r="BS20" s="62"/>
+      <c r="BT20" s="62"/>
+      <c r="BU20" s="62"/>
+      <c r="BV20" s="62"/>
+      <c r="BW20" s="62"/>
+      <c r="BX20" s="62"/>
+      <c r="BY20" s="62"/>
+      <c r="BZ20" s="62"/>
+      <c r="CA20" s="62"/>
+      <c r="CB20" s="62"/>
+      <c r="CC20" s="62"/>
+      <c r="CD20" s="62"/>
+      <c r="CE20" s="62"/>
       <c r="CF20" s="6"/>
       <c r="CG20" s="6"/>
       <c r="CH20" s="6"/>
@@ -5771,84 +6017,84 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="57"/>
-      <c r="AK21" s="57"/>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="57"/>
-      <c r="AN21" s="57"/>
-      <c r="AO21" s="57"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="57"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="57"/>
-      <c r="AU21" s="57"/>
-      <c r="AV21" s="57"/>
-      <c r="AW21" s="57"/>
-      <c r="AX21" s="57"/>
-      <c r="AY21" s="57"/>
-      <c r="AZ21" s="57"/>
-      <c r="BA21" s="57"/>
-      <c r="BB21" s="57"/>
-      <c r="BC21" s="57"/>
-      <c r="BD21" s="57"/>
-      <c r="BE21" s="57"/>
-      <c r="BF21" s="57"/>
-      <c r="BG21" s="57"/>
-      <c r="BH21" s="57"/>
-      <c r="BI21" s="57"/>
-      <c r="BJ21" s="57"/>
-      <c r="BK21" s="57"/>
-      <c r="BL21" s="57"/>
-      <c r="BM21" s="57"/>
-      <c r="BN21" s="57"/>
-      <c r="BO21" s="57"/>
-      <c r="BP21" s="57"/>
-      <c r="BQ21" s="57"/>
-      <c r="BR21" s="57"/>
-      <c r="BS21" s="57"/>
-      <c r="BT21" s="57"/>
-      <c r="BU21" s="57"/>
-      <c r="BV21" s="57"/>
-      <c r="BW21" s="57"/>
-      <c r="BX21" s="57"/>
-      <c r="BY21" s="57"/>
-      <c r="BZ21" s="57"/>
-      <c r="CA21" s="57"/>
-      <c r="CB21" s="57"/>
-      <c r="CC21" s="57"/>
-      <c r="CD21" s="57"/>
-      <c r="CE21" s="57"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="62"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="62"/>
+      <c r="AT21" s="62"/>
+      <c r="AU21" s="62"/>
+      <c r="AV21" s="62"/>
+      <c r="AW21" s="62"/>
+      <c r="AX21" s="62"/>
+      <c r="AY21" s="62"/>
+      <c r="AZ21" s="62"/>
+      <c r="BA21" s="62"/>
+      <c r="BB21" s="62"/>
+      <c r="BC21" s="62"/>
+      <c r="BD21" s="62"/>
+      <c r="BE21" s="62"/>
+      <c r="BF21" s="62"/>
+      <c r="BG21" s="62"/>
+      <c r="BH21" s="62"/>
+      <c r="BI21" s="62"/>
+      <c r="BJ21" s="62"/>
+      <c r="BK21" s="62"/>
+      <c r="BL21" s="62"/>
+      <c r="BM21" s="62"/>
+      <c r="BN21" s="62"/>
+      <c r="BO21" s="62"/>
+      <c r="BP21" s="62"/>
+      <c r="BQ21" s="62"/>
+      <c r="BR21" s="62"/>
+      <c r="BS21" s="62"/>
+      <c r="BT21" s="62"/>
+      <c r="BU21" s="62"/>
+      <c r="BV21" s="62"/>
+      <c r="BW21" s="62"/>
+      <c r="BX21" s="62"/>
+      <c r="BY21" s="62"/>
+      <c r="BZ21" s="62"/>
+      <c r="CA21" s="62"/>
+      <c r="CB21" s="62"/>
+      <c r="CC21" s="62"/>
+      <c r="CD21" s="62"/>
+      <c r="CE21" s="62"/>
       <c r="CF21" s="6"/>
       <c r="CG21" s="6"/>
       <c r="CH21" s="6"/>
@@ -5859,84 +6105,84 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="57"/>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="57"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="57"/>
-      <c r="AV22" s="57"/>
-      <c r="AW22" s="57"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="57"/>
-      <c r="AZ22" s="57"/>
-      <c r="BA22" s="57"/>
-      <c r="BB22" s="57"/>
-      <c r="BC22" s="57"/>
-      <c r="BD22" s="57"/>
-      <c r="BE22" s="57"/>
-      <c r="BF22" s="57"/>
-      <c r="BG22" s="57"/>
-      <c r="BH22" s="57"/>
-      <c r="BI22" s="57"/>
-      <c r="BJ22" s="57"/>
-      <c r="BK22" s="57"/>
-      <c r="BL22" s="57"/>
-      <c r="BM22" s="57"/>
-      <c r="BN22" s="57"/>
-      <c r="BO22" s="57"/>
-      <c r="BP22" s="57"/>
-      <c r="BQ22" s="57"/>
-      <c r="BR22" s="57"/>
-      <c r="BS22" s="57"/>
-      <c r="BT22" s="57"/>
-      <c r="BU22" s="57"/>
-      <c r="BV22" s="57"/>
-      <c r="BW22" s="57"/>
-      <c r="BX22" s="57"/>
-      <c r="BY22" s="57"/>
-      <c r="BZ22" s="57"/>
-      <c r="CA22" s="57"/>
-      <c r="CB22" s="57"/>
-      <c r="CC22" s="57"/>
-      <c r="CD22" s="57"/>
-      <c r="CE22" s="57"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="62"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="62"/>
+      <c r="AX22" s="62"/>
+      <c r="AY22" s="62"/>
+      <c r="AZ22" s="62"/>
+      <c r="BA22" s="62"/>
+      <c r="BB22" s="62"/>
+      <c r="BC22" s="62"/>
+      <c r="BD22" s="62"/>
+      <c r="BE22" s="62"/>
+      <c r="BF22" s="62"/>
+      <c r="BG22" s="62"/>
+      <c r="BH22" s="62"/>
+      <c r="BI22" s="62"/>
+      <c r="BJ22" s="62"/>
+      <c r="BK22" s="62"/>
+      <c r="BL22" s="62"/>
+      <c r="BM22" s="62"/>
+      <c r="BN22" s="62"/>
+      <c r="BO22" s="62"/>
+      <c r="BP22" s="62"/>
+      <c r="BQ22" s="62"/>
+      <c r="BR22" s="62"/>
+      <c r="BS22" s="62"/>
+      <c r="BT22" s="62"/>
+      <c r="BU22" s="62"/>
+      <c r="BV22" s="62"/>
+      <c r="BW22" s="62"/>
+      <c r="BX22" s="62"/>
+      <c r="BY22" s="62"/>
+      <c r="BZ22" s="62"/>
+      <c r="CA22" s="62"/>
+      <c r="CB22" s="62"/>
+      <c r="CC22" s="62"/>
+      <c r="CD22" s="62"/>
+      <c r="CE22" s="62"/>
       <c r="CF22" s="6"/>
       <c r="CG22" s="6"/>
       <c r="CH22" s="6"/>
@@ -6123,86 +6369,86 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="58"/>
-      <c r="AL25" s="58"/>
-      <c r="AM25" s="58"/>
-      <c r="AN25" s="58"/>
-      <c r="AO25" s="58"/>
-      <c r="AP25" s="58"/>
-      <c r="AQ25" s="58"/>
-      <c r="AR25" s="58"/>
-      <c r="AS25" s="58"/>
-      <c r="AT25" s="58"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="58"/>
-      <c r="AX25" s="58"/>
-      <c r="AY25" s="58"/>
-      <c r="AZ25" s="58"/>
-      <c r="BA25" s="58"/>
-      <c r="BB25" s="58"/>
-      <c r="BC25" s="58"/>
-      <c r="BD25" s="58"/>
-      <c r="BE25" s="58"/>
-      <c r="BF25" s="58"/>
-      <c r="BG25" s="58"/>
-      <c r="BH25" s="58"/>
-      <c r="BI25" s="58"/>
-      <c r="BJ25" s="58"/>
-      <c r="BK25" s="58"/>
-      <c r="BL25" s="58"/>
-      <c r="BM25" s="58"/>
-      <c r="BN25" s="58"/>
-      <c r="BO25" s="58"/>
-      <c r="BP25" s="58"/>
-      <c r="BQ25" s="58"/>
-      <c r="BR25" s="58"/>
-      <c r="BS25" s="58"/>
-      <c r="BT25" s="58"/>
-      <c r="BU25" s="58"/>
-      <c r="BV25" s="58"/>
-      <c r="BW25" s="58"/>
-      <c r="BX25" s="58"/>
-      <c r="BY25" s="58"/>
-      <c r="BZ25" s="58"/>
-      <c r="CA25" s="58"/>
-      <c r="CB25" s="58"/>
-      <c r="CC25" s="58"/>
-      <c r="CD25" s="58"/>
-      <c r="CE25" s="58"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="63"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="63"/>
+      <c r="AV25" s="63"/>
+      <c r="AW25" s="63"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="63"/>
+      <c r="AZ25" s="63"/>
+      <c r="BA25" s="63"/>
+      <c r="BB25" s="63"/>
+      <c r="BC25" s="63"/>
+      <c r="BD25" s="63"/>
+      <c r="BE25" s="63"/>
+      <c r="BF25" s="63"/>
+      <c r="BG25" s="63"/>
+      <c r="BH25" s="63"/>
+      <c r="BI25" s="63"/>
+      <c r="BJ25" s="63"/>
+      <c r="BK25" s="63"/>
+      <c r="BL25" s="63"/>
+      <c r="BM25" s="63"/>
+      <c r="BN25" s="63"/>
+      <c r="BO25" s="63"/>
+      <c r="BP25" s="63"/>
+      <c r="BQ25" s="63"/>
+      <c r="BR25" s="63"/>
+      <c r="BS25" s="63"/>
+      <c r="BT25" s="63"/>
+      <c r="BU25" s="63"/>
+      <c r="BV25" s="63"/>
+      <c r="BW25" s="63"/>
+      <c r="BX25" s="63"/>
+      <c r="BY25" s="63"/>
+      <c r="BZ25" s="63"/>
+      <c r="CA25" s="63"/>
+      <c r="CB25" s="63"/>
+      <c r="CC25" s="63"/>
+      <c r="CD25" s="63"/>
+      <c r="CE25" s="63"/>
       <c r="CF25" s="6"/>
       <c r="CG25" s="6"/>
       <c r="CH25" s="6"/>
@@ -6213,84 +6459,84 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="58"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="58"/>
-      <c r="AL26" s="58"/>
-      <c r="AM26" s="58"/>
-      <c r="AN26" s="58"/>
-      <c r="AO26" s="58"/>
-      <c r="AP26" s="58"/>
-      <c r="AQ26" s="58"/>
-      <c r="AR26" s="58"/>
-      <c r="AS26" s="58"/>
-      <c r="AT26" s="58"/>
-      <c r="AU26" s="58"/>
-      <c r="AV26" s="58"/>
-      <c r="AW26" s="58"/>
-      <c r="AX26" s="58"/>
-      <c r="AY26" s="58"/>
-      <c r="AZ26" s="58"/>
-      <c r="BA26" s="58"/>
-      <c r="BB26" s="58"/>
-      <c r="BC26" s="58"/>
-      <c r="BD26" s="58"/>
-      <c r="BE26" s="58"/>
-      <c r="BF26" s="58"/>
-      <c r="BG26" s="58"/>
-      <c r="BH26" s="58"/>
-      <c r="BI26" s="58"/>
-      <c r="BJ26" s="58"/>
-      <c r="BK26" s="58"/>
-      <c r="BL26" s="58"/>
-      <c r="BM26" s="58"/>
-      <c r="BN26" s="58"/>
-      <c r="BO26" s="58"/>
-      <c r="BP26" s="58"/>
-      <c r="BQ26" s="58"/>
-      <c r="BR26" s="58"/>
-      <c r="BS26" s="58"/>
-      <c r="BT26" s="58"/>
-      <c r="BU26" s="58"/>
-      <c r="BV26" s="58"/>
-      <c r="BW26" s="58"/>
-      <c r="BX26" s="58"/>
-      <c r="BY26" s="58"/>
-      <c r="BZ26" s="58"/>
-      <c r="CA26" s="58"/>
-      <c r="CB26" s="58"/>
-      <c r="CC26" s="58"/>
-      <c r="CD26" s="58"/>
-      <c r="CE26" s="58"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="63"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="63"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="63"/>
+      <c r="AU26" s="63"/>
+      <c r="AV26" s="63"/>
+      <c r="AW26" s="63"/>
+      <c r="AX26" s="63"/>
+      <c r="AY26" s="63"/>
+      <c r="AZ26" s="63"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="63"/>
+      <c r="BC26" s="63"/>
+      <c r="BD26" s="63"/>
+      <c r="BE26" s="63"/>
+      <c r="BF26" s="63"/>
+      <c r="BG26" s="63"/>
+      <c r="BH26" s="63"/>
+      <c r="BI26" s="63"/>
+      <c r="BJ26" s="63"/>
+      <c r="BK26" s="63"/>
+      <c r="BL26" s="63"/>
+      <c r="BM26" s="63"/>
+      <c r="BN26" s="63"/>
+      <c r="BO26" s="63"/>
+      <c r="BP26" s="63"/>
+      <c r="BQ26" s="63"/>
+      <c r="BR26" s="63"/>
+      <c r="BS26" s="63"/>
+      <c r="BT26" s="63"/>
+      <c r="BU26" s="63"/>
+      <c r="BV26" s="63"/>
+      <c r="BW26" s="63"/>
+      <c r="BX26" s="63"/>
+      <c r="BY26" s="63"/>
+      <c r="BZ26" s="63"/>
+      <c r="CA26" s="63"/>
+      <c r="CB26" s="63"/>
+      <c r="CC26" s="63"/>
+      <c r="CD26" s="63"/>
+      <c r="CE26" s="63"/>
       <c r="CF26" s="6"/>
       <c r="CG26" s="6"/>
       <c r="CH26" s="6"/>
@@ -6301,84 +6547,84 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="58"/>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="58"/>
-      <c r="AL27" s="58"/>
-      <c r="AM27" s="58"/>
-      <c r="AN27" s="58"/>
-      <c r="AO27" s="58"/>
-      <c r="AP27" s="58"/>
-      <c r="AQ27" s="58"/>
-      <c r="AR27" s="58"/>
-      <c r="AS27" s="58"/>
-      <c r="AT27" s="58"/>
-      <c r="AU27" s="58"/>
-      <c r="AV27" s="58"/>
-      <c r="AW27" s="58"/>
-      <c r="AX27" s="58"/>
-      <c r="AY27" s="58"/>
-      <c r="AZ27" s="58"/>
-      <c r="BA27" s="58"/>
-      <c r="BB27" s="58"/>
-      <c r="BC27" s="58"/>
-      <c r="BD27" s="58"/>
-      <c r="BE27" s="58"/>
-      <c r="BF27" s="58"/>
-      <c r="BG27" s="58"/>
-      <c r="BH27" s="58"/>
-      <c r="BI27" s="58"/>
-      <c r="BJ27" s="58"/>
-      <c r="BK27" s="58"/>
-      <c r="BL27" s="58"/>
-      <c r="BM27" s="58"/>
-      <c r="BN27" s="58"/>
-      <c r="BO27" s="58"/>
-      <c r="BP27" s="58"/>
-      <c r="BQ27" s="58"/>
-      <c r="BR27" s="58"/>
-      <c r="BS27" s="58"/>
-      <c r="BT27" s="58"/>
-      <c r="BU27" s="58"/>
-      <c r="BV27" s="58"/>
-      <c r="BW27" s="58"/>
-      <c r="BX27" s="58"/>
-      <c r="BY27" s="58"/>
-      <c r="BZ27" s="58"/>
-      <c r="CA27" s="58"/>
-      <c r="CB27" s="58"/>
-      <c r="CC27" s="58"/>
-      <c r="CD27" s="58"/>
-      <c r="CE27" s="58"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="63"/>
+      <c r="AV27" s="63"/>
+      <c r="AW27" s="63"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="63"/>
+      <c r="BA27" s="63"/>
+      <c r="BB27" s="63"/>
+      <c r="BC27" s="63"/>
+      <c r="BD27" s="63"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63"/>
+      <c r="BH27" s="63"/>
+      <c r="BI27" s="63"/>
+      <c r="BJ27" s="63"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63"/>
+      <c r="BM27" s="63"/>
+      <c r="BN27" s="63"/>
+      <c r="BO27" s="63"/>
+      <c r="BP27" s="63"/>
+      <c r="BQ27" s="63"/>
+      <c r="BR27" s="63"/>
+      <c r="BS27" s="63"/>
+      <c r="BT27" s="63"/>
+      <c r="BU27" s="63"/>
+      <c r="BV27" s="63"/>
+      <c r="BW27" s="63"/>
+      <c r="BX27" s="63"/>
+      <c r="BY27" s="63"/>
+      <c r="BZ27" s="63"/>
+      <c r="CA27" s="63"/>
+      <c r="CB27" s="63"/>
+      <c r="CC27" s="63"/>
+      <c r="CD27" s="63"/>
+      <c r="CE27" s="63"/>
       <c r="CF27" s="6"/>
       <c r="CG27" s="6"/>
       <c r="CH27" s="6"/>
@@ -6389,84 +6635,84 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="58"/>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="58"/>
-      <c r="AN28" s="58"/>
-      <c r="AO28" s="58"/>
-      <c r="AP28" s="58"/>
-      <c r="AQ28" s="58"/>
-      <c r="AR28" s="58"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="58"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="58"/>
-      <c r="AX28" s="58"/>
-      <c r="AY28" s="58"/>
-      <c r="AZ28" s="58"/>
-      <c r="BA28" s="58"/>
-      <c r="BB28" s="58"/>
-      <c r="BC28" s="58"/>
-      <c r="BD28" s="58"/>
-      <c r="BE28" s="58"/>
-      <c r="BF28" s="58"/>
-      <c r="BG28" s="58"/>
-      <c r="BH28" s="58"/>
-      <c r="BI28" s="58"/>
-      <c r="BJ28" s="58"/>
-      <c r="BK28" s="58"/>
-      <c r="BL28" s="58"/>
-      <c r="BM28" s="58"/>
-      <c r="BN28" s="58"/>
-      <c r="BO28" s="58"/>
-      <c r="BP28" s="58"/>
-      <c r="BQ28" s="58"/>
-      <c r="BR28" s="58"/>
-      <c r="BS28" s="58"/>
-      <c r="BT28" s="58"/>
-      <c r="BU28" s="58"/>
-      <c r="BV28" s="58"/>
-      <c r="BW28" s="58"/>
-      <c r="BX28" s="58"/>
-      <c r="BY28" s="58"/>
-      <c r="BZ28" s="58"/>
-      <c r="CA28" s="58"/>
-      <c r="CB28" s="58"/>
-      <c r="CC28" s="58"/>
-      <c r="CD28" s="58"/>
-      <c r="CE28" s="58"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="63"/>
+      <c r="AV28" s="63"/>
+      <c r="AW28" s="63"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="63"/>
+      <c r="AZ28" s="63"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="63"/>
+      <c r="BC28" s="63"/>
+      <c r="BD28" s="63"/>
+      <c r="BE28" s="63"/>
+      <c r="BF28" s="63"/>
+      <c r="BG28" s="63"/>
+      <c r="BH28" s="63"/>
+      <c r="BI28" s="63"/>
+      <c r="BJ28" s="63"/>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="63"/>
+      <c r="BM28" s="63"/>
+      <c r="BN28" s="63"/>
+      <c r="BO28" s="63"/>
+      <c r="BP28" s="63"/>
+      <c r="BQ28" s="63"/>
+      <c r="BR28" s="63"/>
+      <c r="BS28" s="63"/>
+      <c r="BT28" s="63"/>
+      <c r="BU28" s="63"/>
+      <c r="BV28" s="63"/>
+      <c r="BW28" s="63"/>
+      <c r="BX28" s="63"/>
+      <c r="BY28" s="63"/>
+      <c r="BZ28" s="63"/>
+      <c r="CA28" s="63"/>
+      <c r="CB28" s="63"/>
+      <c r="CC28" s="63"/>
+      <c r="CD28" s="63"/>
+      <c r="CE28" s="63"/>
       <c r="CF28" s="6"/>
       <c r="CG28" s="6"/>
       <c r="CH28" s="6"/>
@@ -6653,86 +6899,86 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="58"/>
-      <c r="AJ31" s="58"/>
-      <c r="AK31" s="58"/>
-      <c r="AL31" s="58"/>
-      <c r="AM31" s="58"/>
-      <c r="AN31" s="58"/>
-      <c r="AO31" s="58"/>
-      <c r="AP31" s="58"/>
-      <c r="AQ31" s="58"/>
-      <c r="AR31" s="58"/>
-      <c r="AS31" s="58"/>
-      <c r="AT31" s="58"/>
-      <c r="AU31" s="58"/>
-      <c r="AV31" s="58"/>
-      <c r="AW31" s="58"/>
-      <c r="AX31" s="58"/>
-      <c r="AY31" s="58"/>
-      <c r="AZ31" s="58"/>
-      <c r="BA31" s="58"/>
-      <c r="BB31" s="58"/>
-      <c r="BC31" s="58"/>
-      <c r="BD31" s="58"/>
-      <c r="BE31" s="58"/>
-      <c r="BF31" s="58"/>
-      <c r="BG31" s="58"/>
-      <c r="BH31" s="58"/>
-      <c r="BI31" s="58"/>
-      <c r="BJ31" s="58"/>
-      <c r="BK31" s="58"/>
-      <c r="BL31" s="58"/>
-      <c r="BM31" s="58"/>
-      <c r="BN31" s="58"/>
-      <c r="BO31" s="58"/>
-      <c r="BP31" s="58"/>
-      <c r="BQ31" s="58"/>
-      <c r="BR31" s="58"/>
-      <c r="BS31" s="58"/>
-      <c r="BT31" s="58"/>
-      <c r="BU31" s="58"/>
-      <c r="BV31" s="58"/>
-      <c r="BW31" s="58"/>
-      <c r="BX31" s="58"/>
-      <c r="BY31" s="58"/>
-      <c r="BZ31" s="58"/>
-      <c r="CA31" s="58"/>
-      <c r="CB31" s="58"/>
-      <c r="CC31" s="58"/>
-      <c r="CD31" s="58"/>
-      <c r="CE31" s="58"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="63"/>
+      <c r="AV31" s="63"/>
+      <c r="AW31" s="63"/>
+      <c r="AX31" s="63"/>
+      <c r="AY31" s="63"/>
+      <c r="AZ31" s="63"/>
+      <c r="BA31" s="63"/>
+      <c r="BB31" s="63"/>
+      <c r="BC31" s="63"/>
+      <c r="BD31" s="63"/>
+      <c r="BE31" s="63"/>
+      <c r="BF31" s="63"/>
+      <c r="BG31" s="63"/>
+      <c r="BH31" s="63"/>
+      <c r="BI31" s="63"/>
+      <c r="BJ31" s="63"/>
+      <c r="BK31" s="63"/>
+      <c r="BL31" s="63"/>
+      <c r="BM31" s="63"/>
+      <c r="BN31" s="63"/>
+      <c r="BO31" s="63"/>
+      <c r="BP31" s="63"/>
+      <c r="BQ31" s="63"/>
+      <c r="BR31" s="63"/>
+      <c r="BS31" s="63"/>
+      <c r="BT31" s="63"/>
+      <c r="BU31" s="63"/>
+      <c r="BV31" s="63"/>
+      <c r="BW31" s="63"/>
+      <c r="BX31" s="63"/>
+      <c r="BY31" s="63"/>
+      <c r="BZ31" s="63"/>
+      <c r="CA31" s="63"/>
+      <c r="CB31" s="63"/>
+      <c r="CC31" s="63"/>
+      <c r="CD31" s="63"/>
+      <c r="CE31" s="63"/>
       <c r="CF31" s="6"/>
       <c r="CG31" s="6"/>
       <c r="CH31" s="6"/>
@@ -6743,84 +6989,84 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-      <c r="AF32" s="58"/>
-      <c r="AG32" s="58"/>
-      <c r="AH32" s="58"/>
-      <c r="AI32" s="58"/>
-      <c r="AJ32" s="58"/>
-      <c r="AK32" s="58"/>
-      <c r="AL32" s="58"/>
-      <c r="AM32" s="58"/>
-      <c r="AN32" s="58"/>
-      <c r="AO32" s="58"/>
-      <c r="AP32" s="58"/>
-      <c r="AQ32" s="58"/>
-      <c r="AR32" s="58"/>
-      <c r="AS32" s="58"/>
-      <c r="AT32" s="58"/>
-      <c r="AU32" s="58"/>
-      <c r="AV32" s="58"/>
-      <c r="AW32" s="58"/>
-      <c r="AX32" s="58"/>
-      <c r="AY32" s="58"/>
-      <c r="AZ32" s="58"/>
-      <c r="BA32" s="58"/>
-      <c r="BB32" s="58"/>
-      <c r="BC32" s="58"/>
-      <c r="BD32" s="58"/>
-      <c r="BE32" s="58"/>
-      <c r="BF32" s="58"/>
-      <c r="BG32" s="58"/>
-      <c r="BH32" s="58"/>
-      <c r="BI32" s="58"/>
-      <c r="BJ32" s="58"/>
-      <c r="BK32" s="58"/>
-      <c r="BL32" s="58"/>
-      <c r="BM32" s="58"/>
-      <c r="BN32" s="58"/>
-      <c r="BO32" s="58"/>
-      <c r="BP32" s="58"/>
-      <c r="BQ32" s="58"/>
-      <c r="BR32" s="58"/>
-      <c r="BS32" s="58"/>
-      <c r="BT32" s="58"/>
-      <c r="BU32" s="58"/>
-      <c r="BV32" s="58"/>
-      <c r="BW32" s="58"/>
-      <c r="BX32" s="58"/>
-      <c r="BY32" s="58"/>
-      <c r="BZ32" s="58"/>
-      <c r="CA32" s="58"/>
-      <c r="CB32" s="58"/>
-      <c r="CC32" s="58"/>
-      <c r="CD32" s="58"/>
-      <c r="CE32" s="58"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="63"/>
+      <c r="AN32" s="63"/>
+      <c r="AO32" s="63"/>
+      <c r="AP32" s="63"/>
+      <c r="AQ32" s="63"/>
+      <c r="AR32" s="63"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="63"/>
+      <c r="AU32" s="63"/>
+      <c r="AV32" s="63"/>
+      <c r="AW32" s="63"/>
+      <c r="AX32" s="63"/>
+      <c r="AY32" s="63"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="63"/>
+      <c r="BB32" s="63"/>
+      <c r="BC32" s="63"/>
+      <c r="BD32" s="63"/>
+      <c r="BE32" s="63"/>
+      <c r="BF32" s="63"/>
+      <c r="BG32" s="63"/>
+      <c r="BH32" s="63"/>
+      <c r="BI32" s="63"/>
+      <c r="BJ32" s="63"/>
+      <c r="BK32" s="63"/>
+      <c r="BL32" s="63"/>
+      <c r="BM32" s="63"/>
+      <c r="BN32" s="63"/>
+      <c r="BO32" s="63"/>
+      <c r="BP32" s="63"/>
+      <c r="BQ32" s="63"/>
+      <c r="BR32" s="63"/>
+      <c r="BS32" s="63"/>
+      <c r="BT32" s="63"/>
+      <c r="BU32" s="63"/>
+      <c r="BV32" s="63"/>
+      <c r="BW32" s="63"/>
+      <c r="BX32" s="63"/>
+      <c r="BY32" s="63"/>
+      <c r="BZ32" s="63"/>
+      <c r="CA32" s="63"/>
+      <c r="CB32" s="63"/>
+      <c r="CC32" s="63"/>
+      <c r="CD32" s="63"/>
+      <c r="CE32" s="63"/>
       <c r="CF32" s="5"/>
       <c r="CG32" s="5"/>
       <c r="CH32" s="5"/>
@@ -6831,84 +7077,84 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="58"/>
-      <c r="AJ33" s="58"/>
-      <c r="AK33" s="58"/>
-      <c r="AL33" s="58"/>
-      <c r="AM33" s="58"/>
-      <c r="AN33" s="58"/>
-      <c r="AO33" s="58"/>
-      <c r="AP33" s="58"/>
-      <c r="AQ33" s="58"/>
-      <c r="AR33" s="58"/>
-      <c r="AS33" s="58"/>
-      <c r="AT33" s="58"/>
-      <c r="AU33" s="58"/>
-      <c r="AV33" s="58"/>
-      <c r="AW33" s="58"/>
-      <c r="AX33" s="58"/>
-      <c r="AY33" s="58"/>
-      <c r="AZ33" s="58"/>
-      <c r="BA33" s="58"/>
-      <c r="BB33" s="58"/>
-      <c r="BC33" s="58"/>
-      <c r="BD33" s="58"/>
-      <c r="BE33" s="58"/>
-      <c r="BF33" s="58"/>
-      <c r="BG33" s="58"/>
-      <c r="BH33" s="58"/>
-      <c r="BI33" s="58"/>
-      <c r="BJ33" s="58"/>
-      <c r="BK33" s="58"/>
-      <c r="BL33" s="58"/>
-      <c r="BM33" s="58"/>
-      <c r="BN33" s="58"/>
-      <c r="BO33" s="58"/>
-      <c r="BP33" s="58"/>
-      <c r="BQ33" s="58"/>
-      <c r="BR33" s="58"/>
-      <c r="BS33" s="58"/>
-      <c r="BT33" s="58"/>
-      <c r="BU33" s="58"/>
-      <c r="BV33" s="58"/>
-      <c r="BW33" s="58"/>
-      <c r="BX33" s="58"/>
-      <c r="BY33" s="58"/>
-      <c r="BZ33" s="58"/>
-      <c r="CA33" s="58"/>
-      <c r="CB33" s="58"/>
-      <c r="CC33" s="58"/>
-      <c r="CD33" s="58"/>
-      <c r="CE33" s="58"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="63"/>
+      <c r="AO33" s="63"/>
+      <c r="AP33" s="63"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="63"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="63"/>
+      <c r="AU33" s="63"/>
+      <c r="AV33" s="63"/>
+      <c r="AW33" s="63"/>
+      <c r="AX33" s="63"/>
+      <c r="AY33" s="63"/>
+      <c r="AZ33" s="63"/>
+      <c r="BA33" s="63"/>
+      <c r="BB33" s="63"/>
+      <c r="BC33" s="63"/>
+      <c r="BD33" s="63"/>
+      <c r="BE33" s="63"/>
+      <c r="BF33" s="63"/>
+      <c r="BG33" s="63"/>
+      <c r="BH33" s="63"/>
+      <c r="BI33" s="63"/>
+      <c r="BJ33" s="63"/>
+      <c r="BK33" s="63"/>
+      <c r="BL33" s="63"/>
+      <c r="BM33" s="63"/>
+      <c r="BN33" s="63"/>
+      <c r="BO33" s="63"/>
+      <c r="BP33" s="63"/>
+      <c r="BQ33" s="63"/>
+      <c r="BR33" s="63"/>
+      <c r="BS33" s="63"/>
+      <c r="BT33" s="63"/>
+      <c r="BU33" s="63"/>
+      <c r="BV33" s="63"/>
+      <c r="BW33" s="63"/>
+      <c r="BX33" s="63"/>
+      <c r="BY33" s="63"/>
+      <c r="BZ33" s="63"/>
+      <c r="CA33" s="63"/>
+      <c r="CB33" s="63"/>
+      <c r="CC33" s="63"/>
+      <c r="CD33" s="63"/>
+      <c r="CE33" s="63"/>
       <c r="CF33" s="5"/>
       <c r="CG33" s="5"/>
       <c r="CH33" s="5"/>
@@ -6919,84 +7165,84 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="58"/>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="58"/>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="58"/>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="58"/>
-      <c r="AR34" s="58"/>
-      <c r="AS34" s="58"/>
-      <c r="AT34" s="58"/>
-      <c r="AU34" s="58"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="58"/>
-      <c r="AX34" s="58"/>
-      <c r="AY34" s="58"/>
-      <c r="AZ34" s="58"/>
-      <c r="BA34" s="58"/>
-      <c r="BB34" s="58"/>
-      <c r="BC34" s="58"/>
-      <c r="BD34" s="58"/>
-      <c r="BE34" s="58"/>
-      <c r="BF34" s="58"/>
-      <c r="BG34" s="58"/>
-      <c r="BH34" s="58"/>
-      <c r="BI34" s="58"/>
-      <c r="BJ34" s="58"/>
-      <c r="BK34" s="58"/>
-      <c r="BL34" s="58"/>
-      <c r="BM34" s="58"/>
-      <c r="BN34" s="58"/>
-      <c r="BO34" s="58"/>
-      <c r="BP34" s="58"/>
-      <c r="BQ34" s="58"/>
-      <c r="BR34" s="58"/>
-      <c r="BS34" s="58"/>
-      <c r="BT34" s="58"/>
-      <c r="BU34" s="58"/>
-      <c r="BV34" s="58"/>
-      <c r="BW34" s="58"/>
-      <c r="BX34" s="58"/>
-      <c r="BY34" s="58"/>
-      <c r="BZ34" s="58"/>
-      <c r="CA34" s="58"/>
-      <c r="CB34" s="58"/>
-      <c r="CC34" s="58"/>
-      <c r="CD34" s="58"/>
-      <c r="CE34" s="58"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="63"/>
+      <c r="AN34" s="63"/>
+      <c r="AO34" s="63"/>
+      <c r="AP34" s="63"/>
+      <c r="AQ34" s="63"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="63"/>
+      <c r="AU34" s="63"/>
+      <c r="AV34" s="63"/>
+      <c r="AW34" s="63"/>
+      <c r="AX34" s="63"/>
+      <c r="AY34" s="63"/>
+      <c r="AZ34" s="63"/>
+      <c r="BA34" s="63"/>
+      <c r="BB34" s="63"/>
+      <c r="BC34" s="63"/>
+      <c r="BD34" s="63"/>
+      <c r="BE34" s="63"/>
+      <c r="BF34" s="63"/>
+      <c r="BG34" s="63"/>
+      <c r="BH34" s="63"/>
+      <c r="BI34" s="63"/>
+      <c r="BJ34" s="63"/>
+      <c r="BK34" s="63"/>
+      <c r="BL34" s="63"/>
+      <c r="BM34" s="63"/>
+      <c r="BN34" s="63"/>
+      <c r="BO34" s="63"/>
+      <c r="BP34" s="63"/>
+      <c r="BQ34" s="63"/>
+      <c r="BR34" s="63"/>
+      <c r="BS34" s="63"/>
+      <c r="BT34" s="63"/>
+      <c r="BU34" s="63"/>
+      <c r="BV34" s="63"/>
+      <c r="BW34" s="63"/>
+      <c r="BX34" s="63"/>
+      <c r="BY34" s="63"/>
+      <c r="BZ34" s="63"/>
+      <c r="CA34" s="63"/>
+      <c r="CB34" s="63"/>
+      <c r="CC34" s="63"/>
+      <c r="CD34" s="63"/>
+      <c r="CE34" s="63"/>
       <c r="CF34" s="5"/>
       <c r="CG34" s="5"/>
       <c r="CH34" s="5"/>
@@ -7008,46 +7254,46 @@
     </row>
     <row r="36" spans="2:87">
       <c r="B36" s="4"/>
-      <c r="BO36" s="40" t="s">
+      <c r="BO36" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="BP36" s="41"/>
-      <c r="BQ36" s="41"/>
-      <c r="BR36" s="41"/>
-      <c r="BS36" s="41"/>
-      <c r="BT36" s="41"/>
-      <c r="BU36" s="41"/>
-      <c r="BV36" s="41"/>
-      <c r="BW36" s="41"/>
-      <c r="BX36" s="41"/>
-      <c r="BY36" s="41"/>
-      <c r="BZ36" s="41"/>
-      <c r="CA36" s="41"/>
-      <c r="CB36" s="41"/>
-      <c r="CC36" s="41"/>
-      <c r="CD36" s="41"/>
-      <c r="CE36" s="42"/>
+      <c r="BP36" s="46"/>
+      <c r="BQ36" s="46"/>
+      <c r="BR36" s="46"/>
+      <c r="BS36" s="46"/>
+      <c r="BT36" s="46"/>
+      <c r="BU36" s="46"/>
+      <c r="BV36" s="46"/>
+      <c r="BW36" s="46"/>
+      <c r="BX36" s="46"/>
+      <c r="BY36" s="46"/>
+      <c r="BZ36" s="46"/>
+      <c r="CA36" s="46"/>
+      <c r="CB36" s="46"/>
+      <c r="CC36" s="46"/>
+      <c r="CD36" s="46"/>
+      <c r="CE36" s="47"/>
       <c r="CI36" s="8"/>
     </row>
     <row r="37" spans="2:87" ht="18.75" thickBot="1">
       <c r="B37" s="4"/>
-      <c r="BO37" s="43"/>
-      <c r="BP37" s="44"/>
-      <c r="BQ37" s="44"/>
-      <c r="BR37" s="44"/>
-      <c r="BS37" s="44"/>
-      <c r="BT37" s="44"/>
-      <c r="BU37" s="44"/>
-      <c r="BV37" s="44"/>
-      <c r="BW37" s="44"/>
-      <c r="BX37" s="44"/>
-      <c r="BY37" s="44"/>
-      <c r="BZ37" s="44"/>
-      <c r="CA37" s="44"/>
-      <c r="CB37" s="44"/>
-      <c r="CC37" s="44"/>
-      <c r="CD37" s="44"/>
-      <c r="CE37" s="45"/>
+      <c r="BO37" s="48"/>
+      <c r="BP37" s="49"/>
+      <c r="BQ37" s="49"/>
+      <c r="BR37" s="49"/>
+      <c r="BS37" s="49"/>
+      <c r="BT37" s="49"/>
+      <c r="BU37" s="49"/>
+      <c r="BV37" s="49"/>
+      <c r="BW37" s="49"/>
+      <c r="BX37" s="49"/>
+      <c r="BY37" s="49"/>
+      <c r="BZ37" s="49"/>
+      <c r="CA37" s="49"/>
+      <c r="CB37" s="49"/>
+      <c r="CC37" s="49"/>
+      <c r="CD37" s="49"/>
+      <c r="CE37" s="50"/>
       <c r="CI37" s="8"/>
     </row>
     <row r="38" spans="2:87" ht="18" customHeight="1" thickBot="1">
@@ -7184,10 +7430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK26"/>
+  <dimension ref="A1:AMK28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK13" sqref="AK13:AT13"/>
+      <selection activeCell="BQ12" sqref="BQ12:CI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7200,102 +7446,102 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="35" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="39"/>
+      <c r="BL1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="36"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="37" t="s">
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="40"/>
+      <c r="BP1" s="41"/>
+      <c r="BQ1" s="41"/>
+      <c r="BR1" s="41"/>
+      <c r="BS1" s="41"/>
+      <c r="BT1" s="41"/>
+      <c r="BU1" s="41"/>
+      <c r="BV1" s="41"/>
+      <c r="BW1" s="41"/>
+      <c r="BX1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="37"/>
-      <c r="BZ1" s="37"/>
-      <c r="CA1" s="37"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24"/>
-      <c r="CI1" s="24"/>
+      <c r="BY1" s="42"/>
+      <c r="BZ1" s="42"/>
+      <c r="CA1" s="42"/>
+      <c r="CB1" s="29"/>
+      <c r="CC1" s="29"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="29"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -8236,102 +8482,102 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="28" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="32"/>
+      <c r="BL2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="28"/>
-      <c r="BP2" s="29"/>
-      <c r="BQ2" s="29"/>
-      <c r="BR2" s="29"/>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="30" t="s">
+      <c r="BM2" s="33"/>
+      <c r="BN2" s="33"/>
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="30"/>
-      <c r="CA2" s="30"/>
-      <c r="CB2" s="31"/>
-      <c r="CC2" s="31"/>
-      <c r="CD2" s="31"/>
-      <c r="CE2" s="31"/>
-      <c r="CF2" s="31"/>
-      <c r="CG2" s="31"/>
-      <c r="CH2" s="31"/>
-      <c r="CI2" s="31"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CA2" s="35"/>
+      <c r="CB2" s="36"/>
+      <c r="CC2" s="36"/>
+      <c r="CD2" s="36"/>
+      <c r="CE2" s="36"/>
+      <c r="CF2" s="36"/>
+      <c r="CG2" s="36"/>
+      <c r="CH2" s="36"/>
+      <c r="CI2" s="36"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -9359,2185 +9605,2388 @@
       <c r="CI3" s="10"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="20" t="s">
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="20"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="20"/>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="20"/>
-      <c r="BR4" s="20"/>
-      <c r="BS4" s="20"/>
-      <c r="BT4" s="20"/>
-      <c r="BU4" s="20"/>
-      <c r="BV4" s="20"/>
-      <c r="BW4" s="20"/>
-      <c r="BX4" s="20"/>
-      <c r="BY4" s="20"/>
-      <c r="BZ4" s="20"/>
-      <c r="CA4" s="20"/>
-      <c r="CB4" s="20"/>
-      <c r="CC4" s="20"/>
-      <c r="CD4" s="20"/>
-      <c r="CE4" s="20"/>
-      <c r="CF4" s="20"/>
-      <c r="CG4" s="20"/>
-      <c r="CH4" s="20"/>
-      <c r="CI4" s="20"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="25"/>
+      <c r="BB4" s="25"/>
+      <c r="BC4" s="25"/>
+      <c r="BD4" s="25"/>
+      <c r="BE4" s="25"/>
+      <c r="BF4" s="25"/>
+      <c r="BG4" s="25"/>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25"/>
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="25"/>
+      <c r="BR4" s="25"/>
+      <c r="BS4" s="25"/>
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="25"/>
+      <c r="BV4" s="25"/>
+      <c r="BW4" s="25"/>
+      <c r="BX4" s="25"/>
+      <c r="BY4" s="25"/>
+      <c r="BZ4" s="25"/>
+      <c r="CA4" s="25"/>
+      <c r="CB4" s="25"/>
+      <c r="CC4" s="25"/>
+      <c r="CD4" s="25"/>
+      <c r="CE4" s="25"/>
+      <c r="CF4" s="25"/>
+      <c r="CG4" s="25"/>
+      <c r="CH4" s="25"/>
+      <c r="CI4" s="25"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="21">
+      <c r="B5" s="26">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="23" t="s">
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="23"/>
-      <c r="AW5" s="23"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="23"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="23"/>
-      <c r="BB5" s="23"/>
-      <c r="BC5" s="23"/>
-      <c r="BD5" s="23"/>
-      <c r="BE5" s="23"/>
-      <c r="BF5" s="23"/>
-      <c r="BG5" s="23"/>
-      <c r="BH5" s="23"/>
-      <c r="BI5" s="23"/>
-      <c r="BJ5" s="23"/>
-      <c r="BK5" s="23"/>
-      <c r="BL5" s="23"/>
-      <c r="BM5" s="23"/>
-      <c r="BN5" s="23"/>
-      <c r="BO5" s="23"/>
-      <c r="BP5" s="23"/>
-      <c r="BQ5" s="23"/>
-      <c r="BR5" s="23"/>
-      <c r="BS5" s="23"/>
-      <c r="BT5" s="23"/>
-      <c r="BU5" s="23"/>
-      <c r="BV5" s="23"/>
-      <c r="BW5" s="23"/>
-      <c r="BX5" s="23"/>
-      <c r="BY5" s="23"/>
-      <c r="BZ5" s="23"/>
-      <c r="CA5" s="23"/>
-      <c r="CB5" s="23"/>
-      <c r="CC5" s="23"/>
-      <c r="CD5" s="23"/>
-      <c r="CE5" s="23"/>
-      <c r="CF5" s="23"/>
-      <c r="CG5" s="23"/>
-      <c r="CH5" s="23"/>
-      <c r="CI5" s="23"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="28"/>
+      <c r="BA5" s="28"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="28"/>
+      <c r="BD5" s="28"/>
+      <c r="BE5" s="28"/>
+      <c r="BF5" s="28"/>
+      <c r="BG5" s="28"/>
+      <c r="BH5" s="28"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="28"/>
+      <c r="BL5" s="28"/>
+      <c r="BM5" s="28"/>
+      <c r="BN5" s="28"/>
+      <c r="BO5" s="28"/>
+      <c r="BP5" s="28"/>
+      <c r="BQ5" s="28"/>
+      <c r="BR5" s="28"/>
+      <c r="BS5" s="28"/>
+      <c r="BT5" s="28"/>
+      <c r="BU5" s="28"/>
+      <c r="BV5" s="28"/>
+      <c r="BW5" s="28"/>
+      <c r="BX5" s="28"/>
+      <c r="BY5" s="28"/>
+      <c r="BZ5" s="28"/>
+      <c r="CA5" s="28"/>
+      <c r="CB5" s="28"/>
+      <c r="CC5" s="28"/>
+      <c r="CD5" s="28"/>
+      <c r="CE5" s="28"/>
+      <c r="CF5" s="28"/>
+      <c r="CG5" s="28"/>
+      <c r="CH5" s="28"/>
+      <c r="CI5" s="28"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132"/>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="132"/>
-      <c r="AO6" s="132"/>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="132"/>
-      <c r="AU6" s="132"/>
-      <c r="AV6" s="132"/>
-      <c r="AW6" s="132"/>
-      <c r="AX6" s="132"/>
-      <c r="AY6" s="132"/>
-      <c r="AZ6" s="132"/>
-      <c r="BA6" s="132"/>
-      <c r="BB6" s="132"/>
-      <c r="BC6" s="132"/>
-      <c r="BD6" s="132"/>
-      <c r="BE6" s="132"/>
-      <c r="BF6" s="132"/>
-      <c r="BG6" s="132"/>
-      <c r="BH6" s="132"/>
-      <c r="BI6" s="132"/>
-      <c r="BJ6" s="132"/>
-      <c r="BK6" s="132"/>
-      <c r="BL6" s="132"/>
-      <c r="BM6" s="132"/>
-      <c r="BN6" s="132"/>
-      <c r="BO6" s="132"/>
-      <c r="BP6" s="132"/>
-      <c r="BQ6" s="132"/>
-      <c r="BR6" s="132"/>
-      <c r="BS6" s="132"/>
-      <c r="BT6" s="132"/>
-      <c r="BU6" s="132"/>
-      <c r="BV6" s="132"/>
-      <c r="BW6" s="132"/>
-      <c r="BX6" s="132"/>
-      <c r="BY6" s="132"/>
-      <c r="BZ6" s="132"/>
-      <c r="CA6" s="132"/>
-      <c r="CB6" s="132"/>
-      <c r="CC6" s="132"/>
-      <c r="CD6" s="132"/>
-      <c r="CE6" s="132"/>
-      <c r="CF6" s="132"/>
-      <c r="CG6" s="132"/>
-      <c r="CH6" s="132"/>
-      <c r="CI6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135"/>
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135"/>
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135"/>
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="135"/>
+      <c r="AO6" s="135"/>
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="135"/>
+      <c r="AR6" s="135"/>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135"/>
+      <c r="AU6" s="135"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="135"/>
+      <c r="AZ6" s="135"/>
+      <c r="BA6" s="135"/>
+      <c r="BB6" s="135"/>
+      <c r="BC6" s="135"/>
+      <c r="BD6" s="135"/>
+      <c r="BE6" s="135"/>
+      <c r="BF6" s="135"/>
+      <c r="BG6" s="135"/>
+      <c r="BH6" s="135"/>
+      <c r="BI6" s="135"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="135"/>
+      <c r="BN6" s="135"/>
+      <c r="BO6" s="135"/>
+      <c r="BP6" s="135"/>
+      <c r="BQ6" s="135"/>
+      <c r="BR6" s="135"/>
+      <c r="BS6" s="135"/>
+      <c r="BT6" s="135"/>
+      <c r="BU6" s="135"/>
+      <c r="BV6" s="135"/>
+      <c r="BW6" s="135"/>
+      <c r="BX6" s="135"/>
+      <c r="BY6" s="135"/>
+      <c r="BZ6" s="135"/>
+      <c r="CA6" s="135"/>
+      <c r="CB6" s="135"/>
+      <c r="CC6" s="135"/>
+      <c r="CD6" s="135"/>
+      <c r="CE6" s="135"/>
+      <c r="CF6" s="135"/>
+      <c r="CG6" s="135"/>
+      <c r="CH6" s="135"/>
+      <c r="CI6" s="135"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="134" t="s">
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="135"/>
-      <c r="U7" s="135"/>
-      <c r="V7" s="135"/>
-      <c r="W7" s="135"/>
-      <c r="X7" s="136"/>
-      <c r="Y7" s="134" t="s">
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="138"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="135"/>
-      <c r="AA7" s="136"/>
-      <c r="AB7" s="134" t="s">
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="135"/>
-      <c r="AD7" s="135"/>
-      <c r="AE7" s="135"/>
-      <c r="AF7" s="135"/>
-      <c r="AG7" s="136"/>
-      <c r="AH7" s="134" t="s">
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="138"/>
+      <c r="AF7" s="138"/>
+      <c r="AG7" s="139"/>
+      <c r="AH7" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="135"/>
-      <c r="AJ7" s="136"/>
-      <c r="AK7" s="134" t="s">
+      <c r="AI7" s="138"/>
+      <c r="AJ7" s="139"/>
+      <c r="AK7" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="135"/>
-      <c r="AM7" s="135"/>
-      <c r="AN7" s="135"/>
-      <c r="AO7" s="135"/>
-      <c r="AP7" s="135"/>
-      <c r="AQ7" s="135"/>
-      <c r="AR7" s="139"/>
-      <c r="AS7" s="139"/>
-      <c r="AT7" s="140"/>
-      <c r="AU7" s="137" t="s">
+      <c r="AL7" s="138"/>
+      <c r="AM7" s="138"/>
+      <c r="AN7" s="138"/>
+      <c r="AO7" s="138"/>
+      <c r="AP7" s="138"/>
+      <c r="AQ7" s="138"/>
+      <c r="AR7" s="142"/>
+      <c r="AS7" s="142"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="137"/>
-      <c r="AW7" s="137"/>
-      <c r="AX7" s="137"/>
-      <c r="AY7" s="137"/>
-      <c r="AZ7" s="137"/>
-      <c r="BA7" s="137"/>
-      <c r="BB7" s="137"/>
-      <c r="BC7" s="137"/>
-      <c r="BD7" s="137"/>
-      <c r="BE7" s="137"/>
-      <c r="BF7" s="137"/>
-      <c r="BG7" s="137"/>
-      <c r="BH7" s="137"/>
-      <c r="BI7" s="137"/>
-      <c r="BJ7" s="137"/>
-      <c r="BK7" s="137"/>
-      <c r="BL7" s="137"/>
-      <c r="BM7" s="137"/>
-      <c r="BN7" s="137"/>
-      <c r="BO7" s="137"/>
-      <c r="BP7" s="137"/>
-      <c r="BQ7" s="138" t="s">
+      <c r="AV7" s="140"/>
+      <c r="AW7" s="140"/>
+      <c r="AX7" s="140"/>
+      <c r="AY7" s="140"/>
+      <c r="AZ7" s="140"/>
+      <c r="BA7" s="140"/>
+      <c r="BB7" s="140"/>
+      <c r="BC7" s="140"/>
+      <c r="BD7" s="140"/>
+      <c r="BE7" s="140"/>
+      <c r="BF7" s="140"/>
+      <c r="BG7" s="140"/>
+      <c r="BH7" s="140"/>
+      <c r="BI7" s="140"/>
+      <c r="BJ7" s="140"/>
+      <c r="BK7" s="140"/>
+      <c r="BL7" s="140"/>
+      <c r="BM7" s="140"/>
+      <c r="BN7" s="140"/>
+      <c r="BO7" s="140"/>
+      <c r="BP7" s="140"/>
+      <c r="BQ7" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="138"/>
-      <c r="BS7" s="138"/>
-      <c r="BT7" s="138"/>
-      <c r="BU7" s="138"/>
-      <c r="BV7" s="138"/>
-      <c r="BW7" s="138"/>
-      <c r="BX7" s="138"/>
-      <c r="BY7" s="138"/>
-      <c r="BZ7" s="138"/>
-      <c r="CA7" s="138"/>
-      <c r="CB7" s="138"/>
-      <c r="CC7" s="138"/>
-      <c r="CD7" s="138"/>
-      <c r="CE7" s="138"/>
-      <c r="CF7" s="138"/>
-      <c r="CG7" s="138"/>
-      <c r="CH7" s="138"/>
-      <c r="CI7" s="138"/>
+      <c r="BR7" s="141"/>
+      <c r="BS7" s="141"/>
+      <c r="BT7" s="141"/>
+      <c r="BU7" s="141"/>
+      <c r="BV7" s="141"/>
+      <c r="BW7" s="141"/>
+      <c r="BX7" s="141"/>
+      <c r="BY7" s="141"/>
+      <c r="BZ7" s="141"/>
+      <c r="CA7" s="141"/>
+      <c r="CB7" s="141"/>
+      <c r="CC7" s="141"/>
+      <c r="CD7" s="141"/>
+      <c r="CE7" s="141"/>
+      <c r="CF7" s="141"/>
+      <c r="CG7" s="141"/>
+      <c r="CH7" s="141"/>
+      <c r="CI7" s="141"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1">
-      <c r="B8" s="61">
-        <f t="shared" ref="B8:B14" si="0">ROW(B8)-7</f>
+      <c r="B8" s="152"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="153" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="154"/>
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="154"/>
+      <c r="U8" s="154"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="155"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="137"/>
+      <c r="AV8" s="138"/>
+      <c r="AW8" s="138"/>
+      <c r="AX8" s="138"/>
+      <c r="AY8" s="138"/>
+      <c r="AZ8" s="138"/>
+      <c r="BA8" s="138"/>
+      <c r="BB8" s="138"/>
+      <c r="BC8" s="138"/>
+      <c r="BD8" s="138"/>
+      <c r="BE8" s="138"/>
+      <c r="BF8" s="138"/>
+      <c r="BG8" s="138"/>
+      <c r="BH8" s="138"/>
+      <c r="BI8" s="138"/>
+      <c r="BJ8" s="138"/>
+      <c r="BK8" s="138"/>
+      <c r="BL8" s="138"/>
+      <c r="BM8" s="138"/>
+      <c r="BN8" s="138"/>
+      <c r="BO8" s="138"/>
+      <c r="BP8" s="139"/>
+      <c r="BQ8" s="137"/>
+      <c r="BR8" s="138"/>
+      <c r="BS8" s="138"/>
+      <c r="BT8" s="138"/>
+      <c r="BU8" s="138"/>
+      <c r="BV8" s="138"/>
+      <c r="BW8" s="138"/>
+      <c r="BX8" s="138"/>
+      <c r="BY8" s="138"/>
+      <c r="BZ8" s="138"/>
+      <c r="CA8" s="138"/>
+      <c r="CB8" s="138"/>
+      <c r="CC8" s="138"/>
+      <c r="CD8" s="138"/>
+      <c r="CE8" s="138"/>
+      <c r="CF8" s="138"/>
+      <c r="CG8" s="138"/>
+      <c r="CH8" s="138"/>
+      <c r="CI8" s="156"/>
+    </row>
+    <row r="9" spans="1:1024" ht="18" customHeight="1">
+      <c r="B9" s="157">
         <v>1</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="124" t="s">
+      <c r="C9" s="158"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="166" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="166" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="167"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="168"/>
+      <c r="AH9" s="160"/>
+      <c r="AI9" s="161"/>
+      <c r="AJ9" s="162"/>
+      <c r="AK9" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL9" s="167"/>
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="167"/>
+      <c r="AO9" s="167"/>
+      <c r="AP9" s="167"/>
+      <c r="AQ9" s="167"/>
+      <c r="AR9" s="167"/>
+      <c r="AS9" s="167"/>
+      <c r="AT9" s="168"/>
+      <c r="AU9" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV9" s="144"/>
+      <c r="AW9" s="144"/>
+      <c r="AX9" s="144"/>
+      <c r="AY9" s="144"/>
+      <c r="AZ9" s="144"/>
+      <c r="BA9" s="144"/>
+      <c r="BB9" s="144"/>
+      <c r="BC9" s="144"/>
+      <c r="BD9" s="144"/>
+      <c r="BE9" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF9" s="144"/>
+      <c r="BG9" s="144"/>
+      <c r="BH9" s="144"/>
+      <c r="BI9" s="144"/>
+      <c r="BJ9" s="144"/>
+      <c r="BK9" s="144"/>
+      <c r="BL9" s="144"/>
+      <c r="BM9" s="144"/>
+      <c r="BN9" s="144"/>
+      <c r="BO9" s="144"/>
+      <c r="BP9" s="144"/>
+      <c r="BQ9" s="166" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR9" s="167"/>
+      <c r="BS9" s="167"/>
+      <c r="BT9" s="167"/>
+      <c r="BU9" s="167"/>
+      <c r="BV9" s="167"/>
+      <c r="BW9" s="167"/>
+      <c r="BX9" s="167"/>
+      <c r="BY9" s="167"/>
+      <c r="BZ9" s="167"/>
+      <c r="CA9" s="167"/>
+      <c r="CB9" s="167"/>
+      <c r="CC9" s="167"/>
+      <c r="CD9" s="167"/>
+      <c r="CE9" s="167"/>
+      <c r="CF9" s="167"/>
+      <c r="CG9" s="167"/>
+      <c r="CH9" s="167"/>
+      <c r="CI9" s="169"/>
+    </row>
+    <row r="10" spans="1:1024" ht="18" customHeight="1">
+      <c r="B10" s="64">
+        <f t="shared" ref="B10:B16" si="0">ROW(B10)-7</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="128"/>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="125"/>
-      <c r="AF8" s="125"/>
-      <c r="AG8" s="126"/>
-      <c r="AH8" s="127"/>
-      <c r="AI8" s="128"/>
-      <c r="AJ8" s="129"/>
-      <c r="AK8" s="124"/>
-      <c r="AL8" s="125"/>
-      <c r="AM8" s="125"/>
-      <c r="AN8" s="125"/>
-      <c r="AO8" s="125"/>
-      <c r="AP8" s="125"/>
-      <c r="AQ8" s="125"/>
-      <c r="AR8" s="130"/>
-      <c r="AS8" s="130"/>
-      <c r="AT8" s="131"/>
-      <c r="AU8" s="122"/>
-      <c r="AV8" s="122"/>
-      <c r="AW8" s="122"/>
-      <c r="AX8" s="122"/>
-      <c r="AY8" s="122"/>
-      <c r="AZ8" s="122"/>
-      <c r="BA8" s="122"/>
-      <c r="BB8" s="122"/>
-      <c r="BC8" s="122"/>
-      <c r="BD8" s="122"/>
-      <c r="BE8" s="122"/>
-      <c r="BF8" s="122"/>
-      <c r="BG8" s="122"/>
-      <c r="BH8" s="122"/>
-      <c r="BI8" s="122"/>
-      <c r="BJ8" s="122"/>
-      <c r="BK8" s="122"/>
-      <c r="BL8" s="122"/>
-      <c r="BM8" s="122"/>
-      <c r="BN8" s="122"/>
-      <c r="BO8" s="122"/>
-      <c r="BP8" s="122"/>
-      <c r="BQ8" s="123"/>
-      <c r="BR8" s="123"/>
-      <c r="BS8" s="123"/>
-      <c r="BT8" s="123"/>
-      <c r="BU8" s="123"/>
-      <c r="BV8" s="123"/>
-      <c r="BW8" s="123"/>
-      <c r="BX8" s="123"/>
-      <c r="BY8" s="123"/>
-      <c r="BZ8" s="123"/>
-      <c r="CA8" s="123"/>
-      <c r="CB8" s="123"/>
-      <c r="CC8" s="123"/>
-      <c r="CD8" s="123"/>
-      <c r="CE8" s="123"/>
-      <c r="CF8" s="123"/>
-      <c r="CG8" s="123"/>
-      <c r="CH8" s="123"/>
-      <c r="CI8" s="123"/>
-    </row>
-    <row r="9" spans="1:1024" ht="18" customHeight="1">
-      <c r="B9" s="61">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="144"/>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="146">
-        <v>20</v>
-      </c>
-      <c r="AI9" s="147"/>
-      <c r="AJ9" s="148"/>
-      <c r="AK9" s="143" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL9" s="144"/>
-      <c r="AM9" s="144"/>
-      <c r="AN9" s="144"/>
-      <c r="AO9" s="144"/>
-      <c r="AP9" s="144"/>
-      <c r="AQ9" s="144"/>
-      <c r="AR9" s="70"/>
-      <c r="AS9" s="70"/>
-      <c r="AT9" s="71"/>
-      <c r="AU9" s="141" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV9" s="141"/>
-      <c r="AW9" s="141"/>
-      <c r="AX9" s="141"/>
-      <c r="AY9" s="141"/>
-      <c r="AZ9" s="141"/>
-      <c r="BA9" s="141"/>
-      <c r="BB9" s="141"/>
-      <c r="BC9" s="141"/>
-      <c r="BD9" s="141"/>
-      <c r="BE9" s="141" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF9" s="141"/>
-      <c r="BG9" s="141"/>
-      <c r="BH9" s="141"/>
-      <c r="BI9" s="141"/>
-      <c r="BJ9" s="141"/>
-      <c r="BK9" s="141"/>
-      <c r="BL9" s="141"/>
-      <c r="BM9" s="141"/>
-      <c r="BN9" s="141"/>
-      <c r="BO9" s="141"/>
-      <c r="BP9" s="141"/>
-      <c r="BQ9" s="142" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR9" s="142"/>
-      <c r="BS9" s="142"/>
-      <c r="BT9" s="142"/>
-      <c r="BU9" s="142"/>
-      <c r="BV9" s="142"/>
-      <c r="BW9" s="142"/>
-      <c r="BX9" s="142"/>
-      <c r="BY9" s="142"/>
-      <c r="BZ9" s="142"/>
-      <c r="CA9" s="142"/>
-      <c r="CB9" s="142"/>
-      <c r="CC9" s="142"/>
-      <c r="CD9" s="142"/>
-      <c r="CE9" s="142"/>
-      <c r="CF9" s="142"/>
-      <c r="CG9" s="142"/>
-      <c r="CH9" s="142"/>
-      <c r="CI9" s="142"/>
-    </row>
-    <row r="10" spans="1:1024" ht="18" customHeight="1">
-      <c r="B10" s="61">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="70"/>
-      <c r="AS10" s="70"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV10" s="59"/>
-      <c r="AW10" s="59"/>
-      <c r="AX10" s="59"/>
-      <c r="AY10" s="59"/>
-      <c r="AZ10" s="59"/>
-      <c r="BA10" s="59"/>
-      <c r="BB10" s="59"/>
-      <c r="BC10" s="59"/>
-      <c r="BD10" s="59"/>
-      <c r="BE10" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF10" s="59"/>
-      <c r="BG10" s="59"/>
-      <c r="BH10" s="59"/>
-      <c r="BI10" s="59"/>
-      <c r="BJ10" s="59"/>
-      <c r="BK10" s="59"/>
-      <c r="BL10" s="59"/>
-      <c r="BM10" s="59"/>
-      <c r="BN10" s="59"/>
-      <c r="BO10" s="59"/>
-      <c r="BP10" s="59"/>
-      <c r="BQ10" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR10" s="60"/>
-      <c r="BS10" s="60"/>
-      <c r="BT10" s="60"/>
-      <c r="BU10" s="60"/>
-      <c r="BV10" s="60"/>
-      <c r="BW10" s="60"/>
-      <c r="BX10" s="60"/>
-      <c r="BY10" s="60"/>
-      <c r="BZ10" s="60"/>
-      <c r="CA10" s="60"/>
-      <c r="CB10" s="60"/>
-      <c r="CC10" s="60"/>
-      <c r="CD10" s="60"/>
-      <c r="CE10" s="60"/>
-      <c r="CF10" s="60"/>
-      <c r="CG10" s="60"/>
-      <c r="CH10" s="60"/>
-      <c r="CI10" s="60"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="131"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="128"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="130"/>
+      <c r="AI10" s="131"/>
+      <c r="AJ10" s="132"/>
+      <c r="AK10" s="127"/>
+      <c r="AL10" s="128"/>
+      <c r="AM10" s="128"/>
+      <c r="AN10" s="128"/>
+      <c r="AO10" s="128"/>
+      <c r="AP10" s="128"/>
+      <c r="AQ10" s="128"/>
+      <c r="AR10" s="133"/>
+      <c r="AS10" s="133"/>
+      <c r="AT10" s="134"/>
+      <c r="AU10" s="125"/>
+      <c r="AV10" s="125"/>
+      <c r="AW10" s="125"/>
+      <c r="AX10" s="125"/>
+      <c r="AY10" s="125"/>
+      <c r="AZ10" s="125"/>
+      <c r="BA10" s="125"/>
+      <c r="BB10" s="125"/>
+      <c r="BC10" s="125"/>
+      <c r="BD10" s="125"/>
+      <c r="BE10" s="125"/>
+      <c r="BF10" s="125"/>
+      <c r="BG10" s="125"/>
+      <c r="BH10" s="125"/>
+      <c r="BI10" s="125"/>
+      <c r="BJ10" s="125"/>
+      <c r="BK10" s="125"/>
+      <c r="BL10" s="125"/>
+      <c r="BM10" s="125"/>
+      <c r="BN10" s="125"/>
+      <c r="BO10" s="125"/>
+      <c r="BP10" s="125"/>
+      <c r="BQ10" s="126"/>
+      <c r="BR10" s="126"/>
+      <c r="BS10" s="126"/>
+      <c r="BT10" s="126"/>
+      <c r="BU10" s="126"/>
+      <c r="BV10" s="126"/>
+      <c r="BW10" s="126"/>
+      <c r="BX10" s="126"/>
+      <c r="BY10" s="126"/>
+      <c r="BZ10" s="126"/>
+      <c r="CA10" s="126"/>
+      <c r="CB10" s="126"/>
+      <c r="CC10" s="126"/>
+      <c r="CD10" s="126"/>
+      <c r="CE10" s="126"/>
+      <c r="CF10" s="126"/>
+      <c r="CG10" s="126"/>
+      <c r="CH10" s="126"/>
+      <c r="CI10" s="126"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1">
-      <c r="B11" s="61">
+      <c r="B11" s="64">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64" t="s">
-        <v>48</v>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="146" t="s">
+        <v>59</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="64" t="s">
-        <v>24</v>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="70" t="s">
+        <v>42</v>
       </c>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="67" t="s">
-        <v>25</v>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="146" t="s">
+        <v>22</v>
       </c>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="64" t="s">
-        <v>26</v>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="147"/>
+      <c r="AF11" s="147"/>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="149">
+        <v>20</v>
       </c>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="64" t="s">
-        <v>27</v>
+      <c r="AI11" s="150"/>
+      <c r="AJ11" s="151"/>
+      <c r="AK11" s="146" t="s">
+        <v>60</v>
       </c>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="65"/>
-      <c r="AX11" s="65"/>
-      <c r="AY11" s="65"/>
-      <c r="AZ11" s="65"/>
-      <c r="BA11" s="65"/>
-      <c r="BB11" s="65"/>
-      <c r="BC11" s="65"/>
-      <c r="BD11" s="66"/>
-      <c r="BE11" s="64" t="s">
-        <v>27</v>
+      <c r="AL11" s="147"/>
+      <c r="AM11" s="147"/>
+      <c r="AN11" s="147"/>
+      <c r="AO11" s="147"/>
+      <c r="AP11" s="147"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="73"/>
+      <c r="AS11" s="73"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="144" t="s">
+        <v>61</v>
       </c>
-      <c r="BF11" s="65"/>
-      <c r="BG11" s="65"/>
-      <c r="BH11" s="65"/>
-      <c r="BI11" s="65"/>
-      <c r="BJ11" s="65"/>
-      <c r="BK11" s="65"/>
-      <c r="BL11" s="65"/>
-      <c r="BM11" s="65"/>
-      <c r="BN11" s="65"/>
-      <c r="BO11" s="65"/>
-      <c r="BP11" s="66"/>
-      <c r="BQ11" s="116" t="s">
-        <v>49</v>
+      <c r="AV11" s="144"/>
+      <c r="AW11" s="144"/>
+      <c r="AX11" s="144"/>
+      <c r="AY11" s="144"/>
+      <c r="AZ11" s="144"/>
+      <c r="BA11" s="144"/>
+      <c r="BB11" s="144"/>
+      <c r="BC11" s="144"/>
+      <c r="BD11" s="144"/>
+      <c r="BE11" s="144" t="s">
+        <v>61</v>
       </c>
-      <c r="BR11" s="117"/>
-      <c r="BS11" s="117"/>
-      <c r="BT11" s="117"/>
-      <c r="BU11" s="117"/>
-      <c r="BV11" s="117"/>
-      <c r="BW11" s="117"/>
-      <c r="BX11" s="117"/>
-      <c r="BY11" s="117"/>
-      <c r="BZ11" s="117"/>
-      <c r="CA11" s="117"/>
-      <c r="CB11" s="117"/>
-      <c r="CC11" s="117"/>
-      <c r="CD11" s="117"/>
-      <c r="CE11" s="117"/>
-      <c r="CF11" s="117"/>
-      <c r="CG11" s="117"/>
-      <c r="CH11" s="117"/>
-      <c r="CI11" s="118"/>
+      <c r="BF11" s="144"/>
+      <c r="BG11" s="144"/>
+      <c r="BH11" s="144"/>
+      <c r="BI11" s="144"/>
+      <c r="BJ11" s="144"/>
+      <c r="BK11" s="144"/>
+      <c r="BL11" s="144"/>
+      <c r="BM11" s="144"/>
+      <c r="BN11" s="144"/>
+      <c r="BO11" s="144"/>
+      <c r="BP11" s="144"/>
+      <c r="BQ11" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR11" s="145"/>
+      <c r="BS11" s="145"/>
+      <c r="BT11" s="145"/>
+      <c r="BU11" s="145"/>
+      <c r="BV11" s="145"/>
+      <c r="BW11" s="145"/>
+      <c r="BX11" s="145"/>
+      <c r="BY11" s="145"/>
+      <c r="BZ11" s="145"/>
+      <c r="CA11" s="145"/>
+      <c r="CB11" s="145"/>
+      <c r="CC11" s="145"/>
+      <c r="CD11" s="145"/>
+      <c r="CE11" s="145"/>
+      <c r="CF11" s="145"/>
+      <c r="CG11" s="145"/>
+      <c r="CH11" s="145"/>
+      <c r="CI11" s="145"/>
     </row>
-    <row r="12" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B12" s="61">
+    <row r="12" spans="1:1024" ht="18" customHeight="1">
+      <c r="B12" s="64">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64" t="s">
-        <v>43</v>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67" t="s">
+        <v>40</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="67" t="s">
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="64" t="s">
-        <v>22</v>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="67" t="s">
+        <v>24</v>
       </c>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="67" t="s">
-        <v>38</v>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="70" t="s">
+        <v>25</v>
       </c>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="64" t="s">
-        <v>39</v>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="67" t="s">
+        <v>26</v>
       </c>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="64" t="s">
-        <v>53</v>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="68"/>
+      <c r="AO12" s="68"/>
+      <c r="AP12" s="68"/>
+      <c r="AQ12" s="68"/>
+      <c r="AR12" s="68"/>
+      <c r="AS12" s="68"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="67" t="s">
+        <v>50</v>
       </c>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="65"/>
-      <c r="BB12" s="65"/>
-      <c r="BC12" s="65"/>
-      <c r="BD12" s="66"/>
-      <c r="BE12" s="119" t="s">
-        <v>52</v>
+      <c r="AV12" s="68"/>
+      <c r="AW12" s="68"/>
+      <c r="AX12" s="68"/>
+      <c r="AY12" s="68"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="68"/>
+      <c r="BB12" s="68"/>
+      <c r="BC12" s="68"/>
+      <c r="BD12" s="69"/>
+      <c r="BE12" s="67" t="s">
+        <v>51</v>
       </c>
-      <c r="BF12" s="120"/>
-      <c r="BG12" s="120"/>
-      <c r="BH12" s="120"/>
-      <c r="BI12" s="120"/>
-      <c r="BJ12" s="120"/>
-      <c r="BK12" s="120"/>
-      <c r="BL12" s="120"/>
-      <c r="BM12" s="120"/>
-      <c r="BN12" s="120"/>
-      <c r="BO12" s="120"/>
-      <c r="BP12" s="121"/>
-      <c r="BQ12" s="116"/>
-      <c r="BR12" s="117"/>
-      <c r="BS12" s="117"/>
-      <c r="BT12" s="117"/>
-      <c r="BU12" s="117"/>
-      <c r="BV12" s="117"/>
-      <c r="BW12" s="117"/>
-      <c r="BX12" s="117"/>
-      <c r="BY12" s="117"/>
-      <c r="BZ12" s="117"/>
-      <c r="CA12" s="117"/>
-      <c r="CB12" s="117"/>
-      <c r="CC12" s="117"/>
-      <c r="CD12" s="117"/>
-      <c r="CE12" s="117"/>
-      <c r="CF12" s="117"/>
-      <c r="CG12" s="117"/>
-      <c r="CH12" s="117"/>
-      <c r="CI12" s="118"/>
+      <c r="BF12" s="68"/>
+      <c r="BG12" s="68"/>
+      <c r="BH12" s="68"/>
+      <c r="BI12" s="68"/>
+      <c r="BJ12" s="68"/>
+      <c r="BK12" s="68"/>
+      <c r="BL12" s="68"/>
+      <c r="BM12" s="68"/>
+      <c r="BN12" s="68"/>
+      <c r="BO12" s="68"/>
+      <c r="BP12" s="69"/>
+      <c r="BQ12" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR12" s="120"/>
+      <c r="BS12" s="120"/>
+      <c r="BT12" s="120"/>
+      <c r="BU12" s="120"/>
+      <c r="BV12" s="120"/>
+      <c r="BW12" s="120"/>
+      <c r="BX12" s="120"/>
+      <c r="BY12" s="120"/>
+      <c r="BZ12" s="120"/>
+      <c r="CA12" s="120"/>
+      <c r="CB12" s="120"/>
+      <c r="CC12" s="120"/>
+      <c r="CD12" s="120"/>
+      <c r="CE12" s="120"/>
+      <c r="CF12" s="120"/>
+      <c r="CG12" s="120"/>
+      <c r="CH12" s="120"/>
+      <c r="CI12" s="121"/>
     </row>
-    <row r="13" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B13" s="61">
+    <row r="13" spans="1:1024" ht="18" customHeight="1">
+      <c r="B13" s="64">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64" t="s">
-        <v>41</v>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67" t="s">
+        <v>48</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="67" t="s">
-        <v>42</v>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="67" t="s">
+        <v>24</v>
       </c>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="64" t="s">
-        <v>22</v>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="70" t="s">
+        <v>25</v>
       </c>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="67" t="s">
-        <v>38</v>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="67" t="s">
+        <v>26</v>
       </c>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="64" t="s">
-        <v>39</v>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="67" t="s">
+        <v>27</v>
       </c>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="64" t="s">
-        <v>54</v>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+      <c r="BC13" s="68"/>
+      <c r="BD13" s="69"/>
+      <c r="BE13" s="67" t="s">
+        <v>27</v>
       </c>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="65"/>
-      <c r="BA13" s="65"/>
-      <c r="BB13" s="65"/>
-      <c r="BC13" s="65"/>
-      <c r="BD13" s="66"/>
-      <c r="BE13" s="64" t="s">
-        <v>55</v>
+      <c r="BF13" s="68"/>
+      <c r="BG13" s="68"/>
+      <c r="BH13" s="68"/>
+      <c r="BI13" s="68"/>
+      <c r="BJ13" s="68"/>
+      <c r="BK13" s="68"/>
+      <c r="BL13" s="68"/>
+      <c r="BM13" s="68"/>
+      <c r="BN13" s="68"/>
+      <c r="BO13" s="68"/>
+      <c r="BP13" s="69"/>
+      <c r="BQ13" s="119" t="s">
+        <v>49</v>
       </c>
-      <c r="BF13" s="65"/>
-      <c r="BG13" s="65"/>
-      <c r="BH13" s="65"/>
-      <c r="BI13" s="65"/>
-      <c r="BJ13" s="65"/>
-      <c r="BK13" s="65"/>
-      <c r="BL13" s="65"/>
-      <c r="BM13" s="65"/>
-      <c r="BN13" s="65"/>
-      <c r="BO13" s="65"/>
-      <c r="BP13" s="66"/>
-      <c r="BQ13" s="116"/>
-      <c r="BR13" s="117"/>
-      <c r="BS13" s="117"/>
-      <c r="BT13" s="117"/>
-      <c r="BU13" s="117"/>
-      <c r="BV13" s="117"/>
-      <c r="BW13" s="117"/>
-      <c r="BX13" s="117"/>
-      <c r="BY13" s="117"/>
-      <c r="BZ13" s="117"/>
-      <c r="CA13" s="117"/>
-      <c r="CB13" s="117"/>
-      <c r="CC13" s="117"/>
-      <c r="CD13" s="117"/>
-      <c r="CE13" s="117"/>
-      <c r="CF13" s="117"/>
-      <c r="CG13" s="117"/>
-      <c r="CH13" s="117"/>
-      <c r="CI13" s="118"/>
+      <c r="BR13" s="120"/>
+      <c r="BS13" s="120"/>
+      <c r="BT13" s="120"/>
+      <c r="BU13" s="120"/>
+      <c r="BV13" s="120"/>
+      <c r="BW13" s="120"/>
+      <c r="BX13" s="120"/>
+      <c r="BY13" s="120"/>
+      <c r="BZ13" s="120"/>
+      <c r="CA13" s="120"/>
+      <c r="CB13" s="120"/>
+      <c r="CC13" s="120"/>
+      <c r="CD13" s="120"/>
+      <c r="CE13" s="120"/>
+      <c r="CF13" s="120"/>
+      <c r="CG13" s="120"/>
+      <c r="CH13" s="120"/>
+      <c r="CI13" s="121"/>
     </row>
-    <row r="14" spans="1:1024" ht="18" customHeight="1">
-      <c r="B14" s="61">
+    <row r="14" spans="1:1024" ht="36.75" customHeight="1">
+      <c r="B14" s="64">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="68"/>
+      <c r="AT14" s="69"/>
+      <c r="AU14" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="68"/>
+      <c r="BB14" s="68"/>
+      <c r="BC14" s="68"/>
+      <c r="BD14" s="69"/>
+      <c r="BE14" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF14" s="123"/>
+      <c r="BG14" s="123"/>
+      <c r="BH14" s="123"/>
+      <c r="BI14" s="123"/>
+      <c r="BJ14" s="123"/>
+      <c r="BK14" s="123"/>
+      <c r="BL14" s="123"/>
+      <c r="BM14" s="123"/>
+      <c r="BN14" s="123"/>
+      <c r="BO14" s="123"/>
+      <c r="BP14" s="124"/>
+      <c r="BQ14" s="119"/>
+      <c r="BR14" s="120"/>
+      <c r="BS14" s="120"/>
+      <c r="BT14" s="120"/>
+      <c r="BU14" s="120"/>
+      <c r="BV14" s="120"/>
+      <c r="BW14" s="120"/>
+      <c r="BX14" s="120"/>
+      <c r="BY14" s="120"/>
+      <c r="BZ14" s="120"/>
+      <c r="CA14" s="120"/>
+      <c r="CB14" s="120"/>
+      <c r="CC14" s="120"/>
+      <c r="CD14" s="120"/>
+      <c r="CE14" s="120"/>
+      <c r="CF14" s="120"/>
+      <c r="CG14" s="120"/>
+      <c r="CH14" s="120"/>
+      <c r="CI14" s="121"/>
+    </row>
+    <row r="15" spans="1:1024" ht="36.75" customHeight="1">
+      <c r="B15" s="64">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="68"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="69"/>
+      <c r="BE15" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF15" s="68"/>
+      <c r="BG15" s="68"/>
+      <c r="BH15" s="68"/>
+      <c r="BI15" s="68"/>
+      <c r="BJ15" s="68"/>
+      <c r="BK15" s="68"/>
+      <c r="BL15" s="68"/>
+      <c r="BM15" s="68"/>
+      <c r="BN15" s="68"/>
+      <c r="BO15" s="68"/>
+      <c r="BP15" s="69"/>
+      <c r="BQ15" s="119"/>
+      <c r="BR15" s="120"/>
+      <c r="BS15" s="120"/>
+      <c r="BT15" s="120"/>
+      <c r="BU15" s="120"/>
+      <c r="BV15" s="120"/>
+      <c r="BW15" s="120"/>
+      <c r="BX15" s="120"/>
+      <c r="BY15" s="120"/>
+      <c r="BZ15" s="120"/>
+      <c r="CA15" s="120"/>
+      <c r="CB15" s="120"/>
+      <c r="CC15" s="120"/>
+      <c r="CD15" s="120"/>
+      <c r="CE15" s="120"/>
+      <c r="CF15" s="120"/>
+      <c r="CG15" s="120"/>
+      <c r="CH15" s="120"/>
+      <c r="CI15" s="121"/>
+    </row>
+    <row r="16" spans="1:1024" ht="18" customHeight="1">
+      <c r="B16" s="64">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="64" t="s">
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="67" t="s">
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="64" t="s">
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="64" t="s">
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="68"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="68"/>
+      <c r="AS16" s="68"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="65"/>
-      <c r="AZ14" s="65"/>
-      <c r="BA14" s="65"/>
-      <c r="BB14" s="65"/>
-      <c r="BC14" s="65"/>
-      <c r="BD14" s="66"/>
-      <c r="BE14" s="64" t="s">
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="68"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="68"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="69"/>
+      <c r="BE16" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="BF14" s="65"/>
-      <c r="BG14" s="65"/>
-      <c r="BH14" s="65"/>
-      <c r="BI14" s="65"/>
-      <c r="BJ14" s="65"/>
-      <c r="BK14" s="65"/>
-      <c r="BL14" s="65"/>
-      <c r="BM14" s="65"/>
-      <c r="BN14" s="65"/>
-      <c r="BO14" s="65"/>
-      <c r="BP14" s="66"/>
-      <c r="BQ14" s="116" t="s">
+      <c r="BF16" s="68"/>
+      <c r="BG16" s="68"/>
+      <c r="BH16" s="68"/>
+      <c r="BI16" s="68"/>
+      <c r="BJ16" s="68"/>
+      <c r="BK16" s="68"/>
+      <c r="BL16" s="68"/>
+      <c r="BM16" s="68"/>
+      <c r="BN16" s="68"/>
+      <c r="BO16" s="68"/>
+      <c r="BP16" s="69"/>
+      <c r="BQ16" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="BR14" s="117"/>
-      <c r="BS14" s="117"/>
-      <c r="BT14" s="117"/>
-      <c r="BU14" s="117"/>
-      <c r="BV14" s="117"/>
-      <c r="BW14" s="117"/>
-      <c r="BX14" s="117"/>
-      <c r="BY14" s="117"/>
-      <c r="BZ14" s="117"/>
-      <c r="CA14" s="117"/>
-      <c r="CB14" s="117"/>
-      <c r="CC14" s="117"/>
-      <c r="CD14" s="117"/>
-      <c r="CE14" s="117"/>
-      <c r="CF14" s="117"/>
-      <c r="CG14" s="117"/>
-      <c r="CH14" s="117"/>
-      <c r="CI14" s="118"/>
-    </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1">
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="64"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="66"/>
-      <c r="BE15" s="64"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
-      <c r="BJ15" s="65"/>
-      <c r="BK15" s="65"/>
-      <c r="BL15" s="65"/>
-      <c r="BM15" s="65"/>
-      <c r="BN15" s="65"/>
-      <c r="BO15" s="65"/>
-      <c r="BP15" s="66"/>
-      <c r="BQ15" s="116"/>
-      <c r="BR15" s="117"/>
-      <c r="BS15" s="117"/>
-      <c r="BT15" s="117"/>
-      <c r="BU15" s="117"/>
-      <c r="BV15" s="117"/>
-      <c r="BW15" s="117"/>
-      <c r="BX15" s="117"/>
-      <c r="BY15" s="117"/>
-      <c r="BZ15" s="117"/>
-      <c r="CA15" s="117"/>
-      <c r="CB15" s="117"/>
-      <c r="CC15" s="117"/>
-      <c r="CD15" s="117"/>
-      <c r="CE15" s="117"/>
-      <c r="CF15" s="117"/>
-      <c r="CG15" s="117"/>
-      <c r="CH15" s="117"/>
-      <c r="CI15" s="118"/>
-    </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1">
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="64"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="70"/>
-      <c r="AS16" s="70"/>
-      <c r="AT16" s="71"/>
-      <c r="AU16" s="64"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="65"/>
-      <c r="BA16" s="65"/>
-      <c r="BB16" s="65"/>
-      <c r="BC16" s="65"/>
-      <c r="BD16" s="66"/>
-      <c r="BE16" s="64"/>
-      <c r="BF16" s="65"/>
-      <c r="BG16" s="65"/>
-      <c r="BH16" s="65"/>
-      <c r="BI16" s="65"/>
-      <c r="BJ16" s="65"/>
-      <c r="BK16" s="65"/>
-      <c r="BL16" s="65"/>
-      <c r="BM16" s="65"/>
-      <c r="BN16" s="65"/>
-      <c r="BO16" s="65"/>
-      <c r="BP16" s="66"/>
-      <c r="BQ16" s="116"/>
-      <c r="BR16" s="117"/>
-      <c r="BS16" s="117"/>
-      <c r="BT16" s="117"/>
-      <c r="BU16" s="117"/>
-      <c r="BV16" s="117"/>
-      <c r="BW16" s="117"/>
-      <c r="BX16" s="117"/>
-      <c r="BY16" s="117"/>
-      <c r="BZ16" s="117"/>
-      <c r="CA16" s="117"/>
-      <c r="CB16" s="117"/>
-      <c r="CC16" s="117"/>
-      <c r="CD16" s="117"/>
-      <c r="CE16" s="117"/>
-      <c r="CF16" s="117"/>
-      <c r="CG16" s="117"/>
-      <c r="CH16" s="117"/>
-      <c r="CI16" s="118"/>
+      <c r="BR16" s="120"/>
+      <c r="BS16" s="120"/>
+      <c r="BT16" s="120"/>
+      <c r="BU16" s="120"/>
+      <c r="BV16" s="120"/>
+      <c r="BW16" s="120"/>
+      <c r="BX16" s="120"/>
+      <c r="BY16" s="120"/>
+      <c r="BZ16" s="120"/>
+      <c r="CA16" s="120"/>
+      <c r="CB16" s="120"/>
+      <c r="CC16" s="120"/>
+      <c r="CD16" s="120"/>
+      <c r="CE16" s="120"/>
+      <c r="CF16" s="120"/>
+      <c r="CG16" s="120"/>
+      <c r="CH16" s="120"/>
+      <c r="CI16" s="121"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1">
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="64"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="70"/>
-      <c r="AS17" s="70"/>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="64"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="66"/>
-      <c r="BE17" s="64"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="65"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
-      <c r="BO17" s="65"/>
-      <c r="BP17" s="66"/>
-      <c r="BQ17" s="116"/>
-      <c r="BR17" s="117"/>
-      <c r="BS17" s="117"/>
-      <c r="BT17" s="117"/>
-      <c r="BU17" s="117"/>
-      <c r="BV17" s="117"/>
-      <c r="BW17" s="117"/>
-      <c r="BX17" s="117"/>
-      <c r="BY17" s="117"/>
-      <c r="BZ17" s="117"/>
-      <c r="CA17" s="117"/>
-      <c r="CB17" s="117"/>
-      <c r="CC17" s="117"/>
-      <c r="CD17" s="117"/>
-      <c r="CE17" s="117"/>
-      <c r="CF17" s="117"/>
-      <c r="CG17" s="117"/>
-      <c r="CH17" s="117"/>
-      <c r="CI17" s="118"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="67"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="68"/>
+      <c r="AN17" s="68"/>
+      <c r="AO17" s="68"/>
+      <c r="AP17" s="68"/>
+      <c r="AQ17" s="68"/>
+      <c r="AR17" s="68"/>
+      <c r="AS17" s="68"/>
+      <c r="AT17" s="69"/>
+      <c r="AU17" s="67"/>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="68"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="68"/>
+      <c r="BD17" s="69"/>
+      <c r="BE17" s="67"/>
+      <c r="BF17" s="68"/>
+      <c r="BG17" s="68"/>
+      <c r="BH17" s="68"/>
+      <c r="BI17" s="68"/>
+      <c r="BJ17" s="68"/>
+      <c r="BK17" s="68"/>
+      <c r="BL17" s="68"/>
+      <c r="BM17" s="68"/>
+      <c r="BN17" s="68"/>
+      <c r="BO17" s="68"/>
+      <c r="BP17" s="69"/>
+      <c r="BQ17" s="119"/>
+      <c r="BR17" s="120"/>
+      <c r="BS17" s="120"/>
+      <c r="BT17" s="120"/>
+      <c r="BU17" s="120"/>
+      <c r="BV17" s="120"/>
+      <c r="BW17" s="120"/>
+      <c r="BX17" s="120"/>
+      <c r="BY17" s="120"/>
+      <c r="BZ17" s="120"/>
+      <c r="CA17" s="120"/>
+      <c r="CB17" s="120"/>
+      <c r="CC17" s="120"/>
+      <c r="CD17" s="120"/>
+      <c r="CE17" s="120"/>
+      <c r="CF17" s="120"/>
+      <c r="CG17" s="120"/>
+      <c r="CH17" s="120"/>
+      <c r="CI17" s="121"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1">
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="64"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="70"/>
-      <c r="AS18" s="70"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="64"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="66"/>
-      <c r="BE18" s="64"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65"/>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
-      <c r="BP18" s="66"/>
-      <c r="BQ18" s="116"/>
-      <c r="BR18" s="117"/>
-      <c r="BS18" s="117"/>
-      <c r="BT18" s="117"/>
-      <c r="BU18" s="117"/>
-      <c r="BV18" s="117"/>
-      <c r="BW18" s="117"/>
-      <c r="BX18" s="117"/>
-      <c r="BY18" s="117"/>
-      <c r="BZ18" s="117"/>
-      <c r="CA18" s="117"/>
-      <c r="CB18" s="117"/>
-      <c r="CC18" s="117"/>
-      <c r="CD18" s="117"/>
-      <c r="CE18" s="117"/>
-      <c r="CF18" s="117"/>
-      <c r="CG18" s="117"/>
-      <c r="CH18" s="117"/>
-      <c r="CI18" s="118"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="67"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="68"/>
+      <c r="AP18" s="68"/>
+      <c r="AQ18" s="68"/>
+      <c r="AR18" s="68"/>
+      <c r="AS18" s="68"/>
+      <c r="AT18" s="69"/>
+      <c r="AU18" s="67"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="69"/>
+      <c r="BE18" s="67"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="68"/>
+      <c r="BJ18" s="68"/>
+      <c r="BK18" s="68"/>
+      <c r="BL18" s="68"/>
+      <c r="BM18" s="68"/>
+      <c r="BN18" s="68"/>
+      <c r="BO18" s="68"/>
+      <c r="BP18" s="69"/>
+      <c r="BQ18" s="119"/>
+      <c r="BR18" s="120"/>
+      <c r="BS18" s="120"/>
+      <c r="BT18" s="120"/>
+      <c r="BU18" s="120"/>
+      <c r="BV18" s="120"/>
+      <c r="BW18" s="120"/>
+      <c r="BX18" s="120"/>
+      <c r="BY18" s="120"/>
+      <c r="BZ18" s="120"/>
+      <c r="CA18" s="120"/>
+      <c r="CB18" s="120"/>
+      <c r="CC18" s="120"/>
+      <c r="CD18" s="120"/>
+      <c r="CE18" s="120"/>
+      <c r="CF18" s="120"/>
+      <c r="CG18" s="120"/>
+      <c r="CH18" s="120"/>
+      <c r="CI18" s="121"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1">
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="64"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="70"/>
-      <c r="AS19" s="70"/>
-      <c r="AT19" s="71"/>
-      <c r="AU19" s="64"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="66"/>
-      <c r="BE19" s="64"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="65"/>
-      <c r="BK19" s="65"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
-      <c r="BO19" s="65"/>
-      <c r="BP19" s="66"/>
-      <c r="BQ19" s="116"/>
-      <c r="BR19" s="117"/>
-      <c r="BS19" s="117"/>
-      <c r="BT19" s="117"/>
-      <c r="BU19" s="117"/>
-      <c r="BV19" s="117"/>
-      <c r="BW19" s="117"/>
-      <c r="BX19" s="117"/>
-      <c r="BY19" s="117"/>
-      <c r="BZ19" s="117"/>
-      <c r="CA19" s="117"/>
-      <c r="CB19" s="117"/>
-      <c r="CC19" s="117"/>
-      <c r="CD19" s="117"/>
-      <c r="CE19" s="117"/>
-      <c r="CF19" s="117"/>
-      <c r="CG19" s="117"/>
-      <c r="CH19" s="117"/>
-      <c r="CI19" s="118"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
+      <c r="AN19" s="68"/>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="73"/>
+      <c r="AS19" s="73"/>
+      <c r="AT19" s="74"/>
+      <c r="AU19" s="67"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="69"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="68"/>
+      <c r="BJ19" s="68"/>
+      <c r="BK19" s="68"/>
+      <c r="BL19" s="68"/>
+      <c r="BM19" s="68"/>
+      <c r="BN19" s="68"/>
+      <c r="BO19" s="68"/>
+      <c r="BP19" s="69"/>
+      <c r="BQ19" s="119"/>
+      <c r="BR19" s="120"/>
+      <c r="BS19" s="120"/>
+      <c r="BT19" s="120"/>
+      <c r="BU19" s="120"/>
+      <c r="BV19" s="120"/>
+      <c r="BW19" s="120"/>
+      <c r="BX19" s="120"/>
+      <c r="BY19" s="120"/>
+      <c r="BZ19" s="120"/>
+      <c r="CA19" s="120"/>
+      <c r="CB19" s="120"/>
+      <c r="CC19" s="120"/>
+      <c r="CD19" s="120"/>
+      <c r="CE19" s="120"/>
+      <c r="CF19" s="120"/>
+      <c r="CG19" s="120"/>
+      <c r="CH19" s="120"/>
+      <c r="CI19" s="121"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1">
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="70"/>
-      <c r="AS20" s="70"/>
-      <c r="AT20" s="71"/>
-      <c r="AU20" s="64"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="65"/>
-      <c r="BC20" s="65"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="64"/>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="65"/>
-      <c r="BJ20" s="65"/>
-      <c r="BK20" s="65"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="65"/>
-      <c r="BO20" s="65"/>
-      <c r="BP20" s="66"/>
-      <c r="BQ20" s="116"/>
-      <c r="BR20" s="117"/>
-      <c r="BS20" s="117"/>
-      <c r="BT20" s="117"/>
-      <c r="BU20" s="117"/>
-      <c r="BV20" s="117"/>
-      <c r="BW20" s="117"/>
-      <c r="BX20" s="117"/>
-      <c r="BY20" s="117"/>
-      <c r="BZ20" s="117"/>
-      <c r="CA20" s="117"/>
-      <c r="CB20" s="117"/>
-      <c r="CC20" s="117"/>
-      <c r="CD20" s="117"/>
-      <c r="CE20" s="117"/>
-      <c r="CF20" s="117"/>
-      <c r="CG20" s="117"/>
-      <c r="CH20" s="117"/>
-      <c r="CI20" s="118"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="67"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="68"/>
+      <c r="AO20" s="68"/>
+      <c r="AP20" s="68"/>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="73"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="67"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68"/>
+      <c r="AZ20" s="68"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="69"/>
+      <c r="BE20" s="67"/>
+      <c r="BF20" s="68"/>
+      <c r="BG20" s="68"/>
+      <c r="BH20" s="68"/>
+      <c r="BI20" s="68"/>
+      <c r="BJ20" s="68"/>
+      <c r="BK20" s="68"/>
+      <c r="BL20" s="68"/>
+      <c r="BM20" s="68"/>
+      <c r="BN20" s="68"/>
+      <c r="BO20" s="68"/>
+      <c r="BP20" s="69"/>
+      <c r="BQ20" s="119"/>
+      <c r="BR20" s="120"/>
+      <c r="BS20" s="120"/>
+      <c r="BT20" s="120"/>
+      <c r="BU20" s="120"/>
+      <c r="BV20" s="120"/>
+      <c r="BW20" s="120"/>
+      <c r="BX20" s="120"/>
+      <c r="BY20" s="120"/>
+      <c r="BZ20" s="120"/>
+      <c r="CA20" s="120"/>
+      <c r="CB20" s="120"/>
+      <c r="CC20" s="120"/>
+      <c r="CD20" s="120"/>
+      <c r="CE20" s="120"/>
+      <c r="CF20" s="120"/>
+      <c r="CG20" s="120"/>
+      <c r="CH20" s="120"/>
+      <c r="CI20" s="121"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1">
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="99"/>
-      <c r="AJ21" s="100"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="90"/>
-      <c r="AM21" s="90"/>
-      <c r="AN21" s="90"/>
-      <c r="AO21" s="90"/>
-      <c r="AP21" s="90"/>
-      <c r="AQ21" s="90"/>
-      <c r="AR21" s="70"/>
-      <c r="AS21" s="70"/>
-      <c r="AT21" s="71"/>
-      <c r="AU21" s="89"/>
-      <c r="AV21" s="90"/>
-      <c r="AW21" s="90"/>
-      <c r="AX21" s="90"/>
-      <c r="AY21" s="90"/>
-      <c r="AZ21" s="90"/>
-      <c r="BA21" s="90"/>
-      <c r="BB21" s="90"/>
-      <c r="BC21" s="90"/>
-      <c r="BD21" s="91"/>
-      <c r="BE21" s="89"/>
-      <c r="BF21" s="90"/>
-      <c r="BG21" s="90"/>
-      <c r="BH21" s="90"/>
-      <c r="BI21" s="90"/>
-      <c r="BJ21" s="90"/>
-      <c r="BK21" s="90"/>
-      <c r="BL21" s="90"/>
-      <c r="BM21" s="90"/>
-      <c r="BN21" s="90"/>
-      <c r="BO21" s="90"/>
-      <c r="BP21" s="91"/>
-      <c r="BQ21" s="92"/>
-      <c r="BR21" s="93"/>
-      <c r="BS21" s="93"/>
-      <c r="BT21" s="93"/>
-      <c r="BU21" s="93"/>
-      <c r="BV21" s="93"/>
-      <c r="BW21" s="93"/>
-      <c r="BX21" s="93"/>
-      <c r="BY21" s="93"/>
-      <c r="BZ21" s="93"/>
-      <c r="CA21" s="93"/>
-      <c r="CB21" s="93"/>
-      <c r="CC21" s="93"/>
-      <c r="CD21" s="93"/>
-      <c r="CE21" s="93"/>
-      <c r="CF21" s="93"/>
-      <c r="CG21" s="93"/>
-      <c r="CH21" s="93"/>
-      <c r="CI21" s="94"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="69"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="67"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
+      <c r="AO21" s="68"/>
+      <c r="AP21" s="68"/>
+      <c r="AQ21" s="68"/>
+      <c r="AR21" s="73"/>
+      <c r="AS21" s="73"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="67"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="68"/>
+      <c r="AZ21" s="68"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="69"/>
+      <c r="BE21" s="67"/>
+      <c r="BF21" s="68"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="68"/>
+      <c r="BJ21" s="68"/>
+      <c r="BK21" s="68"/>
+      <c r="BL21" s="68"/>
+      <c r="BM21" s="68"/>
+      <c r="BN21" s="68"/>
+      <c r="BO21" s="68"/>
+      <c r="BP21" s="69"/>
+      <c r="BQ21" s="119"/>
+      <c r="BR21" s="120"/>
+      <c r="BS21" s="120"/>
+      <c r="BT21" s="120"/>
+      <c r="BU21" s="120"/>
+      <c r="BV21" s="120"/>
+      <c r="BW21" s="120"/>
+      <c r="BX21" s="120"/>
+      <c r="BY21" s="120"/>
+      <c r="BZ21" s="120"/>
+      <c r="CA21" s="120"/>
+      <c r="CB21" s="120"/>
+      <c r="CC21" s="120"/>
+      <c r="CD21" s="120"/>
+      <c r="CE21" s="120"/>
+      <c r="CF21" s="120"/>
+      <c r="CG21" s="120"/>
+      <c r="CH21" s="120"/>
+      <c r="CI21" s="121"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1">
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="100"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="90"/>
-      <c r="AJ22" s="91"/>
-      <c r="AK22" s="89"/>
-      <c r="AL22" s="90"/>
-      <c r="AM22" s="90"/>
-      <c r="AN22" s="90"/>
-      <c r="AO22" s="90"/>
-      <c r="AP22" s="90"/>
-      <c r="AQ22" s="90"/>
-      <c r="AR22" s="70"/>
-      <c r="AS22" s="70"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="89"/>
-      <c r="AV22" s="90"/>
-      <c r="AW22" s="90"/>
-      <c r="AX22" s="90"/>
-      <c r="AY22" s="90"/>
-      <c r="AZ22" s="90"/>
-      <c r="BA22" s="90"/>
-      <c r="BB22" s="90"/>
-      <c r="BC22" s="90"/>
-      <c r="BD22" s="91"/>
-      <c r="BE22" s="89"/>
-      <c r="BF22" s="90"/>
-      <c r="BG22" s="90"/>
-      <c r="BH22" s="90"/>
-      <c r="BI22" s="90"/>
-      <c r="BJ22" s="90"/>
-      <c r="BK22" s="90"/>
-      <c r="BL22" s="90"/>
-      <c r="BM22" s="90"/>
-      <c r="BN22" s="90"/>
-      <c r="BO22" s="90"/>
-      <c r="BP22" s="91"/>
-      <c r="BQ22" s="113"/>
-      <c r="BR22" s="114"/>
-      <c r="BS22" s="114"/>
-      <c r="BT22" s="114"/>
-      <c r="BU22" s="114"/>
-      <c r="BV22" s="114"/>
-      <c r="BW22" s="114"/>
-      <c r="BX22" s="114"/>
-      <c r="BY22" s="114"/>
-      <c r="BZ22" s="114"/>
-      <c r="CA22" s="114"/>
-      <c r="CB22" s="114"/>
-      <c r="CC22" s="114"/>
-      <c r="CD22" s="114"/>
-      <c r="CE22" s="114"/>
-      <c r="CF22" s="114"/>
-      <c r="CG22" s="114"/>
-      <c r="CH22" s="114"/>
-      <c r="CI22" s="115"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="67"/>
+      <c r="AL22" s="68"/>
+      <c r="AM22" s="68"/>
+      <c r="AN22" s="68"/>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="68"/>
+      <c r="AQ22" s="68"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="73"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="67"/>
+      <c r="AV22" s="68"/>
+      <c r="AW22" s="68"/>
+      <c r="AX22" s="68"/>
+      <c r="AY22" s="68"/>
+      <c r="AZ22" s="68"/>
+      <c r="BA22" s="68"/>
+      <c r="BB22" s="68"/>
+      <c r="BC22" s="68"/>
+      <c r="BD22" s="69"/>
+      <c r="BE22" s="67"/>
+      <c r="BF22" s="68"/>
+      <c r="BG22" s="68"/>
+      <c r="BH22" s="68"/>
+      <c r="BI22" s="68"/>
+      <c r="BJ22" s="68"/>
+      <c r="BK22" s="68"/>
+      <c r="BL22" s="68"/>
+      <c r="BM22" s="68"/>
+      <c r="BN22" s="68"/>
+      <c r="BO22" s="68"/>
+      <c r="BP22" s="69"/>
+      <c r="BQ22" s="119"/>
+      <c r="BR22" s="120"/>
+      <c r="BS22" s="120"/>
+      <c r="BT22" s="120"/>
+      <c r="BU22" s="120"/>
+      <c r="BV22" s="120"/>
+      <c r="BW22" s="120"/>
+      <c r="BX22" s="120"/>
+      <c r="BY22" s="120"/>
+      <c r="BZ22" s="120"/>
+      <c r="CA22" s="120"/>
+      <c r="CB22" s="120"/>
+      <c r="CC22" s="120"/>
+      <c r="CD22" s="120"/>
+      <c r="CE22" s="120"/>
+      <c r="CF22" s="120"/>
+      <c r="CG22" s="120"/>
+      <c r="CH22" s="120"/>
+      <c r="CI22" s="121"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1">
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="103"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="100"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="102"/>
-      <c r="AD23" s="102"/>
-      <c r="AE23" s="102"/>
-      <c r="AF23" s="102"/>
-      <c r="AG23" s="103"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="99"/>
-      <c r="AJ23" s="100"/>
-      <c r="AK23" s="89"/>
-      <c r="AL23" s="90"/>
-      <c r="AM23" s="90"/>
-      <c r="AN23" s="90"/>
-      <c r="AO23" s="90"/>
-      <c r="AP23" s="90"/>
-      <c r="AQ23" s="90"/>
-      <c r="AR23" s="70"/>
-      <c r="AS23" s="70"/>
-      <c r="AT23" s="71"/>
-      <c r="AU23" s="89"/>
-      <c r="AV23" s="90"/>
-      <c r="AW23" s="90"/>
-      <c r="AX23" s="90"/>
-      <c r="AY23" s="90"/>
-      <c r="AZ23" s="90"/>
-      <c r="BA23" s="90"/>
-      <c r="BB23" s="90"/>
-      <c r="BC23" s="90"/>
-      <c r="BD23" s="91"/>
-      <c r="BE23" s="89"/>
-      <c r="BF23" s="90"/>
-      <c r="BG23" s="90"/>
-      <c r="BH23" s="90"/>
-      <c r="BI23" s="90"/>
-      <c r="BJ23" s="90"/>
-      <c r="BK23" s="90"/>
-      <c r="BL23" s="90"/>
-      <c r="BM23" s="90"/>
-      <c r="BN23" s="90"/>
-      <c r="BO23" s="90"/>
-      <c r="BP23" s="91"/>
-      <c r="BQ23" s="110"/>
-      <c r="BR23" s="111"/>
-      <c r="BS23" s="111"/>
-      <c r="BT23" s="111"/>
-      <c r="BU23" s="111"/>
-      <c r="BV23" s="111"/>
-      <c r="BW23" s="111"/>
-      <c r="BX23" s="111"/>
-      <c r="BY23" s="111"/>
-      <c r="BZ23" s="111"/>
-      <c r="CA23" s="111"/>
-      <c r="CB23" s="111"/>
-      <c r="CC23" s="111"/>
-      <c r="CD23" s="111"/>
-      <c r="CE23" s="111"/>
-      <c r="CF23" s="111"/>
-      <c r="CG23" s="111"/>
-      <c r="CH23" s="111"/>
-      <c r="CI23" s="112"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="103"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="69"/>
+      <c r="AH23" s="101"/>
+      <c r="AI23" s="102"/>
+      <c r="AJ23" s="103"/>
+      <c r="AK23" s="92"/>
+      <c r="AL23" s="93"/>
+      <c r="AM23" s="93"/>
+      <c r="AN23" s="93"/>
+      <c r="AO23" s="93"/>
+      <c r="AP23" s="93"/>
+      <c r="AQ23" s="93"/>
+      <c r="AR23" s="73"/>
+      <c r="AS23" s="73"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="92"/>
+      <c r="AV23" s="93"/>
+      <c r="AW23" s="93"/>
+      <c r="AX23" s="93"/>
+      <c r="AY23" s="93"/>
+      <c r="AZ23" s="93"/>
+      <c r="BA23" s="93"/>
+      <c r="BB23" s="93"/>
+      <c r="BC23" s="93"/>
+      <c r="BD23" s="94"/>
+      <c r="BE23" s="92"/>
+      <c r="BF23" s="93"/>
+      <c r="BG23" s="93"/>
+      <c r="BH23" s="93"/>
+      <c r="BI23" s="93"/>
+      <c r="BJ23" s="93"/>
+      <c r="BK23" s="93"/>
+      <c r="BL23" s="93"/>
+      <c r="BM23" s="93"/>
+      <c r="BN23" s="93"/>
+      <c r="BO23" s="93"/>
+      <c r="BP23" s="94"/>
+      <c r="BQ23" s="95"/>
+      <c r="BR23" s="96"/>
+      <c r="BS23" s="96"/>
+      <c r="BT23" s="96"/>
+      <c r="BU23" s="96"/>
+      <c r="BV23" s="96"/>
+      <c r="BW23" s="96"/>
+      <c r="BX23" s="96"/>
+      <c r="BY23" s="96"/>
+      <c r="BZ23" s="96"/>
+      <c r="CA23" s="96"/>
+      <c r="CB23" s="96"/>
+      <c r="CC23" s="96"/>
+      <c r="CD23" s="96"/>
+      <c r="CE23" s="96"/>
+      <c r="CF23" s="96"/>
+      <c r="CG23" s="96"/>
+      <c r="CH23" s="96"/>
+      <c r="CI23" s="97"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1">
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="108"/>
-      <c r="AA24" s="109"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="102"/>
-      <c r="AG24" s="103"/>
-      <c r="AH24" s="107"/>
-      <c r="AI24" s="108"/>
-      <c r="AJ24" s="109"/>
-      <c r="AK24" s="101"/>
-      <c r="AL24" s="102"/>
-      <c r="AM24" s="102"/>
-      <c r="AN24" s="102"/>
-      <c r="AO24" s="102"/>
-      <c r="AP24" s="102"/>
-      <c r="AQ24" s="102"/>
-      <c r="AR24" s="70"/>
-      <c r="AS24" s="70"/>
-      <c r="AT24" s="71"/>
-      <c r="AU24" s="101"/>
-      <c r="AV24" s="102"/>
-      <c r="AW24" s="102"/>
-      <c r="AX24" s="102"/>
-      <c r="AY24" s="102"/>
-      <c r="AZ24" s="102"/>
-      <c r="BA24" s="102"/>
-      <c r="BB24" s="102"/>
-      <c r="BC24" s="102"/>
-      <c r="BD24" s="103"/>
-      <c r="BE24" s="101"/>
-      <c r="BF24" s="102"/>
-      <c r="BG24" s="102"/>
-      <c r="BH24" s="102"/>
-      <c r="BI24" s="102"/>
-      <c r="BJ24" s="102"/>
-      <c r="BK24" s="102"/>
-      <c r="BL24" s="102"/>
-      <c r="BM24" s="102"/>
-      <c r="BN24" s="102"/>
-      <c r="BO24" s="102"/>
-      <c r="BP24" s="103"/>
-      <c r="BQ24" s="104"/>
-      <c r="BR24" s="105"/>
-      <c r="BS24" s="105"/>
-      <c r="BT24" s="105"/>
-      <c r="BU24" s="105"/>
-      <c r="BV24" s="105"/>
-      <c r="BW24" s="105"/>
-      <c r="BX24" s="105"/>
-      <c r="BY24" s="105"/>
-      <c r="BZ24" s="105"/>
-      <c r="CA24" s="105"/>
-      <c r="CB24" s="105"/>
-      <c r="CC24" s="105"/>
-      <c r="CD24" s="105"/>
-      <c r="CE24" s="105"/>
-      <c r="CF24" s="105"/>
-      <c r="CG24" s="105"/>
-      <c r="CH24" s="105"/>
-      <c r="CI24" s="106"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="102"/>
+      <c r="AA24" s="103"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="93"/>
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="92"/>
+      <c r="AL24" s="93"/>
+      <c r="AM24" s="93"/>
+      <c r="AN24" s="93"/>
+      <c r="AO24" s="93"/>
+      <c r="AP24" s="93"/>
+      <c r="AQ24" s="93"/>
+      <c r="AR24" s="73"/>
+      <c r="AS24" s="73"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="92"/>
+      <c r="AV24" s="93"/>
+      <c r="AW24" s="93"/>
+      <c r="AX24" s="93"/>
+      <c r="AY24" s="93"/>
+      <c r="AZ24" s="93"/>
+      <c r="BA24" s="93"/>
+      <c r="BB24" s="93"/>
+      <c r="BC24" s="93"/>
+      <c r="BD24" s="94"/>
+      <c r="BE24" s="92"/>
+      <c r="BF24" s="93"/>
+      <c r="BG24" s="93"/>
+      <c r="BH24" s="93"/>
+      <c r="BI24" s="93"/>
+      <c r="BJ24" s="93"/>
+      <c r="BK24" s="93"/>
+      <c r="BL24" s="93"/>
+      <c r="BM24" s="93"/>
+      <c r="BN24" s="93"/>
+      <c r="BO24" s="93"/>
+      <c r="BP24" s="94"/>
+      <c r="BQ24" s="116"/>
+      <c r="BR24" s="117"/>
+      <c r="BS24" s="117"/>
+      <c r="BT24" s="117"/>
+      <c r="BU24" s="117"/>
+      <c r="BV24" s="117"/>
+      <c r="BW24" s="117"/>
+      <c r="BX24" s="117"/>
+      <c r="BY24" s="117"/>
+      <c r="BZ24" s="117"/>
+      <c r="CA24" s="117"/>
+      <c r="CB24" s="117"/>
+      <c r="CC24" s="117"/>
+      <c r="CD24" s="117"/>
+      <c r="CE24" s="117"/>
+      <c r="CF24" s="117"/>
+      <c r="CG24" s="117"/>
+      <c r="CH24" s="117"/>
+      <c r="CI24" s="118"/>
     </row>
-    <row r="25" spans="2:87" ht="18.75" customHeight="1">
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="100"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="91"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="90"/>
-      <c r="AJ25" s="91"/>
-      <c r="AK25" s="89"/>
-      <c r="AL25" s="90"/>
-      <c r="AM25" s="90"/>
-      <c r="AN25" s="90"/>
-      <c r="AO25" s="90"/>
-      <c r="AP25" s="90"/>
-      <c r="AQ25" s="90"/>
-      <c r="AR25" s="70"/>
-      <c r="AS25" s="70"/>
-      <c r="AT25" s="71"/>
-      <c r="AU25" s="89"/>
-      <c r="AV25" s="90"/>
-      <c r="AW25" s="90"/>
-      <c r="AX25" s="90"/>
-      <c r="AY25" s="90"/>
-      <c r="AZ25" s="90"/>
-      <c r="BA25" s="90"/>
-      <c r="BB25" s="90"/>
-      <c r="BC25" s="90"/>
-      <c r="BD25" s="91"/>
-      <c r="BE25" s="89"/>
-      <c r="BF25" s="90"/>
-      <c r="BG25" s="90"/>
-      <c r="BH25" s="90"/>
-      <c r="BI25" s="90"/>
-      <c r="BJ25" s="90"/>
-      <c r="BK25" s="90"/>
-      <c r="BL25" s="90"/>
-      <c r="BM25" s="90"/>
-      <c r="BN25" s="90"/>
-      <c r="BO25" s="90"/>
-      <c r="BP25" s="91"/>
-      <c r="BQ25" s="92"/>
-      <c r="BR25" s="93"/>
-      <c r="BS25" s="93"/>
-      <c r="BT25" s="93"/>
-      <c r="BU25" s="93"/>
-      <c r="BV25" s="93"/>
-      <c r="BW25" s="93"/>
-      <c r="BX25" s="93"/>
-      <c r="BY25" s="93"/>
-      <c r="BZ25" s="93"/>
-      <c r="CA25" s="93"/>
-      <c r="CB25" s="93"/>
-      <c r="CC25" s="93"/>
-      <c r="CD25" s="93"/>
-      <c r="CE25" s="93"/>
-      <c r="CF25" s="93"/>
-      <c r="CG25" s="93"/>
-      <c r="CH25" s="93"/>
-      <c r="CI25" s="94"/>
+    <row r="25" spans="2:87" ht="18" customHeight="1">
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="103"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="105"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="101"/>
+      <c r="AI25" s="102"/>
+      <c r="AJ25" s="103"/>
+      <c r="AK25" s="92"/>
+      <c r="AL25" s="93"/>
+      <c r="AM25" s="93"/>
+      <c r="AN25" s="93"/>
+      <c r="AO25" s="93"/>
+      <c r="AP25" s="93"/>
+      <c r="AQ25" s="93"/>
+      <c r="AR25" s="73"/>
+      <c r="AS25" s="73"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="92"/>
+      <c r="AV25" s="93"/>
+      <c r="AW25" s="93"/>
+      <c r="AX25" s="93"/>
+      <c r="AY25" s="93"/>
+      <c r="AZ25" s="93"/>
+      <c r="BA25" s="93"/>
+      <c r="BB25" s="93"/>
+      <c r="BC25" s="93"/>
+      <c r="BD25" s="94"/>
+      <c r="BE25" s="92"/>
+      <c r="BF25" s="93"/>
+      <c r="BG25" s="93"/>
+      <c r="BH25" s="93"/>
+      <c r="BI25" s="93"/>
+      <c r="BJ25" s="93"/>
+      <c r="BK25" s="93"/>
+      <c r="BL25" s="93"/>
+      <c r="BM25" s="93"/>
+      <c r="BN25" s="93"/>
+      <c r="BO25" s="93"/>
+      <c r="BP25" s="94"/>
+      <c r="BQ25" s="113"/>
+      <c r="BR25" s="114"/>
+      <c r="BS25" s="114"/>
+      <c r="BT25" s="114"/>
+      <c r="BU25" s="114"/>
+      <c r="BV25" s="114"/>
+      <c r="BW25" s="114"/>
+      <c r="BX25" s="114"/>
+      <c r="BY25" s="114"/>
+      <c r="BZ25" s="114"/>
+      <c r="CA25" s="114"/>
+      <c r="CB25" s="114"/>
+      <c r="CC25" s="114"/>
+      <c r="CD25" s="114"/>
+      <c r="CE25" s="114"/>
+      <c r="CF25" s="114"/>
+      <c r="CG25" s="114"/>
+      <c r="CH25" s="114"/>
+      <c r="CI25" s="115"/>
     </row>
-    <row r="26" spans="2:87" ht="18.75" thickBot="1">
-      <c r="B26" s="78"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="73"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="84"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="86"/>
-      <c r="AK26" s="72"/>
-      <c r="AL26" s="73"/>
-      <c r="AM26" s="73"/>
-      <c r="AN26" s="73"/>
-      <c r="AO26" s="73"/>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="73"/>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="87"/>
-      <c r="AT26" s="88"/>
-      <c r="AU26" s="72"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="73"/>
-      <c r="AX26" s="73"/>
-      <c r="AY26" s="73"/>
-      <c r="AZ26" s="73"/>
-      <c r="BA26" s="73"/>
-      <c r="BB26" s="73"/>
-      <c r="BC26" s="73"/>
-      <c r="BD26" s="74"/>
-      <c r="BE26" s="72"/>
-      <c r="BF26" s="73"/>
-      <c r="BG26" s="73"/>
-      <c r="BH26" s="73"/>
-      <c r="BI26" s="73"/>
-      <c r="BJ26" s="73"/>
-      <c r="BK26" s="73"/>
-      <c r="BL26" s="73"/>
-      <c r="BM26" s="73"/>
-      <c r="BN26" s="73"/>
-      <c r="BO26" s="73"/>
-      <c r="BP26" s="74"/>
-      <c r="BQ26" s="75"/>
-      <c r="BR26" s="76"/>
-      <c r="BS26" s="76"/>
-      <c r="BT26" s="76"/>
-      <c r="BU26" s="76"/>
-      <c r="BV26" s="76"/>
-      <c r="BW26" s="76"/>
-      <c r="BX26" s="76"/>
-      <c r="BY26" s="76"/>
-      <c r="BZ26" s="76"/>
-      <c r="CA26" s="76"/>
-      <c r="CB26" s="76"/>
-      <c r="CC26" s="76"/>
-      <c r="CD26" s="76"/>
-      <c r="CE26" s="76"/>
-      <c r="CF26" s="76"/>
-      <c r="CG26" s="76"/>
-      <c r="CH26" s="76"/>
-      <c r="CI26" s="77"/>
+    <row r="26" spans="2:87" ht="18" customHeight="1">
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="110"/>
+      <c r="AI26" s="111"/>
+      <c r="AJ26" s="112"/>
+      <c r="AK26" s="104"/>
+      <c r="AL26" s="105"/>
+      <c r="AM26" s="105"/>
+      <c r="AN26" s="105"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="105"/>
+      <c r="AQ26" s="105"/>
+      <c r="AR26" s="73"/>
+      <c r="AS26" s="73"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="104"/>
+      <c r="AV26" s="105"/>
+      <c r="AW26" s="105"/>
+      <c r="AX26" s="105"/>
+      <c r="AY26" s="105"/>
+      <c r="AZ26" s="105"/>
+      <c r="BA26" s="105"/>
+      <c r="BB26" s="105"/>
+      <c r="BC26" s="105"/>
+      <c r="BD26" s="106"/>
+      <c r="BE26" s="104"/>
+      <c r="BF26" s="105"/>
+      <c r="BG26" s="105"/>
+      <c r="BH26" s="105"/>
+      <c r="BI26" s="105"/>
+      <c r="BJ26" s="105"/>
+      <c r="BK26" s="105"/>
+      <c r="BL26" s="105"/>
+      <c r="BM26" s="105"/>
+      <c r="BN26" s="105"/>
+      <c r="BO26" s="105"/>
+      <c r="BP26" s="106"/>
+      <c r="BQ26" s="107"/>
+      <c r="BR26" s="108"/>
+      <c r="BS26" s="108"/>
+      <c r="BT26" s="108"/>
+      <c r="BU26" s="108"/>
+      <c r="BV26" s="108"/>
+      <c r="BW26" s="108"/>
+      <c r="BX26" s="108"/>
+      <c r="BY26" s="108"/>
+      <c r="BZ26" s="108"/>
+      <c r="CA26" s="108"/>
+      <c r="CB26" s="108"/>
+      <c r="CC26" s="108"/>
+      <c r="CD26" s="108"/>
+      <c r="CE26" s="108"/>
+      <c r="CF26" s="108"/>
+      <c r="CG26" s="108"/>
+      <c r="CH26" s="108"/>
+      <c r="CI26" s="109"/>
+    </row>
+    <row r="27" spans="2:87" ht="18.75" customHeight="1">
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="102"/>
+      <c r="AA27" s="103"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="93"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="93"/>
+      <c r="AG27" s="94"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
+      <c r="AJ27" s="94"/>
+      <c r="AK27" s="92"/>
+      <c r="AL27" s="93"/>
+      <c r="AM27" s="93"/>
+      <c r="AN27" s="93"/>
+      <c r="AO27" s="93"/>
+      <c r="AP27" s="93"/>
+      <c r="AQ27" s="93"/>
+      <c r="AR27" s="73"/>
+      <c r="AS27" s="73"/>
+      <c r="AT27" s="74"/>
+      <c r="AU27" s="92"/>
+      <c r="AV27" s="93"/>
+      <c r="AW27" s="93"/>
+      <c r="AX27" s="93"/>
+      <c r="AY27" s="93"/>
+      <c r="AZ27" s="93"/>
+      <c r="BA27" s="93"/>
+      <c r="BB27" s="93"/>
+      <c r="BC27" s="93"/>
+      <c r="BD27" s="94"/>
+      <c r="BE27" s="92"/>
+      <c r="BF27" s="93"/>
+      <c r="BG27" s="93"/>
+      <c r="BH27" s="93"/>
+      <c r="BI27" s="93"/>
+      <c r="BJ27" s="93"/>
+      <c r="BK27" s="93"/>
+      <c r="BL27" s="93"/>
+      <c r="BM27" s="93"/>
+      <c r="BN27" s="93"/>
+      <c r="BO27" s="93"/>
+      <c r="BP27" s="94"/>
+      <c r="BQ27" s="95"/>
+      <c r="BR27" s="96"/>
+      <c r="BS27" s="96"/>
+      <c r="BT27" s="96"/>
+      <c r="BU27" s="96"/>
+      <c r="BV27" s="96"/>
+      <c r="BW27" s="96"/>
+      <c r="BX27" s="96"/>
+      <c r="BY27" s="96"/>
+      <c r="BZ27" s="96"/>
+      <c r="CA27" s="96"/>
+      <c r="CB27" s="96"/>
+      <c r="CC27" s="96"/>
+      <c r="CD27" s="96"/>
+      <c r="CE27" s="96"/>
+      <c r="CF27" s="96"/>
+      <c r="CG27" s="96"/>
+      <c r="CH27" s="96"/>
+      <c r="CI27" s="97"/>
+    </row>
+    <row r="28" spans="2:87" ht="18.75" thickBot="1">
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="88"/>
+      <c r="AJ28" s="89"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="76"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="90"/>
+      <c r="AT28" s="91"/>
+      <c r="AU28" s="75"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="76"/>
+      <c r="BC28" s="76"/>
+      <c r="BD28" s="77"/>
+      <c r="BE28" s="75"/>
+      <c r="BF28" s="76"/>
+      <c r="BG28" s="76"/>
+      <c r="BH28" s="76"/>
+      <c r="BI28" s="76"/>
+      <c r="BJ28" s="76"/>
+      <c r="BK28" s="76"/>
+      <c r="BL28" s="76"/>
+      <c r="BM28" s="76"/>
+      <c r="BN28" s="76"/>
+      <c r="BO28" s="76"/>
+      <c r="BP28" s="77"/>
+      <c r="BQ28" s="78"/>
+      <c r="BR28" s="79"/>
+      <c r="BS28" s="79"/>
+      <c r="BT28" s="79"/>
+      <c r="BU28" s="79"/>
+      <c r="BV28" s="79"/>
+      <c r="BW28" s="79"/>
+      <c r="BX28" s="79"/>
+      <c r="BY28" s="79"/>
+      <c r="BZ28" s="79"/>
+      <c r="CA28" s="79"/>
+      <c r="CB28" s="79"/>
+      <c r="CC28" s="79"/>
+      <c r="CD28" s="79"/>
+      <c r="CE28" s="79"/>
+      <c r="CF28" s="79"/>
+      <c r="CG28" s="79"/>
+      <c r="CH28" s="79"/>
+      <c r="CI28" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
+  <mergeCells count="213">
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="AU8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
     <mergeCell ref="BQ9:CI9"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:X9"/>
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
     <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -11569,33 +12018,15 @@
     <mergeCell ref="AU7:BP7"/>
     <mergeCell ref="BQ7:CI7"/>
     <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
     <mergeCell ref="AU13:BD13"/>
     <mergeCell ref="BE13:BP13"/>
     <mergeCell ref="BQ13:CI13"/>
@@ -11635,20 +12066,20 @@
     <mergeCell ref="AU17:BD17"/>
     <mergeCell ref="BE17:BP17"/>
     <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:X18"/>
     <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
     <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AK17:AT17"/>
     <mergeCell ref="AK18:AT18"/>
     <mergeCell ref="AU19:BD19"/>
     <mergeCell ref="BE19:BP19"/>
@@ -11671,20 +12102,20 @@
     <mergeCell ref="AU21:BD21"/>
     <mergeCell ref="BE21:BP21"/>
     <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:X21"/>
     <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AH21:AJ21"/>
     <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AB22:AG22"/>
     <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
     <mergeCell ref="AK22:AT22"/>
     <mergeCell ref="AU23:BD23"/>
     <mergeCell ref="BE23:BP23"/>
@@ -11722,15 +12153,33 @@
     <mergeCell ref="AB26:AG26"/>
     <mergeCell ref="AH26:AJ26"/>
     <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU27:BD27"/>
+    <mergeCell ref="BE27:BP27"/>
+    <mergeCell ref="BQ27:CI27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="AK27:AT27"/>
+    <mergeCell ref="AU28:BD28"/>
+    <mergeCell ref="BE28:BP28"/>
+    <mergeCell ref="BQ28:CI28"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="AK28:AT28"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験結果.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果.xlsx
@@ -1056,7 +1056,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1122,6 +1122,129 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,110 +1263,62 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1254,6 +1329,87 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1264,19 +1420,103 @@
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -1328,240 +1568,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1850,7 +1856,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1928,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2316,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2320,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BP15" sqref="BP15"/>
     </sheetView>
   </sheetViews>
@@ -2334,102 +2340,102 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="39"/>
-      <c r="BK1" s="39"/>
-      <c r="BL1" s="40" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="41"/>
-      <c r="BQ1" s="41"/>
-      <c r="BR1" s="41"/>
-      <c r="BS1" s="41"/>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BW1" s="41"/>
-      <c r="BX1" s="42" t="s">
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="62"/>
+      <c r="BQ1" s="62"/>
+      <c r="BR1" s="62"/>
+      <c r="BS1" s="62"/>
+      <c r="BT1" s="62"/>
+      <c r="BU1" s="62"/>
+      <c r="BV1" s="62"/>
+      <c r="BW1" s="62"/>
+      <c r="BX1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42"/>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="29"/>
-      <c r="CC1" s="29"/>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
+      <c r="BY1" s="63"/>
+      <c r="BZ1" s="63"/>
+      <c r="CA1" s="63"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
+      <c r="CI1" s="50"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -3370,102 +3376,102 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="33" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="34"/>
-      <c r="BQ2" s="34"/>
-      <c r="BR2" s="34"/>
-      <c r="BS2" s="34"/>
-      <c r="BT2" s="34"/>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="35" t="s">
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="54"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="55"/>
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="55"/>
+      <c r="BV2" s="55"/>
+      <c r="BW2" s="55"/>
+      <c r="BX2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
+      <c r="BY2" s="56"/>
+      <c r="BZ2" s="56"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="57"/>
+      <c r="CC2" s="57"/>
+      <c r="CD2" s="57"/>
+      <c r="CE2" s="57"/>
+      <c r="CF2" s="57"/>
+      <c r="CG2" s="57"/>
+      <c r="CH2" s="57"/>
+      <c r="CI2" s="57"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -4493,196 +4499,196 @@
       <c r="CI3" s="10"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="25" t="s">
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65"/>
+      <c r="AS4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="25"/>
-      <c r="BH4" s="25"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="25"/>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="25"/>
-      <c r="BN4" s="25"/>
-      <c r="BO4" s="25"/>
-      <c r="BP4" s="25"/>
-      <c r="BQ4" s="25"/>
-      <c r="BR4" s="25"/>
-      <c r="BS4" s="25"/>
-      <c r="BT4" s="25"/>
-      <c r="BU4" s="25"/>
-      <c r="BV4" s="25"/>
-      <c r="BW4" s="25"/>
-      <c r="BX4" s="25"/>
-      <c r="BY4" s="25"/>
-      <c r="BZ4" s="25"/>
-      <c r="CA4" s="25"/>
-      <c r="CB4" s="25"/>
-      <c r="CC4" s="25"/>
-      <c r="CD4" s="25"/>
-      <c r="CE4" s="25"/>
-      <c r="CF4" s="25"/>
-      <c r="CG4" s="25"/>
-      <c r="CH4" s="25"/>
-      <c r="CI4" s="25"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="66"/>
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="66"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="66"/>
+      <c r="BE4" s="66"/>
+      <c r="BF4" s="66"/>
+      <c r="BG4" s="66"/>
+      <c r="BH4" s="66"/>
+      <c r="BI4" s="66"/>
+      <c r="BJ4" s="66"/>
+      <c r="BK4" s="66"/>
+      <c r="BL4" s="66"/>
+      <c r="BM4" s="66"/>
+      <c r="BN4" s="66"/>
+      <c r="BO4" s="66"/>
+      <c r="BP4" s="66"/>
+      <c r="BQ4" s="66"/>
+      <c r="BR4" s="66"/>
+      <c r="BS4" s="66"/>
+      <c r="BT4" s="66"/>
+      <c r="BU4" s="66"/>
+      <c r="BV4" s="66"/>
+      <c r="BW4" s="66"/>
+      <c r="BX4" s="66"/>
+      <c r="BY4" s="66"/>
+      <c r="BZ4" s="66"/>
+      <c r="CA4" s="66"/>
+      <c r="CB4" s="66"/>
+      <c r="CC4" s="66"/>
+      <c r="CD4" s="66"/>
+      <c r="CE4" s="66"/>
+      <c r="CF4" s="66"/>
+      <c r="CG4" s="66"/>
+      <c r="CH4" s="66"/>
+      <c r="CI4" s="66"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1">
-      <c r="B5" s="26">
+      <c r="B5" s="67">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="28" t="s">
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="68"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
-      <c r="BD5" s="28"/>
-      <c r="BE5" s="28"/>
-      <c r="BF5" s="28"/>
-      <c r="BG5" s="28"/>
-      <c r="BH5" s="28"/>
-      <c r="BI5" s="28"/>
-      <c r="BJ5" s="28"/>
-      <c r="BK5" s="28"/>
-      <c r="BL5" s="28"/>
-      <c r="BM5" s="28"/>
-      <c r="BN5" s="28"/>
-      <c r="BO5" s="28"/>
-      <c r="BP5" s="28"/>
-      <c r="BQ5" s="28"/>
-      <c r="BR5" s="28"/>
-      <c r="BS5" s="28"/>
-      <c r="BT5" s="28"/>
-      <c r="BU5" s="28"/>
-      <c r="BV5" s="28"/>
-      <c r="BW5" s="28"/>
-      <c r="BX5" s="28"/>
-      <c r="BY5" s="28"/>
-      <c r="BZ5" s="28"/>
-      <c r="CA5" s="28"/>
-      <c r="CB5" s="28"/>
-      <c r="CC5" s="28"/>
-      <c r="CD5" s="28"/>
-      <c r="CE5" s="28"/>
-      <c r="CF5" s="28"/>
-      <c r="CG5" s="28"/>
-      <c r="CH5" s="28"/>
-      <c r="CI5" s="28"/>
+      <c r="AT5" s="69"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="69"/>
+      <c r="BC5" s="69"/>
+      <c r="BD5" s="69"/>
+      <c r="BE5" s="69"/>
+      <c r="BF5" s="69"/>
+      <c r="BG5" s="69"/>
+      <c r="BH5" s="69"/>
+      <c r="BI5" s="69"/>
+      <c r="BJ5" s="69"/>
+      <c r="BK5" s="69"/>
+      <c r="BL5" s="69"/>
+      <c r="BM5" s="69"/>
+      <c r="BN5" s="69"/>
+      <c r="BO5" s="69"/>
+      <c r="BP5" s="69"/>
+      <c r="BQ5" s="69"/>
+      <c r="BR5" s="69"/>
+      <c r="BS5" s="69"/>
+      <c r="BT5" s="69"/>
+      <c r="BU5" s="69"/>
+      <c r="BV5" s="69"/>
+      <c r="BW5" s="69"/>
+      <c r="BX5" s="69"/>
+      <c r="BY5" s="69"/>
+      <c r="BZ5" s="69"/>
+      <c r="CA5" s="69"/>
+      <c r="CB5" s="69"/>
+      <c r="CC5" s="69"/>
+      <c r="CD5" s="69"/>
+      <c r="CE5" s="69"/>
+      <c r="CF5" s="69"/>
+      <c r="CG5" s="69"/>
+      <c r="CH5" s="69"/>
+      <c r="CI5" s="69"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
       <c r="B6" s="14"/>
@@ -5012,29 +5018,29 @@
       <c r="BJ9" s="16"/>
       <c r="BK9" s="16"/>
       <c r="BL9" s="16"/>
-      <c r="BM9" s="43" t="s">
+      <c r="BM9" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="BN9" s="44"/>
-      <c r="BO9" s="44"/>
-      <c r="BP9" s="44"/>
-      <c r="BQ9" s="44"/>
-      <c r="BR9" s="44"/>
-      <c r="BS9" s="44"/>
-      <c r="BT9" s="44"/>
-      <c r="BU9" s="44"/>
-      <c r="BV9" s="44"/>
-      <c r="BW9" s="44"/>
-      <c r="BX9" s="44"/>
-      <c r="BY9" s="44"/>
-      <c r="BZ9" s="44"/>
-      <c r="CA9" s="44"/>
-      <c r="CB9" s="44"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="44"/>
-      <c r="CE9" s="44"/>
-      <c r="CF9" s="44"/>
-      <c r="CG9" s="44"/>
+      <c r="BN9" s="30"/>
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30"/>
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30"/>
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30"/>
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
       <c r="CH9" s="16"/>
       <c r="CI9" s="17"/>
     </row>
@@ -5131,86 +5137,86 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52"/>
-      <c r="AO11" s="52"/>
-      <c r="AP11" s="52"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="52"/>
-      <c r="BP11" s="52"/>
-      <c r="BQ11" s="52"/>
-      <c r="BR11" s="52"/>
-      <c r="BS11" s="52"/>
-      <c r="BT11" s="52"/>
-      <c r="BU11" s="52"/>
-      <c r="BV11" s="52"/>
-      <c r="BW11" s="52"/>
-      <c r="BX11" s="52"/>
-      <c r="BY11" s="52"/>
-      <c r="BZ11" s="52"/>
-      <c r="CA11" s="52"/>
-      <c r="CB11" s="52"/>
-      <c r="CC11" s="52"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="52"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="38"/>
+      <c r="BM11" s="38"/>
+      <c r="BN11" s="38"/>
+      <c r="BO11" s="38"/>
+      <c r="BP11" s="38"/>
+      <c r="BQ11" s="38"/>
+      <c r="BR11" s="38"/>
+      <c r="BS11" s="38"/>
+      <c r="BT11" s="38"/>
+      <c r="BU11" s="38"/>
+      <c r="BV11" s="38"/>
+      <c r="BW11" s="38"/>
+      <c r="BX11" s="38"/>
+      <c r="BY11" s="38"/>
+      <c r="BZ11" s="38"/>
+      <c r="CA11" s="38"/>
+      <c r="CB11" s="38"/>
+      <c r="CC11" s="38"/>
+      <c r="CD11" s="38"/>
+      <c r="CE11" s="38"/>
       <c r="CF11" s="6"/>
       <c r="CG11" s="6"/>
       <c r="CH11" s="6"/>
@@ -5221,84 +5227,84 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="52"/>
-      <c r="AM12" s="52"/>
-      <c r="AN12" s="52"/>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="52"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="52"/>
-      <c r="BU12" s="52"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="52"/>
-      <c r="BX12" s="52"/>
-      <c r="BY12" s="52"/>
-      <c r="BZ12" s="52"/>
-      <c r="CA12" s="52"/>
-      <c r="CB12" s="52"/>
-      <c r="CC12" s="52"/>
-      <c r="CD12" s="52"/>
-      <c r="CE12" s="52"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="38"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="38"/>
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="38"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="38"/>
+      <c r="BL12" s="38"/>
+      <c r="BM12" s="38"/>
+      <c r="BN12" s="38"/>
+      <c r="BO12" s="38"/>
+      <c r="BP12" s="38"/>
+      <c r="BQ12" s="38"/>
+      <c r="BR12" s="38"/>
+      <c r="BS12" s="38"/>
+      <c r="BT12" s="38"/>
+      <c r="BU12" s="38"/>
+      <c r="BV12" s="38"/>
+      <c r="BW12" s="38"/>
+      <c r="BX12" s="38"/>
+      <c r="BY12" s="38"/>
+      <c r="BZ12" s="38"/>
+      <c r="CA12" s="38"/>
+      <c r="CB12" s="38"/>
+      <c r="CC12" s="38"/>
+      <c r="CD12" s="38"/>
+      <c r="CE12" s="38"/>
       <c r="CF12" s="6"/>
       <c r="CG12" s="6"/>
       <c r="CH12" s="6"/>
@@ -5415,50 +5421,50 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="53" t="s">
+      <c r="X14" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="54"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="54"/>
-      <c r="AR14" s="54"/>
-      <c r="AS14" s="54"/>
-      <c r="AT14" s="54"/>
-      <c r="AU14" s="54"/>
-      <c r="AV14" s="54"/>
-      <c r="AW14" s="54"/>
-      <c r="AX14" s="54"/>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="54"/>
-      <c r="BA14" s="54"/>
-      <c r="BB14" s="54"/>
-      <c r="BC14" s="54"/>
-      <c r="BD14" s="54"/>
-      <c r="BE14" s="54"/>
-      <c r="BF14" s="54"/>
-      <c r="BG14" s="54"/>
-      <c r="BH14" s="54"/>
-      <c r="BI14" s="54"/>
-      <c r="BJ14" s="54"/>
-      <c r="BK14" s="54"/>
-      <c r="BL14" s="54"/>
-      <c r="BM14" s="55"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="40"/>
+      <c r="BB14" s="40"/>
+      <c r="BC14" s="40"/>
+      <c r="BD14" s="40"/>
+      <c r="BE14" s="40"/>
+      <c r="BF14" s="40"/>
+      <c r="BG14" s="40"/>
+      <c r="BH14" s="40"/>
+      <c r="BI14" s="40"/>
+      <c r="BJ14" s="40"/>
+      <c r="BK14" s="40"/>
+      <c r="BL14" s="40"/>
+      <c r="BM14" s="41"/>
       <c r="BN14" s="6"/>
       <c r="BO14" s="6"/>
       <c r="BP14" s="6"/>
@@ -5505,48 +5511,48 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="57"/>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="57"/>
-      <c r="AO15" s="57"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="57"/>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="57"/>
-      <c r="AY15" s="57"/>
-      <c r="AZ15" s="57"/>
-      <c r="BA15" s="57"/>
-      <c r="BB15" s="57"/>
-      <c r="BC15" s="57"/>
-      <c r="BD15" s="57"/>
-      <c r="BE15" s="57"/>
-      <c r="BF15" s="57"/>
-      <c r="BG15" s="57"/>
-      <c r="BH15" s="57"/>
-      <c r="BI15" s="57"/>
-      <c r="BJ15" s="57"/>
-      <c r="BK15" s="57"/>
-      <c r="BL15" s="57"/>
-      <c r="BM15" s="58"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="43"/>
+      <c r="AW15" s="43"/>
+      <c r="AX15" s="43"/>
+      <c r="AY15" s="43"/>
+      <c r="AZ15" s="43"/>
+      <c r="BA15" s="43"/>
+      <c r="BB15" s="43"/>
+      <c r="BC15" s="43"/>
+      <c r="BD15" s="43"/>
+      <c r="BE15" s="43"/>
+      <c r="BF15" s="43"/>
+      <c r="BG15" s="43"/>
+      <c r="BH15" s="43"/>
+      <c r="BI15" s="43"/>
+      <c r="BJ15" s="43"/>
+      <c r="BK15" s="43"/>
+      <c r="BL15" s="43"/>
+      <c r="BM15" s="44"/>
       <c r="BN15" s="6"/>
       <c r="BO15" s="6"/>
       <c r="BP15" s="6"/>
@@ -5593,48 +5599,48 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="57"/>
-      <c r="AU16" s="57"/>
-      <c r="AV16" s="57"/>
-      <c r="AW16" s="57"/>
-      <c r="AX16" s="57"/>
-      <c r="AY16" s="57"/>
-      <c r="AZ16" s="57"/>
-      <c r="BA16" s="57"/>
-      <c r="BB16" s="57"/>
-      <c r="BC16" s="57"/>
-      <c r="BD16" s="57"/>
-      <c r="BE16" s="57"/>
-      <c r="BF16" s="57"/>
-      <c r="BG16" s="57"/>
-      <c r="BH16" s="57"/>
-      <c r="BI16" s="57"/>
-      <c r="BJ16" s="57"/>
-      <c r="BK16" s="57"/>
-      <c r="BL16" s="57"/>
-      <c r="BM16" s="58"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="43"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="43"/>
+      <c r="AW16" s="43"/>
+      <c r="AX16" s="43"/>
+      <c r="AY16" s="43"/>
+      <c r="AZ16" s="43"/>
+      <c r="BA16" s="43"/>
+      <c r="BB16" s="43"/>
+      <c r="BC16" s="43"/>
+      <c r="BD16" s="43"/>
+      <c r="BE16" s="43"/>
+      <c r="BF16" s="43"/>
+      <c r="BG16" s="43"/>
+      <c r="BH16" s="43"/>
+      <c r="BI16" s="43"/>
+      <c r="BJ16" s="43"/>
+      <c r="BK16" s="43"/>
+      <c r="BL16" s="43"/>
+      <c r="BM16" s="44"/>
       <c r="BN16" s="6"/>
       <c r="BO16" s="6"/>
       <c r="BP16" s="6"/>
@@ -5681,48 +5687,48 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="60"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="60"/>
-      <c r="AM17" s="60"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="60"/>
-      <c r="AP17" s="60"/>
-      <c r="AQ17" s="60"/>
-      <c r="AR17" s="60"/>
-      <c r="AS17" s="60"/>
-      <c r="AT17" s="60"/>
-      <c r="AU17" s="60"/>
-      <c r="AV17" s="60"/>
-      <c r="AW17" s="60"/>
-      <c r="AX17" s="60"/>
-      <c r="AY17" s="60"/>
-      <c r="AZ17" s="60"/>
-      <c r="BA17" s="60"/>
-      <c r="BB17" s="60"/>
-      <c r="BC17" s="60"/>
-      <c r="BD17" s="60"/>
-      <c r="BE17" s="60"/>
-      <c r="BF17" s="60"/>
-      <c r="BG17" s="60"/>
-      <c r="BH17" s="60"/>
-      <c r="BI17" s="60"/>
-      <c r="BJ17" s="60"/>
-      <c r="BK17" s="60"/>
-      <c r="BL17" s="60"/>
-      <c r="BM17" s="61"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="46"/>
+      <c r="AS17" s="46"/>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="46"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="46"/>
+      <c r="AY17" s="46"/>
+      <c r="AZ17" s="46"/>
+      <c r="BA17" s="46"/>
+      <c r="BB17" s="46"/>
+      <c r="BC17" s="46"/>
+      <c r="BD17" s="46"/>
+      <c r="BE17" s="46"/>
+      <c r="BF17" s="46"/>
+      <c r="BG17" s="46"/>
+      <c r="BH17" s="46"/>
+      <c r="BI17" s="46"/>
+      <c r="BJ17" s="46"/>
+      <c r="BK17" s="46"/>
+      <c r="BL17" s="46"/>
+      <c r="BM17" s="47"/>
       <c r="BN17" s="6"/>
       <c r="BO17" s="6"/>
       <c r="BP17" s="6"/>
@@ -5839,86 +5845,86 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="62"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="62"/>
-      <c r="BI19" s="62"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="62"/>
-      <c r="BL19" s="62"/>
-      <c r="BM19" s="62"/>
-      <c r="BN19" s="62"/>
-      <c r="BO19" s="62"/>
-      <c r="BP19" s="62"/>
-      <c r="BQ19" s="62"/>
-      <c r="BR19" s="62"/>
-      <c r="BS19" s="62"/>
-      <c r="BT19" s="62"/>
-      <c r="BU19" s="62"/>
-      <c r="BV19" s="62"/>
-      <c r="BW19" s="62"/>
-      <c r="BX19" s="62"/>
-      <c r="BY19" s="62"/>
-      <c r="BZ19" s="62"/>
-      <c r="CA19" s="62"/>
-      <c r="CB19" s="62"/>
-      <c r="CC19" s="62"/>
-      <c r="CD19" s="62"/>
-      <c r="CE19" s="62"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="48"/>
+      <c r="AZ19" s="48"/>
+      <c r="BA19" s="48"/>
+      <c r="BB19" s="48"/>
+      <c r="BC19" s="48"/>
+      <c r="BD19" s="48"/>
+      <c r="BE19" s="48"/>
+      <c r="BF19" s="48"/>
+      <c r="BG19" s="48"/>
+      <c r="BH19" s="48"/>
+      <c r="BI19" s="48"/>
+      <c r="BJ19" s="48"/>
+      <c r="BK19" s="48"/>
+      <c r="BL19" s="48"/>
+      <c r="BM19" s="48"/>
+      <c r="BN19" s="48"/>
+      <c r="BO19" s="48"/>
+      <c r="BP19" s="48"/>
+      <c r="BQ19" s="48"/>
+      <c r="BR19" s="48"/>
+      <c r="BS19" s="48"/>
+      <c r="BT19" s="48"/>
+      <c r="BU19" s="48"/>
+      <c r="BV19" s="48"/>
+      <c r="BW19" s="48"/>
+      <c r="BX19" s="48"/>
+      <c r="BY19" s="48"/>
+      <c r="BZ19" s="48"/>
+      <c r="CA19" s="48"/>
+      <c r="CB19" s="48"/>
+      <c r="CC19" s="48"/>
+      <c r="CD19" s="48"/>
+      <c r="CE19" s="48"/>
       <c r="CF19" s="6"/>
       <c r="CG19" s="6"/>
       <c r="CH19" s="6"/>
@@ -5929,84 +5935,84 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="62"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="62"/>
-      <c r="BA20" s="62"/>
-      <c r="BB20" s="62"/>
-      <c r="BC20" s="62"/>
-      <c r="BD20" s="62"/>
-      <c r="BE20" s="62"/>
-      <c r="BF20" s="62"/>
-      <c r="BG20" s="62"/>
-      <c r="BH20" s="62"/>
-      <c r="BI20" s="62"/>
-      <c r="BJ20" s="62"/>
-      <c r="BK20" s="62"/>
-      <c r="BL20" s="62"/>
-      <c r="BM20" s="62"/>
-      <c r="BN20" s="62"/>
-      <c r="BO20" s="62"/>
-      <c r="BP20" s="62"/>
-      <c r="BQ20" s="62"/>
-      <c r="BR20" s="62"/>
-      <c r="BS20" s="62"/>
-      <c r="BT20" s="62"/>
-      <c r="BU20" s="62"/>
-      <c r="BV20" s="62"/>
-      <c r="BW20" s="62"/>
-      <c r="BX20" s="62"/>
-      <c r="BY20" s="62"/>
-      <c r="BZ20" s="62"/>
-      <c r="CA20" s="62"/>
-      <c r="CB20" s="62"/>
-      <c r="CC20" s="62"/>
-      <c r="CD20" s="62"/>
-      <c r="CE20" s="62"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="48"/>
+      <c r="AZ20" s="48"/>
+      <c r="BA20" s="48"/>
+      <c r="BB20" s="48"/>
+      <c r="BC20" s="48"/>
+      <c r="BD20" s="48"/>
+      <c r="BE20" s="48"/>
+      <c r="BF20" s="48"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="48"/>
+      <c r="BI20" s="48"/>
+      <c r="BJ20" s="48"/>
+      <c r="BK20" s="48"/>
+      <c r="BL20" s="48"/>
+      <c r="BM20" s="48"/>
+      <c r="BN20" s="48"/>
+      <c r="BO20" s="48"/>
+      <c r="BP20" s="48"/>
+      <c r="BQ20" s="48"/>
+      <c r="BR20" s="48"/>
+      <c r="BS20" s="48"/>
+      <c r="BT20" s="48"/>
+      <c r="BU20" s="48"/>
+      <c r="BV20" s="48"/>
+      <c r="BW20" s="48"/>
+      <c r="BX20" s="48"/>
+      <c r="BY20" s="48"/>
+      <c r="BZ20" s="48"/>
+      <c r="CA20" s="48"/>
+      <c r="CB20" s="48"/>
+      <c r="CC20" s="48"/>
+      <c r="CD20" s="48"/>
+      <c r="CE20" s="48"/>
       <c r="CF20" s="6"/>
       <c r="CG20" s="6"/>
       <c r="CH20" s="6"/>
@@ -6017,84 +6023,84 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="62"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="62"/>
-      <c r="AY21" s="62"/>
-      <c r="AZ21" s="62"/>
-      <c r="BA21" s="62"/>
-      <c r="BB21" s="62"/>
-      <c r="BC21" s="62"/>
-      <c r="BD21" s="62"/>
-      <c r="BE21" s="62"/>
-      <c r="BF21" s="62"/>
-      <c r="BG21" s="62"/>
-      <c r="BH21" s="62"/>
-      <c r="BI21" s="62"/>
-      <c r="BJ21" s="62"/>
-      <c r="BK21" s="62"/>
-      <c r="BL21" s="62"/>
-      <c r="BM21" s="62"/>
-      <c r="BN21" s="62"/>
-      <c r="BO21" s="62"/>
-      <c r="BP21" s="62"/>
-      <c r="BQ21" s="62"/>
-      <c r="BR21" s="62"/>
-      <c r="BS21" s="62"/>
-      <c r="BT21" s="62"/>
-      <c r="BU21" s="62"/>
-      <c r="BV21" s="62"/>
-      <c r="BW21" s="62"/>
-      <c r="BX21" s="62"/>
-      <c r="BY21" s="62"/>
-      <c r="BZ21" s="62"/>
-      <c r="CA21" s="62"/>
-      <c r="CB21" s="62"/>
-      <c r="CC21" s="62"/>
-      <c r="CD21" s="62"/>
-      <c r="CE21" s="62"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+      <c r="AZ21" s="48"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="48"/>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
+      <c r="BE21" s="48"/>
+      <c r="BF21" s="48"/>
+      <c r="BG21" s="48"/>
+      <c r="BH21" s="48"/>
+      <c r="BI21" s="48"/>
+      <c r="BJ21" s="48"/>
+      <c r="BK21" s="48"/>
+      <c r="BL21" s="48"/>
+      <c r="BM21" s="48"/>
+      <c r="BN21" s="48"/>
+      <c r="BO21" s="48"/>
+      <c r="BP21" s="48"/>
+      <c r="BQ21" s="48"/>
+      <c r="BR21" s="48"/>
+      <c r="BS21" s="48"/>
+      <c r="BT21" s="48"/>
+      <c r="BU21" s="48"/>
+      <c r="BV21" s="48"/>
+      <c r="BW21" s="48"/>
+      <c r="BX21" s="48"/>
+      <c r="BY21" s="48"/>
+      <c r="BZ21" s="48"/>
+      <c r="CA21" s="48"/>
+      <c r="CB21" s="48"/>
+      <c r="CC21" s="48"/>
+      <c r="CD21" s="48"/>
+      <c r="CE21" s="48"/>
       <c r="CF21" s="6"/>
       <c r="CG21" s="6"/>
       <c r="CH21" s="6"/>
@@ -6105,84 +6111,84 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="62"/>
-      <c r="AR22" s="62"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="62"/>
-      <c r="AU22" s="62"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="62"/>
-      <c r="AX22" s="62"/>
-      <c r="AY22" s="62"/>
-      <c r="AZ22" s="62"/>
-      <c r="BA22" s="62"/>
-      <c r="BB22" s="62"/>
-      <c r="BC22" s="62"/>
-      <c r="BD22" s="62"/>
-      <c r="BE22" s="62"/>
-      <c r="BF22" s="62"/>
-      <c r="BG22" s="62"/>
-      <c r="BH22" s="62"/>
-      <c r="BI22" s="62"/>
-      <c r="BJ22" s="62"/>
-      <c r="BK22" s="62"/>
-      <c r="BL22" s="62"/>
-      <c r="BM22" s="62"/>
-      <c r="BN22" s="62"/>
-      <c r="BO22" s="62"/>
-      <c r="BP22" s="62"/>
-      <c r="BQ22" s="62"/>
-      <c r="BR22" s="62"/>
-      <c r="BS22" s="62"/>
-      <c r="BT22" s="62"/>
-      <c r="BU22" s="62"/>
-      <c r="BV22" s="62"/>
-      <c r="BW22" s="62"/>
-      <c r="BX22" s="62"/>
-      <c r="BY22" s="62"/>
-      <c r="BZ22" s="62"/>
-      <c r="CA22" s="62"/>
-      <c r="CB22" s="62"/>
-      <c r="CC22" s="62"/>
-      <c r="CD22" s="62"/>
-      <c r="CE22" s="62"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="48"/>
+      <c r="AU22" s="48"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="48"/>
+      <c r="AZ22" s="48"/>
+      <c r="BA22" s="48"/>
+      <c r="BB22" s="48"/>
+      <c r="BC22" s="48"/>
+      <c r="BD22" s="48"/>
+      <c r="BE22" s="48"/>
+      <c r="BF22" s="48"/>
+      <c r="BG22" s="48"/>
+      <c r="BH22" s="48"/>
+      <c r="BI22" s="48"/>
+      <c r="BJ22" s="48"/>
+      <c r="BK22" s="48"/>
+      <c r="BL22" s="48"/>
+      <c r="BM22" s="48"/>
+      <c r="BN22" s="48"/>
+      <c r="BO22" s="48"/>
+      <c r="BP22" s="48"/>
+      <c r="BQ22" s="48"/>
+      <c r="BR22" s="48"/>
+      <c r="BS22" s="48"/>
+      <c r="BT22" s="48"/>
+      <c r="BU22" s="48"/>
+      <c r="BV22" s="48"/>
+      <c r="BW22" s="48"/>
+      <c r="BX22" s="48"/>
+      <c r="BY22" s="48"/>
+      <c r="BZ22" s="48"/>
+      <c r="CA22" s="48"/>
+      <c r="CB22" s="48"/>
+      <c r="CC22" s="48"/>
+      <c r="CD22" s="48"/>
+      <c r="CE22" s="48"/>
       <c r="CF22" s="6"/>
       <c r="CG22" s="6"/>
       <c r="CH22" s="6"/>
@@ -6369,86 +6375,86 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="63"/>
-      <c r="AO25" s="63"/>
-      <c r="AP25" s="63"/>
-      <c r="AQ25" s="63"/>
-      <c r="AR25" s="63"/>
-      <c r="AS25" s="63"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="63"/>
-      <c r="AX25" s="63"/>
-      <c r="AY25" s="63"/>
-      <c r="AZ25" s="63"/>
-      <c r="BA25" s="63"/>
-      <c r="BB25" s="63"/>
-      <c r="BC25" s="63"/>
-      <c r="BD25" s="63"/>
-      <c r="BE25" s="63"/>
-      <c r="BF25" s="63"/>
-      <c r="BG25" s="63"/>
-      <c r="BH25" s="63"/>
-      <c r="BI25" s="63"/>
-      <c r="BJ25" s="63"/>
-      <c r="BK25" s="63"/>
-      <c r="BL25" s="63"/>
-      <c r="BM25" s="63"/>
-      <c r="BN25" s="63"/>
-      <c r="BO25" s="63"/>
-      <c r="BP25" s="63"/>
-      <c r="BQ25" s="63"/>
-      <c r="BR25" s="63"/>
-      <c r="BS25" s="63"/>
-      <c r="BT25" s="63"/>
-      <c r="BU25" s="63"/>
-      <c r="BV25" s="63"/>
-      <c r="BW25" s="63"/>
-      <c r="BX25" s="63"/>
-      <c r="BY25" s="63"/>
-      <c r="BZ25" s="63"/>
-      <c r="CA25" s="63"/>
-      <c r="CB25" s="63"/>
-      <c r="CC25" s="63"/>
-      <c r="CD25" s="63"/>
-      <c r="CE25" s="63"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
+      <c r="BB25" s="49"/>
+      <c r="BC25" s="49"/>
+      <c r="BD25" s="49"/>
+      <c r="BE25" s="49"/>
+      <c r="BF25" s="49"/>
+      <c r="BG25" s="49"/>
+      <c r="BH25" s="49"/>
+      <c r="BI25" s="49"/>
+      <c r="BJ25" s="49"/>
+      <c r="BK25" s="49"/>
+      <c r="BL25" s="49"/>
+      <c r="BM25" s="49"/>
+      <c r="BN25" s="49"/>
+      <c r="BO25" s="49"/>
+      <c r="BP25" s="49"/>
+      <c r="BQ25" s="49"/>
+      <c r="BR25" s="49"/>
+      <c r="BS25" s="49"/>
+      <c r="BT25" s="49"/>
+      <c r="BU25" s="49"/>
+      <c r="BV25" s="49"/>
+      <c r="BW25" s="49"/>
+      <c r="BX25" s="49"/>
+      <c r="BY25" s="49"/>
+      <c r="BZ25" s="49"/>
+      <c r="CA25" s="49"/>
+      <c r="CB25" s="49"/>
+      <c r="CC25" s="49"/>
+      <c r="CD25" s="49"/>
+      <c r="CE25" s="49"/>
       <c r="CF25" s="6"/>
       <c r="CG25" s="6"/>
       <c r="CH25" s="6"/>
@@ -6459,84 +6465,84 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="63"/>
-      <c r="AD26" s="63"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="63"/>
-      <c r="AG26" s="63"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="63"/>
-      <c r="AL26" s="63"/>
-      <c r="AM26" s="63"/>
-      <c r="AN26" s="63"/>
-      <c r="AO26" s="63"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="63"/>
-      <c r="AR26" s="63"/>
-      <c r="AS26" s="63"/>
-      <c r="AT26" s="63"/>
-      <c r="AU26" s="63"/>
-      <c r="AV26" s="63"/>
-      <c r="AW26" s="63"/>
-      <c r="AX26" s="63"/>
-      <c r="AY26" s="63"/>
-      <c r="AZ26" s="63"/>
-      <c r="BA26" s="63"/>
-      <c r="BB26" s="63"/>
-      <c r="BC26" s="63"/>
-      <c r="BD26" s="63"/>
-      <c r="BE26" s="63"/>
-      <c r="BF26" s="63"/>
-      <c r="BG26" s="63"/>
-      <c r="BH26" s="63"/>
-      <c r="BI26" s="63"/>
-      <c r="BJ26" s="63"/>
-      <c r="BK26" s="63"/>
-      <c r="BL26" s="63"/>
-      <c r="BM26" s="63"/>
-      <c r="BN26" s="63"/>
-      <c r="BO26" s="63"/>
-      <c r="BP26" s="63"/>
-      <c r="BQ26" s="63"/>
-      <c r="BR26" s="63"/>
-      <c r="BS26" s="63"/>
-      <c r="BT26" s="63"/>
-      <c r="BU26" s="63"/>
-      <c r="BV26" s="63"/>
-      <c r="BW26" s="63"/>
-      <c r="BX26" s="63"/>
-      <c r="BY26" s="63"/>
-      <c r="BZ26" s="63"/>
-      <c r="CA26" s="63"/>
-      <c r="CB26" s="63"/>
-      <c r="CC26" s="63"/>
-      <c r="CD26" s="63"/>
-      <c r="CE26" s="63"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="49"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="49"/>
+      <c r="BN26" s="49"/>
+      <c r="BO26" s="49"/>
+      <c r="BP26" s="49"/>
+      <c r="BQ26" s="49"/>
+      <c r="BR26" s="49"/>
+      <c r="BS26" s="49"/>
+      <c r="BT26" s="49"/>
+      <c r="BU26" s="49"/>
+      <c r="BV26" s="49"/>
+      <c r="BW26" s="49"/>
+      <c r="BX26" s="49"/>
+      <c r="BY26" s="49"/>
+      <c r="BZ26" s="49"/>
+      <c r="CA26" s="49"/>
+      <c r="CB26" s="49"/>
+      <c r="CC26" s="49"/>
+      <c r="CD26" s="49"/>
+      <c r="CE26" s="49"/>
       <c r="CF26" s="6"/>
       <c r="CG26" s="6"/>
       <c r="CH26" s="6"/>
@@ -6547,84 +6553,84 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="63"/>
-      <c r="AO27" s="63"/>
-      <c r="AP27" s="63"/>
-      <c r="AQ27" s="63"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="63"/>
-      <c r="AW27" s="63"/>
-      <c r="AX27" s="63"/>
-      <c r="AY27" s="63"/>
-      <c r="AZ27" s="63"/>
-      <c r="BA27" s="63"/>
-      <c r="BB27" s="63"/>
-      <c r="BC27" s="63"/>
-      <c r="BD27" s="63"/>
-      <c r="BE27" s="63"/>
-      <c r="BF27" s="63"/>
-      <c r="BG27" s="63"/>
-      <c r="BH27" s="63"/>
-      <c r="BI27" s="63"/>
-      <c r="BJ27" s="63"/>
-      <c r="BK27" s="63"/>
-      <c r="BL27" s="63"/>
-      <c r="BM27" s="63"/>
-      <c r="BN27" s="63"/>
-      <c r="BO27" s="63"/>
-      <c r="BP27" s="63"/>
-      <c r="BQ27" s="63"/>
-      <c r="BR27" s="63"/>
-      <c r="BS27" s="63"/>
-      <c r="BT27" s="63"/>
-      <c r="BU27" s="63"/>
-      <c r="BV27" s="63"/>
-      <c r="BW27" s="63"/>
-      <c r="BX27" s="63"/>
-      <c r="BY27" s="63"/>
-      <c r="BZ27" s="63"/>
-      <c r="CA27" s="63"/>
-      <c r="CB27" s="63"/>
-      <c r="CC27" s="63"/>
-      <c r="CD27" s="63"/>
-      <c r="CE27" s="63"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="49"/>
+      <c r="AV27" s="49"/>
+      <c r="AW27" s="49"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="49"/>
+      <c r="BA27" s="49"/>
+      <c r="BB27" s="49"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="49"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="49"/>
+      <c r="BI27" s="49"/>
+      <c r="BJ27" s="49"/>
+      <c r="BK27" s="49"/>
+      <c r="BL27" s="49"/>
+      <c r="BM27" s="49"/>
+      <c r="BN27" s="49"/>
+      <c r="BO27" s="49"/>
+      <c r="BP27" s="49"/>
+      <c r="BQ27" s="49"/>
+      <c r="BR27" s="49"/>
+      <c r="BS27" s="49"/>
+      <c r="BT27" s="49"/>
+      <c r="BU27" s="49"/>
+      <c r="BV27" s="49"/>
+      <c r="BW27" s="49"/>
+      <c r="BX27" s="49"/>
+      <c r="BY27" s="49"/>
+      <c r="BZ27" s="49"/>
+      <c r="CA27" s="49"/>
+      <c r="CB27" s="49"/>
+      <c r="CC27" s="49"/>
+      <c r="CD27" s="49"/>
+      <c r="CE27" s="49"/>
       <c r="CF27" s="6"/>
       <c r="CG27" s="6"/>
       <c r="CH27" s="6"/>
@@ -6635,84 +6641,84 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
-      <c r="AN28" s="63"/>
-      <c r="AO28" s="63"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="63"/>
-      <c r="AS28" s="63"/>
-      <c r="AT28" s="63"/>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="63"/>
-      <c r="AW28" s="63"/>
-      <c r="AX28" s="63"/>
-      <c r="AY28" s="63"/>
-      <c r="AZ28" s="63"/>
-      <c r="BA28" s="63"/>
-      <c r="BB28" s="63"/>
-      <c r="BC28" s="63"/>
-      <c r="BD28" s="63"/>
-      <c r="BE28" s="63"/>
-      <c r="BF28" s="63"/>
-      <c r="BG28" s="63"/>
-      <c r="BH28" s="63"/>
-      <c r="BI28" s="63"/>
-      <c r="BJ28" s="63"/>
-      <c r="BK28" s="63"/>
-      <c r="BL28" s="63"/>
-      <c r="BM28" s="63"/>
-      <c r="BN28" s="63"/>
-      <c r="BO28" s="63"/>
-      <c r="BP28" s="63"/>
-      <c r="BQ28" s="63"/>
-      <c r="BR28" s="63"/>
-      <c r="BS28" s="63"/>
-      <c r="BT28" s="63"/>
-      <c r="BU28" s="63"/>
-      <c r="BV28" s="63"/>
-      <c r="BW28" s="63"/>
-      <c r="BX28" s="63"/>
-      <c r="BY28" s="63"/>
-      <c r="BZ28" s="63"/>
-      <c r="CA28" s="63"/>
-      <c r="CB28" s="63"/>
-      <c r="CC28" s="63"/>
-      <c r="CD28" s="63"/>
-      <c r="CE28" s="63"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="49"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="49"/>
+      <c r="AZ28" s="49"/>
+      <c r="BA28" s="49"/>
+      <c r="BB28" s="49"/>
+      <c r="BC28" s="49"/>
+      <c r="BD28" s="49"/>
+      <c r="BE28" s="49"/>
+      <c r="BF28" s="49"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="49"/>
+      <c r="BJ28" s="49"/>
+      <c r="BK28" s="49"/>
+      <c r="BL28" s="49"/>
+      <c r="BM28" s="49"/>
+      <c r="BN28" s="49"/>
+      <c r="BO28" s="49"/>
+      <c r="BP28" s="49"/>
+      <c r="BQ28" s="49"/>
+      <c r="BR28" s="49"/>
+      <c r="BS28" s="49"/>
+      <c r="BT28" s="49"/>
+      <c r="BU28" s="49"/>
+      <c r="BV28" s="49"/>
+      <c r="BW28" s="49"/>
+      <c r="BX28" s="49"/>
+      <c r="BY28" s="49"/>
+      <c r="BZ28" s="49"/>
+      <c r="CA28" s="49"/>
+      <c r="CB28" s="49"/>
+      <c r="CC28" s="49"/>
+      <c r="CD28" s="49"/>
+      <c r="CE28" s="49"/>
       <c r="CF28" s="6"/>
       <c r="CG28" s="6"/>
       <c r="CH28" s="6"/>
@@ -6899,86 +6905,86 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="63"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="63"/>
-      <c r="AM31" s="63"/>
-      <c r="AN31" s="63"/>
-      <c r="AO31" s="63"/>
-      <c r="AP31" s="63"/>
-      <c r="AQ31" s="63"/>
-      <c r="AR31" s="63"/>
-      <c r="AS31" s="63"/>
-      <c r="AT31" s="63"/>
-      <c r="AU31" s="63"/>
-      <c r="AV31" s="63"/>
-      <c r="AW31" s="63"/>
-      <c r="AX31" s="63"/>
-      <c r="AY31" s="63"/>
-      <c r="AZ31" s="63"/>
-      <c r="BA31" s="63"/>
-      <c r="BB31" s="63"/>
-      <c r="BC31" s="63"/>
-      <c r="BD31" s="63"/>
-      <c r="BE31" s="63"/>
-      <c r="BF31" s="63"/>
-      <c r="BG31" s="63"/>
-      <c r="BH31" s="63"/>
-      <c r="BI31" s="63"/>
-      <c r="BJ31" s="63"/>
-      <c r="BK31" s="63"/>
-      <c r="BL31" s="63"/>
-      <c r="BM31" s="63"/>
-      <c r="BN31" s="63"/>
-      <c r="BO31" s="63"/>
-      <c r="BP31" s="63"/>
-      <c r="BQ31" s="63"/>
-      <c r="BR31" s="63"/>
-      <c r="BS31" s="63"/>
-      <c r="BT31" s="63"/>
-      <c r="BU31" s="63"/>
-      <c r="BV31" s="63"/>
-      <c r="BW31" s="63"/>
-      <c r="BX31" s="63"/>
-      <c r="BY31" s="63"/>
-      <c r="BZ31" s="63"/>
-      <c r="CA31" s="63"/>
-      <c r="CB31" s="63"/>
-      <c r="CC31" s="63"/>
-      <c r="CD31" s="63"/>
-      <c r="CE31" s="63"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="49"/>
+      <c r="BA31" s="49"/>
+      <c r="BB31" s="49"/>
+      <c r="BC31" s="49"/>
+      <c r="BD31" s="49"/>
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="49"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="49"/>
+      <c r="BJ31" s="49"/>
+      <c r="BK31" s="49"/>
+      <c r="BL31" s="49"/>
+      <c r="BM31" s="49"/>
+      <c r="BN31" s="49"/>
+      <c r="BO31" s="49"/>
+      <c r="BP31" s="49"/>
+      <c r="BQ31" s="49"/>
+      <c r="BR31" s="49"/>
+      <c r="BS31" s="49"/>
+      <c r="BT31" s="49"/>
+      <c r="BU31" s="49"/>
+      <c r="BV31" s="49"/>
+      <c r="BW31" s="49"/>
+      <c r="BX31" s="49"/>
+      <c r="BY31" s="49"/>
+      <c r="BZ31" s="49"/>
+      <c r="CA31" s="49"/>
+      <c r="CB31" s="49"/>
+      <c r="CC31" s="49"/>
+      <c r="CD31" s="49"/>
+      <c r="CE31" s="49"/>
       <c r="CF31" s="6"/>
       <c r="CG31" s="6"/>
       <c r="CH31" s="6"/>
@@ -6989,84 +6995,84 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="63"/>
-      <c r="AB32" s="63"/>
-      <c r="AC32" s="63"/>
-      <c r="AD32" s="63"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="63"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="63"/>
-      <c r="AJ32" s="63"/>
-      <c r="AK32" s="63"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="63"/>
-      <c r="AN32" s="63"/>
-      <c r="AO32" s="63"/>
-      <c r="AP32" s="63"/>
-      <c r="AQ32" s="63"/>
-      <c r="AR32" s="63"/>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="63"/>
-      <c r="AU32" s="63"/>
-      <c r="AV32" s="63"/>
-      <c r="AW32" s="63"/>
-      <c r="AX32" s="63"/>
-      <c r="AY32" s="63"/>
-      <c r="AZ32" s="63"/>
-      <c r="BA32" s="63"/>
-      <c r="BB32" s="63"/>
-      <c r="BC32" s="63"/>
-      <c r="BD32" s="63"/>
-      <c r="BE32" s="63"/>
-      <c r="BF32" s="63"/>
-      <c r="BG32" s="63"/>
-      <c r="BH32" s="63"/>
-      <c r="BI32" s="63"/>
-      <c r="BJ32" s="63"/>
-      <c r="BK32" s="63"/>
-      <c r="BL32" s="63"/>
-      <c r="BM32" s="63"/>
-      <c r="BN32" s="63"/>
-      <c r="BO32" s="63"/>
-      <c r="BP32" s="63"/>
-      <c r="BQ32" s="63"/>
-      <c r="BR32" s="63"/>
-      <c r="BS32" s="63"/>
-      <c r="BT32" s="63"/>
-      <c r="BU32" s="63"/>
-      <c r="BV32" s="63"/>
-      <c r="BW32" s="63"/>
-      <c r="BX32" s="63"/>
-      <c r="BY32" s="63"/>
-      <c r="BZ32" s="63"/>
-      <c r="CA32" s="63"/>
-      <c r="CB32" s="63"/>
-      <c r="CC32" s="63"/>
-      <c r="CD32" s="63"/>
-      <c r="CE32" s="63"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="49"/>
+      <c r="AV32" s="49"/>
+      <c r="AW32" s="49"/>
+      <c r="AX32" s="49"/>
+      <c r="AY32" s="49"/>
+      <c r="AZ32" s="49"/>
+      <c r="BA32" s="49"/>
+      <c r="BB32" s="49"/>
+      <c r="BC32" s="49"/>
+      <c r="BD32" s="49"/>
+      <c r="BE32" s="49"/>
+      <c r="BF32" s="49"/>
+      <c r="BG32" s="49"/>
+      <c r="BH32" s="49"/>
+      <c r="BI32" s="49"/>
+      <c r="BJ32" s="49"/>
+      <c r="BK32" s="49"/>
+      <c r="BL32" s="49"/>
+      <c r="BM32" s="49"/>
+      <c r="BN32" s="49"/>
+      <c r="BO32" s="49"/>
+      <c r="BP32" s="49"/>
+      <c r="BQ32" s="49"/>
+      <c r="BR32" s="49"/>
+      <c r="BS32" s="49"/>
+      <c r="BT32" s="49"/>
+      <c r="BU32" s="49"/>
+      <c r="BV32" s="49"/>
+      <c r="BW32" s="49"/>
+      <c r="BX32" s="49"/>
+      <c r="BY32" s="49"/>
+      <c r="BZ32" s="49"/>
+      <c r="CA32" s="49"/>
+      <c r="CB32" s="49"/>
+      <c r="CC32" s="49"/>
+      <c r="CD32" s="49"/>
+      <c r="CE32" s="49"/>
       <c r="CF32" s="5"/>
       <c r="CG32" s="5"/>
       <c r="CH32" s="5"/>
@@ -7077,84 +7083,84 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="63"/>
-      <c r="AC33" s="63"/>
-      <c r="AD33" s="63"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="63"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="63"/>
-      <c r="AI33" s="63"/>
-      <c r="AJ33" s="63"/>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="63"/>
-      <c r="AM33" s="63"/>
-      <c r="AN33" s="63"/>
-      <c r="AO33" s="63"/>
-      <c r="AP33" s="63"/>
-      <c r="AQ33" s="63"/>
-      <c r="AR33" s="63"/>
-      <c r="AS33" s="63"/>
-      <c r="AT33" s="63"/>
-      <c r="AU33" s="63"/>
-      <c r="AV33" s="63"/>
-      <c r="AW33" s="63"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="63"/>
-      <c r="AZ33" s="63"/>
-      <c r="BA33" s="63"/>
-      <c r="BB33" s="63"/>
-      <c r="BC33" s="63"/>
-      <c r="BD33" s="63"/>
-      <c r="BE33" s="63"/>
-      <c r="BF33" s="63"/>
-      <c r="BG33" s="63"/>
-      <c r="BH33" s="63"/>
-      <c r="BI33" s="63"/>
-      <c r="BJ33" s="63"/>
-      <c r="BK33" s="63"/>
-      <c r="BL33" s="63"/>
-      <c r="BM33" s="63"/>
-      <c r="BN33" s="63"/>
-      <c r="BO33" s="63"/>
-      <c r="BP33" s="63"/>
-      <c r="BQ33" s="63"/>
-      <c r="BR33" s="63"/>
-      <c r="BS33" s="63"/>
-      <c r="BT33" s="63"/>
-      <c r="BU33" s="63"/>
-      <c r="BV33" s="63"/>
-      <c r="BW33" s="63"/>
-      <c r="BX33" s="63"/>
-      <c r="BY33" s="63"/>
-      <c r="BZ33" s="63"/>
-      <c r="CA33" s="63"/>
-      <c r="CB33" s="63"/>
-      <c r="CC33" s="63"/>
-      <c r="CD33" s="63"/>
-      <c r="CE33" s="63"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="49"/>
+      <c r="BA33" s="49"/>
+      <c r="BB33" s="49"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="49"/>
+      <c r="BE33" s="49"/>
+      <c r="BF33" s="49"/>
+      <c r="BG33" s="49"/>
+      <c r="BH33" s="49"/>
+      <c r="BI33" s="49"/>
+      <c r="BJ33" s="49"/>
+      <c r="BK33" s="49"/>
+      <c r="BL33" s="49"/>
+      <c r="BM33" s="49"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="49"/>
+      <c r="BP33" s="49"/>
+      <c r="BQ33" s="49"/>
+      <c r="BR33" s="49"/>
+      <c r="BS33" s="49"/>
+      <c r="BT33" s="49"/>
+      <c r="BU33" s="49"/>
+      <c r="BV33" s="49"/>
+      <c r="BW33" s="49"/>
+      <c r="BX33" s="49"/>
+      <c r="BY33" s="49"/>
+      <c r="BZ33" s="49"/>
+      <c r="CA33" s="49"/>
+      <c r="CB33" s="49"/>
+      <c r="CC33" s="49"/>
+      <c r="CD33" s="49"/>
+      <c r="CE33" s="49"/>
       <c r="CF33" s="5"/>
       <c r="CG33" s="5"/>
       <c r="CH33" s="5"/>
@@ -7165,84 +7171,84 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
-      <c r="AC34" s="63"/>
-      <c r="AD34" s="63"/>
-      <c r="AE34" s="63"/>
-      <c r="AF34" s="63"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="63"/>
-      <c r="AM34" s="63"/>
-      <c r="AN34" s="63"/>
-      <c r="AO34" s="63"/>
-      <c r="AP34" s="63"/>
-      <c r="AQ34" s="63"/>
-      <c r="AR34" s="63"/>
-      <c r="AS34" s="63"/>
-      <c r="AT34" s="63"/>
-      <c r="AU34" s="63"/>
-      <c r="AV34" s="63"/>
-      <c r="AW34" s="63"/>
-      <c r="AX34" s="63"/>
-      <c r="AY34" s="63"/>
-      <c r="AZ34" s="63"/>
-      <c r="BA34" s="63"/>
-      <c r="BB34" s="63"/>
-      <c r="BC34" s="63"/>
-      <c r="BD34" s="63"/>
-      <c r="BE34" s="63"/>
-      <c r="BF34" s="63"/>
-      <c r="BG34" s="63"/>
-      <c r="BH34" s="63"/>
-      <c r="BI34" s="63"/>
-      <c r="BJ34" s="63"/>
-      <c r="BK34" s="63"/>
-      <c r="BL34" s="63"/>
-      <c r="BM34" s="63"/>
-      <c r="BN34" s="63"/>
-      <c r="BO34" s="63"/>
-      <c r="BP34" s="63"/>
-      <c r="BQ34" s="63"/>
-      <c r="BR34" s="63"/>
-      <c r="BS34" s="63"/>
-      <c r="BT34" s="63"/>
-      <c r="BU34" s="63"/>
-      <c r="BV34" s="63"/>
-      <c r="BW34" s="63"/>
-      <c r="BX34" s="63"/>
-      <c r="BY34" s="63"/>
-      <c r="BZ34" s="63"/>
-      <c r="CA34" s="63"/>
-      <c r="CB34" s="63"/>
-      <c r="CC34" s="63"/>
-      <c r="CD34" s="63"/>
-      <c r="CE34" s="63"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="49"/>
+      <c r="AU34" s="49"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
+      <c r="BB34" s="49"/>
+      <c r="BC34" s="49"/>
+      <c r="BD34" s="49"/>
+      <c r="BE34" s="49"/>
+      <c r="BF34" s="49"/>
+      <c r="BG34" s="49"/>
+      <c r="BH34" s="49"/>
+      <c r="BI34" s="49"/>
+      <c r="BJ34" s="49"/>
+      <c r="BK34" s="49"/>
+      <c r="BL34" s="49"/>
+      <c r="BM34" s="49"/>
+      <c r="BN34" s="49"/>
+      <c r="BO34" s="49"/>
+      <c r="BP34" s="49"/>
+      <c r="BQ34" s="49"/>
+      <c r="BR34" s="49"/>
+      <c r="BS34" s="49"/>
+      <c r="BT34" s="49"/>
+      <c r="BU34" s="49"/>
+      <c r="BV34" s="49"/>
+      <c r="BW34" s="49"/>
+      <c r="BX34" s="49"/>
+      <c r="BY34" s="49"/>
+      <c r="BZ34" s="49"/>
+      <c r="CA34" s="49"/>
+      <c r="CB34" s="49"/>
+      <c r="CC34" s="49"/>
+      <c r="CD34" s="49"/>
+      <c r="CE34" s="49"/>
       <c r="CF34" s="5"/>
       <c r="CG34" s="5"/>
       <c r="CH34" s="5"/>
@@ -7254,46 +7260,46 @@
     </row>
     <row r="36" spans="2:87">
       <c r="B36" s="4"/>
-      <c r="BO36" s="45" t="s">
+      <c r="BO36" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BP36" s="46"/>
-      <c r="BQ36" s="46"/>
-      <c r="BR36" s="46"/>
-      <c r="BS36" s="46"/>
-      <c r="BT36" s="46"/>
-      <c r="BU36" s="46"/>
-      <c r="BV36" s="46"/>
-      <c r="BW36" s="46"/>
-      <c r="BX36" s="46"/>
-      <c r="BY36" s="46"/>
-      <c r="BZ36" s="46"/>
-      <c r="CA36" s="46"/>
-      <c r="CB36" s="46"/>
-      <c r="CC36" s="46"/>
-      <c r="CD36" s="46"/>
-      <c r="CE36" s="47"/>
+      <c r="BP36" s="32"/>
+      <c r="BQ36" s="32"/>
+      <c r="BR36" s="32"/>
+      <c r="BS36" s="32"/>
+      <c r="BT36" s="32"/>
+      <c r="BU36" s="32"/>
+      <c r="BV36" s="32"/>
+      <c r="BW36" s="32"/>
+      <c r="BX36" s="32"/>
+      <c r="BY36" s="32"/>
+      <c r="BZ36" s="32"/>
+      <c r="CA36" s="32"/>
+      <c r="CB36" s="32"/>
+      <c r="CC36" s="32"/>
+      <c r="CD36" s="32"/>
+      <c r="CE36" s="33"/>
       <c r="CI36" s="8"/>
     </row>
     <row r="37" spans="2:87" ht="18.75" thickBot="1">
       <c r="B37" s="4"/>
-      <c r="BO37" s="48"/>
-      <c r="BP37" s="49"/>
-      <c r="BQ37" s="49"/>
-      <c r="BR37" s="49"/>
-      <c r="BS37" s="49"/>
-      <c r="BT37" s="49"/>
-      <c r="BU37" s="49"/>
-      <c r="BV37" s="49"/>
-      <c r="BW37" s="49"/>
-      <c r="BX37" s="49"/>
-      <c r="BY37" s="49"/>
-      <c r="BZ37" s="49"/>
-      <c r="CA37" s="49"/>
-      <c r="CB37" s="49"/>
-      <c r="CC37" s="49"/>
-      <c r="CD37" s="49"/>
-      <c r="CE37" s="50"/>
+      <c r="BO37" s="34"/>
+      <c r="BP37" s="35"/>
+      <c r="BQ37" s="35"/>
+      <c r="BR37" s="35"/>
+      <c r="BS37" s="35"/>
+      <c r="BT37" s="35"/>
+      <c r="BU37" s="35"/>
+      <c r="BV37" s="35"/>
+      <c r="BW37" s="35"/>
+      <c r="BX37" s="35"/>
+      <c r="BY37" s="35"/>
+      <c r="BZ37" s="35"/>
+      <c r="CA37" s="35"/>
+      <c r="CB37" s="35"/>
+      <c r="CC37" s="35"/>
+      <c r="CD37" s="35"/>
+      <c r="CE37" s="36"/>
       <c r="CI37" s="8"/>
     </row>
     <row r="38" spans="2:87" ht="18" customHeight="1" thickBot="1">
@@ -7387,13 +7393,14 @@
     <row r="39" spans="2:87" ht="18.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="BO36:CE37"/>
-    <mergeCell ref="F11:CE12"/>
-    <mergeCell ref="X14:BM17"/>
-    <mergeCell ref="F19:CE22"/>
-    <mergeCell ref="F25:CE28"/>
-    <mergeCell ref="F31:CE34"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -7408,14 +7415,13 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="BO36:CE37"/>
+    <mergeCell ref="F11:CE12"/>
+    <mergeCell ref="X14:BM17"/>
+    <mergeCell ref="F19:CE22"/>
+    <mergeCell ref="F25:CE28"/>
+    <mergeCell ref="F31:CE34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7433,7 +7439,7 @@
   <dimension ref="A1:AMK28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ12" sqref="BQ12:CI12"/>
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7446,102 +7452,102 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="39"/>
-      <c r="BK1" s="39"/>
-      <c r="BL1" s="40" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="41"/>
-      <c r="BQ1" s="41"/>
-      <c r="BR1" s="41"/>
-      <c r="BS1" s="41"/>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BW1" s="41"/>
-      <c r="BX1" s="42" t="s">
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="62"/>
+      <c r="BQ1" s="62"/>
+      <c r="BR1" s="62"/>
+      <c r="BS1" s="62"/>
+      <c r="BT1" s="62"/>
+      <c r="BU1" s="62"/>
+      <c r="BV1" s="62"/>
+      <c r="BW1" s="62"/>
+      <c r="BX1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42"/>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="29"/>
-      <c r="CC1" s="29"/>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
+      <c r="BY1" s="63"/>
+      <c r="BZ1" s="63"/>
+      <c r="CA1" s="63"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
+      <c r="CI1" s="50"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -8482,102 +8488,102 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="33" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="34"/>
-      <c r="BQ2" s="34"/>
-      <c r="BR2" s="34"/>
-      <c r="BS2" s="34"/>
-      <c r="BT2" s="34"/>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="35" t="s">
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="54"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="55"/>
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="55"/>
+      <c r="BV2" s="55"/>
+      <c r="BW2" s="55"/>
+      <c r="BX2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
+      <c r="BY2" s="56"/>
+      <c r="BZ2" s="56"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="57"/>
+      <c r="CC2" s="57"/>
+      <c r="CD2" s="57"/>
+      <c r="CE2" s="57"/>
+      <c r="CF2" s="57"/>
+      <c r="CG2" s="57"/>
+      <c r="CH2" s="57"/>
+      <c r="CI2" s="57"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -9605,417 +9611,417 @@
       <c r="CI3" s="10"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="25" t="s">
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65"/>
+      <c r="AS4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="25"/>
-      <c r="BH4" s="25"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="25"/>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="25"/>
-      <c r="BN4" s="25"/>
-      <c r="BO4" s="25"/>
-      <c r="BP4" s="25"/>
-      <c r="BQ4" s="25"/>
-      <c r="BR4" s="25"/>
-      <c r="BS4" s="25"/>
-      <c r="BT4" s="25"/>
-      <c r="BU4" s="25"/>
-      <c r="BV4" s="25"/>
-      <c r="BW4" s="25"/>
-      <c r="BX4" s="25"/>
-      <c r="BY4" s="25"/>
-      <c r="BZ4" s="25"/>
-      <c r="CA4" s="25"/>
-      <c r="CB4" s="25"/>
-      <c r="CC4" s="25"/>
-      <c r="CD4" s="25"/>
-      <c r="CE4" s="25"/>
-      <c r="CF4" s="25"/>
-      <c r="CG4" s="25"/>
-      <c r="CH4" s="25"/>
-      <c r="CI4" s="25"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="66"/>
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="66"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="66"/>
+      <c r="BE4" s="66"/>
+      <c r="BF4" s="66"/>
+      <c r="BG4" s="66"/>
+      <c r="BH4" s="66"/>
+      <c r="BI4" s="66"/>
+      <c r="BJ4" s="66"/>
+      <c r="BK4" s="66"/>
+      <c r="BL4" s="66"/>
+      <c r="BM4" s="66"/>
+      <c r="BN4" s="66"/>
+      <c r="BO4" s="66"/>
+      <c r="BP4" s="66"/>
+      <c r="BQ4" s="66"/>
+      <c r="BR4" s="66"/>
+      <c r="BS4" s="66"/>
+      <c r="BT4" s="66"/>
+      <c r="BU4" s="66"/>
+      <c r="BV4" s="66"/>
+      <c r="BW4" s="66"/>
+      <c r="BX4" s="66"/>
+      <c r="BY4" s="66"/>
+      <c r="BZ4" s="66"/>
+      <c r="CA4" s="66"/>
+      <c r="CB4" s="66"/>
+      <c r="CC4" s="66"/>
+      <c r="CD4" s="66"/>
+      <c r="CE4" s="66"/>
+      <c r="CF4" s="66"/>
+      <c r="CG4" s="66"/>
+      <c r="CH4" s="66"/>
+      <c r="CI4" s="66"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="26">
+      <c r="B5" s="67">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="28" t="s">
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="68"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
-      <c r="BD5" s="28"/>
-      <c r="BE5" s="28"/>
-      <c r="BF5" s="28"/>
-      <c r="BG5" s="28"/>
-      <c r="BH5" s="28"/>
-      <c r="BI5" s="28"/>
-      <c r="BJ5" s="28"/>
-      <c r="BK5" s="28"/>
-      <c r="BL5" s="28"/>
-      <c r="BM5" s="28"/>
-      <c r="BN5" s="28"/>
-      <c r="BO5" s="28"/>
-      <c r="BP5" s="28"/>
-      <c r="BQ5" s="28"/>
-      <c r="BR5" s="28"/>
-      <c r="BS5" s="28"/>
-      <c r="BT5" s="28"/>
-      <c r="BU5" s="28"/>
-      <c r="BV5" s="28"/>
-      <c r="BW5" s="28"/>
-      <c r="BX5" s="28"/>
-      <c r="BY5" s="28"/>
-      <c r="BZ5" s="28"/>
-      <c r="CA5" s="28"/>
-      <c r="CB5" s="28"/>
-      <c r="CC5" s="28"/>
-      <c r="CD5" s="28"/>
-      <c r="CE5" s="28"/>
-      <c r="CF5" s="28"/>
-      <c r="CG5" s="28"/>
-      <c r="CH5" s="28"/>
-      <c r="CI5" s="28"/>
+      <c r="AT5" s="69"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="69"/>
+      <c r="BC5" s="69"/>
+      <c r="BD5" s="69"/>
+      <c r="BE5" s="69"/>
+      <c r="BF5" s="69"/>
+      <c r="BG5" s="69"/>
+      <c r="BH5" s="69"/>
+      <c r="BI5" s="69"/>
+      <c r="BJ5" s="69"/>
+      <c r="BK5" s="69"/>
+      <c r="BL5" s="69"/>
+      <c r="BM5" s="69"/>
+      <c r="BN5" s="69"/>
+      <c r="BO5" s="69"/>
+      <c r="BP5" s="69"/>
+      <c r="BQ5" s="69"/>
+      <c r="BR5" s="69"/>
+      <c r="BS5" s="69"/>
+      <c r="BT5" s="69"/>
+      <c r="BU5" s="69"/>
+      <c r="BV5" s="69"/>
+      <c r="BW5" s="69"/>
+      <c r="BX5" s="69"/>
+      <c r="BY5" s="69"/>
+      <c r="BZ5" s="69"/>
+      <c r="CA5" s="69"/>
+      <c r="CB5" s="69"/>
+      <c r="CC5" s="69"/>
+      <c r="CD5" s="69"/>
+      <c r="CE5" s="69"/>
+      <c r="CF5" s="69"/>
+      <c r="CG5" s="69"/>
+      <c r="CH5" s="69"/>
+      <c r="CI5" s="69"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="135"/>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="135"/>
-      <c r="AF6" s="135"/>
-      <c r="AG6" s="135"/>
-      <c r="AH6" s="135"/>
-      <c r="AI6" s="135"/>
-      <c r="AJ6" s="135"/>
-      <c r="AK6" s="135"/>
-      <c r="AL6" s="135"/>
-      <c r="AM6" s="135"/>
-      <c r="AN6" s="135"/>
-      <c r="AO6" s="135"/>
-      <c r="AP6" s="135"/>
-      <c r="AQ6" s="135"/>
-      <c r="AR6" s="135"/>
-      <c r="AS6" s="135"/>
-      <c r="AT6" s="135"/>
-      <c r="AU6" s="135"/>
-      <c r="AV6" s="135"/>
-      <c r="AW6" s="135"/>
-      <c r="AX6" s="135"/>
-      <c r="AY6" s="135"/>
-      <c r="AZ6" s="135"/>
-      <c r="BA6" s="135"/>
-      <c r="BB6" s="135"/>
-      <c r="BC6" s="135"/>
-      <c r="BD6" s="135"/>
-      <c r="BE6" s="135"/>
-      <c r="BF6" s="135"/>
-      <c r="BG6" s="135"/>
-      <c r="BH6" s="135"/>
-      <c r="BI6" s="135"/>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
-      <c r="BN6" s="135"/>
-      <c r="BO6" s="135"/>
-      <c r="BP6" s="135"/>
-      <c r="BQ6" s="135"/>
-      <c r="BR6" s="135"/>
-      <c r="BS6" s="135"/>
-      <c r="BT6" s="135"/>
-      <c r="BU6" s="135"/>
-      <c r="BV6" s="135"/>
-      <c r="BW6" s="135"/>
-      <c r="BX6" s="135"/>
-      <c r="BY6" s="135"/>
-      <c r="BZ6" s="135"/>
-      <c r="CA6" s="135"/>
-      <c r="CB6" s="135"/>
-      <c r="CC6" s="135"/>
-      <c r="CD6" s="135"/>
-      <c r="CE6" s="135"/>
-      <c r="CF6" s="135"/>
-      <c r="CG6" s="135"/>
-      <c r="CH6" s="135"/>
-      <c r="CI6" s="135"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="103"/>
+      <c r="AJ6" s="103"/>
+      <c r="AK6" s="103"/>
+      <c r="AL6" s="103"/>
+      <c r="AM6" s="103"/>
+      <c r="AN6" s="103"/>
+      <c r="AO6" s="103"/>
+      <c r="AP6" s="103"/>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="103"/>
+      <c r="AS6" s="103"/>
+      <c r="AT6" s="103"/>
+      <c r="AU6" s="103"/>
+      <c r="AV6" s="103"/>
+      <c r="AW6" s="103"/>
+      <c r="AX6" s="103"/>
+      <c r="AY6" s="103"/>
+      <c r="AZ6" s="103"/>
+      <c r="BA6" s="103"/>
+      <c r="BB6" s="103"/>
+      <c r="BC6" s="103"/>
+      <c r="BD6" s="103"/>
+      <c r="BE6" s="103"/>
+      <c r="BF6" s="103"/>
+      <c r="BG6" s="103"/>
+      <c r="BH6" s="103"/>
+      <c r="BI6" s="103"/>
+      <c r="BJ6" s="103"/>
+      <c r="BK6" s="103"/>
+      <c r="BL6" s="103"/>
+      <c r="BM6" s="103"/>
+      <c r="BN6" s="103"/>
+      <c r="BO6" s="103"/>
+      <c r="BP6" s="103"/>
+      <c r="BQ6" s="103"/>
+      <c r="BR6" s="103"/>
+      <c r="BS6" s="103"/>
+      <c r="BT6" s="103"/>
+      <c r="BU6" s="103"/>
+      <c r="BV6" s="103"/>
+      <c r="BW6" s="103"/>
+      <c r="BX6" s="103"/>
+      <c r="BY6" s="103"/>
+      <c r="BZ6" s="103"/>
+      <c r="CA6" s="103"/>
+      <c r="CB6" s="103"/>
+      <c r="CC6" s="103"/>
+      <c r="CD6" s="103"/>
+      <c r="CE6" s="103"/>
+      <c r="CF6" s="103"/>
+      <c r="CG6" s="103"/>
+      <c r="CH6" s="103"/>
+      <c r="CI6" s="103"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="137" t="s">
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="137" t="s">
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="138"/>
-      <c r="AG7" s="139"/>
-      <c r="AH7" s="137" t="s">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="138"/>
-      <c r="AJ7" s="139"/>
-      <c r="AK7" s="137" t="s">
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="138"/>
-      <c r="AM7" s="138"/>
-      <c r="AN7" s="138"/>
-      <c r="AO7" s="138"/>
-      <c r="AP7" s="138"/>
-      <c r="AQ7" s="138"/>
-      <c r="AR7" s="142"/>
-      <c r="AS7" s="142"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="140" t="s">
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="108"/>
+      <c r="AU7" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="140"/>
-      <c r="AW7" s="140"/>
-      <c r="AX7" s="140"/>
-      <c r="AY7" s="140"/>
-      <c r="AZ7" s="140"/>
-      <c r="BA7" s="140"/>
-      <c r="BB7" s="140"/>
-      <c r="BC7" s="140"/>
-      <c r="BD7" s="140"/>
-      <c r="BE7" s="140"/>
-      <c r="BF7" s="140"/>
-      <c r="BG7" s="140"/>
-      <c r="BH7" s="140"/>
-      <c r="BI7" s="140"/>
-      <c r="BJ7" s="140"/>
-      <c r="BK7" s="140"/>
-      <c r="BL7" s="140"/>
-      <c r="BM7" s="140"/>
-      <c r="BN7" s="140"/>
-      <c r="BO7" s="140"/>
-      <c r="BP7" s="140"/>
-      <c r="BQ7" s="141" t="s">
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
+      <c r="BQ7" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="141"/>
-      <c r="BS7" s="141"/>
-      <c r="BT7" s="141"/>
-      <c r="BU7" s="141"/>
-      <c r="BV7" s="141"/>
-      <c r="BW7" s="141"/>
-      <c r="BX7" s="141"/>
-      <c r="BY7" s="141"/>
-      <c r="BZ7" s="141"/>
-      <c r="CA7" s="141"/>
-      <c r="CB7" s="141"/>
-      <c r="CC7" s="141"/>
-      <c r="CD7" s="141"/>
-      <c r="CE7" s="141"/>
-      <c r="CF7" s="141"/>
-      <c r="CG7" s="141"/>
-      <c r="CH7" s="141"/>
-      <c r="CI7" s="141"/>
+      <c r="BR7" s="106"/>
+      <c r="BS7" s="106"/>
+      <c r="BT7" s="106"/>
+      <c r="BU7" s="106"/>
+      <c r="BV7" s="106"/>
+      <c r="BW7" s="106"/>
+      <c r="BX7" s="106"/>
+      <c r="BY7" s="106"/>
+      <c r="BZ7" s="106"/>
+      <c r="CA7" s="106"/>
+      <c r="CB7" s="106"/>
+      <c r="CC7" s="106"/>
+      <c r="CD7" s="106"/>
+      <c r="CE7" s="106"/>
+      <c r="CF7" s="106"/>
+      <c r="CG7" s="106"/>
+      <c r="CH7" s="106"/>
+      <c r="CI7" s="106"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1">
-      <c r="B8" s="152"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="153" t="s">
+      <c r="E8" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="154"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="154"/>
-      <c r="T8" s="154"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="155"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="72"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="20"/>
@@ -10038,1955 +10044,2102 @@
       <c r="AR8" s="21"/>
       <c r="AS8" s="21"/>
       <c r="AT8" s="22"/>
-      <c r="AU8" s="137"/>
-      <c r="AV8" s="138"/>
-      <c r="AW8" s="138"/>
-      <c r="AX8" s="138"/>
-      <c r="AY8" s="138"/>
-      <c r="AZ8" s="138"/>
-      <c r="BA8" s="138"/>
-      <c r="BB8" s="138"/>
-      <c r="BC8" s="138"/>
-      <c r="BD8" s="138"/>
-      <c r="BE8" s="138"/>
-      <c r="BF8" s="138"/>
-      <c r="BG8" s="138"/>
-      <c r="BH8" s="138"/>
-      <c r="BI8" s="138"/>
-      <c r="BJ8" s="138"/>
-      <c r="BK8" s="138"/>
-      <c r="BL8" s="138"/>
-      <c r="BM8" s="138"/>
-      <c r="BN8" s="138"/>
-      <c r="BO8" s="138"/>
-      <c r="BP8" s="139"/>
-      <c r="BQ8" s="137"/>
-      <c r="BR8" s="138"/>
-      <c r="BS8" s="138"/>
-      <c r="BT8" s="138"/>
-      <c r="BU8" s="138"/>
-      <c r="BV8" s="138"/>
-      <c r="BW8" s="138"/>
-      <c r="BX8" s="138"/>
-      <c r="BY8" s="138"/>
-      <c r="BZ8" s="138"/>
-      <c r="CA8" s="138"/>
-      <c r="CB8" s="138"/>
-      <c r="CC8" s="138"/>
-      <c r="CD8" s="138"/>
-      <c r="CE8" s="138"/>
-      <c r="CF8" s="138"/>
-      <c r="CG8" s="138"/>
-      <c r="CH8" s="138"/>
-      <c r="CI8" s="156"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+      <c r="BF8" s="74"/>
+      <c r="BG8" s="74"/>
+      <c r="BH8" s="74"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="74"/>
+      <c r="BK8" s="74"/>
+      <c r="BL8" s="74"/>
+      <c r="BM8" s="74"/>
+      <c r="BN8" s="74"/>
+      <c r="BO8" s="74"/>
+      <c r="BP8" s="75"/>
+      <c r="BQ8" s="73"/>
+      <c r="BR8" s="74"/>
+      <c r="BS8" s="74"/>
+      <c r="BT8" s="74"/>
+      <c r="BU8" s="74"/>
+      <c r="BV8" s="74"/>
+      <c r="BW8" s="74"/>
+      <c r="BX8" s="74"/>
+      <c r="BY8" s="74"/>
+      <c r="BZ8" s="74"/>
+      <c r="CA8" s="74"/>
+      <c r="CB8" s="74"/>
+      <c r="CC8" s="74"/>
+      <c r="CD8" s="74"/>
+      <c r="CE8" s="74"/>
+      <c r="CF8" s="74"/>
+      <c r="CG8" s="74"/>
+      <c r="CH8" s="74"/>
+      <c r="CI8" s="76"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1">
-      <c r="B9" s="157">
+      <c r="B9" s="80">
         <v>1</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="166" t="s">
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="167"/>
-      <c r="S9" s="167"/>
-      <c r="T9" s="167"/>
-      <c r="U9" s="167"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="166" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="168"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="161"/>
-      <c r="AJ9" s="162"/>
-      <c r="AK9" s="166" t="s">
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="AL9" s="167"/>
-      <c r="AM9" s="167"/>
-      <c r="AN9" s="167"/>
-      <c r="AO9" s="167"/>
-      <c r="AP9" s="167"/>
-      <c r="AQ9" s="167"/>
-      <c r="AR9" s="167"/>
-      <c r="AS9" s="167"/>
-      <c r="AT9" s="168"/>
-      <c r="AU9" s="144" t="s">
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="AV9" s="144"/>
-      <c r="AW9" s="144"/>
-      <c r="AX9" s="144"/>
-      <c r="AY9" s="144"/>
-      <c r="AZ9" s="144"/>
-      <c r="BA9" s="144"/>
-      <c r="BB9" s="144"/>
-      <c r="BC9" s="144"/>
-      <c r="BD9" s="144"/>
-      <c r="BE9" s="144" t="s">
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="87"/>
+      <c r="AZ9" s="87"/>
+      <c r="BA9" s="87"/>
+      <c r="BB9" s="87"/>
+      <c r="BC9" s="87"/>
+      <c r="BD9" s="87"/>
+      <c r="BE9" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="BF9" s="144"/>
-      <c r="BG9" s="144"/>
-      <c r="BH9" s="144"/>
-      <c r="BI9" s="144"/>
-      <c r="BJ9" s="144"/>
-      <c r="BK9" s="144"/>
-      <c r="BL9" s="144"/>
-      <c r="BM9" s="144"/>
-      <c r="BN9" s="144"/>
-      <c r="BO9" s="144"/>
-      <c r="BP9" s="144"/>
-      <c r="BQ9" s="166" t="s">
+      <c r="BF9" s="87"/>
+      <c r="BG9" s="87"/>
+      <c r="BH9" s="87"/>
+      <c r="BI9" s="87"/>
+      <c r="BJ9" s="87"/>
+      <c r="BK9" s="87"/>
+      <c r="BL9" s="87"/>
+      <c r="BM9" s="87"/>
+      <c r="BN9" s="87"/>
+      <c r="BO9" s="87"/>
+      <c r="BP9" s="87"/>
+      <c r="BQ9" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="BR9" s="167"/>
-      <c r="BS9" s="167"/>
-      <c r="BT9" s="167"/>
-      <c r="BU9" s="167"/>
-      <c r="BV9" s="167"/>
-      <c r="BW9" s="167"/>
-      <c r="BX9" s="167"/>
-      <c r="BY9" s="167"/>
-      <c r="BZ9" s="167"/>
-      <c r="CA9" s="167"/>
-      <c r="CB9" s="167"/>
-      <c r="CC9" s="167"/>
-      <c r="CD9" s="167"/>
-      <c r="CE9" s="167"/>
-      <c r="CF9" s="167"/>
-      <c r="CG9" s="167"/>
-      <c r="CH9" s="167"/>
-      <c r="CI9" s="169"/>
+      <c r="BR9" s="78"/>
+      <c r="BS9" s="78"/>
+      <c r="BT9" s="78"/>
+      <c r="BU9" s="78"/>
+      <c r="BV9" s="78"/>
+      <c r="BW9" s="78"/>
+      <c r="BX9" s="78"/>
+      <c r="BY9" s="78"/>
+      <c r="BZ9" s="78"/>
+      <c r="CA9" s="78"/>
+      <c r="CB9" s="78"/>
+      <c r="CC9" s="78"/>
+      <c r="CD9" s="78"/>
+      <c r="CE9" s="78"/>
+      <c r="CF9" s="78"/>
+      <c r="CG9" s="78"/>
+      <c r="CH9" s="78"/>
+      <c r="CI9" s="79"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1">
-      <c r="B10" s="64">
-        <f t="shared" ref="B10:B16" si="0">ROW(B10)-7</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="127" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="131"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="130"/>
-      <c r="AI10" s="131"/>
-      <c r="AJ10" s="132"/>
-      <c r="AK10" s="127"/>
-      <c r="AL10" s="128"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="128"/>
-      <c r="AP10" s="128"/>
-      <c r="AQ10" s="128"/>
-      <c r="AR10" s="133"/>
-      <c r="AS10" s="133"/>
-      <c r="AT10" s="134"/>
-      <c r="AU10" s="125"/>
-      <c r="AV10" s="125"/>
-      <c r="AW10" s="125"/>
-      <c r="AX10" s="125"/>
-      <c r="AY10" s="125"/>
-      <c r="AZ10" s="125"/>
-      <c r="BA10" s="125"/>
-      <c r="BB10" s="125"/>
-      <c r="BC10" s="125"/>
-      <c r="BD10" s="125"/>
-      <c r="BE10" s="125"/>
-      <c r="BF10" s="125"/>
-      <c r="BG10" s="125"/>
-      <c r="BH10" s="125"/>
-      <c r="BI10" s="125"/>
-      <c r="BJ10" s="125"/>
-      <c r="BK10" s="125"/>
-      <c r="BL10" s="125"/>
-      <c r="BM10" s="125"/>
-      <c r="BN10" s="125"/>
-      <c r="BO10" s="125"/>
-      <c r="BP10" s="125"/>
-      <c r="BQ10" s="126"/>
-      <c r="BR10" s="126"/>
-      <c r="BS10" s="126"/>
-      <c r="BT10" s="126"/>
-      <c r="BU10" s="126"/>
-      <c r="BV10" s="126"/>
-      <c r="BW10" s="126"/>
-      <c r="BX10" s="126"/>
-      <c r="BY10" s="126"/>
-      <c r="BZ10" s="126"/>
-      <c r="CA10" s="126"/>
-      <c r="CB10" s="126"/>
-      <c r="CC10" s="126"/>
-      <c r="CD10" s="126"/>
-      <c r="CE10" s="126"/>
-      <c r="CF10" s="126"/>
-      <c r="CG10" s="126"/>
-      <c r="CH10" s="126"/>
-      <c r="CI10" s="126"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="111"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="111"/>
+      <c r="AL10" s="112"/>
+      <c r="AM10" s="112"/>
+      <c r="AN10" s="112"/>
+      <c r="AO10" s="112"/>
+      <c r="AP10" s="112"/>
+      <c r="AQ10" s="112"/>
+      <c r="AR10" s="117"/>
+      <c r="AS10" s="117"/>
+      <c r="AT10" s="118"/>
+      <c r="AU10" s="109"/>
+      <c r="AV10" s="109"/>
+      <c r="AW10" s="109"/>
+      <c r="AX10" s="109"/>
+      <c r="AY10" s="109"/>
+      <c r="AZ10" s="109"/>
+      <c r="BA10" s="109"/>
+      <c r="BB10" s="109"/>
+      <c r="BC10" s="109"/>
+      <c r="BD10" s="109"/>
+      <c r="BE10" s="109"/>
+      <c r="BF10" s="109"/>
+      <c r="BG10" s="109"/>
+      <c r="BH10" s="109"/>
+      <c r="BI10" s="109"/>
+      <c r="BJ10" s="109"/>
+      <c r="BK10" s="109"/>
+      <c r="BL10" s="109"/>
+      <c r="BM10" s="109"/>
+      <c r="BN10" s="109"/>
+      <c r="BO10" s="109"/>
+      <c r="BP10" s="109"/>
+      <c r="BQ10" s="110"/>
+      <c r="BR10" s="110"/>
+      <c r="BS10" s="110"/>
+      <c r="BT10" s="110"/>
+      <c r="BU10" s="110"/>
+      <c r="BV10" s="110"/>
+      <c r="BW10" s="110"/>
+      <c r="BX10" s="110"/>
+      <c r="BY10" s="110"/>
+      <c r="BZ10" s="110"/>
+      <c r="CA10" s="110"/>
+      <c r="CB10" s="110"/>
+      <c r="CC10" s="110"/>
+      <c r="CD10" s="110"/>
+      <c r="CE10" s="110"/>
+      <c r="CF10" s="110"/>
+      <c r="CG10" s="110"/>
+      <c r="CH10" s="110"/>
+      <c r="CI10" s="110"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1">
-      <c r="B11" s="64">
-        <f t="shared" si="0"/>
+      <c r="B11" s="89">
+        <f t="shared" ref="B10:B16" si="0">ROW(B11)-7</f>
         <v>4</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="146" t="s">
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="70" t="s">
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="146" t="s">
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="147"/>
-      <c r="AF11" s="147"/>
-      <c r="AG11" s="148"/>
-      <c r="AH11" s="149">
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="98">
         <v>20</v>
       </c>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="151"/>
-      <c r="AK11" s="146" t="s">
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="100"/>
+      <c r="AK11" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="AL11" s="147"/>
-      <c r="AM11" s="147"/>
-      <c r="AN11" s="147"/>
-      <c r="AO11" s="147"/>
-      <c r="AP11" s="147"/>
-      <c r="AQ11" s="147"/>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="144" t="s">
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
+      <c r="AO11" s="93"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="101"/>
+      <c r="AS11" s="101"/>
+      <c r="AT11" s="102"/>
+      <c r="AU11" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="AV11" s="144"/>
-      <c r="AW11" s="144"/>
-      <c r="AX11" s="144"/>
-      <c r="AY11" s="144"/>
-      <c r="AZ11" s="144"/>
-      <c r="BA11" s="144"/>
-      <c r="BB11" s="144"/>
-      <c r="BC11" s="144"/>
-      <c r="BD11" s="144"/>
-      <c r="BE11" s="144" t="s">
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AX11" s="87"/>
+      <c r="AY11" s="87"/>
+      <c r="AZ11" s="87"/>
+      <c r="BA11" s="87"/>
+      <c r="BB11" s="87"/>
+      <c r="BC11" s="87"/>
+      <c r="BD11" s="87"/>
+      <c r="BE11" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="BF11" s="144"/>
-      <c r="BG11" s="144"/>
-      <c r="BH11" s="144"/>
-      <c r="BI11" s="144"/>
-      <c r="BJ11" s="144"/>
-      <c r="BK11" s="144"/>
-      <c r="BL11" s="144"/>
-      <c r="BM11" s="144"/>
-      <c r="BN11" s="144"/>
-      <c r="BO11" s="144"/>
-      <c r="BP11" s="144"/>
-      <c r="BQ11" s="145" t="s">
+      <c r="BF11" s="87"/>
+      <c r="BG11" s="87"/>
+      <c r="BH11" s="87"/>
+      <c r="BI11" s="87"/>
+      <c r="BJ11" s="87"/>
+      <c r="BK11" s="87"/>
+      <c r="BL11" s="87"/>
+      <c r="BM11" s="87"/>
+      <c r="BN11" s="87"/>
+      <c r="BO11" s="87"/>
+      <c r="BP11" s="87"/>
+      <c r="BQ11" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="BR11" s="145"/>
-      <c r="BS11" s="145"/>
-      <c r="BT11" s="145"/>
-      <c r="BU11" s="145"/>
-      <c r="BV11" s="145"/>
-      <c r="BW11" s="145"/>
-      <c r="BX11" s="145"/>
-      <c r="BY11" s="145"/>
-      <c r="BZ11" s="145"/>
-      <c r="CA11" s="145"/>
-      <c r="CB11" s="145"/>
-      <c r="CC11" s="145"/>
-      <c r="CD11" s="145"/>
-      <c r="CE11" s="145"/>
-      <c r="CF11" s="145"/>
-      <c r="CG11" s="145"/>
-      <c r="CH11" s="145"/>
-      <c r="CI11" s="145"/>
+      <c r="BR11" s="88"/>
+      <c r="BS11" s="88"/>
+      <c r="BT11" s="88"/>
+      <c r="BU11" s="88"/>
+      <c r="BV11" s="88"/>
+      <c r="BW11" s="88"/>
+      <c r="BX11" s="88"/>
+      <c r="BY11" s="88"/>
+      <c r="BZ11" s="88"/>
+      <c r="CA11" s="88"/>
+      <c r="CB11" s="88"/>
+      <c r="CC11" s="88"/>
+      <c r="CD11" s="88"/>
+      <c r="CE11" s="88"/>
+      <c r="CF11" s="88"/>
+      <c r="CG11" s="88"/>
+      <c r="CH11" s="88"/>
+      <c r="CI11" s="88"/>
     </row>
     <row r="12" spans="1:1024" ht="18" customHeight="1">
-      <c r="B12" s="64">
+      <c r="B12" s="89">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67" t="s">
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="70" t="s">
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="67" t="s">
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="70" t="s">
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="67" t="s">
+      <c r="AI12" s="96"/>
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="AL12" s="68"/>
-      <c r="AM12" s="68"/>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="68"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="68"/>
-      <c r="AR12" s="68"/>
-      <c r="AS12" s="68"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="67" t="s">
+      <c r="AL12" s="120"/>
+      <c r="AM12" s="120"/>
+      <c r="AN12" s="120"/>
+      <c r="AO12" s="120"/>
+      <c r="AP12" s="120"/>
+      <c r="AQ12" s="120"/>
+      <c r="AR12" s="120"/>
+      <c r="AS12" s="120"/>
+      <c r="AT12" s="121"/>
+      <c r="AU12" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="AV12" s="68"/>
-      <c r="AW12" s="68"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="68"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="68"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="69"/>
-      <c r="BE12" s="67" t="s">
+      <c r="AV12" s="120"/>
+      <c r="AW12" s="120"/>
+      <c r="AX12" s="120"/>
+      <c r="AY12" s="120"/>
+      <c r="AZ12" s="120"/>
+      <c r="BA12" s="120"/>
+      <c r="BB12" s="120"/>
+      <c r="BC12" s="120"/>
+      <c r="BD12" s="121"/>
+      <c r="BE12" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="BF12" s="68"/>
-      <c r="BG12" s="68"/>
-      <c r="BH12" s="68"/>
-      <c r="BI12" s="68"/>
-      <c r="BJ12" s="68"/>
-      <c r="BK12" s="68"/>
-      <c r="BL12" s="68"/>
-      <c r="BM12" s="68"/>
-      <c r="BN12" s="68"/>
-      <c r="BO12" s="68"/>
-      <c r="BP12" s="69"/>
-      <c r="BQ12" s="119" t="s">
+      <c r="BF12" s="120"/>
+      <c r="BG12" s="120"/>
+      <c r="BH12" s="120"/>
+      <c r="BI12" s="120"/>
+      <c r="BJ12" s="120"/>
+      <c r="BK12" s="120"/>
+      <c r="BL12" s="120"/>
+      <c r="BM12" s="120"/>
+      <c r="BN12" s="120"/>
+      <c r="BO12" s="120"/>
+      <c r="BP12" s="121"/>
+      <c r="BQ12" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="BR12" s="120"/>
-      <c r="BS12" s="120"/>
-      <c r="BT12" s="120"/>
-      <c r="BU12" s="120"/>
-      <c r="BV12" s="120"/>
-      <c r="BW12" s="120"/>
-      <c r="BX12" s="120"/>
-      <c r="BY12" s="120"/>
-      <c r="BZ12" s="120"/>
-      <c r="CA12" s="120"/>
-      <c r="CB12" s="120"/>
-      <c r="CC12" s="120"/>
-      <c r="CD12" s="120"/>
-      <c r="CE12" s="120"/>
-      <c r="CF12" s="120"/>
-      <c r="CG12" s="120"/>
-      <c r="CH12" s="120"/>
-      <c r="CI12" s="121"/>
+      <c r="BR12" s="123"/>
+      <c r="BS12" s="123"/>
+      <c r="BT12" s="123"/>
+      <c r="BU12" s="123"/>
+      <c r="BV12" s="123"/>
+      <c r="BW12" s="123"/>
+      <c r="BX12" s="123"/>
+      <c r="BY12" s="123"/>
+      <c r="BZ12" s="123"/>
+      <c r="CA12" s="123"/>
+      <c r="CB12" s="123"/>
+      <c r="CC12" s="123"/>
+      <c r="CD12" s="123"/>
+      <c r="CE12" s="123"/>
+      <c r="CF12" s="123"/>
+      <c r="CG12" s="123"/>
+      <c r="CH12" s="123"/>
+      <c r="CI12" s="124"/>
     </row>
     <row r="13" spans="1:1024" ht="18" customHeight="1">
-      <c r="B13" s="64">
+      <c r="B13" s="89">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67" t="s">
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="67" t="s">
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="70" t="s">
+      <c r="AC13" s="120"/>
+      <c r="AD13" s="120"/>
+      <c r="AE13" s="120"/>
+      <c r="AF13" s="120"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="67" t="s">
+      <c r="AI13" s="96"/>
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="AL13" s="68"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="68"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="67" t="s">
+      <c r="AL13" s="120"/>
+      <c r="AM13" s="120"/>
+      <c r="AN13" s="120"/>
+      <c r="AO13" s="120"/>
+      <c r="AP13" s="120"/>
+      <c r="AQ13" s="120"/>
+      <c r="AR13" s="120"/>
+      <c r="AS13" s="120"/>
+      <c r="AT13" s="121"/>
+      <c r="AU13" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="67" t="s">
+      <c r="AV13" s="120"/>
+      <c r="AW13" s="120"/>
+      <c r="AX13" s="120"/>
+      <c r="AY13" s="120"/>
+      <c r="AZ13" s="120"/>
+      <c r="BA13" s="120"/>
+      <c r="BB13" s="120"/>
+      <c r="BC13" s="120"/>
+      <c r="BD13" s="121"/>
+      <c r="BE13" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="BF13" s="68"/>
-      <c r="BG13" s="68"/>
-      <c r="BH13" s="68"/>
-      <c r="BI13" s="68"/>
-      <c r="BJ13" s="68"/>
-      <c r="BK13" s="68"/>
-      <c r="BL13" s="68"/>
-      <c r="BM13" s="68"/>
-      <c r="BN13" s="68"/>
-      <c r="BO13" s="68"/>
-      <c r="BP13" s="69"/>
-      <c r="BQ13" s="119" t="s">
+      <c r="BF13" s="120"/>
+      <c r="BG13" s="120"/>
+      <c r="BH13" s="120"/>
+      <c r="BI13" s="120"/>
+      <c r="BJ13" s="120"/>
+      <c r="BK13" s="120"/>
+      <c r="BL13" s="120"/>
+      <c r="BM13" s="120"/>
+      <c r="BN13" s="120"/>
+      <c r="BO13" s="120"/>
+      <c r="BP13" s="121"/>
+      <c r="BQ13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="BR13" s="120"/>
-      <c r="BS13" s="120"/>
-      <c r="BT13" s="120"/>
-      <c r="BU13" s="120"/>
-      <c r="BV13" s="120"/>
-      <c r="BW13" s="120"/>
-      <c r="BX13" s="120"/>
-      <c r="BY13" s="120"/>
-      <c r="BZ13" s="120"/>
-      <c r="CA13" s="120"/>
-      <c r="CB13" s="120"/>
-      <c r="CC13" s="120"/>
-      <c r="CD13" s="120"/>
-      <c r="CE13" s="120"/>
-      <c r="CF13" s="120"/>
-      <c r="CG13" s="120"/>
-      <c r="CH13" s="120"/>
-      <c r="CI13" s="121"/>
+      <c r="BR13" s="123"/>
+      <c r="BS13" s="123"/>
+      <c r="BT13" s="123"/>
+      <c r="BU13" s="123"/>
+      <c r="BV13" s="123"/>
+      <c r="BW13" s="123"/>
+      <c r="BX13" s="123"/>
+      <c r="BY13" s="123"/>
+      <c r="BZ13" s="123"/>
+      <c r="CA13" s="123"/>
+      <c r="CB13" s="123"/>
+      <c r="CC13" s="123"/>
+      <c r="CD13" s="123"/>
+      <c r="CE13" s="123"/>
+      <c r="CF13" s="123"/>
+      <c r="CG13" s="123"/>
+      <c r="CH13" s="123"/>
+      <c r="CI13" s="124"/>
     </row>
     <row r="14" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B14" s="64">
+      <c r="B14" s="89">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67" t="s">
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="70" t="s">
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="67" t="s">
+      <c r="Z14" s="96"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="70" t="s">
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="120"/>
+      <c r="AE14" s="120"/>
+      <c r="AF14" s="120"/>
+      <c r="AG14" s="121"/>
+      <c r="AH14" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="67" t="s">
+      <c r="AI14" s="96"/>
+      <c r="AJ14" s="97"/>
+      <c r="AK14" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="AL14" s="68"/>
-      <c r="AM14" s="68"/>
-      <c r="AN14" s="68"/>
-      <c r="AO14" s="68"/>
-      <c r="AP14" s="68"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="68"/>
-      <c r="AS14" s="68"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="67" t="s">
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="120"/>
+      <c r="AO14" s="120"/>
+      <c r="AP14" s="120"/>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="120"/>
+      <c r="AS14" s="120"/>
+      <c r="AT14" s="121"/>
+      <c r="AU14" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="AV14" s="68"/>
-      <c r="AW14" s="68"/>
-      <c r="AX14" s="68"/>
-      <c r="AY14" s="68"/>
-      <c r="AZ14" s="68"/>
-      <c r="BA14" s="68"/>
-      <c r="BB14" s="68"/>
-      <c r="BC14" s="68"/>
-      <c r="BD14" s="69"/>
-      <c r="BE14" s="122" t="s">
+      <c r="AV14" s="120"/>
+      <c r="AW14" s="120"/>
+      <c r="AX14" s="120"/>
+      <c r="AY14" s="120"/>
+      <c r="AZ14" s="120"/>
+      <c r="BA14" s="120"/>
+      <c r="BB14" s="120"/>
+      <c r="BC14" s="120"/>
+      <c r="BD14" s="121"/>
+      <c r="BE14" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="BF14" s="123"/>
-      <c r="BG14" s="123"/>
-      <c r="BH14" s="123"/>
-      <c r="BI14" s="123"/>
-      <c r="BJ14" s="123"/>
-      <c r="BK14" s="123"/>
-      <c r="BL14" s="123"/>
-      <c r="BM14" s="123"/>
-      <c r="BN14" s="123"/>
-      <c r="BO14" s="123"/>
-      <c r="BP14" s="124"/>
-      <c r="BQ14" s="119"/>
-      <c r="BR14" s="120"/>
-      <c r="BS14" s="120"/>
-      <c r="BT14" s="120"/>
-      <c r="BU14" s="120"/>
-      <c r="BV14" s="120"/>
-      <c r="BW14" s="120"/>
-      <c r="BX14" s="120"/>
-      <c r="BY14" s="120"/>
-      <c r="BZ14" s="120"/>
-      <c r="CA14" s="120"/>
-      <c r="CB14" s="120"/>
-      <c r="CC14" s="120"/>
-      <c r="CD14" s="120"/>
-      <c r="CE14" s="120"/>
-      <c r="CF14" s="120"/>
-      <c r="CG14" s="120"/>
-      <c r="CH14" s="120"/>
-      <c r="CI14" s="121"/>
+      <c r="BF14" s="126"/>
+      <c r="BG14" s="126"/>
+      <c r="BH14" s="126"/>
+      <c r="BI14" s="126"/>
+      <c r="BJ14" s="126"/>
+      <c r="BK14" s="126"/>
+      <c r="BL14" s="126"/>
+      <c r="BM14" s="126"/>
+      <c r="BN14" s="126"/>
+      <c r="BO14" s="126"/>
+      <c r="BP14" s="127"/>
+      <c r="BQ14" s="122"/>
+      <c r="BR14" s="123"/>
+      <c r="BS14" s="123"/>
+      <c r="BT14" s="123"/>
+      <c r="BU14" s="123"/>
+      <c r="BV14" s="123"/>
+      <c r="BW14" s="123"/>
+      <c r="BX14" s="123"/>
+      <c r="BY14" s="123"/>
+      <c r="BZ14" s="123"/>
+      <c r="CA14" s="123"/>
+      <c r="CB14" s="123"/>
+      <c r="CC14" s="123"/>
+      <c r="CD14" s="123"/>
+      <c r="CE14" s="123"/>
+      <c r="CF14" s="123"/>
+      <c r="CG14" s="123"/>
+      <c r="CH14" s="123"/>
+      <c r="CI14" s="124"/>
     </row>
     <row r="15" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B15" s="64">
+      <c r="B15" s="89">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67" t="s">
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="70" t="s">
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="67" t="s">
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="70" t="s">
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="120"/>
+      <c r="AE15" s="120"/>
+      <c r="AF15" s="120"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="67" t="s">
+      <c r="AI15" s="96"/>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="67" t="s">
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="120"/>
+      <c r="AO15" s="120"/>
+      <c r="AP15" s="120"/>
+      <c r="AQ15" s="120"/>
+      <c r="AR15" s="120"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="121"/>
+      <c r="AU15" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="69"/>
-      <c r="BE15" s="67" t="s">
+      <c r="AV15" s="120"/>
+      <c r="AW15" s="120"/>
+      <c r="AX15" s="120"/>
+      <c r="AY15" s="120"/>
+      <c r="AZ15" s="120"/>
+      <c r="BA15" s="120"/>
+      <c r="BB15" s="120"/>
+      <c r="BC15" s="120"/>
+      <c r="BD15" s="121"/>
+      <c r="BE15" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="BF15" s="68"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="68"/>
-      <c r="BK15" s="68"/>
-      <c r="BL15" s="68"/>
-      <c r="BM15" s="68"/>
-      <c r="BN15" s="68"/>
-      <c r="BO15" s="68"/>
-      <c r="BP15" s="69"/>
-      <c r="BQ15" s="119"/>
-      <c r="BR15" s="120"/>
-      <c r="BS15" s="120"/>
-      <c r="BT15" s="120"/>
-      <c r="BU15" s="120"/>
-      <c r="BV15" s="120"/>
-      <c r="BW15" s="120"/>
-      <c r="BX15" s="120"/>
-      <c r="BY15" s="120"/>
-      <c r="BZ15" s="120"/>
-      <c r="CA15" s="120"/>
-      <c r="CB15" s="120"/>
-      <c r="CC15" s="120"/>
-      <c r="CD15" s="120"/>
-      <c r="CE15" s="120"/>
-      <c r="CF15" s="120"/>
-      <c r="CG15" s="120"/>
-      <c r="CH15" s="120"/>
-      <c r="CI15" s="121"/>
+      <c r="BF15" s="120"/>
+      <c r="BG15" s="120"/>
+      <c r="BH15" s="120"/>
+      <c r="BI15" s="120"/>
+      <c r="BJ15" s="120"/>
+      <c r="BK15" s="120"/>
+      <c r="BL15" s="120"/>
+      <c r="BM15" s="120"/>
+      <c r="BN15" s="120"/>
+      <c r="BO15" s="120"/>
+      <c r="BP15" s="121"/>
+      <c r="BQ15" s="122"/>
+      <c r="BR15" s="123"/>
+      <c r="BS15" s="123"/>
+      <c r="BT15" s="123"/>
+      <c r="BU15" s="123"/>
+      <c r="BV15" s="123"/>
+      <c r="BW15" s="123"/>
+      <c r="BX15" s="123"/>
+      <c r="BY15" s="123"/>
+      <c r="BZ15" s="123"/>
+      <c r="CA15" s="123"/>
+      <c r="CB15" s="123"/>
+      <c r="CC15" s="123"/>
+      <c r="CD15" s="123"/>
+      <c r="CE15" s="123"/>
+      <c r="CF15" s="123"/>
+      <c r="CG15" s="123"/>
+      <c r="CH15" s="123"/>
+      <c r="CI15" s="124"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1">
-      <c r="B16" s="64">
+      <c r="B16" s="89">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67" t="s">
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="67" t="s">
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="70" t="s">
+      <c r="AC16" s="120"/>
+      <c r="AD16" s="120"/>
+      <c r="AE16" s="120"/>
+      <c r="AF16" s="120"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="67" t="s">
+      <c r="AI16" s="96"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="68"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="67" t="s">
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="120"/>
+      <c r="AN16" s="120"/>
+      <c r="AO16" s="120"/>
+      <c r="AP16" s="120"/>
+      <c r="AQ16" s="120"/>
+      <c r="AR16" s="120"/>
+      <c r="AS16" s="120"/>
+      <c r="AT16" s="121"/>
+      <c r="AU16" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="69"/>
-      <c r="BE16" s="67" t="s">
+      <c r="AV16" s="120"/>
+      <c r="AW16" s="120"/>
+      <c r="AX16" s="120"/>
+      <c r="AY16" s="120"/>
+      <c r="AZ16" s="120"/>
+      <c r="BA16" s="120"/>
+      <c r="BB16" s="120"/>
+      <c r="BC16" s="120"/>
+      <c r="BD16" s="121"/>
+      <c r="BE16" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="BF16" s="68"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="68"/>
-      <c r="BJ16" s="68"/>
-      <c r="BK16" s="68"/>
-      <c r="BL16" s="68"/>
-      <c r="BM16" s="68"/>
-      <c r="BN16" s="68"/>
-      <c r="BO16" s="68"/>
-      <c r="BP16" s="69"/>
-      <c r="BQ16" s="119" t="s">
+      <c r="BF16" s="120"/>
+      <c r="BG16" s="120"/>
+      <c r="BH16" s="120"/>
+      <c r="BI16" s="120"/>
+      <c r="BJ16" s="120"/>
+      <c r="BK16" s="120"/>
+      <c r="BL16" s="120"/>
+      <c r="BM16" s="120"/>
+      <c r="BN16" s="120"/>
+      <c r="BO16" s="120"/>
+      <c r="BP16" s="121"/>
+      <c r="BQ16" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="BR16" s="120"/>
-      <c r="BS16" s="120"/>
-      <c r="BT16" s="120"/>
-      <c r="BU16" s="120"/>
-      <c r="BV16" s="120"/>
-      <c r="BW16" s="120"/>
-      <c r="BX16" s="120"/>
-      <c r="BY16" s="120"/>
-      <c r="BZ16" s="120"/>
-      <c r="CA16" s="120"/>
-      <c r="CB16" s="120"/>
-      <c r="CC16" s="120"/>
-      <c r="CD16" s="120"/>
-      <c r="CE16" s="120"/>
-      <c r="CF16" s="120"/>
-      <c r="CG16" s="120"/>
-      <c r="CH16" s="120"/>
-      <c r="CI16" s="121"/>
+      <c r="BR16" s="123"/>
+      <c r="BS16" s="123"/>
+      <c r="BT16" s="123"/>
+      <c r="BU16" s="123"/>
+      <c r="BV16" s="123"/>
+      <c r="BW16" s="123"/>
+      <c r="BX16" s="123"/>
+      <c r="BY16" s="123"/>
+      <c r="BZ16" s="123"/>
+      <c r="CA16" s="123"/>
+      <c r="CB16" s="123"/>
+      <c r="CC16" s="123"/>
+      <c r="CD16" s="123"/>
+      <c r="CE16" s="123"/>
+      <c r="CF16" s="123"/>
+      <c r="CG16" s="123"/>
+      <c r="CH16" s="123"/>
+      <c r="CI16" s="124"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="68"/>
-      <c r="AN17" s="68"/>
-      <c r="AO17" s="68"/>
-      <c r="AP17" s="68"/>
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="68"/>
-      <c r="AS17" s="68"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="67"/>
-      <c r="AV17" s="68"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="69"/>
-      <c r="BE17" s="67"/>
-      <c r="BF17" s="68"/>
-      <c r="BG17" s="68"/>
-      <c r="BH17" s="68"/>
-      <c r="BI17" s="68"/>
-      <c r="BJ17" s="68"/>
-      <c r="BK17" s="68"/>
-      <c r="BL17" s="68"/>
-      <c r="BM17" s="68"/>
-      <c r="BN17" s="68"/>
-      <c r="BO17" s="68"/>
-      <c r="BP17" s="69"/>
-      <c r="BQ17" s="119"/>
-      <c r="BR17" s="120"/>
-      <c r="BS17" s="120"/>
-      <c r="BT17" s="120"/>
-      <c r="BU17" s="120"/>
-      <c r="BV17" s="120"/>
-      <c r="BW17" s="120"/>
-      <c r="BX17" s="120"/>
-      <c r="BY17" s="120"/>
-      <c r="BZ17" s="120"/>
-      <c r="CA17" s="120"/>
-      <c r="CB17" s="120"/>
-      <c r="CC17" s="120"/>
-      <c r="CD17" s="120"/>
-      <c r="CE17" s="120"/>
-      <c r="CF17" s="120"/>
-      <c r="CG17" s="120"/>
-      <c r="CH17" s="120"/>
-      <c r="CI17" s="121"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="120"/>
+      <c r="AD17" s="120"/>
+      <c r="AE17" s="120"/>
+      <c r="AF17" s="120"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="119"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="120"/>
+      <c r="AO17" s="120"/>
+      <c r="AP17" s="120"/>
+      <c r="AQ17" s="120"/>
+      <c r="AR17" s="120"/>
+      <c r="AS17" s="120"/>
+      <c r="AT17" s="121"/>
+      <c r="AU17" s="119"/>
+      <c r="AV17" s="120"/>
+      <c r="AW17" s="120"/>
+      <c r="AX17" s="120"/>
+      <c r="AY17" s="120"/>
+      <c r="AZ17" s="120"/>
+      <c r="BA17" s="120"/>
+      <c r="BB17" s="120"/>
+      <c r="BC17" s="120"/>
+      <c r="BD17" s="121"/>
+      <c r="BE17" s="119"/>
+      <c r="BF17" s="120"/>
+      <c r="BG17" s="120"/>
+      <c r="BH17" s="120"/>
+      <c r="BI17" s="120"/>
+      <c r="BJ17" s="120"/>
+      <c r="BK17" s="120"/>
+      <c r="BL17" s="120"/>
+      <c r="BM17" s="120"/>
+      <c r="BN17" s="120"/>
+      <c r="BO17" s="120"/>
+      <c r="BP17" s="121"/>
+      <c r="BQ17" s="122"/>
+      <c r="BR17" s="123"/>
+      <c r="BS17" s="123"/>
+      <c r="BT17" s="123"/>
+      <c r="BU17" s="123"/>
+      <c r="BV17" s="123"/>
+      <c r="BW17" s="123"/>
+      <c r="BX17" s="123"/>
+      <c r="BY17" s="123"/>
+      <c r="BZ17" s="123"/>
+      <c r="CA17" s="123"/>
+      <c r="CB17" s="123"/>
+      <c r="CC17" s="123"/>
+      <c r="CD17" s="123"/>
+      <c r="CE17" s="123"/>
+      <c r="CF17" s="123"/>
+      <c r="CG17" s="123"/>
+      <c r="CH17" s="123"/>
+      <c r="CI17" s="124"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="68"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="68"/>
-      <c r="AM18" s="68"/>
-      <c r="AN18" s="68"/>
-      <c r="AO18" s="68"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="68"/>
-      <c r="AS18" s="68"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="67"/>
-      <c r="AV18" s="68"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="68"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="68"/>
-      <c r="BA18" s="68"/>
-      <c r="BB18" s="68"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="67"/>
-      <c r="BF18" s="68"/>
-      <c r="BG18" s="68"/>
-      <c r="BH18" s="68"/>
-      <c r="BI18" s="68"/>
-      <c r="BJ18" s="68"/>
-      <c r="BK18" s="68"/>
-      <c r="BL18" s="68"/>
-      <c r="BM18" s="68"/>
-      <c r="BN18" s="68"/>
-      <c r="BO18" s="68"/>
-      <c r="BP18" s="69"/>
-      <c r="BQ18" s="119"/>
-      <c r="BR18" s="120"/>
-      <c r="BS18" s="120"/>
-      <c r="BT18" s="120"/>
-      <c r="BU18" s="120"/>
-      <c r="BV18" s="120"/>
-      <c r="BW18" s="120"/>
-      <c r="BX18" s="120"/>
-      <c r="BY18" s="120"/>
-      <c r="BZ18" s="120"/>
-      <c r="CA18" s="120"/>
-      <c r="CB18" s="120"/>
-      <c r="CC18" s="120"/>
-      <c r="CD18" s="120"/>
-      <c r="CE18" s="120"/>
-      <c r="CF18" s="120"/>
-      <c r="CG18" s="120"/>
-      <c r="CH18" s="120"/>
-      <c r="CI18" s="121"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="120"/>
+      <c r="AD18" s="120"/>
+      <c r="AE18" s="120"/>
+      <c r="AF18" s="120"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="119"/>
+      <c r="AL18" s="120"/>
+      <c r="AM18" s="120"/>
+      <c r="AN18" s="120"/>
+      <c r="AO18" s="120"/>
+      <c r="AP18" s="120"/>
+      <c r="AQ18" s="120"/>
+      <c r="AR18" s="120"/>
+      <c r="AS18" s="120"/>
+      <c r="AT18" s="121"/>
+      <c r="AU18" s="119"/>
+      <c r="AV18" s="120"/>
+      <c r="AW18" s="120"/>
+      <c r="AX18" s="120"/>
+      <c r="AY18" s="120"/>
+      <c r="AZ18" s="120"/>
+      <c r="BA18" s="120"/>
+      <c r="BB18" s="120"/>
+      <c r="BC18" s="120"/>
+      <c r="BD18" s="121"/>
+      <c r="BE18" s="119"/>
+      <c r="BF18" s="120"/>
+      <c r="BG18" s="120"/>
+      <c r="BH18" s="120"/>
+      <c r="BI18" s="120"/>
+      <c r="BJ18" s="120"/>
+      <c r="BK18" s="120"/>
+      <c r="BL18" s="120"/>
+      <c r="BM18" s="120"/>
+      <c r="BN18" s="120"/>
+      <c r="BO18" s="120"/>
+      <c r="BP18" s="121"/>
+      <c r="BQ18" s="122"/>
+      <c r="BR18" s="123"/>
+      <c r="BS18" s="123"/>
+      <c r="BT18" s="123"/>
+      <c r="BU18" s="123"/>
+      <c r="BV18" s="123"/>
+      <c r="BW18" s="123"/>
+      <c r="BX18" s="123"/>
+      <c r="BY18" s="123"/>
+      <c r="BZ18" s="123"/>
+      <c r="CA18" s="123"/>
+      <c r="CB18" s="123"/>
+      <c r="CC18" s="123"/>
+      <c r="CD18" s="123"/>
+      <c r="CE18" s="123"/>
+      <c r="CF18" s="123"/>
+      <c r="CG18" s="123"/>
+      <c r="CH18" s="123"/>
+      <c r="CI18" s="124"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1">
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="68"/>
-      <c r="AM19" s="68"/>
-      <c r="AN19" s="68"/>
-      <c r="AO19" s="68"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="74"/>
-      <c r="AU19" s="67"/>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="68"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="69"/>
-      <c r="BE19" s="67"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="68"/>
-      <c r="BJ19" s="68"/>
-      <c r="BK19" s="68"/>
-      <c r="BL19" s="68"/>
-      <c r="BM19" s="68"/>
-      <c r="BN19" s="68"/>
-      <c r="BO19" s="68"/>
-      <c r="BP19" s="69"/>
-      <c r="BQ19" s="119"/>
-      <c r="BR19" s="120"/>
-      <c r="BS19" s="120"/>
-      <c r="BT19" s="120"/>
-      <c r="BU19" s="120"/>
-      <c r="BV19" s="120"/>
-      <c r="BW19" s="120"/>
-      <c r="BX19" s="120"/>
-      <c r="BY19" s="120"/>
-      <c r="BZ19" s="120"/>
-      <c r="CA19" s="120"/>
-      <c r="CB19" s="120"/>
-      <c r="CC19" s="120"/>
-      <c r="CD19" s="120"/>
-      <c r="CE19" s="120"/>
-      <c r="CF19" s="120"/>
-      <c r="CG19" s="120"/>
-      <c r="CH19" s="120"/>
-      <c r="CI19" s="121"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="120"/>
+      <c r="AD19" s="120"/>
+      <c r="AE19" s="120"/>
+      <c r="AF19" s="120"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="97"/>
+      <c r="AK19" s="119"/>
+      <c r="AL19" s="120"/>
+      <c r="AM19" s="120"/>
+      <c r="AN19" s="120"/>
+      <c r="AO19" s="120"/>
+      <c r="AP19" s="120"/>
+      <c r="AQ19" s="120"/>
+      <c r="AR19" s="101"/>
+      <c r="AS19" s="101"/>
+      <c r="AT19" s="102"/>
+      <c r="AU19" s="119"/>
+      <c r="AV19" s="120"/>
+      <c r="AW19" s="120"/>
+      <c r="AX19" s="120"/>
+      <c r="AY19" s="120"/>
+      <c r="AZ19" s="120"/>
+      <c r="BA19" s="120"/>
+      <c r="BB19" s="120"/>
+      <c r="BC19" s="120"/>
+      <c r="BD19" s="121"/>
+      <c r="BE19" s="119"/>
+      <c r="BF19" s="120"/>
+      <c r="BG19" s="120"/>
+      <c r="BH19" s="120"/>
+      <c r="BI19" s="120"/>
+      <c r="BJ19" s="120"/>
+      <c r="BK19" s="120"/>
+      <c r="BL19" s="120"/>
+      <c r="BM19" s="120"/>
+      <c r="BN19" s="120"/>
+      <c r="BO19" s="120"/>
+      <c r="BP19" s="121"/>
+      <c r="BQ19" s="122"/>
+      <c r="BR19" s="123"/>
+      <c r="BS19" s="123"/>
+      <c r="BT19" s="123"/>
+      <c r="BU19" s="123"/>
+      <c r="BV19" s="123"/>
+      <c r="BW19" s="123"/>
+      <c r="BX19" s="123"/>
+      <c r="BY19" s="123"/>
+      <c r="BZ19" s="123"/>
+      <c r="CA19" s="123"/>
+      <c r="CB19" s="123"/>
+      <c r="CC19" s="123"/>
+      <c r="CD19" s="123"/>
+      <c r="CE19" s="123"/>
+      <c r="CF19" s="123"/>
+      <c r="CG19" s="123"/>
+      <c r="CH19" s="123"/>
+      <c r="CI19" s="124"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="70"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="74"/>
-      <c r="AU20" s="67"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="69"/>
-      <c r="BE20" s="67"/>
-      <c r="BF20" s="68"/>
-      <c r="BG20" s="68"/>
-      <c r="BH20" s="68"/>
-      <c r="BI20" s="68"/>
-      <c r="BJ20" s="68"/>
-      <c r="BK20" s="68"/>
-      <c r="BL20" s="68"/>
-      <c r="BM20" s="68"/>
-      <c r="BN20" s="68"/>
-      <c r="BO20" s="68"/>
-      <c r="BP20" s="69"/>
-      <c r="BQ20" s="119"/>
-      <c r="BR20" s="120"/>
-      <c r="BS20" s="120"/>
-      <c r="BT20" s="120"/>
-      <c r="BU20" s="120"/>
-      <c r="BV20" s="120"/>
-      <c r="BW20" s="120"/>
-      <c r="BX20" s="120"/>
-      <c r="BY20" s="120"/>
-      <c r="BZ20" s="120"/>
-      <c r="CA20" s="120"/>
-      <c r="CB20" s="120"/>
-      <c r="CC20" s="120"/>
-      <c r="CD20" s="120"/>
-      <c r="CE20" s="120"/>
-      <c r="CF20" s="120"/>
-      <c r="CG20" s="120"/>
-      <c r="CH20" s="120"/>
-      <c r="CI20" s="121"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="119"/>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="119"/>
+      <c r="AL20" s="120"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="120"/>
+      <c r="AO20" s="120"/>
+      <c r="AP20" s="120"/>
+      <c r="AQ20" s="120"/>
+      <c r="AR20" s="101"/>
+      <c r="AS20" s="101"/>
+      <c r="AT20" s="102"/>
+      <c r="AU20" s="119"/>
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="120"/>
+      <c r="AX20" s="120"/>
+      <c r="AY20" s="120"/>
+      <c r="AZ20" s="120"/>
+      <c r="BA20" s="120"/>
+      <c r="BB20" s="120"/>
+      <c r="BC20" s="120"/>
+      <c r="BD20" s="121"/>
+      <c r="BE20" s="119"/>
+      <c r="BF20" s="120"/>
+      <c r="BG20" s="120"/>
+      <c r="BH20" s="120"/>
+      <c r="BI20" s="120"/>
+      <c r="BJ20" s="120"/>
+      <c r="BK20" s="120"/>
+      <c r="BL20" s="120"/>
+      <c r="BM20" s="120"/>
+      <c r="BN20" s="120"/>
+      <c r="BO20" s="120"/>
+      <c r="BP20" s="121"/>
+      <c r="BQ20" s="122"/>
+      <c r="BR20" s="123"/>
+      <c r="BS20" s="123"/>
+      <c r="BT20" s="123"/>
+      <c r="BU20" s="123"/>
+      <c r="BV20" s="123"/>
+      <c r="BW20" s="123"/>
+      <c r="BX20" s="123"/>
+      <c r="BY20" s="123"/>
+      <c r="BZ20" s="123"/>
+      <c r="CA20" s="123"/>
+      <c r="CB20" s="123"/>
+      <c r="CC20" s="123"/>
+      <c r="CD20" s="123"/>
+      <c r="CE20" s="123"/>
+      <c r="CF20" s="123"/>
+      <c r="CG20" s="123"/>
+      <c r="CH20" s="123"/>
+      <c r="CI20" s="124"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="74"/>
-      <c r="AU21" s="67"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="69"/>
-      <c r="BE21" s="67"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
-      <c r="BL21" s="68"/>
-      <c r="BM21" s="68"/>
-      <c r="BN21" s="68"/>
-      <c r="BO21" s="68"/>
-      <c r="BP21" s="69"/>
-      <c r="BQ21" s="119"/>
-      <c r="BR21" s="120"/>
-      <c r="BS21" s="120"/>
-      <c r="BT21" s="120"/>
-      <c r="BU21" s="120"/>
-      <c r="BV21" s="120"/>
-      <c r="BW21" s="120"/>
-      <c r="BX21" s="120"/>
-      <c r="BY21" s="120"/>
-      <c r="BZ21" s="120"/>
-      <c r="CA21" s="120"/>
-      <c r="CB21" s="120"/>
-      <c r="CC21" s="120"/>
-      <c r="CD21" s="120"/>
-      <c r="CE21" s="120"/>
-      <c r="CF21" s="120"/>
-      <c r="CG21" s="120"/>
-      <c r="CH21" s="120"/>
-      <c r="CI21" s="121"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="119"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="120"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
+      <c r="AJ21" s="97"/>
+      <c r="AK21" s="119"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="120"/>
+      <c r="AO21" s="120"/>
+      <c r="AP21" s="120"/>
+      <c r="AQ21" s="120"/>
+      <c r="AR21" s="101"/>
+      <c r="AS21" s="101"/>
+      <c r="AT21" s="102"/>
+      <c r="AU21" s="119"/>
+      <c r="AV21" s="120"/>
+      <c r="AW21" s="120"/>
+      <c r="AX21" s="120"/>
+      <c r="AY21" s="120"/>
+      <c r="AZ21" s="120"/>
+      <c r="BA21" s="120"/>
+      <c r="BB21" s="120"/>
+      <c r="BC21" s="120"/>
+      <c r="BD21" s="121"/>
+      <c r="BE21" s="119"/>
+      <c r="BF21" s="120"/>
+      <c r="BG21" s="120"/>
+      <c r="BH21" s="120"/>
+      <c r="BI21" s="120"/>
+      <c r="BJ21" s="120"/>
+      <c r="BK21" s="120"/>
+      <c r="BL21" s="120"/>
+      <c r="BM21" s="120"/>
+      <c r="BN21" s="120"/>
+      <c r="BO21" s="120"/>
+      <c r="BP21" s="121"/>
+      <c r="BQ21" s="122"/>
+      <c r="BR21" s="123"/>
+      <c r="BS21" s="123"/>
+      <c r="BT21" s="123"/>
+      <c r="BU21" s="123"/>
+      <c r="BV21" s="123"/>
+      <c r="BW21" s="123"/>
+      <c r="BX21" s="123"/>
+      <c r="BY21" s="123"/>
+      <c r="BZ21" s="123"/>
+      <c r="CA21" s="123"/>
+      <c r="CB21" s="123"/>
+      <c r="CC21" s="123"/>
+      <c r="CD21" s="123"/>
+      <c r="CE21" s="123"/>
+      <c r="CF21" s="123"/>
+      <c r="CG21" s="123"/>
+      <c r="CH21" s="123"/>
+      <c r="CI21" s="124"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="70"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="68"/>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="68"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="74"/>
-      <c r="AU22" s="67"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="69"/>
-      <c r="BE22" s="67"/>
-      <c r="BF22" s="68"/>
-      <c r="BG22" s="68"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="68"/>
-      <c r="BJ22" s="68"/>
-      <c r="BK22" s="68"/>
-      <c r="BL22" s="68"/>
-      <c r="BM22" s="68"/>
-      <c r="BN22" s="68"/>
-      <c r="BO22" s="68"/>
-      <c r="BP22" s="69"/>
-      <c r="BQ22" s="119"/>
-      <c r="BR22" s="120"/>
-      <c r="BS22" s="120"/>
-      <c r="BT22" s="120"/>
-      <c r="BU22" s="120"/>
-      <c r="BV22" s="120"/>
-      <c r="BW22" s="120"/>
-      <c r="BX22" s="120"/>
-      <c r="BY22" s="120"/>
-      <c r="BZ22" s="120"/>
-      <c r="CA22" s="120"/>
-      <c r="CB22" s="120"/>
-      <c r="CC22" s="120"/>
-      <c r="CD22" s="120"/>
-      <c r="CE22" s="120"/>
-      <c r="CF22" s="120"/>
-      <c r="CG22" s="120"/>
-      <c r="CH22" s="120"/>
-      <c r="CI22" s="121"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="120"/>
+      <c r="AF22" s="120"/>
+      <c r="AG22" s="121"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="119"/>
+      <c r="AL22" s="120"/>
+      <c r="AM22" s="120"/>
+      <c r="AN22" s="120"/>
+      <c r="AO22" s="120"/>
+      <c r="AP22" s="120"/>
+      <c r="AQ22" s="120"/>
+      <c r="AR22" s="101"/>
+      <c r="AS22" s="101"/>
+      <c r="AT22" s="102"/>
+      <c r="AU22" s="119"/>
+      <c r="AV22" s="120"/>
+      <c r="AW22" s="120"/>
+      <c r="AX22" s="120"/>
+      <c r="AY22" s="120"/>
+      <c r="AZ22" s="120"/>
+      <c r="BA22" s="120"/>
+      <c r="BB22" s="120"/>
+      <c r="BC22" s="120"/>
+      <c r="BD22" s="121"/>
+      <c r="BE22" s="119"/>
+      <c r="BF22" s="120"/>
+      <c r="BG22" s="120"/>
+      <c r="BH22" s="120"/>
+      <c r="BI22" s="120"/>
+      <c r="BJ22" s="120"/>
+      <c r="BK22" s="120"/>
+      <c r="BL22" s="120"/>
+      <c r="BM22" s="120"/>
+      <c r="BN22" s="120"/>
+      <c r="BO22" s="120"/>
+      <c r="BP22" s="121"/>
+      <c r="BQ22" s="122"/>
+      <c r="BR22" s="123"/>
+      <c r="BS22" s="123"/>
+      <c r="BT22" s="123"/>
+      <c r="BU22" s="123"/>
+      <c r="BV22" s="123"/>
+      <c r="BW22" s="123"/>
+      <c r="BX22" s="123"/>
+      <c r="BY22" s="123"/>
+      <c r="BZ22" s="123"/>
+      <c r="CA22" s="123"/>
+      <c r="CB22" s="123"/>
+      <c r="CC22" s="123"/>
+      <c r="CD22" s="123"/>
+      <c r="CE22" s="123"/>
+      <c r="CF22" s="123"/>
+      <c r="CG22" s="123"/>
+      <c r="CH22" s="123"/>
+      <c r="CI22" s="124"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1">
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="102"/>
-      <c r="AJ23" s="103"/>
-      <c r="AK23" s="92"/>
-      <c r="AL23" s="93"/>
-      <c r="AM23" s="93"/>
-      <c r="AN23" s="93"/>
-      <c r="AO23" s="93"/>
-      <c r="AP23" s="93"/>
-      <c r="AQ23" s="93"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="74"/>
-      <c r="AU23" s="92"/>
-      <c r="AV23" s="93"/>
-      <c r="AW23" s="93"/>
-      <c r="AX23" s="93"/>
-      <c r="AY23" s="93"/>
-      <c r="AZ23" s="93"/>
-      <c r="BA23" s="93"/>
-      <c r="BB23" s="93"/>
-      <c r="BC23" s="93"/>
-      <c r="BD23" s="94"/>
-      <c r="BE23" s="92"/>
-      <c r="BF23" s="93"/>
-      <c r="BG23" s="93"/>
-      <c r="BH23" s="93"/>
-      <c r="BI23" s="93"/>
-      <c r="BJ23" s="93"/>
-      <c r="BK23" s="93"/>
-      <c r="BL23" s="93"/>
-      <c r="BM23" s="93"/>
-      <c r="BN23" s="93"/>
-      <c r="BO23" s="93"/>
-      <c r="BP23" s="94"/>
-      <c r="BQ23" s="95"/>
-      <c r="BR23" s="96"/>
-      <c r="BS23" s="96"/>
-      <c r="BT23" s="96"/>
-      <c r="BU23" s="96"/>
-      <c r="BV23" s="96"/>
-      <c r="BW23" s="96"/>
-      <c r="BX23" s="96"/>
-      <c r="BY23" s="96"/>
-      <c r="BZ23" s="96"/>
-      <c r="CA23" s="96"/>
-      <c r="CB23" s="96"/>
-      <c r="CC23" s="96"/>
-      <c r="CD23" s="96"/>
-      <c r="CE23" s="96"/>
-      <c r="CF23" s="96"/>
-      <c r="CG23" s="96"/>
-      <c r="CH23" s="96"/>
-      <c r="CI23" s="97"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="130"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="138"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="119"/>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="120"/>
+      <c r="AF23" s="120"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="137"/>
+      <c r="AI23" s="138"/>
+      <c r="AJ23" s="139"/>
+      <c r="AK23" s="128"/>
+      <c r="AL23" s="129"/>
+      <c r="AM23" s="129"/>
+      <c r="AN23" s="129"/>
+      <c r="AO23" s="129"/>
+      <c r="AP23" s="129"/>
+      <c r="AQ23" s="129"/>
+      <c r="AR23" s="101"/>
+      <c r="AS23" s="101"/>
+      <c r="AT23" s="102"/>
+      <c r="AU23" s="128"/>
+      <c r="AV23" s="129"/>
+      <c r="AW23" s="129"/>
+      <c r="AX23" s="129"/>
+      <c r="AY23" s="129"/>
+      <c r="AZ23" s="129"/>
+      <c r="BA23" s="129"/>
+      <c r="BB23" s="129"/>
+      <c r="BC23" s="129"/>
+      <c r="BD23" s="130"/>
+      <c r="BE23" s="128"/>
+      <c r="BF23" s="129"/>
+      <c r="BG23" s="129"/>
+      <c r="BH23" s="129"/>
+      <c r="BI23" s="129"/>
+      <c r="BJ23" s="129"/>
+      <c r="BK23" s="129"/>
+      <c r="BL23" s="129"/>
+      <c r="BM23" s="129"/>
+      <c r="BN23" s="129"/>
+      <c r="BO23" s="129"/>
+      <c r="BP23" s="130"/>
+      <c r="BQ23" s="131"/>
+      <c r="BR23" s="132"/>
+      <c r="BS23" s="132"/>
+      <c r="BT23" s="132"/>
+      <c r="BU23" s="132"/>
+      <c r="BV23" s="132"/>
+      <c r="BW23" s="132"/>
+      <c r="BX23" s="132"/>
+      <c r="BY23" s="132"/>
+      <c r="BZ23" s="132"/>
+      <c r="CA23" s="132"/>
+      <c r="CB23" s="132"/>
+      <c r="CC23" s="132"/>
+      <c r="CD23" s="132"/>
+      <c r="CE23" s="132"/>
+      <c r="CF23" s="132"/>
+      <c r="CG23" s="132"/>
+      <c r="CH23" s="132"/>
+      <c r="CI23" s="133"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1">
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="94"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="94"/>
-      <c r="AK24" s="92"/>
-      <c r="AL24" s="93"/>
-      <c r="AM24" s="93"/>
-      <c r="AN24" s="93"/>
-      <c r="AO24" s="93"/>
-      <c r="AP24" s="93"/>
-      <c r="AQ24" s="93"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
-      <c r="AT24" s="74"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="93"/>
-      <c r="AW24" s="93"/>
-      <c r="AX24" s="93"/>
-      <c r="AY24" s="93"/>
-      <c r="AZ24" s="93"/>
-      <c r="BA24" s="93"/>
-      <c r="BB24" s="93"/>
-      <c r="BC24" s="93"/>
-      <c r="BD24" s="94"/>
-      <c r="BE24" s="92"/>
-      <c r="BF24" s="93"/>
-      <c r="BG24" s="93"/>
-      <c r="BH24" s="93"/>
-      <c r="BI24" s="93"/>
-      <c r="BJ24" s="93"/>
-      <c r="BK24" s="93"/>
-      <c r="BL24" s="93"/>
-      <c r="BM24" s="93"/>
-      <c r="BN24" s="93"/>
-      <c r="BO24" s="93"/>
-      <c r="BP24" s="94"/>
-      <c r="BQ24" s="116"/>
-      <c r="BR24" s="117"/>
-      <c r="BS24" s="117"/>
-      <c r="BT24" s="117"/>
-      <c r="BU24" s="117"/>
-      <c r="BV24" s="117"/>
-      <c r="BW24" s="117"/>
-      <c r="BX24" s="117"/>
-      <c r="BY24" s="117"/>
-      <c r="BZ24" s="117"/>
-      <c r="CA24" s="117"/>
-      <c r="CB24" s="117"/>
-      <c r="CC24" s="117"/>
-      <c r="CD24" s="117"/>
-      <c r="CE24" s="117"/>
-      <c r="CF24" s="117"/>
-      <c r="CG24" s="117"/>
-      <c r="CH24" s="117"/>
-      <c r="CI24" s="118"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="138"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="129"/>
+      <c r="AD24" s="129"/>
+      <c r="AE24" s="129"/>
+      <c r="AF24" s="129"/>
+      <c r="AG24" s="130"/>
+      <c r="AH24" s="128"/>
+      <c r="AI24" s="129"/>
+      <c r="AJ24" s="130"/>
+      <c r="AK24" s="128"/>
+      <c r="AL24" s="129"/>
+      <c r="AM24" s="129"/>
+      <c r="AN24" s="129"/>
+      <c r="AO24" s="129"/>
+      <c r="AP24" s="129"/>
+      <c r="AQ24" s="129"/>
+      <c r="AR24" s="101"/>
+      <c r="AS24" s="101"/>
+      <c r="AT24" s="102"/>
+      <c r="AU24" s="128"/>
+      <c r="AV24" s="129"/>
+      <c r="AW24" s="129"/>
+      <c r="AX24" s="129"/>
+      <c r="AY24" s="129"/>
+      <c r="AZ24" s="129"/>
+      <c r="BA24" s="129"/>
+      <c r="BB24" s="129"/>
+      <c r="BC24" s="129"/>
+      <c r="BD24" s="130"/>
+      <c r="BE24" s="128"/>
+      <c r="BF24" s="129"/>
+      <c r="BG24" s="129"/>
+      <c r="BH24" s="129"/>
+      <c r="BI24" s="129"/>
+      <c r="BJ24" s="129"/>
+      <c r="BK24" s="129"/>
+      <c r="BL24" s="129"/>
+      <c r="BM24" s="129"/>
+      <c r="BN24" s="129"/>
+      <c r="BO24" s="129"/>
+      <c r="BP24" s="130"/>
+      <c r="BQ24" s="140"/>
+      <c r="BR24" s="141"/>
+      <c r="BS24" s="141"/>
+      <c r="BT24" s="141"/>
+      <c r="BU24" s="141"/>
+      <c r="BV24" s="141"/>
+      <c r="BW24" s="141"/>
+      <c r="BX24" s="141"/>
+      <c r="BY24" s="141"/>
+      <c r="BZ24" s="141"/>
+      <c r="CA24" s="141"/>
+      <c r="CB24" s="141"/>
+      <c r="CC24" s="141"/>
+      <c r="CD24" s="141"/>
+      <c r="CE24" s="141"/>
+      <c r="CF24" s="141"/>
+      <c r="CG24" s="141"/>
+      <c r="CH24" s="141"/>
+      <c r="CI24" s="142"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1">
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="105"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="105"/>
-      <c r="AD25" s="105"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="106"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="102"/>
-      <c r="AJ25" s="103"/>
-      <c r="AK25" s="92"/>
-      <c r="AL25" s="93"/>
-      <c r="AM25" s="93"/>
-      <c r="AN25" s="93"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="93"/>
-      <c r="AQ25" s="93"/>
-      <c r="AR25" s="73"/>
-      <c r="AS25" s="73"/>
-      <c r="AT25" s="74"/>
-      <c r="AU25" s="92"/>
-      <c r="AV25" s="93"/>
-      <c r="AW25" s="93"/>
-      <c r="AX25" s="93"/>
-      <c r="AY25" s="93"/>
-      <c r="AZ25" s="93"/>
-      <c r="BA25" s="93"/>
-      <c r="BB25" s="93"/>
-      <c r="BC25" s="93"/>
-      <c r="BD25" s="94"/>
-      <c r="BE25" s="92"/>
-      <c r="BF25" s="93"/>
-      <c r="BG25" s="93"/>
-      <c r="BH25" s="93"/>
-      <c r="BI25" s="93"/>
-      <c r="BJ25" s="93"/>
-      <c r="BK25" s="93"/>
-      <c r="BL25" s="93"/>
-      <c r="BM25" s="93"/>
-      <c r="BN25" s="93"/>
-      <c r="BO25" s="93"/>
-      <c r="BP25" s="94"/>
-      <c r="BQ25" s="113"/>
-      <c r="BR25" s="114"/>
-      <c r="BS25" s="114"/>
-      <c r="BT25" s="114"/>
-      <c r="BU25" s="114"/>
-      <c r="BV25" s="114"/>
-      <c r="BW25" s="114"/>
-      <c r="BX25" s="114"/>
-      <c r="BY25" s="114"/>
-      <c r="BZ25" s="114"/>
-      <c r="CA25" s="114"/>
-      <c r="CB25" s="114"/>
-      <c r="CC25" s="114"/>
-      <c r="CD25" s="114"/>
-      <c r="CE25" s="114"/>
-      <c r="CF25" s="114"/>
-      <c r="CG25" s="114"/>
-      <c r="CH25" s="114"/>
-      <c r="CI25" s="115"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="147"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="148"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="138"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="146"/>
+      <c r="AC25" s="147"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="147"/>
+      <c r="AF25" s="147"/>
+      <c r="AG25" s="148"/>
+      <c r="AH25" s="137"/>
+      <c r="AI25" s="138"/>
+      <c r="AJ25" s="139"/>
+      <c r="AK25" s="128"/>
+      <c r="AL25" s="129"/>
+      <c r="AM25" s="129"/>
+      <c r="AN25" s="129"/>
+      <c r="AO25" s="129"/>
+      <c r="AP25" s="129"/>
+      <c r="AQ25" s="129"/>
+      <c r="AR25" s="101"/>
+      <c r="AS25" s="101"/>
+      <c r="AT25" s="102"/>
+      <c r="AU25" s="128"/>
+      <c r="AV25" s="129"/>
+      <c r="AW25" s="129"/>
+      <c r="AX25" s="129"/>
+      <c r="AY25" s="129"/>
+      <c r="AZ25" s="129"/>
+      <c r="BA25" s="129"/>
+      <c r="BB25" s="129"/>
+      <c r="BC25" s="129"/>
+      <c r="BD25" s="130"/>
+      <c r="BE25" s="128"/>
+      <c r="BF25" s="129"/>
+      <c r="BG25" s="129"/>
+      <c r="BH25" s="129"/>
+      <c r="BI25" s="129"/>
+      <c r="BJ25" s="129"/>
+      <c r="BK25" s="129"/>
+      <c r="BL25" s="129"/>
+      <c r="BM25" s="129"/>
+      <c r="BN25" s="129"/>
+      <c r="BO25" s="129"/>
+      <c r="BP25" s="130"/>
+      <c r="BQ25" s="143"/>
+      <c r="BR25" s="144"/>
+      <c r="BS25" s="144"/>
+      <c r="BT25" s="144"/>
+      <c r="BU25" s="144"/>
+      <c r="BV25" s="144"/>
+      <c r="BW25" s="144"/>
+      <c r="BX25" s="144"/>
+      <c r="BY25" s="144"/>
+      <c r="BZ25" s="144"/>
+      <c r="CA25" s="144"/>
+      <c r="CB25" s="144"/>
+      <c r="CC25" s="144"/>
+      <c r="CD25" s="144"/>
+      <c r="CE25" s="144"/>
+      <c r="CF25" s="144"/>
+      <c r="CG25" s="144"/>
+      <c r="CH25" s="144"/>
+      <c r="CI25" s="145"/>
     </row>
     <row r="26" spans="2:87" ht="18" customHeight="1">
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="105"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="111"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="105"/>
-      <c r="AD26" s="105"/>
-      <c r="AE26" s="105"/>
-      <c r="AF26" s="105"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="111"/>
-      <c r="AJ26" s="112"/>
-      <c r="AK26" s="104"/>
-      <c r="AL26" s="105"/>
-      <c r="AM26" s="105"/>
-      <c r="AN26" s="105"/>
-      <c r="AO26" s="105"/>
-      <c r="AP26" s="105"/>
-      <c r="AQ26" s="105"/>
-      <c r="AR26" s="73"/>
-      <c r="AS26" s="73"/>
-      <c r="AT26" s="74"/>
-      <c r="AU26" s="104"/>
-      <c r="AV26" s="105"/>
-      <c r="AW26" s="105"/>
-      <c r="AX26" s="105"/>
-      <c r="AY26" s="105"/>
-      <c r="AZ26" s="105"/>
-      <c r="BA26" s="105"/>
-      <c r="BB26" s="105"/>
-      <c r="BC26" s="105"/>
-      <c r="BD26" s="106"/>
-      <c r="BE26" s="104"/>
-      <c r="BF26" s="105"/>
-      <c r="BG26" s="105"/>
-      <c r="BH26" s="105"/>
-      <c r="BI26" s="105"/>
-      <c r="BJ26" s="105"/>
-      <c r="BK26" s="105"/>
-      <c r="BL26" s="105"/>
-      <c r="BM26" s="105"/>
-      <c r="BN26" s="105"/>
-      <c r="BO26" s="105"/>
-      <c r="BP26" s="106"/>
-      <c r="BQ26" s="107"/>
-      <c r="BR26" s="108"/>
-      <c r="BS26" s="108"/>
-      <c r="BT26" s="108"/>
-      <c r="BU26" s="108"/>
-      <c r="BV26" s="108"/>
-      <c r="BW26" s="108"/>
-      <c r="BX26" s="108"/>
-      <c r="BY26" s="108"/>
-      <c r="BZ26" s="108"/>
-      <c r="CA26" s="108"/>
-      <c r="CB26" s="108"/>
-      <c r="CC26" s="108"/>
-      <c r="CD26" s="108"/>
-      <c r="CE26" s="108"/>
-      <c r="CF26" s="108"/>
-      <c r="CG26" s="108"/>
-      <c r="CH26" s="108"/>
-      <c r="CI26" s="109"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="147"/>
+      <c r="O26" s="147"/>
+      <c r="P26" s="147"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="148"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="153"/>
+      <c r="AA26" s="154"/>
+      <c r="AB26" s="146"/>
+      <c r="AC26" s="147"/>
+      <c r="AD26" s="147"/>
+      <c r="AE26" s="147"/>
+      <c r="AF26" s="147"/>
+      <c r="AG26" s="148"/>
+      <c r="AH26" s="152"/>
+      <c r="AI26" s="153"/>
+      <c r="AJ26" s="154"/>
+      <c r="AK26" s="146"/>
+      <c r="AL26" s="147"/>
+      <c r="AM26" s="147"/>
+      <c r="AN26" s="147"/>
+      <c r="AO26" s="147"/>
+      <c r="AP26" s="147"/>
+      <c r="AQ26" s="147"/>
+      <c r="AR26" s="101"/>
+      <c r="AS26" s="101"/>
+      <c r="AT26" s="102"/>
+      <c r="AU26" s="146"/>
+      <c r="AV26" s="147"/>
+      <c r="AW26" s="147"/>
+      <c r="AX26" s="147"/>
+      <c r="AY26" s="147"/>
+      <c r="AZ26" s="147"/>
+      <c r="BA26" s="147"/>
+      <c r="BB26" s="147"/>
+      <c r="BC26" s="147"/>
+      <c r="BD26" s="148"/>
+      <c r="BE26" s="146"/>
+      <c r="BF26" s="147"/>
+      <c r="BG26" s="147"/>
+      <c r="BH26" s="147"/>
+      <c r="BI26" s="147"/>
+      <c r="BJ26" s="147"/>
+      <c r="BK26" s="147"/>
+      <c r="BL26" s="147"/>
+      <c r="BM26" s="147"/>
+      <c r="BN26" s="147"/>
+      <c r="BO26" s="147"/>
+      <c r="BP26" s="148"/>
+      <c r="BQ26" s="149"/>
+      <c r="BR26" s="150"/>
+      <c r="BS26" s="150"/>
+      <c r="BT26" s="150"/>
+      <c r="BU26" s="150"/>
+      <c r="BV26" s="150"/>
+      <c r="BW26" s="150"/>
+      <c r="BX26" s="150"/>
+      <c r="BY26" s="150"/>
+      <c r="BZ26" s="150"/>
+      <c r="CA26" s="150"/>
+      <c r="CB26" s="150"/>
+      <c r="CC26" s="150"/>
+      <c r="CD26" s="150"/>
+      <c r="CE26" s="150"/>
+      <c r="CF26" s="150"/>
+      <c r="CG26" s="150"/>
+      <c r="CH26" s="150"/>
+      <c r="CI26" s="151"/>
     </row>
     <row r="27" spans="2:87" ht="18.75" customHeight="1">
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="93"/>
-      <c r="AG27" s="94"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="93"/>
-      <c r="AJ27" s="94"/>
-      <c r="AK27" s="92"/>
-      <c r="AL27" s="93"/>
-      <c r="AM27" s="93"/>
-      <c r="AN27" s="93"/>
-      <c r="AO27" s="93"/>
-      <c r="AP27" s="93"/>
-      <c r="AQ27" s="93"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="74"/>
-      <c r="AU27" s="92"/>
-      <c r="AV27" s="93"/>
-      <c r="AW27" s="93"/>
-      <c r="AX27" s="93"/>
-      <c r="AY27" s="93"/>
-      <c r="AZ27" s="93"/>
-      <c r="BA27" s="93"/>
-      <c r="BB27" s="93"/>
-      <c r="BC27" s="93"/>
-      <c r="BD27" s="94"/>
-      <c r="BE27" s="92"/>
-      <c r="BF27" s="93"/>
-      <c r="BG27" s="93"/>
-      <c r="BH27" s="93"/>
-      <c r="BI27" s="93"/>
-      <c r="BJ27" s="93"/>
-      <c r="BK27" s="93"/>
-      <c r="BL27" s="93"/>
-      <c r="BM27" s="93"/>
-      <c r="BN27" s="93"/>
-      <c r="BO27" s="93"/>
-      <c r="BP27" s="94"/>
-      <c r="BQ27" s="95"/>
-      <c r="BR27" s="96"/>
-      <c r="BS27" s="96"/>
-      <c r="BT27" s="96"/>
-      <c r="BU27" s="96"/>
-      <c r="BV27" s="96"/>
-      <c r="BW27" s="96"/>
-      <c r="BX27" s="96"/>
-      <c r="BY27" s="96"/>
-      <c r="BZ27" s="96"/>
-      <c r="CA27" s="96"/>
-      <c r="CB27" s="96"/>
-      <c r="CC27" s="96"/>
-      <c r="CD27" s="96"/>
-      <c r="CE27" s="96"/>
-      <c r="CF27" s="96"/>
-      <c r="CG27" s="96"/>
-      <c r="CH27" s="96"/>
-      <c r="CI27" s="97"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
+      <c r="W27" s="129"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="138"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="129"/>
+      <c r="AD27" s="129"/>
+      <c r="AE27" s="129"/>
+      <c r="AF27" s="129"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="129"/>
+      <c r="AJ27" s="130"/>
+      <c r="AK27" s="128"/>
+      <c r="AL27" s="129"/>
+      <c r="AM27" s="129"/>
+      <c r="AN27" s="129"/>
+      <c r="AO27" s="129"/>
+      <c r="AP27" s="129"/>
+      <c r="AQ27" s="129"/>
+      <c r="AR27" s="101"/>
+      <c r="AS27" s="101"/>
+      <c r="AT27" s="102"/>
+      <c r="AU27" s="128"/>
+      <c r="AV27" s="129"/>
+      <c r="AW27" s="129"/>
+      <c r="AX27" s="129"/>
+      <c r="AY27" s="129"/>
+      <c r="AZ27" s="129"/>
+      <c r="BA27" s="129"/>
+      <c r="BB27" s="129"/>
+      <c r="BC27" s="129"/>
+      <c r="BD27" s="130"/>
+      <c r="BE27" s="128"/>
+      <c r="BF27" s="129"/>
+      <c r="BG27" s="129"/>
+      <c r="BH27" s="129"/>
+      <c r="BI27" s="129"/>
+      <c r="BJ27" s="129"/>
+      <c r="BK27" s="129"/>
+      <c r="BL27" s="129"/>
+      <c r="BM27" s="129"/>
+      <c r="BN27" s="129"/>
+      <c r="BO27" s="129"/>
+      <c r="BP27" s="130"/>
+      <c r="BQ27" s="131"/>
+      <c r="BR27" s="132"/>
+      <c r="BS27" s="132"/>
+      <c r="BT27" s="132"/>
+      <c r="BU27" s="132"/>
+      <c r="BV27" s="132"/>
+      <c r="BW27" s="132"/>
+      <c r="BX27" s="132"/>
+      <c r="BY27" s="132"/>
+      <c r="BZ27" s="132"/>
+      <c r="CA27" s="132"/>
+      <c r="CB27" s="132"/>
+      <c r="CC27" s="132"/>
+      <c r="CD27" s="132"/>
+      <c r="CE27" s="132"/>
+      <c r="CF27" s="132"/>
+      <c r="CG27" s="132"/>
+      <c r="CH27" s="132"/>
+      <c r="CI27" s="133"/>
     </row>
     <row r="28" spans="2:87" ht="18.75" thickBot="1">
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="77"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="89"/>
-      <c r="AK28" s="75"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="76"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="76"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="90"/>
-      <c r="AS28" s="90"/>
-      <c r="AT28" s="91"/>
-      <c r="AU28" s="75"/>
-      <c r="AV28" s="76"/>
-      <c r="AW28" s="76"/>
-      <c r="AX28" s="76"/>
-      <c r="AY28" s="76"/>
-      <c r="AZ28" s="76"/>
-      <c r="BA28" s="76"/>
-      <c r="BB28" s="76"/>
-      <c r="BC28" s="76"/>
-      <c r="BD28" s="77"/>
-      <c r="BE28" s="75"/>
-      <c r="BF28" s="76"/>
-      <c r="BG28" s="76"/>
-      <c r="BH28" s="76"/>
-      <c r="BI28" s="76"/>
-      <c r="BJ28" s="76"/>
-      <c r="BK28" s="76"/>
-      <c r="BL28" s="76"/>
-      <c r="BM28" s="76"/>
-      <c r="BN28" s="76"/>
-      <c r="BO28" s="76"/>
-      <c r="BP28" s="77"/>
-      <c r="BQ28" s="78"/>
-      <c r="BR28" s="79"/>
-      <c r="BS28" s="79"/>
-      <c r="BT28" s="79"/>
-      <c r="BU28" s="79"/>
-      <c r="BV28" s="79"/>
-      <c r="BW28" s="79"/>
-      <c r="BX28" s="79"/>
-      <c r="BY28" s="79"/>
-      <c r="BZ28" s="79"/>
-      <c r="CA28" s="79"/>
-      <c r="CB28" s="79"/>
-      <c r="CC28" s="79"/>
-      <c r="CD28" s="79"/>
-      <c r="CE28" s="79"/>
-      <c r="CF28" s="79"/>
-      <c r="CG28" s="79"/>
-      <c r="CH28" s="79"/>
-      <c r="CI28" s="80"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="165"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="165"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
+      <c r="U28" s="165"/>
+      <c r="V28" s="165"/>
+      <c r="W28" s="165"/>
+      <c r="X28" s="166"/>
+      <c r="Y28" s="167"/>
+      <c r="Z28" s="168"/>
+      <c r="AA28" s="169"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="157"/>
+      <c r="AH28" s="167"/>
+      <c r="AI28" s="168"/>
+      <c r="AJ28" s="169"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="156"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="156"/>
+      <c r="AO28" s="156"/>
+      <c r="AP28" s="156"/>
+      <c r="AQ28" s="156"/>
+      <c r="AR28" s="170"/>
+      <c r="AS28" s="170"/>
+      <c r="AT28" s="171"/>
+      <c r="AU28" s="155"/>
+      <c r="AV28" s="156"/>
+      <c r="AW28" s="156"/>
+      <c r="AX28" s="156"/>
+      <c r="AY28" s="156"/>
+      <c r="AZ28" s="156"/>
+      <c r="BA28" s="156"/>
+      <c r="BB28" s="156"/>
+      <c r="BC28" s="156"/>
+      <c r="BD28" s="157"/>
+      <c r="BE28" s="155"/>
+      <c r="BF28" s="156"/>
+      <c r="BG28" s="156"/>
+      <c r="BH28" s="156"/>
+      <c r="BI28" s="156"/>
+      <c r="BJ28" s="156"/>
+      <c r="BK28" s="156"/>
+      <c r="BL28" s="156"/>
+      <c r="BM28" s="156"/>
+      <c r="BN28" s="156"/>
+      <c r="BO28" s="156"/>
+      <c r="BP28" s="157"/>
+      <c r="BQ28" s="158"/>
+      <c r="BR28" s="159"/>
+      <c r="BS28" s="159"/>
+      <c r="BT28" s="159"/>
+      <c r="BU28" s="159"/>
+      <c r="BV28" s="159"/>
+      <c r="BW28" s="159"/>
+      <c r="BX28" s="159"/>
+      <c r="BY28" s="159"/>
+      <c r="BZ28" s="159"/>
+      <c r="CA28" s="159"/>
+      <c r="CB28" s="159"/>
+      <c r="CC28" s="159"/>
+      <c r="CD28" s="159"/>
+      <c r="CE28" s="159"/>
+      <c r="CF28" s="159"/>
+      <c r="CG28" s="159"/>
+      <c r="CH28" s="159"/>
+      <c r="CI28" s="160"/>
     </row>
   </sheetData>
-  <mergeCells count="213">
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="AU8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
+  <mergeCells count="212">
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU28:BD28"/>
+    <mergeCell ref="BE28:BP28"/>
+    <mergeCell ref="BQ28:CI28"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="AK28:AT28"/>
+    <mergeCell ref="AU27:BD27"/>
+    <mergeCell ref="BE27:BP27"/>
+    <mergeCell ref="BQ27:CI27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="AK27:AT27"/>
+    <mergeCell ref="AU26:BD26"/>
+    <mergeCell ref="BE26:BP26"/>
+    <mergeCell ref="BQ26:CI26"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:AT26"/>
+    <mergeCell ref="AU25:BD25"/>
+    <mergeCell ref="BE25:BP25"/>
+    <mergeCell ref="BQ25:CI25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:AT25"/>
+    <mergeCell ref="AU24:BD24"/>
+    <mergeCell ref="BE24:BP24"/>
+    <mergeCell ref="BQ24:CI24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AU23:BD23"/>
+    <mergeCell ref="BE23:BP23"/>
+    <mergeCell ref="BQ23:CI23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -12009,177 +12162,26 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="AU24:BD24"/>
-    <mergeCell ref="BE24:BP24"/>
-    <mergeCell ref="BQ24:CI24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AU25:BD25"/>
-    <mergeCell ref="BE25:BP25"/>
-    <mergeCell ref="BQ25:CI25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:AT25"/>
-    <mergeCell ref="AU26:BD26"/>
-    <mergeCell ref="BE26:BP26"/>
-    <mergeCell ref="BQ26:CI26"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AU27:BD27"/>
-    <mergeCell ref="BE27:BP27"/>
-    <mergeCell ref="BQ27:CI27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="AK27:AT27"/>
-    <mergeCell ref="AU28:BD28"/>
-    <mergeCell ref="BE28:BP28"/>
-    <mergeCell ref="BQ28:CI28"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="AK28:AT28"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="AU8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験結果.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>システム名</t>
   </si>
@@ -489,6 +489,34 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題の選択肢</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>question_selects</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正解したかどうか</t>
+    <rPh sb="0" eb="2">
+      <t>セイカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇×で表す</t>
+    <rPh sb="3" eb="4">
+      <t>アラワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1122,6 +1150,123 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,110 +1285,62 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1254,6 +1351,87 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1264,19 +1442,103 @@
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -1328,240 +1590,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1850,7 +1878,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1950,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2338,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2334,102 +2362,102 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="39"/>
-      <c r="BK1" s="39"/>
-      <c r="BL1" s="40" t="s">
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="41"/>
-      <c r="BQ1" s="41"/>
-      <c r="BR1" s="41"/>
-      <c r="BS1" s="41"/>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BW1" s="41"/>
-      <c r="BX1" s="42" t="s">
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="60"/>
+      <c r="BQ1" s="60"/>
+      <c r="BR1" s="60"/>
+      <c r="BS1" s="60"/>
+      <c r="BT1" s="60"/>
+      <c r="BU1" s="60"/>
+      <c r="BV1" s="60"/>
+      <c r="BW1" s="60"/>
+      <c r="BX1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42"/>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="29"/>
-      <c r="CC1" s="29"/>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
+      <c r="BY1" s="61"/>
+      <c r="BZ1" s="61"/>
+      <c r="CA1" s="61"/>
+      <c r="CB1" s="48"/>
+      <c r="CC1" s="48"/>
+      <c r="CD1" s="48"/>
+      <c r="CE1" s="48"/>
+      <c r="CF1" s="48"/>
+      <c r="CG1" s="48"/>
+      <c r="CH1" s="48"/>
+      <c r="CI1" s="48"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -3370,102 +3398,102 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="33" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="51"/>
+      <c r="BK2" s="51"/>
+      <c r="BL2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="34"/>
-      <c r="BQ2" s="34"/>
-      <c r="BR2" s="34"/>
-      <c r="BS2" s="34"/>
-      <c r="BT2" s="34"/>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="35" t="s">
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="53"/>
+      <c r="BR2" s="53"/>
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="53"/>
+      <c r="BW2" s="53"/>
+      <c r="BX2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
+      <c r="BY2" s="54"/>
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="55"/>
+      <c r="CD2" s="55"/>
+      <c r="CE2" s="55"/>
+      <c r="CF2" s="55"/>
+      <c r="CG2" s="55"/>
+      <c r="CH2" s="55"/>
+      <c r="CI2" s="55"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -4493,196 +4521,196 @@
       <c r="CI3" s="10"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24" t="s">
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="25" t="s">
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="25"/>
-      <c r="BH4" s="25"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="25"/>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="25"/>
-      <c r="BN4" s="25"/>
-      <c r="BO4" s="25"/>
-      <c r="BP4" s="25"/>
-      <c r="BQ4" s="25"/>
-      <c r="BR4" s="25"/>
-      <c r="BS4" s="25"/>
-      <c r="BT4" s="25"/>
-      <c r="BU4" s="25"/>
-      <c r="BV4" s="25"/>
-      <c r="BW4" s="25"/>
-      <c r="BX4" s="25"/>
-      <c r="BY4" s="25"/>
-      <c r="BZ4" s="25"/>
-      <c r="CA4" s="25"/>
-      <c r="CB4" s="25"/>
-      <c r="CC4" s="25"/>
-      <c r="CD4" s="25"/>
-      <c r="CE4" s="25"/>
-      <c r="CF4" s="25"/>
-      <c r="CG4" s="25"/>
-      <c r="CH4" s="25"/>
-      <c r="CI4" s="25"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="64"/>
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="64"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="64"/>
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="64"/>
+      <c r="BJ4" s="64"/>
+      <c r="BK4" s="64"/>
+      <c r="BL4" s="64"/>
+      <c r="BM4" s="64"/>
+      <c r="BN4" s="64"/>
+      <c r="BO4" s="64"/>
+      <c r="BP4" s="64"/>
+      <c r="BQ4" s="64"/>
+      <c r="BR4" s="64"/>
+      <c r="BS4" s="64"/>
+      <c r="BT4" s="64"/>
+      <c r="BU4" s="64"/>
+      <c r="BV4" s="64"/>
+      <c r="BW4" s="64"/>
+      <c r="BX4" s="64"/>
+      <c r="BY4" s="64"/>
+      <c r="BZ4" s="64"/>
+      <c r="CA4" s="64"/>
+      <c r="CB4" s="64"/>
+      <c r="CC4" s="64"/>
+      <c r="CD4" s="64"/>
+      <c r="CE4" s="64"/>
+      <c r="CF4" s="64"/>
+      <c r="CG4" s="64"/>
+      <c r="CH4" s="64"/>
+      <c r="CI4" s="64"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1">
-      <c r="B5" s="26">
+      <c r="B5" s="65">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27" t="s">
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="28" t="s">
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
-      <c r="BD5" s="28"/>
-      <c r="BE5" s="28"/>
-      <c r="BF5" s="28"/>
-      <c r="BG5" s="28"/>
-      <c r="BH5" s="28"/>
-      <c r="BI5" s="28"/>
-      <c r="BJ5" s="28"/>
-      <c r="BK5" s="28"/>
-      <c r="BL5" s="28"/>
-      <c r="BM5" s="28"/>
-      <c r="BN5" s="28"/>
-      <c r="BO5" s="28"/>
-      <c r="BP5" s="28"/>
-      <c r="BQ5" s="28"/>
-      <c r="BR5" s="28"/>
-      <c r="BS5" s="28"/>
-      <c r="BT5" s="28"/>
-      <c r="BU5" s="28"/>
-      <c r="BV5" s="28"/>
-      <c r="BW5" s="28"/>
-      <c r="BX5" s="28"/>
-      <c r="BY5" s="28"/>
-      <c r="BZ5" s="28"/>
-      <c r="CA5" s="28"/>
-      <c r="CB5" s="28"/>
-      <c r="CC5" s="28"/>
-      <c r="CD5" s="28"/>
-      <c r="CE5" s="28"/>
-      <c r="CF5" s="28"/>
-      <c r="CG5" s="28"/>
-      <c r="CH5" s="28"/>
-      <c r="CI5" s="28"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="67"/>
+      <c r="AV5" s="67"/>
+      <c r="AW5" s="67"/>
+      <c r="AX5" s="67"/>
+      <c r="AY5" s="67"/>
+      <c r="AZ5" s="67"/>
+      <c r="BA5" s="67"/>
+      <c r="BB5" s="67"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="67"/>
+      <c r="BE5" s="67"/>
+      <c r="BF5" s="67"/>
+      <c r="BG5" s="67"/>
+      <c r="BH5" s="67"/>
+      <c r="BI5" s="67"/>
+      <c r="BJ5" s="67"/>
+      <c r="BK5" s="67"/>
+      <c r="BL5" s="67"/>
+      <c r="BM5" s="67"/>
+      <c r="BN5" s="67"/>
+      <c r="BO5" s="67"/>
+      <c r="BP5" s="67"/>
+      <c r="BQ5" s="67"/>
+      <c r="BR5" s="67"/>
+      <c r="BS5" s="67"/>
+      <c r="BT5" s="67"/>
+      <c r="BU5" s="67"/>
+      <c r="BV5" s="67"/>
+      <c r="BW5" s="67"/>
+      <c r="BX5" s="67"/>
+      <c r="BY5" s="67"/>
+      <c r="BZ5" s="67"/>
+      <c r="CA5" s="67"/>
+      <c r="CB5" s="67"/>
+      <c r="CC5" s="67"/>
+      <c r="CD5" s="67"/>
+      <c r="CE5" s="67"/>
+      <c r="CF5" s="67"/>
+      <c r="CG5" s="67"/>
+      <c r="CH5" s="67"/>
+      <c r="CI5" s="67"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
       <c r="B6" s="14"/>
@@ -5012,29 +5040,29 @@
       <c r="BJ9" s="16"/>
       <c r="BK9" s="16"/>
       <c r="BL9" s="16"/>
-      <c r="BM9" s="43" t="s">
+      <c r="BM9" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="BN9" s="44"/>
-      <c r="BO9" s="44"/>
-      <c r="BP9" s="44"/>
-      <c r="BQ9" s="44"/>
-      <c r="BR9" s="44"/>
-      <c r="BS9" s="44"/>
-      <c r="BT9" s="44"/>
-      <c r="BU9" s="44"/>
-      <c r="BV9" s="44"/>
-      <c r="BW9" s="44"/>
-      <c r="BX9" s="44"/>
-      <c r="BY9" s="44"/>
-      <c r="BZ9" s="44"/>
-      <c r="CA9" s="44"/>
-      <c r="CB9" s="44"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="44"/>
-      <c r="CE9" s="44"/>
-      <c r="CF9" s="44"/>
-      <c r="CG9" s="44"/>
+      <c r="BN9" s="28"/>
+      <c r="BO9" s="28"/>
+      <c r="BP9" s="28"/>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="28"/>
+      <c r="BS9" s="28"/>
+      <c r="BT9" s="28"/>
+      <c r="BU9" s="28"/>
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="28"/>
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="28"/>
+      <c r="CA9" s="28"/>
+      <c r="CB9" s="28"/>
+      <c r="CC9" s="28"/>
+      <c r="CD9" s="28"/>
+      <c r="CE9" s="28"/>
+      <c r="CF9" s="28"/>
+      <c r="CG9" s="28"/>
       <c r="CH9" s="16"/>
       <c r="CI9" s="17"/>
     </row>
@@ -5131,86 +5159,86 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52"/>
-      <c r="AO11" s="52"/>
-      <c r="AP11" s="52"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="52"/>
-      <c r="BP11" s="52"/>
-      <c r="BQ11" s="52"/>
-      <c r="BR11" s="52"/>
-      <c r="BS11" s="52"/>
-      <c r="BT11" s="52"/>
-      <c r="BU11" s="52"/>
-      <c r="BV11" s="52"/>
-      <c r="BW11" s="52"/>
-      <c r="BX11" s="52"/>
-      <c r="BY11" s="52"/>
-      <c r="BZ11" s="52"/>
-      <c r="CA11" s="52"/>
-      <c r="CB11" s="52"/>
-      <c r="CC11" s="52"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="52"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="36"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="36"/>
+      <c r="BB11" s="36"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="36"/>
+      <c r="BI11" s="36"/>
+      <c r="BJ11" s="36"/>
+      <c r="BK11" s="36"/>
+      <c r="BL11" s="36"/>
+      <c r="BM11" s="36"/>
+      <c r="BN11" s="36"/>
+      <c r="BO11" s="36"/>
+      <c r="BP11" s="36"/>
+      <c r="BQ11" s="36"/>
+      <c r="BR11" s="36"/>
+      <c r="BS11" s="36"/>
+      <c r="BT11" s="36"/>
+      <c r="BU11" s="36"/>
+      <c r="BV11" s="36"/>
+      <c r="BW11" s="36"/>
+      <c r="BX11" s="36"/>
+      <c r="BY11" s="36"/>
+      <c r="BZ11" s="36"/>
+      <c r="CA11" s="36"/>
+      <c r="CB11" s="36"/>
+      <c r="CC11" s="36"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="36"/>
       <c r="CF11" s="6"/>
       <c r="CG11" s="6"/>
       <c r="CH11" s="6"/>
@@ -5221,84 +5249,84 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="52"/>
-      <c r="AM12" s="52"/>
-      <c r="AN12" s="52"/>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="52"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="52"/>
-      <c r="BU12" s="52"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="52"/>
-      <c r="BX12" s="52"/>
-      <c r="BY12" s="52"/>
-      <c r="BZ12" s="52"/>
-      <c r="CA12" s="52"/>
-      <c r="CB12" s="52"/>
-      <c r="CC12" s="52"/>
-      <c r="CD12" s="52"/>
-      <c r="CE12" s="52"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="36"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="36"/>
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="36"/>
+      <c r="BE12" s="36"/>
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="36"/>
+      <c r="BH12" s="36"/>
+      <c r="BI12" s="36"/>
+      <c r="BJ12" s="36"/>
+      <c r="BK12" s="36"/>
+      <c r="BL12" s="36"/>
+      <c r="BM12" s="36"/>
+      <c r="BN12" s="36"/>
+      <c r="BO12" s="36"/>
+      <c r="BP12" s="36"/>
+      <c r="BQ12" s="36"/>
+      <c r="BR12" s="36"/>
+      <c r="BS12" s="36"/>
+      <c r="BT12" s="36"/>
+      <c r="BU12" s="36"/>
+      <c r="BV12" s="36"/>
+      <c r="BW12" s="36"/>
+      <c r="BX12" s="36"/>
+      <c r="BY12" s="36"/>
+      <c r="BZ12" s="36"/>
+      <c r="CA12" s="36"/>
+      <c r="CB12" s="36"/>
+      <c r="CC12" s="36"/>
+      <c r="CD12" s="36"/>
+      <c r="CE12" s="36"/>
       <c r="CF12" s="6"/>
       <c r="CG12" s="6"/>
       <c r="CH12" s="6"/>
@@ -5415,50 +5443,50 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="53" t="s">
+      <c r="X14" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="54"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="54"/>
-      <c r="AR14" s="54"/>
-      <c r="AS14" s="54"/>
-      <c r="AT14" s="54"/>
-      <c r="AU14" s="54"/>
-      <c r="AV14" s="54"/>
-      <c r="AW14" s="54"/>
-      <c r="AX14" s="54"/>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="54"/>
-      <c r="BA14" s="54"/>
-      <c r="BB14" s="54"/>
-      <c r="BC14" s="54"/>
-      <c r="BD14" s="54"/>
-      <c r="BE14" s="54"/>
-      <c r="BF14" s="54"/>
-      <c r="BG14" s="54"/>
-      <c r="BH14" s="54"/>
-      <c r="BI14" s="54"/>
-      <c r="BJ14" s="54"/>
-      <c r="BK14" s="54"/>
-      <c r="BL14" s="54"/>
-      <c r="BM14" s="55"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="38"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
+      <c r="BL14" s="38"/>
+      <c r="BM14" s="39"/>
       <c r="BN14" s="6"/>
       <c r="BO14" s="6"/>
       <c r="BP14" s="6"/>
@@ -5505,48 +5533,48 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="57"/>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="57"/>
-      <c r="AO15" s="57"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="57"/>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="57"/>
-      <c r="AY15" s="57"/>
-      <c r="AZ15" s="57"/>
-      <c r="BA15" s="57"/>
-      <c r="BB15" s="57"/>
-      <c r="BC15" s="57"/>
-      <c r="BD15" s="57"/>
-      <c r="BE15" s="57"/>
-      <c r="BF15" s="57"/>
-      <c r="BG15" s="57"/>
-      <c r="BH15" s="57"/>
-      <c r="BI15" s="57"/>
-      <c r="BJ15" s="57"/>
-      <c r="BK15" s="57"/>
-      <c r="BL15" s="57"/>
-      <c r="BM15" s="58"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="41"/>
+      <c r="BA15" s="41"/>
+      <c r="BB15" s="41"/>
+      <c r="BC15" s="41"/>
+      <c r="BD15" s="41"/>
+      <c r="BE15" s="41"/>
+      <c r="BF15" s="41"/>
+      <c r="BG15" s="41"/>
+      <c r="BH15" s="41"/>
+      <c r="BI15" s="41"/>
+      <c r="BJ15" s="41"/>
+      <c r="BK15" s="41"/>
+      <c r="BL15" s="41"/>
+      <c r="BM15" s="42"/>
       <c r="BN15" s="6"/>
       <c r="BO15" s="6"/>
       <c r="BP15" s="6"/>
@@ -5593,48 +5621,48 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="57"/>
-      <c r="AU16" s="57"/>
-      <c r="AV16" s="57"/>
-      <c r="AW16" s="57"/>
-      <c r="AX16" s="57"/>
-      <c r="AY16" s="57"/>
-      <c r="AZ16" s="57"/>
-      <c r="BA16" s="57"/>
-      <c r="BB16" s="57"/>
-      <c r="BC16" s="57"/>
-      <c r="BD16" s="57"/>
-      <c r="BE16" s="57"/>
-      <c r="BF16" s="57"/>
-      <c r="BG16" s="57"/>
-      <c r="BH16" s="57"/>
-      <c r="BI16" s="57"/>
-      <c r="BJ16" s="57"/>
-      <c r="BK16" s="57"/>
-      <c r="BL16" s="57"/>
-      <c r="BM16" s="58"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="41"/>
+      <c r="AV16" s="41"/>
+      <c r="AW16" s="41"/>
+      <c r="AX16" s="41"/>
+      <c r="AY16" s="41"/>
+      <c r="AZ16" s="41"/>
+      <c r="BA16" s="41"/>
+      <c r="BB16" s="41"/>
+      <c r="BC16" s="41"/>
+      <c r="BD16" s="41"/>
+      <c r="BE16" s="41"/>
+      <c r="BF16" s="41"/>
+      <c r="BG16" s="41"/>
+      <c r="BH16" s="41"/>
+      <c r="BI16" s="41"/>
+      <c r="BJ16" s="41"/>
+      <c r="BK16" s="41"/>
+      <c r="BL16" s="41"/>
+      <c r="BM16" s="42"/>
       <c r="BN16" s="6"/>
       <c r="BO16" s="6"/>
       <c r="BP16" s="6"/>
@@ -5681,48 +5709,48 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="60"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="60"/>
-      <c r="AM17" s="60"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="60"/>
-      <c r="AP17" s="60"/>
-      <c r="AQ17" s="60"/>
-      <c r="AR17" s="60"/>
-      <c r="AS17" s="60"/>
-      <c r="AT17" s="60"/>
-      <c r="AU17" s="60"/>
-      <c r="AV17" s="60"/>
-      <c r="AW17" s="60"/>
-      <c r="AX17" s="60"/>
-      <c r="AY17" s="60"/>
-      <c r="AZ17" s="60"/>
-      <c r="BA17" s="60"/>
-      <c r="BB17" s="60"/>
-      <c r="BC17" s="60"/>
-      <c r="BD17" s="60"/>
-      <c r="BE17" s="60"/>
-      <c r="BF17" s="60"/>
-      <c r="BG17" s="60"/>
-      <c r="BH17" s="60"/>
-      <c r="BI17" s="60"/>
-      <c r="BJ17" s="60"/>
-      <c r="BK17" s="60"/>
-      <c r="BL17" s="60"/>
-      <c r="BM17" s="61"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="44"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="44"/>
+      <c r="BA17" s="44"/>
+      <c r="BB17" s="44"/>
+      <c r="BC17" s="44"/>
+      <c r="BD17" s="44"/>
+      <c r="BE17" s="44"/>
+      <c r="BF17" s="44"/>
+      <c r="BG17" s="44"/>
+      <c r="BH17" s="44"/>
+      <c r="BI17" s="44"/>
+      <c r="BJ17" s="44"/>
+      <c r="BK17" s="44"/>
+      <c r="BL17" s="44"/>
+      <c r="BM17" s="45"/>
       <c r="BN17" s="6"/>
       <c r="BO17" s="6"/>
       <c r="BP17" s="6"/>
@@ -5839,86 +5867,86 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="62"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="62"/>
-      <c r="BI19" s="62"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="62"/>
-      <c r="BL19" s="62"/>
-      <c r="BM19" s="62"/>
-      <c r="BN19" s="62"/>
-      <c r="BO19" s="62"/>
-      <c r="BP19" s="62"/>
-      <c r="BQ19" s="62"/>
-      <c r="BR19" s="62"/>
-      <c r="BS19" s="62"/>
-      <c r="BT19" s="62"/>
-      <c r="BU19" s="62"/>
-      <c r="BV19" s="62"/>
-      <c r="BW19" s="62"/>
-      <c r="BX19" s="62"/>
-      <c r="BY19" s="62"/>
-      <c r="BZ19" s="62"/>
-      <c r="CA19" s="62"/>
-      <c r="CB19" s="62"/>
-      <c r="CC19" s="62"/>
-      <c r="CD19" s="62"/>
-      <c r="CE19" s="62"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
+      <c r="AT19" s="46"/>
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="46"/>
+      <c r="AW19" s="46"/>
+      <c r="AX19" s="46"/>
+      <c r="AY19" s="46"/>
+      <c r="AZ19" s="46"/>
+      <c r="BA19" s="46"/>
+      <c r="BB19" s="46"/>
+      <c r="BC19" s="46"/>
+      <c r="BD19" s="46"/>
+      <c r="BE19" s="46"/>
+      <c r="BF19" s="46"/>
+      <c r="BG19" s="46"/>
+      <c r="BH19" s="46"/>
+      <c r="BI19" s="46"/>
+      <c r="BJ19" s="46"/>
+      <c r="BK19" s="46"/>
+      <c r="BL19" s="46"/>
+      <c r="BM19" s="46"/>
+      <c r="BN19" s="46"/>
+      <c r="BO19" s="46"/>
+      <c r="BP19" s="46"/>
+      <c r="BQ19" s="46"/>
+      <c r="BR19" s="46"/>
+      <c r="BS19" s="46"/>
+      <c r="BT19" s="46"/>
+      <c r="BU19" s="46"/>
+      <c r="BV19" s="46"/>
+      <c r="BW19" s="46"/>
+      <c r="BX19" s="46"/>
+      <c r="BY19" s="46"/>
+      <c r="BZ19" s="46"/>
+      <c r="CA19" s="46"/>
+      <c r="CB19" s="46"/>
+      <c r="CC19" s="46"/>
+      <c r="CD19" s="46"/>
+      <c r="CE19" s="46"/>
       <c r="CF19" s="6"/>
       <c r="CG19" s="6"/>
       <c r="CH19" s="6"/>
@@ -5929,84 +5957,84 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="62"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="62"/>
-      <c r="BA20" s="62"/>
-      <c r="BB20" s="62"/>
-      <c r="BC20" s="62"/>
-      <c r="BD20" s="62"/>
-      <c r="BE20" s="62"/>
-      <c r="BF20" s="62"/>
-      <c r="BG20" s="62"/>
-      <c r="BH20" s="62"/>
-      <c r="BI20" s="62"/>
-      <c r="BJ20" s="62"/>
-      <c r="BK20" s="62"/>
-      <c r="BL20" s="62"/>
-      <c r="BM20" s="62"/>
-      <c r="BN20" s="62"/>
-      <c r="BO20" s="62"/>
-      <c r="BP20" s="62"/>
-      <c r="BQ20" s="62"/>
-      <c r="BR20" s="62"/>
-      <c r="BS20" s="62"/>
-      <c r="BT20" s="62"/>
-      <c r="BU20" s="62"/>
-      <c r="BV20" s="62"/>
-      <c r="BW20" s="62"/>
-      <c r="BX20" s="62"/>
-      <c r="BY20" s="62"/>
-      <c r="BZ20" s="62"/>
-      <c r="CA20" s="62"/>
-      <c r="CB20" s="62"/>
-      <c r="CC20" s="62"/>
-      <c r="CD20" s="62"/>
-      <c r="CE20" s="62"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="46"/>
+      <c r="AT20" s="46"/>
+      <c r="AU20" s="46"/>
+      <c r="AV20" s="46"/>
+      <c r="AW20" s="46"/>
+      <c r="AX20" s="46"/>
+      <c r="AY20" s="46"/>
+      <c r="AZ20" s="46"/>
+      <c r="BA20" s="46"/>
+      <c r="BB20" s="46"/>
+      <c r="BC20" s="46"/>
+      <c r="BD20" s="46"/>
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="46"/>
+      <c r="BG20" s="46"/>
+      <c r="BH20" s="46"/>
+      <c r="BI20" s="46"/>
+      <c r="BJ20" s="46"/>
+      <c r="BK20" s="46"/>
+      <c r="BL20" s="46"/>
+      <c r="BM20" s="46"/>
+      <c r="BN20" s="46"/>
+      <c r="BO20" s="46"/>
+      <c r="BP20" s="46"/>
+      <c r="BQ20" s="46"/>
+      <c r="BR20" s="46"/>
+      <c r="BS20" s="46"/>
+      <c r="BT20" s="46"/>
+      <c r="BU20" s="46"/>
+      <c r="BV20" s="46"/>
+      <c r="BW20" s="46"/>
+      <c r="BX20" s="46"/>
+      <c r="BY20" s="46"/>
+      <c r="BZ20" s="46"/>
+      <c r="CA20" s="46"/>
+      <c r="CB20" s="46"/>
+      <c r="CC20" s="46"/>
+      <c r="CD20" s="46"/>
+      <c r="CE20" s="46"/>
       <c r="CF20" s="6"/>
       <c r="CG20" s="6"/>
       <c r="CH20" s="6"/>
@@ -6017,84 +6045,84 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="62"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="62"/>
-      <c r="AY21" s="62"/>
-      <c r="AZ21" s="62"/>
-      <c r="BA21" s="62"/>
-      <c r="BB21" s="62"/>
-      <c r="BC21" s="62"/>
-      <c r="BD21" s="62"/>
-      <c r="BE21" s="62"/>
-      <c r="BF21" s="62"/>
-      <c r="BG21" s="62"/>
-      <c r="BH21" s="62"/>
-      <c r="BI21" s="62"/>
-      <c r="BJ21" s="62"/>
-      <c r="BK21" s="62"/>
-      <c r="BL21" s="62"/>
-      <c r="BM21" s="62"/>
-      <c r="BN21" s="62"/>
-      <c r="BO21" s="62"/>
-      <c r="BP21" s="62"/>
-      <c r="BQ21" s="62"/>
-      <c r="BR21" s="62"/>
-      <c r="BS21" s="62"/>
-      <c r="BT21" s="62"/>
-      <c r="BU21" s="62"/>
-      <c r="BV21" s="62"/>
-      <c r="BW21" s="62"/>
-      <c r="BX21" s="62"/>
-      <c r="BY21" s="62"/>
-      <c r="BZ21" s="62"/>
-      <c r="CA21" s="62"/>
-      <c r="CB21" s="62"/>
-      <c r="CC21" s="62"/>
-      <c r="CD21" s="62"/>
-      <c r="CE21" s="62"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="46"/>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="46"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="46"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="46"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="46"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="46"/>
+      <c r="BI21" s="46"/>
+      <c r="BJ21" s="46"/>
+      <c r="BK21" s="46"/>
+      <c r="BL21" s="46"/>
+      <c r="BM21" s="46"/>
+      <c r="BN21" s="46"/>
+      <c r="BO21" s="46"/>
+      <c r="BP21" s="46"/>
+      <c r="BQ21" s="46"/>
+      <c r="BR21" s="46"/>
+      <c r="BS21" s="46"/>
+      <c r="BT21" s="46"/>
+      <c r="BU21" s="46"/>
+      <c r="BV21" s="46"/>
+      <c r="BW21" s="46"/>
+      <c r="BX21" s="46"/>
+      <c r="BY21" s="46"/>
+      <c r="BZ21" s="46"/>
+      <c r="CA21" s="46"/>
+      <c r="CB21" s="46"/>
+      <c r="CC21" s="46"/>
+      <c r="CD21" s="46"/>
+      <c r="CE21" s="46"/>
       <c r="CF21" s="6"/>
       <c r="CG21" s="6"/>
       <c r="CH21" s="6"/>
@@ -6105,84 +6133,84 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="62"/>
-      <c r="AR22" s="62"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="62"/>
-      <c r="AU22" s="62"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="62"/>
-      <c r="AX22" s="62"/>
-      <c r="AY22" s="62"/>
-      <c r="AZ22" s="62"/>
-      <c r="BA22" s="62"/>
-      <c r="BB22" s="62"/>
-      <c r="BC22" s="62"/>
-      <c r="BD22" s="62"/>
-      <c r="BE22" s="62"/>
-      <c r="BF22" s="62"/>
-      <c r="BG22" s="62"/>
-      <c r="BH22" s="62"/>
-      <c r="BI22" s="62"/>
-      <c r="BJ22" s="62"/>
-      <c r="BK22" s="62"/>
-      <c r="BL22" s="62"/>
-      <c r="BM22" s="62"/>
-      <c r="BN22" s="62"/>
-      <c r="BO22" s="62"/>
-      <c r="BP22" s="62"/>
-      <c r="BQ22" s="62"/>
-      <c r="BR22" s="62"/>
-      <c r="BS22" s="62"/>
-      <c r="BT22" s="62"/>
-      <c r="BU22" s="62"/>
-      <c r="BV22" s="62"/>
-      <c r="BW22" s="62"/>
-      <c r="BX22" s="62"/>
-      <c r="BY22" s="62"/>
-      <c r="BZ22" s="62"/>
-      <c r="CA22" s="62"/>
-      <c r="CB22" s="62"/>
-      <c r="CC22" s="62"/>
-      <c r="CD22" s="62"/>
-      <c r="CE22" s="62"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="46"/>
+      <c r="AO22" s="46"/>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="46"/>
+      <c r="AT22" s="46"/>
+      <c r="AU22" s="46"/>
+      <c r="AV22" s="46"/>
+      <c r="AW22" s="46"/>
+      <c r="AX22" s="46"/>
+      <c r="AY22" s="46"/>
+      <c r="AZ22" s="46"/>
+      <c r="BA22" s="46"/>
+      <c r="BB22" s="46"/>
+      <c r="BC22" s="46"/>
+      <c r="BD22" s="46"/>
+      <c r="BE22" s="46"/>
+      <c r="BF22" s="46"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="46"/>
+      <c r="BI22" s="46"/>
+      <c r="BJ22" s="46"/>
+      <c r="BK22" s="46"/>
+      <c r="BL22" s="46"/>
+      <c r="BM22" s="46"/>
+      <c r="BN22" s="46"/>
+      <c r="BO22" s="46"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="46"/>
+      <c r="BR22" s="46"/>
+      <c r="BS22" s="46"/>
+      <c r="BT22" s="46"/>
+      <c r="BU22" s="46"/>
+      <c r="BV22" s="46"/>
+      <c r="BW22" s="46"/>
+      <c r="BX22" s="46"/>
+      <c r="BY22" s="46"/>
+      <c r="BZ22" s="46"/>
+      <c r="CA22" s="46"/>
+      <c r="CB22" s="46"/>
+      <c r="CC22" s="46"/>
+      <c r="CD22" s="46"/>
+      <c r="CE22" s="46"/>
       <c r="CF22" s="6"/>
       <c r="CG22" s="6"/>
       <c r="CH22" s="6"/>
@@ -6369,86 +6397,86 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="63"/>
-      <c r="AO25" s="63"/>
-      <c r="AP25" s="63"/>
-      <c r="AQ25" s="63"/>
-      <c r="AR25" s="63"/>
-      <c r="AS25" s="63"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="63"/>
-      <c r="AX25" s="63"/>
-      <c r="AY25" s="63"/>
-      <c r="AZ25" s="63"/>
-      <c r="BA25" s="63"/>
-      <c r="BB25" s="63"/>
-      <c r="BC25" s="63"/>
-      <c r="BD25" s="63"/>
-      <c r="BE25" s="63"/>
-      <c r="BF25" s="63"/>
-      <c r="BG25" s="63"/>
-      <c r="BH25" s="63"/>
-      <c r="BI25" s="63"/>
-      <c r="BJ25" s="63"/>
-      <c r="BK25" s="63"/>
-      <c r="BL25" s="63"/>
-      <c r="BM25" s="63"/>
-      <c r="BN25" s="63"/>
-      <c r="BO25" s="63"/>
-      <c r="BP25" s="63"/>
-      <c r="BQ25" s="63"/>
-      <c r="BR25" s="63"/>
-      <c r="BS25" s="63"/>
-      <c r="BT25" s="63"/>
-      <c r="BU25" s="63"/>
-      <c r="BV25" s="63"/>
-      <c r="BW25" s="63"/>
-      <c r="BX25" s="63"/>
-      <c r="BY25" s="63"/>
-      <c r="BZ25" s="63"/>
-      <c r="CA25" s="63"/>
-      <c r="CB25" s="63"/>
-      <c r="CC25" s="63"/>
-      <c r="CD25" s="63"/>
-      <c r="CE25" s="63"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="47"/>
+      <c r="BA25" s="47"/>
+      <c r="BB25" s="47"/>
+      <c r="BC25" s="47"/>
+      <c r="BD25" s="47"/>
+      <c r="BE25" s="47"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="47"/>
+      <c r="BI25" s="47"/>
+      <c r="BJ25" s="47"/>
+      <c r="BK25" s="47"/>
+      <c r="BL25" s="47"/>
+      <c r="BM25" s="47"/>
+      <c r="BN25" s="47"/>
+      <c r="BO25" s="47"/>
+      <c r="BP25" s="47"/>
+      <c r="BQ25" s="47"/>
+      <c r="BR25" s="47"/>
+      <c r="BS25" s="47"/>
+      <c r="BT25" s="47"/>
+      <c r="BU25" s="47"/>
+      <c r="BV25" s="47"/>
+      <c r="BW25" s="47"/>
+      <c r="BX25" s="47"/>
+      <c r="BY25" s="47"/>
+      <c r="BZ25" s="47"/>
+      <c r="CA25" s="47"/>
+      <c r="CB25" s="47"/>
+      <c r="CC25" s="47"/>
+      <c r="CD25" s="47"/>
+      <c r="CE25" s="47"/>
       <c r="CF25" s="6"/>
       <c r="CG25" s="6"/>
       <c r="CH25" s="6"/>
@@ -6459,84 +6487,84 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="63"/>
-      <c r="AD26" s="63"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="63"/>
-      <c r="AG26" s="63"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="63"/>
-      <c r="AL26" s="63"/>
-      <c r="AM26" s="63"/>
-      <c r="AN26" s="63"/>
-      <c r="AO26" s="63"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="63"/>
-      <c r="AR26" s="63"/>
-      <c r="AS26" s="63"/>
-      <c r="AT26" s="63"/>
-      <c r="AU26" s="63"/>
-      <c r="AV26" s="63"/>
-      <c r="AW26" s="63"/>
-      <c r="AX26" s="63"/>
-      <c r="AY26" s="63"/>
-      <c r="AZ26" s="63"/>
-      <c r="BA26" s="63"/>
-      <c r="BB26" s="63"/>
-      <c r="BC26" s="63"/>
-      <c r="BD26" s="63"/>
-      <c r="BE26" s="63"/>
-      <c r="BF26" s="63"/>
-      <c r="BG26" s="63"/>
-      <c r="BH26" s="63"/>
-      <c r="BI26" s="63"/>
-      <c r="BJ26" s="63"/>
-      <c r="BK26" s="63"/>
-      <c r="BL26" s="63"/>
-      <c r="BM26" s="63"/>
-      <c r="BN26" s="63"/>
-      <c r="BO26" s="63"/>
-      <c r="BP26" s="63"/>
-      <c r="BQ26" s="63"/>
-      <c r="BR26" s="63"/>
-      <c r="BS26" s="63"/>
-      <c r="BT26" s="63"/>
-      <c r="BU26" s="63"/>
-      <c r="BV26" s="63"/>
-      <c r="BW26" s="63"/>
-      <c r="BX26" s="63"/>
-      <c r="BY26" s="63"/>
-      <c r="BZ26" s="63"/>
-      <c r="CA26" s="63"/>
-      <c r="CB26" s="63"/>
-      <c r="CC26" s="63"/>
-      <c r="CD26" s="63"/>
-      <c r="CE26" s="63"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="47"/>
+      <c r="AO26" s="47"/>
+      <c r="AP26" s="47"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="47"/>
+      <c r="AS26" s="47"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="47"/>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="47"/>
+      <c r="AY26" s="47"/>
+      <c r="AZ26" s="47"/>
+      <c r="BA26" s="47"/>
+      <c r="BB26" s="47"/>
+      <c r="BC26" s="47"/>
+      <c r="BD26" s="47"/>
+      <c r="BE26" s="47"/>
+      <c r="BF26" s="47"/>
+      <c r="BG26" s="47"/>
+      <c r="BH26" s="47"/>
+      <c r="BI26" s="47"/>
+      <c r="BJ26" s="47"/>
+      <c r="BK26" s="47"/>
+      <c r="BL26" s="47"/>
+      <c r="BM26" s="47"/>
+      <c r="BN26" s="47"/>
+      <c r="BO26" s="47"/>
+      <c r="BP26" s="47"/>
+      <c r="BQ26" s="47"/>
+      <c r="BR26" s="47"/>
+      <c r="BS26" s="47"/>
+      <c r="BT26" s="47"/>
+      <c r="BU26" s="47"/>
+      <c r="BV26" s="47"/>
+      <c r="BW26" s="47"/>
+      <c r="BX26" s="47"/>
+      <c r="BY26" s="47"/>
+      <c r="BZ26" s="47"/>
+      <c r="CA26" s="47"/>
+      <c r="CB26" s="47"/>
+      <c r="CC26" s="47"/>
+      <c r="CD26" s="47"/>
+      <c r="CE26" s="47"/>
       <c r="CF26" s="6"/>
       <c r="CG26" s="6"/>
       <c r="CH26" s="6"/>
@@ -6547,84 +6575,84 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="63"/>
-      <c r="AO27" s="63"/>
-      <c r="AP27" s="63"/>
-      <c r="AQ27" s="63"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="63"/>
-      <c r="AW27" s="63"/>
-      <c r="AX27" s="63"/>
-      <c r="AY27" s="63"/>
-      <c r="AZ27" s="63"/>
-      <c r="BA27" s="63"/>
-      <c r="BB27" s="63"/>
-      <c r="BC27" s="63"/>
-      <c r="BD27" s="63"/>
-      <c r="BE27" s="63"/>
-      <c r="BF27" s="63"/>
-      <c r="BG27" s="63"/>
-      <c r="BH27" s="63"/>
-      <c r="BI27" s="63"/>
-      <c r="BJ27" s="63"/>
-      <c r="BK27" s="63"/>
-      <c r="BL27" s="63"/>
-      <c r="BM27" s="63"/>
-      <c r="BN27" s="63"/>
-      <c r="BO27" s="63"/>
-      <c r="BP27" s="63"/>
-      <c r="BQ27" s="63"/>
-      <c r="BR27" s="63"/>
-      <c r="BS27" s="63"/>
-      <c r="BT27" s="63"/>
-      <c r="BU27" s="63"/>
-      <c r="BV27" s="63"/>
-      <c r="BW27" s="63"/>
-      <c r="BX27" s="63"/>
-      <c r="BY27" s="63"/>
-      <c r="BZ27" s="63"/>
-      <c r="CA27" s="63"/>
-      <c r="CB27" s="63"/>
-      <c r="CC27" s="63"/>
-      <c r="CD27" s="63"/>
-      <c r="CE27" s="63"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="47"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="47"/>
+      <c r="AN27" s="47"/>
+      <c r="AO27" s="47"/>
+      <c r="AP27" s="47"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="47"/>
+      <c r="AS27" s="47"/>
+      <c r="AT27" s="47"/>
+      <c r="AU27" s="47"/>
+      <c r="AV27" s="47"/>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="47"/>
+      <c r="AY27" s="47"/>
+      <c r="AZ27" s="47"/>
+      <c r="BA27" s="47"/>
+      <c r="BB27" s="47"/>
+      <c r="BC27" s="47"/>
+      <c r="BD27" s="47"/>
+      <c r="BE27" s="47"/>
+      <c r="BF27" s="47"/>
+      <c r="BG27" s="47"/>
+      <c r="BH27" s="47"/>
+      <c r="BI27" s="47"/>
+      <c r="BJ27" s="47"/>
+      <c r="BK27" s="47"/>
+      <c r="BL27" s="47"/>
+      <c r="BM27" s="47"/>
+      <c r="BN27" s="47"/>
+      <c r="BO27" s="47"/>
+      <c r="BP27" s="47"/>
+      <c r="BQ27" s="47"/>
+      <c r="BR27" s="47"/>
+      <c r="BS27" s="47"/>
+      <c r="BT27" s="47"/>
+      <c r="BU27" s="47"/>
+      <c r="BV27" s="47"/>
+      <c r="BW27" s="47"/>
+      <c r="BX27" s="47"/>
+      <c r="BY27" s="47"/>
+      <c r="BZ27" s="47"/>
+      <c r="CA27" s="47"/>
+      <c r="CB27" s="47"/>
+      <c r="CC27" s="47"/>
+      <c r="CD27" s="47"/>
+      <c r="CE27" s="47"/>
       <c r="CF27" s="6"/>
       <c r="CG27" s="6"/>
       <c r="CH27" s="6"/>
@@ -6635,84 +6663,84 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
-      <c r="AN28" s="63"/>
-      <c r="AO28" s="63"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="63"/>
-      <c r="AS28" s="63"/>
-      <c r="AT28" s="63"/>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="63"/>
-      <c r="AW28" s="63"/>
-      <c r="AX28" s="63"/>
-      <c r="AY28" s="63"/>
-      <c r="AZ28" s="63"/>
-      <c r="BA28" s="63"/>
-      <c r="BB28" s="63"/>
-      <c r="BC28" s="63"/>
-      <c r="BD28" s="63"/>
-      <c r="BE28" s="63"/>
-      <c r="BF28" s="63"/>
-      <c r="BG28" s="63"/>
-      <c r="BH28" s="63"/>
-      <c r="BI28" s="63"/>
-      <c r="BJ28" s="63"/>
-      <c r="BK28" s="63"/>
-      <c r="BL28" s="63"/>
-      <c r="BM28" s="63"/>
-      <c r="BN28" s="63"/>
-      <c r="BO28" s="63"/>
-      <c r="BP28" s="63"/>
-      <c r="BQ28" s="63"/>
-      <c r="BR28" s="63"/>
-      <c r="BS28" s="63"/>
-      <c r="BT28" s="63"/>
-      <c r="BU28" s="63"/>
-      <c r="BV28" s="63"/>
-      <c r="BW28" s="63"/>
-      <c r="BX28" s="63"/>
-      <c r="BY28" s="63"/>
-      <c r="BZ28" s="63"/>
-      <c r="CA28" s="63"/>
-      <c r="CB28" s="63"/>
-      <c r="CC28" s="63"/>
-      <c r="CD28" s="63"/>
-      <c r="CE28" s="63"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="47"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="47"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="47"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="47"/>
+      <c r="AY28" s="47"/>
+      <c r="AZ28" s="47"/>
+      <c r="BA28" s="47"/>
+      <c r="BB28" s="47"/>
+      <c r="BC28" s="47"/>
+      <c r="BD28" s="47"/>
+      <c r="BE28" s="47"/>
+      <c r="BF28" s="47"/>
+      <c r="BG28" s="47"/>
+      <c r="BH28" s="47"/>
+      <c r="BI28" s="47"/>
+      <c r="BJ28" s="47"/>
+      <c r="BK28" s="47"/>
+      <c r="BL28" s="47"/>
+      <c r="BM28" s="47"/>
+      <c r="BN28" s="47"/>
+      <c r="BO28" s="47"/>
+      <c r="BP28" s="47"/>
+      <c r="BQ28" s="47"/>
+      <c r="BR28" s="47"/>
+      <c r="BS28" s="47"/>
+      <c r="BT28" s="47"/>
+      <c r="BU28" s="47"/>
+      <c r="BV28" s="47"/>
+      <c r="BW28" s="47"/>
+      <c r="BX28" s="47"/>
+      <c r="BY28" s="47"/>
+      <c r="BZ28" s="47"/>
+      <c r="CA28" s="47"/>
+      <c r="CB28" s="47"/>
+      <c r="CC28" s="47"/>
+      <c r="CD28" s="47"/>
+      <c r="CE28" s="47"/>
       <c r="CF28" s="6"/>
       <c r="CG28" s="6"/>
       <c r="CH28" s="6"/>
@@ -6899,86 +6927,86 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="63"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="63"/>
-      <c r="AM31" s="63"/>
-      <c r="AN31" s="63"/>
-      <c r="AO31" s="63"/>
-      <c r="AP31" s="63"/>
-      <c r="AQ31" s="63"/>
-      <c r="AR31" s="63"/>
-      <c r="AS31" s="63"/>
-      <c r="AT31" s="63"/>
-      <c r="AU31" s="63"/>
-      <c r="AV31" s="63"/>
-      <c r="AW31" s="63"/>
-      <c r="AX31" s="63"/>
-      <c r="AY31" s="63"/>
-      <c r="AZ31" s="63"/>
-      <c r="BA31" s="63"/>
-      <c r="BB31" s="63"/>
-      <c r="BC31" s="63"/>
-      <c r="BD31" s="63"/>
-      <c r="BE31" s="63"/>
-      <c r="BF31" s="63"/>
-      <c r="BG31" s="63"/>
-      <c r="BH31" s="63"/>
-      <c r="BI31" s="63"/>
-      <c r="BJ31" s="63"/>
-      <c r="BK31" s="63"/>
-      <c r="BL31" s="63"/>
-      <c r="BM31" s="63"/>
-      <c r="BN31" s="63"/>
-      <c r="BO31" s="63"/>
-      <c r="BP31" s="63"/>
-      <c r="BQ31" s="63"/>
-      <c r="BR31" s="63"/>
-      <c r="BS31" s="63"/>
-      <c r="BT31" s="63"/>
-      <c r="BU31" s="63"/>
-      <c r="BV31" s="63"/>
-      <c r="BW31" s="63"/>
-      <c r="BX31" s="63"/>
-      <c r="BY31" s="63"/>
-      <c r="BZ31" s="63"/>
-      <c r="CA31" s="63"/>
-      <c r="CB31" s="63"/>
-      <c r="CC31" s="63"/>
-      <c r="CD31" s="63"/>
-      <c r="CE31" s="63"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="47"/>
+      <c r="BA31" s="47"/>
+      <c r="BB31" s="47"/>
+      <c r="BC31" s="47"/>
+      <c r="BD31" s="47"/>
+      <c r="BE31" s="47"/>
+      <c r="BF31" s="47"/>
+      <c r="BG31" s="47"/>
+      <c r="BH31" s="47"/>
+      <c r="BI31" s="47"/>
+      <c r="BJ31" s="47"/>
+      <c r="BK31" s="47"/>
+      <c r="BL31" s="47"/>
+      <c r="BM31" s="47"/>
+      <c r="BN31" s="47"/>
+      <c r="BO31" s="47"/>
+      <c r="BP31" s="47"/>
+      <c r="BQ31" s="47"/>
+      <c r="BR31" s="47"/>
+      <c r="BS31" s="47"/>
+      <c r="BT31" s="47"/>
+      <c r="BU31" s="47"/>
+      <c r="BV31" s="47"/>
+      <c r="BW31" s="47"/>
+      <c r="BX31" s="47"/>
+      <c r="BY31" s="47"/>
+      <c r="BZ31" s="47"/>
+      <c r="CA31" s="47"/>
+      <c r="CB31" s="47"/>
+      <c r="CC31" s="47"/>
+      <c r="CD31" s="47"/>
+      <c r="CE31" s="47"/>
       <c r="CF31" s="6"/>
       <c r="CG31" s="6"/>
       <c r="CH31" s="6"/>
@@ -6989,84 +7017,84 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="63"/>
-      <c r="AB32" s="63"/>
-      <c r="AC32" s="63"/>
-      <c r="AD32" s="63"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="63"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="63"/>
-      <c r="AJ32" s="63"/>
-      <c r="AK32" s="63"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="63"/>
-      <c r="AN32" s="63"/>
-      <c r="AO32" s="63"/>
-      <c r="AP32" s="63"/>
-      <c r="AQ32" s="63"/>
-      <c r="AR32" s="63"/>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="63"/>
-      <c r="AU32" s="63"/>
-      <c r="AV32" s="63"/>
-      <c r="AW32" s="63"/>
-      <c r="AX32" s="63"/>
-      <c r="AY32" s="63"/>
-      <c r="AZ32" s="63"/>
-      <c r="BA32" s="63"/>
-      <c r="BB32" s="63"/>
-      <c r="BC32" s="63"/>
-      <c r="BD32" s="63"/>
-      <c r="BE32" s="63"/>
-      <c r="BF32" s="63"/>
-      <c r="BG32" s="63"/>
-      <c r="BH32" s="63"/>
-      <c r="BI32" s="63"/>
-      <c r="BJ32" s="63"/>
-      <c r="BK32" s="63"/>
-      <c r="BL32" s="63"/>
-      <c r="BM32" s="63"/>
-      <c r="BN32" s="63"/>
-      <c r="BO32" s="63"/>
-      <c r="BP32" s="63"/>
-      <c r="BQ32" s="63"/>
-      <c r="BR32" s="63"/>
-      <c r="BS32" s="63"/>
-      <c r="BT32" s="63"/>
-      <c r="BU32" s="63"/>
-      <c r="BV32" s="63"/>
-      <c r="BW32" s="63"/>
-      <c r="BX32" s="63"/>
-      <c r="BY32" s="63"/>
-      <c r="BZ32" s="63"/>
-      <c r="CA32" s="63"/>
-      <c r="CB32" s="63"/>
-      <c r="CC32" s="63"/>
-      <c r="CD32" s="63"/>
-      <c r="CE32" s="63"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="47"/>
+      <c r="AT32" s="47"/>
+      <c r="AU32" s="47"/>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="47"/>
+      <c r="AX32" s="47"/>
+      <c r="AY32" s="47"/>
+      <c r="AZ32" s="47"/>
+      <c r="BA32" s="47"/>
+      <c r="BB32" s="47"/>
+      <c r="BC32" s="47"/>
+      <c r="BD32" s="47"/>
+      <c r="BE32" s="47"/>
+      <c r="BF32" s="47"/>
+      <c r="BG32" s="47"/>
+      <c r="BH32" s="47"/>
+      <c r="BI32" s="47"/>
+      <c r="BJ32" s="47"/>
+      <c r="BK32" s="47"/>
+      <c r="BL32" s="47"/>
+      <c r="BM32" s="47"/>
+      <c r="BN32" s="47"/>
+      <c r="BO32" s="47"/>
+      <c r="BP32" s="47"/>
+      <c r="BQ32" s="47"/>
+      <c r="BR32" s="47"/>
+      <c r="BS32" s="47"/>
+      <c r="BT32" s="47"/>
+      <c r="BU32" s="47"/>
+      <c r="BV32" s="47"/>
+      <c r="BW32" s="47"/>
+      <c r="BX32" s="47"/>
+      <c r="BY32" s="47"/>
+      <c r="BZ32" s="47"/>
+      <c r="CA32" s="47"/>
+      <c r="CB32" s="47"/>
+      <c r="CC32" s="47"/>
+      <c r="CD32" s="47"/>
+      <c r="CE32" s="47"/>
       <c r="CF32" s="5"/>
       <c r="CG32" s="5"/>
       <c r="CH32" s="5"/>
@@ -7077,84 +7105,84 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="63"/>
-      <c r="AC33" s="63"/>
-      <c r="AD33" s="63"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="63"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="63"/>
-      <c r="AI33" s="63"/>
-      <c r="AJ33" s="63"/>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="63"/>
-      <c r="AM33" s="63"/>
-      <c r="AN33" s="63"/>
-      <c r="AO33" s="63"/>
-      <c r="AP33" s="63"/>
-      <c r="AQ33" s="63"/>
-      <c r="AR33" s="63"/>
-      <c r="AS33" s="63"/>
-      <c r="AT33" s="63"/>
-      <c r="AU33" s="63"/>
-      <c r="AV33" s="63"/>
-      <c r="AW33" s="63"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="63"/>
-      <c r="AZ33" s="63"/>
-      <c r="BA33" s="63"/>
-      <c r="BB33" s="63"/>
-      <c r="BC33" s="63"/>
-      <c r="BD33" s="63"/>
-      <c r="BE33" s="63"/>
-      <c r="BF33" s="63"/>
-      <c r="BG33" s="63"/>
-      <c r="BH33" s="63"/>
-      <c r="BI33" s="63"/>
-      <c r="BJ33" s="63"/>
-      <c r="BK33" s="63"/>
-      <c r="BL33" s="63"/>
-      <c r="BM33" s="63"/>
-      <c r="BN33" s="63"/>
-      <c r="BO33" s="63"/>
-      <c r="BP33" s="63"/>
-      <c r="BQ33" s="63"/>
-      <c r="BR33" s="63"/>
-      <c r="BS33" s="63"/>
-      <c r="BT33" s="63"/>
-      <c r="BU33" s="63"/>
-      <c r="BV33" s="63"/>
-      <c r="BW33" s="63"/>
-      <c r="BX33" s="63"/>
-      <c r="BY33" s="63"/>
-      <c r="BZ33" s="63"/>
-      <c r="CA33" s="63"/>
-      <c r="CB33" s="63"/>
-      <c r="CC33" s="63"/>
-      <c r="CD33" s="63"/>
-      <c r="CE33" s="63"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="47"/>
+      <c r="AH33" s="47"/>
+      <c r="AI33" s="47"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="47"/>
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="47"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="47"/>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="47"/>
+      <c r="AS33" s="47"/>
+      <c r="AT33" s="47"/>
+      <c r="AU33" s="47"/>
+      <c r="AV33" s="47"/>
+      <c r="AW33" s="47"/>
+      <c r="AX33" s="47"/>
+      <c r="AY33" s="47"/>
+      <c r="AZ33" s="47"/>
+      <c r="BA33" s="47"/>
+      <c r="BB33" s="47"/>
+      <c r="BC33" s="47"/>
+      <c r="BD33" s="47"/>
+      <c r="BE33" s="47"/>
+      <c r="BF33" s="47"/>
+      <c r="BG33" s="47"/>
+      <c r="BH33" s="47"/>
+      <c r="BI33" s="47"/>
+      <c r="BJ33" s="47"/>
+      <c r="BK33" s="47"/>
+      <c r="BL33" s="47"/>
+      <c r="BM33" s="47"/>
+      <c r="BN33" s="47"/>
+      <c r="BO33" s="47"/>
+      <c r="BP33" s="47"/>
+      <c r="BQ33" s="47"/>
+      <c r="BR33" s="47"/>
+      <c r="BS33" s="47"/>
+      <c r="BT33" s="47"/>
+      <c r="BU33" s="47"/>
+      <c r="BV33" s="47"/>
+      <c r="BW33" s="47"/>
+      <c r="BX33" s="47"/>
+      <c r="BY33" s="47"/>
+      <c r="BZ33" s="47"/>
+      <c r="CA33" s="47"/>
+      <c r="CB33" s="47"/>
+      <c r="CC33" s="47"/>
+      <c r="CD33" s="47"/>
+      <c r="CE33" s="47"/>
       <c r="CF33" s="5"/>
       <c r="CG33" s="5"/>
       <c r="CH33" s="5"/>
@@ -7165,84 +7193,84 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
-      <c r="AC34" s="63"/>
-      <c r="AD34" s="63"/>
-      <c r="AE34" s="63"/>
-      <c r="AF34" s="63"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="63"/>
-      <c r="AM34" s="63"/>
-      <c r="AN34" s="63"/>
-      <c r="AO34" s="63"/>
-      <c r="AP34" s="63"/>
-      <c r="AQ34" s="63"/>
-      <c r="AR34" s="63"/>
-      <c r="AS34" s="63"/>
-      <c r="AT34" s="63"/>
-      <c r="AU34" s="63"/>
-      <c r="AV34" s="63"/>
-      <c r="AW34" s="63"/>
-      <c r="AX34" s="63"/>
-      <c r="AY34" s="63"/>
-      <c r="AZ34" s="63"/>
-      <c r="BA34" s="63"/>
-      <c r="BB34" s="63"/>
-      <c r="BC34" s="63"/>
-      <c r="BD34" s="63"/>
-      <c r="BE34" s="63"/>
-      <c r="BF34" s="63"/>
-      <c r="BG34" s="63"/>
-      <c r="BH34" s="63"/>
-      <c r="BI34" s="63"/>
-      <c r="BJ34" s="63"/>
-      <c r="BK34" s="63"/>
-      <c r="BL34" s="63"/>
-      <c r="BM34" s="63"/>
-      <c r="BN34" s="63"/>
-      <c r="BO34" s="63"/>
-      <c r="BP34" s="63"/>
-      <c r="BQ34" s="63"/>
-      <c r="BR34" s="63"/>
-      <c r="BS34" s="63"/>
-      <c r="BT34" s="63"/>
-      <c r="BU34" s="63"/>
-      <c r="BV34" s="63"/>
-      <c r="BW34" s="63"/>
-      <c r="BX34" s="63"/>
-      <c r="BY34" s="63"/>
-      <c r="BZ34" s="63"/>
-      <c r="CA34" s="63"/>
-      <c r="CB34" s="63"/>
-      <c r="CC34" s="63"/>
-      <c r="CD34" s="63"/>
-      <c r="CE34" s="63"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="47"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="47"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="47"/>
+      <c r="AK34" s="47"/>
+      <c r="AL34" s="47"/>
+      <c r="AM34" s="47"/>
+      <c r="AN34" s="47"/>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="47"/>
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="47"/>
+      <c r="AS34" s="47"/>
+      <c r="AT34" s="47"/>
+      <c r="AU34" s="47"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="47"/>
+      <c r="AX34" s="47"/>
+      <c r="AY34" s="47"/>
+      <c r="AZ34" s="47"/>
+      <c r="BA34" s="47"/>
+      <c r="BB34" s="47"/>
+      <c r="BC34" s="47"/>
+      <c r="BD34" s="47"/>
+      <c r="BE34" s="47"/>
+      <c r="BF34" s="47"/>
+      <c r="BG34" s="47"/>
+      <c r="BH34" s="47"/>
+      <c r="BI34" s="47"/>
+      <c r="BJ34" s="47"/>
+      <c r="BK34" s="47"/>
+      <c r="BL34" s="47"/>
+      <c r="BM34" s="47"/>
+      <c r="BN34" s="47"/>
+      <c r="BO34" s="47"/>
+      <c r="BP34" s="47"/>
+      <c r="BQ34" s="47"/>
+      <c r="BR34" s="47"/>
+      <c r="BS34" s="47"/>
+      <c r="BT34" s="47"/>
+      <c r="BU34" s="47"/>
+      <c r="BV34" s="47"/>
+      <c r="BW34" s="47"/>
+      <c r="BX34" s="47"/>
+      <c r="BY34" s="47"/>
+      <c r="BZ34" s="47"/>
+      <c r="CA34" s="47"/>
+      <c r="CB34" s="47"/>
+      <c r="CC34" s="47"/>
+      <c r="CD34" s="47"/>
+      <c r="CE34" s="47"/>
       <c r="CF34" s="5"/>
       <c r="CG34" s="5"/>
       <c r="CH34" s="5"/>
@@ -7254,46 +7282,46 @@
     </row>
     <row r="36" spans="2:87">
       <c r="B36" s="4"/>
-      <c r="BO36" s="45" t="s">
+      <c r="BO36" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="BP36" s="46"/>
-      <c r="BQ36" s="46"/>
-      <c r="BR36" s="46"/>
-      <c r="BS36" s="46"/>
-      <c r="BT36" s="46"/>
-      <c r="BU36" s="46"/>
-      <c r="BV36" s="46"/>
-      <c r="BW36" s="46"/>
-      <c r="BX36" s="46"/>
-      <c r="BY36" s="46"/>
-      <c r="BZ36" s="46"/>
-      <c r="CA36" s="46"/>
-      <c r="CB36" s="46"/>
-      <c r="CC36" s="46"/>
-      <c r="CD36" s="46"/>
-      <c r="CE36" s="47"/>
+      <c r="BP36" s="30"/>
+      <c r="BQ36" s="30"/>
+      <c r="BR36" s="30"/>
+      <c r="BS36" s="30"/>
+      <c r="BT36" s="30"/>
+      <c r="BU36" s="30"/>
+      <c r="BV36" s="30"/>
+      <c r="BW36" s="30"/>
+      <c r="BX36" s="30"/>
+      <c r="BY36" s="30"/>
+      <c r="BZ36" s="30"/>
+      <c r="CA36" s="30"/>
+      <c r="CB36" s="30"/>
+      <c r="CC36" s="30"/>
+      <c r="CD36" s="30"/>
+      <c r="CE36" s="31"/>
       <c r="CI36" s="8"/>
     </row>
     <row r="37" spans="2:87" ht="18.75" thickBot="1">
       <c r="B37" s="4"/>
-      <c r="BO37" s="48"/>
-      <c r="BP37" s="49"/>
-      <c r="BQ37" s="49"/>
-      <c r="BR37" s="49"/>
-      <c r="BS37" s="49"/>
-      <c r="BT37" s="49"/>
-      <c r="BU37" s="49"/>
-      <c r="BV37" s="49"/>
-      <c r="BW37" s="49"/>
-      <c r="BX37" s="49"/>
-      <c r="BY37" s="49"/>
-      <c r="BZ37" s="49"/>
-      <c r="CA37" s="49"/>
-      <c r="CB37" s="49"/>
-      <c r="CC37" s="49"/>
-      <c r="CD37" s="49"/>
-      <c r="CE37" s="50"/>
+      <c r="BO37" s="32"/>
+      <c r="BP37" s="33"/>
+      <c r="BQ37" s="33"/>
+      <c r="BR37" s="33"/>
+      <c r="BS37" s="33"/>
+      <c r="BT37" s="33"/>
+      <c r="BU37" s="33"/>
+      <c r="BV37" s="33"/>
+      <c r="BW37" s="33"/>
+      <c r="BX37" s="33"/>
+      <c r="BY37" s="33"/>
+      <c r="BZ37" s="33"/>
+      <c r="CA37" s="33"/>
+      <c r="CB37" s="33"/>
+      <c r="CC37" s="33"/>
+      <c r="CD37" s="33"/>
+      <c r="CE37" s="34"/>
       <c r="CI37" s="8"/>
     </row>
     <row r="38" spans="2:87" ht="18" customHeight="1" thickBot="1">
@@ -7387,13 +7415,14 @@
     <row r="39" spans="2:87" ht="18.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="BO36:CE37"/>
-    <mergeCell ref="F11:CE12"/>
-    <mergeCell ref="X14:BM17"/>
-    <mergeCell ref="F19:CE22"/>
-    <mergeCell ref="F25:CE28"/>
-    <mergeCell ref="F31:CE34"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -7408,14 +7437,13 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="BO36:CE37"/>
+    <mergeCell ref="F11:CE12"/>
+    <mergeCell ref="X14:BM17"/>
+    <mergeCell ref="F19:CE22"/>
+    <mergeCell ref="F25:CE28"/>
+    <mergeCell ref="F31:CE34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7430,10 +7458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK28"/>
+  <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ12" sqref="BQ12:CI12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ16" sqref="BQ16:CI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7446,102 +7474,102 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="39"/>
-      <c r="BK1" s="39"/>
-      <c r="BL1" s="40" t="s">
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="41"/>
-      <c r="BQ1" s="41"/>
-      <c r="BR1" s="41"/>
-      <c r="BS1" s="41"/>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BW1" s="41"/>
-      <c r="BX1" s="42" t="s">
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="60"/>
+      <c r="BQ1" s="60"/>
+      <c r="BR1" s="60"/>
+      <c r="BS1" s="60"/>
+      <c r="BT1" s="60"/>
+      <c r="BU1" s="60"/>
+      <c r="BV1" s="60"/>
+      <c r="BW1" s="60"/>
+      <c r="BX1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42"/>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="29"/>
-      <c r="CC1" s="29"/>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
+      <c r="BY1" s="61"/>
+      <c r="BZ1" s="61"/>
+      <c r="CA1" s="61"/>
+      <c r="CB1" s="48"/>
+      <c r="CC1" s="48"/>
+      <c r="CD1" s="48"/>
+      <c r="CE1" s="48"/>
+      <c r="CF1" s="48"/>
+      <c r="CG1" s="48"/>
+      <c r="CH1" s="48"/>
+      <c r="CI1" s="48"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -8482,102 +8510,102 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="33" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="51"/>
+      <c r="BK2" s="51"/>
+      <c r="BL2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="34"/>
-      <c r="BQ2" s="34"/>
-      <c r="BR2" s="34"/>
-      <c r="BS2" s="34"/>
-      <c r="BT2" s="34"/>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="35" t="s">
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="53"/>
+      <c r="BR2" s="53"/>
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="53"/>
+      <c r="BW2" s="53"/>
+      <c r="BX2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
+      <c r="BY2" s="54"/>
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="55"/>
+      <c r="CD2" s="55"/>
+      <c r="CE2" s="55"/>
+      <c r="CF2" s="55"/>
+      <c r="CG2" s="55"/>
+      <c r="CH2" s="55"/>
+      <c r="CI2" s="55"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -9605,417 +9633,417 @@
       <c r="CI3" s="10"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24" t="s">
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="25" t="s">
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="25"/>
-      <c r="BH4" s="25"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="25"/>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="25"/>
-      <c r="BN4" s="25"/>
-      <c r="BO4" s="25"/>
-      <c r="BP4" s="25"/>
-      <c r="BQ4" s="25"/>
-      <c r="BR4" s="25"/>
-      <c r="BS4" s="25"/>
-      <c r="BT4" s="25"/>
-      <c r="BU4" s="25"/>
-      <c r="BV4" s="25"/>
-      <c r="BW4" s="25"/>
-      <c r="BX4" s="25"/>
-      <c r="BY4" s="25"/>
-      <c r="BZ4" s="25"/>
-      <c r="CA4" s="25"/>
-      <c r="CB4" s="25"/>
-      <c r="CC4" s="25"/>
-      <c r="CD4" s="25"/>
-      <c r="CE4" s="25"/>
-      <c r="CF4" s="25"/>
-      <c r="CG4" s="25"/>
-      <c r="CH4" s="25"/>
-      <c r="CI4" s="25"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="64"/>
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="64"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="64"/>
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="64"/>
+      <c r="BJ4" s="64"/>
+      <c r="BK4" s="64"/>
+      <c r="BL4" s="64"/>
+      <c r="BM4" s="64"/>
+      <c r="BN4" s="64"/>
+      <c r="BO4" s="64"/>
+      <c r="BP4" s="64"/>
+      <c r="BQ4" s="64"/>
+      <c r="BR4" s="64"/>
+      <c r="BS4" s="64"/>
+      <c r="BT4" s="64"/>
+      <c r="BU4" s="64"/>
+      <c r="BV4" s="64"/>
+      <c r="BW4" s="64"/>
+      <c r="BX4" s="64"/>
+      <c r="BY4" s="64"/>
+      <c r="BZ4" s="64"/>
+      <c r="CA4" s="64"/>
+      <c r="CB4" s="64"/>
+      <c r="CC4" s="64"/>
+      <c r="CD4" s="64"/>
+      <c r="CE4" s="64"/>
+      <c r="CF4" s="64"/>
+      <c r="CG4" s="64"/>
+      <c r="CH4" s="64"/>
+      <c r="CI4" s="64"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="26">
+      <c r="B5" s="65">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27" t="s">
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="28" t="s">
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
-      <c r="BD5" s="28"/>
-      <c r="BE5" s="28"/>
-      <c r="BF5" s="28"/>
-      <c r="BG5" s="28"/>
-      <c r="BH5" s="28"/>
-      <c r="BI5" s="28"/>
-      <c r="BJ5" s="28"/>
-      <c r="BK5" s="28"/>
-      <c r="BL5" s="28"/>
-      <c r="BM5" s="28"/>
-      <c r="BN5" s="28"/>
-      <c r="BO5" s="28"/>
-      <c r="BP5" s="28"/>
-      <c r="BQ5" s="28"/>
-      <c r="BR5" s="28"/>
-      <c r="BS5" s="28"/>
-      <c r="BT5" s="28"/>
-      <c r="BU5" s="28"/>
-      <c r="BV5" s="28"/>
-      <c r="BW5" s="28"/>
-      <c r="BX5" s="28"/>
-      <c r="BY5" s="28"/>
-      <c r="BZ5" s="28"/>
-      <c r="CA5" s="28"/>
-      <c r="CB5" s="28"/>
-      <c r="CC5" s="28"/>
-      <c r="CD5" s="28"/>
-      <c r="CE5" s="28"/>
-      <c r="CF5" s="28"/>
-      <c r="CG5" s="28"/>
-      <c r="CH5" s="28"/>
-      <c r="CI5" s="28"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="67"/>
+      <c r="AV5" s="67"/>
+      <c r="AW5" s="67"/>
+      <c r="AX5" s="67"/>
+      <c r="AY5" s="67"/>
+      <c r="AZ5" s="67"/>
+      <c r="BA5" s="67"/>
+      <c r="BB5" s="67"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="67"/>
+      <c r="BE5" s="67"/>
+      <c r="BF5" s="67"/>
+      <c r="BG5" s="67"/>
+      <c r="BH5" s="67"/>
+      <c r="BI5" s="67"/>
+      <c r="BJ5" s="67"/>
+      <c r="BK5" s="67"/>
+      <c r="BL5" s="67"/>
+      <c r="BM5" s="67"/>
+      <c r="BN5" s="67"/>
+      <c r="BO5" s="67"/>
+      <c r="BP5" s="67"/>
+      <c r="BQ5" s="67"/>
+      <c r="BR5" s="67"/>
+      <c r="BS5" s="67"/>
+      <c r="BT5" s="67"/>
+      <c r="BU5" s="67"/>
+      <c r="BV5" s="67"/>
+      <c r="BW5" s="67"/>
+      <c r="BX5" s="67"/>
+      <c r="BY5" s="67"/>
+      <c r="BZ5" s="67"/>
+      <c r="CA5" s="67"/>
+      <c r="CB5" s="67"/>
+      <c r="CC5" s="67"/>
+      <c r="CD5" s="67"/>
+      <c r="CE5" s="67"/>
+      <c r="CF5" s="67"/>
+      <c r="CG5" s="67"/>
+      <c r="CH5" s="67"/>
+      <c r="CI5" s="67"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="135"/>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="135"/>
-      <c r="AF6" s="135"/>
-      <c r="AG6" s="135"/>
-      <c r="AH6" s="135"/>
-      <c r="AI6" s="135"/>
-      <c r="AJ6" s="135"/>
-      <c r="AK6" s="135"/>
-      <c r="AL6" s="135"/>
-      <c r="AM6" s="135"/>
-      <c r="AN6" s="135"/>
-      <c r="AO6" s="135"/>
-      <c r="AP6" s="135"/>
-      <c r="AQ6" s="135"/>
-      <c r="AR6" s="135"/>
-      <c r="AS6" s="135"/>
-      <c r="AT6" s="135"/>
-      <c r="AU6" s="135"/>
-      <c r="AV6" s="135"/>
-      <c r="AW6" s="135"/>
-      <c r="AX6" s="135"/>
-      <c r="AY6" s="135"/>
-      <c r="AZ6" s="135"/>
-      <c r="BA6" s="135"/>
-      <c r="BB6" s="135"/>
-      <c r="BC6" s="135"/>
-      <c r="BD6" s="135"/>
-      <c r="BE6" s="135"/>
-      <c r="BF6" s="135"/>
-      <c r="BG6" s="135"/>
-      <c r="BH6" s="135"/>
-      <c r="BI6" s="135"/>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
-      <c r="BN6" s="135"/>
-      <c r="BO6" s="135"/>
-      <c r="BP6" s="135"/>
-      <c r="BQ6" s="135"/>
-      <c r="BR6" s="135"/>
-      <c r="BS6" s="135"/>
-      <c r="BT6" s="135"/>
-      <c r="BU6" s="135"/>
-      <c r="BV6" s="135"/>
-      <c r="BW6" s="135"/>
-      <c r="BX6" s="135"/>
-      <c r="BY6" s="135"/>
-      <c r="BZ6" s="135"/>
-      <c r="CA6" s="135"/>
-      <c r="CB6" s="135"/>
-      <c r="CC6" s="135"/>
-      <c r="CD6" s="135"/>
-      <c r="CE6" s="135"/>
-      <c r="CF6" s="135"/>
-      <c r="CG6" s="135"/>
-      <c r="CH6" s="135"/>
-      <c r="CI6" s="135"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="101"/>
+      <c r="AG6" s="101"/>
+      <c r="AH6" s="101"/>
+      <c r="AI6" s="101"/>
+      <c r="AJ6" s="101"/>
+      <c r="AK6" s="101"/>
+      <c r="AL6" s="101"/>
+      <c r="AM6" s="101"/>
+      <c r="AN6" s="101"/>
+      <c r="AO6" s="101"/>
+      <c r="AP6" s="101"/>
+      <c r="AQ6" s="101"/>
+      <c r="AR6" s="101"/>
+      <c r="AS6" s="101"/>
+      <c r="AT6" s="101"/>
+      <c r="AU6" s="101"/>
+      <c r="AV6" s="101"/>
+      <c r="AW6" s="101"/>
+      <c r="AX6" s="101"/>
+      <c r="AY6" s="101"/>
+      <c r="AZ6" s="101"/>
+      <c r="BA6" s="101"/>
+      <c r="BB6" s="101"/>
+      <c r="BC6" s="101"/>
+      <c r="BD6" s="101"/>
+      <c r="BE6" s="101"/>
+      <c r="BF6" s="101"/>
+      <c r="BG6" s="101"/>
+      <c r="BH6" s="101"/>
+      <c r="BI6" s="101"/>
+      <c r="BJ6" s="101"/>
+      <c r="BK6" s="101"/>
+      <c r="BL6" s="101"/>
+      <c r="BM6" s="101"/>
+      <c r="BN6" s="101"/>
+      <c r="BO6" s="101"/>
+      <c r="BP6" s="101"/>
+      <c r="BQ6" s="101"/>
+      <c r="BR6" s="101"/>
+      <c r="BS6" s="101"/>
+      <c r="BT6" s="101"/>
+      <c r="BU6" s="101"/>
+      <c r="BV6" s="101"/>
+      <c r="BW6" s="101"/>
+      <c r="BX6" s="101"/>
+      <c r="BY6" s="101"/>
+      <c r="BZ6" s="101"/>
+      <c r="CA6" s="101"/>
+      <c r="CB6" s="101"/>
+      <c r="CC6" s="101"/>
+      <c r="CD6" s="101"/>
+      <c r="CE6" s="101"/>
+      <c r="CF6" s="101"/>
+      <c r="CG6" s="101"/>
+      <c r="CH6" s="101"/>
+      <c r="CI6" s="101"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="137" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="137" t="s">
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="138"/>
-      <c r="AG7" s="139"/>
-      <c r="AH7" s="137" t="s">
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="138"/>
-      <c r="AJ7" s="139"/>
-      <c r="AK7" s="137" t="s">
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="138"/>
-      <c r="AM7" s="138"/>
-      <c r="AN7" s="138"/>
-      <c r="AO7" s="138"/>
-      <c r="AP7" s="138"/>
-      <c r="AQ7" s="138"/>
-      <c r="AR7" s="142"/>
-      <c r="AS7" s="142"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="140" t="s">
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="140"/>
-      <c r="AW7" s="140"/>
-      <c r="AX7" s="140"/>
-      <c r="AY7" s="140"/>
-      <c r="AZ7" s="140"/>
-      <c r="BA7" s="140"/>
-      <c r="BB7" s="140"/>
-      <c r="BC7" s="140"/>
-      <c r="BD7" s="140"/>
-      <c r="BE7" s="140"/>
-      <c r="BF7" s="140"/>
-      <c r="BG7" s="140"/>
-      <c r="BH7" s="140"/>
-      <c r="BI7" s="140"/>
-      <c r="BJ7" s="140"/>
-      <c r="BK7" s="140"/>
-      <c r="BL7" s="140"/>
-      <c r="BM7" s="140"/>
-      <c r="BN7" s="140"/>
-      <c r="BO7" s="140"/>
-      <c r="BP7" s="140"/>
-      <c r="BQ7" s="141" t="s">
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="103"/>
+      <c r="AX7" s="103"/>
+      <c r="AY7" s="103"/>
+      <c r="AZ7" s="103"/>
+      <c r="BA7" s="103"/>
+      <c r="BB7" s="103"/>
+      <c r="BC7" s="103"/>
+      <c r="BD7" s="103"/>
+      <c r="BE7" s="103"/>
+      <c r="BF7" s="103"/>
+      <c r="BG7" s="103"/>
+      <c r="BH7" s="103"/>
+      <c r="BI7" s="103"/>
+      <c r="BJ7" s="103"/>
+      <c r="BK7" s="103"/>
+      <c r="BL7" s="103"/>
+      <c r="BM7" s="103"/>
+      <c r="BN7" s="103"/>
+      <c r="BO7" s="103"/>
+      <c r="BP7" s="103"/>
+      <c r="BQ7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="141"/>
-      <c r="BS7" s="141"/>
-      <c r="BT7" s="141"/>
-      <c r="BU7" s="141"/>
-      <c r="BV7" s="141"/>
-      <c r="BW7" s="141"/>
-      <c r="BX7" s="141"/>
-      <c r="BY7" s="141"/>
-      <c r="BZ7" s="141"/>
-      <c r="CA7" s="141"/>
-      <c r="CB7" s="141"/>
-      <c r="CC7" s="141"/>
-      <c r="CD7" s="141"/>
-      <c r="CE7" s="141"/>
-      <c r="CF7" s="141"/>
-      <c r="CG7" s="141"/>
-      <c r="CH7" s="141"/>
-      <c r="CI7" s="141"/>
+      <c r="BR7" s="104"/>
+      <c r="BS7" s="104"/>
+      <c r="BT7" s="104"/>
+      <c r="BU7" s="104"/>
+      <c r="BV7" s="104"/>
+      <c r="BW7" s="104"/>
+      <c r="BX7" s="104"/>
+      <c r="BY7" s="104"/>
+      <c r="BZ7" s="104"/>
+      <c r="CA7" s="104"/>
+      <c r="CB7" s="104"/>
+      <c r="CC7" s="104"/>
+      <c r="CD7" s="104"/>
+      <c r="CE7" s="104"/>
+      <c r="CF7" s="104"/>
+      <c r="CG7" s="104"/>
+      <c r="CH7" s="104"/>
+      <c r="CI7" s="104"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1">
-      <c r="B8" s="152"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="153" t="s">
+      <c r="E8" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="154"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="154"/>
-      <c r="T8" s="154"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="155"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="20"/>
@@ -10038,1955 +10066,2336 @@
       <c r="AR8" s="21"/>
       <c r="AS8" s="21"/>
       <c r="AT8" s="22"/>
-      <c r="AU8" s="137"/>
-      <c r="AV8" s="138"/>
-      <c r="AW8" s="138"/>
-      <c r="AX8" s="138"/>
-      <c r="AY8" s="138"/>
-      <c r="AZ8" s="138"/>
-      <c r="BA8" s="138"/>
-      <c r="BB8" s="138"/>
-      <c r="BC8" s="138"/>
-      <c r="BD8" s="138"/>
-      <c r="BE8" s="138"/>
-      <c r="BF8" s="138"/>
-      <c r="BG8" s="138"/>
-      <c r="BH8" s="138"/>
-      <c r="BI8" s="138"/>
-      <c r="BJ8" s="138"/>
-      <c r="BK8" s="138"/>
-      <c r="BL8" s="138"/>
-      <c r="BM8" s="138"/>
-      <c r="BN8" s="138"/>
-      <c r="BO8" s="138"/>
-      <c r="BP8" s="139"/>
-      <c r="BQ8" s="137"/>
-      <c r="BR8" s="138"/>
-      <c r="BS8" s="138"/>
-      <c r="BT8" s="138"/>
-      <c r="BU8" s="138"/>
-      <c r="BV8" s="138"/>
-      <c r="BW8" s="138"/>
-      <c r="BX8" s="138"/>
-      <c r="BY8" s="138"/>
-      <c r="BZ8" s="138"/>
-      <c r="CA8" s="138"/>
-      <c r="CB8" s="138"/>
-      <c r="CC8" s="138"/>
-      <c r="CD8" s="138"/>
-      <c r="CE8" s="138"/>
-      <c r="CF8" s="138"/>
-      <c r="CG8" s="138"/>
-      <c r="CH8" s="138"/>
-      <c r="CI8" s="156"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="72"/>
+      <c r="BD8" s="72"/>
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="72"/>
+      <c r="BG8" s="72"/>
+      <c r="BH8" s="72"/>
+      <c r="BI8" s="72"/>
+      <c r="BJ8" s="72"/>
+      <c r="BK8" s="72"/>
+      <c r="BL8" s="72"/>
+      <c r="BM8" s="72"/>
+      <c r="BN8" s="72"/>
+      <c r="BO8" s="72"/>
+      <c r="BP8" s="73"/>
+      <c r="BQ8" s="71"/>
+      <c r="BR8" s="72"/>
+      <c r="BS8" s="72"/>
+      <c r="BT8" s="72"/>
+      <c r="BU8" s="72"/>
+      <c r="BV8" s="72"/>
+      <c r="BW8" s="72"/>
+      <c r="BX8" s="72"/>
+      <c r="BY8" s="72"/>
+      <c r="BZ8" s="72"/>
+      <c r="CA8" s="72"/>
+      <c r="CB8" s="72"/>
+      <c r="CC8" s="72"/>
+      <c r="CD8" s="72"/>
+      <c r="CE8" s="72"/>
+      <c r="CF8" s="72"/>
+      <c r="CG8" s="72"/>
+      <c r="CH8" s="72"/>
+      <c r="CI8" s="74"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1">
-      <c r="B9" s="157">
+      <c r="B9" s="78">
         <v>1</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="166" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="167"/>
-      <c r="S9" s="167"/>
-      <c r="T9" s="167"/>
-      <c r="U9" s="167"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="166" t="s">
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="168"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="161"/>
-      <c r="AJ9" s="162"/>
-      <c r="AK9" s="166" t="s">
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="81"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="AL9" s="167"/>
-      <c r="AM9" s="167"/>
-      <c r="AN9" s="167"/>
-      <c r="AO9" s="167"/>
-      <c r="AP9" s="167"/>
-      <c r="AQ9" s="167"/>
-      <c r="AR9" s="167"/>
-      <c r="AS9" s="167"/>
-      <c r="AT9" s="168"/>
-      <c r="AU9" s="144" t="s">
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="76"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="76"/>
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="81"/>
+      <c r="AU9" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="AV9" s="144"/>
-      <c r="AW9" s="144"/>
-      <c r="AX9" s="144"/>
-      <c r="AY9" s="144"/>
-      <c r="AZ9" s="144"/>
-      <c r="BA9" s="144"/>
-      <c r="BB9" s="144"/>
-      <c r="BC9" s="144"/>
-      <c r="BD9" s="144"/>
-      <c r="BE9" s="144" t="s">
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="85"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="85"/>
+      <c r="BB9" s="85"/>
+      <c r="BC9" s="85"/>
+      <c r="BD9" s="85"/>
+      <c r="BE9" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="BF9" s="144"/>
-      <c r="BG9" s="144"/>
-      <c r="BH9" s="144"/>
-      <c r="BI9" s="144"/>
-      <c r="BJ9" s="144"/>
-      <c r="BK9" s="144"/>
-      <c r="BL9" s="144"/>
-      <c r="BM9" s="144"/>
-      <c r="BN9" s="144"/>
-      <c r="BO9" s="144"/>
-      <c r="BP9" s="144"/>
-      <c r="BQ9" s="166" t="s">
+      <c r="BF9" s="85"/>
+      <c r="BG9" s="85"/>
+      <c r="BH9" s="85"/>
+      <c r="BI9" s="85"/>
+      <c r="BJ9" s="85"/>
+      <c r="BK9" s="85"/>
+      <c r="BL9" s="85"/>
+      <c r="BM9" s="85"/>
+      <c r="BN9" s="85"/>
+      <c r="BO9" s="85"/>
+      <c r="BP9" s="85"/>
+      <c r="BQ9" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="BR9" s="167"/>
-      <c r="BS9" s="167"/>
-      <c r="BT9" s="167"/>
-      <c r="BU9" s="167"/>
-      <c r="BV9" s="167"/>
-      <c r="BW9" s="167"/>
-      <c r="BX9" s="167"/>
-      <c r="BY9" s="167"/>
-      <c r="BZ9" s="167"/>
-      <c r="CA9" s="167"/>
-      <c r="CB9" s="167"/>
-      <c r="CC9" s="167"/>
-      <c r="CD9" s="167"/>
-      <c r="CE9" s="167"/>
-      <c r="CF9" s="167"/>
-      <c r="CG9" s="167"/>
-      <c r="CH9" s="167"/>
-      <c r="CI9" s="169"/>
+      <c r="BR9" s="76"/>
+      <c r="BS9" s="76"/>
+      <c r="BT9" s="76"/>
+      <c r="BU9" s="76"/>
+      <c r="BV9" s="76"/>
+      <c r="BW9" s="76"/>
+      <c r="BX9" s="76"/>
+      <c r="BY9" s="76"/>
+      <c r="BZ9" s="76"/>
+      <c r="CA9" s="76"/>
+      <c r="CB9" s="76"/>
+      <c r="CC9" s="76"/>
+      <c r="CD9" s="76"/>
+      <c r="CE9" s="76"/>
+      <c r="CF9" s="76"/>
+      <c r="CG9" s="76"/>
+      <c r="CH9" s="76"/>
+      <c r="CI9" s="77"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1">
-      <c r="B10" s="64">
-        <f t="shared" ref="B10:B16" si="0">ROW(B10)-7</f>
+      <c r="B10" s="87">
+        <f t="shared" ref="B10:B18" si="0">ROW(B10)-7</f>
         <v>3</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="127" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="131"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="130"/>
-      <c r="AI10" s="131"/>
-      <c r="AJ10" s="132"/>
-      <c r="AK10" s="127"/>
-      <c r="AL10" s="128"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="128"/>
-      <c r="AP10" s="128"/>
-      <c r="AQ10" s="128"/>
-      <c r="AR10" s="133"/>
-      <c r="AS10" s="133"/>
-      <c r="AT10" s="134"/>
-      <c r="AU10" s="125"/>
-      <c r="AV10" s="125"/>
-      <c r="AW10" s="125"/>
-      <c r="AX10" s="125"/>
-      <c r="AY10" s="125"/>
-      <c r="AZ10" s="125"/>
-      <c r="BA10" s="125"/>
-      <c r="BB10" s="125"/>
-      <c r="BC10" s="125"/>
-      <c r="BD10" s="125"/>
-      <c r="BE10" s="125"/>
-      <c r="BF10" s="125"/>
-      <c r="BG10" s="125"/>
-      <c r="BH10" s="125"/>
-      <c r="BI10" s="125"/>
-      <c r="BJ10" s="125"/>
-      <c r="BK10" s="125"/>
-      <c r="BL10" s="125"/>
-      <c r="BM10" s="125"/>
-      <c r="BN10" s="125"/>
-      <c r="BO10" s="125"/>
-      <c r="BP10" s="125"/>
-      <c r="BQ10" s="126"/>
-      <c r="BR10" s="126"/>
-      <c r="BS10" s="126"/>
-      <c r="BT10" s="126"/>
-      <c r="BU10" s="126"/>
-      <c r="BV10" s="126"/>
-      <c r="BW10" s="126"/>
-      <c r="BX10" s="126"/>
-      <c r="BY10" s="126"/>
-      <c r="BZ10" s="126"/>
-      <c r="CA10" s="126"/>
-      <c r="CB10" s="126"/>
-      <c r="CC10" s="126"/>
-      <c r="CD10" s="126"/>
-      <c r="CE10" s="126"/>
-      <c r="CF10" s="126"/>
-      <c r="CG10" s="126"/>
-      <c r="CH10" s="126"/>
-      <c r="CI10" s="126"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="111"/>
+      <c r="AH10" s="112"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="110"/>
+      <c r="AN10" s="110"/>
+      <c r="AO10" s="110"/>
+      <c r="AP10" s="110"/>
+      <c r="AQ10" s="110"/>
+      <c r="AR10" s="115"/>
+      <c r="AS10" s="115"/>
+      <c r="AT10" s="116"/>
+      <c r="AU10" s="107"/>
+      <c r="AV10" s="107"/>
+      <c r="AW10" s="107"/>
+      <c r="AX10" s="107"/>
+      <c r="AY10" s="107"/>
+      <c r="AZ10" s="107"/>
+      <c r="BA10" s="107"/>
+      <c r="BB10" s="107"/>
+      <c r="BC10" s="107"/>
+      <c r="BD10" s="107"/>
+      <c r="BE10" s="107"/>
+      <c r="BF10" s="107"/>
+      <c r="BG10" s="107"/>
+      <c r="BH10" s="107"/>
+      <c r="BI10" s="107"/>
+      <c r="BJ10" s="107"/>
+      <c r="BK10" s="107"/>
+      <c r="BL10" s="107"/>
+      <c r="BM10" s="107"/>
+      <c r="BN10" s="107"/>
+      <c r="BO10" s="107"/>
+      <c r="BP10" s="107"/>
+      <c r="BQ10" s="108"/>
+      <c r="BR10" s="108"/>
+      <c r="BS10" s="108"/>
+      <c r="BT10" s="108"/>
+      <c r="BU10" s="108"/>
+      <c r="BV10" s="108"/>
+      <c r="BW10" s="108"/>
+      <c r="BX10" s="108"/>
+      <c r="BY10" s="108"/>
+      <c r="BZ10" s="108"/>
+      <c r="CA10" s="108"/>
+      <c r="CB10" s="108"/>
+      <c r="CC10" s="108"/>
+      <c r="CD10" s="108"/>
+      <c r="CE10" s="108"/>
+      <c r="CF10" s="108"/>
+      <c r="CG10" s="108"/>
+      <c r="CH10" s="108"/>
+      <c r="CI10" s="108"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1">
-      <c r="B11" s="64">
+      <c r="B11" s="87">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="146" t="s">
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="70" t="s">
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="146" t="s">
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="147"/>
-      <c r="AF11" s="147"/>
-      <c r="AG11" s="148"/>
-      <c r="AH11" s="149">
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="96">
         <v>20</v>
       </c>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="151"/>
-      <c r="AK11" s="146" t="s">
+      <c r="AI11" s="97"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="AL11" s="147"/>
-      <c r="AM11" s="147"/>
-      <c r="AN11" s="147"/>
-      <c r="AO11" s="147"/>
-      <c r="AP11" s="147"/>
-      <c r="AQ11" s="147"/>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="144" t="s">
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="91"/>
+      <c r="AO11" s="91"/>
+      <c r="AP11" s="91"/>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="100"/>
+      <c r="AU11" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="AV11" s="144"/>
-      <c r="AW11" s="144"/>
-      <c r="AX11" s="144"/>
-      <c r="AY11" s="144"/>
-      <c r="AZ11" s="144"/>
-      <c r="BA11" s="144"/>
-      <c r="BB11" s="144"/>
-      <c r="BC11" s="144"/>
-      <c r="BD11" s="144"/>
-      <c r="BE11" s="144" t="s">
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="85"/>
+      <c r="BD11" s="85"/>
+      <c r="BE11" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="BF11" s="144"/>
-      <c r="BG11" s="144"/>
-      <c r="BH11" s="144"/>
-      <c r="BI11" s="144"/>
-      <c r="BJ11" s="144"/>
-      <c r="BK11" s="144"/>
-      <c r="BL11" s="144"/>
-      <c r="BM11" s="144"/>
-      <c r="BN11" s="144"/>
-      <c r="BO11" s="144"/>
-      <c r="BP11" s="144"/>
-      <c r="BQ11" s="145" t="s">
+      <c r="BF11" s="85"/>
+      <c r="BG11" s="85"/>
+      <c r="BH11" s="85"/>
+      <c r="BI11" s="85"/>
+      <c r="BJ11" s="85"/>
+      <c r="BK11" s="85"/>
+      <c r="BL11" s="85"/>
+      <c r="BM11" s="85"/>
+      <c r="BN11" s="85"/>
+      <c r="BO11" s="85"/>
+      <c r="BP11" s="85"/>
+      <c r="BQ11" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="BR11" s="145"/>
-      <c r="BS11" s="145"/>
-      <c r="BT11" s="145"/>
-      <c r="BU11" s="145"/>
-      <c r="BV11" s="145"/>
-      <c r="BW11" s="145"/>
-      <c r="BX11" s="145"/>
-      <c r="BY11" s="145"/>
-      <c r="BZ11" s="145"/>
-      <c r="CA11" s="145"/>
-      <c r="CB11" s="145"/>
-      <c r="CC11" s="145"/>
-      <c r="CD11" s="145"/>
-      <c r="CE11" s="145"/>
-      <c r="CF11" s="145"/>
-      <c r="CG11" s="145"/>
-      <c r="CH11" s="145"/>
-      <c r="CI11" s="145"/>
+      <c r="BR11" s="86"/>
+      <c r="BS11" s="86"/>
+      <c r="BT11" s="86"/>
+      <c r="BU11" s="86"/>
+      <c r="BV11" s="86"/>
+      <c r="BW11" s="86"/>
+      <c r="BX11" s="86"/>
+      <c r="BY11" s="86"/>
+      <c r="BZ11" s="86"/>
+      <c r="CA11" s="86"/>
+      <c r="CB11" s="86"/>
+      <c r="CC11" s="86"/>
+      <c r="CD11" s="86"/>
+      <c r="CE11" s="86"/>
+      <c r="CF11" s="86"/>
+      <c r="CG11" s="86"/>
+      <c r="CH11" s="86"/>
+      <c r="CI11" s="86"/>
     </row>
     <row r="12" spans="1:1024" ht="18" customHeight="1">
-      <c r="B12" s="64">
+      <c r="B12" s="87">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67" t="s">
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="70" t="s">
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="67" t="s">
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="70" t="s">
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="118"/>
+      <c r="AF12" s="118"/>
+      <c r="AG12" s="119"/>
+      <c r="AH12" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="67" t="s">
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="AL12" s="68"/>
-      <c r="AM12" s="68"/>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="68"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="68"/>
-      <c r="AR12" s="68"/>
-      <c r="AS12" s="68"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="67" t="s">
+      <c r="AL12" s="118"/>
+      <c r="AM12" s="118"/>
+      <c r="AN12" s="118"/>
+      <c r="AO12" s="118"/>
+      <c r="AP12" s="118"/>
+      <c r="AQ12" s="118"/>
+      <c r="AR12" s="118"/>
+      <c r="AS12" s="118"/>
+      <c r="AT12" s="119"/>
+      <c r="AU12" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="AV12" s="68"/>
-      <c r="AW12" s="68"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="68"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="68"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="69"/>
-      <c r="BE12" s="67" t="s">
+      <c r="AV12" s="118"/>
+      <c r="AW12" s="118"/>
+      <c r="AX12" s="118"/>
+      <c r="AY12" s="118"/>
+      <c r="AZ12" s="118"/>
+      <c r="BA12" s="118"/>
+      <c r="BB12" s="118"/>
+      <c r="BC12" s="118"/>
+      <c r="BD12" s="119"/>
+      <c r="BE12" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="BF12" s="68"/>
-      <c r="BG12" s="68"/>
-      <c r="BH12" s="68"/>
-      <c r="BI12" s="68"/>
-      <c r="BJ12" s="68"/>
-      <c r="BK12" s="68"/>
-      <c r="BL12" s="68"/>
-      <c r="BM12" s="68"/>
-      <c r="BN12" s="68"/>
-      <c r="BO12" s="68"/>
-      <c r="BP12" s="69"/>
-      <c r="BQ12" s="119" t="s">
+      <c r="BF12" s="118"/>
+      <c r="BG12" s="118"/>
+      <c r="BH12" s="118"/>
+      <c r="BI12" s="118"/>
+      <c r="BJ12" s="118"/>
+      <c r="BK12" s="118"/>
+      <c r="BL12" s="118"/>
+      <c r="BM12" s="118"/>
+      <c r="BN12" s="118"/>
+      <c r="BO12" s="118"/>
+      <c r="BP12" s="119"/>
+      <c r="BQ12" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="BR12" s="120"/>
-      <c r="BS12" s="120"/>
-      <c r="BT12" s="120"/>
-      <c r="BU12" s="120"/>
-      <c r="BV12" s="120"/>
-      <c r="BW12" s="120"/>
-      <c r="BX12" s="120"/>
-      <c r="BY12" s="120"/>
-      <c r="BZ12" s="120"/>
-      <c r="CA12" s="120"/>
-      <c r="CB12" s="120"/>
-      <c r="CC12" s="120"/>
-      <c r="CD12" s="120"/>
-      <c r="CE12" s="120"/>
-      <c r="CF12" s="120"/>
-      <c r="CG12" s="120"/>
-      <c r="CH12" s="120"/>
-      <c r="CI12" s="121"/>
+      <c r="BR12" s="121"/>
+      <c r="BS12" s="121"/>
+      <c r="BT12" s="121"/>
+      <c r="BU12" s="121"/>
+      <c r="BV12" s="121"/>
+      <c r="BW12" s="121"/>
+      <c r="BX12" s="121"/>
+      <c r="BY12" s="121"/>
+      <c r="BZ12" s="121"/>
+      <c r="CA12" s="121"/>
+      <c r="CB12" s="121"/>
+      <c r="CC12" s="121"/>
+      <c r="CD12" s="121"/>
+      <c r="CE12" s="121"/>
+      <c r="CF12" s="121"/>
+      <c r="CG12" s="121"/>
+      <c r="CH12" s="121"/>
+      <c r="CI12" s="122"/>
     </row>
     <row r="13" spans="1:1024" ht="18" customHeight="1">
-      <c r="B13" s="64">
+      <c r="B13" s="87">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67" t="s">
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="67" t="s">
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="70" t="s">
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="67" t="s">
+      <c r="AI13" s="94"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="AL13" s="68"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="68"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="67" t="s">
+      <c r="AL13" s="118"/>
+      <c r="AM13" s="118"/>
+      <c r="AN13" s="118"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="118"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="118"/>
+      <c r="AT13" s="119"/>
+      <c r="AU13" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="67" t="s">
+      <c r="AV13" s="118"/>
+      <c r="AW13" s="118"/>
+      <c r="AX13" s="118"/>
+      <c r="AY13" s="118"/>
+      <c r="AZ13" s="118"/>
+      <c r="BA13" s="118"/>
+      <c r="BB13" s="118"/>
+      <c r="BC13" s="118"/>
+      <c r="BD13" s="119"/>
+      <c r="BE13" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="BF13" s="68"/>
-      <c r="BG13" s="68"/>
-      <c r="BH13" s="68"/>
-      <c r="BI13" s="68"/>
-      <c r="BJ13" s="68"/>
-      <c r="BK13" s="68"/>
-      <c r="BL13" s="68"/>
-      <c r="BM13" s="68"/>
-      <c r="BN13" s="68"/>
-      <c r="BO13" s="68"/>
-      <c r="BP13" s="69"/>
-      <c r="BQ13" s="119" t="s">
+      <c r="BF13" s="118"/>
+      <c r="BG13" s="118"/>
+      <c r="BH13" s="118"/>
+      <c r="BI13" s="118"/>
+      <c r="BJ13" s="118"/>
+      <c r="BK13" s="118"/>
+      <c r="BL13" s="118"/>
+      <c r="BM13" s="118"/>
+      <c r="BN13" s="118"/>
+      <c r="BO13" s="118"/>
+      <c r="BP13" s="119"/>
+      <c r="BQ13" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="BR13" s="120"/>
-      <c r="BS13" s="120"/>
-      <c r="BT13" s="120"/>
-      <c r="BU13" s="120"/>
-      <c r="BV13" s="120"/>
-      <c r="BW13" s="120"/>
-      <c r="BX13" s="120"/>
-      <c r="BY13" s="120"/>
-      <c r="BZ13" s="120"/>
-      <c r="CA13" s="120"/>
-      <c r="CB13" s="120"/>
-      <c r="CC13" s="120"/>
-      <c r="CD13" s="120"/>
-      <c r="CE13" s="120"/>
-      <c r="CF13" s="120"/>
-      <c r="CG13" s="120"/>
-      <c r="CH13" s="120"/>
-      <c r="CI13" s="121"/>
+      <c r="BR13" s="121"/>
+      <c r="BS13" s="121"/>
+      <c r="BT13" s="121"/>
+      <c r="BU13" s="121"/>
+      <c r="BV13" s="121"/>
+      <c r="BW13" s="121"/>
+      <c r="BX13" s="121"/>
+      <c r="BY13" s="121"/>
+      <c r="BZ13" s="121"/>
+      <c r="CA13" s="121"/>
+      <c r="CB13" s="121"/>
+      <c r="CC13" s="121"/>
+      <c r="CD13" s="121"/>
+      <c r="CE13" s="121"/>
+      <c r="CF13" s="121"/>
+      <c r="CG13" s="121"/>
+      <c r="CH13" s="121"/>
+      <c r="CI13" s="122"/>
     </row>
     <row r="14" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B14" s="64">
+      <c r="B14" s="87">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67" t="s">
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="70" t="s">
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="67" t="s">
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="70" t="s">
+      <c r="AC14" s="118"/>
+      <c r="AD14" s="118"/>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="118"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="67" t="s">
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="AL14" s="68"/>
-      <c r="AM14" s="68"/>
-      <c r="AN14" s="68"/>
-      <c r="AO14" s="68"/>
-      <c r="AP14" s="68"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="68"/>
-      <c r="AS14" s="68"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="67" t="s">
+      <c r="AL14" s="118"/>
+      <c r="AM14" s="118"/>
+      <c r="AN14" s="118"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="118"/>
+      <c r="AQ14" s="118"/>
+      <c r="AR14" s="118"/>
+      <c r="AS14" s="118"/>
+      <c r="AT14" s="119"/>
+      <c r="AU14" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="AV14" s="68"/>
-      <c r="AW14" s="68"/>
-      <c r="AX14" s="68"/>
-      <c r="AY14" s="68"/>
-      <c r="AZ14" s="68"/>
-      <c r="BA14" s="68"/>
-      <c r="BB14" s="68"/>
-      <c r="BC14" s="68"/>
-      <c r="BD14" s="69"/>
-      <c r="BE14" s="122" t="s">
+      <c r="AV14" s="118"/>
+      <c r="AW14" s="118"/>
+      <c r="AX14" s="118"/>
+      <c r="AY14" s="118"/>
+      <c r="AZ14" s="118"/>
+      <c r="BA14" s="118"/>
+      <c r="BB14" s="118"/>
+      <c r="BC14" s="118"/>
+      <c r="BD14" s="119"/>
+      <c r="BE14" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="BF14" s="123"/>
-      <c r="BG14" s="123"/>
-      <c r="BH14" s="123"/>
-      <c r="BI14" s="123"/>
-      <c r="BJ14" s="123"/>
-      <c r="BK14" s="123"/>
-      <c r="BL14" s="123"/>
-      <c r="BM14" s="123"/>
-      <c r="BN14" s="123"/>
-      <c r="BO14" s="123"/>
-      <c r="BP14" s="124"/>
-      <c r="BQ14" s="119"/>
-      <c r="BR14" s="120"/>
-      <c r="BS14" s="120"/>
-      <c r="BT14" s="120"/>
-      <c r="BU14" s="120"/>
-      <c r="BV14" s="120"/>
-      <c r="BW14" s="120"/>
-      <c r="BX14" s="120"/>
-      <c r="BY14" s="120"/>
-      <c r="BZ14" s="120"/>
-      <c r="CA14" s="120"/>
-      <c r="CB14" s="120"/>
-      <c r="CC14" s="120"/>
-      <c r="CD14" s="120"/>
-      <c r="CE14" s="120"/>
-      <c r="CF14" s="120"/>
-      <c r="CG14" s="120"/>
-      <c r="CH14" s="120"/>
-      <c r="CI14" s="121"/>
+      <c r="BF14" s="124"/>
+      <c r="BG14" s="124"/>
+      <c r="BH14" s="124"/>
+      <c r="BI14" s="124"/>
+      <c r="BJ14" s="124"/>
+      <c r="BK14" s="124"/>
+      <c r="BL14" s="124"/>
+      <c r="BM14" s="124"/>
+      <c r="BN14" s="124"/>
+      <c r="BO14" s="124"/>
+      <c r="BP14" s="125"/>
+      <c r="BQ14" s="120"/>
+      <c r="BR14" s="121"/>
+      <c r="BS14" s="121"/>
+      <c r="BT14" s="121"/>
+      <c r="BU14" s="121"/>
+      <c r="BV14" s="121"/>
+      <c r="BW14" s="121"/>
+      <c r="BX14" s="121"/>
+      <c r="BY14" s="121"/>
+      <c r="BZ14" s="121"/>
+      <c r="CA14" s="121"/>
+      <c r="CB14" s="121"/>
+      <c r="CC14" s="121"/>
+      <c r="CD14" s="121"/>
+      <c r="CE14" s="121"/>
+      <c r="CF14" s="121"/>
+      <c r="CG14" s="121"/>
+      <c r="CH14" s="121"/>
+      <c r="CI14" s="122"/>
     </row>
     <row r="15" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B15" s="64">
+      <c r="B15" s="87">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="70" t="s">
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="67" t="s">
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="69"/>
-      <c r="BE15" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF15" s="68"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="68"/>
-      <c r="BK15" s="68"/>
-      <c r="BL15" s="68"/>
-      <c r="BM15" s="68"/>
-      <c r="BN15" s="68"/>
-      <c r="BO15" s="68"/>
-      <c r="BP15" s="69"/>
-      <c r="BQ15" s="119"/>
-      <c r="BR15" s="120"/>
-      <c r="BS15" s="120"/>
-      <c r="BT15" s="120"/>
-      <c r="BU15" s="120"/>
-      <c r="BV15" s="120"/>
-      <c r="BW15" s="120"/>
-      <c r="BX15" s="120"/>
-      <c r="BY15" s="120"/>
-      <c r="BZ15" s="120"/>
-      <c r="CA15" s="120"/>
-      <c r="CB15" s="120"/>
-      <c r="CC15" s="120"/>
-      <c r="CD15" s="120"/>
-      <c r="CE15" s="120"/>
-      <c r="CF15" s="120"/>
-      <c r="CG15" s="120"/>
-      <c r="CH15" s="120"/>
-      <c r="CI15" s="121"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="118"/>
+      <c r="AG15" s="119"/>
+      <c r="AH15" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL15" s="118"/>
+      <c r="AM15" s="118"/>
+      <c r="AN15" s="118"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="119"/>
+      <c r="AU15" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV15" s="118"/>
+      <c r="AW15" s="118"/>
+      <c r="AX15" s="118"/>
+      <c r="AY15" s="118"/>
+      <c r="AZ15" s="118"/>
+      <c r="BA15" s="118"/>
+      <c r="BB15" s="118"/>
+      <c r="BC15" s="118"/>
+      <c r="BD15" s="119"/>
+      <c r="BE15" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF15" s="124"/>
+      <c r="BG15" s="124"/>
+      <c r="BH15" s="124"/>
+      <c r="BI15" s="124"/>
+      <c r="BJ15" s="124"/>
+      <c r="BK15" s="124"/>
+      <c r="BL15" s="124"/>
+      <c r="BM15" s="124"/>
+      <c r="BN15" s="124"/>
+      <c r="BO15" s="124"/>
+      <c r="BP15" s="125"/>
+      <c r="BQ15" s="120"/>
+      <c r="BR15" s="121"/>
+      <c r="BS15" s="121"/>
+      <c r="BT15" s="121"/>
+      <c r="BU15" s="121"/>
+      <c r="BV15" s="121"/>
+      <c r="BW15" s="121"/>
+      <c r="BX15" s="121"/>
+      <c r="BY15" s="121"/>
+      <c r="BZ15" s="121"/>
+      <c r="CA15" s="121"/>
+      <c r="CB15" s="121"/>
+      <c r="CC15" s="121"/>
+      <c r="CD15" s="121"/>
+      <c r="CE15" s="121"/>
+      <c r="CF15" s="121"/>
+      <c r="CG15" s="121"/>
+      <c r="CH15" s="121"/>
+      <c r="CI15" s="122"/>
     </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1">
-      <c r="B16" s="64">
+    <row r="16" spans="1:1024" ht="36.75" customHeight="1">
+      <c r="B16" s="87">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="70" t="s">
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="118"/>
+      <c r="AG16" s="119"/>
+      <c r="AH16" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL16" s="118"/>
+      <c r="AM16" s="118"/>
+      <c r="AN16" s="118"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
+      <c r="AS16" s="118"/>
+      <c r="AT16" s="119"/>
+      <c r="AU16" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV16" s="118"/>
+      <c r="AW16" s="118"/>
+      <c r="AX16" s="118"/>
+      <c r="AY16" s="118"/>
+      <c r="AZ16" s="118"/>
+      <c r="BA16" s="118"/>
+      <c r="BB16" s="118"/>
+      <c r="BC16" s="118"/>
+      <c r="BD16" s="119"/>
+      <c r="BE16" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF16" s="124"/>
+      <c r="BG16" s="124"/>
+      <c r="BH16" s="124"/>
+      <c r="BI16" s="124"/>
+      <c r="BJ16" s="124"/>
+      <c r="BK16" s="124"/>
+      <c r="BL16" s="124"/>
+      <c r="BM16" s="124"/>
+      <c r="BN16" s="124"/>
+      <c r="BO16" s="124"/>
+      <c r="BP16" s="125"/>
+      <c r="BQ16" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR16" s="121"/>
+      <c r="BS16" s="121"/>
+      <c r="BT16" s="121"/>
+      <c r="BU16" s="121"/>
+      <c r="BV16" s="121"/>
+      <c r="BW16" s="121"/>
+      <c r="BX16" s="121"/>
+      <c r="BY16" s="121"/>
+      <c r="BZ16" s="121"/>
+      <c r="CA16" s="121"/>
+      <c r="CB16" s="121"/>
+      <c r="CC16" s="121"/>
+      <c r="CD16" s="121"/>
+      <c r="CE16" s="121"/>
+      <c r="CF16" s="121"/>
+      <c r="CG16" s="121"/>
+      <c r="CH16" s="121"/>
+      <c r="CI16" s="122"/>
+    </row>
+    <row r="17" spans="2:87" ht="36.75" customHeight="1">
+      <c r="B17" s="87">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="119"/>
+      <c r="AH17" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="68"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="69"/>
-      <c r="BE16" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="BF16" s="68"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="68"/>
-      <c r="BJ16" s="68"/>
-      <c r="BK16" s="68"/>
-      <c r="BL16" s="68"/>
-      <c r="BM16" s="68"/>
-      <c r="BN16" s="68"/>
-      <c r="BO16" s="68"/>
-      <c r="BP16" s="69"/>
-      <c r="BQ16" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="BR16" s="120"/>
-      <c r="BS16" s="120"/>
-      <c r="BT16" s="120"/>
-      <c r="BU16" s="120"/>
-      <c r="BV16" s="120"/>
-      <c r="BW16" s="120"/>
-      <c r="BX16" s="120"/>
-      <c r="BY16" s="120"/>
-      <c r="BZ16" s="120"/>
-      <c r="CA16" s="120"/>
-      <c r="CB16" s="120"/>
-      <c r="CC16" s="120"/>
-      <c r="CD16" s="120"/>
-      <c r="CE16" s="120"/>
-      <c r="CF16" s="120"/>
-      <c r="CG16" s="120"/>
-      <c r="CH16" s="120"/>
-      <c r="CI16" s="121"/>
-    </row>
-    <row r="17" spans="2:87" ht="18" customHeight="1">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="68"/>
-      <c r="AN17" s="68"/>
-      <c r="AO17" s="68"/>
-      <c r="AP17" s="68"/>
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="68"/>
-      <c r="AS17" s="68"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="67"/>
-      <c r="AV17" s="68"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="69"/>
-      <c r="BE17" s="67"/>
-      <c r="BF17" s="68"/>
-      <c r="BG17" s="68"/>
-      <c r="BH17" s="68"/>
-      <c r="BI17" s="68"/>
-      <c r="BJ17" s="68"/>
-      <c r="BK17" s="68"/>
-      <c r="BL17" s="68"/>
-      <c r="BM17" s="68"/>
-      <c r="BN17" s="68"/>
-      <c r="BO17" s="68"/>
-      <c r="BP17" s="69"/>
-      <c r="BQ17" s="119"/>
-      <c r="BR17" s="120"/>
-      <c r="BS17" s="120"/>
-      <c r="BT17" s="120"/>
-      <c r="BU17" s="120"/>
-      <c r="BV17" s="120"/>
-      <c r="BW17" s="120"/>
-      <c r="BX17" s="120"/>
-      <c r="BY17" s="120"/>
-      <c r="BZ17" s="120"/>
-      <c r="CA17" s="120"/>
-      <c r="CB17" s="120"/>
-      <c r="CC17" s="120"/>
-      <c r="CD17" s="120"/>
-      <c r="CE17" s="120"/>
-      <c r="CF17" s="120"/>
-      <c r="CG17" s="120"/>
-      <c r="CH17" s="120"/>
-      <c r="CI17" s="121"/>
+      <c r="AI17" s="94"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL17" s="118"/>
+      <c r="AM17" s="118"/>
+      <c r="AN17" s="118"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="119"/>
+      <c r="AU17" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV17" s="118"/>
+      <c r="AW17" s="118"/>
+      <c r="AX17" s="118"/>
+      <c r="AY17" s="118"/>
+      <c r="AZ17" s="118"/>
+      <c r="BA17" s="118"/>
+      <c r="BB17" s="118"/>
+      <c r="BC17" s="118"/>
+      <c r="BD17" s="119"/>
+      <c r="BE17" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF17" s="118"/>
+      <c r="BG17" s="118"/>
+      <c r="BH17" s="118"/>
+      <c r="BI17" s="118"/>
+      <c r="BJ17" s="118"/>
+      <c r="BK17" s="118"/>
+      <c r="BL17" s="118"/>
+      <c r="BM17" s="118"/>
+      <c r="BN17" s="118"/>
+      <c r="BO17" s="118"/>
+      <c r="BP17" s="119"/>
+      <c r="BQ17" s="120"/>
+      <c r="BR17" s="121"/>
+      <c r="BS17" s="121"/>
+      <c r="BT17" s="121"/>
+      <c r="BU17" s="121"/>
+      <c r="BV17" s="121"/>
+      <c r="BW17" s="121"/>
+      <c r="BX17" s="121"/>
+      <c r="BY17" s="121"/>
+      <c r="BZ17" s="121"/>
+      <c r="CA17" s="121"/>
+      <c r="CB17" s="121"/>
+      <c r="CC17" s="121"/>
+      <c r="CD17" s="121"/>
+      <c r="CE17" s="121"/>
+      <c r="CF17" s="121"/>
+      <c r="CG17" s="121"/>
+      <c r="CH17" s="121"/>
+      <c r="CI17" s="122"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="68"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="68"/>
-      <c r="AM18" s="68"/>
-      <c r="AN18" s="68"/>
-      <c r="AO18" s="68"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="68"/>
-      <c r="AS18" s="68"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="67"/>
-      <c r="AV18" s="68"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="68"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="68"/>
-      <c r="BA18" s="68"/>
-      <c r="BB18" s="68"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="67"/>
-      <c r="BF18" s="68"/>
-      <c r="BG18" s="68"/>
-      <c r="BH18" s="68"/>
-      <c r="BI18" s="68"/>
-      <c r="BJ18" s="68"/>
-      <c r="BK18" s="68"/>
-      <c r="BL18" s="68"/>
-      <c r="BM18" s="68"/>
-      <c r="BN18" s="68"/>
-      <c r="BO18" s="68"/>
-      <c r="BP18" s="69"/>
-      <c r="BQ18" s="119"/>
-      <c r="BR18" s="120"/>
-      <c r="BS18" s="120"/>
-      <c r="BT18" s="120"/>
-      <c r="BU18" s="120"/>
-      <c r="BV18" s="120"/>
-      <c r="BW18" s="120"/>
-      <c r="BX18" s="120"/>
-      <c r="BY18" s="120"/>
-      <c r="BZ18" s="120"/>
-      <c r="CA18" s="120"/>
-      <c r="CB18" s="120"/>
-      <c r="CC18" s="120"/>
-      <c r="CD18" s="120"/>
-      <c r="CE18" s="120"/>
-      <c r="CF18" s="120"/>
-      <c r="CG18" s="120"/>
-      <c r="CH18" s="120"/>
-      <c r="CI18" s="121"/>
+      <c r="B18" s="87">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="118"/>
+      <c r="AG18" s="119"/>
+      <c r="AH18" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="117" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL18" s="118"/>
+      <c r="AM18" s="118"/>
+      <c r="AN18" s="118"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="118"/>
+      <c r="AQ18" s="118"/>
+      <c r="AR18" s="118"/>
+      <c r="AS18" s="118"/>
+      <c r="AT18" s="119"/>
+      <c r="AU18" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV18" s="118"/>
+      <c r="AW18" s="118"/>
+      <c r="AX18" s="118"/>
+      <c r="AY18" s="118"/>
+      <c r="AZ18" s="118"/>
+      <c r="BA18" s="118"/>
+      <c r="BB18" s="118"/>
+      <c r="BC18" s="118"/>
+      <c r="BD18" s="119"/>
+      <c r="BE18" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF18" s="118"/>
+      <c r="BG18" s="118"/>
+      <c r="BH18" s="118"/>
+      <c r="BI18" s="118"/>
+      <c r="BJ18" s="118"/>
+      <c r="BK18" s="118"/>
+      <c r="BL18" s="118"/>
+      <c r="BM18" s="118"/>
+      <c r="BN18" s="118"/>
+      <c r="BO18" s="118"/>
+      <c r="BP18" s="119"/>
+      <c r="BQ18" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR18" s="121"/>
+      <c r="BS18" s="121"/>
+      <c r="BT18" s="121"/>
+      <c r="BU18" s="121"/>
+      <c r="BV18" s="121"/>
+      <c r="BW18" s="121"/>
+      <c r="BX18" s="121"/>
+      <c r="BY18" s="121"/>
+      <c r="BZ18" s="121"/>
+      <c r="CA18" s="121"/>
+      <c r="CB18" s="121"/>
+      <c r="CC18" s="121"/>
+      <c r="CD18" s="121"/>
+      <c r="CE18" s="121"/>
+      <c r="CF18" s="121"/>
+      <c r="CG18" s="121"/>
+      <c r="CH18" s="121"/>
+      <c r="CI18" s="122"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1">
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="68"/>
-      <c r="AM19" s="68"/>
-      <c r="AN19" s="68"/>
-      <c r="AO19" s="68"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="74"/>
-      <c r="AU19" s="67"/>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="68"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="69"/>
-      <c r="BE19" s="67"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="68"/>
-      <c r="BJ19" s="68"/>
-      <c r="BK19" s="68"/>
-      <c r="BL19" s="68"/>
-      <c r="BM19" s="68"/>
-      <c r="BN19" s="68"/>
-      <c r="BO19" s="68"/>
-      <c r="BP19" s="69"/>
-      <c r="BQ19" s="119"/>
-      <c r="BR19" s="120"/>
-      <c r="BS19" s="120"/>
-      <c r="BT19" s="120"/>
-      <c r="BU19" s="120"/>
-      <c r="BV19" s="120"/>
-      <c r="BW19" s="120"/>
-      <c r="BX19" s="120"/>
-      <c r="BY19" s="120"/>
-      <c r="BZ19" s="120"/>
-      <c r="CA19" s="120"/>
-      <c r="CB19" s="120"/>
-      <c r="CC19" s="120"/>
-      <c r="CD19" s="120"/>
-      <c r="CE19" s="120"/>
-      <c r="CF19" s="120"/>
-      <c r="CG19" s="120"/>
-      <c r="CH19" s="120"/>
-      <c r="CI19" s="121"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="118"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="119"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="118"/>
+      <c r="AM19" s="118"/>
+      <c r="AN19" s="118"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="118"/>
+      <c r="AQ19" s="118"/>
+      <c r="AR19" s="118"/>
+      <c r="AS19" s="118"/>
+      <c r="AT19" s="119"/>
+      <c r="AU19" s="117"/>
+      <c r="AV19" s="118"/>
+      <c r="AW19" s="118"/>
+      <c r="AX19" s="118"/>
+      <c r="AY19" s="118"/>
+      <c r="AZ19" s="118"/>
+      <c r="BA19" s="118"/>
+      <c r="BB19" s="118"/>
+      <c r="BC19" s="118"/>
+      <c r="BD19" s="119"/>
+      <c r="BE19" s="117"/>
+      <c r="BF19" s="118"/>
+      <c r="BG19" s="118"/>
+      <c r="BH19" s="118"/>
+      <c r="BI19" s="118"/>
+      <c r="BJ19" s="118"/>
+      <c r="BK19" s="118"/>
+      <c r="BL19" s="118"/>
+      <c r="BM19" s="118"/>
+      <c r="BN19" s="118"/>
+      <c r="BO19" s="118"/>
+      <c r="BP19" s="119"/>
+      <c r="BQ19" s="120"/>
+      <c r="BR19" s="121"/>
+      <c r="BS19" s="121"/>
+      <c r="BT19" s="121"/>
+      <c r="BU19" s="121"/>
+      <c r="BV19" s="121"/>
+      <c r="BW19" s="121"/>
+      <c r="BX19" s="121"/>
+      <c r="BY19" s="121"/>
+      <c r="BZ19" s="121"/>
+      <c r="CA19" s="121"/>
+      <c r="CB19" s="121"/>
+      <c r="CC19" s="121"/>
+      <c r="CD19" s="121"/>
+      <c r="CE19" s="121"/>
+      <c r="CF19" s="121"/>
+      <c r="CG19" s="121"/>
+      <c r="CH19" s="121"/>
+      <c r="CI19" s="122"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="70"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="74"/>
-      <c r="AU20" s="67"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="69"/>
-      <c r="BE20" s="67"/>
-      <c r="BF20" s="68"/>
-      <c r="BG20" s="68"/>
-      <c r="BH20" s="68"/>
-      <c r="BI20" s="68"/>
-      <c r="BJ20" s="68"/>
-      <c r="BK20" s="68"/>
-      <c r="BL20" s="68"/>
-      <c r="BM20" s="68"/>
-      <c r="BN20" s="68"/>
-      <c r="BO20" s="68"/>
-      <c r="BP20" s="69"/>
-      <c r="BQ20" s="119"/>
-      <c r="BR20" s="120"/>
-      <c r="BS20" s="120"/>
-      <c r="BT20" s="120"/>
-      <c r="BU20" s="120"/>
-      <c r="BV20" s="120"/>
-      <c r="BW20" s="120"/>
-      <c r="BX20" s="120"/>
-      <c r="BY20" s="120"/>
-      <c r="BZ20" s="120"/>
-      <c r="CA20" s="120"/>
-      <c r="CB20" s="120"/>
-      <c r="CC20" s="120"/>
-      <c r="CD20" s="120"/>
-      <c r="CE20" s="120"/>
-      <c r="CF20" s="120"/>
-      <c r="CG20" s="120"/>
-      <c r="CH20" s="120"/>
-      <c r="CI20" s="121"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="119"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="119"/>
+      <c r="AU20" s="117"/>
+      <c r="AV20" s="118"/>
+      <c r="AW20" s="118"/>
+      <c r="AX20" s="118"/>
+      <c r="AY20" s="118"/>
+      <c r="AZ20" s="118"/>
+      <c r="BA20" s="118"/>
+      <c r="BB20" s="118"/>
+      <c r="BC20" s="118"/>
+      <c r="BD20" s="119"/>
+      <c r="BE20" s="117"/>
+      <c r="BF20" s="118"/>
+      <c r="BG20" s="118"/>
+      <c r="BH20" s="118"/>
+      <c r="BI20" s="118"/>
+      <c r="BJ20" s="118"/>
+      <c r="BK20" s="118"/>
+      <c r="BL20" s="118"/>
+      <c r="BM20" s="118"/>
+      <c r="BN20" s="118"/>
+      <c r="BO20" s="118"/>
+      <c r="BP20" s="119"/>
+      <c r="BQ20" s="120"/>
+      <c r="BR20" s="121"/>
+      <c r="BS20" s="121"/>
+      <c r="BT20" s="121"/>
+      <c r="BU20" s="121"/>
+      <c r="BV20" s="121"/>
+      <c r="BW20" s="121"/>
+      <c r="BX20" s="121"/>
+      <c r="BY20" s="121"/>
+      <c r="BZ20" s="121"/>
+      <c r="CA20" s="121"/>
+      <c r="CB20" s="121"/>
+      <c r="CC20" s="121"/>
+      <c r="CD20" s="121"/>
+      <c r="CE20" s="121"/>
+      <c r="CF20" s="121"/>
+      <c r="CG20" s="121"/>
+      <c r="CH20" s="121"/>
+      <c r="CI20" s="122"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="74"/>
-      <c r="AU21" s="67"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="69"/>
-      <c r="BE21" s="67"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
-      <c r="BL21" s="68"/>
-      <c r="BM21" s="68"/>
-      <c r="BN21" s="68"/>
-      <c r="BO21" s="68"/>
-      <c r="BP21" s="69"/>
-      <c r="BQ21" s="119"/>
-      <c r="BR21" s="120"/>
-      <c r="BS21" s="120"/>
-      <c r="BT21" s="120"/>
-      <c r="BU21" s="120"/>
-      <c r="BV21" s="120"/>
-      <c r="BW21" s="120"/>
-      <c r="BX21" s="120"/>
-      <c r="BY21" s="120"/>
-      <c r="BZ21" s="120"/>
-      <c r="CA21" s="120"/>
-      <c r="CB21" s="120"/>
-      <c r="CC21" s="120"/>
-      <c r="CD21" s="120"/>
-      <c r="CE21" s="120"/>
-      <c r="CF21" s="120"/>
-      <c r="CG21" s="120"/>
-      <c r="CH21" s="120"/>
-      <c r="CI21" s="121"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="117"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="118"/>
+      <c r="AE21" s="118"/>
+      <c r="AF21" s="118"/>
+      <c r="AG21" s="119"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="117"/>
+      <c r="AL21" s="118"/>
+      <c r="AM21" s="118"/>
+      <c r="AN21" s="118"/>
+      <c r="AO21" s="118"/>
+      <c r="AP21" s="118"/>
+      <c r="AQ21" s="118"/>
+      <c r="AR21" s="99"/>
+      <c r="AS21" s="99"/>
+      <c r="AT21" s="100"/>
+      <c r="AU21" s="117"/>
+      <c r="AV21" s="118"/>
+      <c r="AW21" s="118"/>
+      <c r="AX21" s="118"/>
+      <c r="AY21" s="118"/>
+      <c r="AZ21" s="118"/>
+      <c r="BA21" s="118"/>
+      <c r="BB21" s="118"/>
+      <c r="BC21" s="118"/>
+      <c r="BD21" s="119"/>
+      <c r="BE21" s="117"/>
+      <c r="BF21" s="118"/>
+      <c r="BG21" s="118"/>
+      <c r="BH21" s="118"/>
+      <c r="BI21" s="118"/>
+      <c r="BJ21" s="118"/>
+      <c r="BK21" s="118"/>
+      <c r="BL21" s="118"/>
+      <c r="BM21" s="118"/>
+      <c r="BN21" s="118"/>
+      <c r="BO21" s="118"/>
+      <c r="BP21" s="119"/>
+      <c r="BQ21" s="120"/>
+      <c r="BR21" s="121"/>
+      <c r="BS21" s="121"/>
+      <c r="BT21" s="121"/>
+      <c r="BU21" s="121"/>
+      <c r="BV21" s="121"/>
+      <c r="BW21" s="121"/>
+      <c r="BX21" s="121"/>
+      <c r="BY21" s="121"/>
+      <c r="BZ21" s="121"/>
+      <c r="CA21" s="121"/>
+      <c r="CB21" s="121"/>
+      <c r="CC21" s="121"/>
+      <c r="CD21" s="121"/>
+      <c r="CE21" s="121"/>
+      <c r="CF21" s="121"/>
+      <c r="CG21" s="121"/>
+      <c r="CH21" s="121"/>
+      <c r="CI21" s="122"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="70"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="68"/>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="68"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="74"/>
-      <c r="AU22" s="67"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="69"/>
-      <c r="BE22" s="67"/>
-      <c r="BF22" s="68"/>
-      <c r="BG22" s="68"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="68"/>
-      <c r="BJ22" s="68"/>
-      <c r="BK22" s="68"/>
-      <c r="BL22" s="68"/>
-      <c r="BM22" s="68"/>
-      <c r="BN22" s="68"/>
-      <c r="BO22" s="68"/>
-      <c r="BP22" s="69"/>
-      <c r="BQ22" s="119"/>
-      <c r="BR22" s="120"/>
-      <c r="BS22" s="120"/>
-      <c r="BT22" s="120"/>
-      <c r="BU22" s="120"/>
-      <c r="BV22" s="120"/>
-      <c r="BW22" s="120"/>
-      <c r="BX22" s="120"/>
-      <c r="BY22" s="120"/>
-      <c r="BZ22" s="120"/>
-      <c r="CA22" s="120"/>
-      <c r="CB22" s="120"/>
-      <c r="CC22" s="120"/>
-      <c r="CD22" s="120"/>
-      <c r="CE22" s="120"/>
-      <c r="CF22" s="120"/>
-      <c r="CG22" s="120"/>
-      <c r="CH22" s="120"/>
-      <c r="CI22" s="121"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="117"/>
+      <c r="AC22" s="118"/>
+      <c r="AD22" s="118"/>
+      <c r="AE22" s="118"/>
+      <c r="AF22" s="118"/>
+      <c r="AG22" s="119"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="94"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="117"/>
+      <c r="AL22" s="118"/>
+      <c r="AM22" s="118"/>
+      <c r="AN22" s="118"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="118"/>
+      <c r="AQ22" s="118"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="99"/>
+      <c r="AT22" s="100"/>
+      <c r="AU22" s="117"/>
+      <c r="AV22" s="118"/>
+      <c r="AW22" s="118"/>
+      <c r="AX22" s="118"/>
+      <c r="AY22" s="118"/>
+      <c r="AZ22" s="118"/>
+      <c r="BA22" s="118"/>
+      <c r="BB22" s="118"/>
+      <c r="BC22" s="118"/>
+      <c r="BD22" s="119"/>
+      <c r="BE22" s="117"/>
+      <c r="BF22" s="118"/>
+      <c r="BG22" s="118"/>
+      <c r="BH22" s="118"/>
+      <c r="BI22" s="118"/>
+      <c r="BJ22" s="118"/>
+      <c r="BK22" s="118"/>
+      <c r="BL22" s="118"/>
+      <c r="BM22" s="118"/>
+      <c r="BN22" s="118"/>
+      <c r="BO22" s="118"/>
+      <c r="BP22" s="119"/>
+      <c r="BQ22" s="120"/>
+      <c r="BR22" s="121"/>
+      <c r="BS22" s="121"/>
+      <c r="BT22" s="121"/>
+      <c r="BU22" s="121"/>
+      <c r="BV22" s="121"/>
+      <c r="BW22" s="121"/>
+      <c r="BX22" s="121"/>
+      <c r="BY22" s="121"/>
+      <c r="BZ22" s="121"/>
+      <c r="CA22" s="121"/>
+      <c r="CB22" s="121"/>
+      <c r="CC22" s="121"/>
+      <c r="CD22" s="121"/>
+      <c r="CE22" s="121"/>
+      <c r="CF22" s="121"/>
+      <c r="CG22" s="121"/>
+      <c r="CH22" s="121"/>
+      <c r="CI22" s="122"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1">
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="102"/>
-      <c r="AJ23" s="103"/>
-      <c r="AK23" s="92"/>
-      <c r="AL23" s="93"/>
-      <c r="AM23" s="93"/>
-      <c r="AN23" s="93"/>
-      <c r="AO23" s="93"/>
-      <c r="AP23" s="93"/>
-      <c r="AQ23" s="93"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="74"/>
-      <c r="AU23" s="92"/>
-      <c r="AV23" s="93"/>
-      <c r="AW23" s="93"/>
-      <c r="AX23" s="93"/>
-      <c r="AY23" s="93"/>
-      <c r="AZ23" s="93"/>
-      <c r="BA23" s="93"/>
-      <c r="BB23" s="93"/>
-      <c r="BC23" s="93"/>
-      <c r="BD23" s="94"/>
-      <c r="BE23" s="92"/>
-      <c r="BF23" s="93"/>
-      <c r="BG23" s="93"/>
-      <c r="BH23" s="93"/>
-      <c r="BI23" s="93"/>
-      <c r="BJ23" s="93"/>
-      <c r="BK23" s="93"/>
-      <c r="BL23" s="93"/>
-      <c r="BM23" s="93"/>
-      <c r="BN23" s="93"/>
-      <c r="BO23" s="93"/>
-      <c r="BP23" s="94"/>
-      <c r="BQ23" s="95"/>
-      <c r="BR23" s="96"/>
-      <c r="BS23" s="96"/>
-      <c r="BT23" s="96"/>
-      <c r="BU23" s="96"/>
-      <c r="BV23" s="96"/>
-      <c r="BW23" s="96"/>
-      <c r="BX23" s="96"/>
-      <c r="BY23" s="96"/>
-      <c r="BZ23" s="96"/>
-      <c r="CA23" s="96"/>
-      <c r="CB23" s="96"/>
-      <c r="CC23" s="96"/>
-      <c r="CD23" s="96"/>
-      <c r="CE23" s="96"/>
-      <c r="CF23" s="96"/>
-      <c r="CG23" s="96"/>
-      <c r="CH23" s="96"/>
-      <c r="CI23" s="97"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="119"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="117"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="118"/>
+      <c r="AF23" s="118"/>
+      <c r="AG23" s="119"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="94"/>
+      <c r="AJ23" s="95"/>
+      <c r="AK23" s="117"/>
+      <c r="AL23" s="118"/>
+      <c r="AM23" s="118"/>
+      <c r="AN23" s="118"/>
+      <c r="AO23" s="118"/>
+      <c r="AP23" s="118"/>
+      <c r="AQ23" s="118"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="99"/>
+      <c r="AT23" s="100"/>
+      <c r="AU23" s="117"/>
+      <c r="AV23" s="118"/>
+      <c r="AW23" s="118"/>
+      <c r="AX23" s="118"/>
+      <c r="AY23" s="118"/>
+      <c r="AZ23" s="118"/>
+      <c r="BA23" s="118"/>
+      <c r="BB23" s="118"/>
+      <c r="BC23" s="118"/>
+      <c r="BD23" s="119"/>
+      <c r="BE23" s="117"/>
+      <c r="BF23" s="118"/>
+      <c r="BG23" s="118"/>
+      <c r="BH23" s="118"/>
+      <c r="BI23" s="118"/>
+      <c r="BJ23" s="118"/>
+      <c r="BK23" s="118"/>
+      <c r="BL23" s="118"/>
+      <c r="BM23" s="118"/>
+      <c r="BN23" s="118"/>
+      <c r="BO23" s="118"/>
+      <c r="BP23" s="119"/>
+      <c r="BQ23" s="120"/>
+      <c r="BR23" s="121"/>
+      <c r="BS23" s="121"/>
+      <c r="BT23" s="121"/>
+      <c r="BU23" s="121"/>
+      <c r="BV23" s="121"/>
+      <c r="BW23" s="121"/>
+      <c r="BX23" s="121"/>
+      <c r="BY23" s="121"/>
+      <c r="BZ23" s="121"/>
+      <c r="CA23" s="121"/>
+      <c r="CB23" s="121"/>
+      <c r="CC23" s="121"/>
+      <c r="CD23" s="121"/>
+      <c r="CE23" s="121"/>
+      <c r="CF23" s="121"/>
+      <c r="CG23" s="121"/>
+      <c r="CH23" s="121"/>
+      <c r="CI23" s="122"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1">
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="94"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="94"/>
-      <c r="AK24" s="92"/>
-      <c r="AL24" s="93"/>
-      <c r="AM24" s="93"/>
-      <c r="AN24" s="93"/>
-      <c r="AO24" s="93"/>
-      <c r="AP24" s="93"/>
-      <c r="AQ24" s="93"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
-      <c r="AT24" s="74"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="93"/>
-      <c r="AW24" s="93"/>
-      <c r="AX24" s="93"/>
-      <c r="AY24" s="93"/>
-      <c r="AZ24" s="93"/>
-      <c r="BA24" s="93"/>
-      <c r="BB24" s="93"/>
-      <c r="BC24" s="93"/>
-      <c r="BD24" s="94"/>
-      <c r="BE24" s="92"/>
-      <c r="BF24" s="93"/>
-      <c r="BG24" s="93"/>
-      <c r="BH24" s="93"/>
-      <c r="BI24" s="93"/>
-      <c r="BJ24" s="93"/>
-      <c r="BK24" s="93"/>
-      <c r="BL24" s="93"/>
-      <c r="BM24" s="93"/>
-      <c r="BN24" s="93"/>
-      <c r="BO24" s="93"/>
-      <c r="BP24" s="94"/>
-      <c r="BQ24" s="116"/>
-      <c r="BR24" s="117"/>
-      <c r="BS24" s="117"/>
-      <c r="BT24" s="117"/>
-      <c r="BU24" s="117"/>
-      <c r="BV24" s="117"/>
-      <c r="BW24" s="117"/>
-      <c r="BX24" s="117"/>
-      <c r="BY24" s="117"/>
-      <c r="BZ24" s="117"/>
-      <c r="CA24" s="117"/>
-      <c r="CB24" s="117"/>
-      <c r="CC24" s="117"/>
-      <c r="CD24" s="117"/>
-      <c r="CE24" s="117"/>
-      <c r="CF24" s="117"/>
-      <c r="CG24" s="117"/>
-      <c r="CH24" s="117"/>
-      <c r="CI24" s="118"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="119"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="118"/>
+      <c r="AG24" s="119"/>
+      <c r="AH24" s="93"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="95"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="118"/>
+      <c r="AM24" s="118"/>
+      <c r="AN24" s="118"/>
+      <c r="AO24" s="118"/>
+      <c r="AP24" s="118"/>
+      <c r="AQ24" s="118"/>
+      <c r="AR24" s="99"/>
+      <c r="AS24" s="99"/>
+      <c r="AT24" s="100"/>
+      <c r="AU24" s="117"/>
+      <c r="AV24" s="118"/>
+      <c r="AW24" s="118"/>
+      <c r="AX24" s="118"/>
+      <c r="AY24" s="118"/>
+      <c r="AZ24" s="118"/>
+      <c r="BA24" s="118"/>
+      <c r="BB24" s="118"/>
+      <c r="BC24" s="118"/>
+      <c r="BD24" s="119"/>
+      <c r="BE24" s="117"/>
+      <c r="BF24" s="118"/>
+      <c r="BG24" s="118"/>
+      <c r="BH24" s="118"/>
+      <c r="BI24" s="118"/>
+      <c r="BJ24" s="118"/>
+      <c r="BK24" s="118"/>
+      <c r="BL24" s="118"/>
+      <c r="BM24" s="118"/>
+      <c r="BN24" s="118"/>
+      <c r="BO24" s="118"/>
+      <c r="BP24" s="119"/>
+      <c r="BQ24" s="120"/>
+      <c r="BR24" s="121"/>
+      <c r="BS24" s="121"/>
+      <c r="BT24" s="121"/>
+      <c r="BU24" s="121"/>
+      <c r="BV24" s="121"/>
+      <c r="BW24" s="121"/>
+      <c r="BX24" s="121"/>
+      <c r="BY24" s="121"/>
+      <c r="BZ24" s="121"/>
+      <c r="CA24" s="121"/>
+      <c r="CB24" s="121"/>
+      <c r="CC24" s="121"/>
+      <c r="CD24" s="121"/>
+      <c r="CE24" s="121"/>
+      <c r="CF24" s="121"/>
+      <c r="CG24" s="121"/>
+      <c r="CH24" s="121"/>
+      <c r="CI24" s="122"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1">
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="105"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="105"/>
-      <c r="AD25" s="105"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="106"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="102"/>
-      <c r="AJ25" s="103"/>
-      <c r="AK25" s="92"/>
-      <c r="AL25" s="93"/>
-      <c r="AM25" s="93"/>
-      <c r="AN25" s="93"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="93"/>
-      <c r="AQ25" s="93"/>
-      <c r="AR25" s="73"/>
-      <c r="AS25" s="73"/>
-      <c r="AT25" s="74"/>
-      <c r="AU25" s="92"/>
-      <c r="AV25" s="93"/>
-      <c r="AW25" s="93"/>
-      <c r="AX25" s="93"/>
-      <c r="AY25" s="93"/>
-      <c r="AZ25" s="93"/>
-      <c r="BA25" s="93"/>
-      <c r="BB25" s="93"/>
-      <c r="BC25" s="93"/>
-      <c r="BD25" s="94"/>
-      <c r="BE25" s="92"/>
-      <c r="BF25" s="93"/>
-      <c r="BG25" s="93"/>
-      <c r="BH25" s="93"/>
-      <c r="BI25" s="93"/>
-      <c r="BJ25" s="93"/>
-      <c r="BK25" s="93"/>
-      <c r="BL25" s="93"/>
-      <c r="BM25" s="93"/>
-      <c r="BN25" s="93"/>
-      <c r="BO25" s="93"/>
-      <c r="BP25" s="94"/>
-      <c r="BQ25" s="113"/>
-      <c r="BR25" s="114"/>
-      <c r="BS25" s="114"/>
-      <c r="BT25" s="114"/>
-      <c r="BU25" s="114"/>
-      <c r="BV25" s="114"/>
-      <c r="BW25" s="114"/>
-      <c r="BX25" s="114"/>
-      <c r="BY25" s="114"/>
-      <c r="BZ25" s="114"/>
-      <c r="CA25" s="114"/>
-      <c r="CB25" s="114"/>
-      <c r="CC25" s="114"/>
-      <c r="CD25" s="114"/>
-      <c r="CE25" s="114"/>
-      <c r="CF25" s="114"/>
-      <c r="CG25" s="114"/>
-      <c r="CH25" s="114"/>
-      <c r="CI25" s="115"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="136"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="118"/>
+      <c r="AF25" s="118"/>
+      <c r="AG25" s="119"/>
+      <c r="AH25" s="135"/>
+      <c r="AI25" s="136"/>
+      <c r="AJ25" s="137"/>
+      <c r="AK25" s="126"/>
+      <c r="AL25" s="127"/>
+      <c r="AM25" s="127"/>
+      <c r="AN25" s="127"/>
+      <c r="AO25" s="127"/>
+      <c r="AP25" s="127"/>
+      <c r="AQ25" s="127"/>
+      <c r="AR25" s="99"/>
+      <c r="AS25" s="99"/>
+      <c r="AT25" s="100"/>
+      <c r="AU25" s="126"/>
+      <c r="AV25" s="127"/>
+      <c r="AW25" s="127"/>
+      <c r="AX25" s="127"/>
+      <c r="AY25" s="127"/>
+      <c r="AZ25" s="127"/>
+      <c r="BA25" s="127"/>
+      <c r="BB25" s="127"/>
+      <c r="BC25" s="127"/>
+      <c r="BD25" s="128"/>
+      <c r="BE25" s="126"/>
+      <c r="BF25" s="127"/>
+      <c r="BG25" s="127"/>
+      <c r="BH25" s="127"/>
+      <c r="BI25" s="127"/>
+      <c r="BJ25" s="127"/>
+      <c r="BK25" s="127"/>
+      <c r="BL25" s="127"/>
+      <c r="BM25" s="127"/>
+      <c r="BN25" s="127"/>
+      <c r="BO25" s="127"/>
+      <c r="BP25" s="128"/>
+      <c r="BQ25" s="129"/>
+      <c r="BR25" s="130"/>
+      <c r="BS25" s="130"/>
+      <c r="BT25" s="130"/>
+      <c r="BU25" s="130"/>
+      <c r="BV25" s="130"/>
+      <c r="BW25" s="130"/>
+      <c r="BX25" s="130"/>
+      <c r="BY25" s="130"/>
+      <c r="BZ25" s="130"/>
+      <c r="CA25" s="130"/>
+      <c r="CB25" s="130"/>
+      <c r="CC25" s="130"/>
+      <c r="CD25" s="130"/>
+      <c r="CE25" s="130"/>
+      <c r="CF25" s="130"/>
+      <c r="CG25" s="130"/>
+      <c r="CH25" s="130"/>
+      <c r="CI25" s="131"/>
     </row>
     <row r="26" spans="2:87" ht="18" customHeight="1">
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="105"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="111"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="105"/>
-      <c r="AD26" s="105"/>
-      <c r="AE26" s="105"/>
-      <c r="AF26" s="105"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="111"/>
-      <c r="AJ26" s="112"/>
-      <c r="AK26" s="104"/>
-      <c r="AL26" s="105"/>
-      <c r="AM26" s="105"/>
-      <c r="AN26" s="105"/>
-      <c r="AO26" s="105"/>
-      <c r="AP26" s="105"/>
-      <c r="AQ26" s="105"/>
-      <c r="AR26" s="73"/>
-      <c r="AS26" s="73"/>
-      <c r="AT26" s="74"/>
-      <c r="AU26" s="104"/>
-      <c r="AV26" s="105"/>
-      <c r="AW26" s="105"/>
-      <c r="AX26" s="105"/>
-      <c r="AY26" s="105"/>
-      <c r="AZ26" s="105"/>
-      <c r="BA26" s="105"/>
-      <c r="BB26" s="105"/>
-      <c r="BC26" s="105"/>
-      <c r="BD26" s="106"/>
-      <c r="BE26" s="104"/>
-      <c r="BF26" s="105"/>
-      <c r="BG26" s="105"/>
-      <c r="BH26" s="105"/>
-      <c r="BI26" s="105"/>
-      <c r="BJ26" s="105"/>
-      <c r="BK26" s="105"/>
-      <c r="BL26" s="105"/>
-      <c r="BM26" s="105"/>
-      <c r="BN26" s="105"/>
-      <c r="BO26" s="105"/>
-      <c r="BP26" s="106"/>
-      <c r="BQ26" s="107"/>
-      <c r="BR26" s="108"/>
-      <c r="BS26" s="108"/>
-      <c r="BT26" s="108"/>
-      <c r="BU26" s="108"/>
-      <c r="BV26" s="108"/>
-      <c r="BW26" s="108"/>
-      <c r="BX26" s="108"/>
-      <c r="BY26" s="108"/>
-      <c r="BZ26" s="108"/>
-      <c r="CA26" s="108"/>
-      <c r="CB26" s="108"/>
-      <c r="CC26" s="108"/>
-      <c r="CD26" s="108"/>
-      <c r="CE26" s="108"/>
-      <c r="CF26" s="108"/>
-      <c r="CG26" s="108"/>
-      <c r="CH26" s="108"/>
-      <c r="CI26" s="109"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="136"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="126"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="127"/>
+      <c r="AF26" s="127"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="126"/>
+      <c r="AI26" s="127"/>
+      <c r="AJ26" s="128"/>
+      <c r="AK26" s="126"/>
+      <c r="AL26" s="127"/>
+      <c r="AM26" s="127"/>
+      <c r="AN26" s="127"/>
+      <c r="AO26" s="127"/>
+      <c r="AP26" s="127"/>
+      <c r="AQ26" s="127"/>
+      <c r="AR26" s="99"/>
+      <c r="AS26" s="99"/>
+      <c r="AT26" s="100"/>
+      <c r="AU26" s="126"/>
+      <c r="AV26" s="127"/>
+      <c r="AW26" s="127"/>
+      <c r="AX26" s="127"/>
+      <c r="AY26" s="127"/>
+      <c r="AZ26" s="127"/>
+      <c r="BA26" s="127"/>
+      <c r="BB26" s="127"/>
+      <c r="BC26" s="127"/>
+      <c r="BD26" s="128"/>
+      <c r="BE26" s="126"/>
+      <c r="BF26" s="127"/>
+      <c r="BG26" s="127"/>
+      <c r="BH26" s="127"/>
+      <c r="BI26" s="127"/>
+      <c r="BJ26" s="127"/>
+      <c r="BK26" s="127"/>
+      <c r="BL26" s="127"/>
+      <c r="BM26" s="127"/>
+      <c r="BN26" s="127"/>
+      <c r="BO26" s="127"/>
+      <c r="BP26" s="128"/>
+      <c r="BQ26" s="138"/>
+      <c r="BR26" s="139"/>
+      <c r="BS26" s="139"/>
+      <c r="BT26" s="139"/>
+      <c r="BU26" s="139"/>
+      <c r="BV26" s="139"/>
+      <c r="BW26" s="139"/>
+      <c r="BX26" s="139"/>
+      <c r="BY26" s="139"/>
+      <c r="BZ26" s="139"/>
+      <c r="CA26" s="139"/>
+      <c r="CB26" s="139"/>
+      <c r="CC26" s="139"/>
+      <c r="CD26" s="139"/>
+      <c r="CE26" s="139"/>
+      <c r="CF26" s="139"/>
+      <c r="CG26" s="139"/>
+      <c r="CH26" s="139"/>
+      <c r="CI26" s="140"/>
     </row>
-    <row r="27" spans="2:87" ht="18.75" customHeight="1">
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="93"/>
-      <c r="AG27" s="94"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="93"/>
-      <c r="AJ27" s="94"/>
-      <c r="AK27" s="92"/>
-      <c r="AL27" s="93"/>
-      <c r="AM27" s="93"/>
-      <c r="AN27" s="93"/>
-      <c r="AO27" s="93"/>
-      <c r="AP27" s="93"/>
-      <c r="AQ27" s="93"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="74"/>
-      <c r="AU27" s="92"/>
-      <c r="AV27" s="93"/>
-      <c r="AW27" s="93"/>
-      <c r="AX27" s="93"/>
-      <c r="AY27" s="93"/>
-      <c r="AZ27" s="93"/>
-      <c r="BA27" s="93"/>
-      <c r="BB27" s="93"/>
-      <c r="BC27" s="93"/>
-      <c r="BD27" s="94"/>
-      <c r="BE27" s="92"/>
-      <c r="BF27" s="93"/>
-      <c r="BG27" s="93"/>
-      <c r="BH27" s="93"/>
-      <c r="BI27" s="93"/>
-      <c r="BJ27" s="93"/>
-      <c r="BK27" s="93"/>
-      <c r="BL27" s="93"/>
-      <c r="BM27" s="93"/>
-      <c r="BN27" s="93"/>
-      <c r="BO27" s="93"/>
-      <c r="BP27" s="94"/>
-      <c r="BQ27" s="95"/>
-      <c r="BR27" s="96"/>
-      <c r="BS27" s="96"/>
-      <c r="BT27" s="96"/>
-      <c r="BU27" s="96"/>
-      <c r="BV27" s="96"/>
-      <c r="BW27" s="96"/>
-      <c r="BX27" s="96"/>
-      <c r="BY27" s="96"/>
-      <c r="BZ27" s="96"/>
-      <c r="CA27" s="96"/>
-      <c r="CB27" s="96"/>
-      <c r="CC27" s="96"/>
-      <c r="CD27" s="96"/>
-      <c r="CE27" s="96"/>
-      <c r="CF27" s="96"/>
-      <c r="CG27" s="96"/>
-      <c r="CH27" s="96"/>
-      <c r="CI27" s="97"/>
+    <row r="27" spans="2:87" ht="18" customHeight="1">
+      <c r="B27" s="132"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="145"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="136"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="144"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="145"/>
+      <c r="AG27" s="146"/>
+      <c r="AH27" s="135"/>
+      <c r="AI27" s="136"/>
+      <c r="AJ27" s="137"/>
+      <c r="AK27" s="126"/>
+      <c r="AL27" s="127"/>
+      <c r="AM27" s="127"/>
+      <c r="AN27" s="127"/>
+      <c r="AO27" s="127"/>
+      <c r="AP27" s="127"/>
+      <c r="AQ27" s="127"/>
+      <c r="AR27" s="99"/>
+      <c r="AS27" s="99"/>
+      <c r="AT27" s="100"/>
+      <c r="AU27" s="126"/>
+      <c r="AV27" s="127"/>
+      <c r="AW27" s="127"/>
+      <c r="AX27" s="127"/>
+      <c r="AY27" s="127"/>
+      <c r="AZ27" s="127"/>
+      <c r="BA27" s="127"/>
+      <c r="BB27" s="127"/>
+      <c r="BC27" s="127"/>
+      <c r="BD27" s="128"/>
+      <c r="BE27" s="126"/>
+      <c r="BF27" s="127"/>
+      <c r="BG27" s="127"/>
+      <c r="BH27" s="127"/>
+      <c r="BI27" s="127"/>
+      <c r="BJ27" s="127"/>
+      <c r="BK27" s="127"/>
+      <c r="BL27" s="127"/>
+      <c r="BM27" s="127"/>
+      <c r="BN27" s="127"/>
+      <c r="BO27" s="127"/>
+      <c r="BP27" s="128"/>
+      <c r="BQ27" s="141"/>
+      <c r="BR27" s="142"/>
+      <c r="BS27" s="142"/>
+      <c r="BT27" s="142"/>
+      <c r="BU27" s="142"/>
+      <c r="BV27" s="142"/>
+      <c r="BW27" s="142"/>
+      <c r="BX27" s="142"/>
+      <c r="BY27" s="142"/>
+      <c r="BZ27" s="142"/>
+      <c r="CA27" s="142"/>
+      <c r="CB27" s="142"/>
+      <c r="CC27" s="142"/>
+      <c r="CD27" s="142"/>
+      <c r="CE27" s="142"/>
+      <c r="CF27" s="142"/>
+      <c r="CG27" s="142"/>
+      <c r="CH27" s="142"/>
+      <c r="CI27" s="143"/>
     </row>
-    <row r="28" spans="2:87" ht="18.75" thickBot="1">
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="77"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="89"/>
-      <c r="AK28" s="75"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="76"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="76"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="90"/>
-      <c r="AS28" s="90"/>
-      <c r="AT28" s="91"/>
-      <c r="AU28" s="75"/>
-      <c r="AV28" s="76"/>
-      <c r="AW28" s="76"/>
-      <c r="AX28" s="76"/>
-      <c r="AY28" s="76"/>
-      <c r="AZ28" s="76"/>
-      <c r="BA28" s="76"/>
-      <c r="BB28" s="76"/>
-      <c r="BC28" s="76"/>
-      <c r="BD28" s="77"/>
-      <c r="BE28" s="75"/>
-      <c r="BF28" s="76"/>
-      <c r="BG28" s="76"/>
-      <c r="BH28" s="76"/>
-      <c r="BI28" s="76"/>
-      <c r="BJ28" s="76"/>
-      <c r="BK28" s="76"/>
-      <c r="BL28" s="76"/>
-      <c r="BM28" s="76"/>
-      <c r="BN28" s="76"/>
-      <c r="BO28" s="76"/>
-      <c r="BP28" s="77"/>
-      <c r="BQ28" s="78"/>
-      <c r="BR28" s="79"/>
-      <c r="BS28" s="79"/>
-      <c r="BT28" s="79"/>
-      <c r="BU28" s="79"/>
-      <c r="BV28" s="79"/>
-      <c r="BW28" s="79"/>
-      <c r="BX28" s="79"/>
-      <c r="BY28" s="79"/>
-      <c r="BZ28" s="79"/>
-      <c r="CA28" s="79"/>
-      <c r="CB28" s="79"/>
-      <c r="CC28" s="79"/>
-      <c r="CD28" s="79"/>
-      <c r="CE28" s="79"/>
-      <c r="CF28" s="79"/>
-      <c r="CG28" s="79"/>
-      <c r="CH28" s="79"/>
-      <c r="CI28" s="80"/>
+    <row r="28" spans="2:87" ht="18" customHeight="1">
+      <c r="B28" s="132"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="146"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="151"/>
+      <c r="AA28" s="152"/>
+      <c r="AB28" s="144"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="146"/>
+      <c r="AH28" s="150"/>
+      <c r="AI28" s="151"/>
+      <c r="AJ28" s="152"/>
+      <c r="AK28" s="144"/>
+      <c r="AL28" s="145"/>
+      <c r="AM28" s="145"/>
+      <c r="AN28" s="145"/>
+      <c r="AO28" s="145"/>
+      <c r="AP28" s="145"/>
+      <c r="AQ28" s="145"/>
+      <c r="AR28" s="99"/>
+      <c r="AS28" s="99"/>
+      <c r="AT28" s="100"/>
+      <c r="AU28" s="144"/>
+      <c r="AV28" s="145"/>
+      <c r="AW28" s="145"/>
+      <c r="AX28" s="145"/>
+      <c r="AY28" s="145"/>
+      <c r="AZ28" s="145"/>
+      <c r="BA28" s="145"/>
+      <c r="BB28" s="145"/>
+      <c r="BC28" s="145"/>
+      <c r="BD28" s="146"/>
+      <c r="BE28" s="144"/>
+      <c r="BF28" s="145"/>
+      <c r="BG28" s="145"/>
+      <c r="BH28" s="145"/>
+      <c r="BI28" s="145"/>
+      <c r="BJ28" s="145"/>
+      <c r="BK28" s="145"/>
+      <c r="BL28" s="145"/>
+      <c r="BM28" s="145"/>
+      <c r="BN28" s="145"/>
+      <c r="BO28" s="145"/>
+      <c r="BP28" s="146"/>
+      <c r="BQ28" s="147"/>
+      <c r="BR28" s="148"/>
+      <c r="BS28" s="148"/>
+      <c r="BT28" s="148"/>
+      <c r="BU28" s="148"/>
+      <c r="BV28" s="148"/>
+      <c r="BW28" s="148"/>
+      <c r="BX28" s="148"/>
+      <c r="BY28" s="148"/>
+      <c r="BZ28" s="148"/>
+      <c r="CA28" s="148"/>
+      <c r="CB28" s="148"/>
+      <c r="CC28" s="148"/>
+      <c r="CD28" s="148"/>
+      <c r="CE28" s="148"/>
+      <c r="CF28" s="148"/>
+      <c r="CG28" s="148"/>
+      <c r="CH28" s="148"/>
+      <c r="CI28" s="149"/>
+    </row>
+    <row r="29" spans="2:87" ht="18.75" customHeight="1">
+      <c r="B29" s="132"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="136"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="126"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="127"/>
+      <c r="AE29" s="127"/>
+      <c r="AF29" s="127"/>
+      <c r="AG29" s="128"/>
+      <c r="AH29" s="126"/>
+      <c r="AI29" s="127"/>
+      <c r="AJ29" s="128"/>
+      <c r="AK29" s="126"/>
+      <c r="AL29" s="127"/>
+      <c r="AM29" s="127"/>
+      <c r="AN29" s="127"/>
+      <c r="AO29" s="127"/>
+      <c r="AP29" s="127"/>
+      <c r="AQ29" s="127"/>
+      <c r="AR29" s="99"/>
+      <c r="AS29" s="99"/>
+      <c r="AT29" s="100"/>
+      <c r="AU29" s="126"/>
+      <c r="AV29" s="127"/>
+      <c r="AW29" s="127"/>
+      <c r="AX29" s="127"/>
+      <c r="AY29" s="127"/>
+      <c r="AZ29" s="127"/>
+      <c r="BA29" s="127"/>
+      <c r="BB29" s="127"/>
+      <c r="BC29" s="127"/>
+      <c r="BD29" s="128"/>
+      <c r="BE29" s="126"/>
+      <c r="BF29" s="127"/>
+      <c r="BG29" s="127"/>
+      <c r="BH29" s="127"/>
+      <c r="BI29" s="127"/>
+      <c r="BJ29" s="127"/>
+      <c r="BK29" s="127"/>
+      <c r="BL29" s="127"/>
+      <c r="BM29" s="127"/>
+      <c r="BN29" s="127"/>
+      <c r="BO29" s="127"/>
+      <c r="BP29" s="128"/>
+      <c r="BQ29" s="129"/>
+      <c r="BR29" s="130"/>
+      <c r="BS29" s="130"/>
+      <c r="BT29" s="130"/>
+      <c r="BU29" s="130"/>
+      <c r="BV29" s="130"/>
+      <c r="BW29" s="130"/>
+      <c r="BX29" s="130"/>
+      <c r="BY29" s="130"/>
+      <c r="BZ29" s="130"/>
+      <c r="CA29" s="130"/>
+      <c r="CB29" s="130"/>
+      <c r="CC29" s="130"/>
+      <c r="CD29" s="130"/>
+      <c r="CE29" s="130"/>
+      <c r="CF29" s="130"/>
+      <c r="CG29" s="130"/>
+      <c r="CH29" s="130"/>
+      <c r="CI29" s="131"/>
+    </row>
+    <row r="30" spans="2:87" ht="18.75" thickBot="1">
+      <c r="B30" s="159"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="163"/>
+      <c r="Q30" s="163"/>
+      <c r="R30" s="163"/>
+      <c r="S30" s="163"/>
+      <c r="T30" s="163"/>
+      <c r="U30" s="163"/>
+      <c r="V30" s="163"/>
+      <c r="W30" s="163"/>
+      <c r="X30" s="164"/>
+      <c r="Y30" s="165"/>
+      <c r="Z30" s="166"/>
+      <c r="AA30" s="167"/>
+      <c r="AB30" s="153"/>
+      <c r="AC30" s="154"/>
+      <c r="AD30" s="154"/>
+      <c r="AE30" s="154"/>
+      <c r="AF30" s="154"/>
+      <c r="AG30" s="155"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="166"/>
+      <c r="AJ30" s="167"/>
+      <c r="AK30" s="153"/>
+      <c r="AL30" s="154"/>
+      <c r="AM30" s="154"/>
+      <c r="AN30" s="154"/>
+      <c r="AO30" s="154"/>
+      <c r="AP30" s="154"/>
+      <c r="AQ30" s="154"/>
+      <c r="AR30" s="168"/>
+      <c r="AS30" s="168"/>
+      <c r="AT30" s="169"/>
+      <c r="AU30" s="153"/>
+      <c r="AV30" s="154"/>
+      <c r="AW30" s="154"/>
+      <c r="AX30" s="154"/>
+      <c r="AY30" s="154"/>
+      <c r="AZ30" s="154"/>
+      <c r="BA30" s="154"/>
+      <c r="BB30" s="154"/>
+      <c r="BC30" s="154"/>
+      <c r="BD30" s="155"/>
+      <c r="BE30" s="153"/>
+      <c r="BF30" s="154"/>
+      <c r="BG30" s="154"/>
+      <c r="BH30" s="154"/>
+      <c r="BI30" s="154"/>
+      <c r="BJ30" s="154"/>
+      <c r="BK30" s="154"/>
+      <c r="BL30" s="154"/>
+      <c r="BM30" s="154"/>
+      <c r="BN30" s="154"/>
+      <c r="BO30" s="154"/>
+      <c r="BP30" s="155"/>
+      <c r="BQ30" s="156"/>
+      <c r="BR30" s="157"/>
+      <c r="BS30" s="157"/>
+      <c r="BT30" s="157"/>
+      <c r="BU30" s="157"/>
+      <c r="BV30" s="157"/>
+      <c r="BW30" s="157"/>
+      <c r="BX30" s="157"/>
+      <c r="BY30" s="157"/>
+      <c r="BZ30" s="157"/>
+      <c r="CA30" s="157"/>
+      <c r="CB30" s="157"/>
+      <c r="CC30" s="157"/>
+      <c r="CD30" s="157"/>
+      <c r="CE30" s="157"/>
+      <c r="CF30" s="157"/>
+      <c r="CG30" s="157"/>
+      <c r="CH30" s="157"/>
+      <c r="CI30" s="158"/>
     </row>
   </sheetData>
-  <mergeCells count="213">
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="AU8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
+  <mergeCells count="231">
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU30:BD30"/>
+    <mergeCell ref="BE30:BP30"/>
+    <mergeCell ref="BQ30:CI30"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AG30"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="AK30:AT30"/>
+    <mergeCell ref="AU29:BD29"/>
+    <mergeCell ref="BE29:BP29"/>
+    <mergeCell ref="BQ29:CI29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AG29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="AK29:AT29"/>
+    <mergeCell ref="AU28:BD28"/>
+    <mergeCell ref="BE28:BP28"/>
+    <mergeCell ref="BQ28:CI28"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="AK28:AT28"/>
+    <mergeCell ref="AU27:BD27"/>
+    <mergeCell ref="BE27:BP27"/>
+    <mergeCell ref="BQ27:CI27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="AK27:AT27"/>
+    <mergeCell ref="AU26:BD26"/>
+    <mergeCell ref="BE26:BP26"/>
+    <mergeCell ref="BQ26:CI26"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:AT26"/>
+    <mergeCell ref="AU25:BD25"/>
+    <mergeCell ref="BE25:BP25"/>
+    <mergeCell ref="BQ25:CI25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:AT25"/>
+    <mergeCell ref="AU23:BD23"/>
+    <mergeCell ref="BE23:BP23"/>
+    <mergeCell ref="BQ23:CI23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AU24:BD24"/>
+    <mergeCell ref="BE24:BP24"/>
+    <mergeCell ref="BQ24:CI24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -12009,177 +12418,26 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="AU24:BD24"/>
-    <mergeCell ref="BE24:BP24"/>
-    <mergeCell ref="BQ24:CI24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AU25:BD25"/>
-    <mergeCell ref="BE25:BP25"/>
-    <mergeCell ref="BQ25:CI25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:AT25"/>
-    <mergeCell ref="AU26:BD26"/>
-    <mergeCell ref="BE26:BP26"/>
-    <mergeCell ref="BQ26:CI26"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AU27:BD27"/>
-    <mergeCell ref="BE27:BP27"/>
-    <mergeCell ref="BQ27:CI27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="AK27:AT27"/>
-    <mergeCell ref="AU28:BD28"/>
-    <mergeCell ref="BE28:BP28"/>
-    <mergeCell ref="BQ28:CI28"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="AK28:AT28"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="AU8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
